--- a/crawling_data/1_50.xlsx
+++ b/crawling_data/1_50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="707">
   <si>
     <t>path</t>
   </si>
@@ -31,1801 +31,2111 @@
     <t>content</t>
   </si>
   <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002685160</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=009&amp;aid=0004819452</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=031&amp;aid=0000608787</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=648&amp;aid=0000002175</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=011&amp;aid=0003932408</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002226791</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=031&amp;aid=0000608724</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=277&amp;aid=0004932066</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002106278</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002955581</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=018&amp;aid=0004975811</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=001&amp;aid=0012504203</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=002&amp;aid=0002198123</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=277&amp;aid=0004931915</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0005457097</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=016&amp;aid=0001857036</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002226749</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002955481</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=119&amp;aid=0002508014</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=417&amp;aid=0000711536</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=016&amp;aid=0001856903</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=004&amp;oid=023&amp;aid=0003624270</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002684844</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004611119</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004611108</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002955222</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=022&amp;aid=0003596703</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=022&amp;aid=0003596693</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002684642</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=468&amp;aid=0000777125</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=468&amp;aid=0000777120</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004610748</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=417&amp;aid=0000710969</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=002&amp;aid=0002197772</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010584942</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=079&amp;aid=0003523540</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=014&amp;aid=0004667733</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010584649</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=629&amp;aid=0000092486</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=014&amp;aid=0004667584</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=025&amp;aid=0003114754</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=469&amp;aid=0000614620</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005451501</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010583894</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=088&amp;aid=0000710305</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002954841</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=005&amp;aid=0001452539</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010583326</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004930178</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=100&amp;oid=018&amp;aid=0004972961</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=014&amp;aid=0004667220</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002106096</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=081&amp;aid=0003198397</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=029&amp;aid=0002684349</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=016&amp;aid=0001855679</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=009&amp;aid=0004817592</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004609977</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004609975</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005449900</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=119&amp;aid=0002507031</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=417&amp;aid=0000710403</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=018&amp;aid=0004972739</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=016&amp;aid=0001855570</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=123&amp;aid=0002249313</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=082&amp;aid=0001103397</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=366&amp;aid=0000741192</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005449640</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012496335</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002226414</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002954553</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=009&amp;aid=0004817176</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002684129</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=015&amp;aid=0004570801</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=015&amp;aid=0004570798</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=015&amp;aid=0004570797</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=018&amp;aid=0004972132</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004666581</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002954498</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=004&amp;oid=123&amp;aid=0002249262</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=011&amp;aid=0003930366</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0012494867</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=082&amp;aid=0001103189</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002954389</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=243&amp;aid=0000014113</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002954360</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004570539</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=016&amp;aid=0001855089</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=293&amp;aid=0000035350</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002105996</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=374&amp;aid=0000249262</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002683984</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=468&amp;aid=0000776722</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=029&amp;aid=0002683978</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=014&amp;aid=0004666281</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=082&amp;aid=0001103050</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=011&amp;aid=0003930184</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=031&amp;aid=0000607723</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=018&amp;aid=0004971766</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=366&amp;aid=0000740593</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005446924</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=119&amp;aid=0002506630</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0010580017</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=417&amp;aid=0000709893</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=277&amp;aid=0004929158</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004609240</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0012493647</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=629&amp;aid=0000091991</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=031&amp;aid=0000607688</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0010579760</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=021&amp;aid=0002476503</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=018&amp;aid=0004971460</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=081&amp;aid=0003197936</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=005&amp;aid=0001452032</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=020&amp;aid=0003367110</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=020&amp;aid=0003367090</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=020&amp;aid=0003367126</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0010579358</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=025&amp;aid=0003114143</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=469&amp;aid=0000614156</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=011&amp;aid=0003929945</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=022&amp;aid=0003595398</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=014&amp;aid=0004665813</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=009&amp;aid=0004816539</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=009&amp;aid=0004816525</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004570130</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=421&amp;aid=0005445784</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=025&amp;aid=0003113991</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=014&amp;aid=0004665761</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004608857</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=014&amp;aid=0004665741</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002954204</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004928715</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002226255</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004608822</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=021&amp;aid=0002476478</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002954177</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=110&amp;oid=030&amp;aid=0002954187</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=031&amp;aid=0000607545</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=031&amp;aid=0000607544</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=018&amp;aid=0004971112</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0005445011</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002954140</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002954131</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=082&amp;aid=0001102737</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002954121</t>
-  </si>
-  <si>
-    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002954113</t>
-  </si>
-  <si>
-    <t>임혜숙 "디지털뉴딜 성과 가속화… AI·SW인재 집중양성"</t>
-  </si>
-  <si>
-    <t>AI·SW인재 키우고 디지털 뉴딜 성과낼 것</t>
-  </si>
-  <si>
-    <t>[과학게시판] 연구실 안전법 공청회 外</t>
-  </si>
-  <si>
-    <t>임혜숙 장관, 취임 첫 간담회서 '네카라쿠배' 언급한 이유</t>
-  </si>
-  <si>
-    <t>임혜숙 과기부 장관 "민관학 플랫폼으로 ICT 인재 키우겠다"</t>
-  </si>
-  <si>
-    <t>"디지털 뉴딜 최우선…디지털포용+SW인재육성도 중요"</t>
-  </si>
-  <si>
-    <t>[일문일답] 임혜숙 장관 "'SW·AI·과학 우수인재' 적극 육성"</t>
-  </si>
-  <si>
-    <t>[일문일답]"네·카·라·쿠·배에 취업할 젊은 인재들 양성에 총력"</t>
-  </si>
-  <si>
-    <t>임혜숙 장관, 5G 28GHz 통신3사 공동구축 “좋은 아이디어 아냐”</t>
-  </si>
-  <si>
-    <t>임혜숙 과기정통부 장관 "국가 디지털 대전환에 총력"···R&amp;D 혁신·코로나19 극복</t>
-  </si>
-  <si>
-    <t>한전KDN, 섬으로 찾아가는 AI·SW코딩캠프 시행</t>
-  </si>
-  <si>
-    <t>[일문일답] 임혜숙 과기장관 "28㎓ 5G 공동구축, 좋은 아이디어 아냐"</t>
-  </si>
-  <si>
-    <t>한전KDN, 신안군 초교서 ‘AI·SW 코딩캠프’ 시행</t>
-  </si>
-  <si>
-    <t>국립중앙과학관 여름방학 과학교실·캠프 참가자 모집</t>
-  </si>
-  <si>
-    <t>국립중앙과학관, 여름방학 과학교실·과학캠프 운영</t>
-  </si>
-  <si>
-    <t>개정 노조법·주52시간제 확대...‘V자 경제회복’ 발목 잡나 [친노동정부 리스크 비상]</t>
-  </si>
-  <si>
-    <t>한전KDN, 섬으로 찾아가는 AI·SW 코딩캠프 시행</t>
-  </si>
-  <si>
-    <t>테크빌교육, 글로브포인트와 VR교육의 공교육 시장 진출을 위한 MOU 체결</t>
-  </si>
-  <si>
-    <t>한전KDN, 2021 섬으로 찾아가는 AI·SW코딩캠프 시행</t>
-  </si>
-  <si>
-    <t>한전KDN, 신안 비금·도초서 AI·SW코딩캠프</t>
-  </si>
-  <si>
-    <t>개정 노조법, 주52시간제 확대…‘V자형’ 경제회복 걸림돌 우려 [친노동정부 리스크 비상]</t>
-  </si>
-  <si>
-    <t>‘디지털 신기술 혁신공유대학’ 선정, 바이오헬스 분야 핵심 인재 키운다</t>
-  </si>
-  <si>
-    <t>"세계 1등 `동기부여 앱` 목표… 세계인의 `열정 서포터즈` 될래요"</t>
-  </si>
-  <si>
-    <t>정부부처 주간일정 및 보도계획(5~9일)</t>
-  </si>
-  <si>
-    <t>대스타 해결사 플랫폼, 제1탄 공모전 신청 일주일 연장</t>
-  </si>
-  <si>
-    <t>조선대 SW중심대학사업단, '장애인 맞춤형 창업특화교육' 업무협약</t>
-  </si>
-  <si>
-    <t>전격 시행된 주52시간제… 정부 지원책은?</t>
-  </si>
-  <si>
-    <t>네이버 커넥트재단, ‘소프트웨어야 놀자’ AI 윤리 교재 발간</t>
-  </si>
-  <si>
-    <t>[조달청 입찰정보]주간 신기술·서비스 용역</t>
-  </si>
-  <si>
-    <t>전남교육청, 한전KDN-조선대 연계 찾아가는 AI·SW 교육 실시</t>
-  </si>
-  <si>
-    <t>광주시교육청, 전체학교 일반교실 무선망 구축 완료</t>
-  </si>
-  <si>
-    <t>전남교육청, 섬으로 찾아가는 AI·SW교육 실시</t>
-  </si>
-  <si>
-    <t>광주광역시교육청, 초·중·고 전체학교 무선망 구축</t>
-  </si>
-  <si>
-    <t>광주시교육청, 전체학교 일반교실 무선망 구축 마쳐</t>
-  </si>
-  <si>
-    <t>[교육소식]배재대 AI·SW사업단, 비전공 교수 데이터분석 교육 등</t>
-  </si>
-  <si>
-    <t>광주시교육청, 초·중·고 전체 학교 무선망 구축 완료</t>
-  </si>
-  <si>
-    <t>광주광역시교육청, 전체 학교 일반교실에 무선망 구축 완료</t>
-  </si>
-  <si>
-    <t>광주교육청, 7924개 일반교실 무선망 구축 완료…132억 들여</t>
-  </si>
-  <si>
-    <t>"온·오프라인 혼합 수업 全교실 구축, 올해 안에 끝낸다"</t>
-  </si>
-  <si>
-    <t>국민대, 제6회 국민대학교 알고리즘대회 개최</t>
-  </si>
-  <si>
-    <t>중요한 건 '청년+고용'… 주거비 지원하고 일자리 16만개 창출</t>
-  </si>
-  <si>
-    <t>기재차관 "양질 일자리 창출·직업훈련 개편에 내년 예산 중점"</t>
-  </si>
-  <si>
-    <t>김석준 부산교육감 "블렌디드러닝 사업 차질없이 완료하겠다"</t>
-  </si>
-  <si>
-    <t>여름방학 수학, 과학, 정보 융합 교실 운영</t>
-  </si>
-  <si>
-    <t>광주정보문화산업진흥원, '호남ICT콤플렉스 온라인 코딩대회' 개최</t>
-  </si>
-  <si>
-    <t>김석준 부산교육감 “부산교육을 미래교육으로 대전환”</t>
-  </si>
-  <si>
-    <t>'이준석 병역 의혹' 서울경찰청 반부패수사대가 수사</t>
-  </si>
-  <si>
-    <t>“미래교육 전환, 2학기 전면 등교, 유치원 무상급식” 김석준 부산교육감, 재선 3주년 기자회견</t>
-  </si>
-  <si>
-    <t>이준석 '병역 특혜' 의혹, 서울청 수사 착수</t>
-  </si>
-  <si>
-    <t>"부산교육 미래교육 전환, 2학기 전면 등교 준비 총력"</t>
-  </si>
-  <si>
-    <t>이노베이션 아카데미-메가존클라우드, 개발자 양성 및 생태계 활성화 위해 맞손</t>
-  </si>
-  <si>
-    <t>‘이준석 병역비리 의혹’ 서울청 반부패수사대가 수사한다</t>
-  </si>
-  <si>
-    <t>(주)무하유 LMS API 연동형 표절검사 ‘CK브릿지’, 신SW 상품대상 장관상 수상</t>
-  </si>
-  <si>
-    <t>일자리 16만4000개 창출...지역상품권 확대</t>
-  </si>
-  <si>
-    <t>[단독] '이준석 병역법 위반' 서울청이 수사</t>
-  </si>
-  <si>
-    <t>국민대, '제6회 국민대 알고리즘 대회' 진행</t>
-  </si>
-  <si>
-    <t>아이퀘스트, SW개발보안 전문기업 ㈜트리니티소프트 인수</t>
-  </si>
-  <si>
-    <t>삼성전자 "혁신 스타트업 지원한다"…C랩 아웃사이드 공모 진행</t>
-  </si>
-  <si>
-    <t>文정부 추경으로 일자리 만든다더니…방역·노인일자리가 '6할'</t>
-  </si>
-  <si>
-    <t>40만명 이상 고용 조기회복 총력 지원한다… 1조1000억 투입</t>
-  </si>
-  <si>
-    <t>‘고용 훈풍 부채질’…40만명 일자리 지원에 1.1조원 추가 투입</t>
-  </si>
-  <si>
-    <t>신규일자리 16만4000개 창출…지역상품권 발행 확대 [2차 추경]</t>
-  </si>
-  <si>
-    <t>[2021년 2차 추경] 1인 25만원, 4인 가구땐 100만원…'5차 재난금' 푼다</t>
-  </si>
-  <si>
-    <t>1인당 25만원 재난지원금, 소상공인 최대 900만원 지급</t>
-  </si>
-  <si>
-    <t>추경 일자리 70%가 ‘세금 알바'…청년 ‘사다리 대책’은 “걷어차기 대책” 비판도</t>
-  </si>
-  <si>
-    <t>정부 역대급 '33조원 슈퍼추경' 의결…재정 풀어 소비‧고용 살린다</t>
-  </si>
-  <si>
-    <t>[2차 추경] 1조1천억원 투입해 40만명 이상 고용 지원</t>
-  </si>
-  <si>
-    <t>신승호 타임게이트 새 대표 취임···"2026년 매출 1000억에 이익 100억 달성"</t>
-  </si>
-  <si>
-    <t>슈퍼트랙, 메이크엑스 2021 코리아 개최…모집 시작</t>
-  </si>
-  <si>
-    <t>청소년 SW 꿈나무 육성…삼성전자, 창작대회 개최</t>
-  </si>
-  <si>
-    <t>이노베이션아카데미-메가존클라우드, 디지털 인재육성 손 잡았다</t>
-  </si>
-  <si>
-    <t>서울대 총장도 KAIST 총장도…"AI·SW 과목, 대입에 반영하라"</t>
-  </si>
-  <si>
-    <t>"AI 배우려는 학생 많은데…가르칠 교사와 시간 태부족"</t>
-  </si>
-  <si>
-    <t>주요국 SW교육, 韓보다 5년 앞섰다</t>
-  </si>
-  <si>
-    <t>이노베이션 아카데미, 메가존클라우드와 업무협약</t>
-  </si>
-  <si>
-    <t>‘이노베이션 아카데미'  메가존클라우드와 업무협약</t>
-  </si>
-  <si>
-    <t>[SW개발보안, 디지털뉴딜 시작]〈하〉중기 SW보안약점 진단, 정부 지원 내용은?</t>
-  </si>
-  <si>
-    <t>삼성전자, 청소년 대상 2021 주니어 SW 창작대회 게최</t>
-  </si>
-  <si>
-    <t>동명대, 美캘리포니아주립대와 웹기술 비대면 융합교육 운영</t>
-  </si>
-  <si>
-    <t>동명대 미국 캘리포니아주립대 6주간 비대면 SW융합교육</t>
-  </si>
-  <si>
-    <t>동명대-美캘리포니아주립대 웹기술 비대면 융합교육</t>
-  </si>
-  <si>
-    <t>삼성전자, '2021 삼성 주니어 SW 창작대회' 개최</t>
-  </si>
-  <si>
-    <t>“10% 아닌 90%를 위한 교육시스템 만들어야 할 때”</t>
-  </si>
-  <si>
-    <t>네이버 커넥트재단, 인공지능 윤리 교재 발간… 무료 배포</t>
-  </si>
-  <si>
-    <t>4차 산업혁명 전초기지…창업 인재 쏟아내는 한국폴리텍대학</t>
-  </si>
-  <si>
-    <t>삼성전자, 미래 소프트웨어 인재 발굴 ‘주니어 SW 창작대회’</t>
-  </si>
-  <si>
-    <t>삼성전자, 삼성 주니어 소프트웨어 창작대회 온라인 개최</t>
-  </si>
-  <si>
-    <t>네이버 커넥트재단, 소프트웨어야 놀자 AI 윤리 교재 발간</t>
-  </si>
-  <si>
-    <t>삼성전자, 청소년 인재 육성…SW 창작대회 개최</t>
-  </si>
-  <si>
-    <t>인프라닉스, 클라우드 인프라 관리서비스 ‘승부수’</t>
-  </si>
-  <si>
-    <t>'2021 삼성 주니어 SW 창작대회' 개최, 소프트웨어 인재발굴 경진대회</t>
-  </si>
-  <si>
-    <t>삼성전자 오늘부터 `주니어 SW 창작대회`</t>
-  </si>
-  <si>
-    <t>"청소년 SW 꿈나무 육성" 삼성전자, 7번째 '주니어 SW 창작대회' 개최</t>
-  </si>
-  <si>
-    <t>삼성전자, 7월부터 '삼성 주니어 SW 창작대회' 열어</t>
-  </si>
-  <si>
-    <t>삼성전자, 2021 삼성 주니어 SW 창작대회 개최</t>
-  </si>
-  <si>
-    <t>인재육성 힘쓰는 삼성전자…'삼성 주니어 SW 창작대회' 개최</t>
-  </si>
-  <si>
-    <t>"소프트웨어 꿈나무 발굴"…'2021 삼성 주니어 SW 창작대회' 개최</t>
-  </si>
-  <si>
-    <t>삼성전자, 소프트웨어 인재 발굴 ‘삼성 주니어 SW 창작대회’ 개최</t>
-  </si>
-  <si>
-    <t>삼성전자, 전국 청소년 대상 '주니어 SW창작대회' 개최</t>
-  </si>
-  <si>
-    <t>미래 소프트웨어 인재 키운다… '삼성 주니어 SW 창작대회' 개최</t>
-  </si>
-  <si>
-    <t>삼성전자, 청소년 소프트웨어 경진 '주니어 SW 창작대회' 개최</t>
-  </si>
-  <si>
-    <t>소프트웨어 꿈나무 모여라…삼성, 주니어 SW 창작대회 개최</t>
-  </si>
-  <si>
-    <t>삼성전자 '2021 삼성 주니어 SW 창작대회' 개최</t>
-  </si>
-  <si>
-    <t>삼성전자, 소프트웨어 인재 발굴·육성 위한 경진대회 연다</t>
-  </si>
-  <si>
-    <t>네이버 커넥트재단, '소프트웨어야 놀자' AI 윤리 교재 발간</t>
-  </si>
-  <si>
-    <t>[교육소식]부산학생교육문화회관, 시설 재구조화·새단장 등</t>
-  </si>
-  <si>
-    <t>한국외대, 전국 5개 권역서 ‘ALL-IN ONE 설명회’</t>
-  </si>
-  <si>
-    <t>[목멱칼럼]알파벳처럼 다가온 인공지능시대</t>
-  </si>
-  <si>
-    <t>‘취업률 68%’ 삼성 청년SW아카데미 교육생 2배 확대</t>
-  </si>
-  <si>
-    <t>삼성 청년SW아카데미, 내년 교육생 대폭 늘린다</t>
-  </si>
-  <si>
-    <t>삼성, 취업률 70% ‘IT 인재양성 프로그램’ 두배이상으로 늘린다</t>
-  </si>
-  <si>
-    <t>“부울경 연계 강화 총력… ‘청년이 살고 싶은 더 큰 경남’ 만들 것”</t>
-  </si>
-  <si>
-    <t>청년 취업-스타트업 창업 돕고 중소기업과 ‘상생’</t>
-  </si>
-  <si>
-    <t>이재용, 청년 디지털 인재 年 2000명 키운다(종합)</t>
-  </si>
-  <si>
-    <t>[Biz &amp; Now] 삼성 청년SW아카데미 규모 대폭 확대…정부·대한상의도 참여</t>
-  </si>
-  <si>
-    <t>삼성, 비전공자도 개발자 만들어주는 'SW아카데미' 교육생 두배 늘린다</t>
-  </si>
-  <si>
-    <t>정부, 이재용의 '동행비전 SSAFY' 동참···디지털 인재 키운다</t>
-  </si>
-  <si>
-    <t>“IT 미래 역군 육성”… 기업들, 인재 양성 프로그램 확대 박차</t>
-  </si>
-  <si>
-    <t>이재용 직접 챙긴 SW 인재 육성, 정부 손잡고  2배 더 키운다</t>
-  </si>
-  <si>
-    <t>삼성전자, 디지털인재 육성 2배 늘린다</t>
-  </si>
-  <si>
-    <t>"취준생 희소식"…이재용 공들인 SW사관학교 年 2000명 뽑는다</t>
-  </si>
-  <si>
-    <t>취업률 70%…이재용이 직접 챙긴 삼성 SW교육 정원 확 늘린다</t>
-  </si>
-  <si>
-    <t>건설연, 창업 기업 위한 '스마트 건설 지원 제2센터' 착공</t>
-  </si>
-  <si>
-    <t>“정부+상의+삼성 힘 합쳤다” 연 2300명 뽑아 월 100만원 주고 SW 교육</t>
-  </si>
-  <si>
-    <t>삼성, 정부와 SW인재 年 2300명 육성...68% 취업</t>
-  </si>
-  <si>
-    <t>삼성·SK·포스코 반도체,소프트웨어 인재 육성 2배 늘린다</t>
-  </si>
-  <si>
-    <t>韓 스타트업 창업 '대중화'됐지만 내실화·고도화는 아쉬워</t>
-  </si>
-  <si>
-    <t>건기연, '스마트건설지원센터' 제2센터 착공...창업 기업 상상 채운다</t>
-  </si>
-  <si>
-    <t>동의대, 로봇 대학으로 간다</t>
-  </si>
-  <si>
-    <t>"한국 창업 대중화 성공...내실화는 아직"</t>
-  </si>
-  <si>
-    <t>(재)미래와소프트웨어-(사)한국정보처리학회, '운당 학술상' 제정·후원협약식  진행</t>
-  </si>
-  <si>
-    <t>미래와 소프트웨어-한국정보처리학회 ‘운당 학술상’ 제정 및 후원 협약식</t>
-  </si>
-  <si>
-    <t>[산업DX변화추진자]"산업 DX, 기업 생존 위한 필수 조건”</t>
-  </si>
-  <si>
-    <t>[미래포럼]대응 필요한 'SW전략물자관리제도'</t>
-  </si>
-  <si>
-    <t>"창의적 과학인재 양성 위해 수학역량 강화 지원"</t>
-  </si>
-  <si>
-    <t>정부 손잡은 삼성…'이재용 SW 키즈' 2배 더 키운다</t>
-  </si>
-  <si>
-    <t>삼성전자, 지난해 ‘코로나 위기’ 속 사회공헌 지출 규모 유지</t>
-  </si>
-  <si>
-    <t>좁은 취업문 뚫어줄 키워드 '풀스택' 새로운 기술선도 인재로 급부상</t>
-  </si>
-  <si>
-    <t>[제3회 디지털 혁신 포럼]"데이터 댐, 활용 타깃 정하고 품질관리…국가 장기전략 세워야"</t>
-  </si>
-  <si>
-    <t>삼성청년SW아카데미, 내년 교육 규모 두 배 늘린다</t>
-  </si>
-  <si>
-    <t>동의대 인공지능로봇연구소, SW·AI·Robotics 전문기업과 지능형 코딩 로봇 공동연구와 산학협력 MOU 체결</t>
-  </si>
-  <si>
-    <t>맞춤형 SW인재 양성, 산학 협력 교육프로그램 나온다</t>
-  </si>
-  <si>
-    <t>경북대SW교육센터, 경북지역 교육지원청 3곳과 AI 디지털 역량 강화 교육</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 7:44</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 5:24</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 5:17</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 4:54</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 4:20</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 3:54</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 3:15</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 3:13</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 3:06</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 3:00</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 2:39</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 2:33</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 1:53</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오후 12:00</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오전 11:35</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오전 11:23</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오전 10:51</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오전 10:49</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오전 10:38</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오전 10:20</t>
-  </si>
-  <si>
-    <t>2021.07.05. 오전 3:02</t>
-  </si>
-  <si>
-    <t>2021.07.04. 오후 7:42</t>
-  </si>
-  <si>
-    <t>2021.07.04. 오전 11:34</t>
-  </si>
-  <si>
-    <t>2021.07.04. 오전 11:02</t>
-  </si>
-  <si>
-    <t>2021.07.04. 오전 9:53</t>
-  </si>
-  <si>
-    <t>2021.07.03. 오전 9:02</t>
-  </si>
-  <si>
-    <t>2021.07.03. 오전 8:02</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오후 4:01</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오후 3:27</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오후 3:20</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오후 2:52</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오후 1:18</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오후 12:25</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오전 10:55</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오전 10:22</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오전 9:20</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오전 9:13</t>
-  </si>
-  <si>
-    <t>2021.07.02. 오전 9:09</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 6:57</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 6:23</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 5:01</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 4:51</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 4:27</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 3:39</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 3:20</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 2:56</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 2:28</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 2:11</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 1:59</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 1:39</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 12:56</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오후 12:01</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 11:23</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 11:19</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 11:12</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 11:10</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 11:00</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 10:36</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 10:31</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 10:24</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 10:22</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 10:21</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 10:20</t>
-  </si>
-  <si>
-    <t>2021.07.01. 오전 8:16</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 6:45</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 5:33</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 5:19</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 5:14</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 5:13</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 5:11</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 4:33</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 4:30</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 4:02</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 4:01</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 3:57</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 3:55</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 3:23</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 1:21</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 12:08</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오후 12:03</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:55</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:41</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:28</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:23</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:17</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:15</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:08</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:07</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:01</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 11:00</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 9:54</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 9:42</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 9:21</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 6:04</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 5:09</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 4:09</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 3:04</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 12:11</t>
-  </si>
-  <si>
-    <t>2021.06.30. 오전 12:04</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 8:01</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 7:48</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 7:39</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 6:00</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 5:54</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 5:50</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 5:32</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 5:24</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 5:14</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 5:05</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 4:50</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 4:45</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 4:32</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 4:21</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 4:19</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 4:14</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 4:11</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 4:02</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 3:41</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 3:39</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 3:16</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 3:04</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 3:02</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 2:43</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 2:12</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 2:08</t>
-  </si>
-  <si>
-    <t>2021.06.29. 오후 2:02</t>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002609122</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002609149</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004456238</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004456239</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=103&amp;oid=584&amp;aid=0000009442</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=011&amp;aid=0003764126</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=110&amp;oid=030&amp;aid=0002891921</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0011727629</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=103&amp;oid=016&amp;aid=0001695858</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004435760</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=005&amp;aid=0001338923</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=100&amp;oid=006&amp;aid=0000103402</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002088254</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=050&amp;aid=0000054260</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004374592</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=082&amp;aid=0001013815</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004712873</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004374560</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004374554</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0011727166</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=277&amp;aid=0004712848</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002891859</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=277&amp;aid=0004712830</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=082&amp;aid=0001013786</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0011726972</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002088243</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=015&amp;aid=0004374489</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0009952351</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=417&amp;aid=0000564428</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=469&amp;aid=0000512914</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=014&amp;aid=0004455985</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=004&amp;oid=117&amp;aid=0003384637</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0011726751</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002891762</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=016&amp;aid=0001695713</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=079&amp;aid=0003380052</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0004737102</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=022&amp;aid=0003481498</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=002&amp;aid=0002140846</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=004&amp;oid=366&amp;aid=0000550423</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=002&amp;aid=0002140843</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=021&amp;aid=0002434156</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0004736935</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=081&amp;aid=0003105056</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=469&amp;aid=0000512849</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=468&amp;aid=0000676335</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=016&amp;aid=0001695554</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0009951724</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=031&amp;aid=0000546142</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002608902</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0009951644</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004455752</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=028&amp;aid=0002503856</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004455738</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002193022</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=421&amp;aid=0004736739</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004374190</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=215&amp;aid=0000883737</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004435411</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=031&amp;aid=0000546101</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=016&amp;aid=0001695464</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=119&amp;aid=0002412689</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002608868</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=293&amp;aid=0000029384</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=018&amp;aid=0004681926</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=277&amp;aid=0004712343</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=031&amp;aid=0000546086</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=011&amp;aid=0003763676</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=366&amp;aid=0000550216</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=293&amp;aid=0000029381</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0009951388</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=015&amp;aid=0004374131</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004455582</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=110&amp;oid=024&amp;aid=0000065803</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=088&amp;aid=0000654385</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=366&amp;aid=0000550190</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=110&amp;oid=469&amp;aid=0000512781</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=028&amp;aid=0002503845</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=023&amp;aid=0003544201</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=023&amp;aid=0003544200</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002891682</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=082&amp;aid=0001013700</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=029&amp;aid=0002608762</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=009&amp;aid=0004609019</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=009&amp;aid=0004609011</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=009&amp;aid=0004609012</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=009&amp;aid=0004609002</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=014&amp;aid=0004455498</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=015&amp;aid=0004373978</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=011&amp;aid=0003763561</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=011&amp;aid=0003763547</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=029&amp;aid=0002608747</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=009&amp;aid=0004608883</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002088208</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=015&amp;aid=0004373897</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=421&amp;aid=0004735867</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=018&amp;aid=0004681360</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002891622</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=100&amp;oid=030&amp;aid=0002891619</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002608711</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=008&amp;aid=0004435184</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=030&amp;aid=0002891592</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=100&amp;oid=030&amp;aid=0002891588</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=052&amp;aid=0001460973</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=277&amp;aid=0004712023</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=110&amp;oid=011&amp;aid=0003763457</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=018&amp;aid=0004681242</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=056&amp;aid=0010863984</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=016&amp;aid=0001695277</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=119&amp;aid=0002412590</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=011&amp;aid=0003763436</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002891576</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=421&amp;aid=0004735518</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=001&amp;aid=0011724464</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004711981</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0009950566</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=016&amp;aid=0001695255</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0011724369</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002891573</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=029&amp;aid=0002608674</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004435073</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=082&amp;aid=0001013580</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=018&amp;aid=0004680739</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=277&amp;aid=0004711843</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=584&amp;aid=0000009420</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=018&amp;aid=0004680610</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=016&amp;aid=0001695139</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=103&amp;oid=028&amp;aid=0002503736</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=008&amp;aid=0004434972</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=018&amp;aid=0004680551</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=103&amp;oid=008&amp;aid=0004434964</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=018&amp;aid=0004680538</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=103&amp;oid=023&amp;aid=0003544038</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=110&amp;oid=020&amp;aid=0003295847</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=001&amp;aid=0011723457</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=353&amp;aid=0000037287</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002192951</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=020&amp;aid=0003295786</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002088189</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002088187</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=003&amp;aid=0009949661</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004434862</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=009&amp;aid=0004608459</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0009949536</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=018&amp;aid=0004680122</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=031&amp;aid=0000545974</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0009949333</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=028&amp;aid=0002503672</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=022&amp;aid=0003480937</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=119&amp;aid=0002412454</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=014&amp;aid=0004454857</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=011&amp;aid=0003763104</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=014&amp;aid=0004454845</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=277&amp;aid=0004711519</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=008&amp;aid=0004434713</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=014&amp;aid=0004454827</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=277&amp;aid=0004711498</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0009949047</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=102&amp;oid=030&amp;aid=0002891505</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002192906</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=293&amp;aid=0000029358</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=138&amp;aid=0002088161</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=293&amp;aid=0000029360</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=421&amp;aid=0004733335</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=030&amp;aid=0002891491</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=101&amp;oid=003&amp;aid=0009948652</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=092&amp;aid=0002192893</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=018&amp;aid=0004679817</t>
+  </si>
+  <si>
+    <t>https://news.naver.com/main/read.nhn?mode=LSD&amp;mid=sec&amp;sid1=105&amp;oid=011&amp;aid=0003763011</t>
+  </si>
+  <si>
+    <t>"IT격차가 생존격차"… 취준생·퇴직자 취업지원 나선 IT업계</t>
+  </si>
+  <si>
+    <t>AIMDs 초대의장 맡은 식약처, AI 의료기기 미래 이끈다</t>
+  </si>
+  <si>
+    <t>CJ올리브네트웍스-AWS 클라우드 전문가 양성</t>
+  </si>
+  <si>
+    <t>KT "'한국판 뉴딜'에 ICT 역량 집중"</t>
+  </si>
+  <si>
+    <t>"소득 낮을수록 코로나19 치명률 높다"...국내 첫 연구결과</t>
+  </si>
+  <si>
+    <t>“구글·페이스북과 일대일 맞짱 뜨겠냐···건전한 경쟁하게 해달라”</t>
+  </si>
+  <si>
+    <t>[기고]과학기술에서 찾는 사회 복원력</t>
+  </si>
+  <si>
+    <t>동의과학대 인공지능·피부미용 맞춤형 취업 지원</t>
+  </si>
+  <si>
+    <t>온라인유학미국유학 토탈지원 '컬럼비아글로벌캠퍼스', 인공지능 제어 온라인 이러닝 서비스 특허 획득</t>
+  </si>
+  <si>
+    <t>동의과학대, 대학 학과별 맞춤형 취업지원사업 선정</t>
+  </si>
+  <si>
+    <t>KT, ‘한국판 뉴딜’에 전방위 지원 나선다</t>
+  </si>
+  <si>
+    <t>네이버·카카오·우아한형제들까지 한자리 모여 역차별 호소</t>
+  </si>
+  <si>
+    <t>맥스트, 산업용 증강현실 서비스 '맥스워크' 정식 출시</t>
+  </si>
+  <si>
+    <t>[CEO24시] 최정우, ‘한국판 실리콘밸리’ 포스코가 키운다</t>
+  </si>
+  <si>
+    <t>기업의 미래 AI 인재에 달렸다</t>
+  </si>
+  <si>
+    <t>하동공원에 전망대 기능도 갖춘 상상도서관 들어선다</t>
+  </si>
+  <si>
+    <t>aSSIST 경영대학원, 석·박사 전체 교육과정에 AI 접목</t>
+  </si>
+  <si>
+    <t>삼성전자 'AI 최고석학' 스카우트…올해 석·박사급 1천명 뽑는다</t>
+  </si>
+  <si>
+    <t>KT, 5G·빅데이터 등 핵심 인력 수시채용</t>
+  </si>
+  <si>
+    <t>대전교육청 모든 학교에 온라인 스튜디오…수업콘텐츠 제작 지원</t>
+  </si>
+  <si>
+    <t>[특징주]'한국판 뉴딜' 수혜 '비대면 진료'…케어랩스 '↑'</t>
+  </si>
+  <si>
+    <t>[기자수첩]'미래교육과 산업' 두 마리 토끼를 잡으려면</t>
+  </si>
+  <si>
+    <t>특허전략지원사업, 디지털·그린뉴딜 확대적용</t>
+  </si>
+  <si>
+    <t>동의과학대학교, 2020년 대학 학과별 맞춤형 취업지원사업 선정</t>
+  </si>
+  <si>
+    <t>aSSIST 경영대학원, 석박사 과정 인공지능 과목 강화</t>
+  </si>
+  <si>
+    <t>KT, ‘한국판 뉴딜 협력TF’ 신설…박윤영 사장 진두지휘</t>
+  </si>
+  <si>
+    <t>KT, '한국판 뉴딜' 돕는다…TF 열고 박윤영 사장 직접 지휘</t>
+  </si>
+  <si>
+    <t>동의과학대 전자·피부미용, 맞춤형 취업지원 받는다</t>
+  </si>
+  <si>
+    <t>한컴, 노인돌봄 사업 진출… “2023년까지 전국에 3000개 센터 세울 것”</t>
+  </si>
+  <si>
+    <t>하동공원에 '상상도서관' 짓는다</t>
+  </si>
+  <si>
+    <t>aSSIST 경영대학원 “석박사 과정 AI 과목 강화”</t>
+  </si>
+  <si>
+    <t>코맥스벤처러스, 'K-글로벌 액셀러레이터 육성사업'인 '벤처러스 클래스 2020' 본격 론칭</t>
+  </si>
+  <si>
+    <t>경남 하동공원서 '상상도서관' 기공식…"문화도시 기반 마련"</t>
+  </si>
+  <si>
+    <t>피터 무어 AWS 아태 공공 총괄 "코로나19 이후 공공 클라우드 혁신 가속화"</t>
+  </si>
+  <si>
+    <t>[리더스칼럼] 요즘 경영키워드 ‘초협력’</t>
+  </si>
+  <si>
+    <t>이석문 제주교육감이 직접 말하는 IB도입 그리고 계획</t>
+  </si>
+  <si>
+    <t>'AI 디지털 PM' 교육생 모집…한국판 디지털 뉴딜 담당할 전문인력 양성</t>
+  </si>
+  <si>
+    <t>AI 산업 인재 기근 심각… 한국판 디지털뉴딜 전문가 양성한다</t>
+  </si>
+  <si>
+    <t>하동공원에 세계적 상상도서관 들어선다</t>
+  </si>
+  <si>
+    <t>상승률 상위 50선 - 코스닥</t>
+  </si>
+  <si>
+    <t>시대를 바꾸고자 한 예언자이자 실천적 사상가, 김종철</t>
+  </si>
+  <si>
+    <t>&lt; ICT &gt;‘AI 패권’ 삼국지…‘기업 동맹’ 세 불리기 빨라진다</t>
+  </si>
+  <si>
+    <t>하동에 '인문학 상상도서관' 들어선다</t>
+  </si>
+  <si>
+    <t>[신간] 인공지능과 인간의 협업 시대가 왔다</t>
+  </si>
+  <si>
+    <t>KT '디지털 뉴딜' 사업 시동… 200명 규모 TF 출범</t>
+  </si>
+  <si>
+    <t>한컴그룹, ICT 통한 ‘시니어 케어’ 서비스 본격화…“2023년 3000개 센터 확보”</t>
+  </si>
+  <si>
+    <t>한컴그룹, 노인 돌봄 사업 진출한다</t>
+  </si>
+  <si>
+    <t>배재대 AI·SW사업단, 비전공학과 교수 대상 교육 프로그램 운영</t>
+  </si>
+  <si>
+    <t>"3년 내 3천개 센터 확보"…한컴, 시니어케어 서비스 사업 진출</t>
+  </si>
+  <si>
+    <t>로봇·VR로 어르신 건강관리,  한컴위드, 시니어케어 서비스</t>
+  </si>
+  <si>
+    <t>한컴그룹, ICT 적용한 노인요양 사업 진출…3000개 센터 목표</t>
+  </si>
+  <si>
+    <t>한컴그룹, ICT 기술 연계 시니어케어 서비스 사업 진출</t>
+  </si>
+  <si>
+    <t>한글과컴퓨터, 시니어데이케어 시장 진출…‘치킨집보다 수익률 좋다’</t>
+  </si>
+  <si>
+    <t>KT, 한국판 뉴딜 성공 위해 TF 만들어 역량 총동원</t>
+  </si>
+  <si>
+    <t>한컴위드, 시니어 헬스케어 사업 진출</t>
+  </si>
+  <si>
+    <t>KT, '디지털 뉴딜' 위한 전담 조직 신설…박윤영 사장 전면에</t>
+  </si>
+  <si>
+    <t>권광석 "건전성 영향 최소화 관건…비대면으로 코로나 파도 넘는다"</t>
+  </si>
+  <si>
+    <t>한컴그룹, 시니어케어 서비스 사업 진출…데이케어센터 확산</t>
+  </si>
+  <si>
+    <t>한컴위드 시니어케어 서비스 시작…데이케어센터 3천개 개설추진</t>
+  </si>
+  <si>
+    <t>"입찰제한 풀린다"…KT, 정부사업 수주 총력 '전담TF' 신설</t>
+  </si>
+  <si>
+    <t>"정부정책 동참"…KT '한국판 뉴딜 협력 TF' 신설</t>
+  </si>
+  <si>
+    <t>KT, ‘디지털 뉴딜’ 발맞춰 TF팀 구성…“전화위복 계기”</t>
+  </si>
+  <si>
+    <t>KT, 한국판 뉴딜 협력 TF 신설… ICT 핵심역량 총동원</t>
+  </si>
+  <si>
+    <t>티맥스A&amp;C, 오픈 클라우드 플랫폼 ‘하이퍼클라우드’ 쿠버네티스 적합성 인증 획득</t>
+  </si>
+  <si>
+    <t>KT, ‘한국판 뉴딜 협력 TF’ 신설..박윤영 사장 직접 지휘</t>
+  </si>
+  <si>
+    <t>KT, 한국판 뉴딜 TF조직 신설...박윤영 사장 진두지휘</t>
+  </si>
+  <si>
+    <t>참빛북클럽, 초등학생 대상 수준별 영어독서서비스 무료체험 실시</t>
+  </si>
+  <si>
+    <t>KT, '디지털뉴딜TF' 만든다</t>
+  </si>
+  <si>
+    <t>KT, ‘한국판 뉴딜 협력 TF’ 신설… 박윤영 사장 지휘</t>
+  </si>
+  <si>
+    <t>KT, '한국판 뉴딜 협력 TF' 신설...기업부문 박윤영 사장 TF장으로</t>
+  </si>
+  <si>
+    <t>하동군, 하동공원에 상상도서관 건립</t>
+  </si>
+  <si>
+    <t>인공지능 SW 기업 와이즈넛, 고려대학교 HI AI연구센터와 기술 교류 협약 체결</t>
+  </si>
+  <si>
+    <t>CJ올리브네트웍스, AWS와 손잡고 클라우드 전문가 키운다</t>
+  </si>
+  <si>
+    <t>[경영칼럼] 노바티스社의 ‘보스(Unbossing) 내려놓기’ 위기 때 리더십 교육 모범 사례</t>
+  </si>
+  <si>
+    <t>[학부모와 함께 나누고픈 북&amp;톡] 호모 사피엔스, 호모 심비우스를 만나다</t>
+  </si>
+  <si>
+    <t>"코로나 위기 디지털로 극복"… MS·페이스북·오라클, 인재 양성 지원</t>
+  </si>
+  <si>
+    <t>[아침을 열며] 구글푸(Google-fu), 검색과 활용 능력이 미래 역량이다</t>
+  </si>
+  <si>
+    <t>포용하는 디지털…언제든지 배우러 오세요</t>
+  </si>
+  <si>
+    <t>"컴퓨터 프로그래밍, 이제 기본 학문 정부 지원 밑받침돼야 SW교육 시너지 효과"</t>
+  </si>
+  <si>
+    <t>외부 공공사정관 도입, 입시 투명성 높여 온라인 전형 설명회 등 'The 착한 입시'</t>
+  </si>
+  <si>
+    <t>한국판 뉴딜에 100조 투입…데이터 산업·비대면 의료 확대</t>
+  </si>
+  <si>
+    <t>‘35조 3차 추경’ 3개월 내에 75% 집행</t>
+  </si>
+  <si>
+    <t>100兆로 키운 `한국판 뉴딜` 종잣돈</t>
+  </si>
+  <si>
+    <t>[단독] "K-헬스케어 이끌겠다"…학과도 새로 만든 서울대</t>
+  </si>
+  <si>
+    <t>"광주는 AI, 전남은 신재생에너지 집중 육성"</t>
+  </si>
+  <si>
+    <t>"한전공대, 호남 에너지선도지역 이끈다"</t>
+  </si>
+  <si>
+    <t>한국판 뉴딜 5년간 `100조+α`로 판 키운다</t>
+  </si>
+  <si>
+    <t>"개인정보 보호·데이터 활용 균형발전… 현장 목소리 담을 것"</t>
+  </si>
+  <si>
+    <t>셋톱박스의 진화…AI 품고 클라우드 게임까지</t>
+  </si>
+  <si>
+    <t>100조원+α 재정투입...13일 한국판뉴딜 로드맵 발표</t>
+  </si>
+  <si>
+    <t>AI 만난 철...포항 2고로 '제조업의 등대' 되다</t>
+  </si>
+  <si>
+    <t>한국판 뉴딜 100兆 투입…비대면 의료 확대</t>
+  </si>
+  <si>
+    <t>[단독] 서울대, K-헬스케어 육성 가속페달 밟는다</t>
+  </si>
+  <si>
+    <t>MS, 구직자에 필요한 IT 기술 교육·인사이트 제공한다</t>
+  </si>
+  <si>
+    <t>의사 진단 없어도 감염병 유행국서 입국한 학생 등교중단 가능</t>
+  </si>
+  <si>
+    <t>신창재 교보생명 회장 "포스트 코로나 대비 기업문화 다 바꿔야"</t>
+  </si>
+  <si>
+    <t>MS, 전세계 2500만명에 구직위한 IT스킬 지원..한국도 오픈</t>
+  </si>
+  <si>
+    <t>[대한민국 희망 프로젝트]&lt;666&gt;지능정보사회 윤리 가이드라인</t>
+  </si>
+  <si>
+    <t>[취업걱정없는 명품학교]&lt;237&gt;수원공업고등학교</t>
+  </si>
+  <si>
+    <t>MS, 세계 2500만명에 구직에 필요한 IT 및 디지털 스킬 지원한다</t>
+  </si>
+  <si>
+    <t>감염병 발생국서 입국하는 학생·교직원 등교중지 법적근거 마련 추진</t>
+  </si>
+  <si>
+    <t>신창재 교보생명 회장 "포스트 코로나 시대, 대대적인 디지털 혁신해야"</t>
+  </si>
+  <si>
+    <t>양향자 의원 "일본 수출규제 대응, 특허 분쟁 미리 대비해야"</t>
+  </si>
+  <si>
+    <t>한국판 뉴딜에 100조 투입...데이터 산업·비대면 의료 확대</t>
+  </si>
+  <si>
+    <t>비대면 의료·데이터 산업 육성…한국판 뉴딜에 100조 투입</t>
+  </si>
+  <si>
+    <t>[백상논단] 인구절벽</t>
+  </si>
+  <si>
+    <t>신창재 회장 “코로나 계기로 디지털 전환 가속화해야”</t>
+  </si>
+  <si>
+    <t>의사 진단 없이 감염병 발생국에서 입국하면 ‘등교중지’ 법안 추진</t>
+  </si>
+  <si>
+    <t>감염병 유행국서 입국한 학생 등교 중지…학교보건법 개정 추진</t>
+  </si>
+  <si>
+    <t>신창재 교보생명 회장 "코로나 전 세상으로 못 돌아가…디지털 전환 가속"</t>
+  </si>
+  <si>
+    <t>'감염병 유행국서 입국 학생 등교 중지' 법적 근거 마련한다</t>
+  </si>
+  <si>
+    <t>'학교 방역체계 강화' '미래형 학교 공간 조성'…교육부, 적극행정 추진</t>
+  </si>
+  <si>
+    <t>[이재진의 입시 리포트] 학생부전형 비중 67%, 이과 기피 불렀나?</t>
+  </si>
+  <si>
+    <t>"감염병·미래교육 대비"…교육부, 적극행정 실행계획 수립</t>
+  </si>
+  <si>
+    <t>교육부, 적극행정 공무원에 특별승진·성과급 준다</t>
+  </si>
+  <si>
+    <t>향후 5년간 한국판 뉴딜에 100조 투입…데이터 산업·비대면 의료 확대</t>
+  </si>
+  <si>
+    <t>디에스티인터내셔날, 오픈텍스트 손잡아… “세계 1위 비정형데이터관리, 디지털전환 가속화”</t>
+  </si>
+  <si>
+    <t>와이즈넛, 고려대 HI AI연구센터와 기술교류 협약</t>
+  </si>
+  <si>
+    <t>정기선 현대重 부사장 결혼식…김동관·장선익 재계3세 친분과시</t>
+  </si>
+  <si>
+    <t>농수산물 등 8대 소비쿠폰 푼다…456만 명 인플루엔자 무상접종</t>
+  </si>
+  <si>
+    <t>[보안 따라잡기]정보보호산업 발전 5년 청사진 나왔다…어떤 내용이</t>
+  </si>
+  <si>
+    <t>"'한강의 기적' 농지개혁 덕분..."</t>
+  </si>
+  <si>
+    <t>"기업이 AI 활용 확대하려면 서비스 잘 만드는 엔지니어 많이 필요해"</t>
+  </si>
+  <si>
+    <t>고용노동부 주간계획(7월6~10일)</t>
+  </si>
+  <si>
+    <t>국민 10명 중 3명, 농수산물 등 8대 소비쿠폰 받는다</t>
+  </si>
+  <si>
+    <t>구체적 단상이 추상적 사고로 발전하려는 간질간질한 순간</t>
+  </si>
+  <si>
+    <t>3차 추경 통과…‘디지털뉴딜·K방역’ 8740억 실탄 확보</t>
+  </si>
+  <si>
+    <t>정보 개방시대…금투업계도 '마이데이터' 진검승부 예고</t>
+  </si>
+  <si>
+    <t>코로나 시대, '대박' 나는 산업은 따로 있다</t>
+  </si>
+  <si>
+    <t>3차 추경 과기정통부 8740억, 디지털 뉴딜 세부계획은?</t>
+  </si>
+  <si>
+    <t>[한줄읽기] ’18세기의 방' 외</t>
+  </si>
+  <si>
+    <t>디지털 생태계 재단하는 아날로그 규제[동아 시론/김경준]</t>
+  </si>
+  <si>
+    <t>농수산물 등 8대 소비쿠폰 푼다…456만명 인플루엔자 무상접종</t>
+  </si>
+  <si>
+    <t>‘한 대학서만 공부’ 바꿔야, 훔볼트 같은 융합 인재 자란다</t>
+  </si>
+  <si>
+    <t>과기정통부 3차 추경 8740억원…디지털뉴딜 핵심</t>
+  </si>
+  <si>
+    <t>정부, 4대 그룹에 “삼성 SSAFY 처럼 취업준비생 교육프로그램 만들어 달라”</t>
+  </si>
+  <si>
+    <t>와이즈넛, 고려대학교 HI AI 연구센터와 기술 교류 협약 체결</t>
+  </si>
+  <si>
+    <t>초·중등학교 AI 교육, 왜 필요하다는 걸까?</t>
+  </si>
+  <si>
+    <t>경남도, 5급 이하 679명 정기인사…208명 승진</t>
+  </si>
+  <si>
+    <t>PSI컨설팅, '2020 HRD를 말하다' 개최</t>
+  </si>
+  <si>
+    <t>"50만명 죽은 코로나보다 기후재앙이 더 무서워"</t>
+  </si>
+  <si>
+    <t>네이버 커넥트재단 "디지털 소외 없는 SW·AI 교육에 앞장서겠다"</t>
+  </si>
+  <si>
+    <t>교원구몬, AI 학습지 ‘스마트구몬’ 안심체험 이벤트 실시</t>
+  </si>
+  <si>
+    <t>한국MS-NIA, AI 협력…"사회적 가치 실현"</t>
+  </si>
+  <si>
+    <t>"스마트팩토리도 구독하세요"…SKT, 中企 제조사 겨냥해 출시(종합)</t>
+  </si>
+  <si>
+    <t>중소기업, 스마트공장 솔루션도 ‘월 구독’ 서비스로</t>
+  </si>
+  <si>
+    <t>네이버 커넥트재단, 온라인 SEF2020 진행… 1만여명 참여</t>
+  </si>
+  <si>
+    <t>SK텔레콤, 중소기업 대상 ‘구독형’ 스마트팩토리 솔루션 출시</t>
+  </si>
+  <si>
+    <t>건국대 이공분야 대학중점연구소지원사업 선정</t>
+  </si>
+  <si>
+    <t>"스마트팩토리 서비스도 월 구독"...SKT, 메타트론 그랜드뷰 출시</t>
+  </si>
+  <si>
+    <t>국민대-전자통신연구원, 서울시와 AI 양재 허브 운영 수탁 협약</t>
+  </si>
+  <si>
+    <t>반도체 집적도 1000배 향상 원리 국내 연구팀이 찾았다(종합)</t>
+  </si>
+  <si>
+    <t>교원구몬, AI학습지 '스마트구몬' 체험 이벤트</t>
+  </si>
+  <si>
+    <t>SKT, 중소기업 대상 구독형 스마트팩토리 서비스 출시</t>
+  </si>
+  <si>
+    <t>"스마트팩토리 확산  돕는다" SKT, 월 구독형 솔루션 출시</t>
+  </si>
+  <si>
+    <t>"스마트팩토리도 구독하세요"…SK텔레콤, 中企 제조사 겨냥해 출시</t>
+  </si>
+  <si>
+    <t>[대한민국 과학자]양승학 호남대 전기공학과 교수 “철저한 산·학 협력”</t>
+  </si>
+  <si>
+    <t>와이즈넛, 고려대 AI 연구센터와 협력</t>
+  </si>
+  <si>
+    <t>MS-NIA, 사회적 가치 실현을 위한 AI 협력 맞손</t>
+  </si>
+  <si>
+    <t>네이버 커넥트재단, 소프트웨어 교육 컨퍼런스 ‘SEF2020’ 개최</t>
+  </si>
+  <si>
+    <t>네이버 커넥트재단 “디지털 소외 없는, 모두를 위한 SW·AI교육 앞장서겠다”</t>
+  </si>
+  <si>
+    <t>네이버커넥트재단 "디지털 소외 없는 IT교육 앞장설 것"</t>
+  </si>
+  <si>
+    <t>한국MS, 한국정보화진흥원과 사회적 가치 실현 위한 AI 협력</t>
+  </si>
+  <si>
+    <t>NIA, MS와 사회적 가치 실현 위한 AI 분야 협력키로</t>
+  </si>
+  <si>
+    <t>한국MS-NIA, '사회적 가치 실현을 위한 AI' 협력</t>
+  </si>
+  <si>
+    <t>네이버 커넥트재단 “모두를 위한 SW와 AI교육 앞장서겠다”</t>
+  </si>
+  <si>
+    <t>한국MS “韓 AI 지원사격”···한국정보화진흥원과 맞손</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 7:15</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 5:37</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 5:20</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 5:17</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 5:02</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 4:55</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 4:27</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 4:09</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:56</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:48</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:47</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:46</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:42</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:32</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:18</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:12</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:10</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:09</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:07</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:06</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 3:00</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 2:46</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 2:30</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 2:24</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 2:22</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 2:04</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 2:03</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 1:58</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 1:35</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 1:33</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 1:14</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오후 12:01</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 11:45</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 11:34</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 11:20</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 11:08</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 11:03</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:54</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:51</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:49</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:41</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:37</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:30</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:29</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:25</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:20</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 10:11</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:59</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:56</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:54</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:52</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:46</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:31</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:30</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:28</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:26</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:24</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:19</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:07</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:02</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 9:01</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 8:59</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 8:52</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 8:45</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 8:34</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 8:27</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 8:23</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 6:31</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 6:02</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 6:00</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 5:04</t>
+  </si>
+  <si>
+    <t>2020.07.06. 오전 3:02</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 9:21</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 7:20</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 7:06</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 6:21</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 6:20</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 6:08</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 5:57</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 5:10</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 4:40</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 4:06</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 4:02</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 3:36</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 3:31</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 2:55</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 2:02</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 12:39</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 12:09</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오후 12:01</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 11:54</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 11:52</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 11:13</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 11:05</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 11:02</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 10:47</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 10:39</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 10:35</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 10:17</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 9:51</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 9:46</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 9:43</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 9:01</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 9:00</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 8:45</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 6:43</t>
+  </si>
+  <si>
+    <t>2020.07.05. 오전 12:02</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오후 9:53</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오후 7:29</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오후 12:56</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오후 12:44</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오후 12:08</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 11:00</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 9:01</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 8:00</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 7:24</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 7:02</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 7:01</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 6:30</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 5:18</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 5:08</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 3:01</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 12:44</t>
+  </si>
+  <si>
+    <t>2020.07.04. 오전 12:22</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 11:20</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 7:43</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 7:36</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 7:31</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 6:03</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 5:30</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 5:28</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 4:47</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 4:45</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 4:12</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 3:49</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 3:16</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 2:52</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 2:43</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 2:35</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 2:30</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 2:25</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 2:21</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 2:05</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 2:01</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 2:00</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 1:11</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오후 12:55</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오전 11:58</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오전 11:42</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오전 11:08</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오전 11:07</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오전 11:03</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오전 10:59</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오전 10:45</t>
+  </si>
+  <si>
+    <t>2020.07.03. 오전 10:42</t>
   </si>
   <si>
     <t>디지털타임스</t>
   </si>
   <si>
+    <t>파이낸셜뉴스</t>
+  </si>
+  <si>
+    <t>동아사이언스</t>
+  </si>
+  <si>
+    <t>서울경제</t>
+  </si>
+  <si>
+    <t>전자신문</t>
+  </si>
+  <si>
+    <t>연합뉴스</t>
+  </si>
+  <si>
+    <t>헤럴드경제</t>
+  </si>
+  <si>
+    <t>머니투데이</t>
+  </si>
+  <si>
+    <t>국민일보</t>
+  </si>
+  <si>
+    <t>미디어오늘</t>
+  </si>
+  <si>
+    <t>디지털데일리</t>
+  </si>
+  <si>
+    <t>한경비즈니스</t>
+  </si>
+  <si>
+    <t>한국경제</t>
+  </si>
+  <si>
+    <t>부산일보</t>
+  </si>
+  <si>
+    <t>아시아경제</t>
+  </si>
+  <si>
+    <t>뉴시스</t>
+  </si>
+  <si>
+    <t>머니S</t>
+  </si>
+  <si>
+    <t>한국일보</t>
+  </si>
+  <si>
+    <t>마이데일리</t>
+  </si>
+  <si>
+    <t>노컷뉴스</t>
+  </si>
+  <si>
+    <t>뉴스1</t>
+  </si>
+  <si>
+    <t>세계일보</t>
+  </si>
+  <si>
+    <t>프레시안</t>
+  </si>
+  <si>
+    <t>조선비즈</t>
+  </si>
+  <si>
+    <t>문화일보</t>
+  </si>
+  <si>
+    <t>서울신문</t>
+  </si>
+  <si>
+    <t>스포츠서울</t>
+  </si>
+  <si>
+    <t>아이뉴스24</t>
+  </si>
+  <si>
+    <t>한겨레</t>
+  </si>
+  <si>
+    <t>ZDNet Korea</t>
+  </si>
+  <si>
+    <t>한국경제TV</t>
+  </si>
+  <si>
+    <t>데일리안</t>
+  </si>
+  <si>
+    <t>블로터</t>
+  </si>
+  <si>
+    <t>이데일리</t>
+  </si>
+  <si>
+    <t>매경이코노미</t>
+  </si>
+  <si>
+    <t>매일신문</t>
+  </si>
+  <si>
+    <t>조선일보</t>
+  </si>
+  <si>
     <t>매일경제</t>
   </si>
   <si>
-    <t>아이뉴스24</t>
-  </si>
-  <si>
-    <t>비즈니스워치</t>
-  </si>
-  <si>
-    <t>서울경제</t>
-  </si>
-  <si>
-    <t>ZDNet Korea</t>
-  </si>
-  <si>
-    <t>아시아경제</t>
-  </si>
-  <si>
-    <t>디지털데일리</t>
-  </si>
-  <si>
-    <t>전자신문</t>
-  </si>
-  <si>
-    <t>이데일리</t>
-  </si>
-  <si>
-    <t>연합뉴스</t>
-  </si>
-  <si>
-    <t>프레시안</t>
-  </si>
-  <si>
-    <t>뉴스1</t>
-  </si>
-  <si>
-    <t>헤럴드경제</t>
-  </si>
-  <si>
-    <t>데일리안</t>
-  </si>
-  <si>
-    <t>머니S</t>
-  </si>
-  <si>
-    <t>조선일보</t>
-  </si>
-  <si>
-    <t>머니투데이</t>
-  </si>
-  <si>
-    <t>세계일보</t>
-  </si>
-  <si>
-    <t>스포츠서울</t>
-  </si>
-  <si>
-    <t>뉴시스</t>
-  </si>
-  <si>
-    <t>노컷뉴스</t>
-  </si>
-  <si>
-    <t>파이낸셜뉴스</t>
-  </si>
-  <si>
-    <t>더팩트</t>
-  </si>
-  <si>
-    <t>중앙일보</t>
-  </si>
-  <si>
-    <t>한국일보</t>
-  </si>
-  <si>
-    <t>매일신문</t>
-  </si>
-  <si>
-    <t>국민일보</t>
-  </si>
-  <si>
-    <t>서울신문</t>
-  </si>
-  <si>
-    <t>조세일보</t>
-  </si>
-  <si>
-    <t>부산일보</t>
-  </si>
-  <si>
-    <t>조선비즈</t>
-  </si>
-  <si>
-    <t>한국경제</t>
-  </si>
-  <si>
-    <t>이코노미스트</t>
-  </si>
-  <si>
-    <t>블로터</t>
-  </si>
-  <si>
-    <t>SBS Biz</t>
-  </si>
-  <si>
-    <t>문화일보</t>
+    <t>YTN</t>
+  </si>
+  <si>
+    <t>KBS</t>
   </si>
   <si>
     <t>동아일보</t>
   </si>
   <si>
-    <t>취임 후 첫 기자간담회 개최연구현장 생애주기 맞춤 지원여성연구자 경력단절 해소 강조"디지털격차 없도록 포용정책도"임혜숙(왼쪽에서 두번째) 과기정통부장관, 용홍택(첫번째) 과기정통부 1차관, 조경식(세번째) 과기정통부 2차관, 이경수(네번째) 과학기술혁신본부장이 5일 세종특별시 청사에서 출입기자단 간담회를 갖고 향후 정책 방향에 대해 설명하고 있다. 과기정통부 제공    임혜숙 과학기술정보통신부 장관은 5일 "디지털 뉴딜 분야에서 성과를 지속적으로 창출하고, 디지털 포용 실현과 AI(인공지능)·소프트웨어 인재양성에 정책 역량을 집중하겠다"고 밝혔다.임 장관은 이날 세종에서 취임 이후 처음 열린 출입기자 간담회에서 앞으로 과기정통부의 역점 정책 방향에 대해 이 같이 말했다.  임 장관은 "이 달(7월)은 한국판 뉴딜의 핵심 축인 디지털 뉴딜을 추진한 지 1년이 되는 시점으로, 그간 거둔 산업적, 일자리 측면에서의 좋은 성과를 이어 나가겠다"면서 "국민들이 디지털 격차 없이 디지털 혜택을 골고루 같이 누릴 수 있는 '디지털 포용' 정책도 펴 나가겠다"고 피력했다.특히, 디지털 전환 가속화를 맞아 부족한 AI(인공지능), 소프트웨어 인력양성에 정부 투자를 늘려 산업체 수요에 대응하겠다는 의지를 강조했다. 임 장관은 "얼마 전 민간에서 소프트웨어 인력을 양성하는 '이노베이션 아카데미'를 방문했는데, 소프트웨어에 대한 학생들의 열정과 비전에 깊은 인상을 받았다"며 "SW 중심대학과 AI 대학원을 활용한 우수 인재 양성에 대한 투자 강화와 민간 지원 확대, 출연연 연구자 대상 재직자 SW 교육 등을 추진하겠다"고 설명했다.그러면서 "과학기술 분야 기초 연구자들이 장기적으로 좋은 연구를 할 수 있도록 생애 주기에 맞게 지원하고,신진 연구자와 여성 연구자가 중간에 연구 단절 없이 연구를 이어가는 지원 방안을 마련하겠다"고 덧붙였다.OTT, 콘텐츠 등 디지털 신산업을 활성화하기 위한 정책 추진 의사를 분명히 했다.임 장관은 "최근 SK브로드밴드와 넷플릭스 간 1심 소송 결과 이후 양측의 후속 진행 여부를 봐 가면서 과기정통부의 입장을 마련할 계획"이라며 "궁극적으로 새로 등장하는 디지털 분야의 새로운 산업과 서비스가 규제에 발목 잡히지 않고 활성화되는 방향에서 정책을 추진하겠다는 게 과기정통부의 입장"이라고 강조했다.OTT 등 디지털 미디어 정책과 관련해서는 "과기정통부가 주체가 돼 방통위, 문체부 등 관련 부처와 업계의 협력을 이끌어 내 산업 활성화를 위한 생태계를 만드는 데 노력하겠다"고 말했다. 이어 28㎓ 5G 기지국 구축과 관련해서는 "이통3사에 실증사업을 많이 해서 국민들이 새로운 서비스를 체감할 수 있도록 해 달라고 부탁했다"면서 "의무 구축기간인 올해 말까지 진행한 후, 점검을 통해 내년 정책 방향을 정할 계획이고, 28㎓ 공동 활용은 좋은 아이디어가 아니다"고 설명했다. 코로나19 백신과 치료제 개발에 대한 과기정통부의 지원 계획도 밝혔다. 임 장관은 "현재 국내 일부 기업이 백신 임상3상을 준비하고 있는데, 임상 대상자가 국내에는 많지 않고, 돈도 많이 들어 어려움을 겪고 있다"며 "코로나 변이 바이러스 확산과 신변종 감염병 대응 등을 위해 국산 백신, 치료제 개발을 위한 독성평가, 후보물질, 동물실험 등을 계속 지원하겠다"고 말했다.PBS(연구과제중심제도) 등 출연연 현안 해결과 관련 "일부 연구자는 PBS에 긍정적으로 생각하고 있어 일괄적으로 개선하는 것은 어렵다"며 "연구과제가 단기, 소형화돼 있는 것을 장기, 대형화해 안정적인 연구를 지원하고, 국가·산업 이슈 발생 시 출연연이 이에 적절히 대응할 수 있는 연구과제 마련도 추진하겠다"고 설명했다. 임혜숙 과기정통부 장관이 5일 세종에서 열린 출입기자단 간담회에서 향후 과기정통부의 정책 방향에 대해 설명하고 있다. 과기정통부 제공</t>
-  </si>
-  <si>
-    <t>과기정통부 장관 기자간담회주52시간 힘들어도 시행해야우주·백신 분야 연구도 지속 임혜숙 과학기술정보통신부 장관이 '디지털 대전환'과 '인공지능(AI), 정보통신기술(ICT) 인재 양성'을 집중 지원하겠다고 밝혔다. 주52시간 근무제도에 대해서는 "쉽지 않다는 것을 알고 있지만 가야 할 방향"이라고 강조했고, 탈원전 정책은 향후 60년간 단계적으로 추진하되 소형모듈원자로(SMR) 등 장비 수출은 지속적으로 추진해 나가겠다고도 했다.임 장관은 5일 정부세종청사에서 취임 이후 첫 기자간담회를 열고 임기 중 꼭 성과를 내고 싶은 정책을 꼽아달라는 질문에 "정보통신기술을 전공한 사람으로서 디지털 뉴딜에 굉장히 애착을 갖고 있다"며 "특히 산업적 측면이나 일자리 창출 측면에서 여러 성과가 있을 텐데 디지털 포용 측면에서도 디지털 격차를 줄이고 혜택을 같이 누리는 방향으로 추진해 나갈 것"이라고 말했다.또 "현장을 다니면서 AI, 소프트웨어(SW) 인재가 매우 부족하다는 얘기를 많이 듣는다"며 "인재 양성은 학계에서 오래 있어 감을 잡고 있기 때문에 AI와 ICT 분야에서 좋은 인재를 양성해 산업체 수요에 부응하는 정책을 추진해 나갈 것"이라고 말했다.인재 양성 방법으로는 3대 축을 적극 지원할 계획이다. AI 대학원, SW 중심 대학 등 학계를 통한 인력 육성과 이노베이션 아카데미나 NHN 같은 민간 SW 교육기관을 통한 양성 방법, 그리고 재직자를 대상으로 하는 교육이다. 임 장관은 "자기 분야에 지식을 갖고 있는 분들이 SW 관련 수업을 듣고 교육을 받아 자기 분야에 활용하면 효과가 크다"며 "1년 정도 핵심교육을 받고 자기 분야에 접목하는 '마이크로 학위' 등 방법도 효율적일 것"이라고 말했다.그는 또 우주 분야 연구개발(R&amp;D)과 관련해 "한미정상회담에서 미사일지침이 종료됨에 따라 민간이 발사체 개발에 참여할 수 있는 기반이 마련됐고, 아르테미스(미국의 달 탐사 계획) 약정을 체결해 우주 탐사 프로그램을 추진할 수 있게 됐다"며 "이번 기회를 잘 살려 우주산업이 한 단계 도약하기 위한 전략을 착실히 추진해 나갈 것"이라고 말했다. 임 장관은 백신 분야 R&amp;D 지원과 인프라스트럭처  등을 조속히 갖추겠다는 계획도 내놨다.[이승윤 기자]</t>
-  </si>
-  <si>
-    <t>[사진=과기정통부]◆과학기술정보통신부는 7일 오후 2시, 한국생명공학연구원에서 '연구실 안전환경 조성에 관한 법률' 하위법령 개정(안) 마련을 위한 대국민 온라인 공청회를 개최한다. 공청회에서는 국가전문자격(연구실안전관리사) 시행기준, 요양급여(치료비) 보상기준 상향, 점검·진단 실시기준, 우수연구실 인증 심사기준, 연구실 안전정보 공표 등 주요 현안이 논의될 예정이다. (유튜브 라이브 youtu.be/TMv3vYijIZ)◆국립중앙과학관(관장 유국희)은 ‘여름방학 과학교실’ 및 ‘여름방학 과학캠프’에 참가할 학생을 7일부터(과학캠프는 10일부터) 선착순으로 모집한다. 과학교실은 7세부터 중1까지, 과학캠프는 초4부터 중2까지 참가할 수 있다. 과학교실은 31개 과정의 실험중심 과학교육으로 교과연계, 창의·공작 및 곤충·화석·수학·발명·SW 등 특화수업으로 운영되며, 과학캠프는 인공지능(AI)을 주제로 비대면 초·중급 과정(2개), 대면 중급과정(1개)으로 운영된다.◆한국과학기술한림원(원장 한민구)은 6일 오후 3시, 학령인구 감소와 글로벌 환경 변화에 대응해 ‘국내 대학 연구경쟁력의 현재와 미래’를 주제로 제190회 한림원탁토론회를 온라인으로 개최한다. 이현숙 서울대 연구처장, 민정준 전남대 연구처장, 윤봉준 고려대 연구처장 등이 주제발표하고, 김우택 연세대 연구부총장, 김상욱 포항공대 교수, 이원용 연세대 교수, 정영미 강원대 연구처장, 박기범 과학기술정책연구원 선임연구위원, 김봉수 과학기술정보통신부 국장 등이 토론자로 참여한다.( ‘한국과학기술한림원’ 유튜브 생중계)</t>
-  </si>
-  <si>
-    <t>SW 인재 양성, 최우선 과제로 꼽아28㎓ 기지국 경감 여부에는 말아껴"'네카라쿠배'라는 말 들어본 적 있으신가요? 최근 ICT(정보통신기술) 산업 현장을 돌면서 들은 얘기인데…"5일 임혜숙 과학기술정보통신부(이하 과기정통부) 장관은 지난 5월 취임 이후 50여일 만에 출입기자단과 가진 첫 간담회 자리에서 느닷없이 이렇게 질문했다.'네카라쿠배'는 네이버·카카오·라인·쿠팡·배달의민족 같이 소위 '잘 나가는' ICT 5개 기업을 줄여 부르는 말이다. 여기엔 '이런 기업에 취업하고 싶다'는 취업준비생 및 공학도들의 선망이 담겨있기도 하다.최근 ICT 산업 현장을 둘러본 임 장관은 네카라쿠배를 포함한 기업들에서 AI(인공지능)과 소프트웨어 관련 인재 수요가 높다고 강조하며 임기 내 ICT 인재 양성을 최우선 과제로 꼽았다.임혜숙 과학기술정보통신부 장관이 5일 오전 세종특별자치시 세종파이낸스센터 과기정통부 기자실에서 열린 '출입기자 간담회' 에 참석해 인사말을 하고 있다. /사진=과기정통부 제공최대 관심사는 ICT분야 인재 양성이날 임 장관은 "AI와 소프트웨어 인재가 부족하다는 얘기를 현장에서 정말 많이 듣고 있다"고 여러 차례 강조했다. 30여년간 연구실과 학계에 몸담았기에 인재를 어떻게 육성할지에 대한 감각을 갖고 있다며 자신감을 내비쳤다.그는 "방문한 현장 중에 이노베이션 아카데미가 가장 인상 깊었다. 소프트웨어를 공부하는 학생들의 열정과 비전, 자부심이 있었다"며 "민간에서 소프트웨어 교육이 잘 이뤄질 수 있도록 정부가 적극 지원해야겠다고 생각했다"고 말했다.인재 양성을 위한 방안은 세 가지로 압축된다. △소프트웨어 교육 중심 대학·대학원 확대 △민간 교육 센터 지원 △재직자(전문가) 대상 교육 프로그램 마련이다.임 장관은 현재 소프트웨어 교육 대학이 41개인데 향후 64개까지 확충해 나갈 계획이라고 구체적인 수치를 들며 강조했다. 이노베이션 아카데미 등 민간 기관에도 향후 투자금을 확대해 나간다는 방침이다.전문가 교육과 관련해서 그는 "본인의 도메인 지식을 가지고 있는 연구자들이 소프트웨어 관련 트레이닝을 받아 자기의 연구에 활용하는 방법을 마련할 것"이라며 "마이크로 디그리(micro degree)와 같이 1년 정도 코어 교육만 받는 과정을 만드는 방안을 생각하고 있다"고 말했다.'진짜 5G' 활성화, 임기 내 가능할까통신 공학을 전공한 임 장관은 5G 정책을 중점 과제로 꼽았다. 얼마 전 그는 SK텔레콤과 KT, LG유플러스 통신 3사 대표와 만나 '28기가헤르츠(㎓) 대역 5G 활성화' 시범사업에 대한 적극적인 참여를 독려하기도 했다.28㎓ 대역의 5G 통신은 4세대 LTE(롱텀에볼루션) 보다 이론상 속도가 20배 빨라 '진짜 5G'라 불린다. 통신사들은 3년 전 주파수 경매에서 3.5㎓와 28㎓ 두 개의 대역을 확보해 놨으나, 28㎓은 '기술적 미완성'이라는 판단에 상용화엔 회의적이다.28㎓ 대역은 초고속·초대용량 데이터 전송에 적합하나 회절성이 약해 도시처럼 수많은 사람이 돌아다니고 빌딩숲이나 아파트 단지로 이뤄진 공간에선 심각한 속도 저하 문제가 발생한다. 통신사들이 28㎓ 대역 상용화에 대해 '안한다'가 아닌 '어쩔 수 없이 못 한다'는 입장을 내비치는 것은 이러한 이유에서다.임 장관은 통신 3사에 부과된 기지국 구축 부담을 경감해줄지와 관련해 현재로선 뚜렷한 입장을 드러내지 않았다. 정부는 과거 28㎓ 대역 주파수를 할당하면서 통신 3사에 각사별 28㎓ 기지국 1만5000국씩을 달성해야 한다는 목표를 줬다.기술적 성숙도가 높지 않은 상황에서 기지국 구축에 수조원을 투입하는 건 업계의 부담이다. 최악의 경우 통신 3사가 주파수를 자진 반납할 수 있다는 전망도 나오고 있다.이와 관련해 임 장관은 "기지국 의무 구축 부분에 대해서는 올해 말까지 기간이 정해져 있고 내년에 점검에 들어간다"며 "그 부분에 대해서는 좀 더 살펴보고 내년에 점검할 때 정책 방향을 말하는 게 맞을 것 같다"고 선을 그었다.</t>
-  </si>
-  <si>
-    <t>[임혜숙 과기부 장관 첫 기자간담]SW 중심 대학 41→64개로 확충민간업체·재직자 대상 교육 강화기초 과학 장기연구 토대 마련하고시스템반도체·우주탐사 투자 약속임혜숙 과학기술정보통신부 장관이 5일 오전 세종특별자치시 세종파이낸스센터 과기정통부 기자실에서 열린'출입기자 간담회' 에 참석해 인사말을 하고 있다./사진 제공=과기정통부[서울경제] “정보통신기술(ICT) 인재 부족이 심각합니다. 학교와 연구소 등에서의 경험을 바탕으로 정부·민간·학계를 아우르는 인재육성 플랫폼을 더욱 촘촘히 구축하겠습니다.”임혜숙(사진) 과학기술정보통신부 장관은 5일 세종시 청사에서 연 취임 후 첫 기자간담회에서 이같이 밝혔다. 임 장관은 “취임 후 현장을 다녀보니 ICT 관련 인재가 부족하다는 이야기를 많이 들었다”며 “산업 수요가 많은 인공지능(AI)과 소프트웨어(SW) 분야의 인재를 양성해 ICT를 포함한 전체 산업체 기대에 부응하는 정책을 추진하겠다”고 강조했다.대한민국의 성공적인 디지털 대전환, 국가 연구개발(R&amp;D) 100조 원 시대, 코로나19 극복 등의 과제를 해결하기 위해서는 우수한 인재 육성과 확보가 핵심이라는 게 임 장관의 판단이다. 임 장관은 오랜 대학과 연구소 경험을 바탕으로 인재 육성에 대한 3가지 접근 방식도 제시했다. “학교에 오래 있어서 어떻게 인재를 양성하는지 감을 잘 잡고 있다”며 자신감을 드러낸 임 장관은 우선 SW 중심 대학을 41개에서 64개로 확충해 학교에서 제대로 된 우수 인재를 양성하는 방안을 추진하기로 했다. 또 이노베이션 아카데미 등 민간 SW 교육업체를 통한 인재 양성 방안도 밝혔다. 이들 민간 교육기관에 대해 정부가 지원해 양질의 교육이 이뤄지게 하겠다는 것이다. 마지막으로 연구자가 SW 교육을 받고 자신의 연구에 활용할 수 있도록 재직자 대상 교육을 강화하기로 했다. 임 장관은 이를 위해 “과학기술원 등에서 운영하는 ‘마이크로 디그리’(학점 당 학위제)를 적용하는 방안도 검토하고 있다”며 “석사 학위 2년 중 1년은 코어 교육을 받고 이를 자신의 연구에 활용하는 재직자 교육 방식이 효율적일 것이라고 생각한다”고 설명했다. 임 장관은 이어 “AI와 SW 뿐 아니라 과학기술 기초 연구를 위한 인재 양성이 필요하다”면서 “장기간 양질의 연구를 지속하기 위한 방안도 고민하겠다”고 덧붙였다.임 장관은 R&amp;D 100조 원 시대를 맞아 핵심기술 확보를 위한 도전적 연구과제도 확대하기로 했다. 임 장관은 “최근 글로벌 기술패권 경쟁에서 알 수 있듯이 선진국은 반도체 등 첨단기술을 무기로 활용하고 있어 이에 대한 착실한 대비가 필요하다”며 “기술경쟁력 확보를 위해 시스템 반도체, 양자기술, 6G 등 국가 전략기술 분야의 도전적 연구를 확대할 것”이라고 밝혔다. 우주 분야에 대한 투자도 같은 맥락이다. 그는 “한미 정상회담에서 미사일 지침이 종료되면서 민간이 발사체 개발에 참여할 수 있는 기반이 마련됐고 아르테미스(미국의 달탐사 계획) 약정을 체결해 도전적 우주 탐사 프로그램을 추진할 수 있게 됐다”며 “이런 노력 속에 최근 한국형위성항법시스템인 KPS도 예타를 통과해 본격 추진이 가능해졌고, 오는 10월에는 우리 손으로 만든 발사체(누리호)를 발사하는 등 ‘우주강국 대한민국’의 꿈에 한걸음 더 다가갔다”고 전했다.아울러 코로나19 극복을 위한 백신 및 치료제 개발도 적극 지원할 계획이다. 임 장관은 “6일 바이러스 기초연구를 전문적으로 수행할 첫 연구소인 ‘한국바이러스기초연구소’가 문을 연다”며 “연구소를 중심으로 대학·기업·연구기관이 폭넓게 협력해 바이러스 대응 능력과 기초연구 저변을 확대할 것”이라고 말했다.</t>
-  </si>
-  <si>
-    <t>임혜숙 장관, 디지털 뉴딜 성과 극대화 집중“ICT 전공자라 디지털 뉴딜 정책에 애착을 가지고 있다. 디지털 뉴딜이 1년 동안 성과를 이뤄내고 있고, 앞으로도 성공적으로 추진하겠다.”임혜숙 과학기술정보통신부 장관은 5일 세종청사에서 열린 출입기자단 간담회에서 중점적으로 추진할 정책 목표에 대해 이같이 말했다. 한국판 뉴딜 정책의 핵심인 디지털 뉴딜에 정책 역량을 집중하겠다는 설명이다.코로나19 이후 경기침체 극복과 비대면 문화의 급격한 확산 속에 이에 대응하기 위한 한국판 뉴딜 정책이 마련됐다. 이 가운데 과기정통부가 주도하고 있는 디지털 뉴딜의 중요성을 강조한 것이다.임혜숙 장관은 과기정통부가 앞으로 해야 할 일 세 가지를 꼽으면서 첫째로 ‘디지털 대전환’을 사례로 들기도 했다.디지털 뉴딜을 통한 단편적인 성과 외에도 정부가 함께 살펴야 할 과제로 디지털 포용과 인공지능과 소프트웨어 인재육성을 꼽은 점이 눈길을 끈다.임 장관은 “디지털 뉴딜은 산업 성장과 일자리 창출 등의 여러 성과가 있지만 디지털 포용 부문에도 많은 관심을 가지고 있다”면서 “디지털 격차를 실감하고 어려움을 느끼는 국민들이 많을 텐데 디지털 포용을 실현하면서 디지털 혜택을 다 같이 누리는데 집중하겠다”고 밝혔다.이어, “현장에서 AI와 소프트웨어 인재가 부족하다는 의견을 계속해 들었다”며 “학교에 오래 재직했기 때문에 인재육성과 산업의 수요 등을 잘 알고 있기 때문에 이 부분의 정책을 잘 추진하겠다”고 강조했다.디지털 포용과 인재육성, 코로나 극복과 같은 현안과 함께 미래를 위한 투자에 대한 견해도 밝혔다.임 장관은 “현재 닥친 문제뿐만 아니라 계속 성장하기 위해 어떤 연구를 하고 투자할지 고민이 필요하다”면서 “시스템반도체, 6G 통신, 양자기술, 우주, 탄소절감 등의 분야에서 미래 성장동력을 발굴하겠다”고 설명했다.■ 디지털 뉴딜 성과...“이미 나오고 있다”디지털 뉴딜 정책은 지난해 7월부터 시작됐다. 지난 1년 동안 정책적인 역량이 집중된 만큼 성과에 대한 기대도 높은 편이다. 또 임 장관의 발탁을 두고 디지털 뉴딜 정책 성과 극대화를 위한 인사라는 평가도 많았다.임 장관은 디지털 뉴딜 정책은 이미 성과가 나타나고 있다는 점을 조명했다.그는 “디지털 뉴딜 정책은 1년 밖에 안 지났지만 이미 좋은 성과를 이루고 있다”며 산업의 변화 특히 디지털 전환은 매우 빠르게 진행되고 있다“고 운을 뗐다.이어, “SW AI 업계에서는 데이터를 활용한 서비스를 출시하는 기업이 늘어나고 있고 비ICT 기업에서도 디지털 전환에 따른 변화가 일어나고 있다”며 “아직 초기 단계지만 DNA(데이터, 네트워크, 인공지능) 산업이 성장하는 모습을 보이고 있다”고 설명했다.임 장관은 또 “일자리 창출에도 성과가 있었는데 AI 학습용 데이터를 구축하는 사업에서 4만2천명의 일자리가 생기면서 코로나로 고용시장의 어려움을 줄이는데 도움이 됐다고 생각한다”며 “또 데이터 구축을 위해 674개의 기업이 참여했는데 이런 부분에서 디지털 뉴딜의 적지 않은 성과가 일어나고 있다”고 덧붙였다.디지털 뉴딜과 동반되는 정책인 디지털 포용에 대해서도 국민이 체감할 성과를 이끈다는 계획이다.임 장관은 “디지털 포용 정책에 따른 배움터가 전국 각지에 1천개 이상이 있고, 43만명의 어르신들이 배움터에서 교육을 받고 있다”며 “이 역시 성과라고 생각하지만, 국민이 더욱 체감할 수 있도록 현재 포용 사업을 지속적으로 정책 연속성을 갖추면서 기기 접근성을 높이는 방법과 같은 다양한 정책을 추진하겠다”고 말했다.■ “SW 인재 수요, IT 기업뿐만이 아니다”이날 임 장관은 미래 산업을 일굴 인재 양성의 중요성을 거듭 강조했다. 국가 차원의 우수인재 확보라는 표현을 쓰기도 했다.특히 AI와 SW 인재 양성이 필요하다는 얘기에 대부분 시간을 할애했다. 무엇보다 산업의 수요가 크다는 이유에서다.장관 취임 이후 방문한 현장에서 가장 인상이 깊은 곳으로 이노베이션아카데미를 꼽기도 했다. 한국판 에꼴42라 불리는 이노베이션아카데미는 자기주도형 SW교육기관으로 지난 2019년 말부터 본격 가동된 곳이다.임 장관은 “SW 인력을 양성하는 현장에 가면 네카라쿠배 이야기를 많이 한다”며 “네이버, 카카오, 라인, 쿠팡, 배달의민족과 같은 기업에 SW 인재 수요가 크다는 이야기인데 단순히 이런 SW 관련 기업뿐만이 아니라 제조, 에너지 등 산업분야를 불문하고 디지털 전환이 가속화되고 잇기 때문에 SW 인재가 더욱 필요한 상황이다”고 말했다.SW 인재를 육성하기 위해, 임 장관은 3가지의 접근 방법을 제시했다.임 장관은 “우선 학교에서 현장이 원하는 인력 수요를 맞춰야 한다”며 “SW중심대학이나 AI대학원 지원 등의 정책을 펴고 있는데 SW중심대학은 현재 41곳에서 64곳까지 지속적으로 확대하겠다”고 말했다.이어, “대학과 함께 민간에서 이뤄지는 교육도 중요한데 이노베이션아카데미나 NHN 등에서 이뤄지고 있는 교육이 양질로 제공될 수 있도록 정부가 보다 지원하는 방법을 고민하고 있다”고 설명했다.그는 또 “세 번째 방법은 현업에 있는 재직자 대상 교육이다”며 “SW 관련 지식을 쌓고 트레이닝을 받아 자기 분야에서 연구에 활용할 수 있는 방법을 찾을 수도 있다”고 덧붙였다.</t>
-  </si>
-  <si>
-    <t>취임 후 첫 간담회…"학교·민간·재직자 대상 교육 등 추진"임혜숙 과학기술정보통신부 장관이 5일 오전 세종특별자치시 세종파이낸스센터 과기정통부 기자실에서 열린'출입기자 간담회' 에 참석해 인사말을 하고 있다.왼쪽부터 용홍택 제1차관, 임혜숙 장관, 조경식 제2차관, 이경수 과학기술혁신본부장.과학기술정보통신부 대변인실 이영규 [사진=과기정통부]임혜숙 과학기술정보통신부(과기정통부) 장관이 국가 연구개발(R&amp;D) 100조원 시대를 맞아 국가 차원의 우수인재 확보를 적극적으로 육성하겠다는 의지를 내비쳤다.임 장관은 5일 정부세종청사에서 열린 취임후 첫 기자간담회에서 "소프트웨어(SW)기업뿐 아니라 기존 제조업, 에너지업 등 업종에 관계 없이 디지털 전환이 가속화 되면서 SW 인재 수요가 커지고 있다"며 "현장을 돌다보니 SW, AI를 활용해 연구 데이터를 분석하고 새로운 의미를 도출해내는 인력에 대한 필요성이 강조되지만, 턱없이 부족하다는 이야기가 나왔다"고 말했다.임 장관은 인재육성 방안으로 3가지를 제시했다. 우선 SW중심대학과 AI대학원 등 기존 방식인 학교에서 인재를 양성한다는 계획이다. SW중심대학의 경우 3년동안 42개에서 64개로 확장해 나간다는 방침이다.이와 함께 이노베이션 아카데미나 NHN아카데미처럼 민간에서 SW교육을 담당하도록 하는 것을 추진하는 한편, 재직자 대상 교육을 함께 진행할 예정이다. 일례로 연구자들이 SW 훈련을 받아 본인의 연구에 활용할 수 있도록 한다는 것이다.임 장관은 "SW나 AI외에도 기본적 과학기술 기초연구를 위한 인재 양성도 굉장히 중요하다"며 "생애주기에 맞는 연구지원 사업을 통해서 연구자들이 연구비가 없어 연구를 단절하거나 낙오하지 않도록 하겠다. 청년과 여성을 위한 인력 양성에도 노력 기울이겠다"고 다짐했다.다음은 임 장관과 기자들간 일문일답이다.- 남은 임기가 7~8개월 정도라 성과 내기엔 길지 않다. 선택과 집중 필요한데 가장 성과 내고 싶은 부분은 어떤 것인지."ICT를 전공했다보니 디지털 뉴딜에 애착이 있다. 지난 1년동안 디지털 뉴딜에서 낸 좋은 성과를 이어가겠다. 산업이나 일자리 측면에서 여러가지 효과가 있다.이와 관련, 특히 디지털 포용에 관심이 크다. 디지털 시대에 어려움 느끼는 분들을 포용하면서 디지털 혜택을 누릴 수 있도록 하는 방향으로 정책을 추진하려 한다계속해서 성장하려면 어떤 연구개발에 투자할지에 대한 고민이 필요하다. 시스템반도체, 양자기술, 6G, 우주, 탄소저감 등에 과감한 연구개발(R&amp;D) 투자로 미래성장동력을 발굴하겠다.코로나19가 아직 극복 안되고 있는데 변이바이러스가 계속 출현하고 있다. 백신, 치료제 개발을 소홀히 할 수 없다. 이를 위한 연구, 후보물질 개발, 백신 플랫폼 개발 지원을 강화하겠다."- 아르테미스 약정 프로젝트 예산은 나사(NASA)와의 협의가 필요하다. 구체화된 부분이 있는지. 약정에 늦게 가입한 이유는 무엇인지."안전한 달탐사 원칙과 관련한 정책에 방향이 달려있다. 현재 달탐사와 관련해 나사가 쉐도우캠을 탑재해 달 극지지방 촬영하는게 있고, 한국천문연구원 주도로 미국 민간달착륙사업(CLPS)이 있다. 구체적인 이행방안은 미국측과 계속 협의 중이다. 이에 대한 올해 예산은 340억 정도다.아르테미스 사업은 우주탐사와 관련돼 있다. 한국은 위성과 발사체 중심으로 우주 사업을 추진하고 있다. 탐사는 약한 게 사실이다. 달탐사와 관련해서 우주탐사를 추진했는데, 직접적 연구와는 거리가 멀다. 그러다보니 늦었다.전체적으로 우주 관련한 실력이 향상되면서 인정을 받고 있다. 발사체, 위성, 활용하는 부분 등에 대해 계획을 짜고 있다."- 주 52시간제가 본격화 된다. 업무 특수성이 있는 과학분야는 충격이 있을 텐데 어떻게 대응할 계획인지."ICT 업계가 주 52시간에 맞춰 일하는 게 어렵다는 걸 알고 있다. 그러나 방향은 정확하다. 업무 때문에 가정이나 자기계발에 소홀히 하는 일 없도록 업무를 수행하고 일과 가정 밸런스를 만들어가는 방향성이 맞다. 현장에 나가서 어떻게 주 52시간 지키면서도 경쟁력 잃지 않을 수 있는지 의견을 듣고 방향성을 잡는 노력을 하겠다."- 누리호 개량 사업 예산이 삭감됐다. 어떤 방식으로 2030년 달탐사 등을 목표로 한 우주개발 정책을 추진할 것인가."누리호 관련 예비타당성(예타)은 반복발사와 개량형 두종류다. 반복발사는 예타를 통과했다. 앞으로 누리호를 4번 반복해 발사할 준비 되고 있다. 반면 개량형은 통과하지 못했다. 도전성이 부족하고 미사일지침 결과가 반영되지 않았다는 평가를 받았다. 이를 보완해서 다시 한 번 추진하겠다."- 나로호 우주센터에 민간 발사장을 구축한다고 했는데, 업계에선 완성된 로켓을 발사하는 곳으로 안다. 이전에 실험 발사해야 하는데 관련 공간이 없어 해외로 나갈 수 밖에 없다. 어떻게 보는지."발사장 개발에 대한 계획이 있다. 발사체 완성단계 여부는 구체적으로 정의되지 않았다. 우주산업체를 위해서 민간발사장을 개방하는 것으로 완성된 발사 서비스만 제공하는 것은 아니다 시범 발사도 포함될 수 있다. 구체적인 계획은 수립 중이다."- 우리나라도 우주 인터넷 서비스 시장에 진입해야 한다는 이야기가 나온다. 어떤 계획이 있는지."6G 기초 연구 개발과 이를 위한 소형 위성 연구개발 및 발사 등과 관련 부분이 과기정통부 추진해야 할 부분이다. 6G 기술은 인공위성을 쏘면 소형 위성에 의해 인터넷 데이터가 중계되는 기술이다."- 퍼스트무버 연구환경을 마련하겠다고 했다. 성과주의예산제도(PBS)나 예타 제도 개선 등에 대한 목소리가 나온다. 어떻게 보는지"PBS 제도에 대한 어려움이 있지만 연구원에 따라 긍정적으로 보는 곳도 있다. 일괄적 개선은 어렵다. 과제가 파편화돼 있고 단기 성과 과제들이 PBS로 나온다는 말을 들었다. 과제를 장기화하고 대형화하는 방식으로 개편하겠다. 장기적 안목 갖고 진행해야 한다. 출연연 출연금에 대해서도 작은 분류까지 이슈에 대응할 여지가 별로 없다는 이야기가 있다. 대과제를 반영하도록 심의하겠다."- 탈원전 기조가 맞다고 언급한 바 있는데, 업무파악 후 견해에 변화가 있는지."(정부가) 당장 탈원전을 하는 게 아니다. 60년에 걸쳐 서서히 원자력 의존도를 낮춰간다는 기조다. (탈원전에는) 여러 이유가 있다. 한국은 작은 국토 면적에 3-4군데 집중적으로 대형 원전이 건설돼 있다. 위험도가 있을 수 있어 탈원전 기조가 결정된 것이다.이에 대한 입장 변화는 없다. 서서히 원전 의존도를 낮춰가야 한다. 한국의 원자력 기술은 세계적이다. 이를 잘 활용해서 다른 나라에 원전을 수출하거나 해외 원전 건설에 있어 여전히 추진해가야 한다. 적극 연구개발도 진행하고 추진해야 한다.우리나라가 원전을 짓지 않으면서 수출하는 것에 대한 논란이 있을 수 있지만, 한국 상황에 맞춰 충분한 설득이 필요하다. 한국 기술을 필요로 하는 곳이 있다면 세계적 수준이니 수출할 수 있다."- 국산 코로나19 백신과 치료제 개발 시점은 언제로 보는지."이는 국민 모두의 염원이다. 백신 개발 상황을 보면 2상, 3상 임상을 진행하는 곳이 몇 군데 있는데 특히 3상 진입에 여러 어려움이 있다. 우리나라는 코로나 환자가 별로 없어서 해외에서 임상을 해야 한다. 그러려면 막대한 예산이 들다보니 어려움이 있다.반면 국산 치료제는 조건부 승인을 받아 치료에 사용되고 있기도 하다. 백신 치료제는 지속적으로 진행해가야 한다. 감염병이 금방 끝나지 않을 것 같은 데다 변이 바이러스까지 나오고 있다. 우리나라가 백신 개발 경험을 확보하고 플랫폼을 갖는 게 중요하다. 그런점에서 과기정통부는 후보 물질 개발, 동물 실험 등 연구개발에 있어 적극 지원할 계획이다."- 국가과학기술연구회(NST) 이사장직을 맡았었다. 최근 차기 이사장 선임이 마무리 되고 있다. 이사장을 선임하는 데 있어 중요한 요소가 무엇이라고 생각하는지. "현재 3배수 후보가 추려진 걸로 안다. 이 중 늦지 않은 시간 내 선임 이뤄질 것이다. 중요하게 생각하는 이사장 역량은 출연연 현황을 잘 파악하고 비전과 나아갈 방향성을 잘 제시할 수 있는 것이다."- 통신3사가 28㎓ 5G 실증사업을 진행 중이다. 연내 기지국 의무구축이 가능하다고 보는지, 공동 구축도 가능한지. "28㎓ 공동 구축은 좋은 아이디어가 아니다. 아직 살펴보고 있지 않다. 의무구축 기간은 연말까지로 정해져 있다. 내년에 의무구축 실태를 점검하고, 그 때 정책 방향을 말하겠다.앞서 통신 3사 대표와 만나 실증사업에 대해 논의했다. 많은 실증사업을 통해 국민이 28㎓ 새 서비스를 체감할 수 있도록 해달라고 부탁했다. 이와 달리 3.5㎓ 농어촌 지역 공동구축은 좋은 아이디어다. 모바일월드콩그레스(MWC)에서 상도 받았다."- 디지털세가 추진되는 과정에서 한국에선 구글 등이 포함됐고, 해외에선 삼성전자나 SK하이닉스가 과세대상으로 포함됐다. 어떻게 생각하는지."디지털세는 국제적 논의가 필요한데 G20(주요 20개국) 재무장관 회의에서 논의하겠다고 하니 반갑다. 기본적으로 구글이나 넷플릭스 같은 플랫폼 사업자들이 우리나라에서 과세 받는건 좋지만 삼성전자나 SK하이닉스와 같은 수출 주도 기업이 해외에서 과세를 받게 되는 것은 생각해 봐야 할 부분이다. 구체적 내용이 확정되면 우리가 할 수 있는 전략들을 마련할 것이다."- 1년 전 수립한 디지털 미디어 생태계 발전방안에 성과가 없다. 부처가 나뉘어 있어 적극적으로 추진 못 하는 것 같다. "디지털 미디어 생태계 조성에는 방송통신위원회, 문화체육관광부, 과기정통부 등 여러 부처가 함께하고 있다. ICT관련 산업 발전을 위해서는 주무부처가 꼭 필요하다. 디지털 미디어 관련 산업은 과기정통부가 주체가 되고 관련 부처와 업계의 협력을 이끌어 산업을 진흥시켜 나가야 한다."- 얼마전 SK브로드밴드와 넷플릭스 망이용대가 관련 판결이 나왔다. 후속으로 정책 방향 고민하고 있는 것이 있는지."1심 소송 결과가 나왔는데 업계에서 후속 조치가 진행될지 두고 봐야 한다. 과기정통부는 온라인동영상서비스(OTT)나 콘텐츠 등과 같은 신사업이 규제에 발목잡히지 않도록 정책방향을 설정하고 지원하겠다."- 디지털 뉴딜과 관련해 국민이 체감할 수 있는 성과는 어떤 게 있는지. 디지털 포용 정책 말했는데 해봤으면 하는 정책은 무엇인지."디지털 뉴딜을 추진한 지 1년밖에 안 됐는데 각 산업에서 빠르게 디지털 전환을 이루고 있다. SW, AI 관련 업계에서는 데이터를 활용한 새로운 서비스를 출시하고 있다. 비ICT 기업도 업무에서 데이터를 활용하고 있다.일자리 창출에서도 성과가 나타나고 있다. 인공지능 학습용 데이터 구축에서 4만2천명의 일자리를 창출했다. 코로나19로 어려운 고용시장에 도움이 됐다고 생각한다. AI학습용 데이터 구축을 위해 674개 기업이 참여한 것도 적지 않은 않은 성과다.디지털 포용과 인력 양성에서도 결과가 나오고 있다. 디지털 포용 관련해서는 1천개 이상 디지털 배움터를 운영했고 43만명의 어르신들이 교육을 받았다. 디지털 지식이 부족해도 기기를 잘 활용할 수 있도록 하겠다."</t>
-  </si>
-  <si>
-    <t>임혜숙 과기정통부 장관, 5일 취임 첫 기자간담회에서 주요 추진 업무 밝혀"네·카·라·쿠·배(네이버, 카카오, 라인, 쿠팡, 배달의민족)라고 들어봤나? 모두들 디지털 인재 부족에 허덕이고 있다. 인재 양성에 총력을 기울이겠다."임혜숙 과학기술정보통신부 장관이 취임 50여일 만에 처음으로 기자간담회를 갖고 디지털 뉴딜 확산과 디지털 인재 양성, 미래 핵심 기술 중점 투자, 누리호 개량 사업 재추진, 코로나19 백신 개발 지원 등 현안에 대한 입장을 밝혔다.임 장관은 우선 "대한민국 연구자들이 여러 제약에 발목잡히지 않고 세계 무대에서 퍼스트 무버가 될 수 있는 연구환경 만드는 것이 목표"라고 각오를 밝혔다. 또 추진 1년을 맞은 디지털 뉴딜의 확산 가속화, 선도적 투자를 통한 5G플러스 산업 뒷받침, 국가 차원 핵심 기술ㆍ우수인재 확보, 우주분야 뉴스페이스(New Space) 시대 준비 본격화, 감염병 대응 능력과 기초연구 저변 확대 등을 주요 추진 업무로 소개했다. 다음은 임 장관과의 일문 일답.▲ 남은 임기가 길어야 7-8개월인데, 꼭 성과 내고 싶은 부문은?= ICT 전공한 사람이라서 그런지 디지털뉴딜에 애착 갖고 있다. 지난 1년간 좋은 성과 이뤘다. 앞으로도 좋은 성과 이를 수 있도록 성공적으로 추진하겠다. 디지털뉴딜은 산업적 측면이나 일자리 창출 측면 등에서 성과가 있었다. 특히 디지털 포용 부분에 많은 관심이 있다. 국민들이 디지털 격차 실감하고 어려움 느끼는 부분 있을 텐데, 같이 포용하면서 디지털 혜택을 디지털시대에 같이 누리는 정책을 추진하겠다. 또 현장에서 인공지능(AI)이나 소프트웨어 인재가 부족하다는 목소리가 높다. 학교에서 오래 있어서 어떻게 인재를 양성하는지 감을 잘 잡고 있다. AI와 SW의 훌륭한 인재를 양성해 산업체 수요에 부응하는 정책을 펼치겠다. 시스템 반도체, 6G, 우주개발, 탄소 중립, 양자 등에 과감한 연구개발(R&amp;D) 투자를 통해 미래 성장 동력을 발굴해 준비하겠다. 코로나 감염병 백신과 치료제 개발에 소홀히 할 수도 없다. 백신 후보물질 개발, 플랫폼 연구 등에 대해서도 지원을 강화하겠다. 한미정상회담 후속으로 이공계 인력 교류, 미국과의 협력 연구 등도 중요한 부분이다. 그 부분도 잘 챙겨가겠다.▲ 아르테미스 약정은 구체적으로 어떻게 추진되는지?=(고서곤 연구개발정책실장) 안전하고 평화로운 달탐사 위한 원칙과 정책 방향을 담은게 아르테미스 약정이다. 현재 진행되는 것은 달 탐사 관련해서 미 항공우주국(NASA)의 쉐도우캠을 2022년 발사하는 달 탐사 궤도선(KLPS)에 탑재해 달 극지 지방을 탐사하는 것이 있고, 한국천문연구원이 미국의 '상업 달 탑재체 서비스(CLPS)'에 참여한다. 구체적인 참여와 관련해 미국 측과 협의해 가야 한다. 관련 예산은 한 340억원 정도 될 것이다.▲국민이 체감할 만한 디지털뉴딜 성과가 있다면?= 추진한지 1년밖에 안 됐지만 산업이 빠르게 디지털 전환하고 있다. 데이터 활용해 새로운 서비스를 출시하는 기업이 늘고 있다. 비 ICT 기업에도 데이터 활용해 업무를 디지털화하거나 있는 데 있어 변화가 있다. 아직은 초기단계지만 DNA 산업 성장하고 있다. 일자리 창출 측면 성과 있다. 인공지능 학습용 데이터, 1000명 일자리 창출됐다. 코로나19로 어려운 고용시장 어려움 완화에 도움이 됐다. AI 학습용 데이터 창출을 위해 642개 기업이 참여했다. 작지 않은 성과다. 디지털 포용과 인력 양성 분야에 있어서도 좋은 성과 이루고 있다. 현재 전국 1000개 이상 디지털 배움터 운영 중이다. 43만명 국민이 이곳에서 디지털 교육 받았다. 좋은 성과다. 앞으로 디지털 뉴딜을 어떻게 국민이 체감하는 성과로 만들거냐면, 지금까지 하던 사업을 지속적으로 정책 연속성 있게 추진한다. 포용에 있어 기기 접근성, 디지털 지식이 없어도 잘 활용할 수 있도록 기기가 만들어져야 한다. 디지털 기기 접근성을 높이는 등 새로운 관련 정책을 추진하겠다.▲ 넷플릭스-SK브로드밴드간 망 이용대가 소송에 대한 입장은?= 업계 간 후속 업무가 어떻게 진행될 지 두고봐야 한다. 과기정통부가 해야 할 역할은 새로운 신사업을 지원하는 것이다. OTT 콘텐츠 등 부가통신 신사업이 규제에 발목 잡히지 않도록 정책 방향을 설정하고 지원하고 추진해야 한다.▲ 누리호 개량 사업 예산이 삭감됐는데, 2030년 달탐사 등을 목표로 한 우주개발 정책은 어떻게 추진할 것인지?= 누리호 관련 예타는 두 종류였다. 누리호 신뢰성 높이는 반복발사 부분이고, 두 번째가 개량형 부분이다. 반복발사 부분은 예타 통과했다. 앞으로 누리호를 4번 반복해서 발사하는 준비 되어가고 있다. 그런데 개량형 관련해서는 예타 통과 못 했다. 미사일 지침 종료에 따른 부분이 반영되지 않았고, 도전성이 부족하다는 지적을 높였다. 신뢰성을 높이면서 미사일 지침 종료에 따른 후속 부분을 반영하고 도전성을 보완해서 다시 한 번 추진하겠다.▲디지털 미디어 발전방향의 성과와 한계가 있다면?= 디지털 미디어는 하나의 부처가 아닌 방통위, 문체부, 과기정통부 등 여러 부처 관련돼 있다. 적어도 ICT 관련 산업이기에 주무부처는 필요하다. 주무부처가 있고, 관련된 다른 부처와의 협력 이끌어내서 산업 발전시켜야 한다. 앞으로도 디지털 미디어 관련 산업은 과기정통부가 주체가 되고, 다른 부처 협력을 이끌어내는 방향으로 산업 진흥시켜야 하지 않을까. 법안도 여럿 발의돼 있고 추진전략도 여럿 있다. 디지털 미디어 생태계 발전시킬 수 있도록 추진하겠다.▲디지털세에 대해 어떻게 생각하나?= 디지털세 관련해서는 국제적 논의가 있었어야 했다. G7 정상회담 논의가 있었고 재무장관 회의에서 구체적 논의가 있을 것이라고 해서 반가운 마음이다. 구글을 비롯해 넷플릭스 등 플랫폼 사업자가 한국에서 과세를 받은 것은 좋은데, 삼성전자 SK하이닉스 등 수출 주도 기업이 해외에서 과세당하는 부분에 대해서는 생각해봐야 하는 부분이다. 어느정도 과세할지, 과세 기업 대상 등에 대해서는 확정되지 않았다. 재무장관 회의에서 논의되면, 우리 전략과 추진 방향을 마련할 수 있을 것이다▲ 28GHz 통신3사 실증사업 진행 중인데 연내 의무구축 가능한지. 공동구축도 가능한지?= 28GHz 실증 사업의 경우 최근 통신3사 대표와 만나서 실증사업 논의를 했다. 여기저기 많이 실증사업 해서 국민이 28GHz 새 서비스를 체감할 수 있도록 해달라고 부탁했다. 여러개 계획돼 있다. 의무구축 부분은 연말까지로 정해져 있고, 내년 점검하고 있다. 그 부분에 대해서는 살펴보고 내년 점검 때 정책 방향을 말하면 좋겠다. 공동구축의 경우 기술적으로 5G 3.5GHz 농어촌 지역 공동구축은 좋은 아이디어다. MWC에서 상도 받았다. 기술적으로 28GHz 공동구축은 좋은 아이디어는 아니라고 파악하고 있다. 28GHz 안 터질 때 그 밑으로 내려가야 하는데, 3.5GHz가 각각의 망이 있어서 좋은 아이디어는 아니라고 들었다. 28GHz 공동구축에 대해서는 아직 살펴보지 않고 있다.▲ 성과주의 예산제도(PBS), 예타 제도 개선 의향은?= 연구 현장 둘러 보니 PBS 제도의 어려움을 얘기하는 목소리가 있었다. 다만 연구원에 따라서 PBS 제도에 긍정적으로 생각하는 곳도 있었다. 일괄적으로 이렇게 개선해야 한다 말하기 어렵다. 과제가 너무 파편화돼 있다. 단기 성과를 내야 하는 과제가 PBS로 많이 나오고 있다. 과제를 장기로 하고 크게 가져가는 방향으로 개편돼야 한다.  장기적 안목을 갖고 연구개발해야 한다. 출연연 과제가 작은 분류까지도 이미 정해져서 나온다. 새로운 이슈 터질 때, 이에 맞춰 연구할 수 있는 여지가 없다. 이를 반영해 심의하겠다.▲우주인터넷망 구축 추진 계획이 있나?= 6G 기술이 인공위성 쏘고 이에 대한 소형 위성에 의해서 인터넷 데이터가 중계되는 기술이라고 파악한다. 6G 기초 연구 개발, 그를 위한 소형 위성 연구개발 및 발사 등과 관련 부분이 과기정통부 추진해야 할 부분이 있다.▲ 아르테미스 약정 서명이 왜 다른 나라에 비해 늦어졌나?=(고서곤 실장) 아르테미스 약정은 우주탐사와 관련돼 있다. 한국은 위성과 발사체 중심으로 우주 사업을 추진해서 탐사는 약한 게 사실이다. 달 탐사 때문에 우주탐사를 추진했는데, 직접적 연구와는 거리가 멀다. 그래서 늦었다. 전체적으로 우주와 관련한 실력이 향상되면서 인정받아서 가게 된 것이다. 한국도 계획을 세우면서, 앞으로 우주 탐사 부분을 중시하고 있다. 발사체, 위성, 활용하는 부분 등에 대해 계획을 짜고 있다. 산업적으로 어떻게 연결되는지. 우주 탐사 부분은 새롭게 추진하고 있다.(용홍택 1차관) 작년에 정부는 미국과 협의를 했다. 한미정상회담 계기로 급물살을 탔다. 정상회담 그 때 즉흥적으로 한 건 아니다. 작년부터 협의해 왔다.▲ 탈원전 기조가 맞다고 했는데 여전히 같은 견해인가?= 당장 탈원전한다는 개념은 아니다. 60년에 걸쳐 서서히 원자력 의존도를 낮춰간다는 기조다. 여러 이유가 있다. 한국은 작은 국토 면적에 3-4군데 집중적으로 대형 원전이 건설돼 있다. 위험도가 있을 수 있다. 이에 탈원전 기조가 결정된 것으로 입장 변화는 없다. 서서히 원전 의존도 낮춰가야 한다. 한국 원자력 기술이 세계적이므로, 이를 잘 활용해서 다른 나라에 원전을 수출하거나 해외 원전 건설에 있어 여전히 추진해가야 한다. 적극 연구개발도 진행하고 추진해야 한다. 논란이 있을 수 있으나, 한국 상황에 맞춰 충분한 설득이 필요하다. 한국 기술이 필요로 하는 곳이 있다면, 세계적 수준이니 필요한 곳이 있다면 수출할 수 있다.▲국산 코로나19 백신과 치료제는 언제 개발될까?=국민 모두의 염원이다. 한국이 생산하는 백신이 필요하다. 개발 진도를 말하자면, 1상과 2상을 잘 했고 3상을 진행하는 회사가 여러 곳 있다. 그런데 3상 진입에는 여러 어려움이 있다. 우리나라 코로나 환자가 별로 없어서 해외서 임상해야 한다. 그러면 막대한 예산이 든다. 반면 국산 치료제는 조건부 승인 받아서 치료에 사용되고 있는 치료제도 있다. 백신 치료제는 지속적으로 진행해가야 한다. 감염병이 금방 끝나지 않을 것이고 어떤 새로운 감염병이 나타날지 모른다. 백신 개발 경험과 플랫폼 갖는 것이 중요하다. 과기정통부는 후보 물질 개발, 동물 실험 등 연구개발에 있어 적극 지원해야 한다.▲인재 양성을 강조했는데 구체적인 복안은?= AI와 SW 인재 양성부터 말하겠다. 산업에 굉장히 많은 수요가 있다. 네이버 카카오 라인 쿠팡 배달의민족을 통틀어서 '네카라쿠배'라고 부르는 말 들어본 적 있는가. 많은 인재가 필요하고, 그들이 가고 싶어하는 회사다. SW관련 회사뿐 아니라 제조업 에너지업 등 업종 불문하고 디지털전환이 가속화되고 있다. 소프트웨어 인재가 필요하다. 출연연 방문했을 때도 소프트웨어와 AI 활용해서 연구 데이터 분석해서 도출해야 하는 인력이 필요하다는 말을 많이 들었다. 그런데 턱없이 부족하다. 이를 양성하는 것이 첫 번째 과제다.3가지 접근 방식을 추진하겠다. 우선 학교에서 제대로 우수 인재를 양성해야 한다. 소프트웨어 중심대학을 현재 40여개에서 64개까지 지속적으로 확충하겠다. 두 번째는 이노베이션 아카데미, 정글 등 민간 인력 양성업체들을 지원해 양질의 교육이 이뤄질 수 있도록 하겠다. 또 전문 지식을 갖춘 재직자들이 소프트웨어 수업을 듣고 훈련을 받아서 연구에 활용하도록 하겠다. 기초 연구를 위한 인재 양성도 필요하다. 생애주기에 맞는 연구지원 사업 통해서 연구자들이 연구비가 없어서 연구단절이나 낙오를 격지 않도록 할 것이다. 청년과 여성을 위한 인력 양성에도 노력 기울이겠다. 많은 아이디어가 필요하다.</t>
-  </si>
-  <si>
-    <t>-과기정통부 임혜숙 장관 일문일답  -취임 후 첫 간담회, 디지털뉴딜 정책 방점   [디지털데일리 최민지기자] 과학기술정보통신부(이하 과기정통부) 임혜숙 장관이 통신3사 공동구축과 관련해 실효성이 없다는 입장을 내비쳤다.   임혜숙 장관은 5일 취임 후 첫 기자간담회를 세종 과기정통부 청사에서 개최했다. 이날 임 장관은 과기정통부 핵심 과제로 ▲디지털 대전환 성공적 추진 ▲연구개발(R&amp;D) 100조 시대 국가 차원 핵심 기술과 우수인재 확보 ▲코로나19 극복을 꼽았다.    이날 임 장관은 디지털뉴딜 정책을 성공적으로 추진하기 위해 데이터 고속도로인 5G망을 촘촘히 구축하기로 했다. 이와 동시에 5G 28GHz를 활성화하기 위해 통신3사와 실증 프로젝트를 펼치고 있다.    다만, 28GHz 통신3사 공동구축에 대해서는 선을 그었다. 과거 인사청문회 당시 서면답변을 통해 “28GHz 대역 5G 기지국 공동구축을 이행사항으로 반영하는 방안도 검토 가능한 대안 중 하나가 될 수 있다”고 언급하며 최기영 전 과기정통부 장관과 비슷한 의견을 제시했었다.  하지만 과기정통부 장관에 오르고 업무파악 후, 28GHz 공동구축은 당장 가능하기 어려운 시나리오라고 인지한 것으로 보인다.    이날 임 장관은 “28GHz 공동구축은 기술적으로 좋은 아이디어가 아니다”며 “28GHz 대역이 터지지 않을 때 그 밑으로 내려가야 하는데, 3.5GHz의 경우 통신3사 각각의 망으로 운영되고 있다. 이에 28GHz 공동구축에 대해서는 아직 살펴보지 않고 있다”고 말했다.    현재 28GHz는 기업(B2B)과 인구 밀집도가 높은 지역에 핫스팟 용도로 활용될 예정이다. 통신3사가 5G 28GHz 공동구축을 하게 된다면, 핫스팟 지역 중심으로 진행될 가능성이 크다.    만약 28GHz 공동구축망에 장애가 발생하거나 음영지역이 생긴다면, 3.5GHz에서 이를 연동해 이용자에게 서비스 지속성을 보장해야 한다. 그러려면 3.5GHz와 LTE망에서도 공동망이 필요하다.    통신3사 가입자 시스템, 네트워크 연동 등이 대규모로 이뤄져야 해 기술적 복잡도와 사업자 비용부담이 모두 커질 수밖에 없다. 전국망이 아닌 핫스팟 지역에 이용하는 28GHz 대역에서 통신3사 공동구축을 꾀하려다, 전국망 3.5GHz를 비롯한 전체 네트워크까지 손질할 수 밖에 없는 상황에 놓일 수 있다. 배보다 배꼽이 더 큰 상황이라는 설명이다. 이에 현실적으로 단기적 추진 과제로 삼을 수 없다고 봤다.    이와 함께 임 장관은 향후에도 디지털 미디어 관련 산업 주무부처는 과기정통부라고 못 박았다. 과기정통부가 주체가 돼 디지털 미디어 관련 산업을 활성화하기 위해 다른 부처 협력을 이끌어내겠다는 것이다.    또한, 온라인동영상서비스(OTT), 콘텐츠, 부가통신 등 신사업을 키우기 위해 규제에 발목 잡히지 않도록 정책방향을 설정하고 지원할 예정이다.   디지털세와 관련해서는 “국제적 논의가 있었어야 했다. G7 정상회담 논의가 있었고 재무장관 회의에서 구체적 논의가 있을 것이라고 해 반가운 마음”이라며 “대상과 과세 정도 등에 대해서는 확정되지 않았기에, 재무장관 회의에서 논의되면 한국 전략과 추진 방향을 마련할 수 있을 것”이라고 전했다.   다음은 임혜숙 과기정통부 장관과의 일문일답. Q. 정치 일정을 고려하면, 실제 장관이 업무를 볼 수 있는 기간은 길어야 7~8개월이다. 성과를 내기에 길지 않은 시간이다. 선택과 집중이 필요한 만큼, 반드시 성과를 내고자 하는 부분이 있는가?   ▲ICT 전공한 사람이라 그런지 디지털뉴딜에 애착 갖고 있다. 디지털뉴딜은 산업적 측면이나 일자리 창출 측면 등에서 성과를 볼 수 있을 것이다. 디지털 포용에 관심 많다. 국민이 디지털 격차를 실감하고 디지털 시대 어려움을 느끼는 부분이 있을 것이다. 디지털 혜택을 같이 누리는 정책을 추진하고자 한다.    현장에서 AI와 SW 인재가 부족하다는 점을 많이 느꼈다. 학교에 오래 있었던 만큼, 인재 양성에 대해서는 감을 잘 잡고 있다. 우수한 인재를 육성해 산업체 수요에 부응하는 정책을 펼치겠다. 시스템 반도체와 6G, 우주, 탄소절감, 양자 등에 과감한 R&amp;D 투자를 집행해 미래 성장 동력을 발굴하겠다. 코로나19 백신과 치료제 개발도 소홀히 할 수 없다. 현재 변이바이러스까지 나타나고 있다. 백신‧치료제 개발을 위한 후보물질 개발, 플랫폼 연구 등 지원을 강화하겠다. 한미정상회담 후속 이공계 인력 교류, 미국과의 협력 연구 등도 중요하다. 잘 챙겨가겠다.   Q. 디지털뉴딜 1주년이다. 국민이 체감할 만한 성과가 있는가?   ▲디지털뉴딜 추진 1년밖에 안 됐지만, 산업은 빠르게 디지털 전환하고 있다. 데이터를 활용해 새로운 서비스를 출시하는 기업이 늘고 있다. ICT 기업이 아니라도 데이터를 활용해 업무를 디지털화하고 있다. 일자리 창출 측면 성과도 있다. 인공지능 학습용 데이터를 통해 1000명 일자리가 창출됐다. 코로나19로 어려운 고용시장 어려움 완화에 도움이 됐다. AI 학습용 데이터 창출을 위해 642개 기업이 참여했다. 작지 않은 성과다.    디지털 포용의 경우, 현재 전국 1000개 이상 디지털 배움터 운영 중이다. 43만명 국민이 이곳에서 디지털 교육을 받았다. 앞으로도 지금까지 하던 사업을 정책 연속성 측면에서 지속 추진한다. 디지털 기기 접근성도 높이는 등 관련해 새로운 정책도 진행하겠다.   Q. 통신3사는 5G 28GHz 시범사업을 진행 중이다. 연내 의무구축 수를 채울 수 있을까? 필요하다면, 공동구축도 가능한가?   ▲최근 통신3사 대표와 만나 28GHz 실증 사업 논의를 했다. 여러 곳에서 다양한 실증 사업을 펴쳐 국민이 28GHz 새로운 서비스를 체감할 수 있도록 해달라고 부탁했다. 의무구축은 연말까지로 정해져 있고, 내년 점검 예정이다. 이후 방향과 정책을 말하고자 한다.   3.5GHz 농어촌 지역 공동구축은 좋은 아이디어다. MWC에서 상도 받았다. 반면, 기술적으로 28GHz 공동구축은 좋은 아이디어는 아니라고 파악하고 있다. 28GHz 안 터질 때 그 밑으로 내려가야 하는데, 3.5GHz 각각의 망이 있기 때문이다. 이에 28GHz 공동구축에 대해서는 아직 살펴보지 않고 있다.   Q. 얼마전 망 사용료 분쟁 관련 SK브로드밴드와 넷플릭스 판결이 나왔다. 관련해 어떤 정책 방향을 고민하고 있는가?    ▲SK브로드밴드와 넷플릭스 간 1심 소송 결과가 나왔다. 과기정통부가 해야 할 역할은 새로운 신사업이다. 온라인동영상서비스(OTT), 콘텐츠, 부가통신 등 신사업이 규제에 발목 잡히지 않도록 정책방향을 설정하고 지원하겠다.  Q. 다음 정권 때 OTT와 관련해 정부부처가 어떻게 개편되면 좋을까?   ▲현재 디지털 미디어는 하나의 부처가 아닌 방통위, 문체부, 과기정통부 등 여러 부처와 관련돼 있다. ICT 관련 산업이기에, 주무부처는 필요하다. 앞으로도 디지털 미디어 관련 산업은 과기정통부가 주체가 되고, 다른 부처 협력을 이끌어 내는 방향으로 산업을 진흥시켜야 한다.    Q. 한국에서는 구글‧넷플릭스가 과세 대상으로, 삼성전자 SK하이닉스는 해외에서 과세 대상으로 포함될 것으로 보인다. 디지털세에 대해 어떻게 생각하느냐?    ▲디지털세 관련해 국제적 논의가 있었어야 했다. G7 정상회담 논의가 있었고 재무장관 회의에서 구체적 논의가 있을 것이라고 해 반가운 마음이다. 구글을 비롯해 넷플릭스 등 플랫폼 사업자가 한국에서 과세를 받은 것은 좋다. 삼성전자, SK하이닉스 등 수출주도 기업이 해외에서 과세당하는 부분에 대해서는 생각해봐야 하는 부분이다. 대상과 과세 정도 등에 대해서는 확정되지 않았다. 재무장관 회의에서 논의되면, 한국 전략과 추진 방향을 마련할 수 있을 것이다.  Q. 인재양성을 어떻게 추진할 예정인가?   ▲네카라쿠배라는 말을 들어본 적 있는가. 네이버 카카오 라인 쿠팡 배달의민족을 줄인 말이다. 많은 인재가 필요한 곳이며, 그들이 가고 싶어하는 회사라고 한다. 그러나 이제는 SW 관련 회사뿐 아니라 제조업‧에너지 등 업종 불문하고 디지털전환을 가속화해야 해 SW 인재가 필요하다. 출연연 방문 때도 SW와 AI를 활용해 연구 데이터를 분석‧도출하는 인력이 필요하다는 말을 많이 들었다. 현실은 턱없이 부족하다. 이들을 양성하는 것이 첫 번째 과제다.    3가지 접근방식을 제시한다. 우선, 학교에서 제대로 우수인재를 양성해야 한다. 소프트웨어 중심대학을 64개까지 지속 확충하겠다. 두 번째는 민간에서 소프트웨어 교육을 담당하도록 하는 것이다. 이노베이션 아카데미, 정글 등 민간 업체들이 현재 잘 하고 있으며 취업률도 높다. 정부가 지원해서 양질의 교육이 이뤄질 수 있도록 하겠다. 마지막으로, 재직자 대상으로 교육해야 한다. 도메인 지식을 갖고 있는 연구자가 SW 교육을 받아 그 결과를 본인 연구에 활용할 수 있다. 기초연구를 위한 인재양성도 필요하다. 젊은 연구자들이 과학기술 분야에서 장기적으로 좋은 연구를 하면 살아남을 수 있어야 한다. 생애주기에 맞는 연구지원사업을 진행해, 연구비가 없어 연구가 단절되지 않도록 해야 한다. 청년과 여성을 위한 인력양성에도 노력을 기울이겠다.   Q. 국산 코로나19 백신과 치료제는 언제 개발될까?   ▲한국이 생산하는 백신은 국민 모두의 염원이다. 현재 1상과 2상을 거쳤으나, 3상 진입에 여러 어려움이 있다. 한국에는 코로나19 환자가 많이 없어 해외에서 임상을 해야 한다. 그러려면 막대한 예산이 필요하다. 반면, 국산 치료제는 조건부 승인을 받아 현재 치료에 사용되는 경우도 있다. 어떤 새로운 감염병이 나타날지 모른다. 백신 개발 경험과 플랫폼 갖추는 것은 중요하다.   Q. 누리호 개량 사업 예산이 삭감됐다. 어떤 방식으로 2030년 달탐사 등을 목표로 한 우주개발 정책을 추진할 것인가?   ▲누리호 관련 예타는 두 종류다. 누리호 신뢰성 높이는 반복발사 부분이 있다. 다음은 개량형 부분이다. 반복발사 부분은 예타 통과했다. 앞으로 누리호를 4번 반복해 발사하는 준비가 되어가고 있다. 그런데 개량형 관련해서는 예타에서 통과하지 못 했다. 미사일 지침 종료에 따른 부분이 반영되지 않았고, 도전성 부족하다는 지적을 받았다. 이를 보완해 다시 추진하겠다.   Q. 탈원전 기조에 동의한 견해는 여전히 변함 없는가?   ▲당장 탈원전한다는 개념은 아니다. 60년에 걸쳐 서서히 원자력 의존도를 낮춰간다는 기조다. 여러 이유가 있다. 한국은 작은 국토 면적에 3~4군데 집중적으로 대형 원전이 건설돼 있다. 위험도가 있을 수 있다. 이에 탈원전 기조가 결정된 것. 이에 대해 입장 변화는 없다. 서서히 원전 의존도를 낮춰야 한다. 한국 원자력 기술은 세계적 수준이다. 이를 잘 활용해서 다른 나라에 원전을 수출하거나 해외 원전 건설 등을 추진할 수 있다.  Q. 국가과학기술연구회(NST) 차기 이사장 선출 관련 막바지 단계다. 어떤 요소를 중점적으로 봐야 할까?   ▲NST 이사장 선임의 경우, 3배수 후보가 추려졌다. 늦지 않은 시간 내 이사장 선임 이뤄질 것이다. NST 이사장 중요한 역량은 출연연에서의 현안과 문제점을 잘 파악하고 있고, 앞으로 출연연이 어떻게 나아가고 어떤 성과를 내야 할지, 방향과 비전성 잘 제시할 수 있어야 한다.</t>
-  </si>
-  <si>
-    <t>5G B2B 융합 확산전략 공개 예정6G 이통-양자정보통신 기술 개발출연연 성과 위주...장기 과제 마련OTT 등 디지털 미디어 주무부처될 것임혜숙 과기정통부 장관이 5일 기자간담회에서 발언하고 있다.“디지털뉴딜 정책을 통한 대한민국의 디지털 대전환에 총력을 기울이겠다. 5세대(5G) 이동통신 기업용(B2B) 융합서비스 확산 전략을 마련하는 한편 6세대 이동통신과 시스템반도체, 양자정보통신 기술 등에 대한 과감한 연구개발(R&amp;D)로 미래 성장동력을 확보하겠다.”임혜숙 과학기술정보통신부 장관은 5일 취임 이후 첫 기자간담회에서 이같이 말했다.임 장관은 과기정통부가 추진할 3대 핵심과제로 △디지털뉴딜을 통한 국가 디지털 대전환 △R&amp;D 100조원 시대 대응 △코로나19 극복을 제시했다.◇디지털뉴딜 5G B2B 활성화 전략 추진임 장관은 “디지털뉴딜 1주년을 맞아 데이터를 활용해 새로운 서비스를 출시하는 기업이 증가하고 업무를 디지털화하는 변화가 뚜렷이 나타나고 있다”며 “인공지능(AI) 학습용 데이터 구축과정에서 5만개가량 일자리가 창출되고 674개 기업이 참가하는 등 가시적 성과가 확인됐다”고 소개했다.이 같은 성과를 바탕으로 디지털뉴딜 국민 체감을 높이기 위한 핵심 정책 구상을 드러냈다. 임 장관은 “데이터 고속도로인 5G 망을 보다 촘촘히 구축하는 한편 정부의 선도적 투자로 5G+융합산업을 확산하겠다”며 “조만간 개최할 5G+전략위원회에서 B2B 융합서비스 확산전략을 공개하겠다”고 말했다.5G 전국망 인프라가 어느 정도 구축된 상황에서 정부와 민간의 선도적 협업을 통해 핵심 5G 융합서비스를 발굴하겠다는 의지로 해석된다.정보통신기술(ICT) 인프라 정책과 관련 임 장관은 28㎓ 망 공동 구축에 대해서는 “3.5㎓ 대역과 달리 28㎓ 커버리지가 닿지 않는 지역에서는 3.5㎓ 망을 이용해야 해 비효율적일 수 있다”며 신중한 입장을 표시했다. 28㎓ 대역 공동구축에 대한 기술검토 결과, 적합하지 않다는 사실을 확인한 데 따른 판단으로 풀이된다.이외에도 SK브로드밴드와 넷플릭스 간 소송 결과에 대한 입장에 대해 임 장관은 “양사 간 법무 진행상황을 지켜봐야 한다”고 말했다.◇R&amp;D 예산 100조원, 6G·우주 등 국가 핵심기술 확보임혜숙 과기정통부 장관이 5일 기자간담회에서 발언하고 있다.임 장관은 R&amp;D 예산 100조원 시대 R&amp;D 혁신을 통한 국가 핵심기술과 우수인재를 확보하겠다고 밝혔다.임 장관은 연구과제중심제도(PBS) 개선 방향을 제시했다. 그는 “출연연 현장을 돌아본 결과 과제가 파편화, 단기성과 위주로 구성돼 있다는 점을 느꼈다”며 “과제를 장기화하고 크게 가져갈 수 있는 부분으로 개편을 생각한다”고 말했다.이어 “출연연의 주요 사업 과제가 너무 세분화해 나오기 때문에 새로운 이슈에 대응해 과제를 시작할 여지가 없다고 느꼈다”며 “내년 예산에서는 출연금을 더 잘 배분하고 시스템반도체, 양자정보통신, 6G를 통한 위성 인터넷 등 이슈에 대응할 수 있도록 하겠다”고 말했다.임 장관은 인재 양성에 대한 철학도 드러냈다. 그는 “과기 인재와 관련해 연구비 단절 등으로 연구가 중단되는 일이 없도록 연구 생애주기를 고려한 지원을 강화하겠다”며 “특히 청년, 여성을 위한 인력 양성을 위해 노력을 기울이겠다”고 말했다. AI, SW 분야에 대해 임 장관은 “대학원 지원을 확대하고 민간 기업의 교육 기능을 잘 활용할 계획”이라면서 “과기원 등을 활용한 재직자 교육 방안도 생각하고 있다”고 밝혔다.코로나19 백신·치료제 개발과 관련, 임 장관은 “우리 국민 모두의 염원일 듯하다”며 “백신의 경우에 국내 코로나19 확진환자가 많지 않아 임상실험에 어려움을 겪고 있지만 치료제의 경우일부 제품이 상용화됐다”며 “변이 등에 대응해 백신과 치료제를 지속 만들어갈 플랫폼을 확보하는 측면에서 후보물질 발굴과 연구 등 R&amp;D를 적극 지원하겠다”고 말했다.이외에도 임 장관은 과기정통부가 온라인동영상서비스(OTT) 등 디지털미디어 주무부처가 돼야 한다는 입장을 피력했다.임 장관은 “디지털 미디어 관련 산업은 ICT 관련 산업이라 산업 발전을 위해 주무부처가 필요하다”며 “과기정통부가 주체가 되고 사업자, 부처 협력을 이끄는 방향으로 산업을 진흥시켜야 하지 않을까 생각한다”고 말했다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		[이데일리 문승관 기자] 한전KDN은 이달 1~2일 이틀간 전남 신안군 비금초와 도초초에서 ‘2021 섬으로 찾아가는 AI·SW코딩캠프’를 시행했다고 5일 밝혔다.이번 코딩캠프는 2018년에 한전KDN, 전남도교육청, 조선대가 전국 최초 산·학·관 협력으로 시작한 ‘SW교육 선순환 학점과정’ 프로그램으로 SW교육강사 양성과정을 수료한 대학생의 SW로봇코딩과 한전KDN 사내벤처팀의 AI 자율주행 특강으로 구성했다.한전KDN 코딩캠프는 코딩교육을 통해 초등학생들이 AI·SW 분야에 흥미를 갖고 미래를 위한 역량발달과 진로탐색에 도움이 되고자 진행한다.한전KDN은 ‘AI·SW코딩교육의 사회적 가치 확산’을 기치로 산·학·관 협력 SW교육강사 양성과정을 수년째 진행하고 있으며 올해는 그 대상을 확대해 올해 36명의 대학생 강사를 배출했다. 교육 수료 후 다양한 형태의 교육기부활동을 펼치고 있다. 이를 위해 2021년에는 전남·전북 초·중등학생들의 컴퓨팅 사고력 배양을 위해 도교육청에서 추천한 전남·전북 도내 15개 초·중등학생 200여명을 대상으로 스크래치, 파이썬, AI, 로봇활용 코딩교육 등의 과정을 진행하고 있다.</t>
-  </si>
-  <si>
-    <t>"탈원전 기조 견해 변함없다…원전의존도 낮추되, 세계적 한국 원자기술 활용해 수출·해외원전 건설 추진해야""누리호 개량형 예타 보완해 재추진"기자 간담회서 인사말 하는 임혜숙 장관(서울=연합뉴스) 임혜숙 과학기술정보통신부 장관(왼쪽 두 번째)이 5일 오전 세종특별자치시 세종파이낸스센터에서 열린 출입기자 간담회에 참석해 인사말을 하고 있다. 왼쪽부터 용홍택 제1차관, 임혜숙 장관, 조경식 제2차관, 이경수 과학기술혁신본부장. 2021.7.5     [과학기술정보통신부 제공. 재판매 및 DB 금지] photo@yna.co.kr    (세종=연합뉴스) 오수진 기자 = 임혜숙 과학기술정보통신부 장관이 최대 20Gbps 속도를 지원하는 28㎓ 주파수 5G 서비스를 이동통신사가 공동으로 구축하는 것에 대해 "기술적으로 좋은 아이디어는 아니라고 파악하고 있다"며 회의적인 입장을 내비쳤다.    임 장관은 5일 오전 과기정통부 세종청사에서 열린 기자간담회에서 "28㎓ 공동구축에 대해서는 아직 살펴보지 않고 있다"며 현재 이통3사가 시행중인 실증 사업을 좀 더 살펴본 뒤 서비스 방향과 정책을 결정하겠다고 말했다.    다음은 임 장관과의 일문일답. -- 임기 중 꼭 성과를 내고 싶은 부분이 있나.     ▲ 제가 정보통신기술(ICT) 전공자라 디지털 뉴딜에 애착이 있다. 디지털 포용 부분에도 관심이 많다. 디지털 혜택을 모든 국민이 함께 누리는 정책을 펼치고 싶다. ICT, 소프트웨어(SW) 인재가 아주 부족하다고 한다. 산업체 수요에 부응하는 정책을 추진해나가겠다.  -- 아르테미스(미국의 달 탐사계획) 약정 체결 관련 연구개발(R&amp;D) 예산에서 미국 항공우주국(NASA)과 협의가 필요한데 구체화한 부분이 있나.     ▲ (고서곤 과기부 연구개발정책실장) 달 탐사 관련 쉐도우 캠을 탑재해 달 극지 지방 촬영하는 게 있고, 한국천문연구원 주도로 미국과 민간 달 착륙선 사업인 CLPS 사업 추진하는 것이 있다. 구체적인 이행 방안은 미국과 계속 협의 계획 중이며 2개 예산은 340억 정도다. 내년 예산은 확정 안 돼 말씀드리기 어렵다. -- 누리호 개량 사업 예산이 삭감됐다. 어떤 방식으로 2030년 달 탐사 등을 목표로 한 우주개발 정책을 추진할 것인가.    ▲ 누리호 관련 예비타당성 조사는 두 종류다. 첫 번째는 누리호 신뢰성 높이는 반복 발사 부분이다. 두 번째가 개량형 부분이다. 반복 발사 부분은 예비 타당성 조사 통과했다. 앞으로 누리호를 4번 반복해서 발사하는 준비가 돼가고 있다. 개량형 관련해서는 예비 타당성 조사 통과를 못 했다. 미사일 지침 종료에 따른 부분이 반영되지 않았고, 도전성이 부족하다는 지적이 나왔다. 신뢰성 높이면서 미사일 지침 종료에 따른 후속 부분 반영과 도전성 보완해서 다시 한번 추진하겠다.  -- 28㎓ 주파수 대역 5G 서비스 관련해 이동통신사 3사가 실증사업 진행 중인데 연내 의무구축 가능한가. 공동 구축도 가능하다고 보는가.     ▲ 실증사업 관련해서 이통사 3사 대표님을 뵙고 논의했다. 실증 사업을 많이 하셔서 국민이 28㎓라는 새로운 서비스를 체감할 수 있도록 해달라고 했다. 의무 구축은 올해 말까지로 기간이 정해진 것으로 알고 있다. 좀 더 살펴보고 내년에 점검하고 방향과 정책 말씀드려야 할 것 같다. 공동구축의 경우, 기술적으로 5G 3.5㎓ 농어촌 지역 공동구축은 좋은 아이디어다. 모바일 월드 콩그레스(MWC)에서 상도 받았다. 기술적으로 28㎓ 공동구축은 좋은 아이디어는 아니라고 파악하고 있다. 28㎓가 안 터질 때 그 밑으로 내려가야 하는데 3.5㎓는 각각의 망이 있어서 좋은 아이디어는 아니라고 들었다. 28㎓ 공동구축에 대해서는 아직 살펴보지 않고 있다.  -- 퍼스트 무버 연구 환경 마련을 위한 계획은.     ▲ 과제중심제도(PBS·Project Based System)에 어려움이 있다. 과학기술 분야 정부출연연구기관(출연연) 현장 둘러봤을 때 PBS 제도를 긍정적으로 생각하는 곳도 있어서 일괄적으로 이렇게 개선해야 한다 말하기 어렵다. 과제가 너무 파편화되어 있다. 과제를 장기화하고 크게 가져갈 수 있는 부분으로 개편되어야 하지 않을까. 장기적 안목을 갖고 연구 개발해야 한다는데 출연연 과제가 작은 분류까지도 이미 정해져서 나온다. 새로운 이슈 터질 때 이에 맞춰 연구할 수 있는 여지가 없다. -- 아르테미스 약정에 우리가 왜 늦게 가입했는가.    ▲ (고 실장) 우리나라는 위성과 발사체 중심으로 우주 사업을 추진했다. 전체적으로 우주 관련한 실력 향상돼 인정받아서 가입하게 된 것이다. 발사체, 위성을 활용하는 부분 등에 대해 계획을 짜고 있다.     ▲ (용홍택 과기부 1차관) 작년에 (아르테미스 약정 체결과 관련해) 미국과 협의를 했다. 한미정상회담 계기로 급물살을 탔다. 정상회담 때 즉흥적으로 한 건 아니다. 작년부터 협의했다.  -- 탈원전 기조 견해는 변화가 있나.     ▲ 탈원전을 당장 한다는 것은 아니라고 생각한다. 60년이라는 긴 기간에 서서히 의존도를 낮춰나가는 기조다. 이런 기조가 만들어진 여러 이유가 있다. 작은 국토 면적에 3∼4곳에 집중적으로 대형 원전이 건설돼있다. 위험도가 있다. 이에 탈원전 기조가 결정된 것이고 그런 견해에 대해 제 입장 변화는 없다. 서서히 원전 의존도를 낮춰가야 한다. 한국 원자력 기술은 세계적이다. 이를 잘 활용해 다른 나라에 원전을 수출하거나 해외 원전 건설에 있어 여전히 추진해가야 한다. 우리나라가 원전을 짓지 않는데 수출할 수 있냐는 부분은 논란이 있을 수 있다. 현재 상황에 대한 설득이 필요하다. 기술이 필요로 하는 곳이 있다면 당연히 우리나라 원전 기술을 수출할 수 있다고 생각한다.  -- 코로나 19 백신 언제쯤 나올 것으로 예상하는가.    ▲ 국내 백신 개발 업체 중 3상을 준비하는 곳이 몇 군데 있다고 알고 있다. 3상 진입에 있어서 어려움이 있다. 우리나라는 코로나 환자가 많지 않아서 해외에서 임상하려면 막대한 예산이 든다. 백신과 치료제 개발 관련해 지속해서 지원 추진하겠다. 코로나 감염병이 금방 끝나지 않고 변이도 나오고 있고 어떤 감염병이 또 나올지 모른다. 백신 개발 경험과 플랫폼 갖는 것 중요하다.  -- 인재 양성 부분에서 특별히 관심이 많다고 하셨는데 정책적으로 어떻게 표현할 것인가.     ▲ 인력 양성은 세 가지 방향으로 접근을 하려고 한다. 기존에 하던 학교에서 인재를 양성하는 방식이 첫 번째다. 두 번째는 민간 SW 교육 방식이다. 이노베이션 아카데미, 정글 등 민간 업체들이 잘하고 있고 취업률 높다. 정부가 잘 지원해서 양질 교육이 이뤄질 수 있도록 하겠다. 세 번째는 재직자 교육이다. 한국과학기술원(KAIST)에 마이크로 디그리(Micro Degree)라는 과정이 있다. 1년짜리 SW 교육을 듣고 자신의 연구에 이를 활용하는 것이다. 재직자 교육은 이게 효율적이라고 생각한다.  kiki@yna.co.kr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		한전KDN(사장 김장현)이 7월 1~2일 전남 신안군에 위치한 비금초와 도초초에서 ‘2021 섬으로 찾아가는 AI·SW 코딩캠프(이하, 코딩캠프)’를 시행했다고 밝혔다. 이번 코딩캠프는 2018년에 한전KDN, 전남도교육청, 조선대학교가 전국 최초 산·학·관 협력으로 시작한 ‘SW교육 선순환 학점과정’ 프로그램의 일환으로 SW교육강사 양성과정을 수료한 대학생들의 SW로봇코딩과 한전KDN 사내벤처팀의 AI 자율주행 특강으로 구성되었다. ▲전남 신안군 도초초 ‘찾아가는 AI, SW 코딩캠프’ 기념촬영 모습ⓒ한전KDN 한전KDN 코딩캠프에는 백성필 한전KDN 인사노무처장, 위경종 전남도교육청 교육국장과 조선대 SW중심대학사업단 교수진이 함께 했으며 코딩교육을 통해 초등학생들이 AI·SW 분야에 흥미를 갖고 미래를 위한 역량발달과 진로탐색에 도움이 되고자 실시했다. 한전KDN은 ‘AI·SW코딩교육의 사회적 가치 확산’을 기치로 산·학·관 협력 SW교육강사 양성과정을 수년째 진행하고 있으며 올해는 그 대상을 확대해 올해 36명의 대학생 강사를 배출했으며 교육 수료 후 다양한 형태의 교육기부활동을 펼치고 있다. 이를 위해 2021년에는 전남·전북 초·중등학생들의 컴퓨팅 사고력 배양을 위해 도교육청에서 추천한 전남·전북 도내 15개 초·중등학생 200여 명을 대상으로 스크래치, 파이썬, AI, 로봇활용 코딩교육 등의 과정을 진행하고 있다. 교육에 참여한 도초초 5학년 문창희 학생은 “4차산업혁명이라는 말을 인터넷을 통해 접해 보았는데 실제로 그와 관련된 내용들을 알아보며 로봇을 통해 재미있게 체험할 수 있어서 좋았다”고 소감을 말했다. 한전KDN 백성필 처장은 “ICT전문 공기업으로서 업(業)의 특성을 살린 AI·SW교육 기부를 통해 도서 지역의 어린이들에게도 교육의 기회를 확대하고 사회적 가치 확산에 지속적으로 기여하겠다”고 밝혔다.</t>
-  </si>
-  <si>
-    <t>자료사진. 기사와 관련이 없음.국립중앙과학관은 올해 ‘여름방학 과학교실’ 및 ‘여름방학 과학캠프’를 개설·운영한다고 5일 밝혔다.유아(7세)부터 초·중학생들을 대상으로 이달 27일부터 다음달 13일까지 3주간 운영한다. 과학관을 직접 방문하는 대면과 비대면(실시간 영상) 과학체험 두 가지 방법으로 들을 수 있다. 과학교실은 31개 과정의 실험중심 과학교육으로 교과연계, 창의·공작 및 곤충·화석·수학·발명·SW 등 특화수업으로 운영한다. 국립중앙과학관 강사와 현직 학교 교사가 협력해 개발한 과학교육 주제 2개 과정이 첫선을 보인다. 과제 해결형 팀프로젝트 과학캠프는 인공지능(AI)을 주제로 해 비대면 초?중급 과정(2개), 대면 중급과정(1개)으로 운영한다. 한국과학기술원(KAIST) 대학생 멘토와 함께 주제별 심층 교육을 통해 청소년들의 문제해결능력 향상에 도움을 주는 맞춤형 교육으로 진행한다. 참가자 접수는 과학교실은 오는 7일부터, 과학캠프는 10일부터 선착순 모집한다. 자세한 내용은 국립중앙과학관 누리집에서 확인할 수 있다.</t>
-  </si>
-  <si>
-    <t>27일부터 8월13일까지 유·초·중 학생 대상국립중앙과학관은 오는 27일부터 8월13일까지 유·초·중생들을 대상으로 여름방학 과학교실과 과학캠프를 개설·운영한다. © 뉴스1(대전=뉴스1) 심영석 기자 = 국립중앙과학관은 오는 27일부터 8월13일까지 유·초·중생들을 대상으로 Δ여름방학 과학교실 Δ여름방학 과학캠프를 개설·운영한다고 5일 밝혔다.이들 프로그램은 과학관을 직접 방문하는 대면과 비대면(실시간 영상)을 병행해 진행된다과학교실은 31개 과정의 실험중심 과학교육으로 교과연계, 창의·공작 및 곤충·화석·수학·발명·SW 등 특화수업으로 운영한다.특히, 국립중앙과학관 강사와 현직 학교 교사가 협력해 개발한 과학교육 주제 2개 과정을 이번 여름 과학교실에서 첫선을 보인다. 과제 해결형 팀프로젝트 과학캠프는 인공지능(AI)을 주제로 Δ비대면 초·중급 과정(2개) Δ대면 중급과정(1개)으로 운영한다.카이스트 대학생 멘토와 함께 주제별 심층 교육을 통해 청소년들의 문제해결능력 향상에 도움을 주는 맞춤형 교육으로 진행된다.과학교실은 7일부터, 과학캠프는 10일부터 각각 선착순으로 참여자를 모집한다.</t>
-  </si>
-  <si>
-    <t>해고자 노조가입 허용 등 불안감내수회복 더딜땐 ‘4%성장’ 차질내년 중대재해법 ‘투자 위축’ 심화“친노동정책, 고용에 역효과” 우려주 52시간제 확대와 개정 노조법 시행 등 친노동정책이 ‘V자형’ 경제회복에 걸림돌이 될 것으로 우려되고 있다. 우리 경제는 지난해 -0.9% 역성장에서 빠르게 벗어나 올해 4%대 성장으로 빠르게 반등할 것으로 기대되고 있지만 ‘친노동’으로 기울어진 운동장이 일자리 회복을 막고 내수회복을 저해해 성장률을 깎아먹는 악순환 가능성을 배제할 수 없는 상황이다.5일 관계부처와 경영계에 따르면 정부는 ‘2021년 경제정책방향’에서 올해 실질 국내총생산(GDP) 전망치를 3.2%에서 4.2%로 상향하고 내년에도 회복국면이 이어져 3% 성장이 가능할 것으로 예상했다. 하지만 최저임금 인상과 근로시간 단축, 비정규직 제로화 정책에 이어 6일부터 해고자의 노조가입을 허용하는 개정 노조법이 시행되고, 내년에는 중대재해처벌법이 시행되는 등 잇단 친노동정책이 변수가 될 것으로 지적되고 있다.특히 개정 노조법의 시행으로 노사분규가 가열되면서 경영차질이 우려되고 중대재해법 시행으로 기업투자 위축이 심화할 가능성이 거론되고 있다.정부는 추경을 통해 적극적인 재정정책을 펼치고 소비를 진작시켜 일자리를 늘림으로써 올해 취업자수가 25만명 증가할 것으로 예상하고 있다. 작년 감소분 22만명 이상을 회복할 것이라는 전망이다. 수출은 올해에 이어 2년 연속 수출 6000억달러를 상회할 것이라고 내다봤다. 민간소비는 올해 2.8%, 2022년은 3.5% 증가할 것으로 봤다.정부는 고용 조기정상화를 위해 올해 4대 분야에서 15만개 이상 일자리를 창출한다는 계획이다. AI·SW 등 신산업 분야, 체육·공연·관광 등 문화 분야, 교육 분야 일자리를 2만~3만명 창출해 청년 고용을 촉진한다. 백신방역 관련 일자리도 6만~7만명, 취약계층의 일자리도 3만~4만명 창출하기로 했다.하지만 친노동 정책이 일자리 회복을 더디게 할 것으로 우려된다. 중기 중앙회를 비롯한 경제단체들은 5~49인 사업장에 대한 주52시간제 계도기간 부여를 마지막까지 정부에 촉구했지만, 정부는 끝내 강행했다. 개정 노조법도 경영계의 보완요구는 무시된채 그대로 시행된다. 여기에 노동계는 내년도 ‘최저임금’을 올해보다 23.9% 인상한 1만800원으로 올려야 한다고 주장하고 있다.국회는 지난해 12월 ‘기업규제 3법(상법·공정거래법·금융그룹감독법 개정안)’을 통과시켰고, 올 1월에는 ‘중대재해처벌법’까지 속전속결로 처리했다. 특히 내년 1월 시행 예정인 중대재해처벌법은 인명피해 산재 고용주에게 책임을 부과하는 것으로, 경영계가 보완입법을 주장하는 대표적인 규제다.전경련에 따르면 지난해 정부 입법으로 신설·강화된 규제는 총 1510건으로 전년보다 55% 늘어난 것으로 나타났다. 여기에 국회에서 발의된 규제 관련 법안만 3900여건에 달한다. 이런 규제의 밑바탕에는 ‘반기업 정서’가 깔려 있다.게다가 선거 때만 되면 기승을 부리는 반기업 포퓰리즘 정책 리스크도 경영계 발목을 잡고 있다. 대선을 앞두고 이런 현상은 더 심화될 것으로 보인다.임무송 금강대 공공정책학부 교수는 “최저임금 인상, 근로시간 단축, 비정규직 제로화 등 친노동정책은 추가 일자리 창출보다 오히려 일자리 줄이는 역효과를 내고 있다”며 “기업이 일자리를 창출할 수 있도록 규제를 완화하는 쪽으로 정책의 대전환을 해야 한다”고 지적했다. 김대우 기자</t>
-  </si>
-  <si>
-    <t>산·학·관 협력, 교육 기부 활동으로 사회적 가치 실천과 미래인재 양성한전KDN(대표 김장현)은 지난 1일과 2일 전남 신안군에 위치한 비금초등학교와 도초초등학교에서 ‘2021 섬으로 찾아가는 AI·SW 코딩캠프’를 시행했다고 5일 밝혔다.코딩캠프는 지난 2018년 한전KDN·전남도교육청·조선대학교가 전국 최초 산·학·관 협력으로 시작한 ‘SW 교육 선순환 학점과정’ 프로그램의 하나로 SW 교육강사 양성과정을 수료한 대학생의 SW 로봇코딩과 한전KDN 사내벤처팀의 AI 자율주행 특강으로 구성됐다.한전KDN 코딩캠프에는 백성필 한전KDN 인사노무처장, 위경종 전남도교육청 교육국장과 조선대 SW중심대학사업단 교수진이 함께 했다.한전KDN이 지난 1일과 2일 도초초등학교에서 실시한 '찾아가는 AI SW 코딩캠프'한전KDN은 코딩교육을 통해 초등학생이 AI·SW 분야에 흥미를 갖고 미래를 위한 역량발달과 진로 탐색에 도움을 주기 위해 실시했다.한전KDN은 ‘AI·SW 코딩교육의 사회적 가치 확산’을 기치로 산·학·관 협력 SW 교육강사 양성과정을 수년째 진행하고 있으며, 올해는 대상을 확대해 올해 36명의 대학생 강사를 배출했다. 교육 수료 후 다양한 형태의 교육기부 활동을 펼치고 있다.올해에는 전남·전북 초·중등 학생의 컴퓨팅 사고력 배양을 위해 도교육청에서 추천한 전남·전북 도내 15개 초·중등학생 200여명을 대상으로 스크래치, 파이썬, AI, 로봇활용 코딩교육 등의 과정을 진행하고 있다.교육에 참여한 도초초 5학년 문창희 학생은 “4차 산업혁명이라는 말을 인터넷을 통해 접해 보았는데 실제로 그와 관련한 내용을 알아보며 로봇을 통해 재미있게 체험할 수 있어서 좋았다”고 소감을 말했다.백성필 한전KDN 처장은 “ICT 전문 공기업으로서 업의 특성을 살린 AI·SW 교육 기부를 통해 도서 지역 어린이들에게도 교육 기회를 확대하고 사회적 가치 확산에 지속해서 기여하겠다”고 밝혔다.</t>
-  </si>
-  <si>
-    <t>이형세 테크빌교육 대표(왼쪽에서 두번째)와 조상용 글로브포인트 대표(오른쪽에서 두번째)가 업무협약을 맺고 기념사진을 촬영하고 있다.테크빌교육(대표 이형세)은 글로브포인트(대표 조상용)와 가상현실(VR) 및 메타버스 교육의 공교육 시장 진출을 위해 업무협약(MOU)을 체결했다고 5일 밝혔다.메타버스는 가상, 초월이라는 의미의 메타(Meta)와 현실 세계를 의미하는 유니버스(Universe) 합성어다. 3차원을 포함하는 가상세계를 의미한다.양 기관은 협약에 따라 공교육에서 메타버스 교육 환경을 구축할 수 있도록 협력체계를 마련하고 글로브포인트의 VR 교육 프로그램인 'VRWARE(VR웨어)'를 공교육 시장에 선보인다. VR웨어는 학생이 직접 가상현실 맵을 디자인하고 캐릭터를 만드는 등 자신이 만든 VR 세계를 체험할 수 있도록 지원한다. 블록코딩과 로봇코딩을 활용할 수 있는 교육용 소프트웨어(SW)다.글로브포인트는 VR교육 노하우를 기반으로 기술적 지원을 담당하고 테크빌교육은 공교육에 적합한 메타버스 콘텐츠 개발과 교육청 및 학교, 교사 대상 영업을 책임지기로 했다. 또 글로브포인트와 함께 자문단을 구성해 공교육 수요에 적합한 형태로 VR웨어를 지속 개선하기로 협의했다.이창훈 테크빌교육 에듀커머스사업부문 대표는 “메타버스가 현실에서 체험하기 어려운 다양한 관계 경험을 제공하는 만큼 교육에서도 적용할 점이 많다”며 “글로브포인트와의 협약을 시작으로 공교육 시장에 최적화 된 메타버스 교육환경을 구축하는데 앞장설 것”이라며 포부를 전했다.조상용 글로브포인트 대표도 “공교육 시장에서 20년간 노하우를 축적한 테크빌교육과 상호협력 할 수 있게 돼 기쁘게 생각한다”며 “VR기술 기반의 우수한 SW를 지속적으로 연구·개발해 나갈 것”이라고 말했다.</t>
-  </si>
-  <si>
-    <t>산·학·관 협력, 교육기부활동으로 사회적 가치 실천과 미래인재 양성찾아가는 AI, SW코딩캠프. ⓒ한전KDN한전KDN은 지난 1일과 2일 전남 신안군에 위치한 비금초와 도초초에서 '2021 섬으로 찾아가는 AI·SW코딩캠프'를 시행했다고 5일 밝혔다.이번 코딩캠프는 2018년에 한전KDN, 전남도교육청, 조선대학교가 전국 최초 산·학·관 협력으로 시작한 'SW교육 선순환 학점과정' 프로그램의 일환으로 SW교육강사 양성과정을 수료한 대학생들의 SW로봇코딩과 한전KDN 사내벤처팀의 AI 자율주행 특강으로 구성됐다.한전KDN 코딩캠프에는 백성필 한전KDN 인사노무처장, 위경종 전남도교육청 교육국장과 조선대 SW중심대학사업단 교수진이 함께 했다. 코딩 교육을 통해 초등학생들이 AI·SW 분야에 흥미를 갖고 미래를 위한 역량발달과 진로탐색에 도움이 되고자 실시했다.한전KDN은 'AI·SW코딩교육의 사회적 가치 확산'을 기치로 산·학·관 협력 SW교육강사 양성과정을 수년째 진행하고 있다. 올해는 그 대상을 확대해 올해 36명의 대학생 강사를 배출했으며 교육 수료 후 다양한 형태의 교육기부활동을 펼치고 있다.이를 위해 2021년에는 전남·전북 초·중등학생들의 컴퓨팅 사고력 배양을 위해 도교육청에서 추천한 전남·전북 도내 15개 초·중등학생 200여 명을 대상으로 스크래치, 파이썬, AI, 로봇활용 코딩교육 등의 과정을 진행하고 있다.교육에 참여한 도초초 5학년 문창희 학생은 "4차산업혁명이라는 말을 인터넷을 통해 접해 보았는데 실제로 그와 관련된 내용들을 알아보며 로봇을 통해 재미있게 체험할 수 있어서 좋았다"고 소감을 말했다.백성필 한전KDN 처장은 "ICT전문 공기업으로서 업의 특성을 살린 AI·SW교육 기부를 통해 도서 지역의 어린이들에게도 교육의 기회를 확대하고 사회적 가치 확산에 지속적으로 기여하겠다"고 밝혔다.</t>
-  </si>
-  <si>
-    <t>한전KDN(사장 김장현)이 최근 전남 신안군에 위치한 비금초와 도초초에서 '2021 섬으로 찾아가는 AI·SW코딩캠프(이하, 코딩캠프)'를 개최했다./한전KDN한전KDN(사장 김장현)이 최근 전남 신안군에 위치한 비금초와 도초초에서 '2021 섬으로 찾아가는 AI·SW코딩캠프(이하, 코딩캠프)'를 개최했다고 5일 밝혔다.이번 코딩캠프는 2018년에 한전KDN, 전남도교육청, 조선대학교가 전국 최초 산·학·관 협력사업의 일환이다.SW교육 선순환 학점과정 프로그램은 SW교육강사 양성과정을 수료한 대학생들의 SW로봇코딩과 한전KDN 사내벤처팀의 AI 자율주행 특강으로 구성됐다.한전KDN 코딩캠프에는 백성필 한전KDN 인사노무처장, 위경종 전남도교육청 교육국장과 조선대 SW중심대학사업단 교수진이 함께했다.코딩교육을 통해 초등학생들이 AI·SW 분야에 흥미를 갖고 미래를 위한 역량발달과 진로탐색에 도움이 되고자 실시했다.한전KDN은 'AI·SW코딩교육의 사회적 가치 확산'을 기치로 산·학·관 협력 SW교육강사 양성과정을 수년째 진행하고 있다.올해는 그 대상을 확대해 올해 36명의 대학생 강사를 배출했다. 교육 수료 후 다양한 형태의 교육기부활동을 펼치고 있다.이를 위해 2021년에는 전남·전북 초·중등학생들의 컴퓨팅 사고력 배양을 위해 도교육청에서 추천한 전남·전북 도내 15개 초·중등학생 200여명을 대상으로 스크래치, 파이썬, AI, 로봇활용 코딩교육 등의 과정을 진행하고 있다.교육에 참여한  문창희(도초초 5학년)학생은 "4차산업혁명이라는 말을 인터넷을 통해 접해 보았는데 실제로 그와 관련된 내용들을 알아보며, 로봇을 통해 재미있게 체험할 수 있어서 좋았다"고 소감을 말했다.백성필 한전KDN 처장은 "ICT전문 공기업으로서 업의 특성을 살린 AI·SW교육 기부를 통해 도서 지역의 어린이들에게도 교육의 기회를 확대하고, 사회적 가치 확산에 지속적으로 기여하겠다"고 밝혔다.</t>
-  </si>
-  <si>
-    <t>친노동 기울어진 운동장 여전…‘경제 악순환’ 빌미노사분규 경영차질, 일자리 위축…4%대 성장 차질내년 중대재해법 시행…기업투자 위축 심화 가능성“친노동정책 일자리 창출보다 일자리 줄이는 역효과”[헤럴드경제=김대우 기자] 주 52시간제 확대와 개정 노조법 시행 등 친노동정책이 ‘V자형’ 경제회복에 걸림돌이 될 것으로 우려되고 있다. 우리 경제는 지난해 -0.9% 역성장에서 빠르게 벗어나 올해 4%대 성장으로 빠르게 반등할 것으로 기대되고 있지만 ‘친노동’으로 기울어진 운동장이 일자리 회복을 막고 내수회복을 저해해 성장률을 깎아먹는 악순환 가능성을 배제할 수 없는 상황이다.지난달 8일 오후 서울 중구 프레스센터에서 열린 개정 노조법의문제점과 보완입법 방향 토론회에서 손경식 한국경영자총협회 회장이 인사말을 하고 있다. [연합]5일 관계부처와 경영계에 따르면 정부는 ‘2021년 경제정책방향’에서 올해 실질 국내총생산(GDP) 전망치를 3.2%에서 4.2%로 상향하고 내년에도 회복국면이 이어져 3% 성장이 가능할 것으로 예상했다. 하지만 최저임금 인상과 근로시간 단축, 비정규직 제로화 정책에 이어 6일부터 해고자의 노조가입을 허용하는 개정 노조법이 시행되고, 내년에는 중대재해처벌법이 시행되는 등 잇단 친노동정책이 변수가 될 것으로 지적되고 있다.특히 개정 노조법의 시행으로 노사분규가 가열되면서 경영차질이 우려되고 중대재해법 시행으로 기업투자 위축이 심화할 가능성이 거론되고 있다.정부는 추경을 통해 적극적인 재정정책을 펼치고 소비를 진작시켜 일자리를 늘림으로써 올해 취업자수가 25만명 증가할 것으로 예상하고 있다. 작년 감소분 22만명 이상을 회복할 것이라는 전망이다. 수출은 올해에 이어 2년 연속 수출 6000억달러를 상회할 것이라고 내다봤다. 민간소비는 올해 2.8%, 2022년은 3.5% 증가할 것으로 봤다.정부는 고용 조기정상화를 위해 올해 4대 분야에서 15만개 이상 일자리를 창출한다는 계획이다. AI·SW 등 신산업 분야, 체육·공연·관광 등 문화 분야, 교육 분야 일자리를 2만~3만명 창출해 청년 고용을 촉진한다. 백신방역 관련 일자리도 6만~7만명, 취약계층의 일자리도 3만~4만명 창출하기로 했다.하지만 친노동 정책이 일자리 회복을 더디게 할 것으로 우려된다. 중기 중앙회를 비롯한 경제단체들은 5~49인 사업장에 대한 주52시간제 계도기간 부여를 마지막까지 정부에 촉구했지만, 정부는 끝내 강행했다. 개정 노조법도 경영계의 보완요구는 무시된채 그대로 시행된다. 여기에 노동계는 내년도 ‘최저임금’을 올해보다 23.9% 인상한 1만800원으로 올려야 한다고 주장하고 있다.국회는 지난해 12월 ‘기업규제 3법(상법·공정거래법·금융그룹감독법 개정안)’을 통과시켰고, 올 1월에는 ‘중대재해처벌법’까지 속전속결로 처리했다. 특히 내년 1월 시행 예정인 중대재해처벌법은 인명피해 산재 고용주에게 책임을 부과하는 것으로, 경영계가 보완입법을 주장하는 대표적인 규제다.전경련에 따르면 지난해 정부 입법으로 신설·강화된 규제는 총 1510건으로 전년보다 55% 늘어난 것으로 나타났다. 여기에 국회에서 발의된 규제 관련 법안만 3900여건에 달한다. 이런 규제의 밑바탕에는 ‘반기업 정서’가 깔려 있다.게다가 선거 때만 되면 기승을 부리는 반기업 포퓰리즘 정책 리스크도 경영계 발목을 잡고 있다. 대선을 앞두고 이런 현상은 더 심화될 것으로 보인다.임무송 금강대 공공정책학부 교수는 “최저임금 인상, 근로시간 단축, 비정규직 제로화 등 친노동정책은 추가 일자리 창출보다 오히려 일자리 줄이는 역효과를 내고 있다”며 “기업이 일자리를 창출할 수 있도록 규제를 완화하는 쪽으로 정책의 대전환을 해야 한다”고 지적했다.</t>
-  </si>
-  <si>
-    <t>단국대학교단국대 제공										단국대학교(총장 김수복)는 최근 교육부가 주관하는 ‘디지털 신기술 인재양성 혁신공유대학(이하 혁신공유대학)’ 주관기관에 선정됐다. 이로써 단국대는 대전대·동의대·상명대·우송대·원광보건대·홍익대와 함께 ‘디지털 기반 바이오헬스 혁신공유대학 컨소시엄’을 구축, 4차 산업혁명 신기술 분야인 바이오헬스 분야 핵심 인재 양성을 위해 융합 교육과정을 개발하고 운영한다.이를 통해 교육과정의 혁신, 교육환경 및 교육기회의 개방, 산학연과 지역의 연합을 통해 미래 바이오헬스 분야 맞춤형 지역 특화 인재를 양성하는 것을 목표로 사업을 펼친다. 미래의료, 디지털 공학, 빅데이터, 인공지능(AI) 등을 융합한 교육과정을 통해 상호소통능력(SUPER), 디지털융합능력(SMART), 인간사회공감력(SOFT), 자기점검능력(STRATEGIC), 창조적문제해결력(STAR)을 갖춘 S형 실무 인재를 양성한다.그뿐만 아니라 단국대는 외부와의 협력을 통해 인재 양성에도 앞장서고 있다. 월드클래스기업협회와 손잡고 R&amp;D 분야 산학협력체제 구축과 산업혁신 인재 양성에 나섰으며, K뷰티를 선도하는 화장품 제조 기업 ‘코스맥스’와 함께 ‘마이크로바이옴 플랫폼 연구센터’를 개소하고 한국인 피부에 최적화된 혁신 제품 개발에 나서 눈길을 끈다.이병인 입학처장										이병인 단국대 입학처장은 “단국대는 디지털 대전환 시대를 맞아 공유와 혁신을 통한 디지털 크리에이티브 캠퍼스 구축에 박차를 가하고 있다”며 “미래 사회 변화에 능동적으로 대응하고 창조적인 가치 창출을 선도하는 인성과 지식, 재능을 갖춘 단국인을 희망하는 학생들이 많이 지원하길 바란다”고 말했다.온·오프라인 결합한 하이브리드 교육과정 도입							단국대는 전통적인 교육 방식인 강의실 중심의 수업 방식에서 벗어나 시간과 장소의 한계 없이 언제 어디서도 양질의 수업이 가능하도록 시스템을 구축하고 있다. 특히 코로나19를 계기로 온라인 수업환경을 완벽하게 갖추고 단순한 강의 전달 방식이 아닌 쌍방향 학습이 가능하도록 교육과정도 함께 개편하고 있다.교육과정에는 학생들이 스스로 자신의 관심 분야를 설계하고 이를 수업에 적용할 수 있도록 자기주도형 학습 설계 방식이 도입된다. 학생들이 자기 적성과 진로에 맞추어 스스로 커리큘럼을 만들 수 있도록 전공 분야를 모듈화해 학생들이 자신의 관심분야를 집중적으로 공부할 수 있도록 지원하고 있다.수업에는 플립러닝을 활용해 학생이 적극적으로 참여하는 방식을 도입한다. 이론 수업은 교수가 교안과 강의 영상을 제공하고 학생들은 이를 기반으로 동료 학생들과 집단토론을 통해 지식을 발전시키고 상호 평가를 함으로써 능동적인 수업이 가능토록 하고 있다.이를 위해 단국대는 기존의 강의실을 디지털 기반의 강의실로 개편하고 자동녹화 편집 기능을 갖춘 능동형 강의실을 구축하고 있다. 이를 통해 실시간 화상 강의 및 온라인 강의 콘텐츠 제작이 가능해 교수자와 학습자의 쌍방향 소통을 통해 효율적인 학습이 가능하다.국내 최초 AI·빅데이터 활용 맞춤형 학사관리							수업 및 학사관리에는 인공지능과 빅데이터를 기반으로 학생 개인 맞춤형 서비스가 도입된다. 단국대는 최근 국내 최초로 인공지능을 기반으로 한 맞춤형 교육연구지원 시스템인 ‘단아이(Dan.i)’를 선보였다. 2017년 사업에 착수한 이래 약 5년 만에 얻은 결실이다.‘단아이(Dan.i)’는 인공지능 기술과 빅데이터를 활용해 그동안 대학에서 제공했던 학사 서비스를 온라인으로 제공할 수 있도록 했다. 단순한 질문 답변 형태의 챗봇 서비스에서 진일보해 대화형 인터페이스를 기반으로 학생들이 관심 분야의 주제어를 입력하면 인공지능이 이를 분석해 교과 과정, 채용정보, 관련 분야 논문정보 등을 제공한다. 이 밖에도 학과 분석 데이터를 기반으로 한 학과 라운지 자동 생성 기능, AI 스피커와 IPTV를 연동해 음성 질의응답 기능이 탑재돼 있다.이와 함께 학생들의 관심 분야와 역량을 디지털 데이터화 해 진로 설계를 지원하는 통합 플랫폼인 ‘영웅스토리(Young熊 Story)’를 운영하고 있다. ‘영웅스토리’는 진로 설계, 전공 학습, 비교과, 취업, 상담 등 다양한 분야의 학사지원을 담은 단국대만의 독특한 프로그램이다. 이 프로그램은 개인 역량 진단, 진로 설계, 부족한 역량을 키울 수 있는 비교과 프로그램, 마일리지 적립, 취·창업 정보, 상담 및 커뮤니티, 포트폴리오 등의 서비스를 제공하고 있다. 입학부터 졸업까지 교내에 흩어져 있는 학생의 정보를 영웅스토리를 통해 한 곳에서 볼 수 있어 개개인의 맞춤형 포트폴리오 구축이 가능하다.학생부종합 자기소개서 폐지							단국대는 2022학년도 수시모집에서 62%, 정시모집에서 38%를 선발한다. 2021학년도에 비해 정시모집 선발인원이 확대됐으나 여전히 학생부종합전형에서 많은 인원을 선발한다. 올해 학생부종합전형 주요 변경사항으로는 자기소개서 폐지, 약학과 신설 등이 있다. 특히 자기소개서 폐지, 수능 최저학력기준 미적용[DKU인재(의학계열, 약학과)/기회균형선발(약학과)제외], 면접고사 미실시[SW인재/DKU인재(의학계열 및 문예창작과)제외]로 수험생의 입시 부담이 대폭 경감됐다. 또한 약학과를 신설했다.학생부교과에서 죽전캠퍼스는 학생부교과우수자전형을 폐지하고 지역균형선발을 신설했다. 이에 따라 고교에서는 최대 8명까지 학교장 추천을 받아 지원할 수 있으며, 죽전캠퍼스 지역균형선발전형과 천안캠퍼스 학생부교과우수자전형 중복지원도 가능하다.논술은 기존에 교과 40% 반영 비율을 교과 30%로 낮춰 논술 반영비율을 높였다. 이에 따라 논술고사 성적에 따라 당락이 좌우될 전망이다.</t>
-  </si>
-  <si>
-    <t>[SW명장 창업에 도전하다] 백운천 팔로 대표백운천 팔로 대표    &lt;SW명장 창업에 도전하다 / 백운천 팔로 대표&gt;"동기부여가 필요한 사람들이 '열품타'를 통해 숨어있던 열정을 느끼고, 스스로 할 수 있다는 사실을 깨달았으면 합니다. 사람들의 마음을 움직이고 삶에 실질적인 도움을 주는 데서 얻는 행복과 보람은 정말 큽니다."서울 강남의 한 커피숍에서 만난 백운천 팔로 대표는 "세계 1등 동기부여 앱이 되는 게 목표다. 디지털 앱을 통해 한국인뿐 아니라 세계인들의 마음을 움직이고 싶다"고 말했다.  동국대 전자공학과 2005학번인 백 대표는 반도체 용량을 늘리는 것도 중요하지만, 사람들에게 직접 영향을 미치고 도움을 주는 서비스를 만들고 싶은 생각에 SW(소프트웨어) 공부를 시작했다. 대학교 4학년이던 2011년 여름, 마크 저커버그의 창업 스토리를 담은 영화를 본 게 계기가 됐다. 영화를 본 다음날 컴퓨터 공부를 시작해, 독학을 하는 동시에 연합동아리에 가입해 후배들에게 밥을 사줘 가며 미래를 준비했다. 그러다 2012년 3월, 과기정통부와 IITP(정보통신기획평가원)가 운영하는 최고급 SW 개발자 양성 프로그램인 'SW마에스트로' 과정에 도전했다. 결과는 합격이었다. 백 대표는 "연수생 선발 전 마지막 인터뷰에서 평가위원이 '축구로 따지면 1대 0으로 지고 있는데 후반전이 끝나가고 있다. 역전할 수 있는 말을 해보라'고 하더라. 그래서 컴퓨터와 프로그래밍에 대한 열정을 최대한 어필했다. 그게 통해서 아슬아슬하게 합격한 것 같다"고 말했다. 열정은 가파른 실력 상승으로 이어졌다. 과정이 끝날 때쯤 백 대표가 진행한 프로젝트는 상위권에 들었다. 중고서적 거래서비스와 애견용 스마트 목걸이 프로젝트를 진행했다. 그는 "SW마에스트로는 내 인생의 터닝포인트가 됐다"면서 "잘 모르던 컴퓨터와 SW에 대해 정말 많은 것을 배웠다. 멘토들에게 인정받고, 실력 있는 친구들과 어깨를 나란히 하며 경쟁하고 싶은 마음에 밤낮 없이 공부했다"고 밝혔다. 학교를 휴학하고 약 1년간 매일 10시부터 새벽 4시까지 SW마에스트로 연수센터에서 살다시피 하며 팀원들과 프로젝트에 매달렸다. 그는 "독학을 하면 세상에 얼마나 좋은 기술이 많은지, 어떤 이슈가 있는지 알기 힘든데, 무엇을 공부하면 좋을지 멘토들이 알려주니 훨씬 빠르게 성장할 수 있었다. 사업현장에서 실제로 돌아가는 서비스를 만들려면 어떤 게 중요하고 무엇을 신경 써야 하는지도 배울 수 있었다"고 말했다. 2013년 과정을 끝낸 후 자신만의 서비스를 만들기 시작했다. 광고를 보면 쌓이는 포인트를 모아 카카오톡 이모티콘을 살 수 있는 서비스를 개발해 출시 3개월 만에 150만명이 다운로드하고, 연 10억원 가량의 매출을 얻기도 했다. 대학생, 취업준비생, 고등학생 등을 대상으로 열정을 키워주는 '열정 멘토링'에도 관심이 많았다. 서로의 꿈에 대해 발표하고 꿈을 위해 쓴 시간을 공유하는 활동을 했다. 그러다 서로의 활동결과를 알려주는 데서 그치지 않고, 서로의 활동을 실시간 공유하는 서비스에 대한 아이디어를 떠올렸다. 동기나 자신에 대한 믿음 부족이 공부를 힘들게 하는 원인이라고 믿는 백 대표는 교육 콘텐츠에 집중하는 대부분의 교육 스타트업과 달리 동기부여를 해 주고 마음을 도와주는 서비스를 만들겠다고 결심했다. 그렇게 탄생한 서비스가 학생들을 위한 동기부여 앱 '열정품은 타이머(열품타)'다. 열품타는 과목별 공부시간 측정, 스터디그룹, 공부상태 공유, 캠 스터디, 커뮤니티 등의 기능을 가지고 있다. 2019년말 앱 개발을 시작해 2020년 초 서비스를 선보인 데 이어 작년 11월 팔로를 설립했다. 이후 계속 기능을 추가하고 업그레이드해 오고 있다. 사용자들은 앱을 실행한 후 원하는 스터디그룹에 가입해 공부하는 모습을 공유하며 학습한다. 백 대표는 "마라톤만 해도 혼자 뛰면 완주가 힘들지만 다른 이들과 같이 하면 가능하다. 다른 친구의 모습을 실시간으로 보면서 자극을 받은 사용자들은 공부하는 시간이 크게 늘었다고 말한다"고 밝혔다. 그룹 안에는 서로 모르는 사람들도 많다. 초·중·고·대학생과 공무원 준비생 등이 앱을 켜놓고 공부하면서 전체 공부시간을 공유하고 대화도 한다. 캠스터디란 기능을 사용해 30초마다 공부하는 모습을 자동 촬영해 공유하기도 한다. 하루, 일주일, 월별 공부시간 순위를 매겨 공개하기도 한다. 서비스는 별도의 마케팅 없이 입소문만으로 누적 가입자 300만명을 넘어섰다. 인스타그램이나 유튜브에서 열품타로 검색하면 수십만개의 결과가 뜬다. 올해 2월 기준 국내 앱스토어 무료 교육카테고리 1위를 차지하기도 했다. 코로나19로 인해 혼자 공부하는 시간이 늘어나면서 더 이용자 증가세가 더 커졌다. 회사는 한국어 서비스에 더해 지난 3월부터 영어·중국어·인도네시아어·베트남어·태국어·스페인어도 지원하기 시작했다. 홍콩·베트남·대만·일본 등에서 이용자들이 빠르게 늘고 있다. 애플워치 버전을 출시하고, 스케줄러, 할일목록 등 기능도 추가했다. 그룹 챌린지, 공부 아이콘 등의 기능도 준비하고 있다.백 대표는 "동기부여에 대한 수요는 나라와 상관이 없는 것 같다. 하루 활성 해외 이용자가 6만명에 달한다"고 말했다. 지금 집중하는 것은 서비스 안정화와 고도화다. 이를 통해 열품타를 써야만 하는 이유를 더 많이 만든 후 플랫폼 전략을 통해 성장하겠다는 생각이다. 사용자들이 열품타 플랫폼에서 다른 기업의 교육 콘텐츠들을 소비할 때마다 수익을 얻는 구조를 만드는 게 목표다. 백 대표는 "쿠팡이나 카카오톡에 많은 판매자들이 입점해 있듯이 우리 플랫폼을 통해 교육 콘텐츠를 판매할 수 있도록 하겠다. 연내 1~2개 기업과 먼저 시도할 계획"이라고 말했다. 백 대표가 동아리 친구 1명이 세운 회사는 5명 규모로 커졌다. SW마에스트로 '2021년 지속성장 지원사업'에 선정돼, 사업자금과 마케팅·디자인 등 전문가 멘토링도 지원받고 있다. "우리 서비스에 문제가 생기면 수험생들의 생활이 멈출 수 있는 만큼 그들의 생활을 책임진다는 생각으로 서비스 하고 있다"는 백 대표는 "앞으로 그들의 더 많은 것을 책임져주고, 사용자와 소통해 서비스를 발전시켜 가겠다"고 밝혔다.</t>
-  </si>
-  <si>
-    <t>━◆국무총리실━5일(월)*김부겸 국무총리, 주례회동(오후12시,BH)*김부겸 국무총리,서민금융 지원현황 점검(오후2시20분, 중앙 서민금융통합지원센터)*구윤철 국무조정실장, 주례회동(오후12시,BH)6일(화)*김부겸 국무총리,국무회의(오전10시,세종청사)*김부겸 국무총리,지자체 일자리대상 시상식(오후2시,대전 호텔ICC)*김부겸 국무총리,창업원 방문 및 창업기업 규제혁신 간담회(오후3시10분, 카이스트 창업원)*구윤철 국무조정실장,국무회의(오전10시,세종청사)7일(수)*김부겸 국무총리,코로나19 중대본 회의(오전8시30분,세종청사)*김부겸 국무총리,국제개발협력위원회(오후2시, 서울청사)*김부겸 국무총리,부패방지 관계장관회의(오후5시,서울청사)8일(목)*김부겸 국무총리,서울시의회 부활 30주년 기념식(오전10시,서울시의회)*김부겸 국무총리,도쿄올림픽 선수단 결단식(오후3시, 올림픽공원)9일(금)*김부겸 국무총리,SW 융합기술지원센터(오전10시30분,대구수성알파시티)*김부겸 국무총리,로봇산업진흥원 현장방문(오후2시,대구)*김부겸 국무총리,이래 AMS 현장방문(오후3시45분,대구)━◆기획재정부━5일(월)*홍남기 부총리, 대외경제장관회의(오전9시, 세종)*홍남기 부총리, 확대간부회의(오후2시30분, 세종)*홍남기 부총리, 피치 연례협의(오후3시30분)*이억원 1차관, K-뉴딜위원회 출범 1주년 기념세미나(오전7시30분, 국회)*이억원 1차관, 확대간부회의(오후2시30분, 세종)*안도걸 2차관, 2021년도 2차 추경 범정부TF 회의(오전10시30분)*안도걸 2차관, 확대간부회의(오후 2시30분, 세종)*제223차 대외경제장관회의 개최 (오전)*'21년도 2차 추경 범정부 TF 회의 개최 (오전)*2021년 2/4분기 통계청 적극행정 우수공무원 포상 수여(오후)*기획재정부, 확대간부회의 개최(오전)6일(화)*홍남기 부총리, 국무회의(오전10시, 서울)*이억원 1차관, 외환건전성협의회(오전 8시)*이억원 1차관, 시도경제협의회(오후3시, 서울)*안도걸 2차관, 사회복지분야 예산협의회(오후4시)*홍남기 부총리, 국제 신용평가사 피치 면담(오전)* KDI, Inclusive Korea 2021 국제컨퍼런스 개최 - 문재인 정부 4년의 여정: 포용적 회복과 도약 -(오전)*제1차 외환건전성협의회 개최 결과(오전)*2021년 5월 온라인쇼핑동향(오전)* 2021년 시도경제협의회 개최(오후)*사회복지 분야 예산협의회 개최(오후)7일(수)*홍남기 부총리, 비상경제 중앙대책본부 회의(오전9시50분, 서울)*홍남기 부총리, G20 재무장관회의 출장(이탈리아)*이억원 1차관, 중앙재난안전대책본부회의(오전8시30분, 서울)*이억원 1차관, 비상경제중앙대책본부회의(오전9시50분, 서울)*이억원 1차관, 비상경제 중앙대책본부회의 정례브리핑(오후 1시30분, 서울)*이억원 1차관, 국제개발협력위원회(오후2시, 서울)* KDI 경제동향(2021. 7)(오전)*인구구조 변화 영향과 대응방향 - 총론: 인구구조 변화 대응 전략(오후)8일(목)*이억원 1차관, 첨단·융복합 서비스산업 현장방문(오후1시30분, 서울)*안도걸 2차관, 차관회의(오전10시30분, 서울)*안도걸 2차관, 문화예술문야 예산협의회(오후2시30분, 서울)*월간 재정동향 및 이슈(7월호) 발간(오전)*문화예술분야 예산협의회 개최(오후)*이억원 기획재정부 1차관, 첨단·융복합서비스산업 현장방문(오후)9일(금)*이억원 1차관, 혁신성장 점검회의 겸 코로나 정책점검회의 겸 한국판뉴딜 점검 TF(오전8시, 서울)*안도걸 2차관, 민간투자사업심의위원회(오후2시)*혁신성장 전략점검회의 겸 정책점검회의 겸 한국판뉴딜 점검 TF회의 개최 (오전)*"안경 온라인 판매서비스, 이해관계자 간 상생 방안 마련을 위한 논의를 시작합니다"- 3개월 간 논의를 통해 이해관계자가 합의하는상생안 도출 노력(오후)*2021년 제3차 민간투자사업심의위원회 개최(오후)━◆산업통상자원부━5일(월)*문승욱 산업부 장관, 이차전지 현장방문 및 간담회(오전 10시20분, 울산 삼성SDI)*문승욱 산업부 장관, 울산 과기원 방문(오후 1시20분, 울산)*유명희 통상교섭본부장, 대외경제장관회의(오전 9시, 세종청사)*박진규 산업부 차관, 균형발전정책 간담회(오후 2시, 세종 베스트웨스턴호텔)*박진규 산업부 차관, 재생에너지 안전관리 현장점검(오후 3시30분, 충남 금산군)*차관, 재생에너지 안전관리 현장점검(오전)*한-이스라엘 기술협력 2.0시대를 연다(오전)*EU와 글로벌 다자통상 현안 등 논의(오전)*첨단?유턴기업, 자유무역지역 입주 쉬워진다(오후)*산업부-중기부, 산업대전환기 중소·중견기업 지원 맞손(오후)6일(화)*문승욱 산업부 장관, 국무회의(오전 10시, 세종청사)*문승욱 산업부 장관, EU수석부집행위원장 면담(오후 5시, 포시즌스호텔)*유명희 통상교섭본부장, 국무회의(오전 10시, 서울청사)*유명희 통상교섭본부장, EU수석부집행위원장 면담(오후 1시, 롯데호텔)*박진규 산업부 차관, 산업부·중기부 정책협의회(오전 10시, 대전청사)*장관-EU 그린딜 담당 수석부집행위원장 면담(오전)*차세대 전기차 기술, 선제적 표준화 착수(오전)*산업부 소관 공공기관장 회의 개최(오후)*소재?부품?장비의 경쟁력을 높여주는 나노기술을 한자리에(오후)*장마ㆍ휴가철 맞은 유통 현장, 방역관리 특별점검(오후)7일(수)*문승욱 산업부 장관, 반도체 특위(오전 8시, 의원회관)*문승욱 산업부 장관, 공공기관장 간담회(오전 10시, 포시즌스호텔)*유명희 통상교섭본부장, 국제개발협력위원회(오후 2시, 서울청사 별관)*박진규 산업부 차관, 나노코리아 2021 개막식(오전 10시30분, 일산 킨텍스)*2021년 상반기 외국인직접투자 동향 발표(오전)*연료운반선도 친환경선박으로 전환한다(오전)*2021 무역안보의 날 기념식 개최(오전)*무역위원회 'FinFET 소자 특허권' 및 '의료용 필러 상표권' 침해 불공정무역행위 조사개시(오전)8일(목)*박진규 산업부 차관, 차관회의(오전 10시30분, 서울청사)*미래를 움직이는 힘, K-배터리 전략 수립(오전)*대국민 '수소 퀴즈쇼' 본선 개최(오전)*산업부 장관, 중기중앙회 방문 및 간담회 참석(오후)*제30차 한-호주 에너지자원협력위 개최(오후)*전력산업 수출 활력 제고를 위한 정책포럼 개최(오후)9일(금)*문승욱 산업부 장관, 중기중앙회 회장단 간담회(오전 9시30분, 중기중앙회)━◆중소벤처기업부━5일(월)*권칠승 중기부 장관, 대외경제장관회의(오전 8시30분, 세종청사)*'21년 스마트상점 지원대상 선정결과 발표…스마트기술 보급 본격 추진(오전)*국내외 혁신 스타트업, '컴업 스타즈' 모집(오전)*'소재부품장비 전략협력 R&amp;D' 운영기관 발표(화요일 석간)*제2차 중기부-산업부 정책협의희 개최(화요일 석간)6일(화)*권칠승 중기부 장관, 국무회의(오전 10시, 미정)*강성천 중기부 차관, 중기부-산업부 정책협의회(오전 10시, 중기부 대회의실)*강성천 중기부 차관, 현장간담회(오전 3시10분, 카이스트 창업원)*중기 옴부즈만, 대전충남 수출기업 규제개선 간담회 개최(오전)*물류애로 해소를 위한 수출 중소기업 간담회 개최(수요일 석간)7일(수)*권칠승 중기부 장관, 사회관계장관회의 겸 사람투자인재양성협의회(오전 10시30분, 서울청사)*권칠승 중기부 장관, LG화학 자상한기업 MOU(오후 2시, LG사이언스파크)*강성천 중기부 차관, 수출물류기업 간담회(오전 10시, 서울 가든호텔)*LG화학 자상한 기업 협약식(오전)*라이브커머스, 동행세일 흥행몰이 이어가(오전)8일(목)*권칠승 중기부 장관, 비상경제중대본회의(오전 7시30분, 미정)*권칠승 중기부 장관, 스타트업센터 개소실(오후 2시, 서울 관악구)*권칠승 중기부 장관, 중소기업 ESG간담회(오후 4시, 대한상의)*강성천 중기부 차관, 차관회의(오전 10시30분, 미정)*소상공인도 손쉽게 구독 서비스 하세요(오전)*온통(온라인으로 통하는) 전통시장 가능성 보여(오전)*중소기업 ESG 간담회 개최(오전)*공정거래법, 하도급법 등 위반기업 공정위에 검찰 고발 요청(오후)9일(금)*권칠승 중기부 장관, 그린뉴딜 유망기업 인증서 수여식(오전 9시45분, 코엑스)*권칠승 중기부 장관, 동행세일 온에어 특별방송(오후 2시30분, 미정)*강성천 중기부 차관, K-바이오 랩허브 후보지 선정결과 브리핑(오후 4시30분, 서울청사 별관)*K-바이오 랩허브 후보지 선정 결과 발표(오후)━◆해양수산부━5일(월)*에너지 절감형 친환경 어선개발(R&amp;D) 추진(오전)*국내 하역 원양어획물 전수조사를 통한 IUU어업 원천 차단(오전)*사각지대 없는 항만 안전관리체계 구축한다(오후)6일(화)*문성혁 해수부 장관, 국무회의(오전 10시, 세종)*해양사고의 조사 및 심판에 관한 법률 일부개정(오전)*우리나라 갯벌의 블루카본 잠재력, 세계에 알리다(오전)*호남 소비지 분산 물류센터 준공(수요일 석간)*'21년 산지거점유통센터(FPC) 건립 사업자 공모 선정 결과 발표(수요일 석간)7일(수)*2021년 해양플랜트 서비스산업 발전협의회 개최(오전)*수산업법 시행령 일부개정 입법예고(목요일 석간)8일(목)*엄기두 해수부 차관, 차관회의(오전 10시30분, 세종)*항만공간의 공공디자인 가이드라인 행정규칙(예규) 제정(오전)*'21년 한·중 공동치어방류행사 개최(오전)9일(금)*일정 없음.━◆농림축산식품부━5일(월)*일정 없음.6일(화)*김현수 농식품부 장관, 국무회의(오전 10시, 세종)*제9회 도농교류의 날 행사 추진(오전)7일(수)*김현수 농식품부 장관, 농촌 협약식(오전 10시, 세종)*박영범 농식품부 차관, 제9회 도농교류의 날 기념식(오전 10시, 서울)*농촌지역 생활권 활성화를 위한 '농촌협약식(7.7.)' 개최(오전)*디지털 뉴딜 지원을 위한 농식품 공공데이터 개방 지속 확대(오전)*농관원, 2021년 상반기 농식품 원산지 등 위반업체 000개소 적발(오전)*축산물 온라인 경매 도입 업무협약(7.7.) 체결(목요일 석간)8일(목)*박영범 농식품부 차관, 차관회의(오전 10시30분, 서울)*식량농업기구(FAO) 6월 세계식량가격지수 발표(오전)*제4차 한-뉴질랜드 FTA 농림수산협력위원회 개최(금요일 석간)9일(금)*일정 없음.━◆공정거래위원회━5일(월)*부당한 광고행위 제재(오전)6일(화)*조성욱 공정위원장, 국무회의(오전 10시, 세종청사)*공정위의 제한적 자료열람제도 관련 지침 수상(오전 10시)*피부적외선 체온계 비교정보 생산결과(오전)7일(수)*조성욱 공정위원장, 방역중대본회의(오전 8시30분, 대회의실)*조성욱 공정위원장, 경제중대본회의(오전 9시50분, 세종청사)*조성욱 공정위원장, 전원회의(오후 2시, 심판정)*중국건축고분유한공사(영업소)의 불공정 하도급 거래행위 제재(오전)8일(목)*조성욱 공정위원장, 물류 일감분야 협약식(오후 3시, 대한상의)*김재신 공정위 부위원장, 차관회의(오전 10시30분, 세종청사)*물류시장 거래환경 개선을 위한 협약식 개최(오후 3시)*이미용, 교육서비스업 등 3개 업종 표준가맹계약서 제·개정(오전)9일(금)*김재신 공정위 부위원장, 홍보 및 정책조정회의(오전 10시, 대회의실)*2021년 상반기 선불식 할부거래업자 정보공개(오전 10시)━◆한국은행━5일(월)*2021년 6월말 외환보유액(오후)6일(화)*이주열 韓銀 총재,「G20 재무장관·중앙은행총재 회의」참석(오전)*2021년 상반기 위조지폐 발견현황 및 화폐위조범 검거 유공자 포상(오전)7일(수)*2021년 5월 국제수지(잠정)(오전)*이주열 총재, G20 7월 재무장관·중앙은행총재 회의(이탈리아 베니스)*이승헌 부총재, 금융위원회 화상회의(오후2시, 부총재 집무실)8일(목)*2021년 1/4분기 자금순환(잠정)(오전)*2021년 6월 이후 국제금융·외환시장 동향(오전)9일(금)*2021년 12차(6.22일 개최)금통위 의사록 공개(오후 4시)</t>
-  </si>
-  <si>
-    <t>창업진흥원은 '2021년 대-스타 해결사 플랫폼 제1탄' 신청기간을 이달 7일 17시까지로 일주일 연장한다고 4일 밝혔다.대스타 해결사 플랫폼은 '대기업 등이 풀지 못한 과제를 스타트업이 해결사로 나선다'는 의미를 담은 정책이다. 이를 위해 정부가 대기업과 스타트업을 연결하는 가교역할을 수행한다.이번 신청 기간 연장은 과제 구체화 기간과 다양화를 요구하는 스타트업의 의견을 적극 수렴해 결정됐다. 이번 공모전은 대기업이 제시하는 과제를 스타트업이 해결하는 방식으로 다른 공모전에 비해 어려움이 크다는 이유에서다. 이미 과제 신청을 완료한 스타트업도 아이디어 구체화 등 신청서 수정 기회를 부여받는다. 신규 과제도 추가됐다. 한국전력공사은 '전력 설비 모니터링을 위한 실시간 영상 압축 기술'에 대한 신규 과제를 제시했다. 대스타 해결사 플랫폼은 대기업이 제시한 과제 해결 아이디어를 보유한 스타트업은 신청 가능하다. 3단계 평가를 통해 선정된 스타트업에는 사업화 자금(1억원)과 기술특례보증(최대 20억원), 기술개발지원(최대 4억원) 우대, 대기업 협업 기회 등이 주어진다. 현재 대스타 해결사 플랫폼 현재 분야별로 나눠 1, 2탄 과제가 진행 중이다. 1탄 과제는 △정보통신기술(ICT)·소프트웨어(SW) △바이오헬스 △소재·제조 등 3개 분야로 구성됐다. 과제별 참여사는 방송광고진흥공사, 인천공항공사, 롯데중앙연구소, 사노피, 신세계푸드, 한국전력공사 등이다. 2탄 과제는 인공지능 기반이다. 대기업·선배벤처·공공기관 총 12개 사가 과제 출제에 참여해 5개 분야 과제를 도출했다. 분야별 참여사는 △제조 분야=LG 인공지능(AI) 연구원, 한국타이어앤테크놀로지 △의료 분야=계명대 동산병원 △영상·이미지 분야=이투스교육, 대교, MBN-KDX한국데이터거래소 △소비·생활분야=CJ CGV, 이랜드벤처스, 맘편한세상 △공공 서비스 분야=한국수자원공사(K-water), 한국전력공사, 한국남부발전이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		조선대 소프트웨어(SW)중심대학사업단은 지난달 29일 중소기업벤처기업부 산하 재단법인 장애인기업종합지원센터와 '2021년 장애인 맞춤형 창업특화교육' 업무협약을 체결했다.장애인 맞춤형 창업특화교육 지원사업은 장애인 경제적 자립과 성장여건을 마련하기 위해 창업에 필요한 특화교육을 제공, 장애인의 성공창업을 유도하는 프로그램이다. 드론국가조종자 자격증을 보유하고 있는 장애인의 집중 창업특화교육과정과 드론국가자격증 취득의 도움을 주기 위한 창업연계 교육과정이다.조선대 SW중심대학사업단은 지난달 29일 중소기업벤처기업부 산하 재단법인 장애인기업종합지원센터와 2021년 장애인 맞춤형 창업특화교육 업무협약을 체결했다.사업단은 특화이론교육과 창업특화교육, 멘토링, 드론 실기교육과정으로 창업전문가, 세무전문가, 드론전문교관 등 분야별 최고의 전문강사의 맞춤형 강의를 진행한다. 총 20명의 교육생이 참여한다.김영심 사업단 교수는 “4차 산업혁명 시대의 대표적 직종이라 할 수 있는 인공지능 첨단 드론 교육은 장애인들에게 새로운 성취감과 자존감 배양에 큰 역할을 할 것으로 기대한다”며 “앞으로도 다양한 분야의 특화교육이 진행될 수 있도록 노력하겠다”고 말했다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  50인 미만 기업들의 요구에도 정부가 주 52시간 적용 계도기간을 주지 않겠다고 못 박은 것은 이미 충분한 지원이 이뤄지고 있다는 판단에서다. 고용노동부는 유연근로제나 특별연장제도, 또 인건비 지원 등을 활용하면 50인 미만 기업도 주 52시간 근무를 맞출 수 있을 것으로 2일 보고있다.   유연근로제는 업무량이 많을 땐 주 52시간을 넘어서 일하되, 업무량이 적을 때 그 이하로 일해 평균 근로시간을 맞추는 제도로 크게 탄력근로제와 선택근로제로 구분된다.   탄력근로제는 주 최대 64시간까지 근무를 허용한다. 근로시간은 경영진이 생산 수요 등을 고려해 조정한다. 펌프 전문 업체 그린텍은 탄력근로제를 활용해 성공적으로 주 52시간을 정착했다. 이정곤 그린텍 대표는 “인력과 업무량을 타이트하게 조정했다”며 “인력 채용을 조금 늘렸다”고 말했다. 이어 “정부가 주 52시간의 장점과 함께 근로자들이 갖출 마음가짐에 대해서도 교육해 줬으면 좋겠다”며 “출퇴근 시간이나 평가체계 등 종합적으로 관리하는 근로감독시스템 지원도 필요한 부분”이라고 요구했다.    선택근로제는 근무시간에 제한 없이 평균 52시간을 맞추는 제도다. 극단적인 예로 104시간을 일한 주가 있다면 근무가 0시간인 주도 있어야 한다. 이 제도는 소프트웨어(SW) 개발이나 연구 등 연속적인 업무에 종사하는 산업에 적합하다. 사용자경험(UX) 디자인·SW 개발업체인 이니션은 컨설팅을 받은 뒤 주 52시간을 선적용했다. 이니션 관계자는 “선택근무제와 함께 4시간의 ‘재량근로시간제’를 도입했다”며 “퇴근 후 밤 10시에 다시 출근해 새벽 2시에 퇴근하는 등 악용 사례를 막기 위해 재량시간을 ‘출근시간 앞뒤 4시간’으로 제한했다”고 소개했다. 무분별한 야근으로 기업의 인건비 부담이 커질 수 있는 문제는 노무사와 협의해 ‘보상휴가제도’를 도입하기로 결정하면서 해결할 수 있었다.   무조건 주 52시간 초과근무가 불가능 한 것도 아니다. 정부는 특별연장근로제도를 통해 △재해·재난 △시설·장비 고장 △연구개발(R&amp;D) △업무량 급증 등의 사유가 발생할 경우 최대 3개월 간 근로시간을 초과할 수 있다. 단 근로자 협의와 고용부 장관의 인가가 필요하다.  또 5~29인 사업장은 근로자와 대표가 합의할 경우 주 8시간의 추가 연장근로가 가능하다. 이 제도는 2022년까지 허용될 예정이다.    주 52시간 제도 적용으로 신규 인력을 선발해 근로자 수가 늘어났다면 정부의 지원을 받을 수 있다. 정부는 이 경우 ‘일자리 함께하기’를 통해 근로자 1명당 월 최대 80만원씩 2년간 지원한다.    고용부 관계자는 “주 5일 근무제가 도입을 앞두고 우리나라의 성장이 멈출 것이라는 우려가 컸지만 그 이후 한국은 손꼽히는 경제 대국 반열에 올라섰다”며 “주 52시간 제도 역시 제대로 안착한다면 삶의 질 향상은 물론 다양한 긍정적인 효과가 나타날 것”이라고 말했다.</t>
-  </si>
-  <si>
-    <t>교육현장 무료 배포    네이버 제공.     네이버 커넥트재단이 운영하는 ‘소프트웨어야 놀자’가 인공지능(AI) 윤리 교재를 제공하기 시작했다.   ‘소프트웨어야 놀자 인공지능 윤리 교재’는 초중등 SW·AI교육 분야를 연구하는 고려대학교 김현철 교수 연구팀과 협업한 결과물로, ▲인공지능의 신뢰성 ▲인공지능의 편향성 ▲인공지능의 악용 가능성 ▲인공지능의 책임성 등 총 4개 주제로 구성돼 있다.   교사와 학부모는 네이버 커넥트재단이 운영하는 ‘소프트웨어야 놀자’에서 해당 교재를 무료로 다운로드 받아 인공지능 시대를 살아갈 학생들에게 인공지능 기술과 윤리 문제에 대해 가르칠 수 있다. 수업자료 뿐만 아니라 수업지도안, 학생용 워크시트, 다양한 교육 콘텐츠까지 함께 제공되어 수업에 활용 가능하다.   특히 ‘소프트웨어야 놀자 인공지능 윤리 교재’는 학생들이 직접 엔트리와 네이버의 인공지능 서비스를 활용해 인공지능과 윤리문제를 체험할 수 있다. 인공지능 윤리 문제와 영향력, 해결방안 등을 토론하며 인공지능 윤리에 대한 책임감을 기를 수 있도록 실습과 참여 위주의 교육 프로그램으로 구성되어 있다.   한편, 네이버 커넥트재단은 오는 8일 초중등 교사와 강사를 대상으로 ‘인공지능 윤리교육’ 연수를 진행할 예정이다. 초중등 AI교육 플랫폼 ‘엔트리’와 클로바 보이스 등 네이버 인공지능(AI) 서비스를 바탕으로 인공지능의 신뢰성과 편향성에 대한 수업을 계획하고 진행해 보는 등 교사 역량을 강화하는 프로그램을 제공한다. 해당 연수는 온라인으로 진행되며, 참가를 희망하는 교사는 7일까지 소프트웨어야 놀자 홈페이지에서 신청하면 된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		조달청은 이번 한 주 동안 한국교육학술정보원의 '4세대 지능형 나이스 구축(응용SW 개발 2단계)' 등 238건, 1541억원 용역 입찰을 집행한다고 2일 밝혔다.한국교육학술정보원의 '4세대 지능형 나이스 구축(응용SW 개발 2단계)'은 693억4800만원 규모로, 협상계약을 통해 오는 8일 개찰한다.또 국토교통부의 '기반시설통합관리시스템 구축사업(2차)'과 한국산업기술평가관리원의 '기획 디지털 전환을 위한 데이터 분석 시스템 개발'이 각각 53억5500만원, 22억7300만원 규모로 진행된다.아울러, 한국지능정보사회진흥원의 '대전 유성구 스마트경로당 구축(12억5800만원)', 한국사회보장정보원의 '데이터 센터 구축 및 전산장비 이전(27억3600만원)', 중소기업유통센터의 '판로정보종합시스템 구축사업(13억3600만원)' 등이 집행된다.지역별로 대전 소재 본청(257억원), 서울지방청(288억원) 등 2개 청이 전체 금액의 35.4%를 차지하며, 인천 등 10개 지방청은 996억원을 각각 집행한다. &lt;신기술·서비스 용역 주요 입찰내역&gt;(단위 : 100만원)No사업명수요기관명추정가격개찰일자계약방법1기반시설통합관리시스템 구축(2차)국토교통부5,3552021/07/06협상계약2기획 디지털 전환을 위한 데이터 분석 시스템 개발한국산업기술평가관리원2,2732021/07/06협상계약3빅데이터 기반 위험물질운송안전관리시스템 구축한국지능정보사회진흥원2,2572021/07/06협상계약4무인선박 실증지원을 위한 해상 관제시스템 구축재단법인 경남테크노파크1,5362021/07/06협상계약5유성구 스마트경로당 구축한국지능정보사회진흥원1,2582021/07/06협상계약62021년 대기측정망 정보시스템 고도화한국환경공단9752021/07/06협상계약7자율주행 인공지능 인식기술 활성화를 위한 융합DB 서비스 구축 확대한국지능정보사회진흥원8602021/07/06협상계약8국립중앙박물관 실감콘텐츠 제작 사업(초상화 등)문화체육관광부 국립중앙박물관8182021/07/06협상계약9상용차량 운전자 위험상황 모니터링 정보 개방 사업한국지능정보사회진흥원8502021/07/07협상계약104세대 지능형 나이스 구축(응용SW 개발 2단계)한국교육학술정보원69,3482021/07/08협상계약11미래폐자원 거점수거센터(4개권역) 운영관리시스템 구축한국환경공단8612021/07/08협상계약12한국사회보장정보원 데이터센터 구축 및 전산장비 이전한국사회보장정보원2,7362021/07/09협상계약13한국어능력시험(TOPIK) IBT 시스템(2단계) 지능형 평가 플랫폼 구축교육과학기술부 국립국제교육원1,5852021/07/09협상계약14판로정보 종합시스템 구축 사업㈜중소기업유통센터1,3362021/07/09협상계약152021년도 가상훈련 콘텐츠 개발(밀링가공, 내외선공사 분야)한국기술교육대학교1,2252021/07/09협상계약16숲길종합정보 데이터 개방체계 구축한국지능정보사회진흥원9452021/07/09협상계약17의성 종합체육관 건립공사 설계용역경상북도 의성군1,0932021/07/05설계공모18익산 안전체험교육장 건립사업 설계용역한국산업안전보건공단7242021/07/06설계공모19북면1고등학교 교사 신축공사 건설사업관리용역경상남도교육청1,9102021/07/08PQ20의왕시 하수도정비 기본계획(변경) 수립 용역경기도 의왕시 경제환경국 상하수과1,3992021/07/08PQ</t>
-  </si>
-  <si>
-    <t>비금초 섬으로 찾아가는 AI·SW교육 전라남도교육청이 7월 1일(목)과 2일(금) 이틀 간 비금초등학교와 도초초등학교에서 한전KDN-조선대학교와 연계해 ‘섬으로 찾아가는 AI·SW교육’을 실시했다. 여름 섬으로 찾아가는 AI·SW교육은 섬 지역이 많은 전남지역의 특수성을 반영한 사업으로, 한전KDN과 조선대학교가 전라남도교육청과 연계해 2019년부터 진행하고 있다. ICT전문기업인 한전KDN과 SW중심교육대학인 조선대학교가 협력해 희망하는 전남 지역 섬 학교에 직접 찾아가서 교육해주는 봉사활동이다.7월 1일(목)에는 비금초등학교 3~6학년 50명, 2일(금)에는 도초초등학교 1~6학년 67명을 대상으로 교육이 이뤄졌다. 학생들은 AI자율주행에 대한 한전KDN의 특강을 들은 뒤 Ozobot(오조봇)을 활용한 미래도시(자율주행 자동차) 토론을 벌였다. 또, 직접 미래도시 경로를 그리게 하는 활동, Jimm(지무)로봇 기본동작을 블록코딩을 통해 동작시키고 센서를 활용해 코딩을 해보는 활동, Alpha(알파) 로봇을 활용해 로봇 군무를 코딩으로 동작시키는 활동 등 다양한  프로그램이 진행됐다.위경종 도교육청 교육국장은 7월 1일 비금초등학교를 방문해 학생들을 격려하면서,“비금도 출신인 이세돌 바둑기사가 세계최초로 인공지능 알파고를 이겼던 것처럼 전남 섬지역 학교에서도 인공지능 미래사회를 이끌어가는 세계적인 미래인재가 나올 수 있었으면 좋겠다”고 밝혔다.</t>
-  </si>
-  <si>
-    <t>광주광역시교육청사 전경 광주시교육청이 ‘학교 무선망 구축 사업’의 일환으로 관내 초·중·고·특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다.2일 시교육청에 따르면 ‘학교 무선망 구축 사업’은 ‘AI?SW교육’, ‘디지털교과서 활용’, ‘온라인 공동교육과정’, ‘원격수업 지원’ 등을 위해 교실 내 무선망(Wi-Fi)을 구축하는 사업이다. 이번 7,924개의 일반교실에 국고 52억여 원을 포함한 총 132억여 원을 들여 무선망을 구축했다.일선 학교 교사들은 이번 학교 무선망 구축에 매우 만족스러운 반응을 보였다. 한 교사는 “학생 스스로 태블릿을 이용해 자료 검색을 하고 문제해결 방법을 찾을 수 있어 수업집중도가 향상됐다”며 “기존 공유기로 수업할 때에 비해 끊김 없이 인터넷 활용 수업을 원활하게 진행할 수 있게 됐다”고 말했다. 또 다른 한 교사는 “인터넷 활용 수업이 가능해 수업 콘텐츠를 보다 적극적으로 제작?활용할 수 있는 환경을 조성해 준 시교육청에 감사하다”고 말했다.시교육청은 일반교실 외에 특별교실, 교과교실 등 학교의 추가적인 수요가 많아 금년 하반기에는 전체학교 특별교실 1,284실에 무선망을 추가 구축할 계획이다. 내년까지 필요한 모든 학습 공간에 무선망을 설치할 방침이다.시교육청 교육자치과 현경식 과장은 “관내 전체 학교의 모든 교수학습공간에서 언제나 무선망(WiFi)을 이용해 효율적 교수학습이 이뤄질 수 있도록 인프라를 지속적으로 확충·개선해 나가도록 노력하겠다”고 말했다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		[한전KDN-조선대 연계]전남교육청의  '섬으로 찾아가는 AI SW교육' 장면.전남교육청이 지난 1~2일 신안군 비금초등학교와 도초초등학교에서 한전KDN-조선대학교와 연계해 '섬으로 찾아가는 AI·SW교육'을 실시했다고 밝혔다. 전남교육청에 따르면 여름 섬으로 찾아가는 AI·SW교육은 섬 지역이 많은 전남지역의 특수성을 반영한 사업으로, 한전KDN과 조선대가 전남교육청과 연계해 지난 2019년부터 진행하고 있다. AI·SW교육은 ICT전문기업인 한전KDN과 SW중심교육대학인 조선대가 협력해 희망하는 전남 지역 섬 학교에 직접 찾아가서 교육해 주는 봉사활동이다.지난 1일는 비금초 3~6학년 50명, 2일에는 도초초 1~6학년 67명을 대상으로 교육이 이뤄졌다. 학생들은 AI자율주행에 대한 한전KDN의 특강을 들은 뒤 Ozobot(오조봇)을 활용한 미래도시(자율주행 자동차) 토론을 벌였다. 또, 직접 미래도시 경로를 그리게 하는 활동, Jimm(지무)로봇 기본동작을 블록 코딩을 통해 동작시키고 센서를 활용해 코딩을 해보는 활동, Alpha(알파) 로봇을 활용해 로봇 군무를 코딩으로 동작시키는 활동 등 다양한  프로그램이 진행됐다.위경종 전남교육청 교육국장은 비금초를 방문해 학생들을 격려하며"비금도 출신인 이세돌 바둑기사가 세계최초로 인공지능 알파고를 이겼던 것처럼 전남 섬지역 학교에서도 인공지능 미래사회를 이끌어가는 세계적인 미래인재가 나올 수 있었으면 좋겠다"고 말했다.</t>
-  </si>
-  <si>
-    <t>광주시 교육청사 전경./사진=머니S DB광주광역시교육청은 '학교 무선망 구축 사업’의 일환으로 초·중·고·특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다고 2일 밝혔다.학교 무선망 구축 사업은 ▲AI·SW교육 ▲디지털교과서 활용 ▲온라인 공동교육과정 ▲원격수업 지원 등 교실 내 무선망(Wi-Fi)을 구축하는 사업이다.이번 ,924개의 일반교실에 국고 52억여 원을 포함한 총 132억여 원을 들여 무선망을 구축했다.시교육청은 일반교실 외에 특별교실, 교과교실 등 학교의 추가적인 수요가 많아 올해 하반기에는 전체학교 특별교실 1284실에 무선망을 추가 구축할 계획이다. 내년까지 필요한 모든 학습 공간에 무선망을 설치할 방침이다.일선 학교 교사들은 "학생 스스로 태블릿을 이용해 자료를 검색하고 문제해결 방법을 찾을 수 있어 수업집중도가 향상됐다"며 "기존 공유기로 수업할 때에 비해 끊김 없이 인터넷 활용 수업을 원활하게 진행할 수 있게 됐다"고 무선망 구축에 매우 만족스러운 반응을 보였다.현경식 시교육청 교육자치과장은 "전체 학교의 모든 교수학습공간에서 언제나 무선망(WiFi)을 이용해 효율적 교수학습이 이뤄질 수 있도록 인프라를 지속적으로 확충·개선해 나가도록 노력하겠다"고 말했다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		광주시교육청이 ‘학교 무선망 구축 사업’의 일환으로 관내 초·중·고·특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다. 2일 시교육청에 따르면 ‘학교 무선망 구축 사업’은 ‘AI·SW교육’, ‘디지털교과서 활용’, ‘온라인 공동교육과정’, ‘원격수업 지원’ 등을 위해 교실 내 무선망을 구축하는 사업이다. ▲광주시교육청 전경ⓒ광주시교육청 이번 7,924개의 일반교실에 국고 52억여 원을 포함한 총 132억여 원을 들여 무선망을 구축했다. 일선 학교 교사들은 이번 학교 무선망 구축에 매우 만족스러운 반응을 보였다. 한 교사는 “학생 스스로 태블릿을 이용해 자료 검색을 하고 문제해결 방법을 찾을 수 있어 수업집중도가 향상됐다”며 “기존 공유기로 수업할 때에 비해 끊김 없이 인터넷 활용 수업을 원활하게 진행할 수 있게 됐다”고 말했다. 또 다른 한 교사는 “인터넷 활용 수업이 가능해 수업 콘텐츠를 보다 적극적으로 제작·활용할 수 있는 환경을 조성해 준 시교육청에 감사하다”고 말했다. 시교육청은 일반교실 외에 특별교실, 교과교실 등 학교의 추가적인 수요가 많아 올해 하반기에는 전체학교 특별교실 1,284실에 무선망을 추가 구축할 계획이다. 내년까지 필요한 모든 학습 공간에 무선망을 설치할 방침이다. 시교육청 교육자치과 현경식 과장은 “관내 전체 학교의 모든 교수학습공간에서 언제나 무선망을 이용해 효율적 교수학습이 이뤄질 수 있도록 인프라를 지속적으로 확충·개선해 나가도록 노력하겠다”고 말했다.</t>
-  </si>
-  <si>
-    <t>배재대 AI·SW 중심대학사업단 교육 *재판매 및 DB 금지[대전=뉴시스] 유순상 기자 = 배재대는 AI(인공지능)·SW(소프트웨어)중심대학사업단이 소프트웨어 비전공 학과 교수 60명을 대상으로 ‘R을 활용한 머신러닝 데이터분석 교육’을 실시했다고 2일 밝혔다.모든 대학 구성원들의 융합교육 필요성 증대와 교수 연구자료 분석 역량 강화를 위해 마련됐다.R프로그램은 데이터분석 프로그램으로 최근 빅데이터 수집과 분석을 위해 활발히 사용되고 있다. R언어는 비정형 텍스트 데이터를 분석, 키워드를 추출하는 기능으로 알려져 있다.SW비전공학과 교수들은 15시간 동안 관련 이론과 실습으로 기초 지식을 쌓았다.◇대전교육청, 몽골교원 정보화 교육 원격 실시대전시교육청은 몽골과의 지속적인 교육정보화 교류를 위해 오는 10월 말까지 몽골 교원 40명을 대상으로 교육정보화 초청연수를 원격으로 실시한다고 2일  밝혔다.원격연수 운영방식은 유튜브 채널(LEAD TV)과 밴드 및 줌(ZOOM)을 기반으로 하고, 교육과정은 사전연수와 본연수, 사후연수 3단계로 진행된다. 사전연수는 알고리즘과 프로그래밍(기초), 본연수는 피지컬 컴퓨팅과 프로그래밍(심화)을 담고 있다. 사후연수는 액션플랜(실행계획)을 몽골 교육현장에 실제 적용하는 것으로 구성돼 있다.</t>
-  </si>
-  <si>
-    <t>[광주CBS 박요진 기자]광주광역시교육청 청사. 광주시교육청 제공광주시교육청이 '학교 무선망 구축 사업'의 일환으로 관내 초‧중‧고‧특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다고 2일 밝혔다.2일 광주시교육청에 따르면 '학교 무선망 구축 사업'은 'AI‧SW교육', '디지털교과서 활용', '온라인 공동교육과정', '원격수업 지원' 등을 위해 교실 내 무선망(Wi-Fi)을 구축하는 사업이다. 이번 7924개의 일반교실에 국고 52억여 원을 포함한 총 132억여 원을 들여 무선망을 구축했다.광주시교육청은 일반교실 외에 특별교실과 교과교실 등 학교의 추가적인 수요가 많아 올해 하반기에는 전체 학교 특별교실 1284실에 무선망을 추가로 구축할 계획이다. 내년까지 필요한 모든 학습 공간에 무선망을 설치한다는 방침이다.광주시교육청 현경식 교육자치과장은 "관내 전체 학교의 모든 교수학습공간에서 언제나 무선망(WiFi)을 이용해 효율적 교수학습이 이뤄질 수 있도록 인프라를 지속적으로 확충‧개선하겠다"라고 말했다.▶ 확 달라진 노컷뉴스▶ 클릭 한 번이면 노컷뉴스 구독!truth@cbs.co.kr저작권자 © CBS 노컷뉴스 무단전재 및 재배포 금지</t>
-  </si>
-  <si>
-    <t>디지털교과서 활용‧원격수업 등 미래교육환경 마련  【파이낸셜뉴스 광주=황태종 기자】광주광역시교육청이 '학교 무선망 구축 사업'의 일환으로 시내 초·중·고·특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다.   2일 광주시교육청에 따르면 '학교 무선망 구축 사업'은 AI·SW교육, 디지털교과서 활용, 온라인 공동교육과정, 원격수업 지원 등을 위해 교실 내 무선망(Wi-Fi)을 구축하는 사업이다. 이번 7924개의 일반교실에 국고 52억여원을 포함해 총 132억여원을 들여 무선망을 구축했다.   일선 학교 교사들은 이번 학교 무선망 구축에 매우 만족스러운 반응을 보였다. 한 교사는 "학생 스스로 태블릿을 이용해 자료 검색을 하고 문제해결 방법을 찾을 수 있어 수업집중도가 향상됐다"며 "기존 공유기로 수업할 때에 비해 끊김없이 인터넷 활용 수업을 원활하게 진행할 수 있게 됐다"고 말했다. 또 다른 한 교사는 "인터넷 활용 수업이 가능해 수업 콘텐츠를 보다 적극적으로 제작·활용할 수 있는 환경을 조성해 준 시교육청에 감사하다"고 전했다.   시교육청은 일반교실 외에 특별교실, 교과교실 등 학교의 추가적인 수요가 많아 올 하반기에는 전체학교 특별교실 1284실에 무선망을 추가 구축할 계획이다. 내년까지 필요한 모든 학습 공간에 무선망을 설치할 방침이다.   현경식 시교육청 교육자치과장은 "전체 학교의 모든 교수학습공간에서 언제나 무선망(WiFi)을 이용해 효율적 교수학습이 이뤄질 수 있도록 인프라를 지속적으로 확충·개선해 나가도록 노력하겠다"고 말했다.</t>
-  </si>
-  <si>
-    <t>내년까지 모든 학습공간에 무선망 설치[광주=뉴시스] 구용희 기자 = 광주시교육청이 학교 무선망 구축 사업의 일환으로 초·중·고·특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다.2일 시교육청에 따르면 학교 무선망 구축 사업은 AI·SW교육, 디지털교과서 활용, 온라인 공동교육과정, 원격수업 지원 등을 위해 교실 내 무선망(Wi-Fi)을 구축하는 사업이다.시교육청은 7924개의 일반교실에 국고 52억여 원을 포함한 총 132억여 원을 들여 무선망을 구축했다.시교육청은 일반교실 이외에 특별교실·교과교실 등 학교의 추가적인 수요가 많아 올해 하반기에는 전체학교 특별교실 1284실에 무선망을 추가 구축할 계획이다.내년까지 필요한 모든 학습 공간에 무선망을 설치한다는 계획이다.일선 학교 한 교사는 "학생 스스로 태블릿을 이용해 자료 검색을 하고 문제해결 방법을 찾을 수 있어 수업집중도가 향상됐다"며 "기존 공유기로 수업할 때 비해 끊김 없이 인터넷 활용 수업을 원활하게 진행할 수 있게 됐다"고 말했다. 시교육청 교육자치과 현경식 과장은 "지역 내 전체 학교의 모든 교수학습공간에서 언제나 무선망(WiFi)을 이용해 효율적 교수학습이 이뤄질 수 있도록 인프라를 확충·개선해 나가겠다"고 말했다.</t>
-  </si>
-  <si>
-    <t>광주시교육청이 초·중·고·특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다. 사진은 광주시교육청 청사./광주시교육청 제공디지털교과서 활용‧원격수업 등 미래교육환경 마련 광주시교육청이 ‘학교 무선망 구축 사업’의 일환으로 관내 초·중·고·특수학교 전체 일반교실에 최신 와이파이6 규격의 기가급 학교 무선망(Wi-Fi) 구축을 완료했다.2일 시교육청에 따르면 학교 무선망 구축 사업은 △AI·SW교육 △디지털교과서 활용 △온라인 공동교육과정 △원격수업 지원 등 교실 내 무선망(Wi-Fi)을 구축하는 사업이다. 이번 7,924개의 일반교실에 국고 52억여 원을 포함한 총 132억여 원을 들여 무선망을 구축했다.시교육청은 일반교실 외에 특별교실, 교과교실 등 학교의 추가적인 수요가 많아 올해 하반기에는 전체학교 특별교실 1,284실에 무선망을 추가 구축할 계획이다. 내년까지 필요한 모든 학습 공간에 무선망을 설치할 방침이다.일선 학교 교사들은 "학생 스스로 태블릿을 이용해 자료를 검색하고 문제해결 방법을 찾을 수 있어 수업집중도가 향상됐다"고 말하며 "기존 공유기로 수업할 때에 비해 끊김 없이 인터넷 활용 수업을 원활하게 진행할 수 있게 됐다"고학교 무선망 구축에 매우 만족스러운 반응을 보였다.시교육청 교육자치과 현경식 과장은 "관내 전체 학교의 모든 교수학습공간에서 언제나 무선망(WiFi)을 이용해 효율적 교수학습이 이뤄질 수 있도록 인프라를 지속적으로 확충·개선해 나가도록 노력하겠다"고 말했다.</t>
-  </si>
-  <si>
-    <t>취임 3주년 김석준 부산교육감"미래교육으로 전환 차질없게" 김석준 부산교육감이 1일 시교육청 브리핑룸에서 재선 취임 3주년 기자회견을 갖고 "부산교육을 미래교육으로 전환하는 기틀을 마련하고, 2학기 초·중학교 전면 등교를 위한 준비에 차질이 없도록 하겠다"고 밝혔다. 부산시교육청 제공 부산시교육청이 초·중·고 모든 교실에 구축 중인 온·오프라인 혼합 수업방식인 '블렌디드 러닝' 사업을 차질 없이 완료하는 등 부산교육을 미래교육으로 전환하기 위한 토대를 마련한다. 또 2학기 초·중학교 전면 등교를 위한 준비에 총력을 기울이기로 했다.   김석준 부산교육감은 1일 시교육청 브리핑룸에서 재선 취임 3주년 기자회견을 갖고 이같이 밝혔다.   김 교육감은 이날 "코로나19 상황에서 등교수업과 원격수업을 병행하면서 나타난 학습 결손, 학습 격차를 최소화하기 위해 다각적으로 노력하고 있다"면서 "4차 산업혁명과 포스트 코로나 시대를 대비한 교육도 차질없이 준비하고 있다"고 밝혔다.   이어 재임기간 추진한 주요 정책과 성과를 설명했다. 김 교육감은 "재임 1기 때는 부산다행복학교 운영, 중학교 무상급식 실시, 청렴도 1위 달성이라는 3대 핵심공약을 이행하는 등 부산교육의 혁신을 도모해 왔다"면서 "2기 때는 지속적인 혁신과 더불어 초·중·고의 무상급식과 무상교육을 완성하고 모든 초·중·고에 블렌디드 러닝 학습환경 구축을 추진하는 등 창의·융합형 인재 양성을 위한 미래교육 기반을 구축해 왔다"고 말했다.   남은 임기 동안 추진할 사업과 정책도 제시했다.   김 교육감은 "올해도 안전과 교육이라는 두 마리 토끼를 잡고 있다"며 "코로나로 앞당겨진 미래교육으로의 전환 등 포스트 코로나 시대를 대비한 교육환경도 확실히 갖추겠다"고 말했다.   이를 위해 올해 제시한 미래를 준비하는 창의융합교육, 삶을 디자인하는 진로진학교육, 지속 가능한 생태·해양교육, 틈새 없는 학교안전망 강화 등 4대 역점과제를 추진하고 있다.   미래교육을 위해선 지난해 233교 4875학급에 온·오프라인 혼합 수업방식인 블렌디드 러닝 시설 구축사업을 완료한 데 이어 올해 나머지 374교 8130학급에도 공사를 끝낼 계획이다.   또 수학포기자(수포자) 예방과 수학의 대중화를 위해 부산진구 옛 개성중 자리에 건립 중인 부산수학문화관을 내년 3월 개관할 수 있도록 추진한다.   안전교육을 위한 부산학생종합안전체험관과 체험형 인성교육의 장인 울림마루, 부산교육 역사를 한눈에 볼 수 있는 부산교육역사체험관 등 현재 설립 추진 중인 각종 체험교육 시설들도 예정대로 문을 열 수 있도록 준비 중이다.   김 교육감은 "학생들이 인공지능(AI)으로 대표되는 4차 산업혁명 시대 최신 기술을 배워 활용할 수 있도록 시교육청의 온라인 공개수업인 B-MOOC 기반 AI교육을 도입하는 등 교육과정과 연계한 소프트웨어(SW)와 AI활용 교육에 힘을 쏟겠다"고 설명했다.   코로나19 대응과 2학기 전면 등교를 위한 대책도 내놨다.   김 교육감은 "학사, 방역, 급식 등 영역별 방역상황을 철저히 점검, 보완하고 예산 101억원으로 학교와 학원에 대해 방역인력과 방역물품을 최대한 지원하겠다"고 밝혔다.   또 예산 53억원을 들여 기초학력 부진을 예방하고 심리방역을 지원한다. 심리적 위기 상황에 놓인 학생과 교직원에게 '원스톱(One-stop) 심리지원'과 정서케어를 통해 다양한 방법의 상담과 의료지원을 강화한다.   학부모님들의 경제적 부담을 덜어 주기 위해 예산 346억원으로 유·초·중·고·특수 모든 학생에게 1인당 10만원씩 2차 교육재난지원금도 지급한다.   김 교육감은 "내년에 유치원에도 무상급식을 실시하겠다"며 "필요한 재원 240억원을 확보하기 위해 부산시·시의회와 긴밀히 협의해 나가겠다"고 강조했다.   시교육청은 백신접종 지원단을 꾸려 7월부터 시작되는 교직원에 대한 백신 접종과 여름방학 동안 시행될 고3 수험생에 대한 백신 접종이 차질없이 진행되도록 지원할 계획이다.   김 교육감은 "아이들의 미래를 위한 교육은 어떠한 상황에서도 계속돼야 한다"며 "남은 임기 동안 올해 제시한 교육청의 4대 역점과제와 주요 현안 사항들을 잘 마무리하고 부산교육을 미래교육으로 전환하기 위한 토대를 확실히 마련하겠다"고 다짐했다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             국민대학교(총장 임홍재) 소프트웨어학부와 SW중심대학사업단에서는 ‘국민*인의 소프트웨어에서 국민 모두의 소프트웨어로!’라는 모토로 ‘제6회 국민대학교 알고리즘대회’를 시행한다.      예선은 오는 7월 31일(토) 14:00에 비대면(온라인)으로 진행되며, 예선을 통과한 참가자에 한해 본선이 8월 13일(금) 14:00에 대면으로 치러질 예정이다. 대상 1명을 비롯하여 금상(1명), 은상(2명), 동상(2명), 장려상 등 수상자를 선정하게 된다.        고등학교 재학생 및 졸업생 또는 법령에 의하여 이와 동등한 학력이 있다고 인정된 자는 모두 참가할 수 있다. 접수기간은 오는 7월 12일(월) 15:00부터 7월 14일(수) 15:00까지이며, 유웨이어플라이에서 선착순으로 1,000명이 접수 가능하다.      장려상 이상 수상자에게는 국민대학교 소프트웨어 특기자전형에 지원할 수 있는 기회를 부여하는 특전이 주어진다.        국민대 소프트웨어중심대학 사업단 관계자는 “본 사업단은 ‘국민*인의 소프트웨어에서 국민 모두의 소프트웨어로’ 라는 목표를 설정하고, 소프트웨어를 통해 사회를 변화시키고 개인의 꿈을 실현할 수 있는 인력을 양성하기 위한 최적의 시스템을 구축하고자 노력하고 있다”며 “4차 산업혁명 시대를 맞이하며 인공지능(AI)에 대한 관심이 늘어난 가운데, 시대를 이끌어갈 미래의 소프트웨어 개발자들의 알고리즘 역량을 증진하는 데 이번 대회가 큰 역할을 할 것으로 기대한다”고 강조했다.      한편, 국민대 소프트웨어융합대학은 최근 가장 우수한 성과를 창출하고 있는 국민대의 대표적인 단과대로 손꼽힌다. 전교생 대상 S/W 교육 의무화를 최초로 도입하는 등 소프트웨어분야에서 선구적인 역할을 다양하게 해 오고 있다.        대회관련 자세한 사항은 대회 홈페이지를 통해 확인할 수 있다.</t>
-  </si>
-  <si>
-    <t>청년·일자리·취약계층 등 '민생안정'에 2.6조 투입청년 자산형성에 저금리 대출일자리 창출·인력 양성 지원 예산도 포함6월 23일 오후 경기도 용인시 처인구 용인미르스타디움 광장에서 열린 '2021 상반기 용인시 일자리박람회'에서 구직자들이 기업정보 게시판을 살펴보고 있다. 용인=뉴시스정부가 1일 발표한 2차 추가경정예산(추경)안에는 일자리와 주거 등 청년 문제 대책이 별도로 담겼다. 새로 일자리 16만4,000개를 만들고, 소프트웨어(SW), 조선 등 기업에서 필요로 하는 인력 양성 예산도 포함됐다. 이처럼 고용과 민생 안정 지원을 위해 신규 투입되는 예산은 총 2조6,000억 원에 달한다.우선 △청년 △일자리 △창업 △주거 △생활·금융 등 4대 분야를 지원하는 ‘청년 희망사다리 패키지’에 1조8,000억 원(기정 예산 5,000억 원 포함)이 배정됐다.청년 주거비 부담을 줄이기 위해 기정 예산 4,000억 원에 추경 예산 3,000억 원을 보태 역세권, 대학가 등 청년이 선호하는 위치의 주택 5,000호를 추가 공급하기로 했다. 전세반환 보증 보험료는 연말까지 70~80% 인하한다.청년이 저축을 하면 기업과 정부가 매칭해 자산 형성을 지원하는 청년내일채움공제 대상은 당초 10만 명에서 12만 명으로 늘리고, 저소득 청년을 위한 3~4% 저금리 대출 상품 ‘햇살론 유스’ 규모도 1,000억 원 늘린다. 이날부터 군 급식 단가도 1만 원으로 대폭 높이기로 했다.고용대책에서도 청년이 큰 비중을 차지하고 있다. 일자리 창출, 인력 양성 등 고용회복 관련 예산은 총 1조1,000억 원인데 이 중 4,000억 원이 청년 몫이다.정부는 6,000억 원을 들여 △청년 일자리 3만 개 △백신·방역 일자리 6만7,000개 △취업 취약계층 일자리 3만7,000개 △실업자 채용 3만 개 등 총 16만4,000개의 일자리를 창출한다는 목표다. 이 중 청년을 위해서는 △인공지능(AI)·SW 등 신산업 분야 △여행·공연·체육 등 문화 분야 △멘토링 등 교육 분야 일자리를 주로 만든다.기업이 필요로 하는 SW, 조선 인력 8만8,000명을 양성하기 위한 예산도 2,000억 원 포함됐다. 이를 활용해 기업 주도 SW인력 추가 양성을 지원하고, 조선사의 채용 연계 교육을 뒷받침할 특별 훈련수당도 1인당 140만 원씩 지급한다.항공·여행·영화업 등 코로나19 여파에서 벗어나지 못한 업종에 대한 고용유지지원금 90% 특례 지원 기간은 당초 6개월에서 9개월로 연장하고, 장기 직업훈련 기간 생계비 지원을 위한 연 1% 초저금리 융자 대상도 7,000명 확대한다.문화·예술·관광업계 지원 예산도 3,000억 원 포함됐다. 중소 여행사 정보통신기술(ICT) 인력 채용 지원 예산, 실내체육시설 트레이너 추가 고용 예산 등 일자리 지원과 저소득 예술인을 위한 창작 지원금과 공연 지원 등이 담겨 있다.코로나19가 잠잠해지면 여가활동도 재개할 수 있도록 △프로스포츠 관람권 100만 명 △영화쿠폰 167만 명 △철도·버스 쿠폰 14만 명 △실내체육시설 쿠폰 40만 명 △저소득층 통합문화이용권 20만 명 등 문화체육업계 쿠폰·바우처 사업도 확대할 예정이다.</t>
-  </si>
-  <si>
-    <t>일자리·고용분야 예산협의회…학계·전문가들과 집중 토의안도걸 기획재정부 제2차관. (기획재정부 제공) /뉴스1 DB(세종=뉴스1) 권혁준 기자 = 기획재정부는 안도걸 기획재정부 제2차관이 1일 오후 서울 중구 서울고용노동청에서 '일자리·고용 분야 예산협의회'를 개최했다고 밝혔다.이 자리에서 안 차관은 "그간 코로나19 고용 위기에 대응해 5차례 추경 편성 등을 통해 고용 유지와 일자리 창출에 재정을 집중 투자했다"면서 "그 결과 다른 OECD 국가와 비교해 지난해 고용충격을 최소화했고, 3월부터는 취업자 수가 증가세로 전환해 고용 충격에서 빠르게 회복하고 있다"고 밝혔다.그러면서 고용회복 추세의 공고화를 위해 내년 일자리·고용 예산의 투자 우선순위를 Δ양질의 민간·공공일자리 유지·창출 Δ디지털·저탄소 기반 산업구조 변화를 이끌 신기술 인력양성과 직업훈련 체계 개편 Δ전국민 고용안전망 확충 Δ맞춤형 고용노동서비스 제공 등 4대 분야에두고 예산을 전략적으로 편성하겠다고 강조했다.이날 예산협의회는 두 번째 분야별 예산협의회로, 주무부처·민간 고용지원서비스 기관·폴리텍 대학 등 사업수행기관과 학계·직업훈련 전문가 등이 참여했다.고용지원사업 참여자들은 Δ기업의 소프트웨어(SW) 비전공자 디지털 교육사업 확대 ΔK-디지털 트레이닝 교육 프로그램 졸업자의 후속·재교육 지원 Δ국민취업지원제도 참여 민간위탁기관 사업비 지원단가 인상 Δ폴리텍 대학의 신산업분야 학과 신설·개편 지원 등을 건의했다.</t>
-  </si>
-  <si>
-    <t>취임 3주년 기자회견서 '미래교육 전환 토대 구축' 등 밝혀 2학기 초·중학교 전면 등교 준비 총력, 내년 유치원 무상급식 추진[부산=뉴시스]김석준 부산교육감. (사진=부산교육청 제공) *재판매 및 DB 금지[부산=뉴시스] 하경민 기자 = 부산시교육청은 미래 교육을 위해 초·중·고교 모든 교실에 구축 중인 온·오프라인 혼합 수업방식인 '블렌디드 러닝' 사업을 차질 없이 완료하는 등 부산교육을 미래교육으로 전환하기 위한 토대를 확실히 마련키로 했다. 또 지난달 28일부터 고등학교에 대해 전면 등교를 실시한데 이어 2학기 초·중학교 전면 등교를 위한 준비에 총력을 기울이기로 했다. 김석준 부산교육감은 1일 오전 시교육청 브리핑룸에서 재선 취임 3주년 기자회견을 갖고 이 같이 밝혔다.이날 김 교육감은 "코로나19 상황에서 학생과 교직원의 안전을 최우선으로 해 교육을 이어가기 위해 총력을 다해 왔다"며 "등교수업과 원격수업을 병행하면서 나타난 학습 결손, 학습 격차를 최소화하기 위해 다각적으로 노력하고 있다"고 말했다. 재임기간 동안 추진한 주요 정책과 성과에 대해서도 밝혔다.김 교육감은 "재임 1·2기 7년 동안 부산교육의 발전을 위해 혼신의 노력을 다해 왔다"며 "재임 1기 때에는 부산다행복학교 운영, 중학교 무상급식 실시, 청렴도 1위 달성이라는 3대 핵심공약을 이행하는 등 변화의 새 바람으로 부산교육의 혁신을 도모해 왔다"고 강조했다.  이어 "2기 때에는 지속적인 혁신과 더불어 초·중·고교의 무상급식과 무상교육을 완성하고 모든 초·중·고교에 블렌디드 러닝 학습환경 구축을 추진하는 등 창의·융합형 인재 양성을 위한 미래교육 기반을 구축해 왔다"고 설명했다. 김 교육감은 "그동안 미래교육의 기반 구축과 수업·평가 혁신, 학교공간 혁신, 교육복지 확대, 학교문화 혁신 등 다양한 영역에 대한 혁신을 추진해 왔다"고 밝혔다. 남은 임기동안 추진할 사업과 정책에 대해서도 밝혔다.그는 "올해도 안전과 교육이라는 두 마리 토끼를 잡기 위해 모든 행정력을 총동원·총력을 다하고 있다"며 "코로나로 앞당겨진 미래교육으로의 전환 등 포스트 코로나 시대를 대비한 교육환경도 확실히 갖추겠다"고 말했다. 이를 위해 올해 제시한 미래를 준비하는 창의융합교육, 삶을 디자인하는 진로진학교육, 지속 가능한 생태·해양교육, 틈새 없는 학교안전망 강화 등 4대 역점과제를 차질없이 추진키로 했다.특히 미래교육을 위해 지난해 233개교 4875학급에 온·오프라인 혼합 수업방식인 '블렌디드 러닝' 시설 구축사업을 완료한데 이어 올해 나머지 374개교 8130학급에도 공사를 완료하는 등 초·중·고교 모든 교실을 블렌디드 러닝 환경으로 바꾸겠다고 설명했다.  김 교육감은 "각급 학교가 새로 도입된 블렌디드 러닝 시설을 활용한 수업을 원활히 진행할 수 있도록 교원의 수업역량 강화 연수를 실시하고, 교수·학습지원 플랫폼인 '부산에듀원'을 초·중·고교 400학급에서 시범 운영하고 있는 등 최대한 지원하겠다"고 밝혔다.  [부산=뉴시스] 부산시교육청.이와 함께 '수포자'(수학포기자) 예방과 수학의 대중화를 위해 부산진구 옛 개성중 자리에 건립 중인 부산수학문화관을 내년(2022년) 3월 개관할 수 있도록 추진키로 했다.    안전교육을 위한 부산학생종합안전체험관과 체험형 인성교육의 장인 울림마루, 부산교육 역사를 한 눈에 볼 수 있는 부산교육역사체험관 등 현재 설립 추진 중인 각종 체험교육 시설들도 예정대로 개관할 수 있도록 추진한다.    김 교육감은 "학생들이 인공지능(AI)으로 대표되는 4차 산업혁명 시대의 최신 기술을 배워 활용할 수 있도록 시교육청의 온라인 공개수업인 B-MOOC 기반 AI교육을 도입하는 등 교육과정과 연계한 SW와 AI활용 교육에 힘을 쏟겠다"고 전했다. 그는 코로나19 대응과 2학기 전면 등교를 위한 대책도 내놨다. 지난달 14일부터 직업계고등학교, 같은달 28일부터 일반계 고등학교 등 모든 고등학교에 대해 전면 등교를 할 수 있게 한데 이어  2학기에 초·중학교의 전면 등교를 위한 준비에도 만전을 기하기로 했다.  김 교육감은 "이를 위해 학사, 방역, 급식 등 영역별 방역상황을 철저히 점검·보완하고, 예산 101억원으로 학교와 학원에 대해 방역인력과 방역물품을 최대한 지원하겠다"고 밝혔다. 또 예산 53억원을 들여 기초학력 부진을 예방하고 심리방역을 지원한다. 특히 심리적 위기 상황에 놓인 학생과 교직원에게 원스톱 심리지원과 정서케어를 통해 다양한 방법의 상담과 의료지원을 강화한다.  학부모들의 경제적 부담을 덜어 주기 위해 예산 346억원으로 유·초·중·고교 및 특수학교 모든 학생에게 1인당 10만원씩 2차 교육재난지원금을 지급키로 했다. 그는 "내년에 유치원에도 무상급식을 실시하겠다"며 "이에 필요한 재원 240억원을 확보하기 위해 부산시·시의회와 긴밀히 협의해 나가겠다"고 강조했다. 아울러 백신접종지원단을 구성해 이 달부터 시작되는 교직원에 대한 백신 접종과 여름방학 동안 시행될 고3 수험생에 대한 백신 접종이 차질없이 진행되도록 최대한 지원할 계획이다.김 교육감은 "아이들의 미래를 위한 교육은 어떠한 상황에서도 계속돼야 한다"면서 "남은 임기 동안 올해 제시한 교육청의 4대 역점과제와 주요 현안 사항들을 잘 마무리하고 부산교육을 미래교육으로 전환하기 위한 토대를 확실히 마련하겠다"고 말했다.</t>
-  </si>
-  <si>
-    <t>대구창의융합교육원, 초등생 방학 기간 진행대구창의융합교육원 전경. 이곳은 초등학생을 대상으로 여름방학 융합 교실을 운영한다. 매일신문 DB대구 초등학생을 대상으로 한 '2021년 대구창의융합교육원과 함께하는 여름방학 융합교실'이 열린다. 수학, 과학, 정보 관련 교육 활동을 융합한 프로그램이다. 대구창의융합교육원은 매년 초등학교 방학 기간 중 이 과정을 운영한다. 이번엔 운영 시간을 늘이고 학생들이 아이디어를 다양하게 산출할 수 있도록 교육 내용도 재미있게 구성했다. 운영 기간은 이달 19일부터 23일까지다. 초교 3~4학년 과정은 몇 년 전부터 중요하게 다뤄지고 있는 적정기술에 대한 내용을 주제로 '페트병 전구 만들기'와 '와카워터 만들기'를 체험한다. 아이디어 생성과 적정기술에 대해 알아보는 시간이다. 초교 5~6학년 과정은 소프트웨어교육을 중심으로 '로봇과 함께하는 미래'를 주제로 '미래형 자율자동차 만들기'와 '로봇 스포츠 씨름'을 진행한다. 참가 신청은 5일 오후 8시부터 에듀나비 소프트웨어교육센터(www.edunavi.kr/sw) 홈페이지를 통해 받는다. 대구창의융합교육원 장진주 원장은 "짧은 시간이지만 다양한 융합 수업을 접하고 자신의 생각을 키울 수 있기를 바란다"고 했다. 053)231-1194.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		광주정보문화산업진흥원(원장 탁용석)은 지난달 30일 정보통신기술(ICT) 인재 발굴과 인공지능(AI) 산업 생태계 조성을 위한 '호남ICT콤플렉스 온라인 코딩대회'를 개최했다.ICT분야에 관심 있는 호남지역 대학생, 일반인 응시자 171명이 참가한 이번 대회는 파이션, C, C++, 자바, 자바스크립트 등의 프로그래밍 언어를 이용해 AI 알고리즘 문제 4문항을 해결하는 방식으로 진행됐다.광주정보문화산업진흥원이 지난달 30일 개최한 호남ICT콤플렉스 온라인 코딩대회 포스터.특히 클라우드 기반의 코딩교육 프랫폼 '구름(Groom)'을 통해 진행한 이번 대회에 응시자가 답안을 제출하면 소스코드, 작성 이력 등을 바탕으로 즉시 채점해 결과를 알려주는 AI 채점 알고리즘이 적용되어 눈길을 끌었다.대회 최종 결과는 5일 진흥원 홈페이지를 통해 발표한다. 대상 1명(100만원), 최우수상 1명(50만원), 우수상 1명(20만원), 장려상 3명(각 10만원) 등 총 6명에게 상금과 상장을 수여한다.진흥원은 코딩대회 뿐 아니라 지역 ICT·소프트웨어(SW) 산업 확산을 위해 코딩, 오픈소스 등에 관한 온라인 교육을 제공하고 있다. 온라인 교육은 호남ICT이노베이션스퀘어 홈페이지에서 누구나 신청할 수 있다.</t>
-  </si>
-  <si>
-    <t>김석준 교육감 재선 취임 3주년 기자회견김석준 부산교육감이 재선 취임 3주년 기자회견을 하고 있다. 부산교육청김석준(사진) 부산교육감은 28일 부산시교육청에서 재선 취임 3주년을 맞아 기자회견을 하고 “초·중·고 모든 교실에 구축 중인 온·오프라인 혼합 수업방식인 ‘블렌디드 러닝’ 사업을 차질 없이 완료하는 등 부산교육을 미래 교육으로 전환하기 위한 토대를 확실히 마련하겠다”고 밝혔다. 이어 “올해도 안전과 교육이라는 두 마리 토끼를 잡기 위해 모든 행정력을 총동원하겠다”면서 “포스트 코로나 시대를 대비한 교육환경도 확실히 갖추겠다”고 말했다.김 교육감은 “재임 1기 때에는 부산다행복학교 운영, 중학교 무상급식 실시, 청렴도 1위 달성이라는 3대 핵심 공약을 이행하는 등 변화의 새바람으로 부산교육의 혁신을 도모했고 2기 때에는 지속적인 혁신과 더불어 초·중·고의 무상급식과 무상교육을 완성하고 모든 초·중·고에 ‘블렌디드 러닝’ 학습환경  구축을 추진하는 등 창의·융합형 인재 양성을 위한 미래 교육 기반을 구축해 왔다”면서 “지난 7년간 부산교육 발전을 위해 최선을 다해왔다”고 했다.그는 또 “그동안 미래 교육의 기반 구축과 수업·평가 혁신, 학교 공간 혁신, 교육복지 확대, 학교문화 혁신 등 다양한 영역에 대한 혁신을 추진해 왔다”고 강조했다.부산시교육청은 올해 ‘미래를 준비하는 창의융합교육’ ‘삶을 디자인하는 진로진학교육’ ‘지속 가능한 생태·해양 교육’ ‘틈새 없는 학교 안전망 강화’ 등 4대 역점과제를 추진한다.올해 ‘블렌디드 러닝’ 시설 구축을 완료하고 해당 시설을 활용한 수업을 원활히 진행할 수 있도록 교원의 수업역량 강화 연수도 시행한다. 교수·학습지원 플랫폼인 ‘부산에듀원’ 시범 운영 지원과 ‘수포자(수학포기자)’ 예방을 위한 부산수학문화관 개관, 부산학생종합안전체험관과 울림마루, 부산교육역사체험관도 차질 없이 추진한다는 계획이다.김 교육감은 “학생들이 인공지능(AI)으로 대표되는 4차 산업혁명 시대의 최신 기술을 배워 활용할 수 있도록 부산시교육청의 온라인 공개수업인 B-MOOC 기반 AI 교육을 도입하는 등 교육과정과 연계한 SW와 AI 활용 교육에 힘을 쏟겠다”고 설명했다.부산지역 모든 학생에게 1인당 10만원씩 2차 교육재난지원급을 조만간 지급하는 등 학부모 부담 경감 노력도 지속하기로 했다. 아울러 코로나19 대응과 2학기 전면 등교를 위한 대책도 빈틈없이 진행키로 했다.김석준 교육감은 “아이들의 미래를 위한 교육은 어떠한 상황에서도 계속되어야 한다”고 강조하고 “부산 교육을 명실상부하게 가장 앞선 미래 교육으로 안착시키고자 3선에 도전하겠다”고 밝혔다.</t>
-  </si>
-  <si>
-    <t>"불법연수로 장기간 복무 이탈" 고발병역법 위반 혐의 반부패수사대 수사이준석 "병무청·검찰 문제 없다고 해"[서울=뉴시스]국회사진기자단 = 이준석 국민의힘 당 대표가 지난달 29일 오후 서울 여의도 글래드호텔에서 열린 인뎁스(in-depth) 조사 결과 국민보고 및 미래비전 추진 계획 발표에서 축사를 하고 있다. 2021.06.29. photo@newsis.com[서울=뉴시스] 천민아 기자 = 이준석 국민의힘 대표의 '병역 특혜 의혹'을 서울경찰청이 직접 수사하기로 했다.1일 경찰 등에 따르면 적폐청산국민참여연대가 지난달 21일 이 대표를 병역법 위반 혐의로 경찰청 국가수사본부에 고발한 사건이 이날 서울경찰청 반부패·공공범죄수사대에 배당됐다.앞서 이 단체는 이 대표가 산업기능요원으로 복무하던 중 정보통신산업진흥원이 진행하는 'SW 마에스트로 과정'을 들었다며 고발장을 접수했다.이 단체는 "이 대표가 불법 연수로 장기간 복무를 이탈했다"며 "월 100만원의 장학금과 최신 노트북 등 금품을 받으며 영리목적 활동을 했다"고 주장하고 있다.이 대표는 "10년 전에 병무청에서도 아무 문제가 없다고 하고 (당시) 강용석 의원이 고발해서 검찰에서도 다시 들여다봐서 문제 없다던 사안"이라며 "소프트웨어 마에스트로 교육 장소가 회사에서 1㎞ 거리였고 사장에게도 승낙을 받았다"고 해명하고 있다.</t>
-  </si>
-  <si>
-    <t>김석준 부산교육감이 1일 취임 3주년 기자회견을 하고 있다.김석준 부산시교육감이 재선 취임 3주년 기자회견을 갖고 부산의 미래교육 전환 정책을 밝혔다.부산교육청은 미래교육을 위해 초·중·고 모든 교실에 구축 중인 온·오프라인 혼합 수업방식인 ‘블렌디드 러닝’ 사업을 차질 없이 완료하기로 했다.또 최근 고교 등교에 이어 2학기에는 초·중학교 전면 등교를 위한 준비에 총력을 기울이겠다고 했다.김석준 부산교육감은 1일 오전 11시 시교육청 브리핑룸에서 이같은 내용을 강조하며 재선 취임 3주년을 돌아보고 내일의 계획을 소개했다.김 교육감은 “코로나19 상황에서 학생과 교직원의 안전을 최우선으로 해 교육을 이어가기 위해 총력을 다해 왔다”며 “등교수업과 원격수업을 병행하면서 나타난 학습 결손, 학습 격차를 최소화하기 위해 다각적으로 노력하고 있다”고 말했다.재임기간 추진한 주요 정책과 성과에 대해서도 밝혔다.김 교육감은 “재임 1, 2기 7년 동안 부산교육의 발전을 위해 혼신의 노력을 다해왔다”며 “재임 1기 때는 부산다행복학교 운영, 중학교 무상급식 실시, 청렴도 1위 달성이라는 3대 핵심공약을 이행하는 등 변화의 새바람으로 부산교육 혁신을 도모해 왔다”고 강조했다.이어 “2기에는 지속적인 혁신과 더불어 초·중·고의 무상급식과 무상교육을 완성하고 모든 초·중·고에 ‘블렌디드 러닝’ 학습환경 구축을 추진하는 등 창의·융합형 인재 양성을 위한 미래교육 기반을 구축해 왔다”고 설명했다.김 교육감은 “그동안 미래교육 기반 구축과 수업·평가 혁신, 학교공간 혁신, 교육복지 확대, 학교문화 혁신 등 다양한 영역에서 혁신을 추진해 왔다”고 했다.남은 임기동안 추진할 사업과 정책에 대해서도 밝혔다.김 교육감은 “올해도 안전과 교육이라는 두 마리 토끼를 잡기 위해 모든 행정력을 총동원, 총력을 다하고 있다”며 “코로나로 앞당겨진 미래교육으로의 전환 등 포스트 코로나 시대를 대비한 교육환경도 확실히 갖추겠다”고 말했다.이를 위해 올해 제시한 ‘미래를 준비하는 창의융합교육’, ‘삶을 디자인하는 진로진학교육’, ‘지속 가능한 생태·해양교육’, ‘틈새 없는 학교안전망 강화’ 등 4대 역점과제를 차질없이 추진키로 했다.미래교육을 위해 지난해 233교 4875학급에 온·오프라인 혼합 수업방식인 ‘블렌디드 러닝’ 시설 구축사업을 완료한데 이어 올해 나머지 374교 8,30학급에도 공사를 완료하는 등 초·중·고 모든 교실을 ‘블렌디드 러닝’ 환경으로 바꾸겠다고 했다.김 교육감은 이와 함께 ‘수포자(수학포기자)’ 예방과 수학의 대중화를 위해 부산진구 옛 개성중 자리에 건립중인 부산수학문화관을 내년 3월 개관할 수 있도록 추진키로 했다.안전교육을 위한 부산학생종합안전체험관과 체험형 인성교육의 장인 울림마루, 부산교육 역사를 한 눈에 볼 수 있는 부산교육역사체험관 등 현재 설립 추진 중인 각종 체험교육 시설들도 예정대로 개관할 수 있도록 추진한다.김 교육감은 “학생들이 인공지능(AI)으로 대표되는 4차 산업혁명 시대의 최신 기술을 배워 활용할 수 있도록 부산시교육청의 온라인 공개수업인 B-MOOC 기반 AI교육을 도입하는 등 교육과정과 연계한 SW와 AI활용 교육에 힘을 쏟겠다”고 설명했다.코로나19 대응과 2학기 전면 등교를 위한 대책도 밝혔다.지난 6월 14일부터 직업계고등학교, 같은달 28일부터 일반계 고등학교 등 모든 고등학교에 대해 전면 등교를 할 수 있게 한데 이어 오는 2학기에 초·중학교의 전면 등교를 위한 준비에도 만전을 기하기로 했다.김 교육감은 “이를 위해 학사, 방역, 급식 등 영역별 방역상황을 철저히 점검, 보완하고 예산 101억원으로 학교와 학원에 대해 방역인력과 방역물품을 최대한 지원하겠다”고 설명했다.또 예산 53억원을 들여 기초학력 부진을 예방하고 심리방역을 지원한다.학부모의 경제적 부담을 덜어주기 위해 예산 346억으로 유·초·중·고·특수 모든 학생에게 1인당 10만원씩 2차 교육재난지원금도 지급키로 했다.김 교육감은 “내년에 유치원에도 무상급식을 실시하겠다”며 “이에 필요한 재원 240억원을 확보하기 위해 부산시·시의회와 긴밀히 협의해 나가겠다”고 강조했다.부산시교육청은 백신접종 지원단을 구성해 7월부터 시작되는 교직원에 대한 백신 접종과 여름방학 동안 시행될 고3 수험생에 대한 백신 접종이 차질없이 진행되도록 최대한 지원할 계획이다.김석준 교육감은 “아이들의 미래를 위한 교육은 어떠한 상황에서도 계속돼야 한다”며 “남은 임기 동안 올해 제시한 교육청 4대 역점과제와 주요 현안을 잘 마무리하고 부산교육을 미래교육으로 전환하기 위한 토대를 확실히 마련하겠다”고 말했다.</t>
-  </si>
-  <si>
-    <t>서울경찰청, 반부패·공공범죄수사대에 사건 배당고발한 적폐청산연대, 복무만료 취소·재입대 촉구 진정도[이데일리 이세현 기자] 경찰이 이준석 국민의힘 대표의 병역 특혜 의혹에 대한 수사에 착수한다.이준석 국민의힘 대표. (사진=뉴스1)서울경찰청 관계자는 1일 이데일리에 “적폐청산국민참여연대가 수사 의뢰한 이 대표 ‘병역 의혹’ 을 반부패·공공범죄수사대에 배당했다”고 밝혔다. 반부패·공공범죄수사대는 주요 부패범죄나 공무원 범죄 등을 담당한다.앞서 이 대표의 병역 특혜 의혹은 더불어민주당에서 제기했다. 김용민 최고위원과 김남국 의원은  “지원자격도 안 되는 사람이 허위 지원해 장학금까지 받았다면 업무방해를 넘어 사기죄가 성립할 수 있을 것”이라고 했다.이들에 따르면 이 대표는 지난 2010년 산업기능요원으로 복무하면서 지식경제부의 ‘소프트웨어(SW) 마에스트로’ 1기 선발 과정에 합격했다. 해당 프로그램은 당시 재학생만 지원이 가능한 것으로 알려졌다.이에 대해 이 대표는 “지원 당시 병무청과 정보통신산업진흥원에 문의해서 다 확인하고 지원했다”면서 “소프트웨어 마에스트로 교육 장소가 저희 (산업기능요원 근무) 회사에서 1㎞ 거리였다. ‘졸업생’으로 명기해서 지원해 합격, 연수를 받았고 휴가와 외출 처리도 정확히 했다”고 반박했다.당시 프로그램 선발위원장이었던 황대산씨도 자신의 트위터를 통해 “SW 마에스트로 과정이 대학 재학생만 지원 가능한 프로그램은 아니다”라며 “재학생 지원 프로그램이 아니라 우수 SW 인재를 선발하여 지원하고 육성하자는 취지의 프로그램이었다. 현업 종사자를 제외하고는 제한 없이 지원할 수 있는 과정이었다”고 설명했다.이같은 해명에도 친문 성향 시민단체인 적폐청산국민참여연대는 이 대표에 대한 병역 특혜 의혹 수사를 의뢰한다고 밝혔다. 신승목 대표는 지난 21일 자신의 사회관계망서비스(SNS)를 통해 “이 대표가 산업기능요원 군복무 중 불법을 저지르고 특혜를 받았다”며 “병역법 위반 등 혐의로 경찰청 국가수사본부에 수사를 의뢰했다”고 했다.신 대표는 서울지방병무청에도 이 대표의 산업기능요원 복무만료처분 등에 대한 취소와 재입대를 촉구하는 진정서를 넣었다고 전했다.</t>
-  </si>
-  <si>
-    <t>김석준 부산교육감, 재선 취임 3주년 기자회견 김석준 부산교육감이 1일 시교육청 브리핑룸에서 재선 취임 3주년 기자회견을 갖고 "부산교육을 미래교육으로 전환하는 기틀을 마련하고, 2학기 초중학교 전면 등교를 위한 준비에 차질이 없도록 하겠다"라고 밝혔다./제공=부산시교육청 [파이낸셜뉴스] 부산시교육청이 초·중·고 모든 교실에 구축 중인 온·오프라인 혼합 수업방식인 ‘블렌디드 러닝’ 사업을 차질 없이 완료하는 등 부산교육을 미래교육으로 전환하기 위한 토대를 마련한다. 또 2학기 초·중학교 전면 등교를 위한 준비에 총력을 기울이기로 했다.   김석준 부산교육감은 1일 시교육청 브리핑룸에서 재선 취임 3주년 기자회견을 갖고 이같이 밝혔다.   김 교육감은 이날 "코로나19 상황에서 등교수업과 원격수업을 병행하면서 나타난 학습 결손, 학습 격차를 최소화하기 위해 다각적으로 노력하고 있다"면서 "4차 산업혁명과 포스트 코로나 시대를 대비한 교육도 차질없이 준비하고 있다"라고 밝혔다.   이어 재임기간 추진한 주요 정책과 성과를 설명했다.   김 교육감은 "재임 1기 때는 부산다행복학교 운영, 중학교 무상급식 실시, 청렴도 1위 달성이라는 3대 핵심공약을 이행하는 등 부산교육의 혁신을 도모해 왔다"면서 "2기 때는 지속적인 혁신과 더불어 초·중·고의 무상급식과 무상교육을 완성하고 모든 초·중·고에 블렌디드 러닝 학습환경 구축을 추진하는 등 창의·융합형 인재 양성을 위한 미래교육 기반을 구축해 왔다"라고 말했다.   남은 임기동안 추진할 사업과 정책도 제시했다.   김 교육감은 "올해도 안전과 교육이라는 두 마리 토끼를 잡고 있다"며 "코로나로 앞당겨진 미래교육으로의 전환 등 포스트 코로나 시대를 대비한 교육환경도 확실히 갖추겠다”고 말했다.   이를 위해 올해 제시한 미래를 준비하는 창의융합교육, 삶을 디자인하는 진로진학교육, 지속 가능한 생태·해양교육, 틈새 없는 학교안전망 강화 등 4대 역점과제를 추진하고 있다.   미래교육을 위해선 지난해 233교 4875학급에 온·오프라인 혼합 수업방식인 블렌디드 러닝 시설 구축사업을 완료한데 이어 올해 나머지 374교 8130학급에도 공사를 끝낼 계획이다.   또 수학포기자(수포자) 예방과 수학의 대중화를 위해 부산진구 옛 개성중 자리에 건립중인 부산수학문화관을 내년 3월 개관할 수 있도록 추진한다.   안전교육을 위한 부산학생종합안전체험관과 체험형 인성교육의 장인 울림마루, 부산교육 역사를 한 눈에 볼 수 있는 부산교육역사체험관 등 현재 설립 추진 중인 각종 체험교육 시설들도 예정대로 문을 열 수 있도록 준비중이다.   김 교육감은 "학생들이 인공지능(AI)으로 대표되는 4차 산업혁명 시대 최신 기술을 배워 활용할 수 있도록 시교육청의 온라인 공개수업인 B-MOOC 기반 AI교육을 도입하는 등 교육과정과 연계한 소프트웨어(SW)와 AI활용 교육에 힘을 쏟겠다"라고 설명했다.   코로나19 대응과 2학기 전면 등교를 위한 대책도 내놨다.   김 교육감은 "학사, 방역, 급식 등 영역별 방역상황을 철저히 점검, 보완하고 예산 101억원으로 학교와 학원에 대해 방역인력과 방역물품을 최대한 지원하겠다"라고 밝혔다.   또 예산 53억원을 들여 기초학력 부진을 예방하고 심리방역을 지원한다. 심리적 위기 상황에 놓인 학생과 교직원에게 '원스톱(One-stop) 심리지원'과 정서케어를 통해 다양한 방법의 상담과 의료지원을 강화한다.   학부모님들의 경제적 부담을 덜어 주기 위해 예산 346억원으로 유·초·중·고·특수 모든 학생에게 1인당 10만원씩 2차 교육재난지원금도 지급한다.   김 교육감은 "내년에 유치원에도 무상급식을 실시하겠다"며 "필요한 재원 240억원을 확보하기 위해 부산시·시의회와 긴밀히 협의해 나가겠다"라고 강조했다.   시교육청은 백신접종 지원단을 꾸려 7월부터 시작되는 교직원에 대한 백신 접종과 여름방학 동안 시행될 고3 수험생에 대한 백신 접종이 차질없이 진행되도록 지원할 계획이다.   김 교육감은 "아이들의 미래를 위한 교육은 어떠한 상황에서도 계속돼야 한다”며 "남은 임기 동안 올해 제시한 교육청의 4대 역점과제와 주요 현안 사항들을 잘 마무리하고 부산교육을 미래교육으로 전환하기 위한 토대를 확실히 마련하겠다"라고 다짐했다.</t>
-  </si>
-  <si>
-    <t>[디지털데일리 이종현기자] 이노베이션 아카데미와 메가존클라우드가 디지털 인재 육성과 개발자 생태계 활성화를 위해 손잡았다.    1일 소프트웨어(SW) 개발자 양성기관인 이노베이션 아카데미는 클라우드 매니지드서비스(MSP) 기업 메가존클라우드와 업무협약을 체결했다. 세미나와 해커톤 공동 진행, 인턴십과 채요을 위한 현장 프로젝트 기회 제공, 클라우드 전문가 자격증 취득 지원 등 각 분야에 협력한다.   이노베이션 아카데미는 과학기술정보통신부(이하 과기정통부)가 설립한 혁신 교육 기관이다. 2년제 비학위 과정에 교수·교재·학비가 없는 것이 특징이다. 프랑스의 SW 교육 프로그램 ‘에꼴42’를 도입한 ‘42서울’을 운영하고 있다.   42서울 외에 혁신 교육 시스템인 ‘프로젝트-X’를 개발 중인 이노베이션 아카데미는 개발자 생태계 활성화를 위해 힘 쏟고 있다. 프로젝트-X는 코로나19 이후 비대면 교육 환경에 적합한, 보다 다양한 이들이 SW 교육 기회를 누릴 수 있는 플랫폼이 될 전망이다.   이노베이션 아카데미와 손잡은 메가존클라우드는 국내 최대 클라우드 MSP 기업이다. 2018년 2032억원이었던 매출액은 작년 5110억원으로 2년새 2.5배 성장했다. 현재 미국, 캐나다, 중국, 일본, 홍콩 등 해외지사를 설립하는 등 글로벌 시장에 진출하는 중이다.   이민석 이노베이션 아카데미 학장은 “코로나19 이후 디지털 전환이 급격히 이뤄지면서 클라우드 기술과 환경도 함께 성장할 것으로 보인다. 이노베이션 아카데미 교육생들이 메가존클라우드와 함께 클라우드 전문가로 성장해 나갈 것”이라고 말했다.   이주완 메가존클라우드 대표는 “이노베이션 아카데미와 함께 현장 중심의 실무역량을 갖춘 SW 인재를 육성하겠다”며 “클라우드 기반의 인공지능(AI), 머신러닝, 빅데이터 등 4차 산업혁명에 부합하는 최첨단 기술을 실제 상용화된 프로젝트 기반 협업을 해 나갈 것”이라고 말했다.</t>
-  </si>
-  <si>
-    <t>이준석 국민의힘 대표가 24일 오전 서울 여의도 국회에서 열린 최고위원회의에서 머리를 쓸어넘기고 있다. 2021. 6. 24 김명국 선임기자 daunso@seoul.co.kr경찰이 이준석 국민의힘 대표의 ‘병역 특혜 의혹’에 대한 수사에 착수한다.1일 경찰에 따르면 경찰청 국가수사본부는 적폐청산국민참여연대의 이 대표 수사 의뢰 건을 서울경찰청 반부패·공공범죄수사대에 배당할 예정이다. 배당이 끝나면 이 대표 의혹에 대한 본격 수사가 이뤄질 것으로 보인다.반부패·공공범죄수사대는 검경수사권 조정 이후 신설된 조직으로 국가수사본부장이나 서울경찰청장이 지정하는 중요 부패범죄 사건, 공무원 범죄 등을 등을 수사한다. 김진욱 고위공직자범죄수사처(공수처) 처장 고발 사건도 반부패·공공범죄수사대가 맡고 있다.앞서 신승목 적폐청산국민참여연대 대표는 지난달 21일 “이 대표가 산업기능요원 복무 중 특혜를 받았다”며 “병역법 위반 혐의로 수사를 의뢰했다”고 밝혔다.신 대표는 이 대표가 2007년 11월부터 2010년 9월 28일까지 산업기능요원으로 복무하던 중 2010년 지식경제부(현 산업통상자원부) 주관 ‘SW(소프트웨어) 마에스트로 과정’으로 활동한 것이 병역법과 전문연구요원 및 산업기능요원 겸직 금지 조항 등을 위반했다며 고발했다.신 대표는 또 이 대표의 산업기능요원 복무 만료 처분 등의 취소와 재입대를 촉구하는 진정도 서울지방병무청에 넣었다고 했다.이에 이 대표는 페이스북을 통해 “소프트웨어 마에스트로 교육 장소가 저희 (산업기능요원 근무) 회사에서 1㎞ 거리였다”며 “병무청과 정보통신산업진흥원에 ‘졸업생’으로 지원해서 합격해 연수받았고, 휴가와 외출 처리를 정확히 했다”고 해명했다.</t>
-  </si>
-  <si>
-    <t>사진= 무하유. 제공    ㈜무하유(대표 신동호)는 API 연동형 표절검사 서비스 CK브릿지-카피킬러가 28일 신SW상품대상에서 과학기술정보통신부 장관상을 수상했다고 밝혔다. 신 SW상품대상은 과학기술정보통신부 주최로 국내 개발된 소프트웨어 중 우수상품을 선정·시상함으로써 국내 개발 소프트웨어의 판매확대 및 소프트웨어 기업의 개발 의욕을 고취하고 국내 소프트웨어산업을 육성하는 시상이다. 1차 서류심사, 2차 데모심사, 3차 GS인증 심사를 통해 상품성과 기술성, 독창성, SW품질 등의 종합적인 심사를 거친다.이번 수상에서 CK브릿지- 카피킬러는 "언택트 기술을 활용한 비대면 교육시장이 급증하는 가운데 부정행위 문제를 해결하기 위한 솔루션으로 성장이 기대된다"는 평가를 받았다. 과기정통부 장관상을 수상한 CK브릿지-카피킬러는 LMS에 연동하여 사용할 수 있는 국내 유일의 API형 표절검사 서비스이다. LMS에 제출되는 과제물을 실시간으로 표절검사하여 교강사가 평가에 활용할 수 있는 정확한 표절률과 비교된 문서의 정보를 제공한다. CK브릿지에는 딥러닝 기술을 적용해 표지, 목차, 참고문헌 등의 문서 영역을 자동으로 인식해 표절률에서 제외하는 것은 물론이고, 올바르게 작성한 출처표기만을 인식해서 표절률에서 제외한다. 또한, 학내에서 공유되는 족보를 사용한 표절이나 소스코드 표절 검사도 가능하다. 신동호 무하유 대표는 "CK브릿지는 코로나 19라는 팬데믹 상황에서 교육시장의 필수 서비스가 되었다"며, "이번 수상을 통해 이를 인정받게 되어 기쁘게 생각한다"고 밝혔다. 한편, 무하유는 지난해 일본어 전용 표절검사 서비스 '카피모니터'로 일본에 진출한 바 있으며, CK브릿지와 같은 일본 교육시장용 LMS API 연동형 표절검사 서비스를  출시 할 예정이다.</t>
-  </si>
-  <si>
-    <t>고용·민생안정 지원 2조6000억원 투입‘청년희망사다리’ 구축...일자리·주거 지원지역경제활성화 12.6조...지방재정도 보강정부는 올 하반기에 일자리 16만4000개를 만들고, 현장인력 8만8000명을 양성한다. 지역경제 활성화를 위해 지역상품권 발행을 5조원 늘려 총 20조원으로 확대한다.1일 정부가 국무회의에서 확정한 2021년도 제2회 추가경정예산안에 따르면 정부는 고용 및 민생안정 지원을 위해 총 2조6000억원을 투입한다. 빠른 고용회복을 뒷받침하고자 1조1000억원을 집중 투입해 40만명 이상에게 구직기회와 취업역량 향상을 지원한다.우선 일자리회복, 청년고용, 취업취약계층 등 4대 분야에서 일자리 16만4000개를 창출한다. 구체적으로 특별고용촉진장려금 3만명, 신산업 청년채용 지원 3만명, 백신·방역 등 지원인력 6.7만명, 노인 등 취약계층 일자리 3.7만명 등이다. 여기에 6000억원이 투입된다.SW·조선업 등 현장수요가 높은 분야의 인력수급을 위해 2000억원을 투입해 8만8000명의 인력양성을 지원한다. 또 취약노동자 15만3000명에 대한 고용안전망 확충에 4000억원을 지원한다.특히 청년희망사다리 구축을 위해 청년일자리, 청년창업, 청년주거, 청년금융 등 4대 분야에 총 1조8000억원을 투입한다. 13만명 규모의 청년일자리를 지원하고 청년들이 혁신기업을 창업할 수 있도록 1000억원 규모의 청년전용 모태펀드를 신규 조성한다. 스케일업 펀드를 5000억원으로 2배 확대하고, 글로벌 투자펀드도 4000억원으로 2배 확대한다.청년들의 가장 큰 부담인 주거는 역세권·대학가 등의 전세임대주택 5000가구를 추가 확보해 총 1만6000가구로 늘리고, 전세보증금 반환보증료 인하(70~80%)기간 6개월 연장 등으로 완화할 계획이다. 자산형성을 돕는 청년내일채움공제 지원대상도 총 12만명으로 2만명을 더 늘리는 등 청년 생활·금융도 적극 지원한다.정부는 민생 지원 강화 차원에서 내년 1월로 예정된 생계급여 부양의무자기준 폐지시기를 3개월 앞당겨 오는 10월부터 폐지해 4만90000가구에 대해 생계급여를 지급하고, 18만7000가구에게 에너지 바우처를 추가 지급한다. 또 중소여행사 ICT 인력 1600명, 현장 공연예술가 2000명 등 여행·공연·체육 일자리 1만1000개 회복을 지원하고, 스포츠 영화 철도·버스 체육 문화 등 5종 쿠폰·바우처를 신규·추가 발행(484억원)해 1000억원 이상의 문화소비를 창출할 계획이다.정부는 지역경제 활성화를 위해 12조6000억원을 투입한다. 특히 지역 소상공인 매출회복을 견인할 수 있도록 지역사랑상품권을 기존 대비 5조원 늘려 총 20조원규모로 발행을 확대한다. 온누리상품권은 3000억원 늘려 총 3조3000억원어치를 발행한다.또한 지방재정도 대폭 보강한다. 초과세수를 세입경정함에 따라 지방교부세 5조9000억원, 지방교육재정교부금 6조3000억원 등 총 12조2000억원의 교부금이 계상돼 지방으로 내려간다. 정부는 이러한 재원은 지자체·교육청 차원에서 지역경제 활성화 투자는 물론, 주요 추경사업 매칭지원 등을 위해 긴요하게 활용될 것으로 기대하고 있다.김대우 기자</t>
-  </si>
-  <si>
-    <t>親文시민단체 고발로 착수'반부패수사대'가 맡기로이준석 국민의힘 대표가 지난 28일 서울 여의도 국민의힘 중앙당사에서 열린 상임고문과의 간담회에서 인사말을 하고 있다. [이승환 기자] 이준석 국민의힘 대표에게 제기된 '산업기능요원 활동 중 병역 비리·특혜 의혹'을 서울경찰청 반부패·공공범죄수사대가 수사하기로 했다. 이번 수사는 친문(親文·문재인 대통령 지지) 시민단체의 고발에 따른 것이다.1일 매일경제 취재를 종합하면, 경찰은 이준석 대표에 대한 병역비리 의혹 관련 고발 건을 서울경찰청 반부패·공공범죄수사대에 맡기기로 결정했다. 지난달 21일 적폐청산국민참여연대라는 시민단체의 대표 신승목 씨가 이준석 대표를 수사해달라고 경찰청에 고발한 데 따른 것이다.신씨는 이 대표가 2007년 11월부터 2010년 9월 28일까지 산업기능요원으로 복무하던 중 2010년 지식경제부(현 산업통상자원부) 주관 'SW Maestro(소프트웨어 마에스트로) 과정'에 활동한 것이 병역법 위반, 전문연구 요원 및 산업기능요원의 관리규정 겸직금지 조항 등을 위반한 소지가 있다며 고발했다.경찰청은 당초 이 사건을 서울경찰청 수사과에 하달해 관할 경찰서에서 수사하도록 했다. 이 대표의 주거지 기준으로 관할서는 서울 노원경찰서다. 그러나 이 사건을 넘겨 받은 서울경찰청은 수사과가 아닌 반부패·공공범죄수사대 맡겨 직접 수사하기로 했다.경찰 측은 사건의 중대성을 감안한 결정이라고 설명한다. 경찰 관계자는 "경찰은 고소·고발 사건 등에 대해 국민의 관심도와 중대성 등을 감안해 해당 사건을 청에서 직접 수사하기도 하고 관할서에 하달하기도 한다"고 설명했다.반부패·공공범죄수사대는 검경수사권 조정으로 검찰 수사가 대폭 축소되며 올해 신설한 수사조직으로, 출범 당시 일각에선 '정권 맞춤형 수사'를 하는 게 아니냐는 우려가 제기되기도 했다. 올해 전부개정·시행된 '경찰청과 그 소속기관 직제 시행규칙'에 따르면 반부패·공공범죄수사대는 공무원범죄·선거범죄 등 주요 부패·공공 범죄 사건으로서 국가수사본부장이나 서울경찰청장이 지정하는 중요범죄 사건, 추진하는 중요 기획수사 사건 등을 수사한다.앞서 이 대표는 페이스북 등을 통해 병역비리 의혹에 대해 수 차례 반박했다. 지난달 18일에는 "(2012년)강용석 당시 의원이 고발해서 검찰에서도 다시 들여다봐서 문제없다던 사안"이라고 밝혔다. 그는 "소프트웨어 마에스트로 교육장소가 저희 (산업기능요원 근무)회사에서 1㎞ 거리였다"며 "병무청과 정보통신산업진흥원에 (지원서에) '졸업생'으로 명기해서 지원해서 합격해서 연수받았고, 휴가와 외출 처리 정확히 했다"고 밝혔다.한편 이 대표를 고발한 적폐청산국민참여연대는 "문 대통령을 지키며, 국민이 적폐청산에 앞장선다"는 구호를 내건 친문단체다. 이 단체 대표 신씨는 지난 3월 고 박원순 전 서울시장을 성추행 혐의로 고소한 피해자를 공직선거법 위반으로 고발하겠다고 밝혔었지만, 서울시선거관리위원회는 선거법 위반이 아니라는 의견을 냈었다. 지난 2월에는 김재섭 전 국민의힘 비상대책위원장이 조국 전 법무부 장관의 딸 조민 씨에 대해 '무자격자'라고 발언한 것을 두고 허위사실 유포로 인한 명예훼손죄로 고발했다. 그러나 조씨가 처벌불원 의사를 밝혀 경찰은 이를 불송치 처분했다.[이윤식 기자]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		국민대학교 소프트웨어학부와 SW중심대학사업단이 온·오프라인에서 '국민*인의 소프트웨어에서 국민 모두의 소프트웨어로!'를 슬로건으로 하는 '제6회 국민대학교 알고리즘대회'를 연다.예선은 오는 31일 오후 2시에 비대면으로 진행된다. 예선을 통과한 참가자에 한해 본선이 내달 13일 오후 2시에 대면으로 치러진다. 대상 1명을 비롯해 금상(1명), 은상(2명), 동상(2명), 장려상 등 수상자를 선정한다. 고등학교 재학생 및 졸업생 또는 법령에 의해 이와 동등한 학력이 있다고 인정된 자는 모두 참가할 수 있다. 접수기간은 오는 12일 오후 3시부터 14일 오후 3시까지다. 인터넷(www.uwayapply.com)에서 선착순으로 1000명까지 접수 가능하다.장려상 이상 수상자에게는 국민대 소프트웨어 특기자전형에 지원할 수 있는 기회를 부여한다.국민대 소프트웨어중심대학 사업단 관계자는 "우리 사업단은 소프트웨어를 통해 사회를 변화시키고 개인의 꿈을 실현할 수 있는 인력을 양성하기 위한 최적의 시스템을 구축하고자 노력하고 있다"며 "4차 산업혁명 시대를 맞아 인공지능(AI)에 대한 관심이 늘어난 가운데 시대를 이끌 미래의 소프트웨어 개발자의 알고리즘 역량을 증진하는 데 이번 대회가 큰 역할을 할 것으로 기대한다"고 설명했다.한편 국민대 소프트웨어융합대학은 최근 가장 우수한 성과를 창출하고 있는 국민대의 대표적인 단과대로 손꼽힌다. 전교생 대상 S/W 교육 의무화를 최초로 도입하는 등 소프트웨어분야에서 선구적인 역할을 하고 있다. 대회 관련 자세한 사항은 대회 홈페이지(https://softwarecontest.kookmin.ac.kr/)를 통해 확인할 수 있다.</t>
-  </si>
-  <si>
-    <t>1일 B2B SW업체 아이퀘스트는 SW 개발보안 전문기업인 트리니티소프트를 인수하고 정보보호 시장 진출에 나선다고 밝혔다.아이퀘스트는 이날 트리니티소프트 지분을 추가로 취득하는 주식매매 계약을 체결했다. 이를 통해 트리니티소트의 최대주주 및 연결 자회사로 편입했다.트리니티소프트는 2005년에 설립된 정보보호 전문기업으로 시큐어코딩 핵심 기술을 보유하고 있는 '코드레이 엑스지'의 개발사다. 아이퀘스트는 전방시장 환경에 대한 긍정적인 변화와 트리니티소프트의 향후 성장가능성을 보고 추가 지분취득을 결정하게 되었다고 밝혔다.김순모 아이퀘스트 대표는 "최근 국내외적으로 SW개발보안에 대한 컴플라이언스가 강화되면서 관련 시장의 성장이 예상돼 이번 인수를 결정했다"며 "이번 인수를 통해 4차 산업혁명의 필수 요소인 사이버 보안으로 사업영역을 넓혀가겠다"고 밝혔다.트리니티소프트는 지난해 국가정보원으로부터 CC 인증과 한국정보통신기술협회(TTA)로부터 GS 인증을 획득하고 전자정부표준프레임워크 호환성 테스트를 완료했다.새롭게 출시된 6.0버전은 트리니티소프트 핵심 기술이 집약된 솔루션으로 제품 출시 후 대신정보통신과 조달 총판계약을 체결하고 한국기계전기전자시험연구쇼(KTC), 한국지역난방공사, 현대홈쇼핑, 한국정책방송원등의 레퍼선스를 확보했다.사측은 "코드레이 엑스지는 고객사에 경제적 부담을 주었던 고가 외산 제품을 대체하여 정부기관과 국방, 금융, 교육, 의료기관, 다수의 기업에서 안전한 SW개발 환경을 구축하는데 중요한 역할을 하고 있다"고 설명했다.김진수 트리니티소프트 대표는 "공격적인 R&amp;D로 글로벌 시장을 공략하는 클라우드 보안 전문기업으로 거듭나겠다"고 밝혔다.</t>
-  </si>
-  <si>
-    <t>8월 13일까지 인공지능 등 9개 분야 스타트업 모집…최대 1억원 지원삼성전자 C랩 아웃사이드 공모전 포스터.(삼성전자 제공)© 뉴스1(서울=뉴스1) 김동규 기자 = 삼성전자가 혁신적인 스타트업을 발굴해 지원하는 'C랩(C-Lab) 아웃사이드' 공모전을 8월 13일까지 진행한다고 1일 밝혔다. 이날 시작된 공모전은 'Create, Great 스타트업, 위대한 혁신의 시작'을 주제로 ΔAI ΔAR·VR·XR Δ교육 Δ환경 Δ디지털헬스 Δ로보틱스 등 9개 분야의 혁신 기술을 보유한 스타트업을 모집한다.국내에 법인 등록한 창업 5년 이내의 스타트업이면 누구나 지원 가능하다. 접수는 'C랩 아웃사이드' 사이트에서 할 수 있다.지난 해 공모전에는 501개의 스타트업이 지원했고, 총 18개를 선정해 28대1의 경쟁률을 기록했다. 이 중 4개는 대학생 창업 기업으로 청년 창업 활성화에도 기여하고 있다.C랩 아웃사이드에 선발된 스타트업에게는 Δ최대 1억 원의 사업지원금 Δ삼성전자 서울 R&amp;D캠퍼스 내 전용 사무공간 Δ성장 단계별 맞춤형 프로그램 Δ국내외 IT 전시회 참가 Δ판로 개척 등을 1년간 지원한다.특히 Δ심층 고객 조사 Δ데이터 기반 마케팅(Growth Hacking) Δ재무 역량 컨설팅 등 성장 단계별 맞춤형 프로그램을 제공해 실질적으로 스타트업의 매출·사용자 증가 등 비즈니스 경쟁력으로 이어질 수 있도록 돕는다.삼성전자와의 사업 협력을 원하는 스타트업에게는 해당 사업부와의 비즈니스 미팅을 주선하고 판로 개척을 위해서는 스타트업의 제품을  삼성전자 임직원 복지 사이트에서 판매하고 있다.육성 완료 시점에는 'C랩 아웃사이드 데모데이'를 열어 투자자와 기업 관계자 등을 초청해 스타트업의 성과를 알리고, 사업 협력 모색과 투자 유치 기회를 제공한다.삼성전자는 사내 창의 조직문화를 확산하기 위해 사내벤처 육성 프로그램인 'C랩 인사이드'를 2012년 12월부터 운영하고 있다. 우수 사내벤처 과제는 스타트업으로 분사할 수 있도록 스핀오프 제도도 실행하고 있다.2018년 8월에는 '경제활성화와 일자리 창출 방안'의 일환으로 스타트업 육성 프로그램 C랩 아웃사이드를 신설해 C랩 인사이드의 운영 노하우를 외부로 확대하며 국내 스타트업 생태계 활성화에 기여하고 있다.C랩 아웃사이드는 삼성전자가 직접 육성하는 프로그램과 창업 생태계가 전국적으로 활성화 될 수 있도록 대구·경북창조경제혁신센터와 함께 육성하는 프로그램으로 운영되고 있다.삼성전자는 2018년부터 향후 5년간 C랩 아웃사이드를 통해 외부 스타트업 300개 육성, C랩 인사이드로 사내벤처 과제 200개를 지원해 총 500개 육성하겠다고 발표했다.삼성전자는 2018년부터 현재까지 C랩 아웃사이드를 통해 202개, C랩 인사이드를 통해 사내벤처 과제 136개 등 총 338개를 지원해 왔다.C랩 아웃사이드로 육성한 202개의 스타트업들은 총 2000억원의 후속 투자를 유치했다. 이 중 10개사는 매출 100억원을 돌파했고, 7개사는 CES 혁신상을 수상하기도 했다.최윤호 삼성전자 경영지원실 사장은 "C랩을 통해 기업가 정신을 가진 청년들이 끊임없이 도전하고 혁신할 수 있는 문화를 확산하는데 힘쓰겠다"며 "C랩 스타트업들이 유니콘을 넘어 한국을 대표하는 기업으로 성장할 수 있도록 아낌없이 지원하겠다"고 말했다.한편 삼성전자는 '함께가요 미래로! Enabling People'이라는 CSR 비전 아래 청소년 교육 중심의 사회공헌 활동과 상생 활동도 펼치고 있다.청소년 교육 중심 활동으로는 Δ삼성청년SW아카데미 Δ삼성 드림클래스 Δ삼성 주니어 SW 아카데미 Δ삼성 스마트스쿨과 같이 청소년의 잠재력을 최대한 발휘할 수 있도록 하는 프로그램을 운영하고 있다.또 ΔC랩 아웃사이드 Δ삼성미래기술육성사업 Δ스마트공장 등의 상생 프로그램을 통해 삼성전자가 쌓아온 기술과 혁신의 노하우를 우리 사회와 같이 나누고 있다.</t>
-  </si>
-  <si>
-    <t>추경 쏟아 창출하는 신규 일자리 16만명 中방역, 노인·저소득층·장애인 일자리 9만명하경방에 이어 재정일자리 위주 정책만 남발홍남기 경제부총리 겸 기획재정부 장관이 지난달 29일 서울 종로구 정부서울청사에서 2021 제2회 추가경정예산안 관련 브리핑을마친후 연단을 내려오고 있다. ⓒ뉴시스정부가 추경을 풀어 고용회복에 나선다고 했지만 새롭게 창출되는 일자리의 6할이 방역 지원 계열과 노인·저소득층·장애인 대상인 것으로 나타났다. 계속해서 고용 성과가 저조한 가운데 정부가 지난 하반기경제정책방향 발표에 이어 경기 회복 효과를 기대할 수 없는 재정일자리만 고수하고 있는 것 아니냐는 비판이 나온다.특히 정부는 재정 투입을 민간의 투자와 활력을 높이기 위한 마중물이라고 했지만 민간에서의 새로운 일자리 창출 지원 역시 공공일자리에 비해 매우 미미한 수준이다. 추경예산을 쏟는데 비해 고용효과는 미미할 것이라는 전망이 크다.기획재정부는 1일 2021년도 제2회 추가경정예산안을 발표했다. 이에 따르면 2조6000억원을 투입해 고용 및 민생안정을 지원하기로 했다. 이중 6000억원을 투입해 신규 일자리 16만4000명분을 창출할 계획이다.그런데 정부가 추경으로 만드는 신규 일자리는 일시적이고 생산성을 기대할 수 없는 공공 재정 일자리가 대부분인 것으로 나타났다. 추경을 통한 분야별 일자리 창출 계획을 보면, ▲공공시설·학교·관광지 방역지원(5만5000명)이 가장 많았고 ▲노인·저소득층·장애인 일자리 확대(3만5000명)가 두 번째로 많았다.▲AI·SW 등 신산업 분야 및 지역기반기업 채용지원(1만8000명) ▲백신 접종 보조 및 보건소 인력 지원(1만2000명) ▲여행·공연·체육 등 문화 분야 일자리(6000명) ▲멘토링 등 교육 분야 일자리(6000명) ▲예술인 일자리 지원(2000명) ▲산재 예방 등 안전 분야 일자리(400명)이 뒤를 이었다.특수한 목적을 위한 단기성 형태의 방역지원직과 노인·저소득층·장애인 일자리를 합하면 신규로 창출되는 일자리의 60%가 넘는다. 지난달 28일 발표한 '2021년 하반기 경제정책 방향'에 이어 별반 달라질 것 없는 재정일자리 위주 정책을 남발하고 있다는 평가다. 하경방에 따르면 재정을 투입해 만드는 일자리가 총 144만2000개나 됐다.특별고용촉진장려금 대상자를 3만명 확대한다고도 했다. 특별고용촉진장려금은 코로나19 확산으로 취업 촉진이 필요한 실업자를 채용한 중소·중견 사업주에게 주는 정부 지원금이다. 신규 고용 근로자 1인당 중소기업은 월 최대 100만원, 중견기업은 80만원을 최대 6개월간 지원받을 수 있다.하지만 이 역시 실업자 위주 정책이기 때문에 기업의 성장 동력 창출을 통한 경기 회생 효과는 기대할 수 없다는 지적이다. 게다가 지원 금액 역시 근로가 급여에 비해 미미한 수준이기 때문에 실업률 감소 효과 자체를 낼 수 있을지도 미지수라는 시각도 나온다.정부가 고수하고 있는 재정지원 위주 일자리 창출은 실효성이 떨어진다는 지적이 계속해서 나오고 있다. 단기일자리 위주의 재정지원 일자리는 고용유지율이 갈수록 하락하는 등 투입된 재원 대비 사업 성과가 떨어지기 때문이다. 전문가들은 고용 회복세에선 정부의 직접 일자리와 기업에 인건비를 직접 지원해주는 방식은 한계가 있다고 지적한다.실제로 '풀타임(전일제) 환산 고용률(FTE)'은 그간 정부가 주력했던 공공 단기 위주 일자리 정책의 폐해를 단적으로 드러내주는 지표다. 풀타임 일자리는 근로시간을 반영한 고용 지표로, 양질의 일자리 갯수가 얼마나 늘어났는지 파악할 수 있는 자료다. '고용률 60% 이상'은 고용 부진이 점진적으로 완화되는 단계로 평가되는데 코로나19로 지난해 사상 처음 60% 밑으로 떨어진 FTE 고용률이 여전히 50%대를 맴돌고 있다.유경준 국민의힘 의원실이 통계청 고용동향 자료를 분석한 결과, 올해 1~5월 15세 이상 기준 FTE 고용률은 58.2%로 집계됐다. FTE 고용률은 2017년 65.1%, 2018년 63.0%, 2019년 62.0%로 떨어졌고, 코로나19 영향으로 작년 58.6%로 급락했다. 지난해 전년 대비 3.4%P(포인트) 하락한 FTE 고용률이 올해 1~5월 들어 오히려 0.4%P 더 떨어진 것이다.익명을 요구한 한 경제연구소 관계자는 "단기 공공성 형태라 정부의 추경을 통한 일자리 창출 효과는 없을 듯 보인다"며 "단순히 일자리 수 늘기기에 급급할 게 아니라 지속가능한 형태의 기업 주도 일자리가 많이 창출될 수 있도록 충분한 숙의 과정과 정책적 제고가 필요해보인다"고 지적했다.</t>
-  </si>
-  <si>
-    <t>[추가 경정예산안] 신규일자리 16만4000명 창출 등 지원정부가 1조1000억원을 투입해 고용 조기회복을 지원한다. /사진=뉴시스 정부가 추가경정예산(추경)을 통해 40만명 이상의 고용 조기회복 지원에 나선다. 국민이 경기회복을 체감하기 위해선 일자리 안정이 무엇보다 중요하다는 판단에서다. 정부는 1일 임시 국무회의를 열고 총 33조원 규모의 2차 추경을 심의·의결했다. 정부는 이 가운데 1조1000억원을 고용 조기회복 지원에 투자할 방침이다. 부문별로 16만4000명 규모의 신규일자리 창출에 6000억원을 투입하고 8만8000명 규모의 소프트웨어(SW)·조선업 등 인력양성에 2000억원을 투자한다. 15만3000명 규모의 고용유지지원 등 고용안전망 보완에도 4000억원을 지원할 계획이다. 신규일자리 창출 16만4000명은 ▲일자리 조기회복 3만명 ▲청년고용 촉진 3만명 ▲백신·방역·안전수요대응 6만7000명 ▲취업취약계층 고용보완 3만7000명 등이다.직업훈련 및 인력양성 부문 8만8000명 일자리 지원의 경우 SW 인력을 기업주도형 인력양성모델 확대로 1만명 추가 양성한다.또한 청년 구직자를 위해 3000명 규모의 기업 주도형 SW 인력양성 과정을 신설하는 등 K-디지털 트레이닝을 기존 2만명에서 2만4000명으로 확대한다. 재직자를 대상으로도 4000명 규모의 SW 분야 기업 맞춤형 훈련방식 신설을 지원한다. 산업현장 수요에 맞춰 AI 복합교육 과정도 기존 5400명에서 5800명으로 확대하고 SW중심대학도 기존 9개에서 14개로 5개소를 추가 선정한다.조선업 분야에선 한시 특별 훈련수당(140만원)을 지급하는 채용연계 교육 대상을 기존 600명으로 1200명으로 확대하고 유급휴가 연계형 특화 훈련도 늘릴 방침이다. 이와 함께 건설업 종사자의 직업능력 향상을 위한 기능훈련 지원인원을 기존 7000명에서 8000명으로 늘린다. 채용예정자 대상 사업주의 직업능력 개발훈련 수당도 월 20만원에서 30만원으로 한시 인상한다. 대상은 3500명 규모다.고용유지 지원 등 고용안전망 보완 부문 15만3000명 규모 일자리 지원의 경우 항공·여행·영화업 등 특별고용지원업종에 대한 90% 특례지원 기간을 6개월에서 9개월로 연장한다.장기 훈련시 생계비 경감을 위해 연 1%의 초저금리 생계비 융자 대상도 기존 2만7000명에서 3만4000명으로 확대한다.사고방지시설 설치 지원도 1만2000개에서 1만5000개로 늘리고 안전 컨설팅 업종을 제조업에서 건설업 1만개까지 추가한다. 이 외에 장애인 구직 지원 서비스를 기존 2만명에서 2만4000명으로 확대하고 예술인 창작준비금 지원을 1만2000명에서 2만1000명으로 늘릴 예정이다.</t>
-  </si>
-  <si>
-    <t>[2차 추경]고용 조기 회복 지원에 1.1조원 투입특별고용촉진장려금 확대 등 신규일자리 창출SW·조선업 등 인력양성…고용안정망도 강화[이데일리 최정훈 기자] 정부가 경기 회복에 맞춰 고용 시장도 조기에 회복할 수 있도록 1조 1000억원의 재정을 투입해 40만명 규모의 일자리 지원에 나선다.지난 4월 12일 서울 노원구 북부고용센터에서 방문객들이 실업급여 신청을 위해 대기해 있다.(사진=연합뉴스)1일 정부는 이 같은 내용의 ‘2021년도 제2회 추가경정예산안’을 편성했다고 밝혔다. 이번 2차 추경안은 총 33조원 규모로 이 중 고용 조기회복 지원에 약 1조 1000억원이 편성됐다. 이를 통해 40만명 이상에게 고용 조기 회복을 위한 지원에 나설 방침이다.먼저 특별고용촉진장려금 대상자를 3만 명 확대한다. 특별고용촉진장려금은 코로나19 확산으로 취업 촉진이 필요한 실업자를 채용한 중소·중견 사업주에게 주는 정부 지원금이다. 신규 고용 근로자 1인당 중소기업은 월 최대 100만원, 중견기업은 80만원을 최대 6개월간 지원받을 수 있다.청년 고용 촉진 정책 대상자도 3만 명 확대한다. 인공지능(AI)과 소프트웨어 등 신산업 분야와 지역기반기업의 채용을 지원하고, 체육·공연·관광 등 문화 분야 일자리, 멘토링 등 교육 분야 일자리도 지원할 방침이다.전 국민을 대상으로 속도를 낼 백신접종과 방역에 대응하는 인력도 6만 7000명 지원한다. 백신접종 보조 및 보건소 인력, 공공시설·학교·관광지 방역지원 인력 등이다. 산재 예방을 위한 안전 분야 일자리도 확대되고, 노인이나 저소득층 등 취업 취약계층 일자리 3만 7000명 규모로 지원한다.소프트웨어(SW)·조선업 등 직업훈련 및 인력양성에도 2000억원을 투입해 8만 8000명을 지원한다. SW인력으로는 기업주도형 인력양성모델을 확대해 1만명을 추가 양성한다. 또 청년 구직자를 위한 기업 주도형 소프트웨어 인력양성 과정을 신설하는 등 K-디지털 트레이닝도 확대할 방침이다. 더불어 재직자와 전문인력을 위한 지원도 확대한다.조선업, 건설업 인력 창출을 위한 재정도 추가 지원된다. 한시 특별 훈련수당을 지급하는 채용연계 교육 및 유급휴가 연계형 특화 훈련을 확대한다. 중소 조선사 대상 공동근로복지기금 지원도 확충할 예정이다. 용접, 배관 등 건설업 종사자의 직업능력 향상을 위한 기능훈련 지원인원도 확대할 방침이다.코로나19로 피해가 집중됐던 부문의 일자리 지원도 이어진다. 여행업·관광숙박업·관광운송업, 공연업, 면세점 등 특별고용지원 15개 업종은 휴업·휴직 시 인건비의 최대 90%를 지원하는 고용유지지원금 지급기간을 90일 연장했다. 또 고용안전망 강화를 위해 장기 훈련 시 생계비 경감을 위해 연 1%의 초저금리 생계비 융자도 확대하고, 산재 예방을 위한 사고방지시설 설치 지원을 확대하고 안전 컨설팅 업종을 제조업에서 건설업까지 추가한다. 장애인 구직 지원 서비스 및 예술인 창작준비금 지원도 확대할 예정이다.자료=기획재정부 제공</t>
-  </si>
-  <si>
-    <t>고용 및 민생안정 지원 2.6조원…고용 조기회복 뒷받침‘청년희망사다리’ 구축…일자리, 창업, 주거, 금융 지원지역경제활성화 12.6조…교부세, 교육재정교부금 늘려[헤럴드경제=김대우 기자] 정부는 올 하반기에 일자리 16만4000개를 만들고, 현장인력 8만8000명을 양성한다. 지역경제 활성화를 위해 지역상품권 발행을 5조원 늘려 총 20조원으로 확대한다.[기획재정부 자료]1일 정부가 국무회의에서 확정한 2021년도 제2회 추가경정예산안에 따르면 정부는 고용 및 민생안정 지원을 위해 총 2조6000억원을 투입한다. 빠른 고용회복을 뒷받침하고자 1조1000억원을 집중 투입해 40만명 이상에게 구직기회와 취업역량 향상을 지원한다.우선 일자리회복, 청년고용, 취업취약계층 등 4대 분야에서 일자리 16만4000개를 창출한다. 구체적으로 특별고용촉진장려금 3만명, 신산업 청년채용 지원 3만명, 백신·방역 등 지원인력 6.7만명, 노인 등 취약계층 일자리 3.7만명 등이다. 여기에 6000억원이 투입된다.SW·조선업 등 현장수요가 높은 분야의 인력수급을 위해 2000억원을 투입해 8만8000명의 인력양성을 지원한다. 또 취약노동자 15만3000명에 대한 고용안전망 확충에 4000억원을 지원한다.특히 청년희망사다리 구축을 위해 청년일자리, 청년창업, 청년주거, 청년금융 등 4대 분야에 총 1조8000억원을 투입한다. 13만명 규모의 청년일자리를 지원하고 청년들이 혁신기업을 창업할 수 있도록 1000억원 규모의 청년전용 모태펀드를 신규 조성한다. 스케일업 펀드를 5000억원으로 2배 확대하고, 글로벌 투자펀드도 4000억원으로 2배 확대한다. 청년들의 가장 큰 부담인 주거는 역세권·대학가 등의 전세임대주택 5000가구를 추가 확보해 총 1만6000가구로 늘리고, 전세보증금 반환보증료 인하(70~80%)기간 6개월 연장 등으로 완화할 계획이다. 자산형성을 돕는 청년내일채움공제 지원대상도 총 12만명으로 2만명을 더 늘리는 등 청년 생활·금융도 적극 지원한다.정부는 민생 지원 강화 차원에서 내년 1월로 예정된 생계급여 부양의무자기준 폐지시기를 3개월 앞당겨 오는 10월부터 폐지해 4만90000가구에 대해 생계급여를 지급하고, 18만7000가구에게 에너지 바우처를 추가 지급한다. 또 중소여행사 ICT 인력 1600명, 현장 공연예술가 2000명 등 여행·공연·체육 일자리 1만1000개 회복을 지원하고, 스포츠 영화 철도·버스 체육 문화 등 5종 쿠폰·바우처를 신규·추가 발행(484억원)해 1000억원 이상의 문화소비를 창출할 계획이다.정부는 지역경제 활성화를 위해 12조6000억원을 투입한다. 특히 지역 소상공인 매출회복을 견인할 수 있도록 지역사랑상품권을 기존 대비 5조원 늘려 총 20조원규모로 발행을 확대한다. 온누리상품권은 3000억원 늘려 총 3조3000억원어치를 발행한다.또한 지방재정도 대폭 보강한다. 초과세수를 세입경정함에 따라 지방교부세 5조9000억원, 지방교육재정교부금 6조3000억원 등 총 12조2000억원의 교부금이 계상돼 지방으로 내려간다. 정부는 이러한 재원은 지자체·교육청 차원에서 지역경제 활성화 투자는 물론, 주요 추경사업 매칭지원 등을 위해 긴요하게 활용될 것으로 기대하고 있다.</t>
-  </si>
-  <si>
-    <t>건보료 활용해 대상 선정…신청땐 신용카드 등 수령소상공인에 최대 900만원 지원…113만명 혜택볼 듯 백신접종 등 방역지원 더해 고용·민생 지원대책도 ◆…(임시 휴업 안내문이 붙어 있는 상가 모습. 사진 연합뉴스)정부가 올해 두 번째로 편성한 33조원 규모의 추가경정예산은 주로 재난지원금 명목으로 쓰인다. 소득 하위 80% 가구의 구성원들에게 각각 25만원씩을 지급하며, 코로나19 방역 조치로  피해가 큰 소상공인·소기업을 중심으로 최대 900만원의 재난지원금이 지급된다.   특히 인도발 델타 변이의 확산으로 방역 긴장감을 풀 수 없는 만큼, 백신구매부터 방역대응에 필요한 예산도 대폭 늘렸다. 청년 등 취약계층을 중심으로 소득·구직 관련 양극화가 커지고 있어, 이 부분에 대응할 예산도 투입된다.   정부는 1일 국무회의에서 이 같은 내용을 담은 '2021년도 2차 추가경정예산안'을 의결, 2일 국회에 제출할 계획이다. 이러한 피해지원 대책에 소요될 재원은 올해 초과세수(31조5000억원 예상), 작년에 남은 세계잉여금(1조7000억원), 기금재원(1조8000억원)으로 마련한다. 이 중 일부(2조원 가량)는 '국가 빚'을 갚는데 사용하고, 나머지 33조원이 순수한 추경규모다. ◆…(소상공인 희망회복자금 지원 규모, 자료 기획재정부)     이번 추경 재원에서 절반 가량인 15조7000억원이 코로나 피해를 지원하는데 쓰인다.   우선 소상공인에 대한 손실보상책(희망회복자금) 명목으로 3조3000억원이 투입된다. 작년 8월 이후 ▲1회라도 집합금지·제한조치를 받았거나 ▲경영위기업종에 해당했을 때 대상이 된다. 약 113만명(유흥업종 등 20만명, 음식점 등 76만명, 여행업 등 17만명)으로 추산된다.   방역수준, 방역조치 기간, 규모, 업종 등 업체별 피해 정도에 따라 지원액도 달라진다. 예컨대, 작년 연간 매출액이 8000만원을 넘지 않은 업종에서 장기간 집합금지 조치를 받았다면 500만원의 지원금을 받는다. 같은 조건으로 매출액이 4억원 이상일 땐 900만원을 받는다. 기획재정부는 "버팀목플러스와 동일하게 온라인 간편지급 실시한다"고 했다.   특히 가구소득 기준 소득하위 80%를 대상으로는 10조4000억원 규모의 지원금이 지급된다. 지급액은 1인당 25만원으로, 4인 가구라면 100만원을 받게 된다. 5인 가구일 땐 125만원이다. 직장·지역 가입자의 건강보험료 정보를 활용해서 대상자를 선정하는 구조다. 이후 온·오프라인 신청을 하면 신용·체크카드·선불카드 등으로 선택해서 수령하면 된다. 정부는 추경안이 확정되면 구체적인 지급기준·대상자는 '국민지원금 범부처 TF'에서 마련한다는 방침이다.   기초생활수급자, 차상위계층, 한부모가족에게 1인당 10만원(4인 가구 기준 40만원)의 저소득층 소비플러스 자금도 추가 지원(현금 지급)한다.   2분기 월평균 카드사용액보다 3% 이상 더 썼을 땐, 추가 금액의 10%를 돌려준다. 1인다 지급한도는 월 10만원, 최대 30만원이 한도다. 단 백화점, 대형마트, 전문매장, 유흥업소 등에서의 소비는 대상에서 제외된다. 이를 위한 재원은 약 1조1000조원 규모다."긴장 놓을 수 없다" 방역지원 뒷받침  ◆…(정부는 백신확보, 백신접종, 방역검사비 등 방역지원 예산으로 총 4조4000억원을 반영했다. 사진 연합뉴스)     홍남기 부총리는 이날 추경안 발표문에서 "백신순항이 이어지고 있지만, 최근 델타변이 확산으로 방역긴장의 끈을 한 치도 놓을 수 없는 상황"이라고 말했다. 이에 따라 방역지원 관련 예산으로 4조4000억원이 쓰인다.   구체적으로 올해 백신 1억9200만회분 확보, 변이 바이러스 대응 백신 구입 등으로 1조5000억원을 사용한다. 또 코로나 PCR 검사 확대, 격리자 생활지원, 일선 의료기관 손실보상비 등 명목으로 2조2000억원이 투입된다.   특히 백신 접종으로 인한 사망·장애가 발생했을 때 최대 4억4000만원을 보상하며, 인과성이 불분명한 중증이상이 발생했을 때도 치료비로 최대 1000만원을 지원한다.   백신·원부자재 생산, 백신제조·개발공정 인력양성을 위한 필수시설이나 장비 구축에 208억원을 지원한다. 국내백신 개발에 속도를 높이기 위해 임상 3상 진입 가능성이 높은 기업의 임상비용을 지원한다(980억원).일자리 16.4만개 창출…청년 주거 부담 덜어준다  ◆…(자료 기획재정부)고용·민생안정 지원 사업엔 2조6000억원이 쓰인다. 대표적으로 신규 일자리 창출을 들 수 있다. 정부는 ▲일자리 조기회복 ▲청년고용 촉진 ▲백신·방역·안전 수요대응 ▲취업취약계층 고용보완이란 4대 분야에서 총 16만4000만개 일자리를 만든다는 계획이다. 특히 SW·조선업 등 현장수요가 높은 분야의 인력수급 차원에서 8만8000명의 인력양성도 지원한다.   또 항공·여행·영화업 등 특별공용지원업종에 대한 90% 특례지원 기간을 6개월에서 9개월로 연장한다. 장애인 구직 지원 서비스는 현 2만명에서 2만4000명으로, 예술인 창작준비금 지원 대상은 1만2000명에서 2만1000명으로 늘린다. 이러한 고용안전망 보완엔 4000억원이 쓰인다.   청년 일자리 지원사업엔 4000억원이 쓰인다. 체육·공연·관광·교육 등 수요가 높은 분야의 일자리를 3만개 늘리고, 청년 실무인력 등 SW 인력을 1만명 더 추가 양성한다. 또 청년들이 혁신기업을 창업할 수 있도록 1000억원 규모의 청년전용 모태펀드를 신규조성하기로 했다.   특히 청년들의 가장 큰 부담인 주거를 지원하는데는 7000억원이 쓰인다. 이 재원으로 역세권·대학가 등의 전세임대주택을 기존 1만1000호에서 1만6000호로 늘려 청년에게 저렴하게 재임대한다는 방침이다. 또 전세보증금 반환보증료 인하(70~80%) 기간도 6개월 연장(올 6월→12월)한다. 생활·금융 분야로 청년내일채움공제 지원대상이 2만명 더 늘어난다.   코로나로 위축된 문화·예술·관광 분야엔 3000억원이 투입되는데 주된 사용처는 일자리, 공연·예술활동 회복, 문화소비 재개 등에 쓰인다. 현장 공연예술가 채용을 확대한다거나, 다양한 장르의 창작 활동을 이어나가도록 창작준비금(300만원) 지원대상을 9000명 더 늘린다. 또 소상공인·취약계층 안전망의 추가 보강을 위해 긴급자금 6조원(임차료 융자 등), 폐업 소상공인 금융·현금·컨설팅 원스톱 지원이나 생계급여 부양의무자 기준 조기 폐지 등이 추진된다.지역상품권 뿌리고…지방곳간 더 채운다  ◆…(정부는 지역사랑상품권을 기존 대비 5조원 확대한 20조원, 온누리상품권을 기존 대비 3000억원 확대한 총 3조3000억원 발행하기로 했다. (사진 연합뉴스)지역 소상공인의 매출 회복을 견인하도록 지역사랑·온누리상품권을 기존보다 5조3000억원 더 늘려 추가 발행한다. 정부는 방역상황 안정화에 맞춰 추석 연휴(9월말), 코리아세일페스타 플러스(11월초) 등 기간에 10% 할인된 판매 물량을 확대하기로 했다. 농어가 소비를 유도하기 위해 농·축·수산물 소비쿠폰 1100억원치를 발행한다.   지방정부의 곳간도 채워진다. 지방교부세(금) 12조2000억원이 보강(지자체 5조9000억원, 지방교육청 6조3000억원)된다. 추가세수로 인한 교부세(금)이 지역경제 활성화에 최대한 활용되도록 유도한다는 방침이다.   홍남기 부총리는 "국민지원금, 소상공인 피해지원금 등 추경 3종 지원패키지사업 등이 하루라도 빨리 국민들게 전달될 수 있기를 기대한다"며 "국회가 7월 임시국회 동안 신속한 추경심의를 통해 하루라도 빨리 추경을 조기확정해 줄 것을 요청한다"고 말했다.</t>
-  </si>
-  <si>
-    <t>2차 추경 33조, 국무회의 의결홍남기 부총리 겸 기획재정부 장관이 지난 29일 서울 광화문 정부서울청사에서 열린 ' 2021년 제2회 추가경정예산안 관련 관계부처 합동브리핑'에서 모두발언을 하고 있다. 기재부 제공정부가 2차 추가경정예산을 편성해 전국민 소득 하위 80%를 대상으로 1인당 25만원의 국민지원금을 지급한다. 집합금지·집합제한 조치를 받거나 경영위기업종에 해당하는 소상공인과 소기업 113만명을 대상으로는 100만~900만원의 희망회복자금을 지급한다. 아울러 최근 발표됐던대로 1인당 최대 30만원의 신용카드 캐시백도 시행된다.정부는 1일 청와대에서 임시 국무회의를 열고 이같은 내용을 담은 2차 추경안을 심의 의결했다. 추경안은 2일 국회에 제출된다.이번 추경은 모두 33조원 규모다. 추가세수 31조 5000억원과 지난해 세계잉여금 1조 7000억원, 기금재원 1조 8000억원을 모두 합쳐서 진행된다. 특히 이 가운데 2조원은 채무 상환에 쓰기로 했다. 이 때문에 국가채무규모는 965조 9000억원에서 963조 9000억원으로 약간 줄어든다.기초생활수급자 등 추가 10만 원가구별 지급액 상한 두지 않기로소상공인 100만~ 900만 원 보상1억 넘는 ‘맞벌이’도 지급 검토■ 소상공인에 최대 900만원먼저 소상공인지원법을 개정해 7월 이후 집합금지·제한조치 소상공인의 손실을 보상하게 된다. 7월 이후의 사업소득 감소분에 대해 보상을 한다. 소급보상은 안되는 것으로 오늘 오후 본회의에서 의결될 가능성이 크다. 손실보상에는 올해 1조 2000억원이 소요될 예정인데 이 가운데 정산할 때 걸리는 기간을 감안해 7~9월분 6000억원의 예산이 추경이 올라왔다.‘소상공인 희망회복자금’은 2020년 8월 이후 한번이라도 집합금지·제한조치를 받거나 경영위기업종에 해당하는 소상공인·소기업을 대상으로 한다. 금지업종 20만명, 제한업종 76만명, 여행업 등 17만명이다. 2019년 이후 1개 반기(6개월을 의미)라도 전년대비 매출이 줄었다면 지원한다. 특히 방역수준과 기간 등 업체별 피해정도를 최대한 반영해 기존 7개에서 24개로 유형을 세분화했다. 지난해 연매출이 4억원 이상된 집합금지 업종이 최대 900만원을 받고 매출 8000만원 미만 업종 중 매출이 20~40% 감소한 경영위기업종에는 가장 작은 금액인 100만원이 지급된다.■ 일반 국민지원금 1인당 25만원일반 국민 지원금은 가구소득 하위 80%를 대상으로 1인당 25만원이 지급된다. 4인가구는 100만원, 5인가구는 125만원이 지급된다. 직장·지역가입자의 건강보험료를 활용해 대상을 선정하는데 신용·체크카드·선불카드 등을 선택해 수령할 수 있다.여기에 기초생활수급자, 차상위계층, 한부모가족 등 저소득층 296만명에게는 1인당 추가로 10만원을 더 지급한다. 이는 현금으로 지급된다.이미 보도된대로 신용카드 캐시백은 2분기 월평균 카드사용액보다 3% 이상 증가한 월 카드사용액에 대해 10%를 캐시백으로 환급하는데 1인당 30만원이 최대 한도다. 모두 1조 1000억원의 예산이 잡혔다.■ 백신·방역 보강추경에는 백신방역을 보강하는 예산도 있다. 올해 1억9200만회분의 백신 확보, 내년 변이바이러스 대응 백신 선구매와 최대 4700만명(전국민의 90%)까지 접종 가능하도록 지원한다.코로나 백신접종으로 인한 사망·장애보상금이 최대 4억 4000만원까지 지급되고 인과성이 불분명한 중중 이상반응시 치료비를 최대 1000만원 지원한다.글로벌 백신허브 구축을 위해 백신·원부자재 생산을 위한 필수시설·장비 지원, 국내백신 개발 임상비용 지원 등에도 모두 2000억원의 예산이 잡혔다.■ 16만 4000명 신규 일자리이와 함께 일자리, 취약계층 지원 등 민생경제 개선 지원에 2조 6000억원의 예산이 잡혔다. 신규일자리 창출(16만 4000명), SW·조선업 등 현장 수요가 높은 분야 인력 양성(8만 8000명), 고용안전망 보강(15만 4000명) 등에 지원된다.청년들을 대상으로 AI 등 신산업분야 및 지역기반 기업의 채용지원과 체육·공연·관광·교육 등 청년수요가 높은 분야 일자리를 3만명 늘리고 직업계고 학생 자격증 취득비 50만원, 전문대 재학·졸업생의 자격증 취득비 70만원도 지원된다.지역경제 활성화를 위해 지역·온누리상품권 5조 3000억원과 농어민을 위한 농·축·수산물쿠폰 1100억원 어치가 추가 발행된다.추경 자금 중 지방교부세 5조 9000억원, 지방교육재정교부금 6조 3000억원을 지급해 코로나19 피해지원금 지방비 매칭 등을 지원하게 된다.</t>
-  </si>
-  <si>
-    <t>신규 창출 일자리 중 70% 이상은 ‘세금 일자리'전문가들 “경제 전반에 마이너스인 고용정책”청년층 분노 원인 일자리·집값 폭등인데 ‘임대주택’이 대책? 근본 구조 해결 못하는 ‘미봉책'        정부가 신종 코로나 바이러스 감염증(코로나19) 사태 대응을 위한 올해 2차 추가경정예산안(추경)을 편성하고 총 1조1000억원의 예산을 투입해 신규 일자리 창출과 신산업 인력양성, 고용안전망 보완 등 고용 회복 대책을 펼친다. 16만4000개의 신규 일자리를 창출하고, 소프트웨어(SW)와 조선업 등 신산업과 주력산업 분야에서 8만8000명의 인력을 양성한다는 목표다. 실업자 채용 진작 등 고용 유지 노력을 더해 총 40여만명을 지원하겠다는 방침이다.이같은 정부 일자리 정책에 대해 실효성이 떨어진다는 지적이 빗발친다. 새롭게 창출하겠다는 일자리 중 70% 이상이 정부 재정을 동원해 만든 ‘직접일자리’이기 때문이다. 직접일자리는 단기·단시간 일자리로 ‘온전한 일자리’로 보기 힘들기 때문이다. 앞서 정부의 고용대책이 세금으로 추락하는 고용 지표를 메우는 데 그친다는 비판이 계속 제기됐지만 이번 추경에서도 이를 되풀이하고 있는 셈이다.지난달 13일 오후 서울 마포구 서울서부고용복지플러스센터가 실업급여 신청을 위해 찾은 시민들로 북적이고 있다. 신규 일자리 16만개? 10개 중 7개가 ‘직접일자리’        정부는 1일 이같은 내용의 2차 추가경정예산안을 발표했다. 고용회복을 위해 총 1조1000억원을 투입, 40만 명 이상 규모의 고용 조기회복을 지원한다는 방침이다. 전체 예산 중 600억원을 들여 16만4000개의 신규 일자리를 창출하고, 200억원을 투입해 소프트웨어(SW)와 조선업 등 신산업과 주력산업 분야에서 8만8000명의 인력을 양성한다는 목표다. 고용유지지원 등 고용안전망 보완으로는 400억원을 투입, 15만3000개 일자리를 유지하겠다는 목표다.하지만 이를 들여다보면 신규 일자리창출 사업 중 민간이 담당하는 부분은 전체 30% 정도로 나머지는 모두 정부 직접 일자리 사업이다. 실업자 채용을 지원하는 특별고용촉진장려금 확대를 통한 ‘일자리 조기회복’ 대상인 3만명과 청년 고용촉진으로 신산업 분야 및 지역기반기업 채용지원(1만8000명) 등을 제외하고는 단기 재정일자리에 불과하다. 기재부 관계자는 “신규 창출 일자리 중 민간 채용 부분이 5만명 이상으로 측정된다. 이를 제외한 나머지는 모두 직접일자리 사업”이라고 설명했다.정부가 창출하겠다고 한 16만4000개의 일자리 중 10만개 이상이 정부가 제공하는 세금 일자리인 셈이다. 고용회복의 척도가 되는 ‘전일제 일자리’를 늘리는 것이 아니라 재정을 투입해 임시 방편으로 상황을 모면하고 있다는 비판이 나오는 이유다. 전문가들은 지속가능성이 없는 직접일자리 정책은 경제 전체에 오히려 마이너스(-)라고 지적한다.김소영 서울대 경제학과 교수는 “직접 일자리는 복지 차원으로 돈을 주는 차원이지 고용대책이 될 수 없다. 지속가능성이 없고 생산성이 없어 경제 전체적으로 전혀 도움이 되지 않는다”라면서 “직접일자리가 후일 취업에 도움이 되는 경험이 될 수도 없고, 오히려 직접일자리만 전전하다 취업기회를 상실하게 될 수도 있다. 생산의 측면을 전혀 고려하지 않고 지표상 숫자만 만들자는 취지의 정책을 되풀이하고 있다”고 말했다.신산업 인력양성, 고용안전망 24만1000명 지원…”실고용으로 연결돼야”        정부는 총 2000억원을 투입해 신산업과 주력산업에서 8만8000명의 인력을 양성한다는 계획이다. SW 인력 양성의 경우 기업주도형 인력양성모델을 확대해 1만명을 추가 양성하고, 청년 구직자를 위해 기업 주도형 소프트웨어 인력양성 과정(3000명)을 신설한다. 재직자를 위해서는 SW분야 기업 맞춤형 훈련방식을 신설해 지원(4000명)하고 산업현장 수요에 맞춰 AI복합교육 과정을 확대하고(+400명), SW중심대학을 5개소 추가 선정한다.조선업의 경우 39억원을 투입해 한시 특별 훈련수당(140만원)을 지급하는 채용연계 교육 규모를 기존 600명에서 1200명으로 두 배 늘리고 중소 조선사 대상 공동근로복지기금 지원을 확충한다. 건설업 종사자의 직업능력 향상을 위한 기능훈련 지원인원을 확대하고, 채용예정자 대상 사업주 직업능력 개발훈련 수당을 월(月) 20만원에서 30만원으로 한시 인상한다.정부는 고용안전망 보완에는 4000억원을 투입해 15만3000명을 지원한다는 계획이다. 항공·여행·영화업 등 특별고용지원업종에 대한 90% 특례지원 기간을 6개월에서 9개월로 연장(2000억원)하고, 직업훈련 장기화시 생계비 경감을 위한 연 1%의 초저금리 생계비 융자(2000만원 한도) 대상을 확대(521억원)한다. 사고방지시설 설치 지원을 확대하고 안전 컨설팅 업종을 제조업에서 건설업까지 추가(407억원)한다. 장애인 구직 지원 서비스(44억원), 예술인 창작준비금 지원(272억원) 등이다.정부가 밝힌 지원대상 40만5000여명 중 신규 인력양성과 고용 안전망 보완 대상이 24만1000여명으로 전체 인원의 절반을 뛰어넘는다. 실제 고용 수요가 아니라 미래적 수요를 반영한 불확실한 숫자인 것이다. 이때문에 지원이 실질적인 고용으로 이어질 수 있는 후속·보완대책이 필요하다는 지적이 나온다.문재인 대통령이 지난해 12월 동탄 공공임대주택에서 살고 싶은 임대주택 현장점검에 나서 김현미 국토교통부 전 장관과 당시 후보자였던 변창흠 전 국토부 장관과 함께 단층 세대 시찰을 하고 있다.  청년 희망사다리 패키지…”임대주택 공급이 사다리냐” 비판도        정부는 코로나19 사태로 채용중단 등으로 타격이 컸던 청년층을 위해서는 앞서 밝힌 일자리 대책 외에도 창업, 주거, 금융 등 분야를 중점 지원하는 이른바 ‘희망 사다리 패키지’ 정책을 내놨다. 창업 생태계 조성을 위해 총 6000억원을 들여 1000억원 규모의 청년 전용 모태펀드(추경 600억원)를 신규 조성하고, 유망분야 창업기원 대상도 융자 규모를 3000억원 늘려 1조4000억원으로 확대한다. 예비 유니콘 기업에 집중 투자하는 스케일업 펀드도 기존 2500억원에서 5000억원으로 2배 확대한다. 이를 위해 추경 예산에서는 1000억원이 동원된다.청년 주거비 부담 완화를 위해서는 7000억원이 투입된다. 3000억원을 투입해 역세권·대학가 등의 청년이 선호하는 주택 5000호를 추가 확보해 청년에게 저렴하게 재임대하고, 전세반환 보증 보증료 인하 기간을 올해 말 까지 6개월 연장한다. 최근 ‘부실 논란’이 일었던 군(軍) 급식 제공 개선을 위해 내달부터 단가를 8790원에서 10000원으로 13.8% 대폭 인상한다.정부는 일자리부터 주거, 자산형성까지 다각적 지원을 통해 ‘희망사다리’를 구축하겠다는 계획이지만 20~30대의 ‘성난 민심’을 달랠 수 있을지에 대해서는 회의적인 시각이 많다. 특히 부동산 문제를 해결하지 않고는 근본적인 방안이 될 수 없을 것이라는 의견이 지배적이다. 민간 채용 축소로 인한 일자리 문제도 마찬가지다. 구조적 문제를 재정을 동원한 일회성 정책으로 해결할 수는 없다는 것이다. 임대주택 보급 확대를 두고서는 “청년은 임대주택에서나 살라는 것”이냐는 비판도 나왔다.성태윤 연세대 경제학과 교수는 “청년 지원이라는 취지는 좋지만 실효성이 없다. 결국 일자리 문제가 근본인데, 좋은 일자리를 찾아 자산 형성을 통해 주거 문제를 해결하는 것이 청년들이 원하는 것인데 이를 일회적인 재정지원으로 해결할 수는 없기 때문이다”라면서 “근본적인 문제를 해결하지 못하고 재정을 퍼주는 식의 지원은 지속 가능성도 없고, 수혜 층인 청년으로부터도 좋은 반응이 나올 지가 의문”이라고 말했다.</t>
-  </si>
-  <si>
-    <t>[2차 추경] 코로나 피해지원, 백신·방역, 민생 활력 역점기정예산 포함 36조…국채 발행 없이 추가 세수로만 편성© News1 이지원 디자이너(세종=뉴스1) 서미선 기자,한종수 기자,권혁준 기자,김혜지 기자 = 정부가 소득 하위 80% 가구에 1인당 25만원의 재난지원금을 지급한다. 그간 최고 500만원이었던 코로나 피해 소상공인 지원금은 최대 900만원으로 늘린다.신용카드 사용액의 10%를 환급해주는 '캐시백' 정책으로 소비 진작을 유도하는 한편 방역 지원, 고용 조기 회복, 지역경제 활성화 등 코로나19 위기 이전 수준으로 빠른 회복을 위해 역대 최대 규모의 자금이 투입된다. 정부는 1일 오전 열린 임시 국무회의에서 이런 내용을 골자로 역대 최대인 33조원 규모의 '2021년도 제2회 추가경정예산안'을 의결했다. 완벽한 방역지원과 코로나 피해지원, 격차해소, 경제회복을 위해 다시 한번 재정역할을 강화하겠다는 의지다.  ◇국민 지원금+소상공인 지원+카드 캐시백 3종 패키지이번 추경의 핵심은 Δ소득 하위 80%에 지급하는 국민지원금 Δ코로나19로 타격인 큰 소상공인 피해지원 Δ소비 진작을 위한 신용카드 캐시백(상생소비지원금) 등 이른바 '3종 패키지' 지원이다. 우선 정부는 가구소득 기준 소득하위 80%를 대상으로 총 10조4000억원을 들여 국민지원금을 지원한다. 코로나 이후 지난해부터 올해 초까지 네 차례 지원한데 이어 이번이 다섯번째다. 이번 5차 재난지원금은 4인 가구 기준 100만원으로 1인당 25만원이 지급된다. 다만 가구별 지원액 상한은 없어서 5인 가구일 경우 125만원을 지급받게 된다.저소득층을 위해 기초생활수급자, 차상위계층, 한부모가족에게는 1인당 10만원(4인 가구 기준 40만원)의 저소득층 소비플러스 자금을 추가 지원한다. 코로나 피해가 큰 소상공인을 위해선 손실보상 및 희망회복자금 3조9000억원이 투입된다. 지난해 8월 이후 단 1회라도 금지·제한조치를 받았거나 매출이 크게 감소한 여행·문화업계 등 경영위기업종의 소상공인 113만명이 대상이다. 집합금지업종 경우 지난 버팀목자금 플러스 대비 최대 400만원을 더해 최고 900만원까지 지원한다. 3종 패키지 마지막은 1조1000억원 규모의 상생소비지원금, 이른바 신용카드 캐시백이다.2분기 대비 8~10월에 추가로 사용한 신용카드 사용액에 대해 월 10만원씩 최대 30만원까지 환급을 해주는 것으로 소비 여력자, 특히 고소득층 등의 소비여력을 끌어내 소비 진작을 유도하기 위해 새롭게 시행하는 것이다. 정부는 신용카드 사용액의 10%를 캐시백하기 때문에 1조1000억원의 지원으로 총 11조원 규모의 민간 소비진작 효과가 나타날 것으로 기대하고 있다. ◇방역·고용안정·지역경제 지원에 추경의 절반이상 투입이번 2차 추경은 코로나 백신·방역 지원과 고용·민생 안정, 지역경제 활성화 등에 전체 추경액의 절반을 훌쩍 넘는 20조여원이 투입된 점도 특징이다. 우선 백신확보, 백신접종, 방역검사비 등 방역지원 예산으로 총 4조4000억원을 반영했다. 올해 백신 1억9200만회분 구입과 내년 백신 선구매 비용 1조5000억원과 올해 백신접종비 5000억원 등이다.또 코로나 PCR검사 확대, 격리자 생활지원, 일선 의료기관 손실보상비 등으로 2조2000억원을 투입하며 백산 관련 사망·장애 피해보상이나 국내 백신개발 지원 등 국가책임 강화예산, 백신자주권 확보 예산 등도 반영됐다. 40만명 이상 규모의 고용 조기 회복을 위해선 1조1000억원을 투입한다. 신규일자리 창출(16만4000명), 소프트웨어(SW)·조선업 등 현장 수요가 높은 분야 인력 양성(8만8000명), 고용안전망 보강(15만4000명) 등이다.  청년만을 위한 일자리·창업·주거·금융 4대 분야 지원에는 1조8000억원을 투입한다.청년 일자리 13만개 창출과 혁신기업을 창업할 수 있도록 청년전용 모태펀드(1000억원)를 신규 조성하고 스케일업 펀드와 글로벌 투자펀드는 2배 확대해 각각 5000억원, 4000억원 규모로 지원한다.청년 주거지원엔 7000억원을 들여 역세권·대학가 등 전세임대주택을 기존 1만1000호에서 5000호 더 확보한다. 전세보증금 반환보증료 70~80% 인하 기간은 6개월 연장한다. 청년내일채움공제 지원대상은 10만명에서 12만명으로 늘린다.취약계층 지원을 위해선 내년 1월로 예정된 생계급여 부양의무자기준 폐지시기를 3개월 앞당긴 올 10월 폐지한 뒤 4만9000가구엔 생계급여, 18만7000가구엔 에너지 바우처를 추가로 준다.문화·예술·관광 분야 피해 지원은 3000억원이 투입된다. 중소여행사, 여행·공연·체육 일자리 회복 지원과 저소득 예술인 창작 지원, 스포츠·영화·철도버스·체육·문화 5종 쿠폰·바우처 신규·추가 발행 등이다. 지역경제 활성화를 위해 지역 소상공인이 매출회복을 견인할 수 있도록 지역사랑상품권·온누리상품권을 확대 발행하며, 지방재정 대폭 보강을 위해 지방교부세와 지방교육재정교부금이 계상된다. ◇2조원 채무 상환에 쓰고도 세출증액 기준 역대최대 추경이번 33조원대 이른바 '슈퍼추경'은 기본적으로 추가 세수를 활용해 적자국채 발행 없이 편성한 것이 특징이다. 기획재정부에 따르면 2차 추경 재원은 Δ추가 세수 31조5000억원 Δ세계잉여금 1조7000억원 Δ기금재원 1조8000억원 등 총 35조원이다. 확보한 재원 중에 2조원은 국가채무 상환에 활용했다는 점도 눈에 띈다. 초과세수가 상당한 만큼 일부는 채무상환에 사용되는 게 맞다고 판단한 것이다.국가 채무상환에 따라 GDP 대비 국가채무 비중은 48.2%에서 2차 추경 후 47.2%로 1%포인트(p) 낮아질 것으로 정부는 전망했다.홍남기 부총리 겸 기획재정부 장관은 "이번 추경은 세출증액 기준 역대 최대규모로 기정예산을 활용한 지원분 3조원까지 포함하면 총 36조원 수준"이라며 "필요한 곳에 필요한 만큼 촘촘히 지원되도록 맞춤노력을 기울였다"라고 강조했다. 정부는 이번 2차 추경안을 2일 국회에 제출한다. 제출 후에는 추경 사업이 차질 없이 집행되도록 범부처 추경TF를 가동, 사업대상자 선정·집행을 위한 세부기준 마련과 집행기관 간 협업체계 점검 등 사전준비를 병행할 예정이다. 홍 부총리는 "추경안이 국회에 제출되면 국회예산심의 대비와 함께 추경사업 집행 사전준비에도 즉각 착수하겠다"라며 "국회가 7월 임시국회 동안 신속한 추경심의를 통해 하루라도 빨리 추경을 조기확정해 주실 것을 간곡히 요청 드린다"고 밝혔다. © News1 최수아 디자이너</t>
-  </si>
-  <si>
-    <t>구인 정보 게시판[연합뉴스 자료사진](서울=연합뉴스) 이영재 기자 = 정부가 1일 임시 국무회의에서 의결한 2차 추가경정예산안에는 고용 회복 지원을 위해 1조1천억원을 투입한다는 내용도 포함됐다.    신종 코로나바이러스 감염증(코로나19) 사태 이전 수준으로 노동시장을 빠르게 회복하기 위한 재정 투입이다.    우선 정부는 6천억원을 투입해 16만4천개의 일자리를 창출하기로 했다.    중소기업이 실업자를 채용할 경우 정부가 사업주에게 인건비를 지급하는 '특별고용촉진장려금' 지원 대상을 3만명 확대한다.    또 인공지능(AI)과 소프트웨어(SW)를 포함한 신산업 분야와 지역 기반 산업 채용 지원 등을 통해 청년 일자리 3만개를 창출한다.    코로나19 백신 접종 보조 등 백신·방역·안전 수요 대응 분야에서도 6만7천개의 일자리를 창출하고 노인, 저소득층, 장애인 등 취업 취약계층에는 3만7천개의 일자리를 제공한다.    직업훈련과 인력 양성 사업에도 2천억원을 투입해 8만8천명을 지원한다. SW 업종에서는 기업 주도형 인력 양성 사업을 확대한다. 이를 통해 인력 양성 규모를 32만4천명에서 41만3천명으로 늘린다. SW를 포함한 신산업 분야 직업훈련인 'K-디지털 트레이닝' 지원 대상도 3천명 확대하고 재직자를 대상으로 한 SW 분야 기업 맞춤형 훈련을 통해 4천명을 지원한다.    고용 회복에 어려움을 겪는 조선업에 대해서는 1인당 140만원의 한시 특별 훈련수당을 지급하는 채용 연계 교육 등을 확대하고, 건설업에서는 종사자의 용접·배관 등 직업 능력 향상을 위한 기능 훈련 지원 대상을 늘린다.    고용 안전망 보완을 위해서는 코로나19 사태로 고용 충격이 집중된 항공업 등 특별고용지원 업종에 대한 고용유지지원금 특례 지원 기간을 6개월에서 9개월로 확대한다. 여기에는 2천억원이 투입된다.    이 밖에 직업훈련을 받는 사람을 대상으로 한 생계비 융자 확대(500억원), 사고 방지 시설 지원 등 산재 예방(400억원), 장애인 구직 지원 서비스 등 취약계층 지원(300억원) 등을 위한 예산도 편성됐다. ljglory@yna.co.kr</t>
-  </si>
-  <si>
-    <t>제 2창업 선언하며 새 도약 나서..."스마트 세상 선도 그레이트 컴퍼니 될 것"기업용 IT 솔루션 구축 및 컨설팅 전문 기업인 타임게이트가 1일 새로운 '지휘자'를 맞는다. 전화재 전 대표와 창립멤버로 영업 및 기획통인 신승호 전 부사장이 이날 정식으로 새 대표에 취임한다. 전임 전화재 대표는 회장으로 남아 신 대표를 자문하고 돕는다.특히 이날 타임게이트는 신승호 대표 체재를 맞아 제 2창업을 선언하며 새로운 도약에 나선다. 'IT인프라 솔루션 구축을 넘어, 스마트한 세상을 선도하는 기업'이라는 새로운 비전도 만들었다.7월 1일 정식 대표 취임을 하루 앞둔 30일 지하철 2호선 뚝섬역 인근 본사 사무실에서 만난 신승호 대표는 "디지털 대전환 바람이 거세지는 중요한 시기에 새로 대표를 맡아 어깨가 무겁고 막중한 책임감을 느낀다"면서 "5년안에 매출 1000억원에 이익 100억원을 달성하겠다"는 포부를 밝혔다. 매출 1000억원 중 200억원은 자체 솔루션으로 이뤄낼 계획이다.신 대표는 "내년은 타임게이트가 창립 15주년이 되는 뜻깊은 해"라며 "창립 후 IT인프라 구축 시장에서 견고히 자리 매김했는데 앞으로 기업가치를 높이고 사회 공헌 활동도 확대하겠다"고 말했다.신승호 타임게이트 대표.가 회사 로고를 배경으로 포즈를 취했다. 신 대표는 7월1일부로 타임게이트 2대 대표가 됐다.타임게이트는 영업이익 확대를 위해 자체 솔루션 사업을 강화한다. 기존 솔루션 유통과 기술 지원에 이어 시장에 '파괴적 혁신'을 주는 자체 솔루션을 개발해 연내 선보인다. 신 대표는 어떤 회사를 만들어 갈 것이냐는 질문에 "국내에는 롤 모델이 없다. 솔루션 유통 및 기술지원에 더해 자체 솔루션까지 성공시킨 회사는 아직 보지 못했다"며 "우리가 이걸 해내 누구나 인정하는 '온리 원(Only One) 컴퍼니'와 '그레이트(great) 컴퍼니'가 되겠다"고 강조했다.인하대에서 기계공학을 전공한 그는 한양대에서 경영학 학사 학위를 다시 받았다. 경영학 학사를 받자마자 고려대 경제학 석사에도 도전, 끝까지 마쳤다. 새로운 지식에 대한 갈구가 높은데다 늘 긍정적이고 열정적이다. 2007년 전화재 전임 대표와 함께 타임게이트를 공동으로 창업하기전 근무한 회사에서도 '영업맨 1호'로 명성을 날렸다. 영업이 뭐냐는 질문에 그는 "사람의 마음을 얻는 것"이라며 "근 30년 가까이 영업현장에서 울고 웃으며 많은 걸 배웠다"고 말했다.그가 새로 지휘봉을 잡은 타임게이트는 기업용 IT 솔루션 구축 및 컨설팅 전문 기업이다. 시스코 등 IT 솔루션 분야 글로벌 기업들과 파트너십을 맺고 IT인프라 서비스를 제공한다. 고객이 주요 기업 및 공공 기관 등 250여 곳에 달한다. 특히 임직원 70% 이상이 엔지니어인 '기술 강소기업'이다. 급변하는 IT 트랜드에 맞춰 지속적으로 연구개발 및 기술력 강화에 힘쓰고 있다. 중소기업청 주관 혁신기업 기술개발사업자에 선정, 과업을 성공적으로 수행하면서 대내외적으로 자체 기술력을 인정받기도 했다. 소프트웨어(SW)연구소를 중심으로 인공지능(AI) 학습용 데이터 구축 기술 개발과 클라우드 포탈 솔루션 연구에도 심혈을 기울이고 있다.타임게이트는 사규에 정년이 없다. 신 대표는 "건강이 허락하는한 60세, 70세까지 다닐 수 있는 회사(웃음)"라며 "One team TG(타임게이트), 인조이 TG(Enjoy TG), 해피 TG(Happy TG)를 기치로 합리적이고 스마트한 기업문화를 만들어가겠다"고 밝혔다.타임게이트 사업은 크게 솔루션 사업부, 클라우드 사업부, 컨설팅 사업부 등 3개로 구성돼 있다. 솔루션사업부는 오라클 등 다양한 글로벌 기업의 제품을 공급하고 유지보수 및 기술지원을 한다. 빅데이터와 머신데이터 플랫폼인 스플렁크(Splunk)와 오픈소스 최고 기업인 레드햇, SDDC 리더인 시스코(CISCO), 클라우드 전환을 지원하는 마이그레이션(Migration) 솔루션 과 오픈소스 DB, 업무 자동화 솔루션 RPA 분야 리더인 유아이패스(UiPath) 등의 솔루션을 공급하고 있다.클라우드 사업부는 시트릭스와 안랩 및 일부 보안 솔루션이 메인 비즈니스다. 타임게이트는 시트릭스의 최고 파트너 등급인 '플래티넘 플러스'이기도 하다. 지난해 'APAC네트워크 최고 파트너 회사'로 선정됐다. 안랩의 방화벽 IPS DDoS 공격방어 장비도 공급하고 있다.신승호 대표가 새 대표이사로서 포부를 말하고 있다.컨설팅 사업부는 각 분야에서 15년 이상 경력을 지닌 베테랑급 팀 리더 이상 최고 엔지니어들이 주축으로 구성됐다. 신 대표는 "최근 IT 트랜드를 보면 단일 솔루션 만으로는 원하는 서비스를 구축할 수 없는 경우가 대부분이다. 개개 솔루션들이 유기적으로 연결돼야 최고 서비스를 제공할 수 있다. 또 보안성이 높아야 향후 신규 서비스가 추가되더라도 유기적으로 운영할 수 있는 오픈 인터페이스를 지원한다"면서 "타임게이트는 이 분야에서 최고 경쟁력을 자랑한다"고 강조했다.타임게이트를 포함해 국내에 많은 IT솔루션 딜리버리 및 유통사들이 있다. 신 대표는 타임게이트만의 차별점에 대해 "솔루션별 최고 엔지니어를 보유하고 있다는 점"이라며 "엔지니어 없이 솔루션 납품에만 집중하는 다른 기업과 달리 우리는 고객사와 벤더사에서 검증된 최고 기술력을 가진 엔지니어들이 솔루션을 지원한다"고 말했다. 이어 "우리는 고객사가 최고 기능을 발휘 할수 있도록 설계와 구축, 지원 업무를 수행한다. 필요한 경우 자체적으로 솔루션을 개발해 고객사에 서비스를 제공한다"면서 "이미 다양한 레퍼런스를 통해 고객사와 벤더사들에게서 인정 받았다"고 설명했다.타임게이트 매출은 크게 제조, 통신, 금융, 공공 부문에서 나온다. 창업 초기에는 제조 분야 위주로 했다. 사업 영역을 넓히면서 금융과 공공 부문에서도 눈에 띄는 성과를 거두고 있다. 신 대표는 "매출과 이익 두 마리 토끼를 잡기위해 매진하고 있다"며 "사업영역을 통신 부문까지 넓히는 등 국내 주요 산업군에서 다양한 고객사를 확보하겠다"는 의지를 내비쳤다.자체 솔루션과 관련해 신 대표는 "창업 초기부터 기술연구소를 설립해 자체 기술력을 쌓아 왔고, 이를 기반으로 혁신기술개발사업 과제 수행자로 선정돼 티지브이포털(TGVPortal) 솔루션을 개발했다"면서 "이를 바탕으로 뷰포인트(ViewPoint) 제품군도출시했다"고 말했다. 기술연구소에서 축적한 클라우드 및 포탈 개발 역량을 바탕으로앞으로 프라이빗 및 하이브리드 클라우드 포털 솔루션을 개발해 선보일 예정이다.엘리베이터를 타고 내리면 타임게이트 직원들 사진이 가장 먼저 보인다. 신승호 대표가 직원들 사진을 배경으로 포즈를 취했다.매년 10~30%씩 성장해 온 타임게이트는 고용노동부 청년친화 강소기업과 서울시 서울형 강소기업 및 하이브랜드기업에 선정된 바 있다. 신 대표는 "IT업계 특성상 인재들 연령대가 20~30대가 주류를 이루고 있다. 특히 타 업종과 달리 여성 인재들 비율이 높은 편"이라며 "앞으로도 일하기 좋은 기업문화를 조성하는데 더 노력할 생각"이라고 말했다. 이어 "임직원 개개인의 역량을 키울 수 있는 교육 기회를 많이 제공하려 한다"면서 "직원들이 타임게이트와 함께 행복하며 미래를 꿈꿀 수 있는 것이 무엇일까를 늘 고민하고 있다"고 말했다.2007년 설립 이래 지난 14년간 큰 변화없이 성장을 달려온 타임게이트는 신 대표 체재를 맞아 컨설팅을 강화하는 등 조직에 변화를 줬다. 기존에 신 대표가 맡았던 영업 총괄은 김경철 부사장이 맡았다. 대신 신 대표는 자체 솔루션 개발과 신규 사업에 주력할 생각이다.신 대표는 "변화한 조직이 안정적으로 유지되도록 하는데 당분간 주력할 생각"이라며 "올해 꼭 이루고 싶은 목표 중 하나는 자체 솔루션의 성공적 론칭"이라고 밝혔다. 상장 플랜도 밝혔다. "올해 론칭하는 솔루션을 근간으로 몇 년 후 상장할 계획을 갖고 있다"면서 "우리가 개발한 차제 솔루션만으로 내년에 100억원을 달성하겠다"고 말했다. 이어 "그동안 타임게이트를 아껴주시고 믿음 주신 고객분들께 진심으로 감사드린다"면서 "고객이 필요로 하는 최고의 인프라 솔루션을 제공하는 기업으로서 급변하는 IT환경에 선제적 대응이 가능한 최고의 서비스를 지속적으로 제공하겠다"고 밝혔다.</t>
-  </si>
-  <si>
-    <t>슈퍼트랙은 최근 메이크엑스 설명회를 개최하고, 관련 내용을 소개했다.슈퍼트랙이 로보틱스 대회 '메이크엑스(MakeX) 2021 코리아'를 개최한다. 지난해에는 코로나19로 온라인으로 개최했지만 올해는 8월 28일 온·오프라인으로 진행한다.만 6∼16세 대상으로 자율주행로봇과 로봇조종 두개 부분으로 진행된다. 지원 신청은 슈퍼트랙 원더코드 사이트에서 가능하다. 우승과 준우승자에게는 세계대회 참가권이 주어진다.메이크엑스에서는 한국학생 선전이 이어졌다. 작년에는 최수연(14세, 비욘드코딩학원) 학생이 상위 5명만 받는 대상을 수상, 세계대회 참가권을 획득했다. 2020-21 메이크엑스 스타터 국내 대회 대상 두개 팀도 세계대회 참가권을 확보했다.최우수 운영기관에 수여하는 엑셀런트 오가니제이션상은 비욘드코딩학원이 수상했다. 슈퍼트랙은 메이크엑스 활성화를 위해 글로벌 캠프 유치를 추진한다. 전문 멘토나 심판 양성에도 힘쓴다.슈퍼트랙은 청소년 소프트웨어(SW) 창의성 증진과 자율주행 로봇교육 활성화를 위해 메이크엑스를 국내 유치했다. 지난 3년간 코드클럽한국위원회, 이티에듀와 메이커 히어로즈 대회를 주관했다. 2020년부터는 메이크엑스 한국대회 운영 총괄도 맡았다.서현주 슈퍼트랙 이사는 “유치부부터 고등부까지 메이크엑스 모든 대회를 국내 유치했다”면서 “메이커 문화 확산과 자율주행 로봇 교육 활성화에 기여하겠다”고 말했다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		삼성전자가 1일 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다.삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재 발굴·양성을 위해 2015년부터 실시해온 경진대회다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다. 이 대회는 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어중심대학협의회가 후원한다. 지난해까지 1만1354팀에서 청소년 3만967명이 대회에 참여했다.초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심 있는 누구나 참가할 수 있다. 이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.</t>
-  </si>
-  <si>
-    <t>이민석(왼쪽) 이노베이션아카데미 학장과 이주완 메가존클라우드 대표가 사진을 찍고 있다. 이노베이션아카데미 제공    이노베이션 아카데미(학장 이민석)와 메가존클라우드(대표 이주완)가 디지털 인재육성과 개발자 생태계 활성화를 위한 업무협약(MOU)을 맺었다고 30일 밝혔다. 메가존클라우드가 보유한 클라우드 역량과 도입 사례를 기반으로 이노베이션 아카데미 교육생들이 우수한 클라우드 개발자로 성장할 수 있도록 관련 교육을 지원할 계획이다.양측은 세미나와 해커톤 등을 공동 진행하고 인턴십과 채용을 위해 유관 기업들의 현장 프로젝트에 교육생들이 참여할 기획을 제공하기로 했다. 클라우드 전문가로 인증 받기 위한 자격증 취득 교육과정에도 참여하도록 지원한다. 이노베이션 아카데미는 경쟁력 있는 소프트웨어 인재양성을 위해 과학기술정보통신부가 설립한 교육 기관으로, 2년제 비학위 과정에 교수·교재·학비가 없는 것이 특징이다. 창의적인 개발자 양성을 위한 혁신적인 교육 시스템인 '프로젝트-X'를 개발하고 있으며, 개발자 생태계 활성화를 위한 노력도 병행하고 있다. 메가존클라우드는 1998년 메가존을 창업한 후 2018년도에 분사, 현재까지 기업 클라우드 인프라와 빅데이터, AI서비스에 대한 전문성을 갖추고 현재 국내에서 활발하게 사업을 전개 중이다.이민석 이노베이션아카데미 학장은 "코로나 이후 디지털 전환 속도가 빨라지고 클라우드 환경도 함께 성장할 것"이라면서 "이노베이션아카데미 교육생들이 메가존 클라우드와  함께 클라우드 전문가로 성장하길 기대한다"고 밝혔다.이주완 메가존클라우드 대표는 "창의적이고 혁신적인 방식으로 SW 인재들을 육성하는 이노베이션 아카데미와 함께 현장 중심의 실무역량을 함양한 SW인재로 육성해 나갈 수 있도록 클라우드 기반의 AI, 머신러닝, 빅데이터 등 4차 산업혁명에 부합하는 최첨단 기술을 실제 상용화된 프로젝트 기반으로 협업해 나갈 것" 이라고 말했다.</t>
-  </si>
-  <si>
-    <t>2022 교육과정 개편 특별포럼공학한림원·AI미래포럼 공동 주최대입 과목에 포함 안되면 AI·SW교육 형식에 그칠 것 영어로 서구문명 배웠듯 이젠 AI 사고방식 배워야 생존교육과정 개편, 시대변화 반영하는 '애자일식 혁신' 필요AI미래포럼과 한국공학한림원이 30일 '2022 교육과정 개편, 한국의 미래를 좌우한다'를 주제로 'SW/AI 교육 긴급 특별포럼' 웨비나를 열었다. 오세정 서울대 총장(화면 둘째줄 맨 오른쪽), 이광형 KAIST 총장(셋째줄 맨 오른쪽), 박형주 아주대 총장(넷째줄 왼쪽) 등 참석자들이 안현실 AI경제연구소장(사진 오른쪽)의 진행으로 토론하고 있다.   /신경훈 기자“인공지능(AI)을 교육과정에 집어넣는다고 문제가 해결되진 않습니다. 대학입시에 반영되지 않는다면 AI·소프트웨어(SW) 교육이 형식화할 가능성이 큽니다. 수능을 자격시험화하고, 대학의 학생 선발 자율성을 늘리는 방법까지도 고려해야 합니다.”(오세정 서울대 총장)“AI와 프로그래밍언어 교육을 ‘영어 교육’에 빗대고 싶습니다. 100년 전 서양인의 사고방식을 영어로 배웠듯, 이젠 AI의 사고방식도 이해할 수 있어야 합니다. 교육이 제대로 안 된다면 후손들은 외국 기업들이 개발한 AI의 지배를 받고 살 것입니다.”(이광형 KAIST 총장)‘컴퓨터 교육의 대학입시 반영’ ‘초·중·고교 AI교육 의무화’. 국내 두 주요 대학 수장들이 제시한 ‘미래를 위한 정보화 교육의 키워드’들이다. 한국공학한림원과 AI미래포럼은 30일 국내 주요 대학 총장과 관련 전문가들을 초청해 ‘SW/AI 교육 긴급 특별포럼’을 열었다. 서울대와 KAIST 총장이 AI·SW 교육 대담 현장에 함께한 것은 이번이 처음이다. ‘2022 교육과정 개편, 한국의 미래를 좌우한다’를 주제로 열린 이번 포럼은 두 대학 총장을 포함해 박형주 2022교육과정개정추진위원장(아주대 총장), 김한일 한국컴퓨터교육학회장(제주대 교수), 정웅열 한국정보교사연합회장(백신중 교사) 등 10여 명의 전문가가 참석했다. 유연한 개편 위해선 애자일 개념 필요오세정 총장은 교육과정 개편 체제를 근본적으로 바꿀 것을 주문했다. AI·SW 교육 강화가 이해당사자들의 저항에 부딪혀 좌초될 수 있음을 우려한 것이다. 그는 “우리나라는 교육과정 지침이 정해지면 전국 초·중·고교와 대학들이 한 번에 영향권에 놓인다”며 “이 때문에 2015년 교육과정 개편 당시에도 코딩교육 몇 시간 넣는 데 엄청난 저항이 발생했다”고 말했다.해법은 ‘애자일식 개편’이다. 부처·기관 간 경계를 허물고, 몸집을 줄여 과목별 구분 개편이 현실적이라는 것이다. 오 총장은 “10년 뒤, 15년 뒤 세상이 어떻게 바뀔지 모르는데, 우리나라 교육과정 개편은 너무나 많은 시간이 걸려 시시각각 변하는 시대의 요구를 반영하지 못한다”고 꼬집었다. 이어 “교육부가 나라 전체 체제를 이끄는 현재 논의 방식을 포기해야 하며, 지자체·교육청·학교 단위의 자율적인 AI·SW 교육 시도가 있어야 한다”고 제안했다. “대학들이 공동으로 입시과목 반영에 보조를 맞춘다면 효과가 클 것”이라고 강조했다.이광형 총장은 빈약한 AI교육이 궁극적으로 외국 기술에 대한 종속으로 이어질 가능성을 우려했다. 그는 “지금도 우리는 마이크로소프트(MS), 구글과 같은 글로벌 기업들이 개발해놓은 시스템에 종속돼 있어 컴퓨터에서 한글 표기법조차 주체적으로 바꾸지 못한다”고 했다. “과거 영어 과목이 그랬듯, 미래 사회에서 성과를 인정받는 사람은 AI를 잘 활용하는 사람이 될 것”이라며 “이번 교육과정 개정을 통해 자손들이 AI를 지배하고 사는 ‘AI자주독립국가’가 되도록 선진국 수준의 정보 교육량을 갖춰야 한다”고도 했다. “정보교육 100시간대로 늘려라”교육과정 개편의 최대 쟁점인 ‘시수(교육 시간 총량) 문제’에서는 양보 없는 토론이 이어졌다. 한국컴퓨터교육학회 회장을 맡고 있는 김한일 교수는 “정보교육의 연속성이 크게 떨어져 있다”며 “세계적 추세를 고려해 초등학교에서 136시간, 중학교 204시간, 고교는 128시간으로 늘려야 한다”고 말했다. 현행 정보교육 시수는 초등학교가 17시간, 중학교가 34시간으로 운영되고 있다. 고등학교는 선택과목이다.그는 고등학교의 정보과목 분류 체계도 문제라고 했다. 김 교수는 “정보과목은 현재 생활교양영역 기술가정교과군에 소속돼 있다”며 “교과군을 독립시키지 않으면 누가 어떻게 가르치는지 파악도 어렵고, 고교학점제 도입 과정에서 학생들의 시야에서 밀려날 가능성이 있다”고 지적했다.이런 우려가 개편과정에 모두 반영되기는 쉽지 않을 전망이다. 2022교육과정개정추진위원장인 박형주 아주대 총장은 “디지털 대변화 시기에 앞서 SW 교육이 강화돼야 함에 공감한다”면서도 “개정에 관한 외부적 요인이 간단치 않은 상황”이라고 진단했다.그는 “시민단체 등에서 초·중·고교 전체 시수를 줄여야 한다는 요구가 나오고 있으며, 일선 지방교육청이 재량권을 일부 이전해달라는 요청도 있었다”고 밝혔다. “공통과목의 시수를 유지하는 것조차 어려워진 상황이라 정보교과를 공통과목처럼 취급하는 논의는 난관이 예상된다”고 했다. 박 총장은 “물리 수학 사회 등에서 AI 융합교육을 신설하고 과학교사와 정보교사가 해당 과목을 반씩 담당하는 것도 단기적 해결책으로 고려해볼 수 있다”고 말했다.이시은 기자 see@hankyung.com</t>
-  </si>
-  <si>
-    <t>2022 교육과정 개편 특별포럼전문가들 "교육 늘려라"한명의 교사가 9개 학교 담당 정보교사 없는 학교도 수두룩 학생 51% "SW·AI 배우고 싶다"초등학생 매주 1시간 교육 필요“학교에서 인공지능(AI) 소프트웨어(SW) 교육을 제대로 받고 싶다”는 학생과 학부모의 목소리가 커지고 있지만, 담당 교사는 턱없이 부족하고 교육 과정도 부실하다는 현장 전문가들의 비판이 쏟아졌다.정웅열 한국정보교사연합회장(백신중 교사)은 30일 한국공학한림원과 AI미래포럼이 ‘2022 교육과정 개편, 한국의 미래 좌우한다’를 주제로 연 웨비나에서 “AI와 SW를 가르치는 정보교과 교사가 너무 부족해 아이들이 IT를 배우고 싶어도 못 배운다”고 말했다.정 회장은 “중학교는 학교당 정보교사가 0.5명, 고교는 1.2명에 그친다”고 지적했다. 이어 “지역별 학교별 편차도 커서 정보교사가 한 명도 없는 학교가 수두룩하고, 한 교사가 9개 학교를 담당하는 경우도 있다”고 전했다. 낙후된 지역일수록 정보교사가 부족하기 때문에 교육 기회의 격차가 결과의 격차, 나아가 불평등 확대로 이어질 우려가 크다는 게 그의 주장이다.교육 시간 자체가 부족하다는 비판도 나왔다. 이준기 외삼초 교사는 “초등학교 6년 통틀어 SW 의무교육 시간은 17시간에 그친다”며 “전체 교육 시간이 5896시간임을 고려하면 0.03% 수준”이라고 말했다. 그는 “심지어 초등학교 정보교과는 교과서마저 없다”며 “제대로 된 정보 교육, 융합 교육은 언감생심”이라고 꼬집었다. 이어 “SW와 AI가 사회에 미치는 영향이 너무나 커졌는데 미래를 위한 교육 과정이 사실상 없다는 얘기”라며 “이대로면 한국의 미래가 불투명하다”고 했다.SW·AI 교육 수요는 날로 커지고 있다. 정 회장은 “최근 초·중·고교 학생을 대상으로 설문조사를 한 결과 응답자의 51.4%가 정보교육을 더 받고 싶다고 답했다”며 “정보교육이 꿈과 진로에 직결된다고 한 응답도 25%나 됐다”고 했다.SW 교육서비스기업 디랩의 맹원영 부사장은 “지방 학생에게 SW를 가르쳐주는 SW미래채움이란 사업이 있는데 경험자의 만족도가 100점 만점에 89.6점으로 나타났다”며 “그만큼 정보 교육에 대한 수요가 높다는 얘기”라고 했다.이 교사는 “2022년 개정 교육과정은 초등학생은 학년마다 매주 최소 1시간, 1년에 34시간의 정보교육을 하는 방향으로 가야 한다”고 강조했다. 강유석 봉일천고 교사는 “정보교육의 내용도 탐구 중심으로, 과학적 문제 해결 능력을 길러줄 수 있는 방향으로 실효성을 강화해야 한다”고 말했다.서민준 기자 morandol@hankyung.com</t>
-  </si>
-  <si>
-    <t>2022 교육과정 개편 특별포럼초·중·고 교육에 일찍부터 도입미국 등 선진국은 정보교육 분야에서 앞서나가고 있다. 빠르게 변화하는 디지털 시대를 내다보며 개발한 ‘미래형 교육체계’를 초·중·고교 교육체계에 일찍부터 도입하면서다.백은옥 한양대 소프트웨어대학장은 30일 한국공학한림원·AI미래포럼이 공동으로 주최한 온라인 웨비나 ‘SW/AI 교육 긴급 특별포럼’에서 “현행 우리나라 초·중·고교 교육체계에서는 디지털 역량을 키우기 어렵다”고 꼬집었다.선진국은 초·중·고교 교육과정부터 정보교육의 중요성을 강조하고 있다. 정보통신기술(ICT) 최강국인 미국이 대표적이다. 미국은 2017년 인공지능(AI) 교과서를 개발해 유치원부터 고등학교까지 보급하고 있다. 김한일 제주대 교수는 “선진국은 2015년 전까지만 해도 기본 ICT 교육 정도에 머물렀지만 이후 앞다퉈 정보교육을 심화 교과목으로 지정했다”고 말했다.다른 나라도 마찬가지다. 일본은 2015년부터 정보교육을 기본 과목으로 개설했다. 영국은 2017년께 AI 관련 교육 사이트를 개설해 초·중·고교 교육체계에 도입했고, 인도는 2013년부터 초·중등과정 정보교육 과정을 개발했다. 한국은 2018년 SW 의무교육을 시작했다.전문가들은 인력 확보 측면에서 주요 국가와의 격차가 더 크게 벌어질 것으로 우려했다. 문수복 KAIST 교수는 “해외 대학 입시에 활용되는 특정 교과목에 대한 전문성을 평가하는 AP 시험의 정규 과목인 CSP(computer science principles) 응시자는 과목이 개설된 지 3년 만에 두 배 이상 증가했다”며 “인력 양성면에서 외국과 비교했을 때 한국과 차이가 나는 건 사실”이라고 말했다.배성수 기자 baebae@hankyung.com</t>
-  </si>
-  <si>
-    <t>디지털 인재육성 및 개발자 생태계 활성화[이데일리 김현아 기자]△사진 좌측 이노베이션 아카데미 이민석학장, 사진 우측 메가존클라우드 이주완 대표다.(재)이노베이션 아카데미(학장 이민석)와 메가존클라우드(주)(대표 이주완)는 디지털 인재육성과 개발자 생태계 활성화를 위한 업무협약(MOU)을 체결했다.SW개발자를 양성하고 있는 이노베이션 아카데미와 클라우드 전문기업인 메가존클라우드가 함께 협력하기 위해 추진됐다.메가존클라우드가 보유하고 있는 성공적인 클라우드 도입 사례를 기반으로  이노베이션 아카데미 교육생들이 우수한 클라우드 개발자로 자리매김 할 수 있도록 관련 교육을 전폭 지원할 계획이다.이를 위해 이노베이션 아카데미와 메가존클라우드는 ▲세미나와 해커톤 등을 공동 진행할 예정이며 ▲인턴십과 채용을 위해 유관 기업들의 현장 프로젝트에 교육생들이 적극 참여할 기회를 마련하고 ▲클라우드 전문가로 인증 받기 위한 자격증 취득 교육과정에도 참여할 수 있도록 협력할 것이다.이노베이션 아카데미는 경쟁력 있는 소프트웨어 인재양성을 위해 과학기술정보통신부에서 설립한 혁신 교육 기관이다.2년제 비학위 과정에 교수·교재·학비가 없는 것이 특징이며, 프랑스 에꼴42 프로그램의 라이선스 형태인 ‘42seoul’을 운영하고 있다. 메가존클라우드는 1998년 메가존을 창업 후 2018년도에 분사, 현재까지 기업 클라우드 인프라와 빅데이터, AI서비스에 대한 전문성을 갖추고 현재 국내에서 활발하게 사업을 전개 중이다. 2009년 서비스형 소프트웨어(SaaS) 서비스를 시작으로 2012년 아마존웹서비스(AWS)를 처음으로 국내 사업을 하는 등 클라우드 분야 전문성을 보유하고 있다. 이노베이션 아카데미 이민석 학장은 “코로나 팬더믹으로 디지털 전환이 급격하게 이루어지고 있다”면서 “클라우드 기술과 환경도 함께 성장할 것이므로, 이노베이션 아카데미 교육생들이 메가존 클라우드와 함께 클라우드 전문가로 성장해 나갈 수 있기를 기대한다”고 밝혔다. 메가존클라우드 이주완 대표는 “창의적이고 혁신적인 방식으로 SW인재들을 육성하는 이노베이션 아카데미와 함께 현장 중심의 실무역량을 함양한 SW인재로 육성해 나갈 수 있도록 클라우드 기반의 AI, 머신러닝, 빅데이터 등 4차 산업혁명에 부합하는 최첨단 기술을 실제 상용화된 프로젝트 기반으로 협업해 나갈 것”이라고 말했다. 메가존클라우드는 교육을 수료한 학생들에게 인턴십 우대 프로그램을 제공하고, 국내는 물론 해외 지사에서도  근무 가능한 글로벌 인턴십 프로그램을 제공하기로 했다.</t>
-  </si>
-  <si>
-    <t>디지털 인재육성 및 개발자 생태계 활성화를 위해 협력  이노베이션 아카데미 이민석 학장(왼쪽)과 메가존클라우드 이주완 대표가 30일 디지털 인재육성과 개발자 생태계 활성화를 위한 업무협약(MOU)을 체결한 뒤 기념촬영을 하고 있다.  [파이낸셜뉴스](재)이노베이션 아카데미(학장 이민석)와 메가존클라우드(주)(대표 이주완)는 디지털 인재육성과 개발자 생태계 활성화를 위한 업무협약(MOU)을 체결했다고 30일 밝혔다.   이번 협약은 SW개발자를 양성하고 있는 이노베이션 아카데미와 클라우드 전문기업인 메가존클라우드가 함께 협력하기 위해 추진됐다.   이번 협약의 주요 내용은 메가존클라우드가 보유하고 있는 성공적인 클라우드 도입 사례를 기반으로 이노베이션 아카데미 교육생들이 우수한 클라우드 개발자로 자리매김 할 수 있도록 관련 교육을 전폭 지원할 계획이다.   이를 위해 이노베이션 아카데미와 메가존클라우드는 △세미나와 해커톤 등을 공동 진행할 예정이며 △인턴십과 채용을 위해 유관 기업들의 현장 프로젝트에 교육생들이 적극 참여할 기회를 마련하고 △클라우드 전문가로 인증 받기 위한 자격증 취득 교육과정에도 참여할 수 있도록 협력할 예정이다.   특히 메가존클라우드는 교육을 수료한 학생들에게 인턴십 우대 프로그램을 제공하고, 국내는 물론 해외 지사에서도 근무 가능한 글로벌 인턴십 프로그램을 제공하기로 했다.   이노베이션 아카데미는 경쟁력 있는 소프트웨어 인재양성을 위해 과학기술정보통신부에서 설립한 혁신 교육 기관으로 2년제 비학위 과정에 교수·교재·학비가 없는 것이 특징이며, 프랑스 에꼴42 프로그램의 라이선스 형태인 ‘42seoul’을 운영하고 있다.   이와 함께 창의적인 개발자 양성을 위한 혁신적인 교육 시스템인 Project-X를 개발하고 있으며, 개발자 생태계 활성화를 위한 노력도 병행하여 추진 중이다.   메가존클라우드는 1998년 메가존을 창업 후 2018년도에 분사, 현재까지 기업 클라우드 인프라와 빅데이터, AI서비스에 대한 전문성을 갖추고 현재 국내에서 활발하게 사업을 전개 중이다.   2009년 서비스형 소프트웨어(SaaS) 서비스를 시작으로 2012년 아마존웹서비스(AWS)를 처음으로 국내 사업을 하는 등 클라우드 분야 전문성을 보유하고 있다.   현재 국내 3,700여개 고객사와 1,400여명의 클라우드 전문가들과 함께 지난해 기준 5,400억원 매출을 기록하는 등 빠른 속도로 성장하고 있다. 또 미국, 캐나다, 중국, 일본, 홍콩, 베트남 등지에 해외지사를 설립하고 글로벌 시장을 공략하고 있다.   이노베이션 아카데미 이민석 학장은 “코로나 팬더믹으로 디지털 전환이 급격하게 이루어지고 있다” 면서 “클라우드 기술과 환경도 함께 성장할 것이므로, 이노베이션 아카데미 교육생들이 메가존 클라우드와 함께 클라우드 전문가로 성장해 나갈 수 있기를 기대 한다”고 밝혔다.   이 학장은 “메가존클라우드가 오픈소스 SW와 커뮤니티를 중시하는 기업인만큼 개발자 생태계를 위한 활동에도 지속적인 협력을 하자” 고 제안했다.   메가존클라우드 이주완 대표는 “창의적이고 혁신적인 방식으로 SW인재들을 육성하는 이노베이션 아카데미와 함께 현장 중심의 실무역량을 함양한 SW인재로 육성해 나갈 수 있도록 클라우드 기반의 AI, 머신러닝, 빅데이터 등 4차 산업혁명에 부합하는 최첨단 기술을 실제 상용화된 프로젝트기반으로 협업해 나갈 것” 이라고 말했다.</t>
-  </si>
-  <si>
-    <t>게티이미지뱅크한국인터넷진흥원(KISA)이 1일 중소기업 대상 소프트웨어(SW) 보안약점 진단 서비스를 시작한다. 중소기업이 SW개발보안허브를 방문해 보안약점 진단을 받을 수 있는 내방형 서비스도 7월 30일부터 시행된다.과학기술정보통신부와 KISA는 지난해 말 시행된 SW진흥법을 근거로 민간 SW개발보안 사업을 추진한다. SW 개발 단계부터 보안약점을 막아 침해사고로 인한 사회적 비용을 절감하기 위해서다. 민간 SW개발보안 사업이 시행되는 것은 올해가 처음이다.SW개발보안허브는 이를 위한 거점으로 7월 중 판교 정보보호클러스터에 개소한다. 정부는 보안 투자 여력이 부족한 중소 SW 사업자를 대상으로 진단 인프라를 구축·운영한다. 보안약점 진단 전문가가 상주하면서 보안약점 진단 도구와 컨설팅 등 전문 서비스를 제공한다.중소기업 SW 보안약점 진단 서비스는 이번 사업의 핵심이다. 각 기업이 보유한 서비스 가운데 'C', 'C++', 'C#', '자바', 'JSP' 등 8개 언어와 '전자정부' '스프링 프레임워크' 등 4개 프레임워크에 해당하는 SW가 진단 대상이다. 이외 언어 또는 프레임워크에 대한 진단 가능 여부는 별도 문의를 통해 확인할 수 있다. 진단 기준은 행정안전부 보안약점 기준 49개 항목이다.SW 보안약점 진단 서비스는 출장형과 내방형 등 '투트랙'으로 진행된다. 출장형은 중소기업이 신청하면 전문가가 방문, 소스코드 보안약점을 진단해주는 서비스다. SW 보안약점 진단을 받고자 하는 중소기업은 보호나라 홈페이지를 통해 신청서와 중소기업확인서(또는 벤처등록증) 등 서류를 접수하면 된다.출장형 서비스에서 KISA는 신청 기업 진단 대상 환경을 확인한 뒤 방문 일정을 조율해 전문가를 지원한다. 1차 진단이 끝나면 소스코드 보완과 이행 점검 일정을 협의하고 전문가가 재방문하는 2차 진단이 이뤄진다. 전체 소요 기간은 소스코드 보완 기간을 제외하고 약 7일이다. 출장형 서비스는 기업당 연 1회에 한해 지원할 수 있으며 예산 소진시 서비스 신청이 마감될 수 있다.내방형은 중소기업이 진단 인프라가 갖춰진 SW개발보안허브에 내방, 소스코드 보안약점 진단을 받을 수 있는 서비스로 마련됐다. SW개발보안허브는 진단 전문가가 상주해 진단 도구를 제공하고 SW개발보안 체험, 교육 등 서비스를 제공하는 공간이다.판교 정보보호클러스터 4층에 위치한다. 직접 허브를 방문해 보안약점을 진단하고자 하는 기업은 보호나라 홈페이지를 통해 서류 접수, 환경 분석을 거쳐 허브를 방문하면 된다. 소요 기간은 약 6일이다.중소기업이 정부 지원을 통하지 않고 자체적으로 이 같은 서비스를 받을 경우 적지 않은 예산이 필요하다. 보안약점 진단 서비스는 제공업체별로 비용이 다르지만, KISA에서 제공하는 서비스는 중소기업에 약 1000만원 규모의 혜택을 주는 것으로 추산된다.민간 개발자 대상 온·오프라인 교육도 진행한다. KISA는 SW개발보안 전문인력 양성을 위한 교육과정을 마련했다. 교육은 개발자와 대학생 대상 과정으로 구분돼 진행되며 개발자 대상 교육은 1일(4시간)으로 오프라인 5회, 온라인 5회(총 10회)가 예정됐다. 대학생 대상 교육은 3일(18시간)로 오프라인에서 총 4회 운영된다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     삼성전자가 7월 1일부터 미래 소프트웨어 인재를 발굴하고 양성하기 위한 청소년 대상 '2021 삼성 주니어 SW 창작대회'를 개최한다.삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원하며 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하는 과제로 지난해까지 11,354팀 30,967명이 참여했다.   이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 초등학교 4학년부터 중·고등학생까지 누구나 참가할 수 있고 코로나-19 상황을 고려해 전 과정이 온라인으로 진행된다.   아이디어만 있다면 소프트웨어를 잘 몰라도 대회에 참가해 사용자 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.   본선에 진출 팀에게는 임직원들이 참가팀들과 함께 아이디어를 발전시키고 소프트웨어 개발에 대한 심층적인 피드백을 제공하는 한편 3일 온라인을 통해 누구나 AI를 배우고 소프트웨어 명사 강의를 들을 수 있는 오픈 클래스도 연다.   최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개 팀이 선정돼 상금과 IT 제품을 부상으로 지급하고 수상팀이 속한 학교에는 노트북, 태블릿 등과 같은 IT 제품을 기부한다.   대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이며 7월 1일부터 21일 오후 4시까지 홈페이지(www.juniorsoftwarecup.com)에서 접수할 수 있다.</t>
-  </si>
-  <si>
-    <t>8월 13일까지 6주간 시행재학생 13명 교육비 전액 지원[서울경제] 동명대학교 SW중심대학사업단은 7월 1일부터 8월 13일까지 6주간 미국 유망 IT 기업과 함께하는 ‘동명대-캘리포니아주립대 연합 언택트 해외 SW리더 양성 프로그램’을 운영한다고 30일 밝혔다.1일 오전 10시 대학 중앙도서관 세미나실에서 열릴 오프닝행사에는 동명대 총장, 부총장, 국제교류본부장, SW중심대학사업단장, AI융합대학장, 참여학생 13명 등 22명이 참석한다. 미국에서는 캘리포니아주립대 스테니슬라우스 총장, 부총장, 국제교류원장, 컴퓨터과학과장, 기업체대표, 멘토교수, 참여학생 12명 등 19명이 참여해 교육을 소개한다.이번 웹 기술 비대면 융합 교육에서는 기업체 전문가 최신 웹 기술 강의와 함께 두 대학 학생들이 팀을 구성해 프로젝트를 수행하고 글로벌 기업 SW엔지니어 (구글, 아마존, LinkedIn, Nutanix, IBM ) 5명의 특강을 듣는다. 학생들의 글로벌 SW역량과 실무 능력을 향상시키는 것이 목표이다.동명대 SW중심대학사업단이 미국 캘리포니아주립대와 함께 ‘언택트 해외 SW리더 양성 프로그램’을 운영한다./사진제공=동명대이 교육은 지난 1월에 이어 2차로 마련됐다. 1차 교육에서는 학생 10명이 수료했다. 수료 학생들은 캘리포니아 주립대 학생들과 함께한 팀 프로젝트를 통해 협업 능력과 영어실력을 높였고 두 대학 교수들로부터 받는 멘토링 및 기업체 전문가의 특강을 통해 코딩 능력 향상과 최신 SW개발 기술 습득에 도움이 됐다고 말했다.동명대 SW중심대학사업단은 2차 글로벌 코딩 캠프에 참여하는 학생들을 대상으로 지난 21일부터 30일까지 인도 교수가 진행하는 실전적 SW영어 교육, SW전문용어 교육 및 영어 토론을 통해 영어 교육 적응을 돕고 있다.</t>
-  </si>
-  <si>
-    <t>동명대 캘리포니아주립대 SW 리더 양성 프로그램[동명대 제공]    (부산=연합뉴스) 조정호 기자 = 동명대 SW중심대학사업단은 7월 1일부터 8월 13일까지 6주간 미국 유망 정보기술(IT) 기업과 함께하는 캘리포니아주립대 연합 언택트 해외 SW리더 양성 프로그램을 운영한다고 30일 밝혔다.    7월 1일 열리는 기념식에는 전호환 동명대 총장, 캘리포니아주립대 스테니슬라우스 총장 등 두 학교 보직자와 참여 학생 20여 명이 참여한다.    이번 교육에서 두 대학 학생들은 팀을 구성해 프로젝트를 수행하고 글로벌 기업 SW 엔지니어(구글, 아마존, Linkedin, Nutanix, IBM) 5명으로부터 강의를 듣는다.     동명대와 캘리포니아주립대 비대면 연합 프로그램은 올 1월에 이어 두 번째다.    1차 교육에서 동명대 학생 10명이 과정을 수료했다.     동명대 SW중심대학사업단은 "참여 학생들은 캘리포니아 주립대 학생과 프로젝트를 하면서 협업 능력과 영어 실력을 높였고 대학 교수 멘토링과 글로벌 기업 전문가 특강을 통해 코딩 능력 향상과 최신 소프트웨어 개발 기술을 습득했다"고 말했다. ccho@yna.co.kr</t>
-  </si>
-  <si>
-    <t>동명대(총장 전호환) SW중심대학사업단(단장 조미경)은 7월 1일부터 8월 13일까지 6주간 미국 유망 IT 기업과 함께하는 동명대-캘리포니아주립대 연합 언택트 해외 SW리더 양성 프로그램을 운영한다.7월 1일 오전 10시 이 대학 중앙도서관 세미나실에서의 오프닝행사에는 동명대 총장, 부총장, 국제교류본부장, SW중심대학사업단장, AI융합대학장, 참여학생 13명 등 22명이 참석한다. 미국에서는 캘리포니아주립대 스테니슬라우스 총장, 부총장, 국제교류원장, 컴퓨터과학과장, 기업체대표, 멘토교수, 참여학생 12명 등 19명이 참여해 교육 소개 및 격려사를 한다.이번 웹 기술 비대면 융합 교육에서, 기업체 전문가 최신 웹 기술 강의와 더불어 양 대학 학생들이 팀을 구성하여 프로젝트를 수행하고 글로벌 기업 SW엔지니어 (구글, 아마존, LinkedIn, Nutanix, IBM ) 5명의 특강을 듣는다. 학생들의 글로벌 SW역량과 실무 능력을 향상시키는 것이 목표이다.이 교육은 2021년 1월에 이어 2차로 시행하는 것이다. 1차에서는 10명의 학생이 수료했다. 수료 학생들은 캘리포니아 주립대 학생들과 함께한 팀 프로젝트를 통해 협업 능력과 영어실력을 높였고, 양 대학 교수님들로부터 받는 멘토링 및 기업체 전문가의 특강을 통해 코딩 능력 향상과 최신 SW개발 기술 습득에 도움이 되었다고 말했다.동명대 SW중심대학사업단은 2차 글로벌 코딩 캠프에 참여하는 학생들을 대상으로 6월 21일부터 6월 30일까지 인도 교수가 진행하는 실전적 SW영어 교육, SW전문용어 교육 및 영어 토론을 통해 영어 교육 적응을 돕고 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		삼성전자가 7월 1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 밝혔다.2021 삼성 주니어 SW 창작대회_포스터삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.지난해까지 1만1354팀에서 3만967명의 청소년이 대회에 참여했다.삼성 주니어 SW 창작대회는 삼성전자가 주최하고, 교육부, 한국과학창의재단, 소프트웨어 중심대학 협의회가 후원한다.올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행한다. 초등학교 4학년부터 중고등학생까지 소프트웨어에 관심 있는 누구나 참가할 수 있다.코로나19 상황을 고려해 전 과정이 온라인으로 진행된다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면, 소프트웨어를 잘 몰라도 대회에 참가해 사용자 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육뿐 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.본선에 진출한 팀에게는 삼성전자 소프트웨어 개발자들의 멘토링도 지원한다.삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다.삼성전자는 3일 온라인으로 누구나 AI를 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 연다.올해 '삼성 주니어 SW 창작대회' 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 IT 제품을 부상으로 받게 된다.삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다.이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.</t>
-  </si>
-  <si>
-    <t>[인터뷰] 양대웅 한국폴리텍대학 운영이사매년 졸업생 1만8000여명 배출…취업률 80% 웃돌아맞춤형 취업 과정에 특화된 교육시스템이 장점    한국폴리대학 인천캠퍼스에 있는 융합실습지원센터에서 양대웅 운영이사가 실습 기기를 설명하고 있다. [김현동 기자]      ‘[코딩 앙초보] 나만의 웹 애플리케이션 제작 입문’     한 이러닝 서비스 홈페이지에 올라온 코딩 교육 커리큘럼 제목이다. 이와 비슷한 내용의 코딩 교육은 흔하다. 눈길을 끄는 것은 남지현 강사 프로필이다. 분당·판교 지역 젊은 창업가 네트워크, 소셜살롱 오거나이저, 여행 스타트업 언캐니 창업가다. 연세대 미래캠퍼스 경영학부를 졸업한, 흔히 말하는 문과생이다.      문과 출신 개발자이자 창업가라는 타이틀을 얻게 된 데는 10개월 과정으로 운영되는 한국폴리텍대학 분당융합기술교육원 데이터융합소프트웨어를 이수했기 때문에 가능했다. 아침 9시부터 저녁 11시까지 매일 코딩을 했고, 33시간 동안 잠을 자지 않고 과제를 해결했던 경험 덕분이다.        남지현 대표가 새로운 인생을 열어나간 데는 한국폴리텍대학의 특화된 교육이 있다. 한국폴리텍대학은 2006년 3월 국립중앙직업훈련원과 기능대학을 합쳐 설립한, 산업 현장 중심의 기술·기능 인력을 양성을 목표로 하는 공공 직업교육 훈련기관이다. 권역별로 8개 대학과 36개의 캠퍼스가 있는 규모로 발전했다. 2년제 학위 과정을 포함해 전문기술과정, 중장년 재취업 과정, 여성 재취업 과정 및 4차 산업혁명 대비 신산업 훈련 테스트 베드 역할을 하는 하이테크과정 등 다양한 커리큘럼이 마련되어 있다.      한해 1만8000여 명의 졸업생을 배출하는데, 매년 80% 이상의 취업률을 자랑한다. 입학생 중에 40% 이상이 직장을 다니다 이곳에 입학한다. 특히 분당융합기술교육원 졸업생은 판교의 IT 기업들이 믿고 쓴다는 평가를 받고 있다. 한때 입학 경쟁률이 9:1까지 치솟은 이유다. 쉽게 말해 한국폴리텍대학은 취업을 위한 과정에 특화된 교육 기관인 셈이다. 고용노동부 산하 대학이라는 점에서도 그 성격을 쉽게 이해할 수 있다.      6월 30일 3년 임기를 마치는 양대웅 한국폴리텍대학 운영이사를 만난 것은 한국폴리텍대학의 역할과 존재 의미를 듣기 위해서다.            ━          3년 현장경험 통해 대학 개혁 필요성 느껴       양 전 이사는 2018년 6월 이곳과 인연을 맺었다. 그전까지 정책컨설팅그룹 더플랜 대표이사, 서울시의회 정책연구위원, 한국바이오협회 자문위원, 더불어민주당 정책조정실장 등 정치권에서 ‘정책통’으로 통하던 인사였다. 교육 개혁에도 관심이 많아 관련 입법 활동에 참여하기도 했다. 교육 개혁에 있어서도 정치적인 해법을 중요하게 생각했던 그가 3년 만에 “정치권에서 했던 교육 개혁은 관념적이었다”라는 평가를 스스럼없이 하게 됐다. 정치가 아닌 한국폴리텍대학에서 행정을 경험했기 때문에 할 수 있는 발언이다. 또한 “그동안 교육은 10~20%에 집중했지만, 이제는 80~90% 학생을 위한 교육으로 바꿔야 한다”고 주장한다. 지난 6월 28일 인천 부평에 있는 사무실에서 만나 그가 꿈꾸는 대학의 역할에 관해 이야기를 들었다.     Q : 한국폴리텍대학에 4차 산업혁명 시대를 대비하는 과정도 있다는 게 놀라웠다.    A : 맞다. 과거에는 제조업의 근간이 되는 인력을 배출했지만, 시대의 변화에 맞는 교육 과정을 만들고 있다. AI나 바이오, IoT 등 요즘 시대에 맞는 인력을 배출할 수 있는 교육 과정을 계속 만들고 있다. 다만 한국의 근간이 되는 뿌리산업에서 일할 수 있는 인력을 배출하는 것을 멈추지 않고 있다. 뿌리 산업부터 AI까지 한국 산업 현장에 필요한 인력을 배출하는 게 한국폴리텍대학의 역할이다. 한국폴리텍대학은 사회가 원하는 인력을 배출하는 게 목표이다. 취업률이 매해 80% 이상을 기록하는 이유다.    Q : 어떤 이들이 이곳을 택하고 있나.  A : 매년 입학생 중 45% 이상이 직장을 다니다가 이곳에 와서 교육을 받고 있다. 현장에서 필요로 하는 기능 위주로 교육을 하니까 새로운 도전을 해보고 싶어 하는 이들이 많다. 올해 개교한 경북 영천의 로봇캠퍼스는 특히 대구경북지역 산업계와 연계가 강하고, 안성에 있는 반도체캠퍼스와 청주·아산캠퍼스는 반도체 산업과 연관된 과로 운영되고 있다. 산업의 흐름과 지역에서 요구하는 인력을 배출하기 위해 항상 변화하고 있다.    Q : 분당융합기술교육원의 인기가 높다고 하던데.    A : 데이터융합SW과, 생명의료시스템과, 임베디드시스템과가 마련되어 있다. 10개월 동안 첨단 테크 기술을 배울 수 있는 과정으로 강사진도 판교 IT 기업 출신이 많다. IT 기업에서 필요한 인력을 배출하는 게 목표이기 때문에 현장에서 필요한 교육이 이뤄진다. 융기원 출신이라면 믿고 쓸 수 있다는 평가를 받고 있어서 취업률도 좋다. 인기가 높아서 입학 경쟁률이 9:1이 될 때도 있었다. 융기원 학생 중에는 명문대 출신이거나 석사 이상 출신도 많다.     Q : 정치권에서 오랫동안 일을 했는데, 어떻게 이곳에 합류하게 됐나?  A : 캠퍼스를 방문하고 관련 기업과 연계된 일을 하다보니 이곳이 굉장히 놀라운 일을 하고 있다는 것을 알게됐다. 산업 현장에서 소외되거나 때로는 배제된 분들을 재교육 시키고 기술역량을 쌓아서 산업 현장으로 보내는 선순환 구조를 만들고 있다는 것을 알게 됐다. 산업의 변화에 빠르게 변화하고 지역 기업과 연계해서 필요한 인력을 배출하고 있더라. 하지만 일을 하다 보니 여러 가지 지원이 너무 부족하다는 것을 절감헸다. 한국폴리텍대학 이사회에 당연직 이사로 산자부, 교육부, 노동부, 기재부가 포함되어 있지만 많은 부분에서 지원이 효율적으로 이뤄지지 않고 있다. 해외에서처럼 폴리텍대학을 이제 대학교육의 주류로 이끌어내야 한다. 이러한 생각을 가지고 3년 동안 운영이사로 일하면서 지원을 끌어내는 데 집중했다. 2019년 정보통신분야에서 국무총리 포상을 받고, 노후화된 기숙사나 건물을 개선하는 데 200억원 예산지원을 이끌어내고, 국회를 찾아다니며 폴리텍 대학의 역할과 위상을 강화하려고 애쓴 것에 대해서 보람을 느끼기도 하지만 한계를 느낀 것도 사실이다    Q : 10%가 아닌 90%를 위한 교육 개혁을 주장하고 있다. 한국폴리텍대학이 90%를 위한 교육을 위한 시스템이라고 보는 것인가.  A : 정치할 때 다양한 교육 개혁 이론을 개발했다. 이곳에서 3년 동안 활동하다 보니 그동안 교육 개혁을 관념적으로만 생각하고 있음을 알게 됐다. 대학이 산업의 변화를 따라가고 있는지, 빠르게 변하는 기술변화와 혁신에 대응을 잘하고 있는지 등을 면밀하게 살펴봐야 할 때다. 그동안 우리 교육은 입시중심의 소수 10%만을 위한 교육정책을 중심으로 논의되고 있다. 이러다보니 대학 교육 역시 산업경쟁력과 혁신에 방점을 맞추기 보다는 대학서열 위주의10~20%만을 위한 대학성장 정책에 집중했다. 그리고 이제는 우리 사회의 원동력이기도 했던대학 교육이 기회의 사다리 역할도 못하고 있다. 대학들의 역량이 떨어지다보니 기업과 시장에서 요구하는 ‘공급의 실패‘를 가져온 것이다. 서울 중심의 대학서열은 더 강화되고 10~20%의 소수 인원에게만 사다리 역할을 하고 있다. 감히 말씀드리면 ’교육의 실패, 정책의 실패, 시장의 실패‘라고 해도 과언이 아니다. 기존 경쟁력 있는 대학은 연구 기능을 강화하면 된다. 나머지 80~90%의 학생도 함께 기회의 사다리를 만들기 위해서는 기술교육과 직업교육을 대폭적으로 강화해야 한다. 그 역할을 한국폴리텍대학 등이 하면 된다. 한국폴리텍대학을 산업과 지역의 거점 대학으로 만들어야 한다.    Q : 임금격차 문제는 어떻게 해결할 수 있나?  A : 개인적으로 ’교육판 경사노위‘가 필요하다고 생각한다. 대학개혁은 사회개혁과 같이 가야만 한다. 고용은 이제 겹눈(곤충 등에서 낱눈이 모여 생긴 눈)이 필요하다. 산업계, 지자체, 정부, 교육계, 대학 등이 함께 논의해야 한다. 산업이 요구하는 인재를 기업과 대학, 정부, 지자체가 함께 구체적으로 논의해야 한다. AI 개발인력이 부족하다면 대학에서 정원을 늘리거나 학과를 개설해야 하는데, 우리는 정원총량제나 대학 관계자들의 이해관계 때문에 기업과 산업의 수요에 맞는 인재를 배출할 수 없다. 정부가 조정의 역할을 하고 기업과 산업계가 경쟁력을 높여 성장하기 위해서는 현장에서부터 겹눈을 가지고 역할을 해야 한다. 기업은 필요하면 인재를 쓰게 된다. 임금격차 문제는 교육개혁, 대학개혁과 맞물려있다. 또한 국가균형발전과도 서로 연결되어 있다. 우리나라가 선도국가로 가기 위해서 지금 교육시스템으로 가능한가? 미래사회의 대응력을 키우기 위해 기술대학이나 직업학교에 집중투자 해야 한다. 북유럽은 직업교육이 국가발전의 성공적인 열쇠였다. 임금격차도 이러한 틀을 만들면 해결할 수 있다고 본다.</t>
-  </si>
-  <si>
-    <t>네이버커넥트재단이 운영하는 '소프트웨어야 놀자'에서 인공지능(AI) 윤리 교재를 오픈했다.'소프트웨어야 놀자 인공지능 윤리 교재'는 초중등 SW·AI교육 분야를 연구하는 김현철 고려대 교수 연구팀과 협업한 결과물로 △AI 신뢰성 △AI 편향성 △AI 악용 가능성 △AI 책임성 등 총 4개 주제로 구성돼 있다.교사와 학부모는 네이버 커넥트재단이 운영하는 '소프트웨어야 놀자'에서 해당 교재를 무료로 내려받아 AI 시대를 살아갈 학생들에게 AI 기술과 윤리 문제에 대해 가르칠 수 있다. 수업자료뿐 아니라 수업지도안, 학생용 워크시트, 다양한 교육 콘텐츠까지 함께 제공돼 수업에 활용 가능하다.'소프트웨어야 놀자 인공지능 윤리 교재'는 학생들이 직접 엔트리와 네이버의 AI 서비스를 활용해 AI와 윤리문제를 체험할 수 있다. AI 윤리 문제와 영향력, 해결방안 등을 토론하며 AI 윤리에 대한 책임감을 기를 수 있도록 실습과 참여 위주의 교육 프로그램으로 구성돼 있다.네이버 커넥트재단은 오는 8일 초중등 교사와 강사를 대상으로 'AI 윤리교육' 연수를 진행할 예정이다. 초중등 AI교육 플랫폼 '엔트리'와 클로바 보이스 등 네이버 AI 서비스를 바탕으로 AI 신뢰성과 편향성에 대한 수업을 계획하고 진행해 보는 등 교사 역량을 강화하는 프로그램을 제공한다.해당 연수는 온라인으로 진행되며, 참가를 희망하는 교사는 7일까지 소프트웨어야 놀자 홈페이지에서 신청하면 된다.</t>
-  </si>
-  <si>
-    <t>성남캠퍼스 공동지도 창업동아리 TNC기업가정신은 미국의 경제학자 슘페터가 강조한 것으로 새로운 사업에서 야기될 수 있는 위험을 부담하고 어려운 환경을 헤쳐 나가며 기업을 키우려는 뚜렷한 의지를 말한다. 최근엔 기업의 이윤 극대화 경영활동이 중점 되기 보다는 기업의 사회적 책임을 수행하기 위한 자세, 문제해결을 위한 주체로서 주도적인 역할을 하는 의미가 더 강조되고 있다.한국폴리텍대학 성남캠퍼스에서 창업동아리 'TNC'를 공동 지도하는 IoT소프트웨어과의 최경진 교수와 반도체소재응용학과장 전동민 교수를 만났다. 최경진 교수는졸업 후, 대학에서 연구교수로 7년 그리고 기업에서 수석연구원으로 5년 근무하면서 학생과 연구원들을 보며 자신의 아이디어나 알고리즘을 HW/SW로 구현하기 위한 기술의 중요성을 느끼게 되었습니다.한국폴리텍대학 성남캠퍼스 IoT소프트웨어과 강사로 재직하면서 우수하고 다양한 교육장비와 실습 중심의 교과과정에 깊은 인상을 받았으며, HW/SW 인력양성을 위해 한국 폴리텍대학에 지원하여 2016년 말에 임용되었습니다. 현재는 마이크로프로세서, 임베디드 시스템, IoT시스템 관련 강의를 하고 있으며, 일반계고 위탁과정(드론 제작 및 운영), 지역산업맞춤인력양성(드론 조립과 비행), 고숙련일학습병행(임베디드 소프트웨어) 훈련과정에 참여하고 있습니다.  전동민 교수는기업에서 십 수년의 현장 경험을 바르게 전하고자 하는 초보 교육자입니다. 많은 시행착오를 통해 know-how를 쌓아가는 중이지만, 부족함을 느끼며 보완하려 노력하고 있습니다.제가 몸담고 있는 반도체 소재응용학과는 반도체 공정, 소재 그리고 응용기술과 분석 기술을 교육하는 곳입니다. 기업에서는 ‘공정기술’에 해당하며 최근에는 자동화된 생산 기술과 AI 기반 기술의 확대에 대한 대응으로 software 교육과 data 처리 기법 등도 추가하여 교육하고 있습니다. 저는 주로 반도체 공정과 data 처리 기법과 관련된 과목을 맡고 있습니다. 그리고, 성남캠퍼스에는 현장감 있는 반도체 인력양성을 위한 실무교육을 위한 ‘Creative Semi.’라는 러닝팩토리(Learning Factory)를 운영 중이며 그 곳의 책임을 맡고 있습니다.150여 종 기기와 청정룸 등의 공정 수행이 가능한 기본 공간이 마련되어 있어 희망 기업에게는 직무교육을, 초중고생에게는 진로 체험의 배움터로도 활용하고 있습니다. 앞으로도 start-up 혹은 기업에서 필요한 기술지원도 확대하여 사회가 필요로 하는 학교로서 역할과 기능을 더욱 충실하게 수행하도록 작은 힘을 보태고 있습니다.   성남캠퍼스 반도체 소재응용학과4차 산업혁명의 핵심 기반 산업인 반도체 산업에 필요한 인재양성을 위해 2년제 학위과정과 대학 졸업 후 취업을 준비생을 위한 비학위 과정(하이테크 과정)을 운영 중입니다. 학과의 목표는 반도체 소자, 장비 및 재료 관련 기업에 필요한 역량을 갖춘 인력을 체계적 교육을 통해 배출하는 것이며, 2020년 학과 개편을 통해 반도체 후공정과 유기소재 분석에 교과 내용과 장비를 보완했습니다. 현 150종의 반도체 칩공정 장비, 패키징 공정 장비와 그의 평가 분석 장비를 보유하고 있습니다.반도체 공정기술인으로서 갖추어야할 공정 수행능력, 장비와 소재 분석 역량 계발에 주안점을 갖고 있으며 그의 결과물인 data 처리 능력 향상을 위해 통계적 data 처리 기법과 미니탭 활용능력도 교육하고 있습니다. 2년 학위과정은 산업의 허리 인력으로 빠르게 변화하는 산업 현장에 적응해 갈 것으로 기대하고 있습니다. 하이테크 과정은 반도체 기술을 보완하여 관련 취업의 기회를 넓혀 실무능력을 충분히 발휘할 것으로 기대하고 있습니다.반도체소재응용학과 실습 모습  성남캠퍼스 IoT소프트웨어과사물인터넷(IoT) 시스템은 인터넷을 기반으로 원격 센싱 및 제어가 가능한 시스템으로 활용분야는 스마트홈, 스마트팜, 스마트팩토리, 헬스케어 등 다양합니다. IoT시스템은 시스템을 구성하는 하드웨어와 이를 운영하기 위한 소프트웨어가 중요한 요소이며, 최근에는 인공지능(AI)을 이용하여 수집된 데이터로부터 정보 추출하여 사용자에게 전송하고, 스스로 판단하여 시스템을 제어하는 등 그 기능과 역할이 확대되고 있습니다. IoT 소프트웨어학과에서는 프로그래밍, 센서 및 컨트롤 디바이스, 임베디드시스템, 네트워크 등에 대한 실습을 바탕으로 IoT 시스템을 이해하고 구현하기 위한 기술을 갖춘 인력을 양성하고 있습니다.사진=IoT소프트웨어학과 IoT스마트홈실습 창업동아리 및 아이템 소개지난 3년 동안 매년 다양한 item으로 대회에 참가했습니다. 도전의식을 갖고자 팀명은 The New challengers(TNC)라고 학생동아리 명을 팀명으로 사용하고 있습니다. 매년 작품에 대한 기술 완성도와 시장에 대한 판매 계획 등은 외부 자문위원들을 통해 idea를 확장하거나 가다듬고 있습니다.금년도 벤처창업아이템 경진대회에 출품하는 아이템은 자율주행자동차를 이용한 코로나19 실내용 방제 로봇입니다. 학교나 아파트형 공장과 같이 복도가 많은 건물에서는 자율주행을 이용하여 소독 살균제를 살포 기능을 갖추는 것은 높은 효율성을 가집니다. 이러한 시스템의 핵심적인 부분이 자율 주행로봇이며, 자율주행로봇은 주변환경에 대한 정보를 획득하기 위한 센서 시스템과 로봇을 제어하는 하드웨어/소프트웨어가 핵심 구성요소입니다.반도체 소재응용과에서는 반도체 기술을 이용하여 센서 시스템을 제작하고, IoT 소프트웨어과에서는 로봇 시스템을 개발하여 융합하고자 하는 것입니다. 이를 통해 반도체소재과 학생들은 센서 시스템이 로봇 시스템에 어떻게 활용되는지를 알 수 있고, IoT 소프트웨어과 학생들은 센서 시스템이 어떻게 제작 되는지를 이해 할 수 있게 되는 효과를 가지게 됩니다.  공동지도를 통한 학과별 융합시 결과물이나 진행과정에서 다른점은?매년 개최되는 창업 아이디어 대회에서 학생들이 얻게 되는 유무형적 성과물들은 매우 많다고 생각합니다. 출품하는 작품은 물론 입상하게 되면 더할 나위 없겠지만요. 더 중요한 것은 준비하는 과정 속에서 부딪치는 다양한 문제들을 해결해 나가면서 생기는 자신감과 협업의 중요성이 아닐까 싶습니다.작년까지는 학과 단위로 진행을 했습니다만, 금년에는 학과의 벽을 조금 낮추고 서로의 전공을 이해하고자 공동지도를 계획했습니다. 특히, 학과별 융합을 통해 얻게 되는 것은 기술적 해결점을 다양한 시각에서 접근할 수 있다는 것이겠지요. 전공은 다르지만 센서를 만드는 공정기술에 대해 공부하는 반도체 소재응용학과와 제작된 센서와 같은 반도체를 활용하여 다양한 응용 기술을 적용하기 위해 전자회로 설계와 평가 방법을 과정 중에 배우게 됩니다.IOT 소프트웨어학과의 학생들은 센서의 구조와 제조 과정뿐만 아니라 레이저, 3D 프린터와 같이 가공기술을 이해하게 됩니다. 경험이 많지 않은 학생들이 자신의 분야뿐만 아니라 타 전공을 접하면서 경험의 폭을 넓혀가는 것은 사고의 영역을 넓힐 뿐만 아니라 자신의 진로를 개척해 나가는 데에도 일부 도움을 주는 것 같습니다.TNC technical meeting 모습  폴리텍대학의 창업지도가 타 대학과 다른 점한국폴리텍대학에 대한 선입견들이 있습니다. 취업을 목표로 하고 있어 내용의 다양성이 부족하고 이수 학점이 많아 대학으로서 수업 외 활동이 부족하다는 점 등이 대표적이겠지요. 폴리텍대학이 갖는 정체성은 다른 2년제 대학과 다름없다고 생각됩니다. 4년제 보다는 취업을 위한 과정의 목표가 강하기 때문입니다. 2년의 짧은 기간(취업까지 소요되는 시간은 1.5년 정도) 내에 현장이 원하는 역량을 갈고 닦기 위해서는 매우 부족한 시간입니다. 따라서 폴리텍대학은 다양성 대신에 더 깊이 있고 전문성을 갖추기 위해 전공과 실습에 대한 집중력이 타 대학보다 높다는 점입니다. 학과별 실습 시설이 타 대학 이상의 시설을 갖추고 있어 사회 진출 전에 깊이 있고 다양하게 체험할 수 있다는 것이 강한 강점이 아닐까 생각됩니다.학생들을 지도하면서 느끼는 것은 학생들의 경험 부족에서 오는 시각의 한계를 많이 느끼게 됩니다. (이는 타 대학 학생들도 마찬가지일 텐데요) 하지만, 실무적인 접근을 수업에서도 많이 하고 있어서 현실적인 접근과 해결점을 찾으려는 학생들의 노력은 크게 인정하고 싶어 하는 부분입니다. 아무래도, 경력과 연령이 타 대학보다는 넓은 스펙트럼을 갖고 있고, 현실적인 솔루션에 접근도 좋고 또한 다양한 방향에서도 제안하는 모습을 볼 때 대견함과 학생들을 더 나은 결과를 얻을 수 있도록 노력해야 한다는 자극도 받게 됩니다.학생들을 지도하는 입장에서는 학생들이 보다 좋은 일자리를 찾아 자리 잡는 것에 대한 도움을 주는 것이 저희의 사명이기에 지도하는 교수님들 또한 오늘도 열심히 노력하고 있습니다.한편, 한국폴리텍대학 ‘제5회 벤처창업아이템 경진대회’는 폴리텍리그와 하이스쿨리그 부문으로 7월 12일까지 접수가 진행된다. 코로나19로 인해 예선과 본선은 온라인으로 진행될 예정이다. 글로벌 비즈니스 역량 강화를 위한 영국 CCCG 대학의 비즈니스 특강도 진행한다. 예선 통과자는 아이템 제작 지원, 기술 자문, 사업 자문 등 멘토링 특전을 누릴 수 있다. 접수는 ‘벤처창업아이템 경진대회’ 홈페이지를 통해 가능하다.한경닷컴 뉴스룸 open@hankyung.com</t>
-  </si>
-  <si>
-    <t>삼성전자가 다음달 1일부터 청소년을 대상으로 ‘2021 삼성 주니어 SW 창작대회’를 개최한다고 30일 밝혔다. 삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다. 삼성전자 주최로 열리는 이 대회는 교육부·한국과학창의재단·소프트웨어중심대학협의회가 후원한다. 올해 7회를 맞는 이번 대회는 ‘소프트웨어로 만드는 더 나은 미래’를 주제로 진행되고, 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심 있는 누구나 참가할 수 있다. 코로나19 상황을 고려해 전 과정이 온라인으로 진행된다. 김성미 기자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		삼성전자는 30일 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'의 아이디어 접수를 오는 7월 1일부터 받는다고 밝혔다.이번 대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 열어왔다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행되며 초등학교 4학년부터 중·고등학생까지 누구나 참가할 수 있다. 코로나19 상황을 고려해 전 과정이 온라인으로 진행된다.삼성전자는 아이디어만 있다면 소프트웨어를 잘 몰라도 대회에 참가해 사용자 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다고 설명했다.본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링을 지원하며 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고 소프트웨어 개발에 대한 심층적인 피드백을 제공한다. 7월 3일엔 온라인으로 AI를 배우고 소프트웨어 강의를 들을 수 있는 오픈클래스도 연다.삼성전자는 이번 대회에서 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀을 선정할 예정이다. 수상팀이 속한 학교에는 노트북, 태블릿 등과 같은 IT 제품을 기부한다. 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.삼성전자가 오는 7월 1일부터 삼성 주니어 소프트웨어 창작대회 아이디어를 접수받는다.(사진=삼성전자)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [디지털데일리 권하영기자] 네이버 커넥트재단(이사장 조규찬)은 ‘소프트웨어야 놀자’에서 인공지능(AI) 윤리 교재를 오픈했다고 30일 밝혔다.    ‘소프트웨어야 놀자 인공지능 윤리 교재’는 초중등 SW·AI교육 분야를 연구하는 고려대학교 김현철 교수 연구팀과 협업한 결과물로, ▲인공지능의 신뢰성 ▲인공지능의 편향성 ▲인공지능의 악용 가능성 ▲인공지능의 책임성 등 4개 주제로 구성됐다.   교사와 학부모는 네이버 커넥트재단이 운영하는 ‘소프트웨어야 놀자’에서 해당 교재를 무료로 다운로드 받을 수 있다. 수업자료 뿐만 아니라 수업지도안, 학생용 워크시트, 다양한 교육 콘텐츠까지 함께 제공되어 수업에 활용 가능하다.   학생들은 직접 엔트리와 네이버의 인공지능 서비스를 활용해 인공지능과 윤리문제를 체험할 수 있다. 인공지능 윤리 문제와 해결방안 등을 토론하며 책임감을 기를 수 있도록 실습·참여 위주의 교육 프로그램으로 구성됐다.   한편, 네이버 커넥트재단은 오는 8일 초중등 교사와 강사를 대상으로 ‘인공지능 윤리교육’ 연수를 진행할 예정이다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		삼성전자가 내일(1일)부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최합니다.'삼성 주니어 SW 창작대회'는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회입니다다.일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 됩니다. 지난해까지 11,354팀에서 30,967명의 청소년이 대회에 참여했습니다.이번 행사는 코로나19 상황을 고려해 전 과정이 온라인으로 진행됩니다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면, 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육 뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했습니다.본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링도 지원합니다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공합니다.</t>
-  </si>
-  <si>
-    <t>KT·삼성SDS·네이버·NHN·가비아 클라우드서 ‘ICT웍스’ 서비스 제공클라우드 인프라·플랫폼·솔루션을 묶은 ‘가상화 전산실’ 키우기 나서송영선 인프라닉스 대표    인프라닉스(대표 송영선)가 국내 주요 CSP(클라우드 서비스 기업)들과 광범위한 협력체계를 구축하고 클라우드 인프라 관리 서비스 사업을 본격적으로 키운다. 인프라닉스는 KT, 삼성SDS, 네이버클라우드, NHN, 가비아 등 국내 클라우드 서비스 기업들과 공조해, 멀티 클라우드 상에서 'ICT웍스'(ICTWorks) 매니지드 서비스를 제공하고 있다. 이 서비스는 최근 정부 디지털서비스 이용지원시스템의 클라우드 지원서비스에 등록돼 공공기관들이 손쉽게 채택할 수 있게 됐다. 디지털서비스 전문시스템에 등록되면 수요기관이 원하는 서비스를 직접 선정해 수의계약으로 구매할 수 있다. 전통 ICT 인프라 관리솔루션 기업에서 출발한 인프라닉스는 최근 클라우드로 범위를 넓히고 클라우드 인프라와 플랫폼·솔루션을 묶은 토털 ICT 인프라·솔루션 서비스를 키우고 있다. 그러면서 클라우드 인프라와 맞춤 개발환경 위에 전문 솔루션 기업들이 보유한 SaaS(SW서비스) 솔루션을 결합해 제조기업, 교육, 게임, 의료, 소상공인, 스마트시티 등 산업별 맞춤 서비스를 제공하는 일명 '가상화 전산실'인 ICT웍스 매니지드 서비스를 선보였다.ICT웍스 매니지드 서비스에는 △멀티 클라우드 컴퓨팅 컨설팅 △구축·운영에 필요한 엔지니어링 △모니터링·관제·장애처리 서비스 등이 포함된다. 이를 통해 수요기관은 클라우드 자원을 효율적이고 안정적으로 통합 관리할 수 있다. 인프라닉스는 지난 4년간 90여개 공공기관을 대상으로 진행한 클라우드 전환 컨설팅 경험을 토대로 클라우드 인프라 구성방법, 전환절차, 인프라 구성요소별 기술규격 등을 체계적으로 제공한다. 또한 KISA(한국인터넷진흥원) 보안 표준 인증을 획득한 클라우드 관리 솔루션 'M-콘솔 SaaS' 기반의 자체 서비스 운영센터인 'M-센터'를 통해 24시간 365일 서비스를 제공한다.  송영선 인프라닉스 대표는 "디지털서비스 이용지원시스템에 등록된 주요 CSP 5개 사의 클라우드 컴퓨팅 자원을 공공기관이 안심하고 사용할 수 있도록 컨설팅부터 기술 엔지니어링과 관리·운영까지 전문 매니지드 서비스를 제공한다"면서 "24시간 365일 가동되는 자체 M-센터를 기반으로 한 서비스를 통해 공공기관들이 클라우드를 안정적으로 도입·운영하도록 뒷받침할 것"이라고 말했다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 삼성전자가 7월부터 청소년을 대상으로 ‘2021 삼성 주니어 SW 창작대회’를 개최한다. 경진대회 과정 전반에서 소프트웨어를 쉽게 배울 수 있도록 대회를 구성했다.‘삼성 주니어 SW 창작대회’는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회이다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다. 지난해까지 11,354팀에서 30,967명의 청소년이 대회에 참여했다.‘삼성 주니어 SW 창작대회’는 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다. 올해 7회를 맞는 이번 대회는 ‘소프트웨어로 만드는 더 나은 미래’를 주제로 진행되고, 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다. 코로나바이러스감염증-19 상황을 고려해 전 과정이 온라인으로 진행된다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면, 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 ‘디자인 씽킹’ 교육 뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다. 또, 삼성전자는 3일 온라인으로 누구나 AI를 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 연다.올해 ‘삼성 주니어 SW 창작대회’ 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 IT 제품을 부상으로 받게 된다. 삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다.이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다. 참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.삼성전자는 ‘함께가요 미래로! Enabling People’이라는 CSR 비전 아래 청소년 교육 중심의 사회공헌 활동과 상생 활동을 펼치고 있다.청소년 교육 중심 활동으로는 ▲삼성 주니어 SW 아카데미 ▲삼성청년SW아카데미 ▲삼성 드림클래스 ▲삼성 스마트스쿨과 같이 청소년의 잠재력을 최대한 발휘할 수 있도록 하는 프로그램을 운영하고 있다. 또 ▲삼성미래기술육성사업 ▲스마트공장 ▲C랩 아웃사이드 등의 상생 프로그램을 통해 삼성전자가 쌓아온 기술과 혁신의 노하우를 우리 사회와 같이 나누고 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		삼성전자가  1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다.삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회로, 지난해까지 1만1354팀에서 3만967명의 청소년이 대회에 참가했다.올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행되며, 코로나19 상황을 고려해 전 과정이 온라인으로 진행된다. 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심이 있다면 누구나 참가할 수 있으며, 참가자들은 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육 뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.아울러 본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다.삼성전자는 올해 10월까지 결선을 진행하고, 11월 시상식을 개최할 예정이다. 최종적으로 △대상 1팀 △최우수상 3팀 △우수상 3팀 △장려상 3팀 △공감상 1팀 등 총 11개팀을 선정해 상금과 IT 제품을 부상으로 제공한다. 또 수상팀이 속한 학교에도 노트북·태블릿 등과 같은 IT 제품을 기부한다.한편 삼성전자는 청소년 교육 중심의 사회공헌 활동 및 상생 활동을 진행 중에 있다. 청소년 교육 중심 활동으로는 △삼성 주니어 SW 아카데미 △삼성청년SW아카데미 △삼성 드림클래스 △삼성 스마트스쿨과 같이 청소년의 잠재력을 최대한 발휘할 수 있도록 하는 프로그램을 운영하고 있으며, △삼성미래기술육성사업 △스마트공장 △C랩 아웃사이드 등의 상생 프로그램을 통해 삼성전자가 쌓아온 기술과 혁신의 노하우를 우리 사회와 같이 나누고 있다.</t>
-  </si>
-  <si>
-    <t>2015년부터 실시한 청소년 대상 미래 소프트웨어 인재 발굴 경진대회지난해까지 청소년 3만967명 참여  2021 삼성 주니어 SW 창작대회 포스터 [파이낸셜뉴스] 삼성전자가 7월 1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다.   6월 30일 삼성전자에 따르면 '삼성 주니어 SW 창작대회'는 이 회사가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회이다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.   지난해까지 1만1354팀에서 3만967명의 청소년이 대회에 참여했다.   '삼성 주니어 SW 창작대회'는 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다.   올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행되고, 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다.   코로나19 상황을 고려해 전 과정이 온라인으로 진행된다.   삼성전자는 청소년들이 반짝이는 아이디어만 있다면, 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육 뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.   본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다.   삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다.   또, 삼성전자는 3일 온라인으로 누구나 AI를 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스을 연다.   올해 '삼성 주니어 SW 창작대회' 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 IT 제품을 부상으로 받게 된다.   삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다.   이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.   참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.   한편 삼성전자는 '함께가요 미래로! Enabling People'이라는 CSR 비전 아래 청소년 교육 중심의 사회공헌 활동과 상생 활동을 펼치고 있다.</t>
-  </si>
-  <si>
-    <t>삼성전자 로고.삼성전자는 다음 달 1일부터 청소년을 대상으로 ‘2021 삼성 주니어 SW 창작대회’를 개최한다고 30일 밝혔다.삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 지난 2015년부터 실시해온 경진대회이다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.지난해까지 1만 1354개 팀에서 3만 967명의 청소년이 대회에 참여했다.삼성 주니어 SW 창작대회는 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다.올해 7회를 맞는 이번 대회는 ‘소프트웨어로 만드는 더 나은 미래’를 주제로 진행되고, 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다.코로나19 상황을 고려해 전 과정이 온라인으로 진행된다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 ‘디자인 씽킹’ 교육 뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다.삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다.또한 삼성전자는 3일 온라인으로 누구나 인공지능(AI)을 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 연다.올해 대회 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 IT 제품을 부상으로 받게 된다. 삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다.이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다. 참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.</t>
-  </si>
-  <si>
-    <t>초등학교 4학년부터 중·고등학생 참가 가능경진대회 과정 전반에서 소프트웨어 학습[서울경제] 삼성전자가 7월 1일부터 청소년을 대상으로 ‘2021 삼성 주니어 SW 창작대회’를 개최한다고 30일 밝혔다.삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 지난 2015년부터 실시해온 경진 대회다. 삼성전자가 주최하며 교육부·한국과학창의재단·소프트웨어중심대학협의회가 후원한다.SW 창작대회에서는 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다. 지난해까지 1만 1,354팀에서 3만 967명의 청소년이 대회에 참여했다.올해 7회를 맞는 이번 대회는 ‘소프트웨어로 만드는 더 나은 미래’를 주제로 진행된다. 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심 있는 누구나 참가할 수 있다. 코로나19 상황을 고려해 전 과정이 온라인으로 진행된다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 ‘디자인 싱킹’ 교육뿐만 아니라 코딩·오픈소스·저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고 소프트웨어 개발에 대한 심층적인 피드백을 제공한다.올해 삼성 주니어 SW 창작대회 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개 팀이 선정돼 상금과 정보기술(IT) 제품을 부상으로 받게 된다. 삼성전자는 수상팀이 속한 학교에도 노트북·태블릿 등과 같은 IT 제품을 기부한다.이번 대회는 오는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.</t>
-  </si>
-  <si>
-    <t>지난 2015년부터 이어온 경진대회…현재까지 3만명 이상 참가삼성전자는 7월 1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다. [사진=삼성전자]삼성전자가 올해도 청소년 대상 소프트웨어 경진대회를 진행하며 미래 소프트웨어 인재 발굴·육성을 이어간다.삼성전자는 7월 1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다.'삼성 주니어 SW 창작대회'는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.'삼성 주니어 SW 창작대회'는 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다. 지난해까지 1만1천354팀에서 3만967명의 청소년이 대회에 참여했다.올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행되고, 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심 있는 누구나 참가할 수 있다. 코로나19 상황을 고려해 전 과정이 온라인으로 진행된다.삼성전자는 청소년들이 아이디어만 있다면 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.본선에 진출한 팀에게는 삼성전자 소프트웨어 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다.아울러 삼성전자는 3일 온라인으로 누구나 AI를 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 연다.올해 '삼성 주니어 SW 창작대회' 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개 팀이 선정돼 상금과 IT 제품을 부상으로 받게 된다. 삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다.이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다. 참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.삼성전자 관계자는 "'함께가요 미래로! 인에이블링 피플(Enabling People)'이라는 CSR 비전 아래 청소년 교육 중심의 사회공헌 활동과 상생 활동을 펼치고 있다"고 설명했다.</t>
-  </si>
-  <si>
-    <t>내달 1일부터 청소년 대상 SW 경진대회 개최2015년부터 초·중·고등학생 3만명 참가대회 과정에서 SW 쉽게 배울 수 있도록 구성[이데일리 신중섭 기자] 삼성전자(005930)는 내달 1일부터 청소년을 대상으로 ‘2021 삼성 주니어 SW 창작대회’를 개최한다고 30일 밝혔다.2021 삼성 주니어 SW 창작대회(사진=삼성전자)‘삼성 주니어 SW 창작대회’는 삼성전자가 미래 소프트웨어 인재 발굴·양성을 위해 2015년부터 실시해온 경진대회다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.이 대회는 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다. 지난해까지 1만1354팀에서 3만967명의 청소년이 대회에 참여했다. 올해 7회를 맞는 이번 대회는 ‘소프트웨어로 만드는 더 나은 미래’를 주제로 열리며 코로나19 상황을 고려해 전 과정이 온라인으로 진행된다. 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면, 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 ‘디자인 씽킹’ 교육 뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다. 본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다. 또, 삼성전자는 3일 온라인으로 누구나 인공지능(AI)를 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 연다.올해 ‘삼성 주니어 SW 창작대회’ 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 IT 제품을 부상으로 받게 된다. 삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다.이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다. 참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.한편, 삼성전자는 ‘함께가요 미래로! Enabling People’이라는 CSR 비전 아래 청소년 교육 중심의 사회공헌 활동과 상생 활동을 펼치고 있다.청소년 교육 중심 활동으로는 △삼성 주니어 SW 아카데미 △삼성청년SW아카데미 △삼성 드림클래스 △삼성 스마트스쿨과 같이 청소년의 잠재력을 최대한 발휘할 수 있도록 하는 프로그램을 운영하고 있다. 또, △삼성미래기술육성사업 △스마트공장 △C랩 아웃사이드 등의 상생 프로그램을 통해 삼성전자가 쌓아온 기술과 혁신의 노하우를 우리 사회와 같이 나누고 있다.</t>
-  </si>
-  <si>
-    <t>2021 삼성 주니어 SW 창작대회 포스터./ 삼성전자 제공        삼성전자는 30일 미래 소프트웨어 인재를 발굴, 양성하기 위한 ’2021 삼성 주니어 SW 창작대회'를 다음 달 1일부터 진행한다고 밝혔다.삼성전자에 따르면 삼성 주니어 SW 창작대회는 삼성전자가 2015년부터 청소년을 대상으로 진행하고 있는 소프트웨어 창작 경진대회다. 지난해까지 1만1354팀, 3만967명의 청소년이 대회에 참여했다. 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다.올해는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀을 선정한다. 수상자들은 상금과 정보통신(IT) 제품을 부상으로 받는다. 삼성전자는 수상팀이 속한 학교에 노트북과 태블릿 등과 같은 IT 제품을 기부한다.이번 대회는 ‘소프트웨어로 만드는 더 나은 미래’를 주제로 진행되며, 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심 있는 청소년이라면 누구든지 참가할 수 있다. 신종 코로나 바이러스 감염증(코로나19) 상황을 고려, 모든 과정이 온라인으로 진행된다.경진대회는 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하는 방식으로 진행된다. 삼성전자는 아이디어만 있다면 소프트웨어에 대한 이해가 떨어져도 대회에 참가할 수 있도록 과정을 구성했다. 사용자의 입장에서 문제를 찾아 해결하는 ‘디자인 씽킹’ 교육에 더해 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있게 했다.본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자의 멘토링을 지원한다. 임직원들은 참가팀과 함께 아이디어를 발전시키며, 소프트웨어 개발에 대한 심층적인 피드백을 제공할 예정이다. 또 삼성전자는 다음 달 3일 온라인으로 인공지능(AI)을 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 연다. 이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 열린다.</t>
-  </si>
-  <si>
-    <t>'소프트웨어로 만드는 더 나은 미래' 주제…초4부터 지원2021 삼성 주니어 SW 창작대회 포스터(삼성전자 제공) © 뉴스1(서울=뉴스1) 주성호 기자 = 삼성전자는 오는 7월부터 전국 청소년들을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다. 올해로 7번째를 맞은 삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 치르는 이벤트다. 삼성전자가 주최하고 교육부·한국과학창의재단·소프트웨어중심대학협의회가 후원한다. 올해는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행된다. 인공지능(AI)이나 빅데이터 등을 활용해 일상생활에서 느낀 불편한 점이나 문제점을 발견해 소프트웨어로 해결책을 제시하는 방식이다. 이번 대회에는 초등학생은 4학년 이상부터 지원이 가능하며 중·고등학생은 관심있는 누구나 참가할 수 있다. 아울러 신종 코로나바이러스 감염증(코로나19) 확산을 우려해 전체 대회 과정이 온라인으로 치러질 예정이다. 8월부터 본격적으로 시작되는 본선에서는 삼성전자 소속의 현직 개발자들이 멘토링을 지원한다. 이들은 아이디어를 발전시키고 소프트웨어 개발에 대한 각종 피드백도 제공하게 된다. 아울러 소프트웨어 명사가 진행하는 특강 청취의 기회도 부여된다. 결선은 10월, 시상식은 11월로 예정돼 있다. 올해 삼성전자는 대상 1팀을 비롯해 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 11개 팀에 대해 상금과 각종 IT제품을 상품으로 지급한다. 아울러 수상팀이 속한 학교에는 태블릿PC와 노트북PC 등도 기부될 예정이다. 삼성전자는 '함께가요 미래로! Enabling People'이란 CSR 주제 아래 주니어 SW 창작대회 외에도 '삼성 스마트스쿨'이나 '삼성 드림클래스' 등의 사회공헌 활동을 통해 청소년들의 잠재력 발휘와 미래 역량 강화를 위한 상생 활동을 펼치고 있다.</t>
-  </si>
-  <si>
-    <t>미래 SW 인재 발굴·육성 위한 경진대회...청소년 교육 활동지난 2015년 시작...초·중·고등학생 총 3만967명 참가2021 삼성 주니어 SW 창작대회 포스터.ⓒ삼성전자삼성전자는 내달 1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다.'삼성 주니어 SW 창작대회'는 삼성전자가 미래 소프트웨어(SW) 인재를 발굴하고 양성하기 위해 지난 2015년부터 실시해온 경진대회다. 일상생활에서 불편한 점이나 문제를 발견해 SW를 활용한 해결책을 제시하면 된다.지난해까지 1만1354팀에서 총 3만967명의 청소년이 대회에 참가했다.'삼성 주니어 SW 창작대회'는 삼성전자가 주최하고 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다.올해로 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행되고 초등학교 4학년부터 중·고등학생까지 SW에 관심있는 누구나 참가할 수 있다.올해 행사는 신종코로나바이러스감염증(코로나19) 상황을 고려해 전 과정이 온라인으로 진행된다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면 SW를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육 뿐만 아니라 코딩·오픈소스·저작권 등에 대해서도 배워가며 SW를 쉽게 익힐 수 있도록 대회 과정을 구성했다.본선에 진출한 팀에게는 삼성전자 SW 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고 SW 개발에 대한 심층적인 피드백을 제공한다.또 내달 3일에는 온라인으로 누구나 인공지능(AI)을 배우고 SW 명사 강의를 들을 수 있도록 하는 오픈 클래스도 진행한다.올해 '삼성 주니어 SW 창작대회' 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 정보기술(IT) 제품을 부상으로 받게 된다.삼성전자는 수상팀이 속한 학교에도 노트북과 태블릿 등과 같은 IT 제품을 기부한다. 이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.참가를 희망하는 청소년들은 내달 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.한편, 삼성전자는 '함께가요 미래로! Enabling People'이라는 기업의 사회적책임(CSR) 비전 아래 청소년 교육 중심의 사회공헌 활동과 상생 활동을 펼치고 있다.청소년 교육 중심 활동으로는 ▲삼성 주니어 SW 아카데미 ▲삼성청년SW아카데미 ▲삼성 드림클래스 ▲삼성 스마트스쿨과 같이 청소년의 잠재력을 최대한 발휘할 수 있도록 하는 프로그램을 운영하고 있다.또 삼성미래기술육성사업, 스마트공장, C랩 아웃사이드 등의 상생 프로그램을 통해 삼성전자가 쌓아온 기술과 혁신의 노하우를 우리 사회와 같이 나누고 있다.</t>
-  </si>
-  <si>
-    <t>미래 소프트웨어 인재 발굴·육성 차원소프트웨어 쉽게 배울 수 있도록 대회 구성[서울=뉴시스] 옥승욱 기자 = 삼성전자는 7월1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다. '삼성 주니어 SW 창작대회'는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시하는 경진대회다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다. 지난해까지 1만1354팀에서 3만967명의 청소년이 대회에 참여했다.'삼성 주니어 SW 창작대회'는 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다. 올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행된다. 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다.코로나19 상황을 고려해 전 과정이 온라인으로 진행된다. 청소년들이 반짝이는 아이디어만 있다면 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육 뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.본선에 진출한 팀에는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다. 3일에는 온라인으로 누구나 AI를 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 연다.올해 '삼성 주니어 SW 창작대회' 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 IT 제품을 부상으로 받게 된다. 삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다.이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다. 참가를 희망하는 청소년들은 7월1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.</t>
-  </si>
-  <si>
-    <t>삼성전자가 '2021 삼성 주니어 소프트웨어 창작대회'를 연다. / 사진=뉴시스삼성전자는 7월1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다.'삼성 주니어 SW 창작대회'는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회이다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다. 지난해까지 1만1354팀에서 3만967명의 청소년이 대회에 참여했다.'삼성 주니어 SW 창작대회'는 삼성전자가 주최하고 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다.올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행되며 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다.신종 코로나바이러스 감염증(코로나19) 상황을 고려해 전 과정이 온라인으로 진행된다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육 뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.본선에 진출한 팀에게는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고 소프트웨어 개발에 대한 심층적인 피드백을 제공한다.7월3일 온라인으로 누구나 AI를 배우고 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 연다.올해 '삼성 주니어 SW 창작대회' 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 IT 제품을 부상으로 받게 된다.삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다. 이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다.</t>
-  </si>
-  <si>
-    <t>삼성전자는 다음달부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다.삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해 온 경진대회다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.지난해까지 1만1354개 팀에서 청소년 3만967명이 대회에 참가했다. 올해는 '소프트웨어로 만드는 더 나은 미래'를 주제로 열린다. 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심 있는 누구나 참가할 수 있다. 삼성전자는 청소년들이 아이디어만 있다면 소프트웨어를 잘 알지 못해도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육을 비롯해 코딩, 오픈소스, 저작권 등을 배우며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다. 코로나19 상황을 고려해 대회 모든 과정은 온라인으로 한다.삼성전자는 대상 1개팀, 최우수상 3개팀, 우수상 3개팀, 장려상 3개팀, 공감상 1개팀 등 모두 11개팀을 선정해 상금과 IT 제품을 부상으로 준다. 수상팀이 속한 학교에도 노트북, 태블릿 등을 제공한다. 또 삼성전자 소트프웨어 개발자들이 본선에 진출한 팀에 멘토링을 지원할 예정이다. 임직원들은 참가팀들과 함께 아이디어를 발전시키고 소프트웨어 개발에 대한 피드백을 제공할 계획이다.대회는 오는 10월까지 결선을 진행하고 시상식은 11월에 열릴 예정이다. 참가를 희망하는 청소년들은 내달 1일부터 21일 오후 4시까지 삼성 주니어 SW 창작대회 홈페이지에서 접수하면 된다.</t>
-  </si>
-  <si>
-    <t>삼성 2016 주니어 SW 창작대회 당시 본선 진출팀 학생들과 지도교사들을 대상으로 전문가 강의, 멘토링 등을 실시하는 '부트캠프' 행사를 진행하는 모습./사진=뉴스1(삼성전자 제공)삼성전자가 내달 1일부터 청소년을 대상으로 '2021 삼성 주니어 SW(소프트웨어) 창작대회'를 개최한다고 30일 밝혔다.'삼성 주니어 SW 창작대회'는 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년 시작된 경진대회다. 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다. 지난해까지 1만1354팀에서 3만0967명의 청소년이 대회에 참여했다.올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행되고, 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다. 코로나19(COVID-19) 상황을 고려해 전 과정이 온라인으로 진행된다. 삼성전자는 청소년들이 반짝이는 아이디어만 있다면 소프트웨어를 잘 몰라도 대회에 참가할 수 있도록 대회 과정을 구성했다. 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육 뿐 아니라 코딩, 오픈소스, 저작권 등에 대해 배우며 소프트웨어를 쉽게 익힐 수 있도록 했다.본선에 진출한 팀에는 삼성전자 소트프웨어 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다.오는 7월3일에는 온라인으로 누구나 AI(인공지능)를 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 열 계획이다.올해 '삼성 주니어 SW 창작대회' 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정돼 상금과 IT(정보통신) 제품을 부상으로 받게 된다. 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부한다.이번 대회는 오는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다. 참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 삼성 주니어 SW 창작대회 홈페이지에서 접수할 수 있다.삼성전자는 '함께가요 미래로! Enabling People'이라는 CSR(사회공헌활동) 비전 아래 청소년 교육 중심의 사회공헌 활동과 상생 활동을 펼치고 있다.청소년 교육 중심 활동으로는 △삼성 주니어 SW 아카데미 △삼성청년SW아카데미 △삼성 드림클래스 △삼성 스마트스쿨과 같이 청소년의 잠재력을 최대한 발휘할 수 있도록 하는 프로그램을 운영하고 있다.또 △삼성미래기술육성사업 △스마트공장 △C랩 아웃사이드 등의 상생 프로그램을 통해 삼성전자가 쌓아온 기술과 혁신의 노하우를 우리 사회와 같이 나누고 있다.삼성 주니어 SW 창작대회 포스터./사진제공=삼성전자</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		(서울=연합뉴스) 김영신 기자 = 삼성전자는 7월1일부터 청소년을 대상으로 '2021 삼성 주니어 소프트웨어(SW) 창작대회'를 개최한다고 30일 밝혔다.    삼성 주니어 SW 창작대회는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회로, 지난해까지 1만1천354팀에서 3만967명이 참여했다.    대회는 삼성전자가 주최하고 교육부와 한국과학창의재단, 소프트웨어 중심대학 협의회가 후원한다.    올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 온라인으로 열린다. 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심있는 누구나 참가할 수 있다.2021 삼성 주니어 SW 창작대회 포스터[삼성전자 제공. 재판매 및 DB 금지]    참가자들은 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다.     삼성전자는 청소년들이 반짝이는 아이디어만 있으면, 소프트웨어를 잘 몰라도 대회에 참가해 사용자의 입장에서 문제를 찾아 해결하는 '디자인 씽킹' 교육뿐만 아니라 코딩, 오픈소스, 저작권 등에 대해서도 배워가며 소프트웨어를 쉽게 익힐 수 있도록 대회 과정을 구성했다.    본선 진출 팀에게는 삼성전자 소프트웨어 개발자들의 멘토링과 임직원들의 피드백 등을 제공한다. 3일에는 온라인으로 누구나 인공지능(AI)을 배우고 소프트웨어 명사 강의를 듣는 오픈 클래스를 개최한다.    올해 삼성 주니어 SW 창작대회에서는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개팀이 선정해 상금과 IT 제품을 수여한다. 삼성전자는 수상팀이 속한 학교에도 IT 제품을 기부한다.    이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정이다.    참가를 희망하는 청소년들은 7월 1일부터 21일 오후 4시까지 홈페이지(www.juniorsoftwarecup.com)에서 접수할 수 있다. shiny@yna.co.kr</t>
-  </si>
-  <si>
-    <t>삼성전자가 다음 달 1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다. 사진은 지난해 11월 열린 대회 시상식 모습. /삼성전자 제공2021 삼성 주니어 SW 창작대회 개최…다음 달 1일부터 접수 삼성전자는 다음 달 1일부터 청소년을 대상으로 '2021 삼성 주니어 SW 창작대회'를 개최한다고 30일 밝혔다.'삼성 주니어 SW 창작대회'는 삼성전자가 미래 소프트웨어 인재를 발굴하고 양성하기 위해 2015년부터 실시해온 경진대회다. 일상생활에서 불편한 점이나 문제를 발견해 소프트웨어를 활용한 해결책을 제시하면 된다. 지난해까지 1만1354팀에서 3만967명의 청소년이 대회에 참여했다.'삼성 주니어 SW 창작대회'는 삼성전자가 주최하고, 교육부·한국과학창의재단·소프트웨어 중심대학 협의회가 후원한다.올해 7회를 맞는 이번 대회는 '소프트웨어로 만드는 더 나은 미래'를 주제로 진행된다. 초등학교 4학년부터 중·고등학생까지 소프트웨어에 관심 있는 누구나 참가할 수 있다.대회는 신종 코로나바이러스 감염증(코로나19) 상황을 고려해 전 과정이 온라인으로 진행된다.삼성전자는 청소년들이 반짝이는 아이디어만 있다면, 소프트웨어를 잘 몰라도 대회에 참가해 사용자 입장에서 문제를 찾아 해결할 수 있도록 '디자인 씽킹' 교육을 실시한다. 또 코딩, 오픈소스, 저작권 등에 대해서도 교육하며 소프트웨어를 쉽게 익힐 수 있도록 구성했다.본선에 진출한 팀에게는 삼성전자 소프트웨어 개발자들의 멘토링도 지원한다. 삼성전자 임직원들은 참가팀들과 함께 아이디어를 발전시키고, 소프트웨어 개발에 대한 심층적인 피드백을 제공한다. 오는 3일 온라인으로 누구나 AI를 배우고, 소프트웨어 명사 강의를 들을 수 있도록 하는 오픈 클래스도 연다.올해 '삼성 주니어 SW 창작대회' 최종 수상에는 대상 1팀, 최우수상 3팀, 우수상 3팀, 장려상 3팀, 공감상 1팀 등 총 11개 팀이 선정된다. 수상자들은 상금과 IT 제품을 부상으로 받게 된다.삼성전자는 수상팀이 속한 학교에도 노트북, 태블릿 등과 같은 IT 제품을 기부할 계획이다.삼성전자 관계자는 "이번 대회는 10월까지 결선을 진행하고 11월에 시상식이 개최될 예정"이라며 "참가를 희망하는 청소년들은 다음 달 1일부터 21일 오후 4시까지 홈페이지에서 접수할 수 있다"고 설명했다.한편 삼성전자는 '함께 가요 미래로! 인에이블링 피플(Enabling People)'이라는 CSR 비전 아래 청소년 교육 중심의 사회공헌 활동과 상생 활동을 펼치고 있다.청소년 교육 중심 활동으로는 △삼성 주니어 SW 아카데미 △삼성 청년 SW 아카데미 △삼성 드림클래스 △삼성 스마트스쿨 등과 같이 청소년의 잠재력을 최대한 발휘할 수 있도록 하는 프로그램을 운영하고 있다.또한, △삼성미래기술육성사업 △스마트공장 △C랩 아웃사이드 등의 상생 프로그램을 통해 삼성전자가 쌓아온 기술과 혁신의 노하우를 우리 사회와 같이 나누고 있다.</t>
-  </si>
-  <si>
-    <t>교육 현장에 무료 배포네이버 커넥트재단이 인공지능 윤리 교재를 출간했다.  [사진=네이버 커넥트재단]네이버 커넥트재단(이사장 조규찬)이 운영하는 '소프트웨어야 놀자'에서 인공지능(AI) 윤리 교재를 오픈했다.네이버 비영리 교육재단인 네이버 커넥트재단은 AI와 데이터과학 교재에 이어 '소프트웨어야 놀자 AI 윤리교재'를 공개했다고 30일 발표했다.이번 '소프트웨어야 놀자 인공지능 윤리 교재'는 초중등 소프트웨어(SW)·AI교육 분야를 연구하는 고려대학교 김현철 교수 연구팀과 협업한 결과물로, ▲인공지능의 신뢰성 ▲인공지능의 편향성 ▲인공지능의 악용 가능성 ▲인공지능의 책임성 등 총 4개 주제로 구성돼 있다.교사와 학부모는 네이버 커넥트재단이 운영하는 '소프트웨어야 놀자'에서 해당 교재를 무료로 다운로드 받아 학생들에게 인공지능 기술과 윤리 문제에 대해 가르칠 수 있다. 수업자료 뿐만 아니라 수업지도안, 학생용 워크시트, 다양한 교육 콘텐츠까지 함께 제공되어 수업에 활용 가능하다.특히 '소프트웨어야 놀자 인공지능 윤리 교재'는 학생들이 직접 엔트리와 네이버의 인공지능 서비스를 활용해 인공지능과 윤리문제를 체험할 수 있다. 인공지능 윤리 문제와 영향력, 해결방안 등을 토론하며 인공지능 윤리에 대한 책임감을 기를 수 있도록 실습과 참여 위주의 교육 프로그램으로 구성되어 있다.한편, 네이버 커넥트재단은 앞으로도 국내 AI·SW 교육 대중화를 위해 교육 콘텐츠 및 교재 개발, 교사 연수 프로그램 확대 등 다양한 노력을 확대해나갈 예정이다.</t>
-  </si>
-  <si>
-    <t>부산시학생교육문화회관 대강당 *재판매 및 DB 금지[부산=뉴시스] 하경민 기자 = 부산시학생교육문화회관은 지난해 11월부터 최근까지 전 시설 재구조화와 공간혁신을 통해 복합문화예술공간으로 새단장했다. 부산내셔널유스오케스트라(지휘 금난새)의 질 높은 연습과 공연을 위해 협소했던 대강당 무대를 확장하고, 주제기획전과 작가초청전 등 다양한 전시를 위해 교문갤러리도 재구조화했다.외부 벽면에 LED 간판을 설치하고 통행량이 많은 인근 어린이대공원 통행 계단에 회관 홍보 이미지를 꾸며 이용자들이 쉽게 회관을 찾아올 수 있도록 했다. 회관 입구에는 포토존을 설치해 학생들과 시민들이 함께 즐길 수 있도록 했으며, 수영장 환경개선과 주차장 도색 등 각종 노후시설물 보수를 통해 학생과 시민들이 깨끗하고 안전하게 이용할 수 있도록 했다. ◇부산SW마이스터고, MS 클라우드 자격증 'AZ-900' 13명 합격부산소프트웨어마이스터고 학생 13명이 마이크로소프트 애저 클라우드 자격증 'AZ-900' 시험에 합격했다.AZ-900은 기업 IT 분야에서 클라우드 엔지니어가 되기 위한 다양한 내용들을 다루는 시험이다.이 학교 학생들은 부산시교육청이 구축한 B-MOOC 플랫폼에 탑재된 인공지능 이해와 인공지능 융합분야 등 SW·AI교육 관련 콘텐츠를 활용해 시험을 준비했다. B-MOOC의 B는 부산시교육청, MOOC는 온라인 공개수업(Massive Open Online Course)을 뜻한다.AZ-900 시험은 1000점 만점에 700점 이상을 받으면 자격증을 수여하는데, 이번 시험에 응시한 이 학교 학생 45명의 평균 점수는 603점으로 고등학생이 아닌 일반 응시자들의 평균이 595점인 점을 고려할 때 고무적인 결과라고 학교 측은 설명했다.◇부산창의융합교육원, 해양 창작 메이커 교실부산시창의융합교육원은 7월10일부터 8월21일까지 매주 토요일 창의융합교육원 지하 1층 해양수족관과 해양과학전시실 등에서 해양과학실 재개관 특별 프로그램 '해양 창작 메이커 교실'을 운영한다.참가 학생들은 해양과학실의 선박 체험물을 활용한 수륙양용 풍력 제트스키 만들기, 아쿠아리움의 물고기를 활용한 '찰칵찰칵, 해양감성 폴라로이드 사진첩 만들기'와 '엔트리 코딩 아카데미' 등 다양한 체험활동을 하게 된다.참가 희망자는 7월1일 오전 10시부터 부산창의융합교육원 홈페이지 또는 부산시교육청 통합예약시스템을 통해 신청하면 된다. 초등학교 3학년 이상이면 신청할 수 있다.</t>
-  </si>
-  <si>
-    <t>한국외국어대학교(HUFS·총장 김인철)는 내달 3일 부산을 시작으로 27일 대구, 29일 광주, 30일 대전, 8월 14일 서울 순으로 전국 5개 권역 ‘ALL-IN-ONE 권역별 설명회’를 개최한다고 30일 밝혔다. 설명회는 수험생 및 학부모를 대상으로 하는 1부와 교사를 대상으로 하는 2부로 나뉜다. 1부에선 지원전략 설명회를 통해 2022학년도 수시모집 주요 사항과 전년도 전형 결과를 공개한다. 또 학부모 브런치톡을 통해 입학사정관과의 1대1 밀착 상담도 진행된다. 2부에선 교사 대상 콘퍼런스가 열려 진로 진학 담당 교사들에게 2022학년도 지원전략을 안내하고, 고교 현장의 의견을 수렴하는 자리가 마련된다. 박선영 입학총괄팀장은 “지역별, 대상별 프로그램을 세분화해 맞춤형 입시 정보를 제공함으로써 입시수요자들의 전형 준비와 이해를 도와 전형을 투명하고 공정하게 운영하고자 설명회를 준비했다”고 밝혔다.행사는 신종 코로나바이러스 감염증(코로나19) 상황을 고려해 프로그램별 사전 신청자에 한해 참가할 수 있다. 프로그램별 선착순 신청 인원은 지원전략 설명회 150명, 학부모 브런치톡 120명, 교사 콘퍼런스 150명이다. 대구, 광주, 대전은 내달 12일 오전 10시부터, 서울은 8월 2일 오전 10시부터 신청이 가능하다. 양재완 한국외대 입학처장은 “새로운 사회적 거리두기 지침이 적용됨에 따라 방역 수칙을 준수하며 전국의 수험생과 학부모들에게 전형 준비를 도와드리기 위해 행사를 준비했다”고 밝혔다. 김인철 총장은 “특수외국어 전문교육기관이라는 한국외대만의 강점에 경영·경제, SW, IT 등 다른 학문을 융합함으로써 ‘한국외대형’ 미래인재를 양성하기 위해 입학 전형에서부터 한국외대의 교육 비전을 담았다”며 “이번 행사를 통해 많은 분께서 대입 준비의 어려움을 해소하고, 한국외대의 비전을 접하길 바란다”고 전했다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 비행기를 타고 낯선 땅을 밟았다가 영어를 몰라 당황한 경험이 있을까. 일찍이는 유아기 때부터 늦어도 공교육에서 영어 교육이 보편화된 상황인 지금, 대부분 ‘아니’라고 대답할 것이다. 그런데 어르신들은 다르다. 어느 날 길을 걷다가 어르신께서 약속 장소인 유명 프랜차이즈 카페를 찾지 못해 방황하시는 모습을 봤다. 결국 방향과 함께 ‘초록색 간판, 긴 머리 한 사람 그림이 그려진 곳으로 가시면 됩니다.’는 설명을 해드린 기억이 있다. 알파벳이 지구촌을 점령했듯이, 인공지능(AI)이 일상생활에 깊이 스며드는 시대가 열렸다. 코로나19 경제 위기와 함께 비대면화, 디지털화, 지능화 등 산업 구조 변화가 맞물려 진행되고 있다. 디지털 대전환 시대를 맞아 인공지능·소프트웨어(SW) 등 신산업 분야에서 필요로 하는 적극적인 인재 양성이 필요한 시점이다. 특히 인공지능 분야 후발주자인 우리나라는 경각심을 갖고 사람에 대한 과감한 투자가 필요하다. 정부에서 관계부처 합동으로 2019년 12월 ‘인공지능 국가전략’을 발표하고 사회 혁신의 동력으로 삼고자 정책적 노력을 기울이는 점은 참 다행스러운 일이다. 특히 우리나라는 높은 교육 수준과 신기술 수용성, 세계 최고 수준의 정보통신 인프라 등 인공지능(AI) 강국으로 도약할 동력을 충분히 갖추고 있다. 무엇보다 국민 누구나 인공지능을 활용할 수 있어야 된다는 사실을 간과해서는 안 된다. 요즘에는 초등학생들도 코딩 교육을 받고, 인공지능이 만들어지는 원리를 쉽게 배울 수 있는 프로그램이 보편화되어 있다.  문제는 이제 산업 현장에 뛰어들 예비 사회초년생들이다. 이들은 정규 교육과정에서 인공지능의 기본 원리조차 학습하지 못한 세대다. 세계 공용어인 영어의 알파벳을 모르는 셈이다. 한국폴리텍대학은 직업기술교육대학인만큼 교육의 현장성이 무엇보다 중요하다. 산업현장과 시차를 줄여나가야 한다. 그래서 인공지능이 일상생활에까지 스며든 지금, 이제라도 인공지능교육에 나섰다. 기존 산업 기술에 인공지능 기술을 융합하여 산업현장에서 기술 혁신을 촉진할 수 있는 ‘AI+x’ 인재를 키우기 위해서다.예를 들어 정보통신, 제어, 자동차 등 기존 사업에 머신러닝·딥러닝 등 인공지능 기술을 융합해 AI 정보보안, 인공지능 제어, 자율주행차 등으로 영역을 확장시켜 나가는 방식이다. 이를 위해 정보통신기술(IT) 전공자 대상으로는 파이썬 프로그래밍 언어를 이용한 머신러닝 알고리즘 실습 등 심화교육을, 기타 전공자 대상으로는 생활 속에서 경험하는 인공지능 등 친화교육을 실시하는 투 트랙(Two-Track) 방식으로 2학기부터 전면 교육에 들어간다. 흥미 유발 친화적 교수법을 적용한 실습 중심 교원 연수도 진행하며 교육 준비에 속도를 높이고 있다. 글로벌 경제가 가속화되면서 기술은 어떤 자원이나 자본보다 더 큰 영향력을 발휘하고 있다. 산업과 기술의 변화를 읽는 눈을 밝혀야 할 때다. 이제라도 인공지능 분야에 대한 아낌없는 사람투자를 통해 신산업 분야 경쟁력을 강화하고 우위를 선점하는 게 중요하다.  아픈 사람은 누구나 병원에 갈 권리를 누린다. 일하고 싶은 사람도 언제 어디서나 일할 수 있는 사회를 만들어야 한다. 일하고자 하는 사람은 누구나 직업 선택의 자유를 갖고, 모두에게 일자리를 제공할 수 있는 시스템을 구축해야 한다. 그러기 위해서는 국민 모두가 인공지능을 잘 활용할 수 있도록 교육 체계에도 혁신이 필요하다. 생애주기별 맞춤형으로 온·오프라인 교육 프로그램을 확충하고 인공지능 기술 수용도를 높여야 한다.   인공지능 시대에 길을 잃고 헤매는 누군가가 발생하지 않길 바란다.&lt;한국폴리텍대학 조재희 이사장&gt;</t>
-  </si>
-  <si>
-    <t>내년부터 2300명… 부울경 캠퍼스 신설지난 9일 서울 강남구 멀티캠퍼스 교육센터에서 열린 ‘삼성 청년SW아카데미’ 4기 수료식에서 수료생들과 관계자들이 기념 촬영하고 있다.삼성전자 제공삼성의 대표적인 사회공헌활동으로, 경제활성화와 청년 일자리 창출을 위해 시작한 ‘삼성 청년SW아카데미’가 내년부터 교육생 규모를 2배 수준으로 확대한다.29일 삼성전자 등에 따르면 ‘삼성 청년SW아카데미’는 정부의 ‘2021년 하반기 경제정책방향’에 따라 내년도 교육생 규모를 기수당 1150명까지 확대할 방침이다. 연간 기준 약 2300여명이 해당 아카데미에 참여하는 것으로, 지난해와 비교하면 규모가 2배 이상 늘어난다. 삼성전자는 지난해 상·하반기에 각각 500명씩 모집하던 기수별 교육생을 올해 상반기 750명, 하반기 950명으로 확대한 바 있다. 더불어 다음달 부산·울산·경남 캠퍼스를 부산에 신설하게 돼 지역별 캠퍼스는 서울과 대전, 광주, 구미에 이어 총 5개로 늘어난다.이 같은 변화는 정부가 전날 발표한 ‘하반기 경제정책방향’에 포함된 기업 우수 인재양성 프로그램 확대 방침에 따른 것이다. 이들 기업과 협의를 거친 기획재정부와 고용노동부는 해당 프로그램의 교육생 훈련 및 강사 선발 교육 커리큘럼 구성은 기업들이 자율적으로 기획·운영하도록 하고 교육 규모 확대에 따른 비용 일부를 정부가 분담하기로 했다. 대한상공회의소는 각 기업들에 필요한 행정사항을 지원하고 신규 참여기업 발굴과 교육 수료생의 취업 지원을 맡게 된다.삼성전자 외에도 SK하이닉스의 반도체 인재양성 프로그램인 ‘청년 하이파이브’와 포스코의 ‘AI·빅데이터 아카데미’ 등 주요 기업들이 운영하는 디지털 인재양성 프로그램도 정부와 협의를 거쳐 교육 과정과 인프라를 확대하기로 했다.특히 삼성전자의 청년SW아카데미는 2018년 도입된 이후 수료생들의 누적 취업률이 68%에 이를 만큼 취업준비생들에게 큰 인기를 끌고 있다. 이재용 부회장이 직접 교육 현장을 찾기도 하는 등 경영진 차원에서도 큰 관심을 갖고 있는 것으로도 알려져 있다.</t>
-  </si>
-  <si>
-    <t>SK하이닉스·포스코도 확대키로삼성청년SW아카데미(SSAFY·사진) 등 대기업 우수 인재양성 프로그램이 대폭 확대된다.삼성전자, SK하이닉스, 포스코와 대한상공회의소, 기획재정부, 고용노동부 등은 지난 24일 ‘기업 우수 인재양성 프로그램 확대’ 사업을 위한 실무협의회를 개최했다고 29일 밝혔다.앞서 정부는 ‘하반기 경제정책 방향’을 발표하면서 대기업이 사회공헌 차원에서 청년층에 제공하고 있는 ‘디지털 분야 우수 인재양성 프로그램’을 ‘민간-정부 파트너십’을 통해 대폭 확대하기로 했다. 교육생·훈련강사 선발, 교육내용 구성 등은 기업이 지금과 같이 자율적으로 기획·운영하되, 기업이 교육 규모를 최대한 확대할 수 있도록 교육 확대에 따른 비용의 일정 부분을 정부가 분담하는 것이 골자다.파트너십을 통해 확대되는 교육 프로그램은 삼성전자 SSAFY, SK하이닉스 청년 하이파이브, 포스코 AI·빅데이터 3개 과정이다. 2020년 1500명이었던 전체 교육훈련생 규모는 내년까지 2배 이상 확대할 예정이다.삼성전자는 지난해 기수당 500명(연2회 모집)이었던 훈련생을 올해 상반기 750명(5기), 하반기 950명(6기)으로 순차적으로 확대한다. 내년부터는 교육규모를 기수당 약 1150명까지 늘릴 계획이다. 또 다음 달 부울경캠퍼스를 신설하고 구미·광주캠퍼스 교육인원을 확대하는 등 지방교육도 강화한다. SSAFY는 매달 100만원씩 제공하며 집중 소프트웨어 교육을 시키는 프로그램으로 취업률이 70%에 육박하는 프로그램이다. 이재용 삼성전자 부회장이 “소프트웨어 인재 양성은 IT생태계 저변 확대를 위해 필수적이다”며 직접 챙기는 사회공헌활동 중 하나다.</t>
-  </si>
-  <si>
-    <t>이재용 “미래 위한 씨앗” 공들여와 SSAFY 교육생 연간 2250명으로문과생에도 SW 등 실무체험 기회SK-포스코도 반도체 AI 분야 교육…정부 “청년 취업플랫폼으로 키울것”삼성전자 차세대 소프트웨어(SW) 인력 양성 프로그램 ‘삼성 청년 소프트웨어아카데미(SSAFY)’ 4기 대전캠퍼스 교육생들이 함께 교육과정에 참여하고 있다. 삼성전자 제공정부와 삼성, SK, 포스코가 손잡고 청년 취업 교육에 나선다. 삼성전자, SK하이닉스, 포스코가 운영 중인 교육 프로그램을 정부가 지원하며 대폭 확대하기로 한 것이다.  29일 기획재정부와 대한상공회의소, 삼성전자 등은 ‘민간-정부 파트너십’을 통해 각 기업이 취업준비생을 비롯한 청년층에 제공해온 인재 양성 프로그램 대상을 대폭 확대할 계획이라고 밝혔다. 기업이 자율적으로 운영하되 정부가 교육 확대에 따른 비용을 분담하는 방식이다. 대한상의는 새롭게 참여할 기업을 발굴하고, 교육 수료생들이 관련 분야에 취업할 수 있도록 지원할 예정이다.  그동안 정부는 국내 주요 대기업에 취업준비생을 위한 교육 프로그램을 마련해 달라고 요구해 왔다. 신종 코로나바이러스 감염증(코로나19) 사태로 기업 경영의 불확실성이 높아져 채용 규모를 늘리기에는 무리가 있으니 차선책으로 취업 교육 프로그램을 만들어 달라는 요청이었다. 실제 김용기 대통령 직속 일자리위원회 부위원장은 지난해 6월부터 삼성, SK 등 기업을 개별적으로 접촉해 이 같은 방안을 찾아왔다. 당시 삼성전자가 2018년부터 운영해온 ‘삼성 청년 소프트웨어아카데미(SSAFY)’가 대표 모델로 거론된 것으로 알려졌다.  SSAFY는 삼성전자가 차세대 소프트웨어(SW) 인력 양성을 위해 마련한 과정으로 한 해 사회공헌활동 예산 중 가장 큰 비중을 투자할 정도로 공을 들여온 프로그램이다. 이재용 삼성전자 부회장도 2019년 8월 광주 교육장을 찾아 “소프트웨어 인재 양성은 정보기술(IT) 생태계 저변 확대에 필수적이며 미래를 위해 지금 씨앗을 심어야 한다”고 SSAFY 프로그램 필요성을 강조하기도 했다.  29세 이하 4년제 대학 졸업생 중 선발된 교육생에게 1년 동안 1600시간의 교육 프로그램을 제공하고, 교육생 전원에게 매달 지원금 100만 원을 지급한다. 문과생도 SW 개발자의 꿈을 가질 수 있고, 컴퓨터 전공자는 개발 실무를 체험할 수 있어 인기가 높은 편이다. 2018년 12월 1기 교육이 시작된 이후 지난해 말까지 2087명이 교육 과정을 수료하고 이 중 1411명이 취업에 성공해 취업률이 68% 수준으로 나타났다. 취업한 기업은 삼성전자를 비롯해 신한은행, 카카오, 네이버, 쿠팡, 현대자동차 등이었다.   삼성전자는 이번 정부 지원을 계기로 상·하반기 각 500명을 선발하던 교육 인원을 내년부터 각 1150명까지 두 배 이상으로 확대한다. 또 서울, 대전, 광주, 구미 등 총 4개 지역의 교육 캠퍼스에 7월 신설되는 부산의 부울경캠퍼스가 더해져 총 5개 지역에서 운영된다. 삼성전자 측은 “구미, 광주 등 지방 캠퍼스 교육 인원을 확대해 지방 청년층을 대상으로 한 교육을 강화할 예정”이라고 밝혔다.  SK하이닉스도 자체 교육 과정인 ‘청년 하이파이브 프로그램’을 올해 하반기(7∼12월)부터 확대 운영한다. 직무 교육 및 협력사 인턴십 등으로 이뤄졌던 이 프로그램에서 직무 교육을 분리하고, 별도 교육 과정을 추가해 기존 인원(연 300명)보다 늘어난 연 400명 이상에게 반도체 관련 취업 교육 훈련을 제공할 계획이다. 포스코는 인공지능(AI)·빅데이터 전문인재 과정의 교육 인원을 확대한다. 현재 200명 안팎이던 교육 인원을 내년 연 300명 수준으로 확대한다. 기획재정부는 “단순한 교육 프로그램을 넘어 청년과 기업을 연결하는 ‘청년 디지털 취업플랫폼’으로 자리매김할 수 있도록 할 계획”이라고 말했다.</t>
-  </si>
-  <si>
-    <t>김경수 지사 취임 3주년 기자회견김경수 경남도지사가 취임 3주년을 앞둔 28일 도청 대회의실에서 ‘청년특별도 경남’의 준비상황과 미래비전에 대해 설명하고 있다. 경남도 제공“청년이 떠나가면 미래가 없습니다. 청년이 살고 싶은 곳이어야 주민 모두가 잘 살 수 있다고 확신합니다.” 김경수 경남도지사는 29일 취임 3주년을 앞두고 그간의 주요 성과를 설명한 뒤 남은 임기 1년을 “‘청년이 살고 싶은 더 큰 경남’을 구축해 ‘모두가 잘 사는 더 큰 미래’를 만들겠다”고 강조했다. 정치권에선 최근에야 ‘청년’을 화두로 삼기 시작했지만 김 지사는 지난해 초부터 ‘청년특별도 경남’을 기치로 청년 정책 특화에 주력하고 있다. 2013년까지 5000명 안팎의 안정적 증가세를 보이던 경남의 20, 30대 청년 인구가 2015년 1만 명 이상 감소한 데 이어 지난해엔 1만8800명까지 줄었기 때문. 김 지사는 ‘청년이 살고 싶은 경남’의 첫 과제로 광역 대중교통망 확충을 꼽았다. 행정과 교통, 장기 발전 비전을 구상하면서 대중교통을 이용하는 청년들이 편리하도록 해야 매력적인 지역이 될 수 있다는 논리다. 창원시청에서 부산시청까지 약 40km 거리를 2시간 반 이상이 걸리는 교통 여건에서는 청년 일자리 마련이 매우 제한적일 수밖에 없다는 것이다. 이에 따라 부산 울산 경남의 광역 대중교통망을 구축해 공간범위를 800만 대도시로 확장시켜야 한다는 것이 김 지사의 구상이다. 그는 “정부와 협의를 거쳐 부울경 순환철도와 부산∼양산∼울산 광역철도 등 광역교통망 건설의 대체적인 방향은 잡았다. 동일 생활권, 동일 경제권의 초석이 될 것”이라고 전망했다. 김 지사는 두 번째 과제로 청년 일자리 창출을 들었다. “2019년부터 추진한 제조업의 스마트화 효과로 생산과 수출, 고용 등에서 큰 성과가 나타나고 있다”면서 “특히 정보기술(IT)과 소프트웨어(SW) 분야 종사자는 2019년 대비 지난해 980명이 늘었다”고 설명했다. 이 같은 기초 위에 경남 웹툰 캠퍼스와 콘텐츠기업지원센터 등을 만들었고, 수도권에 있던 유명 웹툰 업체의 경남 이전이 성사됐다. 청년들이 선호하는 IT와 콘텐츠산업 분야 일자리도 지속적으로 증가하고 있다. 김 지사는 “교육과 인재 양성에도 힘을 쏟겠다”고 밝혔다. 그래야 인재 확보의 어려움 때문에 수도권에 눌러앉아 있는 첨단기업의 유인이 가능하다고 판단한 것이다. 그는 “지역인재 혁신 플랫폼을 통해 연간 800명의 융·복합 우수인력을 기업에 공급하고, 수도권 업체의 경남 유치를 위한 파격적인 인센티브도 마련하고 있다”고 말했다. 평소에도 청년들과 대화를 즐기는 그는 청년 주거와 문화지원, 그리고 정책 참여 활성화에도 주력하기로 했다. 경남맞춤형 청년주택 공급과 청년·신혼부부 맞춤 주거정보 플랫폼 운영을 비롯해 청년 문화 향유기회 확대, 청년과 함께하는 정책 수립 등을 통해서다. 김 지사는 이런 세부 과제를 아우르는 용광로로 ‘부울경 메가시티’를 강조했다. 부산·울산광역시와 창원특례시, 진주시(경남혁신도시) 등 4대 거점도시 중심의 메가시티라야 수도권 1극(極) 체제에 대응하는 새로운 발전 축으로 자리 잡을 수 있고, 제대로 된 청년 공간이 생긴다는 논리다. 그는 부울경 메가시티를 성공시키는 것이 대한민국 균형발전의 출발점이라는 확신과 함께 필생의 꿈으로 여긴다. 내년 출범하는 행정청인 광역특별연합에서 광역 교통, 동북아 물류, 관광 등 시너지 효과가 나는 분야를 함께 처리하고 2027년 무렵엔 단일 행정기구를 지향하자는 게 그의 복안이다. 2025년을 청년 인구 반등 시기로 예상한 김 지사는 “청년이 살고 싶은 경남이란 아이 키우기 좋고, 아이가 행복하며 여성에게 기회가 있는 경남이다. 더불어 중장년에게 힘이 되고 노후가 편안해야 한다”며 “모든 도민과 함께 더 큰 미래를 만드는 데 힘을 쏟겠다”고 약속했다.</t>
-  </si>
-  <si>
-    <t>삼성전자2018년 10월 삼성청년SW아카데미 서울 캠퍼스에 입과한 1기 교육생들. 삼성전자 제공삼성전자는 2019년 CSR 비전 ‘함께가요 미래로! Enabling People’ 아래 삼성 주니어·청년 소프트웨어 아카데미, 삼성드림클래스, 삼성스마트스쿨 등 청소년 교육 중심의 사회공헌활동과 상생 활동을 펼치고 있다. 또 삼성미래기술육성사업, 스마트공장, C랩 아웃사이드, 협력회사 상생펀드 등 상생 활동에도 힘쓰고 있다.  이 밖에도 사회복지공동모금회와 함께 국내 최대 사회복지 공모사업인 ‘나눔과 꿈’을 통해 좋은 아이디어를 갖고 있지만 재원이 부족한 비영리단체를 지원하고 있다. 복지시설에서 보호를 받으며 생활하다 만 18세가 돼 사회로 진출하는 ‘보호종료 청소년’을 위한 자립 지원 프로그램인 ‘삼성 희망디딤돌’도 후원하고 있다. 삼성전자는 지난해 신종 코로나바이러스 감염증(코로나19) 극복에도 적극적으로 나섰다. 구호성금 300억 원을 기부했으며 국내 경기 활성화를 돕기 위해 온누리상품권 300억 원어치를 구매해 협력회사에 지급한 바 있다. 또 삼성 13개 계열사가 참여해 2020년 연말 이웃사랑 성금으로 500억 원을 사회복지공동모금회에 기탁했다. 성금은 청소년 교육 지원, 취약계층 생계 지원, 사회 복지시설 개보수 등에 사용하기로 했다. 삼성전자가 1999년부터 지난해까지 기탁한 성금은 총 6700억 원에 달한다.삼성청년SW아카데미 2년간 1000여 명 취업 삼성전자 C랩 사내 과제로 시작해 2021년 스타트업에 도전하는 11명의 창업자.‘삼성청년SW아카데미’는 국내 IT 생태계 저변을 확대하고 청년 취업 경쟁력을 높이기 위해 실시하는 CSR 프로그램이다. 삼성전자는 고용노동부와 함께 교육생 선발, 교육 운영, 취업 지원 등 전 분야에서 긴밀히 협력해 취업을 준비하는 청년들을 돕고 있다. 2018년 12월부터 시작한 삼성청년SW아카데미에서는 2020년 말 수료한 3기까지 1623명을 배출했다. 이 가운데 1009명이 취업해 62%의 취업률을 나타냈다. 2020년 7월에 입과해 2021년 6월 수료 예정인 4기 500명 가운데서도 이미 91명이 교육 6개월여 만에 조기 취업에 성공했다. 이들이 취업한 기업은 370여 개에 달한다. 올 1월부턴 5기 교육생 750명 대상으로 교육을 시작했다. 6기 교육생으로 선발된 900명은 7월부터 교육에 들어갈 예정이다. 삼성청년SW아카데미는 코로나19 확산에 대응해 온라인 수업 인프라를 신속하게 갖추고 교육생에게 고사양 노트북과 실습을 위한 키트를 전달해 온·오프라인 교육을 병행했다. 삼성청년SW아카데미는 1년간 매일 8시간씩 총 1600시간의 집중적인 교육과 교육생간 협업 프로젝트 등을 통해 빠른 시간 안에 기업에 즉각 투입될 수 있는 역량을 갖춘 소프트웨어 개발자를 양성하는 과정을 운영하고 있다. 교육은 1년간 1, 2학기 과정으로 구성된다. 1학기는 알고리즘과 코딩의 소프트웨어 기본을 다지는 교육, 2학기는 프로젝트 기반으로 기업의 실무 환경과 동일한 개발 방식을 활용해 실전형 개발자를 양성하는 심화교육으로 진행된다. 또 기업들과 연계한 산학 프로그램을 통해 풍부한 현장 경험을 쌓을 수 있는 기회도 제공한다. 교육생 전원에게는 매달 100만 원의 교육 지원금도 지급하고 있다.C랩 통해 국내 스타트업 생태계 활성화 기여 2019년 11월 삼성 서울R&amp;D캠퍼스에서 열린 ‘C랩 아웃사이드 데모데이’에서 1년간 삼성전자의 지원을 받은 스타트업들이 그간의 성과와 소감을 발표하는 모습.삼성전자 사내 벤처프로그램 C랩은 창의적인 끼와 열정이 있는 임직원들에게 아이디어를 직접 구현해볼 수 있는 기회를 제공하는 프로그램이다. 삼성전자가 창의적 조직문화 확산을 위해 2012년 말 도입했다. 2018년 10월부터는 C랩 운영 노하우를 사외로 확대해 외부 스타트업을 지원하는 C랩 아웃사이드 프로그램도 진행 중이다.  삼성전자는 2018년부터 5년간 C랩 아웃사이드를 통해 외부 스타트업 300개 육성, C랩 인사이드로 사내 임직원 스타트업 과제 200개 지원 등 총 500개를 육성하겠다고 발표한 바 있다. C랩 아웃사이드는 혁신 스타트업에 기술 지원부터 투자 유치까지 전폭적으로 지원하고 삼성전자와의 사업 협력 방안 모색 기회도 제공한다. 선발된 스타트업은 각 지역의 육성 프로그램에 따라 약 6개월에서 1년간 △무상 사무공간 △삼성전자 전문가 멘토링 △CES, MWC, IFA와 같은 글로벌 전시 참가 지원 △최대 1억 원 지원금 등을 받을 수 있다. 삼성전자는 지난해 11월 C랩 아웃사이드로 지원할 신규 스타트업 18개사를 선정했다. 착한 기술을 가진 스타트업부터 AI·헬스케어, 딥테크, 콘텐츠 서비스까지 다양한 사업 분야의 스타트업이 선발됐다.  삼성전자는 C랩 인사이드 창업자들에게 초기 사업자금과 창업지원금을 제공한다. 창업 후 5년 내 재입사 기회도 부여한다. 올 5월에 독립한 4개 스타트업을 포함해 현재까지 182명이 독립해 52개 스타트업을 설립했다.중기 대상 ‘스마트공장 구축’ 상생 활동 삼성전자는 2015년부터 추진해오던 중소기업 대상 제조 환경 개선 사업인 스마트공장 구축 지원 사업을 2018년부터는 중소·중견기업에 필요한 종합지원 활동으로 발전시켜 지원해 왔다.  삼성전자는 2018년부터 중소벤처기업부, 중소기업중앙회와 협력해 삼성전자와 거래 여부와 상관없이 국내 중소·중견기업을 대상으로 제조현장 혁신, 환경안전 개선, 제조운영시스템 구축뿐 아니라 판로 개척, 인력 양성, 기술 확보까지 지속성장 가능 체계를 구축하는 종합지원 활동으로 추진하는 것이다. 삼성전자는 중소벤처기업부와 2018∼2022년까지 매년 각각 100억 원씩 총 1000억 원을 조성해 중소기업에 스마트공장 구축을 확대한다. 삼성전자는 100억 원의 재원을 추가로 투입해 국내외 바이어 발굴, 글로벌 홍보, 교육 프로그램 등 중소기업 역량 강화를 지원한다. 삼성전자는 200여 명의 제조 전문가를 스마트공장 구축 지원 사업에 투입해 삼성전자의 노하우를 중소기업 상황에 맞게 전수하고 있다.  삼성전자는 최근 5년간 총 2157곳의 중소기업을 대상으로 스마트공장 구축을 지원했다. 특히 2020년은 코로나19 위기 극복을 위해 방역과 건강을 위한 필수 제품인 마스크, 진단키트, 눈 보호구, 손 소독제 등을 생산하는 중소기업 등 20개사를 대상으로 생산성 향상을 위한 긴급 지원에 나선 바 있다.  삼성전자는 지난해 2, 3월 마스크 기업 4개사에 제조 전문가들을 지원해 신규 설비 세팅, 노후설비 재가동 등 혁신 노하우를 마스크 공정에 접목했다. 그 결과 지난해 4월 기준으로 생산 능력을 51% 개선했다. 진단키트 업체 코젠바이오텍은 지난해 5월부터 삼성전자 전문가들과 총 40개 과제의 개선 작업을 실시해 생산성이 주당 5600키트에서 1만 키트로 79% 향상된 바 있다. 또 지난해 12월 말 LDS 주사기 생산 기업 풍림파마텍에 주요 설비 금형 제작, 자동화 시스템 등을 지원해 지원 한 달 만에 LDS 주사기 월 1000만 개 생산이 가능한 양산체제를 구축했다. 삼성전자는 스마트공장 구축이 중소기업의 △종합 경쟁력을 강화를 통한 매출 확대 △제조현장 혁신을 통한 기업 문화 개선 △기업 혁신 기반 마련 등 사회적 가치 창출에 기여할 것으로 기대하고 있다.미래 책임질 과학기술 연구 육성·지원 삼성전자가 2013년부터 1조5000억 원을 출연해 우리나라의 미래를 책임질 과학기술 연구를 육성·지원하는 ‘삼성미래기술육성사업’을 펼치고 있다. 지금까지 670개 과제에 8708억 원을 지원했다. 국제학술지에 총 2127건의 논문이 게재됐고 이 가운데 네이처 7건, 사이언스 8건, 셀 1건 등을 포함해 최상위 국제 학술지에 소개된 논문도 186건에 달한다. 삼성미래기술육성사업은 매년 상·하반기에 각각 기초과학, 소재, 정보통신기술(ICT) 분야에서 지원할 과제를 선정한다. 특히 1년에 한 번 실시하는 ‘지정테마 과제 공모’를 통해 국가적으로 필요한 미래기술 분야를 지정해 해당 연구를 지원하고 있다.  이 밖에 연구 책임자가 연구 성과와 주요 이슈를 설명하고 참석 연구자들과의 토론을 통해 새로운 아이디어를 얻는 ‘애뉴얼 포럼’, 연구 성과의 산업 활용도를 높이기 위한 ‘R&amp;D 교류회’, 활용도가 높은 특허 출원을 지원하는 ‘IP 멘토링’ 등 다양한 프로그램도 운영하고 있다.</t>
-  </si>
-  <si>
-    <t>삼성청년SW아카데미(SAFFY) 확대매년 1천명 이상 교육생, 2천명 이상으로 늘려올 상반기 750명 모집, 하반기엔 950명 예정삼성, 인재 양성 위해 다양한 프로그램 운영 *재판매 및 DB 금지[서울=뉴시스] 옥승욱 기자 = 이재용 삼성전자 부회장의 인재 양성 노력이 삼성청년SW아카데미(SAFFY)를 통해 빛을 발하고 있다. 삼성은 정부의 인재 양성 방침에 맞춰 SAFFY 교육생을 2000명 이상으로 늘리기로 했다. 삼성은 내년부터 삼성청년SW아카데미의 인원을 기수당 약 1150명까지 확대할 계획이라고 밝혔다. 이에 따라 매년 1000명 이상이었던 교육생은 2000명 이상으로 늘어난다. 삼성은 올 상반기 750명의 교육생을 모집했다. 하반기에는 이보다 200명 늘려 950명을 모집할 예정이다. 회사 관계자는 "삼성의 소프트웨어 역량과 노하우를 외부로 확대해 'SSAFY'를 운영할 계획"이라고 말했다.청년들은 실업난을 겪고, 4차 산업혁명을 준비하는 기업들은 인력난을 겪는 '미스 매칭' 상황이 심화되고 있다. 이에 삼성은 2018년 8월 8월 '경제 활성화와 일자리 창출 방안'의 일환으로 청년 소프트웨어 교육 사업을 운영하겠다고 발표했다. 삼성은 소프트웨어 분야를 미래 경쟁력의 핵심이라고 생각하고 1990년대부터 국내 인재 양성을 위해 다양한 교육 프로그램을 운영해 왔다. 그간 축적해온 소프트웨어 교육 경험과 노하우를 외부로 확대해 취업 준비생들에게 새로운 기회를 제공하는 '삼성청년SW아카데미'를 시작했다. 향후 5년간 1만명의 취업 준비생들에게 양질의 교육을 실시하기 위해 2018년 12월 서울, 대전, 광주, 구미 4개 지역에 캠퍼스를 개소했다. 올해 7월부터는 부산에 부울경 캠퍼스를 추가 운영한다. SSAFY는 소프트웨어 전공자 뿐만 아니라 비전공자, 인문계 출신까지 교육을 실시하고 있다. 29세 이하 4년제 대학 졸업자를 대상으로 한다. 업계에선 국내 IT 생태계 저변 확대와 청년 취업 경쟁력 향상에 기여하고 있다고 평가한다. 실제 삼성은 일자리를 구하지 못한 청년들에게는 새로운 진로를 열어주고, 수요에 비해 공급이 부족한 기업들에는 양질의 인력을 제공하고 있다. 국가 차원에서는 소프트웨어 인재를 양성하고, 청년 실업률을 감소시켜 국가 경쟁력 강화에 기여하고 있다. 삼성은 소프트웨어를 "미래 경쟁력의 핵심이자 21세기 경영의 승부처"로 여기고 있다. 이에 내부적으로는 소프트웨어 인재를 체계적으로 양성하는데 힘쓰고, 국가 차원의 소프트웨어 생태계 저변 확대를 위해서도 지속 노력하고 있다. 지난 2019년 8월 이재용 삼성전자 부회장은 '삼성청년SW아카데미' 광주 캠퍼스를 방문해 소프트웨어 교육 현황을 점검하고, 교육생들을 격려했다. 청년 소프트웨어 교육은 평소 기업의 사회적 역할 확대를 강조해 온 이 부회장의 '동행 비전'이 담긴 프로그램이다. 당시 이 부회장은 "소프트웨어 인재 양성은 IT 생태계 저변 확대를 위해 필수적"이라며 "어렵더라도 미래를 위해 지금 씨앗을 심어야 한다. 더 큰 꿈을 실현할 수 있도록 다 같이 도전하자"고 말했다.'삼성청년SW 아카데미'는 교육생들의 취업에 실질적인 도움을 주기 위해 체계적이고 집중적인 지원 활동을 펼치고 있다. 1, 2학기 각각 5개월간의 과정이 끝나면 각각 한 달간 '잡 페어(Job Fair)'를 운영해 우수기업 초청, 회사설명회, 기업탐방 등을 실시한다. 또한 취업지원센터를 운영해 개인별 수준과 적성에 맞는 ▲진로 상담 ▲취업 특강 ▲면접 컨설팅 ▲채용 정보 제공 등 상시로 지원한다. 특히 교육생들은 이력서와 자기소개서 작성 코칭, 모의 면접 연습 등의 맞춤형 지원이 취업 현장에서 직접적인 도움이 됐다고 평가했다. 2018년 12월부터 시작한 '삼성청년SW아카데미'는 4기까지 2087명이 수료했다. 이 가운데 1411명이 취업해 68%의 취업률을 나타냈다. 특히, 취업에 성공한 수료생 중 32%를 차지하는 455명은 소프트웨어 비전공자로 '삼성청년SW아카데미'를 통해 새로운 진로를 찾았다. 수료생들은 삼성전자를 비롯해 신한은행, 카카오, LG CNS, SK㈜ C&amp;C, 네이버, 쿠팡, 신세계 I&amp;C, NH농협은행, KB 국민은행, 현대자동차 등 IT·금융권의 다양한 기업에 취업했다. 이들이 취업한 기업의 수는 480여개에 달한다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		청년들의 정보기술(IT) 업계 취업을 돕는 삼성전자의 교육 프로그램인 ‘삼성 청년 소프트웨어 아카데미(SSAFY)’의 교육생 규모와 지원 범위가 확대된다. 정부는 ‘하반기 경제정책방향’의 한 방안으로 ‘디지털 분야 우수 인재양성 프로그램’을 대폭 확대한다고 29일 밝혔다. 이에 따라 SSAFY 교육생은 연간 1000명 수준에서 내년에는 2300명까지 늘어날 예정이다. 참여자 모두에게 매달 100만원의 교육 지원금을 지급하고, 대한상의는 수료생의 취업 지원 등을 돕는다.</t>
-  </si>
-  <si>
-    <t>삼성청년 소프트웨어 아카데미 서울캠퍼스에서 교육생들이 실습 수업을 하고 있다. 사진=삼성전자'삼성청년 소프트웨어 아카데미'(SSAFY)의 입학 정원이 기존 대비 2배 이상 증가한 2,300여 명으로 늘어난다. 구직자들에겐 취업 등용문으로 알려진 SSAFY는 삼성전자의 정보기술(IT) 개발자 양성 교육 프로그램이다. 2018년 경제 활성화와 일자리 창출 방안의 일환으로 선보였다.삼성전자는 정부의 우수 인재 양성 프로그램 확대 사업에 발맞춰 이같이 결정했다고 29일 밝혔다. 이날 발표된 정부의 '하반기 경제정책방향'엔 디지털 인재 양성을 위해 기업들과 협력하겠다는 내용도 포함됐다. 민간 기업에서 자사의 교육 기관을 통해 인재 양성을 늘리면 그만큼 정부 예산도 지원되는 방식이다. SSAFY는 교육생으로 선발되기 위한 족집게 과외까지 성행할 정도로 취업 준비생들에겐 인기다. 이 프로그램의 1년 과정을 거치면 비전공자도 IT 개발자로 성장할 수 있다는 후기가 넘쳐나면서다. 삼성은 매일 8시간씩 연간 1,600시간의 집중 교육과 더불어 매월 100만 원의 장학금도 지원하고 있다.결과도 기대 이상이다.  2018년 12월 첫선을 보인 뒤 이곳을 거쳐간 2,100여 명의 교육생 중 1,411명(68%)이 취업 관문을 뚫었다. 특히 취업에 성공한 교육생 중 32%(455명)는 소프트웨어 비전공자로, 이 프로그램에서 새로운 꿈을 찾아갔다. 교육생들이 취업한 곳도 삼성전자, 신한은행, 카카오 등 쟁쟁한 기업도 다수다. 상황이 이렇다 보니, SSAFY 출신을 우대하는 기업도 늘고 있다.  삼성전자는 매년 상·하반기 각각 500명의 교육생을 선발했는데, 정부 지원 덕분에 내년부터는 규모를 더 키워 기수당 약 1,150명까지 늘릴 계획이다. 연간 모집 인원은 총 2,300여 명 이상이다.삼성전자 관계자는 "기존 서울, 대전, 광구, 구미 외 올해 7월 부산에 부울경(부산·울산·경남) 캠퍼스를 신설해 교육을 실시할 예정이며 다른 지역으로 확대하는 것도 검토 중"이라고 말했다.</t>
-  </si>
-  <si>
-    <t>대기업 SW·AI 프로그램 등민간·정부 파트너십으로 확대교육인원 3,000명으로 늘리고운영 비용 일부분 분담하기로지난 2019년 8월 SSAFY 광주 교육센터를 방문한 이재용 삼성전자 부회장이 교육생들과 ‘셀카’를 찍고 있다./사진 제공=삼성전자[서울경제] 정부가 삼성·SK·포스코와 함께 디지털 인재 양성에 나선다. 기존에 기업들이 운영하던 소프트웨어·반도체·인공지능(AI) 교육 프로그램에 정부가 지원하며 연간 교육 인원을 1,500명에서 3,000명 이상 대폭 확대한다. 돌아선 청년층 민심을 달래기 위해 ‘MZ세대 달래기 패키지’를 내놓은 데 이어 기업 프로그램에도 정부가 손을 벌리는 모양새다.29일 기획재정부 등에 따르면 정부는 삼성전자·SK하이닉스·포스코 등 대기업이 사회 공헌 차원에서 청년층에 제공하는 ‘디지털 분야 우수 인재 양성 프로그램’을 민간·정부 파트너십으로 대폭 확대하기로 했다. 지원 대상은 삼성전자의 ‘SSAFY(소프트웨어 분야)’, SK하이닉스의 ‘청년 하이파이브(반도체 분야)’, 포스코의 ‘AI·빅데이터’다. 이들 프로그램의 연간 교육 인원은 지난해 각각 1,000명, 300명, 200명에서 내년 2,300명, 700명, 300명으로 늘어난다.정부가 지원하지만 교육생 및 훈련 강사 선발, 교육 내용 구성 등은 기업이 자율적으로 기획·운영한다. 정부는 기업이 교육 규모를 최대한 확대할 수 있도록 확대에 따른 비용의 일부분을 분담한다. 대한상공회의소는 운영 기관으로 참여 기업 행정 사항을 지원하는 한편 신규 참여 기업 발굴, 훈련 수료생에 대한 관련 분야 기업으로의 취업 지원 등을 맡는다. 기재부의 한 관계자는 “교육 인원 추가에 따른 부담 금액은 정부와 해당 기업이 1:1로 분담하는 데 전반적인 합의를 했다”며 “프로그램 참여 기업을 확대하고 청년층과 디지털 분야의 채용 희망 기업을 연결하는 효과적인 ‘청년 디지털 취업 플랫폼’으로 자리매김할 수 있도록 지원할 계획”이라고 밝혔다. 정부의 예산 지원은 향후 실무 협의를 거쳐 구체적인 지원 절차와 방식이 마련되는 대로 이뤄질 예정이다.이번 디지털 인재 프로그램은 일자리·부동산 등으로 인한 박탈감에 돌아선 MZ세대를 달래기 위한 방안이다. 하지만 정부가 새로운 아이디어를 내지 못하고 기업의 기존 프로그램에 숟가락을 얹은 것 아니냐는 지적이 나온다. 앞서 전일 하반기 경제정책 방향에서는 소득이 적은 청년의 저축에 정부가 일정 금액을 매칭하는 청년 자산 형성 프로그램 등을 발표하며 지나친 현금성 지원이 아니냐는 논란이 일기도 했다.한편 디지털 우수 인재 양성 프로그램 중 SSAFY는 삼성이 지난 2018년 발표한 ‘경제 활성화와 일자리 창출 방안’의 일환으로 시작됐다. 연 2회 모집하며 올해 1월 입과한 5기 훈련생 약 750명이 현재 교육을 받고 있다. 삼성전자는 정부 지원과 매칭하며 지난해 기수당 500명이었던 훈련생을 내년부터 1,150명으로 늘릴 계획이다. 아울러 부울경캠퍼스를 신설하고 구미·광주캠퍼스의 교육 인원을 확대하는 등 지방 교육도 강화한다. 지난 4기까지 교육을 수료한 청년들은 총 2,087명이다. 이 가운데 1,411명이 취업해 68%의 취업률을 보이고 있다. 특히 취업에 성공한 수료생 중 32%는 소프트웨어를 공부해본 적 없는 비전공자다. 이재용 삼성전자 부회장은 SSAFY에 ‘동행 비전’을 담고 있다. 2019년 8월 SSAFY 광주캠퍼스를 방문한 이 부회장은 “소프트웨어 인재 양성은 IT 생태계 저변 확대를 위해 필수적인 만큼 어렵더라도 미래를 위해 지금 씨앗을 심어야 한다”고 말했다.SK하이닉스의 청년 하이파이브는 반도체 산업의 이해 및 산업 공정 등에 대해 전문 교육을 실시한다. 4주의 직무 교육과 3개월 인턴십으로 구성됐다. 연 300명 교육생을 받는 기존 프로그램을 계속 운영하되 올해 하반기부터는 직무 교육만을 분리한 별도 프로그램을 신설해 연 400명 이상의 교육생을 추가로 받는다. 포스코의 AI·빅데이터 과정은 2주간 기초 이론 학습과 10주간 합숙 실습 과제를 진행하며 AI 및 빅데이터 기술의 원리와 활용 기법을 배운다. 포스텍 인공지능연구원 교수진이 교육생들에게 AI 알고리즘과 컴퓨터 비전, 자연어 처리 등을 교육하고 자율주행 자동차, 물체 추적, 이미지 복원 등 실생활과 연관된 AI 프로젝트 수행도 지도한다.</t>
-  </si>
-  <si>
-    <t>정부 지원 힘입어 인원 증원 등 나서이재용 의지 담긴 삼성 ‘SSAFY’ 성공적 매년 1000명 뽑아 1년간 SW 집중교육 이번 정부 방침에 年 2000명으로 확대 취업지원 연계 위해 담당센터 운영 SK하이닉스·포스코도 육성 인원 늘려    사진=삼성전자 제공    삼성전자의 ‘삼성청년소프트웨어아카데미(SSAFY)’ 등 대기업에서 운영하는 인재양성 프로그램이 정부의 지원을 받아 더욱 확대된다.  29일 업계 등에 따르면 정부와 삼성전자, SK하이닉스, 포스코, 대한상공회의소는 최근 서울 중구 대한상의 회관에서 ‘기업 우수 인재양성 프로그램 확대’사업 실시를 위한 실무협의를 개최했다.  이번 협의는 정부가 청년층 등의 디지털 역량 강화를 이미 관련 노하우를 통해 비슷한 프로그램을 성공적으로 정착시킨 대기업에 맡기는 민관협력 방식으로 추진하기 위해 마련됐다. 앞서 정부는 28일 발표한 ‘하반기 경제정책방향’을 통해 정보기술(IT) 등 미래산업 분야 인재양성에 더욱 힘을 싣기로 했다.  특히 재계에서 가장 성공적으로 운영 중인 인재양성 프로그램은 삼성의 SSAFY가 꼽힌다. 삼성은 2018년 8월 ‘경제 활성화와 일자리 창출 방안’의 일환으로 청년 소프트웨어(SW) 교육 사업을 진행해 왔다. SSAFY는 평소 기업의 사회적 역할 확대를 강조해 온 이재용 부회장의 ‘상생 의지’가 담긴 프로그램이다.  SAFFY는 매년 1000명씩 선발해 매달 교육지원금 100만원을 지급하며 총 12개월간 집중 SW 교육을 제공한다. 29세 이하 4년제 대학 졸업자를 대상으로 소프트웨어 전공자뿐만 아니라 비전공자, 인문계 출신까지 교육에 참여할 수 있다.  1학기 5개월간의 집중 코딩 교육은 800시간 수준으로, 대학교 소프트웨어 전공자의 2년간 학습량에 달하는 것으로 평가된다. 2학기 5개월간의 심화과정에는 실전 프로젝트를 직접 수행해 보기 위해 강사나 교재 없이 자기주도학습으로 진행된다.  취업취업지원도 연계한다. 1·2학기 각각 5개월간 과정이 끝나면 ‘잡페어(job fair)’를 운영해 우수기업을 초청하고 회사설명회, 기업탐방 등을 실시한다. 또 취업지원센터를 운영해 개인별 수준과 적성에 맞는 진로 상담, 취업 특강, 면접 컨설팅, 채용 정보 제공 등 상시로 지원한다.  2018년 이후 4기까지 수료생은 2087명이다. 이 중 1411명이 취업해 68%의 취업률을 달성했다. 취업에 성공한 수료생 중 32%(455명)는 소프트웨어 비전공자다.  현장에서는 국내 IT 생태계 저변 확대와 청년 취업경쟁력 향상에 기여하고 있다는 평가를 받고 있다. 정부는 이번 파트너십 체결을 통해 기업이 교육 규모를 최대한 확대할 수 있도록 지원 비용을 분담한다.    삼성은 이번 정부의 인재 양성 방침에 호응해 연간 1000명이었던 SAFFY 교육생을 2000명 이상으로 늘리기로 했다. 올해 상반기 750명을 선발한 것에 이어 올해 하반기에는 950명을 선발한다. 내년부터는 교육 규모를 기수당 1150명까지 확대할 계획이다. 아울러 2018년 12월 개소한 서울과 대전, 광주, 구미 캠퍼스에 이어 부산에 부울경 캠퍼스를 신설한다.  이밖에 SK하이닉스는 현재 운영 충인 청년 하이파이브 프로그램에서 직무 교육만을 분리해 별도 교육 과정을 신설한다. 연 300명 교육생을 받는 기존 프로그램을 계속 운영하되 올해 하반기부터는 직무교육만을 분리한 별도 프로그램을 신설해 연 400명 이상의 교육생을 추가로 받을 계획이다. 전용 강의실에서 인공지능(AI)과 빅데이터 관련 실전훈련을 진행하는 포스코의 AI·Bigdata 아카데미는 올해 인프라를 증축해 내년부터 연 300명 수준으로 교육생 규모를 키운다.   남혜정 기자 hjnam@segye.com</t>
-  </si>
-  <si>
-    <t>동행 경영 철학 담긴 ‘SSAFY’기재부 인재양성 프로그램 동참내년 입학정원 2300명으로 확대전문인력 양성 ‘취업률 68%’ 성과 이재용 삼성전자 부회장(오른쪽 첫번째)이 지난 2019년 8월 광주 SSAFY 방문해 교육생들을 격려하고 있다. 이재용 삼성전자 부회장의 '동행' 경영철학이 담긴 '삼성 청년소프트웨어 아카데미'(SSAFY)가 정부의 우수인재 양성 프로그램에 동참해 입학정원을 두 배 이상으로 늘린다. 현재 1000명 수준에서 올해 1700명으로, 내년에는 약 2300명으로 확대키로 했다. 취업률 68%의 SSAFY가 교육생을 늘리기로 하면서 우수한 전문인력 양성과 소프트웨어(SW) 생태계 조성에 이바지 할 것으로 기대된다.   29일 기획재정부와 삼성전자에 따르면 1년에 두 번, 한기수당 500명씩 1000명을 선발했던 SSAFY 교육생 규모를 올해 1700명(상반기 750명·하반기 950명)으로 늘리고 내년에는 약 2300명(기수당 약 1150명) 규모로 확대키로 했다. SSAFY는 현재 서울·대전·광주·구미 등 4개 지역에 캠퍼스를 운영하고 있으며 올해 상반기(5기)에는 750명, 하반기(6기)에는 950명의 교육생을 받는다.   삼성전자는 기재부가 기업 우수 인재양성 프로그램을 하반기 경제정책방향에 포함시키고 지원을 확대키로 하자 SSAFY 정원을 늘리기로 했다.   지난 2018년 12월 SSAFY를 시작한 이듬해인 2019년 1월 이 부회장은 당시 이낙연 국무총리와의 면담에서 SW 인력의 부족을 호소하면서 전문인력 양성에 정부의 도움을 요청했다. 당시 이 부회장은 5세대(5G) 통신장비의 코딩 작업을 예로 들면서 대단 구체적인 필요 인력 수치를 설명하는 등 전문인력의 중요성을 강조한 것으로 전해졌다. 같은 해 8월에는 SSAFY 광주 캠퍼스를 찾아 교육생들에게 "미래를 위한 씨앗"이라고 격려하고 미래를 위해 도전해달라고 당부하기도 했다.   2018년 12월부터 교육을 시작한 SSAFY는 지난해까지 287명이 수료했으며 이 중 1411명이 취업해 취업률 68%를 기록했다. SW 업계 관계자는 "강도 높은 교육과정으로 유명한 프로그램"이라며 "전공자와 비전공자를 가리지 않고 교육생을 선발하고 취업 때 SSAFY 출신들을 우대하는 기업들도 늘고 있어 취업을 준비하는 청년들의 관심이 높다"고 평가했다.   문재인 대통령은 지난해 초 포스트코로나 시대 혁신성장을 위해 대규모 국가 프로젝트 '한국판 뉴딜' 추진을 선언했다. 이어 기획재정부를 중심으로 인공지능(AI)·5G·데이터를 중점 추진과제로 선정한 바 있다. 모두 SW 전문인력들이 절실히 필요한 분야들이다.   SSAFY에서는 1년간 매일 8시간씩 총 1600시간 교육을 시행한다. 이 덕분에 수료생들은 즉시 현장 투입 가능한 전문인력으로 평가받는다. SSAFY 수료생들은 삼성전자를 비롯 신한은행, 카카오, LG CNS, SK㈜ C&amp;C, 네이버, 쿠팡, 신세계 I&amp;C, NH농협은행, KB 국민은행, 현대자동차 등 IT·금융권의 다양한 기업에 취업했다. 채용 때 SSAFY 수료생을 우대하는 기업들은 1기 수료 당시 20여 개에서 지금은 80여 개로 대폭 증가했다.</t>
-  </si>
-  <si>
-    <t>SK·포스코·상의도 동참정부, 비용 절반 지원하기로삼성전자 SK하이닉스 포스코 대한상공회의소가 현재 운영 중인 디지털 청년인재 양성 프로그램을 대폭 확대해 국내 첨단인재 풀(pool)을 키우는 데 기여하기로 했다. 정부도 이에 호응해 늘어나는 비용의 절반을 예산에서 지원하기로 했다. 기획재정부 고용노동부와 삼성전자 SK하이닉스 포스코 대한상의는 지난 24일 서울 대한상의에서 '기업 우수 인재양성 프로그램 확대' 사업 실시를 위한 실무협의회를 열고 이 같은 방안에 뜻을 모았다고 29일 밝혔다.이번 실무 협의에 참석한 기업은 각사에서 운영 중인 디지털 인재양성 프로그램을 확대해 사회 전반의 인재 확보에 기여하기로 했다. 이번 파트너십을 통해 확대되는 교육 프로그램은 삼성전자 '청년 소프트웨어(SW) 아카데미(SSAFY)', SK하이닉스 '청년 하이파이브', 포스코 '청년 인공지능(AI)·빅데이터 아카데미' 3개 과정이다. 삼성전자는 SSAFY 프로그램 교육생을 지난해 1000명에서 올해 1700명, 내년에 2000명 이상으로 늘리고 부산에 교육 캠퍼스를 추가로 개소하기로 했다. SK하이닉스는 연간 교육생 300명 규모로 운영했던 청년 하이파이브 프로그램에서 직무교육 부문을 떼어내 올해 하반기 별도 과정을 신설한다. 신설 교육 과정은 연간 교육생 400명을 추가로 모집할 예정이다. 포스코는 AI·빅데이터 교육생을 연간 200명에서 내년부터 300명 수준으로 늘린다. 대한상의는 신규 참여 기업 발굴과 교육 수료생의 취업 지원을 맡는다. 정부는 기업의 프로그램 확대 비용 중 절반 정도를 예산에서 지원한다. 이재용의 'SW사관학교' 2배 키워…AI인재 年2천명씩 배출삼성전자, 정부와 손잡고 디지털인재 육성 대폭 확대SK·포스코·상의도 동참정부, 비용 절반 지원하기로SK하이닉스는 직무교육 신설포스코, AI교육생 100명 늘려대한상의는 취업알선 팔걷어 삼성전자에서 운영하는 `삼성 청년 소프트웨어(SW) 아카데미` 4기 교육생들이 대전 캠퍼스에서 프로젝트를 진행하고 있다. [사진 제공 = 삼성전자] 올해 만 26세인 김동걸 씨는 경상대 컴퓨터과학과를 졸업하고 농협중앙회에 입사했다. 그는 삼성전자가 운영하는 '삼성 청년 소프트웨어(SW) 아카데미(SSAFY)'를 수료하고 정보기술(IT) 개발직군 취업에 성공한 사례다. 김씨는 "SSAFY에서 배운 자바(JAVA) SW 플랫폼을 업무에 바로 적용할 수 있었다"며 "SSAFY는 누구보다 탄탄한 기초와 다양한 SW 프로젝트를 접할 수 있어 SW 개발자로서 빠르게 성장할 수 있는 교육 플랫폼"이라고 말했다.  삼성전자 SK하이닉스 포스코 대한상공회의소가 현재 운영 중인 디지털 청년인재 양성 프로그램을 대폭 확대해 국내 첨단인재 풀(pool)을 키우는 데 기여하기로 했다. 기획재정부 고용노동부와 삼성전자 SK하이닉스 포스코 대한상의는 지난 24일 서울 대한상의에서 '기업 우수 인재 양성 프로그램 확대' 사업 실시를 위한 실무협의회를 열고 이 같은 방안에 뜻을 모았다고 29일 밝혔다. 이번 파트너십을 통해 확대되는 교육 프로그램은 삼성전자 SSAFY 외에도 SK하이닉스 '청년 하이파이브', 포스코 '인공지능(AI)·빅데이터 아카데미' 3개 과정이다. 정부는 계획대로 프로그램이 확대되면 내년부터 이들 과정의 전체 교육훈련생 수가 지난해 1500명보다 두 배 이상으로 늘 것으로 전망한다. 정부도 교육 확대 비용의 절반을 예산에서 지원하기로 했다. 우선 삼성전자는 연간 1000명인 SSAFY 교육생을 내년부터 2000명 이상으로 증가시키기로 했다. SSAFY는 현재 매년 2기를 뽑으며 기수당 500명을 선발한다. 삼성전자는 올해 상반기 SSAFY 5기 교육생을 750명으로 증원한 데 이어 하반기 교육생은 950명으로 순차 확대하고 내년부터는 기수당 교육 규모를 약 1150명까지 키울 예정이다. 또 다음달 9일에는 부산시에 'SSAFY 부울경 캠퍼스'를 개소하고 이미 설립한 구미·광주 캠퍼스 교육생도 늘려 지방 SW 인재 육성에도 초점을 맞춘다.SSAFY는 이재용 삼성전자 부회장이 관심을 쏟아 출범한 삼성의 교육 사회공헌 프로그램이다. 이 부회장은 청년 인재 육성과 고용, 투자 등에 초점을 맞춘 '동행(同行)'을 삼성의 경영철학으로 강조해왔다. 취약계층과 청년들에게 교육 기회를 제공하는 프로그램도 앞장서서 키웠다. 취약계층 청소년들의 학업을 지원하는 '삼성 드림클래스' 역시 이 부회장이 직접 챙긴 교육공헌 사업이다.삼성은 SSAFY를 2018년 8월 8월 '경제 활성화와 일자리 창출 방안'의 일환으로 발표했다. 2018년부터 5년간 취업준비생 약 1만명에게 양질의 SW 교육을 실시한다는 목표를 뒀다. SSAFY를 운영하는 삼성전자는 2018년 12월 서울 대전 광주 구미 4개 지역에 교육 캠퍼스를 열었다. 부울경 캠퍼스가 개소하면 SSAFY 캠퍼스는 총 5곳이 된다.SSAFY는 29세 이하 4년제 대학 졸업자를 대상으로 한다. SW 전공자뿐 아니라 다른 이공계 전공자, 인문계 전공자까지 지원해 교육을 받을 수 있다. SSAFY에 지원해 합격한 교육생은 1년간 매일 8시간씩 총 1600시간의 교육과정을 이수한다. 1학기는 5개월간 800시간짜리 코딩 집중 교육도 받는다. 삼성은 이 같은 교육 분량이 SW를 전공하는 대학생의 2년치 22개 과목 학습량과 같다고 설명했다. 이어지는 2학기는 5개월간 자기주도 학습을 실시하며 실전 프로젝트에 도전하는 시간으로, 기업에서 실제 프로젝트를 진행하는 것 같은 경험을 교육생에게 제공한다.현재까지 SSAFY는 4개 기수에서 총 2087명이 수료했다. 이 가운데 약 68%인 1411명이 취업에 성공했다. 특히 취업한 수료생 중 32%인 455명은 SW 비전공자지만 SSAFY에서 새 진로를 개척했다. 수료생들은 삼성전자는 물론 신한은행, 카카오, LG CNS, SK(주) C&amp;C 부문, 네이버, 쿠팡, 신세계I&amp;C, NH농협은행, KB국민은행, 현대자동차를 비롯해 다양한 국내 주요 기업에 취업했다. 이들이 취업한 기업의 수는 480여 개다. 신세계I&amp;C는 SSAFY 수료생을 위한 수시전형도 실시했다. 삼성은 "SSAFY는 일자리를 구하지 못한 청년들에게는 새로운 진로를 열어주고 수요에 비해 공급이 부족한 기업에는 양질의 인력을 제공한다"며 "국가 SW 인재 경쟁력을 강화하고 청년 실업률을 감소시키는 효과도 있다"고 자평했다.한편 SK하이닉스가 운영하던 청년 하이파이브 프로그램 역시 대폭 확대된다. 청년 하이파이브는 인턴십과 직무교육으로 이뤄져 있는데 이번에 직무교육을 분리해 별도 교육과정을 올해 하반기 신설할 예정이다. 기존 하이파이브 프로그램은 연 300명 규모로 유지되며 신설 과정은 추가로 400명을 매년 모집해 교육 훈련을 실시한다. 포스코가 실시하는 AI·빅데이터 아카데미도 연간 교육생을 현 200명 규모에서 내년부터 300명으로 늘리기로 했다. 2017년 포스코와 포스텍(포항공대)이 함께 만든 AI·빅데이터 아카데미는 초창기 2년간 수료생 연 70여 명을 배출했으나 현재는 200명(차수당 최대 50명)까지 늘렸다. 포스코는 교육 확대에 대비해 인프라 또한 확충하기로 했다.대한상의는 교육 운영기관으로서 참여기업이 교육에만 전념할 수 있도록 필요한 행정사항을 지원한다. 신규 참여기업 발굴과 훈련 수료생이 관련 분야 기업에 취업할 수 있도록 지원하는 것도 대한상의 역할이다.</t>
-  </si>
-  <si>
-    <t>삼성전자, 정부와 손잡고 디지털인재 육성 대폭 확대SK·포스코·상의도 동참정부, 비용 절반 지원하기로SK하이닉스는 직무교육 신설포스코, AI교육생 100명 늘려대한상의는 취업알선 팔걷어삼성전자에서 운영하는 `삼성 청년 소프트웨어(SW) 아카데미` 4기 교육생들이 대전 캠퍼스에서 프로젝트를 진행하고 있다. [사진 제공 = 삼성전자] 올해 만 26세인 김동걸 씨는 경상대 컴퓨터과학과를 졸업하고 농협중앙회에 입사했다. 그는 삼성전자가 운영하는 '삼성 청년 소프트웨어(SW) 아카데미(SSAFY)'를 수료하고 정보기술(IT) 개발직군 취업에 성공한 사례다. 김씨는 "SSAFY에서 배운 자바(JAVA) SW 플랫폼을 업무에 바로 적용할 수 있었다"며 "SSAFY는 누구보다 탄탄한 기초와 다양한 SW 프로젝트를 접할 수 있어 SW 개발자로서 빠르게 성장할 수 있는 교육 플랫폼"이라고 말했다.  삼성전자 SK하이닉스 포스코 대한상공회의소가 현재 운영 중인 디지털 청년인재 양성 프로그램을 대폭 확대해 국내 첨단인재 풀(pool)을 키우는 데 기여하기로 했다. 기획재정부 고용노동부와 삼성전자 SK하이닉스 포스코 대한상의는 지난 24일 서울 대한상의에서 '기업 우수 인재 양성 프로그램 확대' 사업 실시를 위한 실무협의회를 열고 이 같은 방안에 뜻을 모았다고 29일 밝혔다. 이번 파트너십을 통해 확대되는 교육 프로그램은 삼성전자 SSAFY 외에도 SK하이닉스 '청년 하이파이브', 포스코 '인공지능(AI)·빅데이터 아카데미' 3개 과정이다. 정부는 계획대로 프로그램이 확대되면 내년부터 이들 과정의 전체 교육훈련생 수가 지난해 1500명보다 두 배 이상으로 늘 것으로 전망한다. 정부도 교육 확대 비용의 절반을 예산에서 지원하기로 했다. 우선 삼성전자는 연간 1000명인 SSAFY 교육생을 내년부터 2000명 이상으로 증가시키기로 했다. SSAFY는 현재 매년 2기를 뽑으며 기수당 500명을 선발한다. 삼성전자는 올해 상반기 SSAFY 5기 교육생을 750명으로 증원한 데 이어 하반기 교육생은 950명으로 순차 확대하고 내년부터는 기수당 교육 규모를 약 1150명까지 키울 예정이다. 또 다음달 9일에는 부산시에 'SSAFY 부울경 캠퍼스'를 개소하고 이미 설립한 구미·광주 캠퍼스 교육생도 늘려 지방 SW 인재 육성에도 초점을 맞춘다.SSAFY는 이재용 삼성전자 부회장이 관심을 쏟아 출범한 삼성의 교육 사회공헌 프로그램이다. 이 부회장은 청년 인재 육성과 고용, 투자 등에 초점을 맞춘 '동행(同行)'을 삼성의 경영철학으로 강조해왔다. 취약계층과 청년들에게 교육 기회를 제공하는 프로그램도 앞장서서 키웠다. 취약계층 청소년들의 학업을 지원하는 '삼성 드림클래스' 역시 이 부회장이 직접 챙긴 교육공헌 사업이다.삼성은 SSAFY를 2018년 8월 8월 '경제 활성화와 일자리 창출 방안'의 일환으로 발표했다. 2018년부터 5년간 취업준비생 약 1만명에게 양질의 SW 교육을 실시한다는 목표를 뒀다. SSAFY를 운영하는 삼성전자는 2018년 12월 서울 대전 광주 구미 4개 지역에 교육 캠퍼스를 열었다. 부울경 캠퍼스가 개소하면 SSAFY 캠퍼스는 총 5곳이 된다.SSAFY는 29세 이하 4년제 대학 졸업자를 대상으로 한다. SW 전공자뿐 아니라 다른 이공계 전공자, 인문계 전공자까지 지원해 교육을 받을 수 있다. SSAFY에 지원해 합격한 교육생은 1년간 매일 8시간씩 총 1600시간의 교육과정을 이수한다. 1학기는 5개월간 800시간짜리 코딩 집중 교육도 받는다. 삼성은 이 같은 교육 분량이 SW를 전공하는 대학생의 2년치 22개 과목 학습량과 같다고 설명했다. 이어지는 2학기는 5개월간 자기주도 학습을 실시하며 실전 프로젝트에 도전하는 시간으로, 기업에서 실제 프로젝트를 진행하는 것 같은 경험을 교육생에게 제공한다.현재까지 SSAFY는 4개 기수에서 총 2087명이 수료했다. 이 가운데 약 68%인 1411명이 취업에 성공했다. 특히 취업한 수료생 중 32%인 455명은 SW 비전공자지만 SSAFY에서 새 진로를 개척했다. 수료생들은 삼성전자는 물론 신한은행, 카카오, LG CNS, SK(주) C&amp;C 부문, 네이버, 쿠팡, 신세계I&amp;C, NH농협은행, KB국민은행, 현대자동차를 비롯해 다양한 국내 주요 기업에 취업했다. 이들이 취업한 기업의 수는 480여 개다. 신세계I&amp;C는 SSAFY 수료생을 위한 수시전형도 실시했다. 삼성은 "SSAFY는 일자리를 구하지 못한 청년들에게는 새로운 진로를 열어주고 수요에 비해 공급이 부족한 기업에는 양질의 인력을 제공한다"며 "국가 SW 인재 경쟁력을 강화하고 청년 실업률을 감소시키는 효과도 있다"고 자평했다.한편 SK하이닉스가 운영하던 청년 하이파이브 프로그램 역시 대폭 확대된다. 청년 하이파이브는 인턴십과 직무교육으로 이뤄져 있는데 이번에 직무교육을 분리해 별도 교육과정을 올해 하반기 신설할 예정이다. 기존 하이파이브 프로그램은 연 300명 규모로 유지되며 신설 과정은 추가로 400명을 매년 모집해 교육 훈련을 실시한다. 포스코가 실시하는 AI·빅데이터 아카데미도 연간 교육생을 현 200명 규모에서 내년부터 300명으로 늘리기로 했다. 2017년 포스코와 포스텍(포항공대)이 함께 만든 AI·빅데이터 아카데미는 초창기 2년간 수료생 연 70여 명을 배출했으나 현재는 200명(차수당 최대 50명)까지 늘렸다. 포스코는 교육 확대에 대비해 인프라 또한 확충하기로 했다.대한상의는 교육 운영기관으로서 참여기업이 교육에만 전념할 수 있도록 필요한 행정사항을 지원한다. 신규 참여기업 발굴과 훈련 수료생이 관련 분야 기업에 취업할 수 있도록 지원하는 것도 대한상의 역할이다.</t>
-  </si>
-  <si>
-    <t>삼성청년SW아카데미 年 2300명으로 늘리기로"디지털 분야 청년인재 키우자"정부·대한상의, 취업교육 협업SK하이닉스, 반도체 실무교육포스코, AI·빅데이터 교육 강화삼성전자와 SK하이닉스, 포스코 등이 자체적으로 운영 중인 인재양성 프로그램 정원을 대폭 늘리기로 했다. 정부가 비용의 일부를 대는 조건이다. 젊은 구직자들이 선호하는 디지털 분야 일자리가 더 증가할 것이란 전망이 나온다. “디지털 일자리를 늘려라”기획재정부와 고용노동부는 최근 서울 대한상공회의소에서 인재양성 프로그램 확대를 위한 실무협의회를 열었다고 29일 밝혔다. 대기업이 사회공헌 차원에서 시행 중인 디지털 분야 취업 교육 프로그램을 지원한다는 것이 협의회의 결론이다.교육생과 강사 선발, 교육 프로그램 마련 등은 지금까지처럼 기업의 몫이다. 정부는 교육 확대에 대한 비용 중 일부를 분담한다. 구체적인 지원 규모와 절차, 방식 등은 추가 논의를 거쳐 정할 계획이다. 대한상의는 신규 참여기업 발굴, 수료생의 취업 지원 역할을 맡게 된다.정부의 지원 대상으로 선정된 프로그램은 삼성전자의 ‘삼성청년SW 아카데미’(SSAFY), SK하이닉스의 ‘청년하이파이브’, 포스코의 ‘AI·빅데이터 아카데미’ 등이다. SSAFY는 기수당 500명, 연간 1000명을 교육하는 프로그램이었다. 정원이 늘어나는 것은 올해부터다. 상반기 750명, 하반기에 950명이 프로그램에 참여한다. 내년엔 연간 교육 인원이 2000명을 넘어설 전망이다. 삼성전자는 기수당 선발 인원을 1150명까지 확대할 예정이다.SK하이닉스는 300명 정원의 기존 프로그램과 별도로 연 400명 이상에게 교육훈련을 제공하는 프로그램을 신설하기로 했다. 포스코는 올해 교육 인프라를 확충해 연 200명인 교육 인원을 내년부터 300명으로 늘릴 계획이다.기재부 관계자는 “기업이 공익 차원에서 제공 중인 ‘높은 품질의 공공재’ 공급이 수요에 미치지 못한다는 점에 착안해 정부와 기업의 협업 모델을 내놓게 됐다”며 “교육 프로그램을 제공하는 것을 넘어 일자리가 필요한 청년층과 디지털 분야 채용을 희망하는 기업을 연결하는 ‘디지털 취업 플랫폼’을 구축하는 것이 궁극적인 목표”라고 말했다. SSAFY 수료생 취업률 70% 육박SSAFY는 이재용 삼성전자 부회장이 직접 챙기는 것으로 알려진 사회공헌 프로그램이다. 1년간 매일 8시간씩 1600시간의 교육을 받아야 할 만큼 학습량이 많은 것으로도 유명하다. 1학기엔 코딩 교육(800시간)을 받고 2학기에 실전 프로젝트를 수행한다. 신한은행, 신세계 I&amp;C 등과 연계한 산학 프로그램을 통해 현장 경험을 쌓을 수 있다.2018년 12월 문을 연 SSAFY는 4기까지 2087명이 수료했다. 이 가운데 1411명이 일자리를 찾아 68%의 취업률을 보였다. 취업에 성공한 수료생 중 455명은 소프트웨어 비전공자였다. SSAFY를 통해 새로운 진로를 찾은 셈이다.2018년 만들어진 SK하이닉스의 청년하이파이브는 반도체 인재 육성 프로그램이다. 교육 프로그램을 이수하면 SK하이닉스 협력업체에서 3개월간 인턴으로 근무할 기회를 얻는다. 인턴을 마친 수료자 중 70%가량이 정규직으로 취업한다는 것이 회사 측 설명이다.AI·빅데이터 아카데미도 구직자 사이에서 인기를 끄는 프로그램으로 꼽힌다. 파이썬, 인공지능, 빅데이터 이론을 배우고 실습과제를 수행하며 실무 역량을 쌓을 수 있다. 성적 우수자는 포스텍의 연구 인턴으로 일할 수 있다. 포스코 계열사에 지원하면 가점을 받을 수 있다.송형석 기자 click@hankyung.com</t>
-  </si>
-  <si>
-    <t>한국건설기술연구원이 개최한 29일 '스마트건설지원센터 제2센터 착공식'에서 시삽을 하고 있는 관계자들. (왼쪽부터) 방승온 지와이네트웍스 대표, 조용경 모콘에스티 대표, 김병석 한국건설기술연구원장, 윤성원 국토교통부 제1차관, 홍정민 국회의원, 이재철 고양시 제1부시장, 장범석 비에스소프트 대표, 김영규 시큐어에이 대표. (한국건설기술연구원 제공) 2021.06.29(서울=뉴스1) 김승준 기자 = 한국건설기술연구원은 29일 '스마트건설지원센터 제2센터 착공식'을 개최했다고 밝혔다.이날 착공식에는 국토교통부 제1차관, 홍정민 더불어민주당 의원, 이재철 고양시 부시장 및 입주기업 등 총 50여명이 참석했다.건설연 스마트건설지원센터는 건설기술진흥법에 의거해 융·복합건설기술의 개발·보급 및 활용을 촉진하기 위한 시책을 수립·시행하고 지원한다. 또한, 융·복합건설기술 관련 예비창업자와 창업자 발굴·육성·교육 및 해외진출 지원, 융·복합건설기술 관련 창업공간 조성 및 운영 등을 수행하고 있다.스마트건설지원센터의 창업기업 입주공간에는 2018년부터 스마트건설 창업 아이디어 공모전 등을 통해 모집된 총 30개 기업이 입주해 있다. 건설연은 매년 스마트건설 창업 아이디어 공모전을 통해 입주기업 추가 및 출구전략기업을 최대 50개까지 육성할 계획이다. 이에 추가로 필요한 입주기업의 공간을 확보하기 위해 스마트건설지원센터 제2센터를 건립하게 됐다. 제2센터는 지상3층, 연면적 1817㎡ 규모로 건립된다. 총 56개 입주공간에 약 50개의 입주기업이 인큐베이팅 될 예정이며, 입주환경개선 및 공유 공간 확보는 물론 건설연 내 각 연구시설과 창업기업간의 연계를 통한 시너지 효과도 기대된다.스마트건설지원센터 제2센터 건립공사는 센터의 특성을 고려하여 설계와 시공단계에서 스마트 건설기술이 일괄적으로 적용되는 '스마트 건설공사'로 진행된다.제2센터 건립공사에는 입주기업의 대표 기술이 활용된다. Δ모콘에스티의 모듈형 화장실유닛과 벽체시스템 Δ비에스소프트의 스마트 음향분석 홈 사물인터넷(Home IoT) 시스템 Δ지와이네트웍스의 딥러닝 자가학습 화재감지 소프트웨어(SW) 등이 적용된다. 제2센터 건립공사의 설계 및 시공은 삼성물산 컨소시엄(삼성물산, 삼우종합건축사사무소, 유창, 두원EFC)이 참여한다. 김병석 건설연 원장은 "이번 스마트건설지원센터 제2센터의 건립을 통해 창업기업의 육성 및 창업 생태계의 기반을 마련할 것이며, 한국건설기술연구원이 스마트건설기술 활성화에 큰 역할을 할 것"이라고 밝혔다.윤성원 국토교통부 제1차관은 "혁신적인 새싹기업들이 실패에 대한 두려움 없이 마음껏 창업에 도전할 수 있도록 하고, 기술 융·복합의 시대를 맞아 도약과 도태의 갈림길에 선 건설 산업이 기회와 도전의 길을 열어갈 수 있도록 정부가 힘껏 도울 것"이라고 강조했다.</t>
-  </si>
-  <si>
-    <t>수강생 1000→2300명…정부 비용 분담교육생 선발·커리큘럼 삼성전자가 맡아청년들의 정보기술(IT) 업계 취업을 돕는 삼성전자의 교육 프로그램인 ‘삼성 청년 소프트웨어 아카데미(SSAFY)’의 교육생 규모와 지원 범위가 확대된다.       정부가 ‘하반기 경제정책방향’의 한 방안으로 삼성전자 등 대기업이 사회공헌 차원에서 청년층에 제공하고 있는 ‘디지털 분야 우수 인재양성 프로그램’을 대폭 확대한다고 29일 밝혔다. 민간과 정부의 파트너십을 통해서다.    이재용 삼성전자 부회장이 2019년 8월 '삼성 청년 소프트웨어 아카데미' 광주 교육센터를 방문해 소프트웨어 교육을 참관하고 교육생들을 격려했다. [사진 삼성전자]       SSAFY는 삼성전자가 2018년 발표한 ‘경제 활성화와 일자리 창출 방안’ 중 하나다. 청년 세대에겐 기업이 원하는 실무형 SW 교육을 제공하고, 기업엔 맞춤형 SW 인재를 연결해 국내 IT 업계 생태계를 확대하겠다는 취지에서 문을 열었다.      ━   총 2087명 수료해 취업률 68%        최근 4기 교육생을 포함해 총 2087명의 수료생을 배출했으며, 이 가운데 1411명(68%)이 취업했다. 현재 서울과 대전·광주·구미에서 교육센터를 운영하고 있으며 부산·구미·광주에도 캠퍼스를 신설할 예정이다.        정부는 SSAFY 같은 프로그램에 재정 지원과 대한상공회의소 같은 경제단체의 힘을 보태 디지털 인재를 키워야 한다고 판단했다. 기업의 사회공헌 활동에서 일자리 창출원으로 확대하겠다는 뜻이다.       이에 따라 교육생 규모가 늘고 취업 지원도 확대한다. 삼성전자가 교육생·훈련강사 선발, 커리큘럼 구성을 맡고 자율적으로 기획, 운영하는 것은 이전과 같다. 여기에 더해 교육 규모 확대에 따른 비용의 일정 부분을 정부가 분담한다. 대한상의는 수료생의 취업 지원 등을 맡는다. 그간 SSAFY 교육생은 연간 1000명이었다. 내년에는 두 배가 넘는 2300명까지 늘어날 계획이다.      SSAFY 수강생은 1년간 매일 8시간씩 총 1600시간 교육을 받는다. 초기 5개월은 집중적인 코딩 교육을 하는데 소프트웨어 전공자의 2년치 학습량이다. 후기 5개월은 기업과 협업 프로젝트를 통해 즉각 현업에 투입될 수 있는 심화 과정도 운영한다.      '삼성 청년 소프트웨어 아카데미' 교육생들이 대전캠퍼스에서 교육받고 있는 모습. [사진 삼성전자]       참여자 모두에게 매달 100만원의 교육 지원금도 지급한다. 또 취업지원센터를 운영해 채용정보·진로상담·면접컨설팅 등을 상시 지원하고, 주기적으로 기업설명·채용박람회를 연다.       ━   이재용 부회장 “미래 위해 지금 씨앗 심어야”      삼성전자 관계자는 “SSAFY는 이재용 삼성전자 부회장의 기업의 사회적 역할 확대 의지가 담긴 프로그램인 만큼 교육생 전원이 생활비 등 걱정 없이 실력 향상에만 집중할 수 있도록 세심하게 운영할 것”이라고 말했다.        이재용 부회장은 2019년 광주의 SSAFY 교육 현장을 찾아 “소프트웨어 인재 양성은 IT 생태계 저변 확대를 위해 필수인 만큼 어렵더라도 미래를 위해 지금 씨앗을 심어야 한다”며 “더 큰 꿈을 실현할 수 있도록 다 같이 도전하자”고 강조했다.        최현주 기자 chj80@joongang.co.kr</t>
-  </si>
-  <si>
-    <t>이재용 '동행' 경영철학 결실SSAFY 교육생 2배 이상 확대 이재용 삼성전자 부회장(오른쪽 첫번째)이 지난 2019년 8월 광주 SSAFY 방문해 교육생들을 격려하고 있다.[파이낸셜뉴스] 이재용 삼성전자 부회장의 '동행' 경영철학이 담긴 '삼성 청년소프트웨어 아카데미'(SSAFY)가 정부의 우수인재 양성 프로그램에 동참해 입학정원을 두 배 이상으로 늘린다. 현재 1000명 수준에서 올해 1700명으로, 내년에는 약 2300명으로 확대키로 했다. 취업률 68%의 SSAFY가 교육생을 늘리기로 하면서 우수한 전문인력 양성과 소프트웨어(SW) 생태계 조성에 이바지 할 것으로 기대된다.   29일 기획재정부와 삼성전자에 따르면 1년에 두 번, 한기수당 500명씩 1000명을 선발했던 SSAFY 교육생 규모를 올해 1700명(상반기 750명·하반기 950명)으로 늘리고 내년에는 약 2300명(기수당 약 1150명) 규모로 확대키로 했다. SSAFY는 현재 서울·대전·광주·구미 등 4개 지역에 캠퍼스를 운영하고 있으며 올해 상반기(5기)에는 750명, 하반기(6기)에는 950명의 교육생을 받는다.   삼성전자는 기재부가 기업 우수 인재양성 프로그램을 하반기 경제정책방향에 포함시키고 지원을 확대키로 하자 SSAFY 정원을 늘리기로 했다.   지난 2018년 12월 SSAFY를 시작한 이듬해인 2019년 1월 이 부회장은 당시 이낙연 국무총리와의 면담에서 SW 인력의 부족을 호소하면서 전문인력 양성에 정부의 도움을 요청했다. 당시 이 부회장은 5세대(5G) 통신장비의 코딩 작업을 예로 들면서 대단 구체적인 필요 인력 수치를 설명하는 등 전문인력의 중요성을 강조한 것으로 전해졌다. 같은 해 8월에는 SSAFY 광주 캠퍼스를 찾아 교육생들에게 "미래를 위한 씨앗"이라고 격려하고 미래를 위해 도전해달라고 당부하기도 했다.   2018년 12월부터 교육을 시작한 SSAFY는 지난해까지 287명이 수료했으며 이 중 1411명이 취업해 취업률 68%를 기록했다. SW 업계 관계자는 "강도 높은 교육과정으로 유명한 프로그램"이라며 "전공자와 비전공자를 가리지 않고 교육생을 선발하고 취업 때 SSAFY 출신들을 우대하는 기업들도 늘고 있어 취업을 준비하는 청년들의 관심이 높다"고 평가했다.   문재인 대통령은 지난해 초 포스트코로나 시대 혁신성장을 위해 대규모 국가 프로젝트 '한국판 뉴딜' 추진을 선언했다. 이어 기획재정부를 중심으로 인공지능(AI)·5G·데이터를 중점 추진과제로 선정한 바 있다. 모두 SW 전문인력들이 절실히 필요한 분야들이다.   SSAFY에서는 1년간 매일 8시간씩 총 1600시간 교육을 시행한다. 이 덕분에 수료생들은 즉시 현장 투입 가능한 전문인력으로 평가받는다. SSAFY 수료생들은 삼성전자를 비롯 신한은행, 카카오, LG CNS, SK㈜ C&amp;C, 네이버, 쿠팡, 신세계 I&amp;C, NH농협은행, KB 국민은행, 현대자동차 등 IT·금융권의 다양한 기업에 취업했다. 채용 때 SSAFY 수료생을 우대하는 기업들은 1기 수료 당시 20여 개에서 지금은 80여 개로 대폭 증가했다.</t>
-  </si>
-  <si>
-    <t>삼성전자 소프트웨어 아카데미/사진제공=삼성전자이재용 삼성전자 부회장의 동행 철학이 담긴 삼성청년SW아카데미가 교육 인원 규모를 두 배 이상 키운다.29일 삼성전자 등에 따르면 삼성전자는 한 해 1000명(기수당 500명·연 2회 모집)이었던 청년SW아카데미 훈련생 규모를 올해 1700명(상반기 750명·하반기 950명)으로 늘렸다. 내년에는 약 2300명(기수당 약 1150명) 규모로 확대할 계획이다.아울러 부산에 부울경캠퍼스를 신설하고, 구미·광주캠퍼스 교육인원을 확대하는 등 비수도권 교육도 강화하기로 했다. 삼성은 서울과 대전, 광주, 구미 4개 지역에 캠퍼스를 개소해 운영하고 있다. 부울경캠퍼스는 내달 9일 개소식이 예정돼 있다.청년SW아카데미는 삼성이 2018년 발표한 경제 활성화와 일자리 창출 방안의 일환으로, 국내 IT(정보통신) 생태계 저변 확대와 청년 취업 경쟁력 향상을 위한 교육 프로그램이다. 평소 기업의 사회적 역할 확대를 강조해온 이재용 삼성전자 부회장의 '동행 비전'이 담긴 프로그램이기도 하다. 청년SW아카데미는 1년간의 집중 교육으로 역량을 갖춘 실전형 인재를 육성한다. 매일 8시간씩 총 1600시간의 집중 교육을 받는데, 1학기 5개월간의 집중 코딩 교육(800시간)은 대학교 소프트웨어 전공자의 2년치 학습량에 달한다는 평가를 받고 있다. 2학기 5개월의 심화과정에서는 실전 프로젝트를 직접 수행하기 위해 자기주도 학습으로 진행된다.각 학기를 마치면 한 달간 '잡 페어'를 운영해 우수기업 초정, 회사설명회, 기업탐방 등을 실시한다. 해외 IT 기업과 국내 유명 스타트업 개발자들에게 멘토링을 받을 수 있는 기회도 제공한다. 또 교육생 전원에게는 매달 교육지원금 100만원이 지급해 경제적 부담을 덜어줘 교육과 실력 향상에 집중할 수 있도록 돕는다.2018년 12월부터 시작한 SW아카데미는 4기까지 2087명이 수료했다. 이 가운데 1411명이 취업해 68%의 취업율을 보였다. 특히 취업에 성공한 수료생 중 32%를 차지하는 455명은 소프트웨어 비전공자로, 이 프로그램을 통해 새로운 진로를 찾았다.SK하이닉스와 포스코도 디지털 분야 우수 인재 양성 프로그램을 '민간 정부 파트너십'을 통해 대폭 확대한다. SK하이닉스는 청년 하이파이브(반도체분야) 인원을 연 300명이 참여할 수 있는 기존 교육에 더해 별도 과정으로 연 400명 이상이 교육을 받을 수 있게 할 예정이다. 포스코의 AI·빅데이터 과정은 올해 강의실 등 교육 인프라를 확충해 현재 연 200명인 교육 인원을 2022년부터 연 300명으로 늘린다.정부는 교육 확대에 따른 비용을 정부가 분담하는 등  지원에 나선다. 또한 정부는 대한상공회의소와 협조를 바탕으로 프로그램 참여 기업을 확대할 계획이다.  향후 교육 프로그램은 직무 교육은 물론 청년층과 디지털 분야 채용을 희망하는 기업을 연결하는 디지털 취업플랫폼으로 자리매김 할 방침이다.</t>
-  </si>
-  <si>
-    <t>아산나눔재단, 한국창업생태계 국제비교 연구 서울 강남구 역삼동 아산나눔재단의 창업지원센터 '마루180'의 전경. 뉴스1 제공  [파이낸셜뉴스] 최근 스타트업 열풍으로 국내에서 창업이 늘고 있지만 '창업의 대중화'에 걸맞은 내실화와 고도화는 부족하다는 분석이 나왔다. 아산나눔재단은 29일 해외 선진 창업생태계 특성을 분석해 한국 창업생태계 경쟁력을 진단하는 ‘한국의 창업생태계 경쟁력 제고 위한 국제비교 연구’ 보고서를 발표했다.   이번 연구에는 과학기술정책연구원(STEPI)이 공동으로 참여했고 개발한 지표와 분석 프레임워크를 통해 미국, 중국, 일본, 영국, 독일, 프랑스 등 해외 주요 6개국의 창업생태계의 정량성과를 비교분석했다.   연구보고서는 한국은 ‘창업의 대중화’는 실현했으나 내실화와 고도화가 필요하다고 진단했고, 정부 창업지원 예산의 78%가 예비나 초기 창업단계에 집중하고 있다고 판단했다.   진입장벽이 낮은 소프트웨어(SW) 기반, 아이디어 중심의 가벼운 창업이 증가해 생존 위협을 받고 있다고 봤으며, 부처별, 지자체별 지원사업이 유사해 창업지원에 오히려 혼란이 가중되고 있다고 분석했다.   보고서는 이를 개선하기 위해 보고서는 네 가지 정책을 제언했다.   특히 △창업하고자 하는 사람 모두가 창업준비 과정 및 창업 활동에 동등한 기회를 가질 수 있도록 하고, △경쟁력있는 창업기업의 성장을 위해 밀착형, 맞춤형 지원이 필요하다고 언급했다. △기술과 경제를 선도할 수 있는 창업을 많이 할 수 있도록 돕고, △국가 창업정책 브랜드 및 거버넌스 구축과 고유의 혁신문화 조성이 필요하다고 강조했다.   보고서는 미국의 경우 창업에 대한 접근성이 우수하며, 연방·주 정부는 물론 지역 창업지원 기관과 대학 등의 연계가 활발하며 교육 프로그램이 체계화됐다고 평가했다. 또 미국은 투자시장이 성장단계별로 잘 이뤄져 투자 연계와 효율성이 높았고, 미 정부도 부처별 명확한 기술혁신 목표를 설정, 효과적으로 정책을 운영하고 있다고 설명했다.   한편, 아산나눔재단은 지난 28일 열린 ‘넥스트라이즈 2021 서울’에서 ‘해외 6개국 비교분석을 통한 한국 창업생태계 10대 현안과 발전방안’을 주제로 세션을 진행했다.</t>
-  </si>
-  <si>
-    <t>건기연 스마트건설지원센터 제2센터 착공식한국건설기술연구원(원장 김병석)은 29일 오전 10시30분 '스마트건설지원센터 제2센터 착공식'을 개최했다. 이날 착공식에는 국토교통부 제1차관, 홍정민 의원, 이재철 고양시 부시장 및 입주기업 등 총 50여명이 참석했다.건기연 스마트건설지원센터는 건설기술진흥법에 의거해 융복합건설기술의 개발·보급 및 활용을 촉진하기 위한 시책을 수립시행하고 지원한다. 또 융복합건설기술 관련 예비창업자와 창업자 발굴, 육성, 교육 및 해외진출 지원, 융복합건설기술 관련 창업공간 조성 및 운영 등을 수행하고 있다.스마트건설지원센터에 창업기업을 위한 공간인 입주공간을 구축했으며, 2018년부터 스마트건설 창업 아이디어 공모전 등을 통해 모집된 총 30개 기업이 입주해 있다. 입주기업을 위한 다양한 지원 프로그램을 바탕으로 총 186명의 고용 창출, 127억2000만원 연매출 달성, 연간 25억1000만원 투자금액을 유치하는 등 성과를 달성했다.건기연은 매년 스마트건설 창업 아이디어 공모전을 통해 입주기업 추가 및 출구전략기업을 최대 50개까지 육성할 계획이다. 추가로 필요한 입주기업의 공간을 확보하기 위해 스마트건설지원센터 제2센터를 건립하게 됐다. 제2센터는 지상 3층, 연면적 1817㎡ 규모로 건립된다. 총 56개 입주공간에 약 50개의 입주기업이 인큐베이팅 될 예정이며, 입주환경개선 및 공유 공간 확보는 물론 건기연 내 각 연구시설과 창업기업간 연계를 통한 시너지 효과도 기대된다.스마트건설지원센터 제2센터 건립공사는 센터 특성을 고려해 설계와 시공단계에서 스마트 건설기술이 일괄적으로 적용되는 '스마트 건설공사'로 진행된다. 특히 제2센터 건립공사에는 입주기업 대표 기술이 활용될 예정인데, 모콘에스티 모듈형 화장실유닛과 벽체시스템, 비에스소프트 스마트 음향분석 홈 사물인터넷(IoT)시스템, 지와이네트웍스의 딥러닝 자가학습 화재감지 소프트웨어(SW)가 적용된다. 제2센터 건립공사의 설계 및 시공은 삼성물산 컨소시엄(삼성물산, 삼우종합건축사사무소, 유창, 두원EFC)이 참여한다. 스마트 건설공사를 통해 현장시공을 최소화해 공기를 단축하고 우수한 품질 및 안전을 확보할 수 있을 것으로 기대된다.김병석 원장은 “이번 스마트건설지원센터 제2센터의 건립을 통해 창업기업의 육성 및 창업 생태계의 기반을 마련할 것이며, 한국건설기술연구원이 스마트건설기술 활성화에 큰 역할을 할 것”이라고 밝혔다.국토교통부 윤성원 제1차관은 “혁신적인 새싹기업들이 실패에 대한 두려움 없이 마음껏 창업에 도전할 수 있도록 하고, 기술 융복합의 시대를 맞아 도약과 도태의 갈림길에 선 건설 산업이 기회와 도전의 길을 열어갈 수 있도록 정부가 힘껏 도울 것”이라고 강조했다.</t>
-  </si>
-  <si>
-    <t>인공지능로봇연구소, SW·AI·Robotics 전문기업과 MOU지능형 코딩 로봇 공동연구와 산학협력 확대동의대 로봇 전문가를 키우는 데 집중하고 있다.동의대(총장 한수환) 인공지능로봇연구소(소장 옥승호)는 지난 6월 22일 동의대 정보공학관에서 ㈜큐브로이드(대표 신재광)·㈜삼쩜일사(대표 채덕병)·㈜코더블(대표 김기만)·코딩하루(대표 신영수)·DO메이커(대표 한신애)와 SW·AI·Robotics 교육산업의 활성화와 이공계 맞춤형 인력양성을 위한 MOU를 체결했다.이날 협약에는 큐브로이드 신재광 대표, DO메이커 한신애 대표, 코딩하루 신영수 대표, 삼쩜일사 채덕병 대표가 참석했다. 각 기관은 △지능형 로봇 연구와 인력양성 △SW·AI·Robotics 교육 활성화를 위한 인적, 물적 자원의 교류 △공동 프로그램 기획과 개발 등에 상호 협력하기로 했다.협약식에 이어 동의대 재학생을 대상으로 ‘교육용 인공지능 코딩 로봇 기술 및 산업 동향’을 주제로 특강을 개최하였으며, 큐브로이드의 인공지능 코딩 로봇 기부 행사도 진행됐다.인공지능로봇연구소 옥승호 소장(로봇·자동화공학전공 교수)은 “로봇을 활용한 코딩과 인공지능 교육 활성화에 더욱 힘쓰고, 기업의 수요를 충족하는 인재양성을 통해 지역경제 성장에 도움이 되길 기대한다”고 말했다.㈜큐브로이드는 지난해 과학기술정보통신부 장관상을 받은 에듀테크기업으로 AI 기반의 모듈러 로보틱스 제품과 비대면 디지털콘텐츠를 만들고 있다. DO메이커는 AR, 코딩드론, 3D모델링, 인공지능 등의 다양한 교육을 진행하고 있다.또한 코딩하루는 코딩교육 프랜차이즈 기업이며, 코더블은 소프트웨어 교육용 교구와 콘텐츠 개발 전문기업이다. 삼쩜일사는 에듀테크 스타트업 기업으로 소프트웨어 교육용 교구 ‘카미봇’을 출시했다.</t>
-  </si>
-  <si>
-    <t>아산나눔재단, 해외 선진 창업생태계 보고서 발표“한국은 '창업의 대중화'는 실현했으나 내실화와 고도화가 필요하다. 또 아이디어 중심의 가벼운 창업이 증가해 생존 위협을 받고 있다. 아울러 부처별, 지자체별 지원사업이 유사해 창업지원에 오히려 혼란이 가중되고 있다.”아산나눔재단(이사장 한정화)은 해외 선진 창업생태계 특성을 분석해 한국 창업생태계 경쟁력을 진단하는 '한국의 창업생태계 경쟁력 제고 위한 국제비교 연구' 보고서를 발표했다고 29일 밝혔다.본 연구에는 과학기술정책연구원이 공동으로 참여했으며, 개발한 지표와 분석 프레임워크를 통해 미국, 중국, 일본, 영국, 독일, 프랑스 등 해외 주요 6개국의 창업생태계의 정량성과를 비교분석했다. 또 이들 국가의 창업정책 철학과 시대적 변화, 발전과정을 연구해 수록했다. 이를 통해 국가별 창업생태계 핵심 이슈와 트렌드가 무엇인지 살펴보고 이를 바탕으로 벤치마킹 시사점을 도출했다. 보고서 결론에는 미래 한국의 창업생태계 발전방향을 제시하고, 현재 상황에 맞는 정책을 제언하는 내용을 담았다.한국의 창업생태계 경쟁력 제고를 위한 국제비교 연구 전체 프로세스이번 연구보고서의 분석대상이 된 6개 국가는 ▲한국이 벤치마킹 할 만큼 창업생태계가 조성 돼있고 ▲국가 간 상세 비교가 가능한 지표통계를 습득할 수 있으며 ▲한국의 창업생태계 핵심 문제점을 해결하는 데 필요한 벤치마킹 요소를 가지고 있는지 등의 여부를 고려해 선정됐다.연구보고서에 따르면, 미국의 창업생태계는 창업에 대한 접근성이 우수한 것으로 나타났다. 연방정부, 주정부는 물론이고 지역 창업지원 기관이나 대학 등의 지원 연계가 활발하고, 교육 프로그램이 체계화돼 있으며, 창업 인프라나 커뮤니티에 대한 접근이 용이하다고 보고서는 설명했다. 또 미국은 투자시장이 성장단계별로 잘 이뤄져 투자 연계나 효율성이 높았으며, 실리콘밸리 외 뉴욕, 보스턴, 시애틀 등 글로벌 창업허브를 다수 보유하는 등 지역 특성을 살려 창업허브를 구축하고 있다고 파악됐다. 이외에도 보고서는 미국이 부처별로 명확한 기술혁신 목표를 설정해 효과적이고 자율적으로 운영하고 있다고 평가했다.중국은 국가의 핵심 기술혁신 전략과 창업정책을 연계해 운영한다는 특징을 갖고 있다고 분석했다. 보고서에서는 중국이 국가 차원에서 주요 도시의 혁신생태계 수준을 평가, 관리, 육성하는 등 산업특성을 감안해 창업 특화지역을 조성하고 있다고 설명했다. 특히, 대형 빅테크 기업이 투자를 주도하면서 북경대, 칭화대 등 우수 대학이 엘리트 창업인재를 배출하는 데 기여하는 등 대학이 인재 양성의 요람 역할을 하고 있다고 덧붙였다.일본의 경우 범부처 종합정책을 수립해 창업생태계의 근본적 변화를 유도하면서 대학 중심의 산학협력 체계를 구축했다고 평가했다. 일본은 여기에 대기업과 중소기업 간 연계를 강화하고 오픈 이노베이션을 활성화하는 데 주력하고 있으며, 지자체나 대학, 대기업, 스타트업 등 다양한 혁신주체가 참여해 창업생태계를 조성하는 종합 전략을 취하고 있다고 설명했다.이외에도 영국은 강점 미래 기술 분야 창업기업을 집중적으로 육성하고, 민관 협업을 통해 지역 밀착형 창업허브를 조성하며, 우수 인재 및 해외 투자 유치를 위해 다양한 노력을 하고 있다고 분석했다. 독일 또한 기술창업의 증대를 정책 목표로 삼고 효과적으로 지원하고 있으며, 창업실패에 대한 높은 사회적 안정망을 강화하고 있다고 밝혔다. 마지막으로 프랑스는 혁신주도 창업국가로의 전환을 위해 국가정책을 수립하고, 창업생태계의 글로벌화를 위해 지원 전략을 펼치고 있다고 기술했다.마지막으로 보고서는 한국 창업정책의 특징을 네 가지로 정리했다. 한국은 '창업의 대중화'는 실현했으나 내실화와 고도화가 필요하다고 진단했다. 나아가 정부 창업지원 예산의 78%가 예비나 초기 창업단계에 집중하고 있다고 판단했다. 진입장벽이 낮은 SW기반, 아이디어 중심의 가벼운 창업이 증가해 생존 위협을 받고 있다고 봤으며, 부처별, 지자체별 지원사업이 유사해 창업지원에 오히려 혼란이 가중되고 있다고 분석했다.이를 개선하기 위해 보고서는 네 가지 정책을 제언했다. 창업하고자 하는 사람 모두가 창업준비 과정 및 창업 활동에 동등한 기회를 가질 수 있도록 하고, 경쟁력 있는 창업기업의 성장을 위해 밀착형, 맞춤형 지원이 필요하다고 언급했다. 또한 기술과 경제를 선도할 수 있는 창업을 많이 할 수 있도록 돕고, 국가 창업정책 브랜드 및 거버넌스 구축과 고유의 혁신문화 조성이 필요하다고 강조했다.한편, 아산나눔재단은 지난 28일 열린 '넥스트라이즈 2021 서울'에서 '해외 6개국 비교분석을 통한 한국 창업생태계 10대 현안과 발전방안'을 주제로 세션을 진행했다.발간된 연구보고서와 발표자료 등은 아산나눔재단 공식 홈페이지 공지사항과 자료실에서 누구나 무료로 내려받아 볼 수 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		재단법인 미래와소프트웨어(이사장 이주용)와 사단법인 한국정보처리학회(회장 신용태)가 지난 28일(월) KCC정보통신 염창동 본사에서 운당 학술상 제정에 따른 협약식을 진행하였다. 운당학술상 제정 및 후원협약식 모습운당 학술상은 우리나라 최초 IT서비스 기업인 KCC정보통신(주)의 창업자 운당(雲堂) 이주용 회장의 업적을 기리고자 정보기술 관련 학회 중에서 최고의 권위를 가진 포상제를 제정하여 우리나라 ICT 학문 및 기술 발전을 위해 매진하고 있는 인재를 발굴하여 시상함으로써 ICT 분야의 종사자들에게 사기 진작을 하는데 그 목적이 있다. 시상금은 총 2,500만원으로 학술대상(1인)에 1,000만원, 논문대상(2인)에 각 500만원씩 총 1,000만원, 학생논문상(5인)에 각 100만원씩 총 500만원을 수여할 예정으로 오는 8월부터 후보자를 접수하여 12월 초에 시상할 계획이다. 운당 학술대상 운영위원회의 위원장으로는 KCC정보통신 이상현 부회장, 위원으로는 부산외국어대학교 이정배 교수, 전자신문 구원모 대표, 숭실대학교 신용태 회장, 한국외국어대학교 조준서 교수가 임명되었다.  본 운당 학술상을 주관 및 후원하는 (재)미래와소프트웨어의 이주용 이사장은 혁신적인 창의성을 바탕으로 새로운 ICT 학문과 신기술을 개발하기 위해 최선을 다하는 인재를 발탁해 지원을 아끼지 않겠다고 포부를 밝혔다. 운당 학술상을 주최 및 시행하는 (사)한국정보처리학회 신용태 회장은 "운당 학술상의 시상 규모를 더욱 확대 발전시키고 지속적인 시행을 통해 우리나라 ICT 학문 발전을 위해 일익을 담당하겠다"고 전했다. 한편 미래와소프트웨어는 SW 인재육성 및 SW산업 발전을 위해 설립된 이래로 매년 저소득계층의 초,중학생을 대상으로 무료 코딩교육 실시, 4차 산업 아이다어공모전 및 꿈찾기 캠프 등을 개최한 바 있다.</t>
-  </si>
-  <si>
-    <t>8월부터 후보자 접수해 12월 초 시상…상금은 총 2500만 원재단법인 미래와 소프트웨어(이사장 이주용 이사장·사진 오른쪽)와 사단법인 한국정보처리학회(회장 신용태·왼쪽)가 28일 KCC정보통신 염창동 본사에서 운당 학술상 제정에 따른 협약식을 가졌다.운당 학술상은 우리나라 최초 정보기술(IT) 서비스 기업인 KCC정보통신㈜의 창업자 운당(雲堂) 이주용 회장의 업적을 기리고자 IT 관련 학회 중에서 최고의 권위를 가진 포상제를 제정, 우리나라 정보통신기술(ICT) 학문 및 기술 발전을 위해 매진하고 있는 인재를 발굴하여 시상함으로써 ICT 분야의 종사자들에게 사기 진작을 하는 데 그 목적이 있다.시상금은 총 2500만 원으로 학술대상 1인에게 1000만 원, 논문대상 2인에게 각 500만 원씩 총 1000만 원, 학생논문상 5인에게 각 100만 원씩 총 500만 원을 수여할 예정으로 오는 8월부터 후보자를 접수해 12월 초에 시상할 계획이다.운당 학술대상 운영위원회의 위원장으로는 이상현 KCC정보통신 부회장, 위원으로는 이정배 부산외국어대 교수, 구원모 전자신문 대표, 신용태(숭실대 교수) 한국정보처리학회 회장, 조준서 한국외국어대 교수가 임명됐다.운당 학술상을 주관 및 후원하는 미래와 소프트웨어 이주용 이사장은 “혁신적인 창의성을 바탕으로 새로운 ICT 학문과 신기술을 개발하기 위해 최선을 다하는 인재를 발탁해 지원을 아끼지 않겠다”고 포부를 밝혔으며 운당 학술상을 주최 및 시행하는 신용태 한국정보처리학회 회장은 “운당 학술상의 시상 규모를 더욱 확대 발전시키고 지속적인 시행을 통해 우리나라 ICT 학문 발전을 위해 일익을 담당하겠다”고 전했다.한편 미래와 소프트웨어는 SW인재육성 및 SW산업 발전을 위해 설립된 이후 매년 저소득계층의 초·중학생을 대상으로 무료 코딩교육 실시, 4차 산업아이디어공모전 및 꿈찾기 캠프 등을 개최한 바 있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		'디지털전환(DX)'이 기업 생존을 위한 필수조건으로 급부상했다. 코로나19가 촉발한 비대면 경제가 디지털 기술 수요로 이어지면서 전통 산업 질서를 붕괴시키고 있다. 우리나라를 비롯해 미국, 유럽연합(EU), 중국 등 세계 각국에서 일반 소비자 시장은 물론 노동집약적 제조업까지 '디지털'을 핵심 키워드로 삼아 체질 개선에 나서는 형국이다.ⓒ게티이미지뱅크산업통상자원부는 29일 서울 더케이호텔에서 '산업 디지털전환 변화추진자(CA) 양성 프로그램' 발대식과 '산업 디지털 혁신 포럼' 개소식을 열었다.이날 김광석 한국경제산업연구원 경제연구실장은 '디지털 트랜스포메이션과 대전환의 서막'을 주제로 강연했다. 그는 DX, 메타버스(Metaverse) 등이 가져온 사회와 산업 변화를 설명하며 앞으로 다가올 미래를 대비해야 한다고 조언했다.김 실장은 DX에 따른 산업 패러다임 변화의 6개 물결로 △비대면화 △초맞춤화 △탈경계화 △서비스화 △실시간화 △초실감화를 각각 꼽았다. 우리 기업들이 이 같은 변화 방향에 따라 선제 대응해야 한다고 강조했다.자동차 부품 전문업체 코렌스 글로벌의 김형국 연구소장은 데이터 기반 협업과 인공지능(AI) 서비스 플랫폼 개발 사례를 소개해 눈길을 끌었다.코렌스는 기존 공급망에서 데이터 기반 품질 보증시스템을 요구하는 상황을 감안, DX를 위한 스마트시스템 구축을 추진한다. 제조 데이터의 핵심인 생산·품질·비용·배송(PQCD) 기반 데이터베이스(DB)와 관련 시스템을 결합해 시너지를 극대화하는 게 목표다. 이를 글로벌 미래차 시장에서 주도권을 확보하기 위한 발판으로 활용할 계획이다.한국은행 해외경제포커스는 최근 발표한 '디지털 전환이 생산성 및 고용에 미치는 영향' 보고서에서 DX가 기업 생산성 향상에 긍정적 영향을 미치고 있다고 진단했다. DX가 디지털 자본 확충을 통한 생산·유통 효율성 개선, 네트워크 효과를 통한 기업 간 경쟁 촉진, 소비자 후생 증대 등을 촉진했다고 분석했다.서버, 라우터 등 유형자본과 소프트웨어(SW), 빅데이터 분석 역량 등 무형자본을 포괄하면서 신규 제품과 서비스 개발에 중요한 역할을 했다고 봤다. 이에 따라 국내에서 제조업, 서비스업 등 다양한 업종 기업이 생산성을 높이기 위한 DX에 속도를 낼 것으로 예상된다.보고서는 기본 생산성 수준이 높은 기업일수록 디지털 기술 도입에 따른 개선 효과가 높다고 조언했다. 특히 제조업은 서비스업에 비해 생산성 제고 효과가 높은 반면에 디지털 기술 도입률이 낮기 때문에 향후 생산성 개선 여력이 크다고 평가했다.실제로 세계 각국 제조업계에서는 '스마트공장'이 정보통신기술(ICT)을 활용한 지능형 생산 시스템으로 도입되면서 기술 고도화를 위한 노력이 이어지고 있다. 서비스업에서는 코로나19 확산을 계기로 스마트 물류, 스마트 서비스 등이 확산됐다. 모바일 애플리케이션(앱) 등으로 노동 수요와 공급을 연계하는 디지털 노동플랫폼은 이용자 수가 급증하고, 업무 범위도 다양해졌다.보고서는 “교육을 통해 디지털 기술 활용 능력을 높이면 생산성이 제고된다”면서 “기업은 조직구조 개선을 통해 디지털 기술을 보다 효율적으로 활용할 수 있다”고 설명했다. 산업통상자원부와 한국생산성본부(KPC)가 C 레벨 기업 임원들을 대상으로 산업 디지털전환 CA 양성 프로그램을 진행하는 이유다.한편 미국에서는 DX에 성공한 기업 사례가 속속 등장하고 있다.KOTRA 미국 실리콘밸리무역관 보고서에 따르면 제품 라벨·점착소재 전문업체 에이버리 데니슨은 사물인터넷(IoT) 기술을 활용해 첨단 디지털 ID 솔루션 업체로 변신했다. 식품 대기업 콘아그라는 클라우드 기반 고객관계관리(CRM)을 도입하면서 서비스·마케팅 혁신을 추진해 소비자 서비스를 강화했다. 가구 유통 전문업체 웨이페어는 증강현실(AR) 기술로 비대면 쇼핑 환경을 구현하면서 체질 개선에 성공했다.</t>
-  </si>
-  <si>
-    <t>코로나19로 위축된 소프트웨어(SW) 업계 수출이 4차 산업혁명 시대에 맞춰 활기를 되찾고 있는 가운데 전략물자관리제도가 다시 한번 뜨거운 감자로 떠올랐다. 전략물자관리제도란 국제평화와 안보를 보장하기 위해 무기 제조에 사용될 수 있는 산업용 물자가 분쟁 다발 지역, 테러 지원국으로 수출되는 것을 예방하거나 차단하기 위한 국제 규범이다. 전략물자관리제도가 시행된 지 10년이 넘었지만 여전히 대다수 SW 중소기업이 제도 인지 부족으로 처벌 위기에 놓여 있다.제도가 실시된 후 SW 기업은 △SW 기업의 전략물자관리제 인식 부족 △수출 SW의 전략물자 판단 기준과 난해한 문구에 따른 객관적인 판단의 어려움 △SW 수출 시 전략물자관리제도에 수반되는 행정 절차의 번거로움 △암호화 오픈소스를 활용한 시스템·솔루션의 전략물자 면제 조건인 소스코드 공개로 말미암은 기업의 핵심 기술 유출 우려를 애로사항으로 언급한 바 있다.이 가운데 중소기업이 겪는 가장 큰 고충은 법적 전문가 부족이다. 산업통상자원부는 각 기업에 전략물자 판정 필요성에 대한 공문 등으로 안내하고 있지만 이를 숙지하지 못한 기업은 위반 가능성까지 거론된다. 결국 제도와 행정 절차를 완벽하게 숙지하고 이행할 수 있는 인력이 있어야 하는데 중소기업에서는 연구개발(R&amp;D)과 비즈니스 활동에 집중해야 할 실무자가 전담하는 실정이다. 또 SW 제품의 서비스 특성과 계약 형태에 따른 전략물자 판단 기준, 이에 대한 난해한 문구로 말미암아 객관적 판단이 어렵다. 사전 판정의 경우에도 예외 조항이나 법 해석이 포괄적이어서 실무자가 이후 판정 결과에 따라 어떤 대응이 필요할지 등 행정 절차 상에서의 어려움을 겪는다.전략물자관리제도가 국제 평화 질서를 위한 제도인 만큼 기업 애로 사항에 대한 정부의 지속적인 후속 대책과 개선 방안 마련이 시급하다. 먼저 SW 산업 전체와 중소기업이 사전에 제도를 인지하고 위반 행위의 재발 방지를 위해서는 먼저 정부 차원의 적극 홍보와 교육이 필요하다. 전략물자관리원의 무역 안보 교육과 홈닥터 사업이 마련됐지만 이에 대한 인식은 여전히 부족하다. 산업부는 각 정보보안산업협회 및 SW협회 등 회원사 네트워크를 활용해 기업에 사전 교육 정보를 적극적으로 공유하고, 기업 또한 교육·지원 제도 수행에 대한 중요성을 인지해야 할 것이다.산업부는 각 기업 제품의 서비스 특성과 계약 형태에 의한 전략물자 판정에 따른 허가 절차 및 예외 범위, 면제 조항을 명확하게 표현할 필요가 있다. 큰 쟁점이 된 부분은 전략물자 판정 체크리스트 내 용어에 대한 기업의 주관적인 해석으로서 위배 사항이 아님에도 법적 책임을 물게 되는 경우다. 대부분 고의성이 없는 만큼 처벌보다는 법 위반 행위의 재발 방지를 위한 교육이 우선시돼야 한다. 더 나아가 기업 스스로 전략물자 해당 여부를 확인할 수 있도록 동일 사례 판정에 근거한 체계적 자료를 보강할 필요가 있다.무엇보다 SW 중소기업이 제도를 정확하게 숙지하고 준수할 수 있도록 법적 차원의 개선 외에도 자율준수 프로그램 확대, 행정 절차 간소화 등 다양한 지원 사업으로 뒷받침해야 한다. 4차 산업혁명의 핵심 요소 산업에서 중심인 SW 기업이 정부와 긴밀한 소통을 이어 가고 공공 규범을 성실하게 준수, 세계 시장에서 입지를 견고히 할 수 있기를 바란다.</t>
-  </si>
-  <si>
-    <t>과기정통부, 미래인재특위 개최과학기술정보통신부는 29일 제9회 국가과학기술자문회의 심의회의 미래인재특별위원회를 과학기술정보통신부 세종청사에서 개최하고 '초·중등 수학 역량강화 지원방안'을 논의했다.과기정통부는 "과학기술 발전과 사회혁신에 있어 수학의 중요성에 대한 인식이 높아짐에 따라 그동안 법제도 정비 및 범부처 중장기계획을 마련해 추진해 왔으나 미흡한 점이 있었다. 이 날 회의에서는 '창의력과 잠재력 극대화를 통해 깊이있는 사고로 사회문제를 해결하는 미래 수학 인재 양성'을 위한 초·중등 수학역량 강화 지원방안’이 집중 논의됐다고 밝혔다.▲이공계 진로 희망학생을 위한 고교-대학-진로연계 강화 ▲수학영재 양성체계 혁신 ▲학교안팎 인프라를 활용한 수학 대중화 생태계 조성 ▲수학인재양성연구센터 및 국립수학관 신설 등 수학역량강화 지원기반 구축 등 4대 전략과 이에 따른 다양한 세부방안들이 제시됐다.특히 이공계 진로 희망학생 대상 심화교육 기회 확대를 위해 과기전문가와 연계한 온라인 명품 수학·과학 강의, 고교학점제 대비 수학 관련 선택과목 교과서 개발 지원, 실생활과 연계된 이해하기 쉬운 수학용어 사용, 수학+X 융합 콘텐츠 개발, 학교밖 스마트 수·과학실 구축 및 온라인 가상실험 SW개발 등이 세부과제로 논의됐다.이 날 위원회에서는 이 밖에 과기정통부가 올해 하반기 시행할 이공계 대학원총조사 추진방향도 논의됐다.이경수 과학기술혁신본부장은 “현재는 과학기술혁신이 어느 때보다도 중시되는 글로벌 기술패권경쟁 시대”임을 강조하며, “우리나라가 향후 국제사회에서 과학기술혁신의 선도국 위치에 설 수 있도록 미래인재특위 활동을 통해 과학기술 인재 양성과 확보에 힘쓸 것”이라고 밝혔다.과학기술정보통신부는 6월 29일 제9회 국가과학기술자문회의 심의회의 미래인재특별위원회를 세종시 과학기술정보통신부 대강당에서 개최했다. 회의 시작전 제2기 민간위원들이 위촉장을 받고 기념촬영을 하고 있다.[사진=과기정통부]미래인재특위는 국가과학기술자문회의 산하 과학기술 인재 정책 분야 범부처 종합조정기구로 위원장(이경수 과기정통부 과학기술혁신본부장) 및 관계부처(과기정통부, 교육부, 산업통상자원부, 고용노동부, 중소벤처기업부 등) 정부위원 5명과 민간위원장(이준호 서울대학교 자연대학장)을 비롯한 민간위원 19명 등 총 25명으로 구성돼 있다.</t>
-  </si>
-  <si>
-    <t>'취업률 68%' SSAFY 교육생, 내년 2천명 이상 늘려…주니어 대상 10만명 교육이재용 삼성그룹 부회장 [사진=아이뉴스24 DB]'이재용 키즈'로 불리는 삼성이 배출한 소프트웨어 인재들이 10만 명을 훌쩍 넘은 것으로 나타났다. 또 이재용 삼성전자 부회장의 뚝심으로 길러낸 이들이 다양한 곳에서 활약하며 좋은 평가를 얻자, 정부가 함께 나서서 디지털 인재 양성에 나서기로 해 업계의 주목 받고 있다.삼성은 정부의 인재 양성 방침에 호응해 '삼성 청년 소프트웨어 아카데미(SSAFY)' 교육생 규모를 종전 연간 1천여 명 단위에서 내년부터 2배 이상 키울 것이라고 29일 밝혔다.'삼성 청년SW아카데미'는 국내에서 가장 성공적으로 안착한 민간의 청년 인재양성 프로그램으로, 지난 2년여간 1천400명이 넘는 청년들에게 일자리를 찾아줬다.삼성전자에 따르면 지난 2018년 12월 1기 교육을 시작한 이후 4기 수료까지 총 2천87명이 SSAFY를 거쳐갔다. 취업률은 68%로, 특히 취업에 성공한 교육생 중 32%에 달하는 455명은 소프트웨어 비전공자인 것으로 집계됐다.교육생들이 취업한 곳은 480여 곳에 달한다. 이 중에는 삼성전자를 비롯해 카카오, 네이버, 쿠팡 등 IT 기업 외에도 국내 주요 대기업과 금융기업이 포함돼 있다.삼성 청년 소프트웨어 아카데미 [사진=삼성전자]SSAFY는 삼성이 2018년 8월 발표한 '180조원 투자·4만 명 채용' 계획에 포함됐던 주요 프로그램 중 하나다. 청년 1만 명에게 소프트웨어 교육을 제공하는 것이 골자로, 그 해 12월 서울, 대전, 광주, 구미 4개 지역에 캠퍼스를 개소한 것을 비롯해 다음달 부산에 '부울경 캠퍼스'를 추가로 설립함으로써 취업 준비생들에게 양질의 교육을 제공한다는 방침이다.재계에선 삼성전자가 청년 소프트웨어 인재 양성에 적극 나서게 된 데는 이재용 부회장의 의지가 크게 작용했다고 보고 있다. 앞서 이 부회장은 지난 2019년 8월 삼성전자 광주사업장 내에 위치한 SSAFY 교육 현장을 찾아 "소프트웨어 인재 양성은 IT 생태계 저변 확대를 위해 필수적인 만큼 어렵더라도 미래를 위한 씨앗을 심고 더 큰 꿈을 실현할 수 있도록 다 같이 도전하자"고 강조한 바 있다.이 외에도 이 부회장이 경영 전면에 나선 지난 2014년부터 삼성은 '함께가요 미래로! 이네이블링 피플(Enabling People)'이라는 사회공헌활동(CSR) 비전 아래 청소년 및 청년 교육 중심의 다양한 프로그램을 운영하고 있다.특히 초·중·고교 대상 소프트웨어 교육을 실시하는 '삼성 주니어 SW  아카데미'는 2013년부터 지난해까지 8만2천 명이 참여했으며 올해 2만 명까지 포함하면 10만 명이 훌쩍 넘는 학생들이 참여하게 된다.이 같은 분위기에 힘입어 삼성전자는 대한상공회의소, 정부 등과 '2021년 하반기 경제정책방향'에 포함된 기업 우수인재 양성 프로그램 확대 사업에 나서기로 했다.이미 삼성전자는 지난해 상반기와 하반기에 각각 500명씩 모집하던 기수별 교육생을 올해는 상반기(5기) 750명, 하반기(6기) 950명으로 키웠다. 또 내년부터는 교육생 규모를 더욱 확대해 기수당 약 1천150명까지 늘릴 방침이다.삼성전자는 기존처럼 교육생과 강사 선발, 교육 커리큘럼 등은 자율적으로 진행한다. 여기에 발맞춰 정부는 규모 확대에 따른 기업 부담을 줄여주기 위해 예산 지원에 나선다.삼성은 "소프트웨어는 미래 경쟁력의 핵심이자 21세기 경영의 승부처"라며 "내부적으로는 소프트웨어 인재를 체계적으로 양성하는데 힘쓰고, 국가 차원의 소프트웨어 생태계 저변 확대를 위해서 지속적으로 노력할 것"이라고 말했다.</t>
-  </si>
-  <si>
-    <t>코로나19 확산으로 경영 불확실성 증대된 상황2년 연속 5000억원 이상 사회공헌 지출 유지"공공 보건·디지털 격차 등 사회 문제 해결"[이데일리TV 김종호 기자] 삼성전자가 지난해 코로나19 위기 속에서도 사회공헌을 위해 5000억원 이상을 지출한 것으로 나타났다. 29일 삼성전자가 공개한 ‘2021년 지속가능경영보고서’에 따르면 지난해 삼성전자의 지역사회에 대한 사회공헌 지출은 약 5000억원으로 2년 연속 5000억원대를 기록했다. 사회공헌 비용이 4000억원대 수준에 불과했던 2017년과 2018년보다 크게 확대한 규모를 지속 유지한 것이다.삼성전자는 지난해 코로나19 확산으로 경영 불확실성이 한층 증대된 상황에서도 대규모 사회공헌 지출을 결정했다. 삼성전자는 정부와 지자체는 물론 지역봉사센터, 지역사회협의회 등과 적극 소통했다. 이를 통해 △사업장 인근 생태계 보존 활동 △교육과 취업 관련 사회공헌 프로그램 △스마트공장 구축 등 중소기업 지원 △임직원 봉사단 등을 운영하며 사회적 책임을 다했다.특히 최근 삼성전자는 회사 핵심 가치로 여기는 ‘인재 제일’과 ‘상생 추구’를 바탕으로 미래의 주역이 될 청소년 교육 지원 활동에 지출을 늘리고 있다. 삼성전자는 전세계에서 소프트웨어(SW) 인재를 양성하는 ‘삼성 주니어 SW 아카데미’와 창의적 문제 해결 능력을 향상하는 ‘삼성 솔브 포 투모로우’는 물론 청소년 미래 기술 역량을 강화하기 위한 ‘삼성 이노베이션 캠퍼스’, ‘삼성 드림클래스’, ‘삼성 과학교실’ 등을 운영 중이다.이 중 청소년이 과학과 기술, 공학 등 지식을 활용해 지역 현안을 해결하는 삼성 주니어 SW 아카데미는 2010년부터 2020년까지 전세계 183만명의 청소년이 경험한 것으로 집계됐다. 또 지난해 삼성전자 전체 임직원의 봉사시간도 63만5564시간에 달하는 것으로 조사됐다.김기남 삼성전자 대표이사 부회장은 이번 보고서를 통해 “2020년은 예상치 못한 코로나19 팬데믹으로 공공 보건과 경제 위기, 인종 차별, 디지털 격차 등 다양한 사회 문제들이 대두됐다”며 “삼성전자는 ‘지속가능한 100년 기업’이 되기 위해 사회와 더불어 성장해야 함을 깨닫고 지역 사회와 임직원 등 이해관계자들이 조속히 일상으로 복귀할 수 있도록 다양한 노력을 기울였다”고 말했다. 나기홍 삼성전자 사회공헌단장 부사장도 “삼성전자는 미래 세대들이 사회가 요구하는 역량을 개발할 수 있도록 회사가 보유한 전문 기술과 지식, 경험 및 자원을 활용해 다양한 사회 공헌 활동을 지속 전개할 예정”이라고 말했다.‘삼성 주니어 SW 아카데미’를 운영하는 충북 괴산명덕초에서 인공지능(AI) 관련 수업을 하는 모습. (사진=연합뉴스)</t>
-  </si>
-  <si>
-    <t>서울 동부여성발전센터, 풀스택 서비스기획자 양성…교육과정 접수 중© 뉴스1(서울=뉴스1) 김수정 기자 = 최근 얼어붙은 취업시장에서도 개발자는 귀한 대접을 받고 있다. 코로나19 이후 언택트 트렌드의 확산으로 게임, 온라인 쇼핑몰, 빅데이터, 다양한 서비스 플랫폼 등 분야를 막론하고 개발 수요가 폭발적으로 증가하고 있기 때문이다. 특히, 언택트와 디지털 트랜스포메이션 등이 잠깐의 유행이 아니라 이미 하나의 흐름으로 자리매김한 만큼 향후 개발자에 대한 기업의 니즈는 더욱 확대될 것으로 전망된다. 이런 가운데 서울시 동부여성발전센터(센터장 최선희)는 기술산업 선도기업의 인재상에 부합하는 데이터 활용 역량을 갖추고, 이를 서비스로 구현할 수 있는 창의 융합형 선도인력 양성에 앞장서고 있다. 현재 참가자를 모집 중인 '풀스택 서비스기획자 양성과정'은 '3040 신기술 선도인력' 양성 및 사회 참여 유도 목적 달성의 일환으로, 디자인 또는 컴퓨터 프로그래밍 언어 개발자를 넘어 두 개의 영역을 포함해 기획의 범주까지 담당할 수 있는 풀스택(FULL STACK) 인재 양성을 위해 새롭게 개설됐다. 풀스택(FULL STACK)이란 최근 IT SW 및 서비스 플랫폼 업계에서 프로젝트 역량이 폭넓고 높은 스킬을 보유한 개발자를 일컫는 말로, 사용자 눈에 보이지 않는 시스템 내부 서버와 DB, API는 물론 사용자 접점의 프런트엔드 개발 역량을 보유한 고객지향 창의융합 문제해결력을 갖춘 이상적인 개발자를 칭하는 용어다. 이번 과정은 풀스택 관련 전문강사와 채용 수요가 있는 협약기업이 협력해 이론과 실습 프로젝트로 구성된 전문 웹&amp;앱 서비스기획자를 양성하고, 취업까지 연계시키는 과정이다. 웹 테크놀로지 기반 프런트엔드 코딩 스킬 능력을 겸비한 서비스기획자가 되기 위한 핵심 문제 역량을 키우고, 케이스별 그룹 파일럿-프로젝트(액션러닝)를 수행하도록 커리큘럼을 구성해 전문지식이 없는 비전공자도 참여가 가능하다. 교육 대상은 웹표준 코딩스킬을 갖춘 제품 서비스 기획자로 취업 경쟁력을 갖추고자 하는 분, ICT 활용분야 제품, 서비스 기획자 직무로 취업을 희망하는 분, 현장의 SW 프로젝트 수행 노하우를 익히고 SW개발자, 웹디자이너 등 팀 내 원활한 협업방식을 익히고자 하는 분, 학습과정에서 HTML/CSS 코딩을 활용해 직접 프로젝트를 완성하고 이를 취업 포트폴리오에 담아내고 싶은 분 등이다.단, 웹 코딩 스킬 보유자, ICT 관련 전공자 혹은 인접분야 직무 경력 보유자, 프로젝트 기획 관리와 커뮤니케이션 가능자는 우대한다.교육기간은 7월 20일부터 10월 26일(화, 목, 금요일 오전 9시 30분부터 오후 1시 30분까지)로, 수강료는 수료 및 취업 시 전액 환급한다. 수강 신청 기간은 7월 8일(목) 오후 4시까지로, 기타 자세한 내용은 서울시 동부여성발전센터 홈페이지를 통해 확인할 수 있다.</t>
-  </si>
-  <si>
-    <t>디지털 혁신 포럼 디지털 뉴딜 핵심 데이터 댐을 논하다가 28일 서울 영등포구 비투엔에서 열렸다. 왼쪽부터 이호준 전자신문 ICT융합부장, 고윤석 한국지능정보사회진흥원 지능데이터본부장, 배희숙 한국클라우드사업협동조합 이사장, 주영섭 고려대 특임교수, 권헌영 고려대 교수, 조광원 비투엔 대표, 강용성 와이즈넛 대표, 양기성 과학기술정보통신부 데이터진흥과장. 이동근기자 foto@etnews.com정부는 코로나19 팬데믹 상황을 이겨내기 위해 지난해 대규모 추경 예산을 투입해 '디지털 뉴딜'을 시작했다. 디지털 뉴딜은 일자리 창출뿐 아니라 인공지능(AI), 클라우드, 데이터 등 신기술을 적극 도입해 정부의 디지털 전환을 앞당기는 프로젝트다. 정부는 앞으로 3년간 디지털 뉴딜에 적극 투자해 디지털 전환 선도국으로 발돋움 한다는 목표다.디지털 뉴딜 핵심 사업으로 '데이터 댐'이 꼽힌다. 데이터 댐은 양질의 데이터 셋을 구축해 다양한 AI 서비스를 창출을 이끈다. 10개월 간 데이터 댐 프로젝트가 진행되면서 데이터 관련 일자리와 기업 사업 기회가 늘었다. 정부는 데이터 댐을 고도화하며 지속 투자할 계획이다.데이터 댐이 제대로 구축되기 위한 숙제도 많다. 전자신문과 한국클라우드사업협동조합은 '제3회 디지털 혁신 포럼' 주제로 '데이터 댐'을 선정했다. 전문가와 함께 데이터 댐 현황과 앞으로 나아가야할 방향을 논의했다.[참석자(가나다순)]△강용성 와이즈넛 대표(한국데이터산업협회 수석부회장)△고윤석 한국지능정보사회진흥원(NIA) 지능데이터본부장△권헌영 고려대 교수(4차산업혁명위원회 데이터특별위원회 위원)△배희숙 한국클라우드사업협동조합 이사장△양기성 과학기술정보통신부 데이터진흥과장△조광원 비투엔 대표(한국데이터산업협회 명예회장)△좌장=주영섭 고려대 특임교수(전 중소기업청장)◇좌장(주영섭 고려대 교수)=지난 10개월간 디지털 댐 사업이 활발히 진행됐다. 사업 성과를 평가한다면.◇강용성(와이즈넛 대표)=데이터 댐 사업의 핵심 과제인 AI 학습용 데이터 구축 사업은 AI와 데이터 전문 기업, 대학, 병원 등 647개 기업·기관과 4만여명의 국민이 참여한 대규모 사업이다. 이 사업을 통해 데이터산업 발전을 위한 초석을 마련한 동시에 코로나 시대 실업난 해소와 신규 인력 창출 성과가 있었다.AI 학습용 데이터 구축 사업의 결과로 이달 170종 약 4억8000만건 데이터가 AI허브 홈페이지를 통해 순차적으로 개방됐다. 비용과 인력 확보 등의 문제로 데이터를 직접 구축하기 어려운 중소기업이나 스타트업뿐만 아니라 대기업도 데이터를 제공 받았다. 그동안 국내 AI 산업계에서 걸림돌로 언급된 '데이터 갈증'은 어느 정도 해소할 수 있을 것이다.다만, AI 학습용 데이터의 '양(Quantity)'에 초점을 맞춰 구축됐기에 활용 가능한 수준의 데이터 '품질(Quality)'을 확보했다고 보기 어렵다. 개방된 AI 학습용 데이터가 제대로 활용되기 위해서는 활용자 노력이 추가로 필요하다. 데이터 품질 확보를 위한 전략과 투자가 집중돼야 한다.◇조광원(비투엔 대표)=디지털 뉴딜 구상에서 데이터 댐은 코로나19 펜데믹 상황에서 실직 위기를 극복하며 신규 일자리 창출 성과 중심으로 추진됐다. 질적인 면보다는 양적인 측면으로 집중되는 면이 있었다. 인력 비용으로만 치중되다 보니 상용소프트웨어(SW) 활용 비용이 인정되지 않는 문제도 발생했다.데이터 가치를 발휘하려면 활용과 분석 목적에 부합하는 양질의 데이터 자산을 데이터 댐에 체계적으로 축적해야 한다. 진정한 데이터 댐을 만들려면 활용 타깃을 보다 잘 정의하고 데이터를 위한 표준화된 지침과 프로세스를 구성해야 한다.이를 극복하려 과기정통부와 NIA는 '인공지능(AI) 학습용 데이터 품질관리 가이드라인'과 '데이터셋 구축안내서'를 발간했다. 올해 AI 학습용 데이터 구축 사업에 적용하고 있다. 상당수 컨소시엄은 여전히 품질관리 지표와 관리 절차 이해가 부족한 상황이다. 품질관리 중요성 알림과 지도 관리가 필요하다.◇양기성(과학기술정보통신부 과장)=데이터 댐은 우리나라 디지털 전환을 가속화하고 역량 있는 AI·데이터 기업과 산업이 성장할 수 있는 티핑 포인트를 앞당겼다. 정보통신 분야 외 제조, 유통 전통산업 분야와 교육, 의료 등 전 산업 분야 기업이 빠르게 디지털 전환을 하는 계기를 마련했다. 데이터, AI, 클라우드 등을 이용하고자 하는 기업 중 비정보통신기술(ICT) 기업이 2019년에 비해 85% 증가했다.데이터 댐은 민간 수요를 바탕으로 정부는 물론 기업과 국민이 함께 참여해 만들어 가고 있는 성공적인 민관협력 사업으로 자리매김했다. 대표 사업인 AI 학습용 데이터의 경우 최근 개방한 170종의 데이터는 산·학·연 전문가, 주요 활용기업 등이 참여해 기획한 결과다. 크라우드소싱 방식을 도입해 4만여명에 달하는 국민 참여를 통해 데이터를 구축했다.AI 학습용 데이터 품질과 활용성을 검증하고 관리하는 과정에도 분야별 전문가, 전문기관과 활용기업 등이 참여해 실제 수요자가 요구하는 데이터 품질 확보에 힘썼다.◇좌장=데이터 댐은 다년간 진행될 사업이다. 데이터 댐 사업이 성과를 거두기 위해 어떤 부분이 보완돼야하나.◇권헌영(고려대 교수)=현재 발생하는 데이터 댐 사업 문제는 급하게 마련하고 추진했던 정책에 기인한다. 데이터와 데이터 산업 이해를 바탕으로 데이터 국가 전략을 세우는 접근이 필요하다.우선 현재 구축한 데이터는 각 산업군(금융, 스마트시티 등), 정부 공공부문(행정, 교육, 의료 등) 특성을 반영해 재분류하고 이에 따라 지속 관리해야 한다. 분야별 특성에 따라 분류되고 관리된 데이터는 핵심 정보를 효과적으로 유지·관리할 수 있다. 이를 바탕으로 데이터 품질을 강화해 정보 신뢰성을 확보할 수 있다.데이터 산업과 관련된 각 이해관계자가 모두 참여해 함께 만드는 데이터 통합 거버넌스를 구축해야 한다. 현재까지 데이터 구축과 관련 산업 진흥을 위한 정부 정책은 급하게 추진돼 데이터 산업 관련 이해관계자들 간 소통이 제대로 이뤄지지 않은 상황에서 데이터 정책이 수립·이행되고 있다.앞으로 정부는 긴 호흡으로 성장할 수 있는 우리나라 국가 데이터 전략과 로드맵을 구축해야한다. 현재 데이터 정책은 근시안적이며, 유기적으로 연계되지 않았다. 국가 데이터 정책에 대한 중장기적 목표와 방향이 명확하게 정해져 있지 않기 때문이다. 긴 호흡으로 성장할 수 있는 국가 데이터 전략을 제시하고, 단기적인 목표부터 중장기적인 목표까지를 포괄적으로 포함하는 로드맵을 마련해야 한다.◇강용성=데이터댐 사업 성과지표는 데이터 '준비'가 아닌 '활용'에 둬야한다. 공공데이터 개방 사업도 데이터 공개에 초점을 맞춰 초기에는 활용 부분이 미진해 어려움을 겪었다.데이터 댐에 담긴 데이터가 실제 다양한 산업에 활용되려면 데이터 전주기를 거시적으로 바라보는 정책이 필요하다. 데이터 댐 안에 넣는 데이터 양을 늘리는 데 우선순위를 두지 말고, 데이터를 쌓는 현 시점부터 민간에서 잘 활용될 수 있는 방법을 사전 고민해야 한다. 이러한 검토 없이 쌓인 데이터를 필요한 데이터로 가공하는데 시간과 비용이 들어간다면 결국 활용되지 못할 가능성이 크다. 국민이 체감할 수 있는 서비스를 발굴해 목적지향적으로 접근하는 시도가 필요하다.◇조광원=AI 학습용 데이터 구축 사업은 좋은 성과를 내고 있다. 이를 지속하고 활용자가 체감하는 성과를 내려면 데이터 구축 관점, 사업 운영 관점 보완이 필요하다.데이터 구축 관점에서는 도메인별 데이터 유형별 학습용 데이터 표준 설계 가이드 제공과 즉시 활용 가능한 수준의 데이터 품질 확보가 요구된다. 개방된 AI 학습용 데이터는 도메인과 유형이 같더라도 어노테이션(Annotation) 항목과 구조, 파일 포맷이 천차만별이다. 개방된 학습용 데이터셋 활용도를 저하하는 요소다. 글로벌 표준이 적용된 도메인별 데이터 유형별 학습용 데이터 표준 설계 가이드가 제공돼야 한다.AI 학습용 데이터 구축 사업은 구축 기간이 짧아 데이터 획득단계와 구축단계가 끝나면 어노테이션 항목 정보를 추가 획득하거나 수정하는 데 한계가 있다. 즉시 활용 가능한 수준의 데이터 품질 확보를 위해서는 설계단계부터 획득·가공·구축에 이르는 전 과정에서 철저한 데이터 품질 관리가 이뤄져야 한다. 주관기관인 과기정통부와 NIA 관리 감독이 필요하다.사업 운영 관점에서는 충분한 구축 기간 확보와 행정 간소화가 지원돼야 한다. 사업 목표인 고품질 AI 학습용 데이터를 구축하기 위해서는 8개월 이상의 충분한 구축 기간이 확보돼야 한다.데이터 댐 사업이 국가 예산을 사용하는 것이므로 명확한 관리가 필요하다. 관리요소가 지나치게 많아 행정처리에 너무 많은 비용과 시간이 소요되고 있는 것이 현실이다. 관리기관에서 잦은 규정 변경으로 인해 재작업이 빈번하므로 이에 대한 개선이 필요하다. 올해 사업에는 주 단위 보고가 아닌 월 단위 보고를 통해 행정업무를 축소하고 본연 목적 AI 학습용 데이터 구축에 매진하는 환경이 조성되길 바란다.◇좌장=데이터 댐 등 데이터산업 활성화를 위해 기반이 되는 클라우드 역할도 중요하다. 데이터 경제 시대, 클라우드는 어떤 역할을 하고 어떤 기회가 있을 것으로 기대하는가.◇배희숙(한국클라우드사업협동조합 이사장)=세계를 무대로 서비스를 기획하는 기업용(B2B) 서비스형소프트웨어(SaaS) 기업에 ICT 세상을 혁신할 기회가 다가오고 있다. 데이터가 경제적 가치를 만드는데 중요한 자산이라는 것을 모두가 인식하게 만드는데 그동안 산·학·정의 노력이 있었다. 다소 늦은 감은 있지만 다행이다.정부가 보유한 공공데이터를 민간에게 공개하면 산업적 파급효과가 높을 것이며, 대용량 공공데이터를 우선 공개하자는 논의는 오래 전부터 있었다. 지금은 분산된 개별데이터를 관련 있는 정보로 패키지해 산업에 개방하는 단계까지 발전했다. 막대한 예산이 지속 투입되는 과정에 좋은 품질로 융합서비스를 만들어가는 것이 기업의 역할이다.앞으로 B2B SaaS 기업에 수많은 기회가 올 것이다. 조합도 SaaS 기업들과 연대해 양질의 품질을 만들어가는데 힘을 모으려 한다. 비투엔 등 데이터 전문기업이 조합에 함께하는 만큼 많은 시너지를 만들 것으로 기대한다.◇좌장=데이터 댐 구축 이후 이를 어떻게 활용할 것인지, 어떤 서비스를 내놓을 것인지 미래 모습에 대한 논의가 필요하다. 데이터 댐 정책은 어떤 방향으로 집행해야 하나.◇고윤석(한국지능정보사회진흥원 본부장)=두 가지 방향으로 정책 방향을 잡아야 한다. 우선 '데이터 범용적 활용'이다. 지금은 우리가 구축한 데이터를 주로 기업이 활용한다. 앞으로 기업을 넘어 초·중·고·대학, 일반에 이르기까지 모든 국민이 데이터를 활용하도록 활용성을 높이는데 정책 역량을 집중해야 한다.제품과 서비스에 특화된 데이터셋 구축이 필요하다. 지금까지는 모든 산업에서 필요로 하는 공통적인 데이터를 구축하는데 정책 역량을 집중했다. 이제는 특정한 제품과 서비스를 개발할 수 있는 데이터까지도 구축해야 한다.◇권헌영=앞으로 데이터 정책은 데이터 거래와 유통기반을 위한 판단 기준 마련과 관련 법적 문제를 해결하는 방향으로 결정해야 한다.데이터 거래와 유통을 위해 데이터 가격을 산정하기 위한 판단 기준과 체계를 마련해야 한다. 데이터 가치에 대한 판단 기준과 체계를 만들면 데이터 거래가 증가할 것이다.데이터와 관련된 권리관계를 명확하게 정리해야 한다. 데이터는 기존 물건과 다르게 복제가 가능하다. 원 데이터와 복제된 데이터 사이의 차이가 존재하지 않는다. 데이터 소유권과 이용권에 대한 명확한 법적 관계를 정리해야만 데이터의 거래 이후 관련 법적 분쟁 소지가 줄어든다.◇강용성=데이터 댐과 함께 산업 생태계도 함께 고민해야 할 때다. 우리나라 데이터, AI SW 기업은 중소기업, 스타트업이 많다. 이들 기업에 공공은 사업 기회를 제공하는 중요한 시장이다. 공공 시장 진입 관문에 존재하는 조달청의 역할이 중요하다. 데이터, AI, 클라우드 사업은 한국 경제를 주도할 미래 핵심 사업이다. 기존 최저가 유도 방식 조달이 아닌 산업을 육성해 나갈 혁신 조달 시행이 중요하다. 입찰 업체 기준·평가 기준이 기존 조달 사업과는 다른 차원에서 실행돼야 한다. 데이터 댐 등 정부 주도 사업을 통해 데이터, AI SW 기업이 동반성장하도록 조달 생태계가 함께 마련돼야 한다.◇양기성=데이터 댐에 축적된 데이터를 잘 활용해 기업이 새로운 제품·서비스를 창출하고 국민이 체감할 수 있는 성과를 확산해나가도록 지원하는 것이 중요하다.AI 학습용 데이터의 대규모 개방과 함께 'AI 데이터 활용협의회'를 출범시켜 데이터 댐의 데이터를 적극 활용하고 성과를 공유·확산하는 한편 데이터 품질을 지속적으로 향상시켜 나갈 계획이다.한국어 음성데이터, 국내 도로주행 데이터 등 '한국형 AI 학습용 데이터'가 대폭 확충됐다. AI 스피커나, 자율주행차 등 국민이 체감하는 AI 서비스 개발과 성능향상이 가속화될 것으로 기대한다. 데이터 댐의 데이터가 전 산업과 사회로 흘러가 활용되도록 실증사업, 시범사업은 물론, 경진대회 등을 통해 정책적 뒷받침할 예정이다.◇좌장=기업과 정부에서 데이터 프로젝트를 다수 수행하면서 인력난 문제도 불거진다. 어떻게 인력 문제를 해결해야 하나.◇조광원=중소벤처기업이 인재를 확보하고 유지하도록 국가 차원에서 지원 정책이 강화돼야 한다. 중소기업이 인재를 키우고 싶어도 공공기관, 대기업 선호 현상이 심해 지원율이 낮다. 어렵게 채용해 3∼5년 간 업무를 가르치면 대기업으로 유출되는 악순환이 반복된다.중소기업에 근무하는 인재를 위한 정부차원의 적극 장려정책이 필요하다. 급여의 50%를 3년간 지원하고 과감한 세재 혜택 등을 비롯해 인재를 채용하는 기업에 대한 보조금 지급, 세재 혜택 등이 이뤄져야 한다. 대기업 인력 유출 문제 해결 방안으로 데이터 전문인력의 FA제도 도입을 제안한다. 스포츠 분야처럼 일정기간 자신이 속한 기업을 떠나 대기업으로 갈 경우 해당 기업이 중소기업에 일정 대가를 보전하는 방식이다. 중소기업도 일정 보전받은 비용으로 재고용하는 등 중소기업의 고용창출도 계속될 것이다.◇권헌영=새롭게 관련 인재를 양성하는 것뿐 아니라 기존 인력에 대한 보수교육(재교육)으로 현 상황에 적극 대응해야 한다. 데이터 관련 교육은 실무자뿐 아니라 경영층과 중간관리자층에도 이뤄져야한다. 경영자와 관리자가 데이터 중요성을 인지해야 실질적 프로젝트가 가능하다. 지금은 데이터 관련 논의 사항 발생 시 데이터사이언티스트만 찾는다. 최고경영자(CEO)부터 임원까지 전 구성원이 데이터 중요성 등을 인지하기 위해 정부 정책도 지원돼야 한다.◇고윤석=지속 투자가 중요하다. 데이터 댐 사업 추진 후에 많은 기업이 데이터에 관심을 갖게 됐다. 데이터 기업도 있지만 분야별 전통 기업도 많다. 정부의 꾸준한 정책적 의지 표출과 과감한 투자로 많은 기업이 데이터 기업으로 다시 태어나고 있다. 인력난 해결 핵심은 정부의 지속 정책과 투자다. 정부가 과감하게 정책을 집행하고 투자한다면 더 많은 기업이 데이터 중요성을 인식하고 데이터 인재를 많이 채용할 것이다. 시장의 수요는 자연스럽게 대학 인력 양성으로 이어질 것이다. 물론, 단기적으로 부족한 인력을 어떻게 수급할 것인가에 대해서는 정부의 정책적인 고민이 필요하다.◇양기성=AI와 데이터 등 디지털 신기술 활용 역량을 갖춘 전문인력뿐 아니라 특정 도메인 지식을 보유하면서 디지털 신기술 활용 역량을 가진 융복합 전문가 양성이 중요하다.각 분야에 전문지식을 갖고 데이터 분석·활용 역량을 가진 융복합 전문가 양성을 위해 재직자 대상 데이터 전문교육을 실시한다. 데이터 분야 청년 인재 교육과 함께 AI 대학원과 이노베이션 스퀘어 등을 통해 산업현장에 필요한 데이터 전문가 양성에 노력 중이다.향후 산업계에서 필요로 하는 데이터 과학자, 데이터 분석가, 개발자 등 인재양성에 집중하는 한편 데이터 시각화·가공 분야 등 신규 분야 전문인력 양성도 병행할 계획이다.</t>
-  </si>
-  <si>
-    <t>6월 9일 서울 강남구 멀티캠퍼스 교육센터에서 열린 삼성청년SW아카데미 4기 수료식에 참석한 수료생들과 관계자들이 기념 촬영하고 있다.삼성전자가 내년까지 청년 인재양성 프로그램 '삼성청년소프트웨어아카데미(SSAFY)' 규모를 두 배까지 늘린다. 청년 실업난과 IT인력 부족을 동시에 해소하는 동시에 기업 사회적 책임을 강화하는 게 목적이다.삼성전자는 기업 우수 인재양성 프로그램 확대 차원에서 SSAFY 규모를 올해 1000여명에서 내년 2000여명까지 늘린다고 29일 밝혔다.SSAFY는 2018년 삼성전자가 '경제 활성화와 일자리 창출 방안' 일환으로 진행하는 청년 SW교육 사업이다. 서울, 대전, 광주, 구미 등 4개 지역에 캠퍼스를 개소했고 올해 7월 부산에 추가 설치할 예정이다.삼성전자는 통상 2회 500명씩 모집했던 훈련생 규모를 올해 상반기에는 750명, 하반기에는 950명까지 순차 확대한다. 내년에는 교육규모를 기수당 약 1150명까지 늘린다. 아울러 7월 9일 부울경캠퍼스를 신설하고 기존 구미·광주 캠퍼스의 교육인원도 확대한다.이번 교육 프로그램 확대는 최근 정부가 발표한 '하반기 경제정책방향'에 포함된 디지털 분야 우수 인재양성 프로그램 확대 실시에 발맞춰 지원하는 게 목적이다. 정부는 디지털 인재 양성을 위해 민관 협업을 필요성을 강조하면서 기업이 교육 규모를 최대한 확대하도록 일정 비용을 부담한다고 밝혔다.삼성청년SW아카데미 4기 서울캠퍼스의 교육생들이 함께 프로젝트를 진행하고 있다.최근 6기 교육생을 선발한 SSAFY는 'SW가 미래 핵심 경쟁력이자 21세기 경영 승부처'라는 철학 아래 SW 전문가 양성을 목표로 한다. 이재용 삼성전자 부회장은 2019년 8월 광주 캠퍼스를 직접 방문해 “SW 인재 양성은 IT 생태계 저변 확대에 필수”라고 강조할 정도로 삼성이 강조하는 인재 양성 프로그램이다.교육 프로그램은 1년간 매일 8시간씩 총 1600시간 집중 교육이 이뤄질 정도로 전문적이다. 1학기 5개월간 집중 코딩 교육은 800시간 수준으로 대학교 SW 전공자 2년치 학습량에 달한다. 여기에 2학기 5개월간 심화과정에는 기업에서 이뤄지는 실제 프로젝트와 유사한 형태 교육이 진행돼 타 교육 과정과 차별화된 강점으로 평가된다.SSAFY를 거친 청년 인재는 산업 곳곳에서 제 역할을 하고 있다. 2018년 12월 시작한 아카데미는 총 2087명이 수료했고 이중 68%인 1411명이 취업했다. 취업한 기업은 LG CNS, SK(주)C&amp;C, 네이버, 현대자동차 등 480여 곳에 달한다. 취업에 성공한 수료생 중 32%인 455명은 SW 비전공자로 SSAFY로 새로운 진로를 찾았다.SSAFY 수료생에 대한 기업 신뢰도 높다. 신세계I&amp;C는 1기부터 4기까지 수료생 50여명을 꾸준히 채용한 것을 넘어 지난해에는 '삼성청년SW아카데미' 수시전형을 실시하기도 했다. 신한은행, 우리은행, 현대오토에버, 농심NDS, 씨젠 등 80여개 기업은 서류심사 면제, 코딩테스트 면제, 전용 채용 등 다양한 방식으로 교육생을 우대한다.삼성전자 관계자는 “정부 디지털 인재 양성 계획에 따라 대기업 사회공헌과 SW 생태계 조성을 목적으로 프로그램을 확대할 예정”이라면서 “그동안 축적한 SW 노하우를 외부로 확대해 취업 준비생에게 새로운 기회를 줄 것”이라고 말했다.한편 기획재정부·고용노동부는 이날 삼성전자, SK하이닉스, 포스코, 대한상공회의소 등과 하반기 경제정책방향에 포함된 기업 우수 인재양성 프로그램 확대를 위한 실무협의회를 개최했다. 대기업이 청년층에 제공하는 디지털 분야 우수 인재양성 프로그램을 '민간-정부 파트너십'으로 대폭 확대하기로 결정했다.</t>
-  </si>
-  <si>
-    <t>동의대(총장 한수환) 인공지능로봇연구소(소장 옥승호)는 지난 6월 22일 동의대 정보공학관에서 ㈜큐브로이드(대표 신재광)·㈜삼쩜일사(대표 채덕병)·㈜코더블(대표 김기만)·코딩하루(대표 신영수)·DO메이커(대표 한신애)와 SW·AI·Robotics 교육산업의 활성화와 이공계 맞춤형 인력양성을 위한 MOU를 체결했다.이날 협약에는 큐브로이드 신재광 대표, DO메이커 한신애 대표, 코딩하루 신영수 대표, 삼쩜일사 채덕병 대표가 참석하였으며, 각 기관들은 △지능형 로봇 연구와 인력양성 △SW·AI·Robotics 교육 활성화를 위한 인적, 물적 자원의 교류 △공동 프로그램 기획과 개발 등에 상호 협력하기로 했다.또한 협약식에 이어 동의대 재학생을 대상으로 ‘교육용 인공지능 코딩 로봇 기술 및 산업 동향’을 주제로 특강을 개최하였으며, 큐브로이드의 인공지능 코딩 로봇 기부 행사도 진행되었다.인공지능로봇연구소 옥승호 소장(로봇·자동화공학전공 교수)은 “이번 협약과 특강을 계기로 로봇을 활용한 코딩과 인공지능 교육 활성화에 더욱 힘쓰고, 기업의 수요를 충족하는 인재양성을 통해 지역경제 성장에 도움이 되기를 기대합니다”고 말했다.㈜큐브로이드는 지난해 과학기술정보통신부 장관상을 수상한 에듀테크기업으로 AI 기반의 모듈러 로보틱스 제품과 비대면 디지털콘텐츠를 만들고 있으며, DO메이커는 AR, 코딩드론, 3D모델링, 인공지능 등의 다양한 교육을 진행하고 있다.또한 코딩하루는 코딩교육 프랜차이즈 기업이며, 코더블은 소프트웨어 교육용 교구와 콘텐츠 개발 전문기업이다. 삼쩜일사는 에듀테크 스타트업 기업으로 소프트웨어 교육용 교구 ‘카미봇’을 출시했다.</t>
-  </si>
-  <si>
-    <t>SW산업協·SW중심대학협의회·전자신문·이티에듀 협약SW 전공자 교육 프로그램 개설·현직 전문가 멘토로 수업 지원산학 채용 연계 프로그램 마련…우수기업 발굴 통해 미스매치 해소소프트웨어(SW) 인재양성을 위한 산·학·언 업무협약식이 29일 서울 송파구 한국소프트웨어산업협회에서 열렸다. 왼쪽부터 양승욱 전자신문사 사장, 조준희 한국SW산업협회장, 나연묵 SW중심대학협의회장, 신혜권 이티에듀 대표. 이동근기자 foto@etnews.com+산업 맞춤형 소프트웨어(SW) 인재를 양성하는 산·학 협력 교육프로그램이 나온다. 민간 차원에서 SW 인재 수급 불일치 문제 해소와 국가 SW 경쟁력 제고에 기여할 것으로 전망된다.한국소프트웨어산업협회, 소프트웨어중심대학협의회, 전자신문사, 이티에듀는 29일 서울 송파구 SW산업협회에서 산업 맞춤형 SW 인재 양성을 위한 협약을 체결했다.SW 산업 대표 단체와 41개 SW중심대학 대표 협의회, 정보통신기술(ICT) 분야 전문 미디어, SW 교육 전문기업이 힘을 모아 SW 산업계의 고질적인 인력난 해소에 나선다.이들 4개 기관은 산업 맞춤형 SW 인재 양성을 위해 SW 전공자 교육 프로그램을 개설한다. SW산업협회 소속 기업은 물론 금융·유통·플랫폼 등 다양한 기업 SW 인재 요건을 파악, 대학 전공자 커리큘럼에 반영한다. 기업 SW 관계자가 SW 전공학생 멘토로 나서 현장 프로젝트 수업을 지원한다.SW 개발자 수요 급증에 따른 비전공자 대상 SW 인재 양성 프로그램을 확대한다. 대학과 연계, 비전공 재학생과 취업준비생 등 대상 기업 맞춤형 교육 프로그램을 운영한다. 또 개발자 채용에 어려움을 겪고 있는 중견·중소기업에 도움을 준다.참여 기관은 산·학 SW 인재 채용 연계 프로그램도 마련한다. 우수 중견·중소기업을 발굴해 대기업과 특정 기업에 편중되는 대학생 취업 선호 현상을 다변화한다. 구직자 이수 과목 등 세부 이력 사항과 구인 기업 세부 업무 내용을 포함한 채용 데이터베이스(DB) 시스템을 구축, 공유한다. 기업이 원하는 인재상을 실제 교육프로그램에 반영하는 것이 가장 큰 특징이다. 학생도 자신의 경쟁력 및 역량을 담은 정보를 기업과 공유할 수 있다. 이른바 '미스매치' 현상을 해소하는 효과가 기대된다.산업 맞춤형 SW 인재를 양성하고 효과적 채용과 취업이 이뤄지도록 인식 확산 사업을 펼친다. 다양한 홍보로 산업과 대학의 SW 인재 수급 불일치 문제를 해결한다는 계획이다.조준희 SW산업협회장은 “대학에서 SW 산업 현장에 필요한 인재를 배출하도록 회원사 요구를 잘 전달하겠다”면서 “인력 미스매치 현상을 해결하는 롤모델로 정착하기를 기대한다”고 밝혔다. 나연묵 SW중심대학협의회장은 “산업의 요구를 체계적으로 반영, 맞춤형 SW 인재를 양성해서 채용으로 연결하겠다”고 전했다.양승욱 전자신문사 사장은 “산업 맞춤형 SW 인재가 양성되고 효과적 채용으로 이뤄지도록 인식 개선과 관련 기관 간 조율을 적극 지원하겠다”고 강조했다. 신혜권 이티에듀 대표는 “SW 인재 양성을 위해 기업과 대학 가교 역할을 수행, 맞춤형 교육 프로그램 운영을 지원하겠다”고 약속했다.</t>
-  </si>
-  <si>
-    <t>경산·영덕·울릉교육지원청과 AI 디지털 역량강화 교육 협약 프로그램 운영유아·초·중·고생 및 일반인 대상 AI융합교육 프로그램...SW가치 확산 취지고석주 센터장 "지자체와 협력 주민 누구나 즐기는 디지털 배움터 교육 확산"경북대학교가 지역사회 디지털 가치 확산 활동 일환으로 경북지역 3개 교육지원청과 협력해 인공지능(AI)시대 디지털 역량 강화 교육에 나섰다.경북대 SW교육센터(센터장 고석주·이하 SW교육센터)는 29일 경북대 IT대학융복합공학관에서 경산교육지원청, 영덕교육지원청, 울릉교육지원청과 AI 디지털 역량 강화 교육 협약을 맺었다. 이번 협약은 경북도교육청 산하 지원청 가운데 AI융합교육에 적극적인 세 곳을 중심으로 프로그램을 기획하고 확산해 디지털 교육 질을 높이기 위한 취지에서 마련됐다.왼쪽부터 최영택 울릉교육지원청교육장, 고석주 경북대학교 SW교육센터장, 최필순 영덕교육지원청 교육장, 이용만 경산교육지원청 교육장SW교육센터는 세 개 교육지원청과 긴밀히 협력해 지역 유아·초·중·고 학생과 교사, 학부모를 대상으로 SW가치 확산 교육을 진행한다. 특히 경북대 AI 관련 교수와 교육전문 스타트업 CEO, SW개발사 임원이 사회공헌 활동을 통해 학생을 위한 AI융합교육 프로그램을 운영한다.SW교육센터는 SW 분야 인재 양성을 위한 SW중심대학 2단계 사업으로 지난 4월에 선정돼 산업체 수요를 반영한 SW 교육과정을 마련, 전공 정원을 확대해 융합인력을 양성한다. 올해는 AI 등 신기술 교육을 강화하고 기업과 협력해 차별화된 SW 교육과정을 마련하고 있다.고석주 센터장은 “경북대는 올해 경북도 디지털 역량 강화 교육사업을 병행하면서 지자체와 협력, 디지털 소외 및 취약계층을 포함해 주민 누구나 즐길 수 있는 '디지털 배움터' 교육을 적극 확산시켜 나가겠다”고 밝혔다.이날 협약에는 고석주 경북대 SW교육센터장과 정원일 교수(SW가치확산부장), 김은숙 연구원, 이용만 경산교육지원청 교육장, 최영택 울릉교육지원청 교육장, 최필순 영덕교육지원청 교육장 등이 참석했다.이번 협력 프로그램은 제11대 경상북도의회 교육위원회 위원장인 도현일 도의원과 경산정보통신기술(ICT)융합 세미나를 제사한 윤두현 경산시 국회의원이 SW교육센터에 추천하며 성사됐다.한편, 과학기술정보통신부는 SW중심대학 2단계사업을 진행하며 경북대를 포함, 전국 총 9개 대학을 선정했다. 지난 5년간 1단계사업에서 경북대 SW교육센터는 지역사회 SW가치확산 활동을 적극 수행해 유치원부터 노인문화대학에 이르기까지 누적 3만6000여명에게 SW문화 체험을 제공했다. 특히 올해는 경상북도가 주최하고 한국지능정보사회진흥원(NIA)가 주관하는 디지털 배움터 사업을 함께 진행, 지역 주민들에게 다양한 가치확산 활동을 제공하고 있다.</t>
+    <t>중앙SUNDAY</t>
+  </si>
+  <si>
+    <t>정부 디지털뉴딜 사업 본격화로데이터·SW 인력수요 늘어날 듯SK㈜ C&amp;C는 재취업 무료 교육다쏘시스템 채용전환형 인턴십도IT업계가 디지털 교육지원 활동을 활발하게 펼치고 있다. 사진은 SK㈜ C&amp;C의 ICT 교육·취업지원 프로그램 참가자들이 기술교육을 받고 있는 모습.         SK㈜ C&amp;C 제공  코로나19가 가져온 언택트·디지털 중심 시대에는 IT격차가 생존격차로 이어질 전망이다. 그동안은 IT를 모르면 생활이 불편한 정도였다면, 취업부터 기본적인 일상생활이 불가능한 생존의 문제로 바뀌는 것. 정부도 디지털 포용을 중요한 정책 키워드로 잡고 관련 법·제도 강화와 기반조성에 공을 들이고 있다.이 가운데 IT기업들이 취업준비생, 퇴직자, 경력단절여성 등을 대상으로 교육을 확대하며 IT격차 해소와 저변 확대, 취업지원에 나서고 있다. 정부의 디지털 뉴딜 사업이 본격화하면서 인공지능, 데이터, SW분야 인력수요가 늘어날 전망인 가운데, 개인의 일자리·지식 수요와 국가 정책을 연결하는 효과가 기대된다. IT 교육에 적극적인 대표적인 기업은 SK㈜ C&amp;C다. 그룹의 '사회적 가치 실현' 비전에 맞춰 지역사회·취약계층을 위한 교육활동을 다각도로 펼치고 있다.  이 회사는 중장년 퇴직자와 경력단절여성이 IT를 통해 재취업 기회를 얻을 수 있도록 '디지털 드림 아카데미'라는 교육 프로그램을 이달 15일부터 8주간 온라인으로 진행한다. 프로그램은 SK㈜ C&amp;C가 후원하고 경기도·도경제과학진흥원이 운영하며, 경기도 지역민을 대상으로 무료로 진행된다. 교육생들은 총 70시간 분량의 458개 VOD(주문형비디오) 영상 학습과 함께, 매주 4회 3시간씩 진행되는 영상강의를 통해 데이터 기반 마케팅 트렌드, SNS 활용 광고기획·실습 등을 배우게 된다. 회사는 이달 1일부터 교육을 시작할 예정이었으나 지원자가 몰려 정원을 배 이상 늘리고 15일로 시작날짜를 미뤘다. SK㈜ C&amp;C는 장애인 고교·대학 졸업자를 대상으로 ICT 교육과 취업지원을 병행하는 '씨앗' 프로그램도 한국장애인고용공단과 협력해 매년 진행한다. SK건설, SK인포섹, 포스코ICT 등 15개 기업과 얼라이언스를 맺고, 교육과정 설계와 인턴·취업을 지원하고 있다. 교육은 매년 1월부터 6월까지 진행되며 교육비는 전액 무료다. 올해는 코로나19 영향으로 3월 한달 휴강함에 따라 이달말 수료 예정이다. 현재 4기 교육생 37명 중 20명의 취업이 확정된 상태다. 대학 졸업자를 대상으로 우수 제조IT 협력사 채용 연계형 교육 프로그램인 '행복 성장 캠퍼스'도 진행한다. MS(마이크로소프트)가 구직에 필요한 디지털 기술에 대한 접근성을 높이기 위한 '글로벌 스킬 이니셔티브'를 발표하고 국내외에서 관련 활동을 펼친다. '누구나 평생교육을 받을 수 있도록 연결된 학습 시스템 구축'을 비전으로 올해말까지 세계 2500만명이 AI를 포함한 디지털 기술을 바탕으로 새로운 직무 수행에 필요한 기술을 갖추도록 지원할 계획이다. 링크드인, 깃허브 등 회사 보유자원과 외부 리소스를 결합, 인력 수요가 많은 직종에 대한 데이터, 디지털기술 관련 교육과정과 콘텐츠, 교육·구직 관련 인증 및 구직툴 등을 지원한다. 국내에서는 국제 비영리 청소년 교육기관 JA코리아와 협력해 MS 런 디지털 학습 콘텐츠를 활용한 커리어 로드맵을 개발한다. 디지털 기술 기반의 미래 유망직종에 필요한 핵심 기술 역량을 기르기 위한 온라인 교육 콘텐츠를 소프트웨어 중심사회 웹사이트에서 이달말부터 제공할 예정이다.SAP코리아는 JA코리아와 함께 취업준비생 대상 온라인 멘토링 프로그램을 진행한다. 이달초부터 12월 중순까지 5기수에 걸쳐 총 100명을 모집, 각각 4주 간의 프로그램을 이어갈 예정이다. 각 기수에는 20명의 멘티와 SAP코리아 및 파트너사 임직원으로 구성된 10명의 멘토가 참여한다. 인사·총무, 마케팅·홍보, IT·프로그램개발, 연구개발·엔지니어, 영업·영업관리 등의 직무를 선택한 선발자들은 멘토로부터 업무 관련 설명을 듣고 이력서 피드백, 온라인 모의면접 등의 도움을 받게 된다. 다쏘시스템코리아는 채용전환형 인턴십 프로그램인 '드림인턴십'을 다쏘 해외지사 중 최초로 운영하며 2016년부터 청년 취업을 돕고 있다. 인턴십 참가자는 정직원과 동일한 현장업무를 수행할 수 있을 정도로 전문적인 교육·자문 프로그램을 거친다.  2016년부터 작년까지 35명이 인턴십에 참여해 약 40%가 정규직으로 채용됐다.특히 이 프로그램은 다쏘시스템 프랑스 본사로부터 높은 평가를 받아 국내를 시작으로 아시아 전 거점으로 확대됐다. 이 회사는 고려대, 창원대, 군산대 등과 미래형 공학교육을 위한 교육 커리큘럼도 운영한다. 최근 코로나 19로 여파로 오프라인 교육이 어려운 대학생들에게 '솔리드웍스' 교육용 60일 라이선스를 무료로 제공하고 있다.티맥스는 내년 2월 졸업 예정인 디지털 분야 직업계 고등학교 학생들을 대상으로 올 하반기에 현장교육을 포함한 채용전형을 진행한다. 티맥스는 2012년부터 사내 봉사단체인 '티맥스 나누미'를 통해 지역 소재 고등학생을 대상으로 SW 교육을 진행하는 'IT 희망학교'도 운영해 왔다. 진로교육과 과학 멘토링, 직업 선택 및 사회 진출을 돕는 프로그램으로, 작년까지 120여 명의 청소년을 배출했다.  안경애기자 naturean@dt.co.kr                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                             디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t>5월 혁신의료기기 지원법 제정… 산업육성·제품개발 지원 초석 마련기계학습 기술 기반 의료기기 공통 용어 개발·가이드라인 제정 계획AI 의료기기 36건 허가 · 임상 시험 37건 승인… 매년 가파른 증가세식품의약품안전처가 국제의료기기규제당국자포럼(IMDRF) 'AI(인공지능) 의료기기 국제규제 실무그룹'(Artificial Intelligence Medical Devices, AIMDs)의 초대 의장으로 선출되면서, IMDRF와 우리나라 AI의료기기 현황에 대한 관심이 커지고 있다. AI 의료기기는 컴퓨터를 이용해 기계학습 등으로 인간의 지적능력 일부 또는 전체를 구현하는 기술이 적용된 의료기기를 뜻한다.6일 의료기기 업계에 따르면, 식약처는 지난달 25일 열린 IMDRF 운영위원회에서 회원국 만장일치로 AIMDs의 초대 의장으로 선출됐다. IMDRF는 의료기기 국제 규제조화를 주도하는 미국, 유럽 등 10개국 규제당국자 협의체로, 국내에서는 지난 2017년 12월에 가입했다.IMDRF 실무그룹으로는 '국제 공통허가 심사서류'(주도국 캐나다), '개인맞춤형 의료기기'(호주), '체외진단 의료기기 분류 원칙'(러시아), '우수심사기준'(미국, 싱가포르), '이상사례용어'(일본), '의료기기 사이버보안'(미국, 캐나다) 등이 있다. 또한 '의료기기임상평가'(중국), '인공지능 의료기기'(한국)도 실무그룹으로 가동 중이다.이 외에 '기준규격'(미국), '의료용 소프트웨어'(미국), '규제당국간 이상사례 보고체계'(유럽연합), '품질시스템 단일심사 프로그램'(캐나다), '환자정보등록시스템'(미국), '의료기기 고유식별코드'(유럽연합) 등이 가동됐다 종료됐다. 국제 공통허가 심사서류 실무그룹은 허가를 받기 위해 규제 당국에 제출하는 서류의 공통적인 템플릿(Template, 전자양식 포함)마련을 위한 가이드라인을 개발한다. 또한 개인맞춤형 의료기기 실무그룹은 개별 환자를 대상으로 하는 의료기기의 규제를 고려하기 위한 정의 및 규제절차 가이드라인을 개발하며, 체외진단 의료기기 분류 실무그룹은 GHTF의 동일명 문서를 현행화하기 위한 업데이트 작업을 계획 중이다. GHTF(Global Harmonization Task Force)는 IMDRF의 전신이다.우수심사기준 실무그룹은 의료기기 허가 및 GMP 심사자 등 규제 심사자의 자격과 교육, 역량관리 요구사항을 수립하기 위한 가이드라인 개발과 단일 허가심사 체계를 목표로  허가 심사 업무를 수행하는 기관에 대한 요건 을 마련 중이다.또한 이상사례용어 실무그룹에서는 IMDRF 의료기기 이상사례용어 및 코드 개발 및 조화를 위한 가이드라인을 개발하며, 의료기기 사이버보안 실무그룹에서는 의료기기 사이버보안에 대한 규제당국 간 모범사례를 공유하고 이에 대한 국제 공통 사전·사후 규제를 마련한다. 중국이 주도 중인 의료기기 임상평가 실무그룹은 규제당국 간 임상평가의 규제조화를 위한 GHTF 가이드라인을 업데이트한다. AI 의료기기 실무그룹은 우리나라가 주도하는 신설 그룹으로, 의료기기에 적용되는 AI 기계학습 기술을 다루고 기계학습 기술 기반의 의료기기의 주요 공통 용어도 개발한다. 식약처는 AI 의료기기의 정의·적용대상 등 각종 국제 가이드라인을 제정할 계획이다.한편, 식약처는 그동안 AI 의료기기 개발을 지원하고 선도적인 규제환경을 조성하기 위해 다양한 노력을 기울여 왔다. 2017년 세계 최초로 '인공지능 의료기기 허가·심사 가이드라인'을 마련하는 등 총 6개의 가이드라인을 발간해 국내에서 15개사 36개의 AI 의료기기를 허가할 수 있는 밑거름이 됐다.또한, 지난 5월 시행된 '의료기기산업 육성 및 혁신의료기기 지원법'을 제정해 AI 의료기기 등 혁신의료기기 산업 육성 및 제품개발 지원을 위한 초석을 마련했다.식약처는 현재까지 총 36건의 AI 의료기기를 허가했고, 총 37건의 임상시험을 승인했다. 허가 건수는 2018년 4건에서 지난해 10건으로 늘었고, 올해 들어서는 22건을 허가(6월26일 기준)했다. 골연령을 분석하는 AI 의료기기인 뷰노의 '메드- 본 에이지', 크레스콤의 'MediAI-BA', 헬스허브의 'Boneage.io', 레이언스의 'Xmaru Pro BoneAge', 'Xmaru Pro CXR' 등이 대표적이다. 폐결절 검출·유방암 진단·흉부 이상부위 검출 등을 보조하는 루닛의 '인사이트'도 있다. 임상시험 승인 건수는 2017년 3건에서 2018년 6건, 2019년 17건으로 늘었고, 올해는 6월26일 기준 11건의 임상시험을 승인했다.김수연기자 newsnews@dt.co.kr 디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t>CJ올리브네트웍스는 아마존웹서비스(AWS)와 손잡고 사내 클라우드 전문가를 양성한다고 6일 밝혔다.   CJ올리브네트웍스는 정보기술(IT) 인프라 구축에 클라우드 기술을 활용해 안정성을 높이고, 빅데이터와 인공지능(AI) 등 신기술과 접목해 IT운영을 효율화하는 등 클라우드 인프라를 선제적으로 활용하고 있다.   CJ올리브네트웍스는 AWS의 어드밴스드 컨설팅 파트너로서 AWS의파트너 학습 니즈 분석(PLNA)을 도입해 임직원 800여명에게 교육을 진행하기로 했다. PLNA 프로그램은 30가지 기술 영역으로 구성된 설문조사로 구성원 역량과 니즈를 측정한 후 맞춤화된 교육을 제공하는 것이 특징이다.   조사 결과 CJ올리브네트웍스 임직원들이 가장 필요로 하는 과정은 AWS 기술전문인증과 시스템 운영, 아키텍쳐 등으로 집계됐다. 이에 따라 CJ올리브네트웍스는 대상 조직별 우선 순위에 따라 교육 대상자를 선별 후 임직원의 역량 수준에 맞춰 기초부터 중급, 전문가 과정, 실습 등 세분화된 개별 강좌를 제공할 예정이다.   임직원들은 지난달에 AWS의 공인 교육 시리즈를 수강한데 이어 이달부터는 AWS의 권장 러닝 패스에 따라 학습과정을 설계받을 수 있다.    ksh@fnnews.com 김성환 기자 ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>전담 TF 만들고 협력방안 마련 6일 KT 직원들이 5G 인빌딩 기술을 테스트하고 있다. KT 제공 KT는 정부가 추진하는 한국판 뉴딜 사업의 빠른 실행을 지원하기 위해 한국판 뉴딜 협력 테스크포스(TF) 조직을 신설하고 정보통신기술(ICT) 핵심역량을 동원해 사업 협력방안을 마련한다고 6일 밝혔다.   박윤영 KT 기업부문 사장이 TF장을 맡아 프로젝트를 직접 지휘하고 B2B, 인공지능(AI), 5세대(5G) 통신, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다.   TF는 네트워크 인프라, AI와 빅데이터 기술, KT 중소협력사 얼라이언스 등의 역량을 기반으로 한국판 뉴딜 사업에 참여해 빠른 실행을 지원할 계획이다.   특히 디지털 인프라 구축을 통한 경제활성화 측면에서 KT는 5G 전국 커버리지 확보, 5G SA와 28Ghz 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 올해 코로나19로 인한 경기 위축에도 시장활성화를 위해 5G와 기가인터넷 등 통신인프라에 전년 수준의 투자를 유지할 계획이다.   또한 TF는 △스마트화를 통한 협력사 소상공인 상생방안 도출 △4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 △세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다.    syj@fnnews.com 서영준 기자 ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>지난달 22일 광주 북구보건소 선별진료소에서 신종 코로나바이러스 감염증(코로나19) 검사를 받으려는 시민들이 대기하고 있다. 연합뉴스 제공    소득이 낮을수록 신종 코로나바이러스 감염증(COVID-19·코로나19) 치명률이 높다는 국내 첫 연구결과가 나왔다. 국내 코로나19 확진자 9148명, 사망자 130명을 대상으로 한 연구결과다. 이탈리아와 미국, 영국 등에서는 낮은 소득과 높은 치명률 간의 상관관계를 밝힌 연구가 다수 존재하지만 국내 환자들을 대상으로 한 대규모 분석 결과는 이번이 처음이다.    김동욱 국민건강보험공단 건강서비스지원 센터장과 변경향 한양대 의대 교수, 김재영 연세대 의대 인공지능(AI)빅데이터 의학센터 연구원팀은 이 같은 연구결과를 대한의학회가 발행하는 국제학술지 ‘대한의학회지(JKMS)’ 6일자에 발표했다.  연구팀은 “코로나19 치명률은 모든 국가의 공중보건학적인 관심사”라며 “특히 감염에 취약한 고위험군을 조기에 발견하고, 관리하는 것이 질병 관리의 기본”이라며 국내 환자를 대상으로 역학적 요인이 치명률에 미치는 영향을 분석했다. 질병관리본부의 확진 환자 신고 자료를 국민건강보험공단의 빅데이터와 연계하고, 역학적 특징과 의료이용 자료를 구축해 분석을 진행했다.  그 결과 남성 확진자 3556명 중 67명이 코로나19로 목숨을 잃은 것으로 나타났다. 치명률은 1.88%다. 여성 확진자는 5592명이다. 이 중 63명이 목숨을 잃어 치명률은 1.13%를 기록했다. 이 중 소득 수준이 낮은 확진자일수록 치명률이 높았다. 소득 수준은 보험유형에 따라 분류됐다. 저소득층을 위한 의료보험을 가진 확진자가 의료보험 기준 소득이 높은 확진자보다 치명률이 2.81배 높은 것으로 나타났다.   또 도시보다는 중소도시, 중소도시보다는 농촌 확진자의 치명률이 더 높았다. 이외에 심부전, 신부전증, 전립선의 악성신생물, 급성 심근경색증, 당뇨병 등의 질환이 동반될 경우 치명률이 높아지는 것으로 확인됐다. 연구팀은 “이번 연구를 통해 코로나19 감염에 취약한 고위험군을 파악했다”며 “향후 코로나19 백신이 개발될 경우 이들에게 우선 접종을 권고할 수 있는 기초 자료로 활용되길 기대한다”고 밝혔다.  소득이 낮을수록 치명률이 높다는 연구결과는 이탈리아에서도 나왔다. 이달 4일 이탈리아 통계청(ISTAT)은 ‘2020 연례 보고서’를 공개했다. 이 보고서는 지난해 1월부터 올 3월 사이 사망한 사람들을 학력 수준으로 분류한 것으로 학력 수준을 소득과 계층을 대변하는 지표라고 봤다. 보고서에 따르면 교육 수준이 낮을수록 치명률이 높아지는 것으로 나타났다.   특히 코로나19 확산세가 정점을 이루던 3월 남성의 경우 고학력 사망자 1명당 저학력 사망자가 1.23명에서 1.38명으로 증가했다. 같은 기간과 조건에서 여성은 고학력 사망자 1명당 저학력 사망자가 1.08명에서 1.36명으로 늘어났다. ISTAT은 “빈부 격차에 따라 코로나19 치명률 차이가 발생했다고 해석할 수 있다”며 “빈곤층이 안전거리 유지가 어려운 비좁고 과밀한 거주 환경에서 생활할 가능성이 높다”고 분석했다.   영국, 미국에서도 비슷한 연구가 나왔다. 소득이 필요해 일을 그만두지 못해 바이러스에 더 잘 노출된다는 것이다. 엘리시오 페레즈스테이블 미국 국립소수자보건및보건격차연구소장팀은 지난 5월 11일 의학학술지 '영국의학저널(BMJ)'을 통해 “미국 내 일부 지역에서 코로나19 환자 및 사망자가 발생한 수를 비교해 보면 백인 및 유색인 거주자 사이에 최대 2~3배 이상 차이가 난다”고 주장했다. 4월 21일에도 영국 레스터대 병원 연구팀의 기고문을 통해 “영국국립집중치료감시연구센터(ICARC)의 데이터를 살펴본 결과 영국의 중증환자 2249명 가운데 35.2%가 소수 인종 출신으로, 이는 실제 영국 내 소수인종 인구 비율인 13%를 크게 웃돈다”고 밝혔다.[고재원 기자  jawon1212@donga.com]▶ 동아사이언스 비디오 구독하기▶ 네이버에서 동아사이언스 구독하기▶ 동아사이언스에 가서 뉴스 더보기ⓒ 동아사이언스 콘텐츠 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>네이버·카카오 대표 '디지털경제 혁신포럼' 출범식서 호소"인력·규모 이미 수십배 차이동일한 환경에서 경쟁 원해"역차별적 규제 국내현실 지적"인터넷쇼핑몰 창업 지원 등소상공인·중기와 상생 노력"여민수(왼쪽 세번째부터) 카카오 대표, 이영 미래통합당 이원, 윤영찬 더불어민주당 의원, 한성숙 네이버 대표, 김범준 우아한형제들 대표 등이 6일 서울 영등포구 국회에서 열린 ‘디지털경제 혁신연구포럼’ 출범식에서 토론하고 있다./백주원기자[서울경제] “페북이나 구글, 중국의 알리바바 등과 우리 기업들이 일대일로 맞붙어서 이길 수 있다고 하면 좋겠지만, 개발 인력이나 자금 규모가 이미 20~30배 차이가 납니다. 이들과 같은 (규제) 기준이 동시에 적용되면 좋겠습니다.”(한성숙 네이버 대표) “외산 플랫폼과 국내 플랫폼이 건전하게 경쟁할 수 있게 여건을 다듬을 필요가 있을 거 같습니다.”(여민수 카카오(035720) 공동대표)한성숙 네이버 대표와 여민수 카카오 공동대표가 6일 서울 영등포구 국회에서 열린 ‘디지털경제 혁신연구포럼’ 출범식에서 이같이 말하며 동등한 환경에서의 경쟁을 호소했다.이날 토론 진행을 맡은 이영 미래통합당 의원은 두 정보통신(IT) 기업 대표에게 “카카오와 네이버는 밖으로는 글로벌 업체와 경쟁해야 하지만 국내에서는 작은 기업들과 상생해야 하는데 산업계 입장에서 국회에 바라는 점이 있느냐”는 질문을 했고, 이에 한성숙·여민수 대표가 공정한 경쟁이 필요하다는 점에 뜻을 같이한 것이다.먼저 여 대표는 “다들 보시는 ‘너튜브(유튜브)’나 ‘에프북(페이스북)’ 등이 네이버와 카카오 이상으로 국내 생활 저변에 스며들었는데 이들 모두 글로벌 플랫폼”이라며 “이들이 국내 플랫폼과 동일하게 한국 이용자들을 대상으로 서비스를 제공하고 있는데 규제에 노출되는 방식이나 정도, 위반 시 가해지는 벌칙은 같지 않은 것 같다”고 지적했다. 이어 그는 “쿠팡도 자본으로만 보면 사실상 외국 자본인 것처럼 국내 커머스 분야도 외국 플랫폼들이 많이 장악하고 있는 형국”이라면서 “국내 플랫폼과 외산 플랫폼이 건전한 경쟁을 할 수 있도록 (정부 규제가) 다듬어질 필요가 있다”고 덧붙였다.더불어민주당 이용우, 윤영찬 의원, 미래통합당 이영, 허은아 의원 등 공동대표들과 한성숙 네이버 대표이사, 여민수 카카오 대표이사, 김범준 우아한형제들 대표이사 등이 6일 서울 영등포구 국회 의원회관에서 국회디지털경제혁신연구포럼 주최로 열린 국회디지털경제혁신연구포럼 출범식에서 기념 촬영하고 있다./연합뉴스한 대표 역시 “국내에서 외산 기업과의 경쟁에서 (규제) 조항이 있다면 같은 기준으로 실행됐으면 좋겠다”면서 “국내 기업이라서 (기준이) 먼저 적용되는 것이 아니라 똑같은 기준이라면 같이 적용되길 바란다”고 강조했다.이날 두 대표는 글로벌 기업과의 경쟁 상황 속에서도 국내 중소기업들과 상생하기 위해 노력하고 있다고 강조했다.여 대표는 “카카오톡 이모티콘에서 작가 7,500여명의 작품이 팔리고 있는데, 1,000개가 1억원 이상, 50개 정도가 10억원 이상의 매출을 내고 있다”면서 “작가 교육을 위한 학원도 생기는 등 하나의 경제 생태계가 만들어지고 있다”고 설명했다. 이어 그는 “카카오메이커스에서도 소상공인이나 가내수공업 물품을 선주문을 받고 생산하는 서비스를 제공하고 있다”면서 “플랫폼 사업자로서 이용자와 공급자와의 중간 매개체 역할로서 부족하지만 상생에 대해 고민하겠다”고 덧붙였다.한 대표도 “지난 몇 년 간 스타트업에 대한 투자 많이 하고 있다”면서 “스마트 스토어에서 빠르고 쉽게 인터넷 쇼핑몰을 창업할 수 있고, 라이브 커머스 툴을 통해 휴대폰 하나만 있으면 현장에 가지 않아도 사업할 수 있게 해주는 게 인터넷 기업의 역할이라고 생각한다”고 밝혔다.한편 이날 출범한 ‘디지털경제 연구혁신포럼’은 4차 산업혁명 시대에 인공지능(AI), 게임, 전자상거래, 웹툰, 온라인동영상서비스(OTT) 등 인터넷을 기반으로 하는 디지털경제 활성화가 필요하다는 취지로 여야 국회의원들이 주도해 출범시킨 모임이다. 전문가들은 정부가 최근 발표한 ‘디지털 뉴딜’ 정책을 언급하며 정부는 마중물 역할에 집중해야 한다고 강조했다. 발제 발표를 맡은 김광수 성균관대 교수는 “디지털 뉴딜 정책이 제대로 나아가기 위해서는 정부가 명확한 비전을 제시하고, 재정 투입은 하되 추진의 주체는 민간이어야 한다”고 강조했다. 이어 그는 “정부의 디지털 뉴딜 정책은 단기 일자리 창출은 가능하겠지만, 안정적인 일자리로 전환하는 프로그램이 병행돼야 하는 등 민간과의 협력이 필요하다”고 제언했다./백주원기자 jwpaik@sedaily.com[서울경제 바로가기]▶ 네이버 채널에서 '서울경제' 구독해주세요!▶ [집슐랭] 미슐랭 가이드처럼 알찬 부동산뉴스저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>코로나 바이러스의 대유행이 좀처럼 수그러들지 않는다. 역설이지만 바이러스 대유행의 원인을 질병관리본부의 방역 원칙에서 찾을 수 있다. 밀접접촉 금지, 밀폐된 공간에서 방역, 밀집 집회의 회피 등 이른바 3밀 원칙이다. 근대 이후 인구가 증가하면서 인류의 생활 패턴이 도시 중심의 밀집된 생활공간에서 일어나는 집단 활동으로 변화하고 있다. 이것이 바이러스 대유행의 가장 큰 원인이다. 더욱이 호모사피엔스가 지구상에 출현한 지 30만년 동안 증가한 수만큼의 인구가 불과 100년 동안에 증가했다. 세계 대유행이 아니더라도 한 국가 내 바이러스 확산은 더 자주 일어나고 있다. 앞으로 인류는 혁신 과학기술이 나오기까지는 바이러스와 함께 살아가야 한다.세계 대유행 속에서도 국가별·지역별로 다른 상황이 전개되는 것을 보면서 사회 대응 방식과 역량이 다름도 느낀다. 경제 선진국이라고 생각한 미국, 영국, 유럽에서 바이러스의 급속한 확산은 그동안 경제 성장에 비해 취약한 보건의료의 민낯을 보여 줬다. 지금 세계보건기구(WHO)와 각국은 치료제 및 백신 개발을 위해 혼신의 노력을 다하고 있다. 인공지능(AI) 데이터 기반의 신약물질 발굴, 화학 및 생물학 합성, 동물실험, 임상시험 등이 단계별로 진행되고 있다.그러나 아직도 독성이 없고 효능이 확증된 치료제 및 백신이 합리 가격으로 전 세계에 공급되는 날이 언제일지는 아무도 모른다. 우수한 진단시약으로 대응 역량을 전 세계에 보여 준 우리에게도 아직 여러 가지 도전이 남아 있다. 이제 우리는 기울어져 가는 배를 바로세우듯 새로운 노멀을 향한 사회 복원력이 필요하다. 사회 복원력에는 많은 요건이 있지만 여기에서는 시급하다고 생각되는 세 가지만 정리했다.첫째 요건은 바이러스 감염자 수를 수용 가능한 수준에서 유지하는 것이다. 이를 위해 방역수칙 준수와 함께 바이러스의 정확한 모니터링 기술 확보 및 실천이 우선돼야 한다. 행사장 입구에서 유증상자를 가려내야 하는 체온계가 부정확하다면 자칫 의미 없는 관리가 될 수 있다. 이번 바이러스 유행을 세계 최초로 예견한 캐나다의 블루닷 AI는 전 세계에서 모든 지역의 사회관계망 정보를 모니터링하고 있었기 때문에 가능했다. 이제 진단시약 활용이 감염자를 가려낼 뿐만 아니라 지역 환경의 감염도 측정할 수 있어야 한다. 사람 출입이 많은 공공시설에서 사람 접촉이 잦은 곳이나 공간에서 시료를 채취해 바이러스 정기 검사를 한다면 지역 확산을 예측할 수 있지 않을까 생각한다.둘째는 디지털 전환에서 혁신 콘텐츠가 필요하다. 사회의 모든 분야에서 어려움을 겪고 있지만 교육계의 혼란은 가장 심하다. 필자도 지난 1학기에 온라인 강의를 했다. 활발한 토론이나 개인 집중도의 확인은 어려웠지만 강의를 위한 플랫폼 기술은 큰 문제가 없었다. 그러나 한 학기를 마치고 나서는 대면 강의 내용을 그대로 온라인에 옮겨 놓았다는 자성을 하고 있다. 플랫폼이 디지털 전환을 해결해 주더라도 새로운 노멀은 우리에게 다른 목표와 사고를 요구하고 있다. 정보 전달에 더해 새로운 미래에 적응하기 위한 문제 해결 능력을 길러 주는 콘텐츠 개발이 교육기관과 교육자의 새로운 미션이 됐다.마지막으로 많은 직장과 직업이 원래대로 복원되지 않는다는 것이 전문가들의 공통된 견해다. 새로운 노멀이 지속 가능하기 위해서는 사회의 약한 고리를 보호해야 하는 한편 약한 고리가 새로운 역할을 담당할 수 있도록 지식 재무장이 필요하다. 외신에서 본 기사 가운데 스웨덴에서 실업 상태의 항공사 직원이 의료 보조인력으로 훈련 받고 있는 사진은 인상 깊었다. 사회문제 해결을 위한 지식 재무장은 실업자뿐만 아니라 여러 계층, 여러 분야의 사람들에게도 필요하다. 경제활동인구 확대 효과도 있다. 지식 재무장을 위한 하드웨어(HW), 소프트웨어(SW) 기반의 과학기술 인프라 구축이 휴먼 뉴딜의 일환으로 추진됐으면 한다. 바이러스 대유행의 원인이 급격한 인구 증가와 도시화에 있었다면 그 배경에는 과학기술 발전으로 인한 산업혁명이 있었다. 이제 해결 방법도 산업혁명과 과학기술에서 찾아야 한다. 과학기술이 모든 것을 해결할 수는 없지만 최소한 이 난국이 극복될 때까지만이라도 과학기술 기반의 사회 복원력이 확보되기를 바란다.문승현 광주과학기술원 교수 shmoon@gist.ac.kr▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>동의과학대학교[동의과학대 제공]    (부산=연합뉴스) 조정호 기자 = 동의과학대학교는 부산시 주관 '2020년 대학 학과별 맞춤형 취업지원사업'에 전자과, 피부미용전공 등 2개 학과가 선정돼 7천700만원을 지원받는다고 6일 밝혔다.    이 사업은 대학과 기업이 채용을 약정하고 채용을 전제로 기업이 요구하는 맞춤형 교육을 해 청년 취업난 해소와 일자리 매칭을 지원하는 사업이다.    전자과는 'AI전자과'로 이름을 변경하고 '인공지능(AI)기반 사물인터넷(IoT) 융합 제품 제작 실무과정'(20명)을 개설해 드론, 아두이노 제어 등 IoT와 시제품 제작·부품가공 3D프린터 융합 기술을 교육한다.     미용계열 피부미용전공은 '뷰티헬스코디네이터 전문인력 양성과정'에 참여한 20명을 상대로 미용사(피부) 국가 자격, 병원코디네이터, 아로마테라피스트 등 피부미용 서비스 관련 자격증을 취득할 수 있도록 지원한다. ccho@yna.co.kr▶코로나19 속보는 네이버 연합뉴스[구독 클릭]▶[팩트체크]차별금지법안, 성 소수자 어떤 내용?▶제보하기</t>
+  </si>
+  <si>
+    <t>AI 조교 에이켈의 관리 아래 자기주도 학습 지원하는 학습 솔루션온라인유학 교육서비스, 컬럼비아 글로벌 캠퍼스를 운영하는 (주)아이비레슨스가 비대면 온라인 교육에 최적화된 인공지능 제어 이러닝 지도 및 학습 솔루션 '에이켈(AICAeL: Artificial Intelligence Controlled Autonomous eLearning System)'에 대한 특허등록을 지난 3월에 획득했다고 밝혔다.이번 특허는 에이컬의 '인공지능 제어 이러닝 서비스 제공장치 및 방법'에 대한 것으로 특허청 특허 등록을 통해 그 우수성을 다시 한번 입증하게 됐다. 현재 개발중인 이 기술은 특히, 비대면 온라인 교육에 특화돼 컬럼비아 글로벌 캠퍼스를 통해 미국 대학 학위를 취득하려는 온라인유학생, 미국대학편입 준비생에게 학습 효과 극대화는 물론 양질의 교육 결과 보장, 학습 시간 단축이라는 효과를 선사할 것으로 기대된다.에이켈은 실시간 화상 지도 및 인공지능 기반 제어 자율학습을 위한 웹 소프프웨어 솔루션으로, 온라인으로 진행되는 영어, 수학 등 모든 과목 학습에 채용 가능하다. 에이켈 AI 조교의 관리 아래 교사와 학습한 내용을 데이터화 하여 분석하고 최적의 자기 주도 학습을 할 수 있도록 관리한다. 에이켈 AI조교는 음성 또는 문자 채팅으로 응대하며 쌍방향 소통이 가능하다.또한 인공지능이 다양한 측정 방식으로 추출한 수 백 개의 학습데이터를 바탕으로 학습 진행 정도와 현황을 분석해 저장하고 이 데이터를 활용하여 학습자의 학습 성향과 능력, 진도에 맞게 교과과정을 유동적으로 적용한다. 자율학습 진행 현황을 관리시스템에 기록하고 강사와 부모에게 동시에 문자와 카톡으로 공지하여 상호유기적인 학습관리도 가능하도록 할 예정이다.이 밖에도 학습 반응도, 점수 등의 데이터를 추출한 뒤 안면인식 기술로 학습자의 반응 감정을 분석하는 'Facial Recognition' 기능도 추가할 계획이다.에이켈을 개발중인 에듀테크 기업 ㈜아이비레슨스(대표 한진승)는 현재 컬럼비아 글로벌 캠퍼스를 통해 온라인유학 토탈 교육서비스를 제공한다. 미국 150여 개의 대학교와 협력관계를 맺고 학생들이 한국에서 온라인으로 미국 대학의 정규 학사, 석사, 박사 학위를 취득할 있도록 지원하고 있다. 특히, 미국 아이비리그대학 컬럼비아대학교 교육학 박사로, 국내 대학 교수를 역임한 한진승 대표가 직접 전공선택, 교육과정 분석 등의 교육컨설팅을 제공해 차별화된 경쟁력을 자랑한다.컬럼비아글로벌캠퍼스는 입학수속부터 학위 취득 졸업 과정까지 토탈 지원을 제공하며, 입학 후 학사관리, 학사교무 행정을 대행해 국내에서도 현지 캠퍼스 이상의 학사편의를 누릴 수 있는 것이 특징이다. 또한 등록생의 원활한 온라인 학습을 지원하기 위해 독립 스터디 캠퍼스도 운영 중이다.real@heraldcorp.com▶코리아헤럴드 플립화상영어 무료체험▶헤럴드경제 네이버 채널 구독 ▶농수축산물 소비캠페인 - Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 권현수 기자] 동의과학대학교는 최근 '2020년 대학 학과별 맞춤형 취업지원사업'에 선정됐다고 6일 밝혔다.부산시가 주관하는 이 사업은 대학과 기업이 채용을 약정하고 대학은 기업이 요구하는 맞춤형 교육을 실시한다. 이를 통해 청년 취업난 해소와 일자리 매칭을 지원한다.이번 사업에서 동의과학대는 전자과, 피부미용전공 등 2개 학과가 선정돼 약 7700만 원을 지원 받는다.사업 선정에 따라 전자과는 AI기반 IoT융합 제품제작 실무과정을 개설한다. 이는 드론, 아두이노 제어 등의 IoT분야와 시제품 제작, 부품가공의 3D프린터 기술 등에 관한 교육으로 올해 하반기부터 졸업(예정)자 20명을 선발해 교육을 실시한다. 또한 전자과는 인공지능 교육 강화를 위해 2021년도부터 학과 명칭을 'AI전자과'로 개칭한다.이와 함께 미용계열 피부미용전공은 20명 규모의 뷰티헬스코디네이터 전문인력 양성과정을 운영한다. 뷰티헬스코디네이터는 항노화·의료관광산업에서 전문적인 피부미용 관련 서비스를 제공하는 신 직업군으로, 교육 과정은 250시간에 이른다. 이를 통해 졸업(예정)자는 미용사(피부) 국가자격, 병원코디네이터, 아로마테라피스트 등 관련 분야 자격증을 취득할 수 있다.고석조 산학협력단장은 "코로나19 장기화로 민간기업의 일자리가 축소된 실정"이라며 "이번 사업을 통해 학생들의 취업 역량을 강화하고 앞으로도 좋은 일자리를 발굴, 연결하는 등 체계적인 취업 지원을 위해 노력하겠다"고 말했다.한편 동의과학대는 최근 전문대학 혁신지원사업 1차년도 연차평가에서 우수 등급인 A등급을 획득해, 지난해보다 20억 원이 증액된 약 54억 원의 사업운영비를 지원받는다.권현수 기자 ▶줄리아 투자노트▶조 변호사의 가정상담소 ▶머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>KT가 정부의 디지털 뉴딜 사업에 대한 전방위적 지원에 나선다.KT는 기업부문 박윤영 사장이 지휘하는 ‘한국판 뉴딜 협력 TF(태스크포스)’ 조직을 신설하고, 정보통신기술(ICT) 역량을 총동원해 협력하겠다고 6일 밝혔다. 전담 조직을 구성해 한국판 뉴딜 사업 지원에 나서는 것은 ICT 업계에서 첫 사례다.조직에는 B2B(기업 간 거래), 인공지능(AI), 5G, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명에 이르는 임직원이 참여한다. 참여 인원은 사업 진행에 따라 점차 확대될 것으로 KT는 보고 있다.앞서 정부는 코로나19 경기침체로 인한 위기극복을 위해 한국판 뉴딜 사업을 추진한다고 밝힌 바 있다. ‘디지털 뉴딜’과 ‘그린 뉴딜’이라는 주요 2개의 축으로 구성된다. 이중 KT가 협력에 나설 디지털 뉴딜 분야는 ‘디지털 인프라 구축’, ‘비대면 산업 육성’, ‘사회간접자본 디지털화’가 주요 과제다.KT의 신설 TF는 네트워크 인프라, AI·빅데이터 기술, KT 중소협력사 얼라이언스 부문 등에서 지원에 나설 계획이다. 디지털 인프라 구축을 위해 5G 전국 커버리지 확보, 5G 단독모드(SA)·28Ghz 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 지난해 세계 최초 5G 상용화를 위해 5G 인프라 투자를 전년 대비 두 배가량 늘렸다. 올해에도 시장 활성화를 위해 유·무선 통신인프라에 비슷한 수준의 투자를 유지할 계획이다.비대면 산업 육성을 위한 기업·기관들과의 협업에도 한창이다. KT는 서울아산병원과 비대면 영상솔루션과 사물인터넷 기기, 로봇 등을 활용한 ‘언택트 진료환경’ 개발을 진행하고 있다. 현대중공업그룹과는 현대로보틱스에 500억 지분투자를 통한 지능형 서비스 로봇 개발에 나선다. 이 외에도 화상 솔루션을 활용한 비대면 결혼식, 대학 응원전, 가상현실(VR) 교육 등 포스트 코로나 시대를 대비한 사업 경험과 역량을 쌓고 있다.KT 직원들이 5G 기반 재난대응 인프라 기술을 시연하고 있다. KT 제공KT는 재난 안전 관리를 위한 ‘SOC 관리 기술’도 한국판 뉴딜에 필수적이라고 봤다. 전국의 통신시설과 통신장비의 안정적인 운영을 위해 ICT 기반의 재난대응이 요구되는 만큼 SOC 디지털화에 협력한다. KT는 5G·AI 기반의 화재감지, 침수감지 등 차세대 OSP 관리시스템을 통해 통신 인프라 설계·운용·관제, 장애복구 면에서 효율성과 안정성을 확보했다는 설명이다.박윤영 한국판 뉴딜 협력 TF장(사장)은 “KT가 보유하고 있는 5G·AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다”고 말했다.김성훈 기자 hunhun@kmib.co.kr▶ 네이버에서 국민일보를 구독하세요(클릭)▶ 국민일보 홈페이지 바로가기GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 재배포금지</t>
+  </si>
+  <si>
+    <t>국회 디지털경제혁신연구포럼 출범…여야, ICT 업계 총출동데이터 생태계 건전성, ‘디지털 뉴딜’ 일자리 안정성 등 과제네이버·카카오 등 국내 기업, 구글·페이스북 등 ‘역차별’ 주장[미디어오늘 노지민 기자]네이버·카카오·벤처협회 출신 의원들이 공동대표를 맡은 디지털경제혁신연구포럼(디지털혁신포럼)이 출범했다. 여야 의원들과 정부 및 관련 업계 관계자들이 참석한 첫 공식 행사에서 카카오·네이버 등이 해외 업체들과의 '역차별'을 해소해달라고 촉구했다. 출범식 및 토론회는 6일 서울 여의도 국회의원회관 대회의실에서 진행됐다. 디지털혁신포럼은 더불어민주당 소속의 네이버 부사장 출신 윤영찬 의원과 카카오뱅크 대표이사 출신 이용우 의원, 미래통합당 소속의 한국벤처협회 회장 출신 이영 의원과 같은 협회 이사를 맡았던 허은아 의원 등 4명이 공동 대표다. 준회원까지 총 35명의 여야 의원이 이름을 올린 가운데 한나라당(통합당 전신) 디지털정당 자문단이었던 통합당 김병욱 의원이 연구책임의원을 맡았다. 공동대표로서 발언대에 선 이용우 의원은 "우리 규제는 과거의 틀에 머물러 있고 추격형 경제에 머물러 선례를 따지고 있다. 이런 환경을 벗어나지 못하면 글로벌 경쟁에서 뒤쳐질 수밖에 없다. 디지털 트랜스포메이션(Digital Transformation)으로 발생하는 아이디어, 기존 기업 질서에 대한 도전은 언제나 장려돼야 하고 박수쳐줘야 할 도전"이라며 "규제혁신 없이 앞으로 나아갈 수 없다"고 주장했다. 이어 "규제혁신은 공정한 경제와 공정한 질서가 바탕이 돼야 한다. 새로운 아이디어에서 창출된 과실을 누군가 공정하지 못한 질서를 통해 전유하는 구조가 생기면 누구도 도전하지 않을 것이다. 그 도전에 대한 책임도 같이 가야 한다"고 밝혔다. ▲ 더불어민주당 이용우, 윤영찬 의원, 미래통합당 이영, 허은아 의원 등 공동대표들과 한성숙 네이버 대표이사, 여민수 카카오 대표이사, 김범준 우아한형제들 대표이사 등이 6일 국회 의원회관에서 국회디지털경제혁신연구포럼 주최로 열린 국회디지털경제혁신연구포럼 출범식에서 기념촬영하고 있다. ⓒ연합뉴스포럼 회원이 아닌 주호영 통합당 원내대표도 축사로 포럼에 힘을 실었다. 그는 "흔히 국회 연구단체는 어느 정당 의원들이 주도하고 상대 정당은 연구모임에 필요한 두 분 정도만 모아 발족하는데 오늘은 특이하면서 바람직하게도 양당 의원들이 골고루 들어가 있어 보기 좋은 실질적인 국회 연구모임"이라며 "냉소적인지 모르겠지만 민주당 의석이 너무 많아서 마음먹은 대로 다 할 수 있으니까 통합당이 좋은 정책 많이 만들어서 여기 계신 민주당 의원들께 넘겨주시면 많은 성과가 있지 않을까 생각한다"고 말했다. 포럼 목표가 "AI, 게임, 전자상거래, 웹툰, OTT 등 인터넷을 기반으로 하는 디지털 경제 활성화"인 만큼 관련 분야 기업·협회들은 포럼 자문단 등으로 총출동했다. 카카오, 네이버, 우아한형제들, 직방 등 주요 ICT 기업 경영진은 이 자리를 빌려 업계가 바라는 국회 역할을 촉구했다. 국내법상 국내기업에 적용되는 법·제도 등 규제가 해외기업에는 해당되지 않는다는 관련 업계의 '역차별론' 역시 제기됐다. 여민수 카카오 대표는 "규제에 노출되는 방식, 규제를 위반했을 때 가해지는 벌칙이 동일하지 않은 것 같다. 굳이 '기울어진 운동장'이라고까지 얘기하고 싶지 않지만 예를 들면 너튜브(유튜브), 에프북(페이스북)이 국민 생활에 네이버나 카카오 이상으로 스며들어 있는데 다 외산 플랫폼"이라고 불만을 내비쳤다. 소셜커머스(SNS 전자상거래) 분야에 대해서도 "쿠팡처럼 커머스도 외산 플랫폼이 장악한 형국"이라며 "그런 쪽과 국내 플랫폼 간의 건전한 경쟁을 위한 부분은 다듬어질 필요가 있을 것 같다"고 강조했다. 한성숙 네이버 대표이사도 "페이스북이나 중국 알리바바 같은 기업들과 1대1 맞붙어서 우리가 다 이기겠다고 말하면 좋겠지만 개발자나 자금 규모가 20~30배 큰 기업이 대상"이라며 "국내에서 (국내기업과) 글로벌기업 간 법 조항 적용이 같은 기준으로 시행되면 좋겠다"고 같은 맥락의 주장을 펼쳤다. 한편 디지털 뉴딜 정책으로 일자리를 창출하겠다는 정부 구상과 관련해 '일회성 일자리' 양산에 그쳐선 안 된다는 우려도 나왔다. 인공지능 데이터를 생산하는 직업은 의료·통번역 등 일부 전문분야 외에는 단순 반복 업무가 대부분이며 미국·중국 등에서도 수많은 개인과 계약하고 수시로 동원할 뿐 '상시 고용' '안정적 일자리'로 이어지긴 어렵다는 시각이다. ▲ 6일 국회 디지털경제혁신연구포럼 출범식이 시작되기 전 여야 의원들이 한 스타트업체의 시연을 보고 있다. 사진=노지민 기자김광수 성균관대 소프트웨어학과 교수는 "단기적 일자리에 그치지 않게 하려면 사업 참여인력에 대한 전문 교육을 병행함으로써 결과적으로는 기존 AI 산업계에서 데이터를 활용하는 과정에서 필요한 신규 채용과 연계돼야 한다"고 주장했다. 사업에 참여하는 기업이 인력에 대한 교육을 진행하고 이들을 장기고용으로 전환할 수 있도록 해야 하며, 교육을 받은 인력들이 창업을 할 수 있도록 창업지원프로그램을 병행해야 한다는 주장이다. 김 교수는 "얼마 전 기사를 보니 과거 공공근로사업 흑역사 중 하나가 '황소개구리 잡기'였던 것 같다. 궁극적으로 황소개구리 1마리 잡는 데 1만원 정도가 들었을 뿐 고용이 크게 일어나지 않았다"며 "우리가 생각하는 디지털뉴딜 사업이 많은 성과를 내고 기대했던 목표를 달성할 수 있도록 여기 참석한 전문가 여러분 토론이 필요한 것 같다"고 말했다. 토론 좌장인 이영 통합당 의원은 이어 "정부가 디지털 뉴딜을 표방하면서 안정된 일자리를 창출하겠다고 표방한 건 굉장히 고무적이라고 생각한다"며 "'디엔에이'(D·N·A), 데이터·네트워크·AI 부분이 일회성 일자리 창출로 그칠 수 있다는 위험은 간과해선 안 될 부분인 거 같다"고 덧붙였다. 김 교수는 이밖에 "정부의 재정 투자를 통해 우선 추진해야 할 분야를 명확히 선정하고 최종적 비전을 달성하기 위해서 데이터 구축 뿐 아니라 관련 규제 개선, 산업 생태계 육성, 핵심 인력 양성 등 모든 요소들이 함께 추진돼야 한다"며 "AI 데이터 구축 대상과 활용 방법, 네트워크 인프라 구축 방법 등 많은 부분에서 민간이 주체가 되고 민간의 수료를 최우선적으로 고려해야 한다"고 주장했다.노지민 기자[네이버 메인에서 미디어오늘 구독하기][네이버 TV에서 미디어오늘 바로가기]&lt;Copyright ⓒ 미디어오늘. 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[디지털데일리 이상일기자] 증강현실(AR) 플랫폼 기업 맥스트(MAXST)가 AR 콘텐츠 제작 비용을 획기적으로 낮출 수 있는 '맥스워크(MAXWORK)'를 출시한다고 발표했다. 산업계에서는 스마트팩토리 확산의 일환으로 사물인터넷(IoT), 인공지능(AI)와 더불어 AR을 도입해 설비관리 및 유지보수, 수리 및 교육·훈련 영역에서 작업자의 생산성을 향상시키려는 시도가 이어지고 있다. 하지만 AR 콘텐츠를 제작하는 비용이 높고 소프트웨어 개발 의존도가 높아 현장에서 활용하기에 어려움이 있었다. 이번에 출시되는 '맥스워크'는 기존과 달리 AR콘텐츠 제작비용을 낮출 수 있고 별도의 소프트웨어 개발 없이 증강현실 기술을 도입할 수 있다. 맥스워크를 사용하면 생산 및 교육 부서와 같은 현업에서 직관적인 매뉴얼을 직접 제작할 수 있고 AR을 접목한 원격지원을 통해 효율적인 협업이 가능하다.  맥스워크는 크로스플랫폼 서비스로서 iOS-안드로이드, 웹을 포함한 모든 OS(운영 체제)에서 사용이 가능하고, 스마트 글라스도 지원한다. 또한 기업 내부뿐 아니라 국내·외 고객사와의 협업에도 사용할 수 있어 다양한 산업분야의 여러 문제 상황을 해결할 수 있을 것으로 예상된다. 한편 맥스트는 지난 수년간 삼성전자, 현대자동차, KT, 대우조선해양 등 대기업과의 협업을 통해 산업 현장의 다양한 요구사항을 수집해 이를 바탕으로 맥스워크를 출시했다. 이 솔루션은 AR  영상 통화인 '리모트(Remote)'와 일반 관리자도 코딩 없이 AR 매뉴얼을 쉽고 빠르게 만들 수 있는 '크리에이트(Create)' 그리고 AR 매뉴얼을 볼 수 있는 '다이렉트(Direct)'로 구성되어 있다. 통화 내용은 클라우드 서버에 업로드되어 기록 및 교육·훈련에 활용할 수 있다. 또한 사용자별 권한을 부여하고 이용 기록 등을 확인할 수 있는 어드민(Admin)이 함께 제공되어 보다 체계적인 관리가 가능하다.&lt;이상일 기자&gt;2401@ddaily.co.kr▶ 네이버에서 디지털데일리 채널 구독하기▶ IT정보의 즐거운 업그레이드 [딜라이트닷넷]&lt;저작권자 © 디지털데일리 무단전재-재배포금지&gt;</t>
+  </si>
+  <si>
+    <t>[CEO24시] 최정우 포스코 회장서울 역삼동 팁스타운에서 7월 1일 열린 체인지업 그라운드 개관식에서 박영선 중소벤처기업부 장관과 최정우(왼쪽) 포스코 회장이 기념 촬영을 하고 있다. / 사진 포스코 제공[한경비즈니스 = 이홍표 기자] 포스코가 민간 기업 최초로 ‘한국판 실리콘밸리’로 불리는 서울 강남구 역삼로 ‘팁스타운(Tips Town)’에 민·관 협력형 스타트업 지원센터를 열었다. 포스코는 벤처기업 28개사를 육성한다.포스코는 7월 1일 강남구 역삼로 팁스타운에 민·관 협력형 인큐베이팅센터인 ‘체인지업 그라운드’를 열었다고 밝혔다. 개관식에는 박영선 중소벤처기업부 장관, 최정우 포스코 회장, 고영하 한국엔젤투자협회장 등이 참석했다.팁스타운은 2015년부터 중기부가 역삼로 일대에 조성하고 있는 스타트업 보육 공간이다. 이번이 여섯째 개관으로 민간 기업 중에서 포스코가 처음 참여했다. 최 회장은 “한국판 실리콘밸리를 통해 국내 벤처 생태계 활성화와 청년 일자리 창출에 기여하겠다”고 말했다. 포스코는 포항과 광양에도 스타트업과 벤처기업이 연구, 투자 유치, 기술 교류를 할 수 있는 창업 인프라를 조성할 계획이다.박 장관은 “많은 스타트업이 포스코의 용광로처럼 뜨거운 도전과 열정으로 국내 경제 생태계를 혁신적으로 선도하기를 기대한다”고 말했다.포스코는 팁스타운의 이름을 ‘체인지업 그라운드’라고 지었다. ‘미래를 바꾸는 창업, 삶을 업그레이드하는 그라운드’라는 뜻을 담았다. 총 7개 층에 총면적 4200㎡ 규모로 조성됐다. 바이오·소재·인공지능(AI) 분야의 스타트업 28개사가 입주했다.영상 촬영을 할 수 있는 스튜디오와 편집실 공간이 마련돼 회사 홍보를 할 수 있고 세미나실과 이벤트홀 등을 활용해 다양한 교육 프로그램과 기업설명회(IR), 네트워킹 행사 등도 열 수 있다. hawlling@hankyung.com·[본 기사는 한경비즈니스 제 1284호(2020.07.04 ~ 2020.07.10) 기사입니다.]▶ 한경비즈니스 네이버 뉴스에서 [구독 클릭]▶ '한경비즈니스' 바로가기 ▶ 잡지 정기구독 신청  당사의 허락 없이 본 글과 사진의 무단 전재 및 재배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>총수가 나서 S급 인재 영입인공지능 핵심부서 수장에4대 그룹, 해외 석학들 발탁사내 전문가 육성 프로그램도 운영Getty Images Bank국내 주요 기업이 인재 확보에 적극 나서고 있다. 그룹 총수나 최고경영자(CEO)가 직접 영입에 공을 들일 정도다. 미래 먹거리인 4차 산업(지식 집약적 산업) 분야의 전문가를 확보하기 위해서다. 인재 육성도 소홀히 하지 않는다. 직원 전문성을 높이기 위해 교육·인재육성 프로그램을 확대하는 게 대표적이다. 신종 코로나바이러스 감염증(코로나19) 이후 변화하는 채용 환경에 대응하기 위해선 상시·비대면 채용을 확대하고 있다.○외부 인재 사장급으로 영입최근 기업들이 인공지능(AI) 관련 인재를 적극 영입하고 있다. 미래 산업의 주도권을 잡기 위해선 전문 인력 확보가 필수라고 판단해서다. 이재용 삼성전자 부회장이 직접 영입한 것으로 알려진 세바스찬 승 삼성리서치 소장(사장)이 대표적인 사례다. 승 소장은 세계적인 AI 석학으로 미국 프린스턴대 교수도 겸하고 있다. 2018년 이 부회장의 요청으로 삼성리서치에 부사장으로 합류했고 지난달엔 사장으로 발탁됐다. 삼성전자는 지난해 3월엔 AI 프로세서 분야에서 손꼽히는 권위자인 위구연 미국 하버드대 교수를 ‘펠로’로 영입했다.LG 역시 AI 인재 영입에 적극적이다. LG전자는 지난해 6월 캐나다 이동통신사 1위 ‘벨’ 출신의 AI 전문가 케빈 페레이라 박사를 영입해 LG전자 토론토 AI 연구소장으로 임명했다. 2018년 12월엔 조셉 림 미국 USC 컴퓨터공학부 교수를 임원급으로 영입했다.현대차는 인재영입을 통해 모빌리티와 AI를 접목한 미래사업 역량 향상에 힘쓰고 있다. 지난해 9월부터 도심항공모빌리티(UAM) 연구를 총괄 지휘하는 신재원 UAM사업부장(부사장)은 미국 항공우주국(NASA) 연구본부장 출신이다. 서비스플랫폼도 현대차의 관심사로 꼽힌다. SK커뮤니케이션즈에서 최근 영입한 정운철 모빌리티서비스플랫폼개발실장(상무)과 온라인 게임업체 스마일게이트 출신 김일환 상무(데이터플랫폼팀장), KT에서 건너온 권오륭 상무(플랫폼사업전략실장)가 이를 반영한 영입 인사다.○실리콘밸리에서 전문인력 입도선매S급 인재 영입의 숨은 공신은 총수나 대표이사(CEO) 등 최고위 임원들이다. 이들은 미국, 유럽, 일본 등 가리지 않고 ‘인재가 있는 곳’이면 달려가 러브콜을 보낸다는 게 산업계 관계자들의 공통된 얘기다.삼성 LG 등 글로벌 기업으로 성장한 국내 대기업 고위 관계자들은 매년 두세 차례씩 해외에서 열리는 채용 행사에 직접 뛰어들기도 한다. 삼성전자가 2017년부터 미국에서 개최하고 있는 ‘테크포럼’이 대표적이다. 삼성전자의 미래기술 전략과 차세대 방향성 등을 발표하는 자리지만 공식행사 이후엔 인재영입 활동이 활발하다.LG는 매년 미국 샌프란시스코에서 ‘LG테크콘퍼런스’를 열고 있다. 총수들이 직접 참여하는 LG의 공식적인 ‘미래기술 인재’ 영입 행사다. 고(故) 구본무 회장은 2018년을 제외하고 매년 참석할 정도로 공을 들였다. 구광모 회장 역시 취임 이후 첫 출장으로 이 행사를 선택했다. 40여 개 테이블을 직접 돌며 대학원생들에게 ‘LG 입사’를 권유했다.현대차그룹은 글로벌 각지에 퍼져 있는 계열사를 통해 석·박사 인력 입도선매에 나서고 있는 것으로 알려졌다. 지난해 8월 미국 샌디에이고에서 열린 ‘현대차 글로벌 톱 탤런트 포럼’이 좋은 사례다. SK그룹은 지난해 9월 미국 뉴저지주와 캘리포니아주에서 ‘2019 SK 글로벌 포럼’을 열었다. 반도체 바이오 등 분야 핵심 인재들을 초청해 최신 기술 등을 논의하는 이 행사엔 김준 SK이노베이션 사장, 이석희 SK하이닉스 사장 등 주요 경영진이 총출동했다.○사내 전문가 육성에도 적극적기업들은 기존 인력을 전문가로 육성하는 것에도 신경 쓰고 있다. 지난해부터 시행 중인 미래사업가 후보 제도는 LG만의 독특한 인재육성 전략으로 꼽힌다. 잠재력 있는 선임·책임급 인재 100여 명을 미래사업가 후보로 선발해 육성하는 것이다. “실력있는 젊은 인재를 육성해 새로운 시도와 변화에 도전하고 지속 가능한 성장을 이어가겠다”는 구 회장의 철학이 반영된 제도다.삼성전자도 ‘코어’, ‘리더십’, ‘엑스퍼타이즈’ 등 세 가지의 맞춤형 직원교육 프로그램을 운영한다. 삼성전자가 역점을 두는 교육 과정은 엑스퍼타이즈 프로그램이다. 분야별 전문가를 육성하는 것이 프로그램을 도입한 목적이다. 임직원들이 자신의 직무에서 최고 전문가로 성장할수 있도록 체계적 교육 기회를 제공하고 있다.신입사원 채용 방식도 시대 상황에 맞춰 변하고 있다. SK텔레콤은 비대면 시대를 맞아 신입사원 정기 채용에선 처음으로 비대면 그룹 소통 방식인 ‘인택트’ 면접을 실시했다. 자체 개발한 그룹 영상통화 솔루션을 활용해 다자간 상호 의견을 주고받는 그룹면접 방식을 선보인 것이다. LG는 올해 하반기부터 신입사원 채용 방식을 종전 상·하반기 정기 채용에서 연중 상시 선발체제로 전환한다. 빠르게 변화하는 사업 환경에 대응하기 위해서다.황정수 기자 hjs@hankyung.com▶ 네이버에서 한국경제 뉴스를 받아보세요▶ 한경닷컴 바로가기  ▶ 모바일한경 구독신청 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>국비 등 100억원 들여 지상 4층 연면적 2735㎡ 규모전망대 기능도 갖춘 도서관, 내년 말 완공 예정.6일 오전 하동공원 내에서 기공식을 한 전망대 기능을 갖춘 하동 상상도서관 조감도. 하동군 제공경남 하동에 상상도서관이 들어선다.하동군은 6일 오전 하동공원 도서관 건립공사 현장에서 상상도서관 기공식을 가졌다. 국비와 군비·민자 등 모두 100억 원을 들여 짓는 이 상상도서관은 하동읍 광평리 하동공원 내 1만 799㎡ 터에 지상 4층 연면적 2735㎡ 규모로 짓는다. 내년 말 준공 예정이다.이 도서관은 1층에 로비홀과 북카페, 열람실 등이, 2층과 3층은 열람실, 4층은 관장실과 사무실 등이 각 각 배치된다.특히 도서관 옥상은 일반적인 건물형태에서 벗어나 경사진 계단 형태의 정원과 전망대 형식으로 건립될 계획이어서 눈길을 끈다. 도서관을 찾는 사람이면 누구나 이곳에서 섬진강 등을 조망할 수 있을 전망이다.하동군은 이 상상도서관이 지역 종합정보센터로서 주민의 정보 접근권을 확대하고, 문화교육도시로 도약하는 계기가 될 것으로 기대했다.또 새로운 문화공간 조성을 통해 주민의 삶의 질을 향상은 물론 하동을 찾는 관광객에게도 상상·체험형 프로그램 운영으로 새로운 인문학 체험 관광기반으로도 활용할 계획이다. 상상도서관은 인문도시 하동에 걸맞은 문화플랫폼 통해 문학수도 하동 선점, 문화교육도시로 도약하려는 민선7기 군수 주요공약 중 하나로 추진됐다.윤상기 하동군수는 “이 상상도서관은 인공지능을 통한 다양한 정보 서비스가 제공되고, 누구나 쉽게 접근할 수 있는 공간으로 만들어 하동을 문화도시로 만들고 나아가 세계적 인문학 테마 랜드마크가 될 것”이라고 말했다.하동군은 6일 오전 10시 하동공원 내 터에서 하동군수를 비롯해 김기재 (사)하동상상도서관건립회 이사장, 박성곤 군의회 의장, 이정훈 경남도의원, 영담 쌍계사 주지, 도응 칠불사 주지 등이 참석한 가운데 하동 상상도서관 기공식을 했다. 하동군 제공상상도서관 기공식은 하동홍보대사 소유담의 사회로 개식, 국민의례, 내빈소개, 한국남부발전㈜ 하동발전본부의 농어촌상생협력기금 기탁, 상상도서관 건립 취지 설명과 경과보고, 기념사, 축사, 안전기원제, 시삽식 순으로 진행됐다.현장에는 윤상기 하동군수를 비롯해 김기재 (사)하동상상도서관건립회 이사장, 박성곤 군의회 의장, 이정훈 경남도의원, 영담 쌍계사 주지, 도응 칠불사 주지 등 지역 기관·단체장, 군민 등 200여명이 참석, 이 도서관 기공을 축하했다. 이선규 기자 sunq17@busan.com▶ 네이버에서 부산일보 구독하기 클릭!▶ '터치 부산' 앱 출시, 부산일보 지면을 내 손 안에!▶ 부산일보 홈 바로가기</t>
+  </si>
+  <si>
+    <t>제공=서울과학종합대학원[아시아경제 이현주 기자] aSSIST 경영대학원(서울과학종합대학원)은 경영학 석·박사 전체 교육 과정과 인공지능(AI) 과목을 강화해, AI 대학원으로 거듭난다고 6일 밝혔다. 앞으로 재학생들은 AI 필수 교육을 이수해야 졸업이 가능하며 이수 학생들에게는 블록체인에 기록되는 AI교육 이수증을 발급 받는다. 석사과정 MBA의 개별 교육 과정 명칭도 변경된다. 빅데이터 MBA는 AI·빅데이터로 개편되고 크립토 MBA는 AI·크립토MBA로 개편된다. 영학 박사 과정은 AI 기반 연구방법론을 전면 도입하고 고급 통계 분석, 데이터 마이닝, 머신러닝, 딥러닝 등 최신 데이터 과학을 심도 있게 다룬다. 더불어 코로나19 등 실제 사회과학 문제를 AI 기반으로 풀어내는 연구와 논문을 집중적으로 육성할 계획이다.이현주 기자 ecolhj@asiae.co.kr▶ 2020년 하반기, 재물운·연애운·건강운 체크!▶ 네이버에서 아시아경제 뉴스를 받아보세요 ▶ 놀 준비 되었다면 드루와!  드링킷!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t>삼성전자지난해 4월 30일 삼성전자 화성사업장에서 열린 '시스템반도체 비전 선포식'에서 '반도체 비전 2030'을 발표하는 이재용 삼성전자 부회장(오른쪽)과 행사에 참석한 세바스찬 승 당시 삼성리서치 부사장(왼쪽 두 번째).   삼성전자 제공2018년 6월 4일. 삼성전자는 인공지능(AI) 분야의 권위자인 세바스찬 승 미국 프린스턴대 교수를 삼성리서치로 영입했다. 세계적인 석학 반열에 오른 승 교수를 끌어들인 것은 그룹 총수인 이재용 삼성전자 부회장이었다. 2018년 3월 경영 복귀 이후 첫 출장 일정에 캐나다를 넣은 이 부회장은 현지에서 승 교수를 만나 “함께 일하자”고 권유했다.삼성과 승 교수의 인연은 올 들어 한층 더 깊어졌다. 삼성전자는 영입 2년여 만인 지난달 24일 승 교수를 삼성리서치 소장(사장)으로 내정했다. 앞으로 승 교수는 한국을 포함한 13개국 15개 연구개발(R&amp;D) 센터, 7개 AI센터 등을 총괄하게 된다.○S급 인재 끌어모으는 삼성삼성전자가 공격적으로 글로벌 인재들을 끌어들이고 있다. 꼭 필요한 인재라고 판단하면 계열사 최고경영자(CEO)는 물론 그룹 총수까지 나서 영입을 타진한다. 요즘 같은 AI 시대엔 인재의 경쟁력이 기업의 경쟁력으로 이어진다고 판단한 것이다.승 소장은 이 부회장이 지난 5월 대국민 기자회견에서 ‘뉴 삼성 비전’을 발표하며 회사의 미래를 위해 외부의 유능한 인재를 적극적으로 영입하겠다는 뜻을 밝힌 후 이뤄진 첫 CEO 영입 사례다. 당시 이 부회장은 “전문성과 통찰력을 갖춘 최고 수준의 경영만이 생존을 담보할 수 있다”며 “삼성은 앞으로도 성별과 학벌 나아가 국적을 불문하고 훌륭한 인재를 모셔와야 한다”고 강조했다.삼성전자가 중용한 거물은 승 교수만이 아니다. 지난해 3월엔 AI 프로세서 분야에서 손꼽히는 권위자인 위구연 미국 하버드대 교수를 ‘펠로’로 영입했다. 펠로는 삼성전자가 세계 최고 수준의 기술력을 보유한 전문가에게 부여하는 직급이다. 위 교수는 2013년 비행 곤충 로봇인 ‘로보비’의 핵심 기술을 개발한 사람이다. 현재 위 펠로는 삼성리서치에서 인공신경망 기반 차세대 프로세서 관련 연구를 이끌고 있다.빅데이터 분석 전문가인 장우승 전무도 비슷한 시기에 삼성에 영입됐다. 그는 무선사업부에서 빅데이터 개발 업무를 담당하고 있다. 장 전무는 미국 미주리대 산업공학 교수를 지냈고 아마존에서도 관련 업무를 담당했다. 한국과학기술연구원(KIST)에서 의료로봇연구단장을 지낸 강성철 전무 역시 삼성이 큰 기대를 걸고 있는 인물이다. 그는 지난해 삼성전자 전무로 영입돼 로봇 기술 개발을 진두지휘하고 있다.디지털 마케팅 분야의 권위자인 윌리엄 김 무선사업부 리테일·이커머스 총괄 부사장(전 올세인츠 대표), 디자인 전문가인 민승재 디자인경영센터 상무(전 폭스바겐 미국 디자인센터 총괄디자이너) 등도 삼성전자가 공을 들여 영입한 S급 인재로 꼽힌다.○올해도 석·박사급 1000명 영입삼성전자의 주된 타깃은 석·박사급 인재다. 올해 AI, 시스템반도체 등 미래사업 분야에서 총 1000명의 석·박사 인력을 채용한다. 이미 상반기 중 500여 명의 채용 절차가 마무리됐다. 삼성전자가 한 해에 1000명 안팎의 석·박사를 선발하는 것은 이번이 처음이다. 회사 관계자는 “새로 준비하는 신사업들이 다양하다”며 “AI, 빅데이터 등을 결합한 새로운 사업을 시작하려면 해당 기술을 깊게 이해하고 있는 전문가들이 많이 필요하다”고 설명했다.임직원들을 대상으로 한 교육 프로그램에도 신경을 쓰고 있다. 촘촘한 교육 프로그램을 거치고 나면 B급 인재가 A급으로, A급 인재가 S급으로 바뀐다는 것이 회사 측 설명이다. 삼성전자의 교육 프로그램은 ‘코어’, ‘리더십’, ‘엑스퍼타이즈’ 등으로 나눈다. 코어 프로그램은 새로 삼성에 합류한 사람들이 받아야 하는 교육이다. 삼성의 가치와 문화 조직의 전략방향 등을 배울 수 있다. 리더십 프로그램은 차세대 관리자를 양성하는 과정으로 리더십 함양이 목적이다. 직급이나 직무에 따라 다양한 교육 프로그램을 제공하고 있다.삼성전자가 역점을 두는 교육 과정은 엑스퍼타이즈 프로그램이다. 분야별 전문가를 육성하는 것이 프로그램을 도입한 목적이다. 임직원들이 자신의 직무에서 최고 전문가로 성장할 수 있도록 체계적 교육 기회를 제공하고 있다. R&amp;D, 마케팅, 판매, 서비스, 물류, 구매, 제조, 경영지원 등 8개 직군으로 임직원을 분류한 후 각각 다른 교육을 받게 한다.송형석 기자 click@hankyung.com▶ 네이버에서 한국경제 뉴스를 받아보세요▶ 한경닷컴 바로가기  ▶ 모바일한경 구독신청 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>KT가 운영하는 '4차 산업 아카데미 인턴십 프로그램'에 참여한 대학생과 취업준비생들이 강의를 듣고 있다. KT 제공올초 KT는 조직개편 과정에서 AI/DX융합사업부문을 신설했다. 인공지능(AI)과 디지털 전환(DX)을 중심으로 신사업을 키우려는 목표에서다. 인재 육성 역시 이 분야를 중심으로 이뤄질 계획이다.KT는 올해부터 정기채용을 없앴다. 대신 분야별 수시 채용으로 채용 제도에 변화를 줬다. 각 분야에서 필요한 인재를 선발해 일정 기간 인턴십을 거쳐 채용하는 식이다. 5세대(5G) 이동통신과 AI, 빅데이터, DX 등 디지털 뉴딜과 관련된 핵심 인력을 확보하기 위한 전략이다. 인턴십을 거치기 때문에 실무형 인재를 확보할 수 있을 것이라는 기대도 있다.기존에 시행하던 ‘4차 산업 아카데미 인턴십 프로그램’은 유지한다. 2018년부터 진행된 이 프로그램은 인턴십과 연계해 대학생과 취업준비생을 대상으로 맞춤형 교육을 제공한다. AI 소프트웨어 개발, 5G 인프라 기술, 정보통신기술(ICT) 융합 컨설팅, 스마트 에너지 4개 분야에서 이론과 실무 교육을 받을 수 있다. 교육과정을 마치고 나서는 KT 인턴십 기회가 주어지며, 이 중 우수자는 면접을 통해 신입사원으로 채용되거나 다른 기업에 취업 추천을 받게 된다.인재 육성에 다른 기업과도 협력한다. KT는 올 2월 현대중공업그룹, 한국과학기술원(KAIST), 한양대, 한국전자통신연구원(ETRI)과 손잡고 AI 산업 협의체인 ‘AI 원팀’을 결성했다. AI 원팀은 인재 양성 플랫폼 구축을 비롯한 AI 생태계 활성화에 공동 노력한다.우선 AI 실습과 개발을 위한 ‘AI 교육 플랫폼’을 공동 구축한다. 중소·벤처기업과 학생들이 아이디어를 바탕으로 서비스를 개발할 수 있게 고성능 컴퓨터와 학습용 데이터, 온·오프라인 교육 프로그램을 제공할 예정이다. 또 누구나 쉽게 참여할 수 있는 ‘산업 실무형 AI 교육 과정’도 개설한다. AI 인재의 수요와 공급을 연결하는 ‘AI 인재 플랫폼’도 구축할 계획이다.소외 계층의 AI 교육도 돕는다. KT는 2003년부터 대학생 서포터즈 프로그램인 ‘모바일 퓨처리스트’를 운영해 AI 전문가를 키우고 있다.홍윤정 기자 yjhong@hankyung.com▶ 네이버에서 한국경제 뉴스를 받아보세요▶ 한경닷컴 바로가기  ▶ 모바일한경 구독신청 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>설동호 대전교육감 취임 2주년…수학문화관 준공, 학교공간 혁신도  설동호 대전시교육감[대전교육청 제공. 재판매 및 DB 금지]    (대전=연합뉴스) 조성민 기자 = 대전교육청이 신종 코로나바이러스 감염증(코로나19) 확산에 따른 온라인 수업의 중요성에 따라 학교별 수업콘텐츠 제작을 위해 모든 학교에 예산을 지원해 온라인 스튜디오를 구축한다.    내년 3월에는 중부권에서 유일하게 수학을 주제로 한 놀이·체험형 공간인 수학문화관이 유성초등학교 부지에서 문을 연다.    대전교육청은 6일 설동호 교육감 취임 2주년을 맞아 앞으로의 대전교육 중점 추진정책 등을 서면으로 발표했다.    중점 추진 정책으로는 미래형 창의융합인재 양성을 위해 대덕연구단지와 연계한 과학·체험프로그램을 다양화하기로 했다.    노벨과학 꿈·키움 프로젝트를 비롯한 인공지능(AI)교육, 소프트웨어(SW)교육, 수학교육을 더욱 내실화하며, 독서교육과 예술·체육활동이 융합된 인성교육도 연속성 있게 추진한다.     대전수학문화관에는 모두 14개의 수학체험실과 부대시설이 들어서게 되며, 수학을 주제로 다양하고 재미있는 체험이 이뤄질 수 있도록 놀이·체험형 공간으로 조성한다.     문화동 동부교육지원청 인근에는 건축비 260억원을 투입해 2024년 완공을 목표로 (가칭) 대전교육복합시설 건립을 추진하기로 했다. 대전시교육청 전경[대전교육청 제공. 재판매 및 DB 금지]    감염병 상시 대응 체계 강화를 위해 본청·교육지원청·직속기관 간 24시간 화상회의시스템을 구축하고 가을철 코로나19 2차 유행에 대비해 방역 물품 추가 구비와 방과후 취약시설 집중관리에 나설 방침이다.    특히, 코로나19 확산으로 온라인 수업의 중요성이 부각됨에 따라 원격교육 일반화 모델 개발을 위한 3개 시범학교를 운영하며 온라인 수업과 비대면 화상회의 등 학교별 수업콘텐츠 제작을 위해 모든 학교에 예산을 지원해 온라인 스튜디오를 구축할 예정이다.     학습과 놀이, 휴식 간 조화를 이룬 다양한 공감형 학교 공간을 조성하기 위해 학교공간 혁신사업도 확대·추진한다.     설계 과정에 학생과 교사가 참여함으로써 수요자 중심의 학교 공간이 조성될 수 있도록 할 예정이며 올해 46억원의 예산을 투입해 21개교를 대상으로 공사를 진행한다.    이밖에 민주시민을 양성하고 공공의 이익과 공동체의 지속 가능한 발전에 기여하는 학생 교육 기반을 마련하고자 학생생활교육과를 민주시민교육과로 확대·개편하기로 했다.     설동호 교육감은 "앞으로 대전교육은 학생의 안전과 건강을 최우선으로 코로나19를 극복하고 학생 학습권을 보장해 역량을 키워나가도록 하겠다"며 "다양하고 내실 있는 혁신교육으로 인재를 양성하는 데 최선을 다하겠다"고 말했다. min365@yna.co.kr▶코로나19 속보는 네이버 연합뉴스[구독 클릭]▶[팩트체크]차별금지법안, 성 소수자 어떤 내용?▶제보하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[아시아경제 유현석 기자] 케어랩스가 3일 연속 상승하고 있다. 정부가 '한국판 뉴딜'에 향후 5년간 100조원 이상을 집중 투자한다는 계획과 함께 '비대면 진료'가 핵심 과업으로 언급한 것이 영향을 끼친 것으로 보인다.케어랩스는 6일 오후 3시6분 기준 전거래일 대비 3.10%(650원) 오른 2만1600원에 거래됐다.지난 5일 기획재정부는 76조원 규모로 제시됐던 한국판 뉴딜을 100조원 이상으로 늘리고 세부 내용을 확정해 '한국판 뉴딜 종합계획'을 이번 달 중순께 발표할 계획이라고 전했다.한국판 뉴딜은 데이터·인공지능(AI) 생태계를 키우고, 비대면 의료·교육을 육성하는 등 다양한 디지털 산업 육성에 초점을 맞추고 있다. '비대면 진료'는 신종 코로나바이러스 감염증(코로나19) 확산을 막기 위해 지난 2월 말부터 제한적으로 전화상담·처방을 허용했다. 일부 효과가 나타난 만큼 정부는 관련 산업의 본격적인 육성에 강한 의지를 보여왔다. 세부적으로는 화상 진료 인프라를 구축하고, 의사가 영상을 보며 처방할 수 있도록 하는 등의 원격진료 방안이 거론되고 있는 상황이다.지난 2일 국무총리 주재로 열린 국정현안점검조정회의에서도 비대면 의료 서비스 확대를 검토한다는 내용이 언급된 바 있다.유현석 기자 guspower@asiae.co.kr▶ 2020년 하반기, 재물운·연애운·건강운 체크!▶ 네이버에서 아시아경제 뉴스를 받아보세요 ▶ 놀 준비 되었다면 드루와!  드링킷!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t>사진: 전자신문 DB'빨리 가려면 혼자 가고 멀리 가려면 함께 가라'는 아프리카 속담이 있다. 속담처럼 혼자 일을 추진하면 효율 높게 속도를 낼 수 있지만 장기로 보면 한계에 부닥칠 수 있다. 협업하면 초기에는 더딜지 몰라도 상생의 결과를 낼 공산이 높다.속담의 교훈은 현재 한국 원격교육 시장에도 적용된다. 정보기술(IT) 강국으로 불리는 우리나라에서 유독 교육 분야만은 IT 접목이 미흡했다. 공교육 영역에 산업이 들어오는 것은 금기시됐다. 교육과 산업을 별개로 본 이분법 사고가 작용했기 때문이다.한 에듀테크 기업 대표는 “지난날 교육부·학교 관계자를 만나 산업 이야기를 꺼내면 신성한 교육을 말하는데 왜 돈 이야기가 나오냐며 호통을 치는 경우가 대부분이었다”고 토로했다. 그 결과 공교육 시장에 진입한 에듀테크 기업이 거의 없었다. 교육과 산업이 각자의 길을 간 셈이다.최근 코로나19로 국내 교육과 산업 사이에 공고하게 쌓여 있던 벽이 한 번에 허물어졌다. 대면 수업이 불가능해지면서 정부와 에듀테크 기업이 급하게 손을 잡았다. 초기의 우려를 불식시키고 초·중·고등학교 원격 수업이 성공리에 수행됐다. 솔루션, 콘텐츠 등 에듀테크 기업의 숨은 노고가 없었다면 불가능한 일이었다. 이미 해외에서는 이 같은 국내 에듀테크 기업의 경쟁력에 주목하고 '러브콜'을 보내고 있다.한숨 돌린 정부는 이제 미래 교육을 위한 원격교육 시스템 구축 준비에 나섰다. 교육과 동시에 에듀테크 산업 육성을 위한 한국판 뉴딜도 준비하고 있다.그러나 산업계에서 또다시 우려의 목소리가 들려오기 시작한다. 과거처럼 정부가 산업계와 함께 가지 않고 정부 주도로 산업이 배제된 교육만을 위한 정책을 펼 것이라는 걱정에서다.이보다 앞서 영국 정부는 산업과 교육이 손을 잡고 함께 걸어가는 좋은 선례를 만들었다. 영국 정부는 에듀테크 기업을 육성할 뿐만 아니라 학교에 에듀테크 서비스를 적극 소개하는 플랫폼도 지원한다. 그 결과 에듀테크 산업이 성장했으며, 학교는 인공지능(AI) 등 기술의 도움을 받아 미래 교육으로 나아갔다. 우리나라에서도 교육부와 에듀테크 산업계가 함께 걸어가면서 산업과 미래 교육 두 마리 토끼를 잡길 기대한다.전지연기자 now21@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>산업부, 특허청과 함께 민·관 정책협의회 개최혁신기업 숙원 '자산 가치평가' 강화…금융권 조달↑아세안 10국·UAE·사우디 협력…신남방·신북방 협력확대공공데이터 공개 늘려…"포스트 코로나 전략수립"미래차·드론·AI·신재생에너지·IoT가전 특허 분석[아시아경제 문채석 기자]정부가 특허전략지원사업(IP R&amp;D)을 디지털 뉴딜과 그린 뉴딜 등에 확대 적용한다. 혁신기업의 숙원이었던 자산 가치평가 강화를 통한 기술금융 확대로 중소기업의 자금 조달 숨통을 틔운다.성윤모 산업통상자원부 장관은 6일 오후 3시 박원주 특허청장 등 특허 공공기관, 우수 중소·중견기업 대표들과 함께 민·관 정책협의회를 열었다. 지식재산 기반의 산업정책을 수립하기 위해서다.산업부와 특허청은 일본 수출규제에 대응해 소재·부품·장비 기술 국산화를 위해 협력했다. 20대 품목 등 소부장 핵심 품목 특허 72건을 창출하고, 중소기업 특허 분석을 지원해 R&amp;D 기간을 평균 6개월 줄였다.경상남도 창원시 LG전자 연구개발(R&amp;D)센터에 있는 물과학연구소 직원들이 연구를 하는 모습.(사진제공=LG전자)앞으로는 산업 지능화, IP-R&amp;D, 지식재산금융, 해외 진출 등에서 정책 협력을 강화해 나간다.특허, 표준, 인증, 연구개발(R&amp;D), 에너지 등 공공데이터 개방과 공유를 늘린다. 데이터와 인공지능(AI)을 산업에 적용해 부가가치를 높이기 위해서다.지난달 18일 개소한 특허 빅데이터 센터를 통해 미래차와 드론, AI, 신·재생에너지, 사물인터넷(IoT) 가전 등 5개 업종의 특허 분석을 해 산업부의 포스트코로나 정책 수립에 적극 활용한다.지난해엔 반도체, 디스플레이, 수소산업, 차세대전지, 바이오헬스 등 분석을 했다.앞으로 전문가의 '감' 위주로 R&amp;D를 기획하지 않고, 과학적인 특허 데이터를 중심으로 방향을 짠다. IP R&amp;D는 기술개발 초기에 특허를 분석해 최적의 개발 방향을 설정하는 사업이다.지난해 IP R&amp;D를 소부장 분야에 적용해 산업부가 300여개 과제를 뽑아냈다. 올해엔 다른 분야, 특히 디지털 뉴딜과 그린 뉴딜 등에 적용한다.금융권에서 우수 지식재산권(IP)을 보유한 중소기업을 키우고, 특허를 담보로 금융 지원을 받도록 한다.산업부와 특허청이 함께 90억원의 가치평가 비용을 지원한다.  기술은행(NTB), 온라인 특허 거래 플랫폼(IP-Market) 등을 통한 기술거래 정보 공유를 확대한다.신남방, 신북방으로의 보폭을 늘린다. '한-동남아시아국가연합(ASEAN) 산업기술혁신기구'와 연계해 특허청의 특허 시스템을 보급한다.우리 특허청은 세계 20개국의 국제조사를 대행하고 있다. 현재 아랍에미리트(UAE)와 사우디아라비아에 지재권 전문가를 보내 심사를 대행하는 중이다.또 'K-브랜드'를 보호하기 위해 '해외지식재산센터'를 중동과 중남이 신흥국으로 확대한다. KOTRA에서 해외 진출 예정 기업을 발굴하고 지재권 교육 등을 한다.성 장관은 "신종 코로나바이러스감염증(코로나19)으로 어느 때보다 어려운 상황이지만, 이럴 때일수록 무턱대고 앞으로 나가기보다 최적의 방향을 찾기 위해 심사숙고해야 한다"며 "그간 쌓아온 객관적이고 가치 있는 데이터인 특허를 바탕으로 산업정책 방향을 설정한다면 정책 추진의 시행착오를 최소화할 수 있을 것"이라고 말했다.산업부는 이날 회의 이후 특허청과의 협력을 강화해 나갈 예정이다. 향후 업종별 정책협의회를 지속 개최해 논의를 구체화한다. 세종=문채석 기자 chaeso@asiae.co.kr▶ 2020년 하반기, 재물운·연애운·건강운 체크!▶ 네이버에서 아시아경제 뉴스를 받아보세요 ▶ 놀 준비 되었다면 드루와!  드링킷!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t>전자과, 미용계열 피부미용전공 등 2개 학과 선정 … 학과별로 20명 규모 인력 양성과정 운영동의과학대학교(총장 김영도)가 부산시 ‘2020년 대학 학과별 맞춤형 취업지원사업’에 선정됐다.부산시가 주관하는 대학 학과별 맞춤형 취업지원사업은 대학과 기업이 채용을 약정하고 채용을 전제로 기업이 요구하는 맞춤형 교육을 실시해 청년 취업난 해소 및 일자리 매칭을 지원하는 사업이다.3일 부산시는 본 사업에 선정된 8개 대학을 발표했으며, 동의과학대학교는 전자과, 피부미용전공 등 2개 학과가 선정돼 시비 7,700여만 원을 지원받아 사업을 수행할 예정이다.전자과는 ‘AI기반 IoT융합 제품제작 실무과정’을 개설한다. 드론, 아두이노 제어 등의 IoT분야와 시제품 제작 및 부품가공의 3D프린터 융합 기술을 아우르는 직무능력 향상 교육으로, 올해 하반기부터 졸업(예정)자 20명을 선발할 예정이다. 또한, 전자과는 이러한 사업과 더불어 인공지능 교육을 강화하기 위해 내년도부터 학과 명칭을 ‘AI전자과’로 개칭한다.미용계열 피부미용전공은 20명 규모의 ‘뷰티헬스코디네이터 전문인력 양성과정’을 운영한다. 뷰티헬스코디네이터는 항노화 및 의료관광산업에서 전문적인 피부미용 관련 서비스를 제공하는 신 직업군으로, 250시간에 이르는 교육과정을 통해 미용사(피부) 국가자격, 병원코디네이터, 아로마테라피스트 등 관련분야 자격증 취득을 취득할 수 있다.고석조 산학협력단장은 “최근 코로나-19 장기화로 국내외를 막론하고 민간기업의 일자리가 축소되고 있는 실정이지만, 이번 사업을 통해 학생들의 취업역량을 강화하고 좋은 일자리를 발굴하여 직접 연결하는 등 체계적인 취업지원에 대학이 앞장서 나가겠다.”고 말했다.한편, 동의과학대학교는 지난달 3일 ‘전문대학 혁신지원사업 1차년도 연차평가’에서 우수등급에 해당하는 A등급을 획득해 지난해보다 20억 원이 증액된 54억여 원의 사업운영비를 확보하게 되었다.정순형 선임기자 junsh@busan.com▶ 네이버에서 부산일보 구독하기 클릭!▶ '터치 부산' 앱 출시, 부산일보 지면을 내 손 안에!▶ 부산일보 홈 바로가기</t>
+  </si>
+  <si>
+    <t>▲ 서울과학종합대학원 경영대학원(aSSIST)은 경영학 석박사 전체 교육과정과 연구시스템에서 머신러닝, 딥러닝 등 인공지능(AI) 과목을 강화한다고 6일 밝혔다.    이에 따라 향후 재학생들은 AI 필수교육을 이수해야 졸업할 수 있다. 이수 학생들에게는 블록체인에 기록되는 AI 교육 이수증을 발급한다.    합성곱 신경망(CNN), 순환 신경망(RNN), 적대 신경망(GAN) 등 AI 핵심 알고리즘 기술 원리뿐만 아니라 AI를 실제 비즈니스에 도입하기 위한 전략과 응용 사례를 집중적으로 교육한다.    경영학 석사(MBA) 과정의 개별 교육과정 명칭도 변경된다. 빅데이터 MBA는 AI·빅데이터로, 크립토 MBA는 AI·크립토 MBA로 이름이 바뀐다.    경영학 박사 과정에서는 AI 기반 연구방법론을 전면 도입하고 고급 통계 분석, 데이터 마이닝, 머신러닝, 딥러닝 등 최신 데이터 과학을 다룬다.    아울러 신종 코로나바이러스 감염증(코로나19) 등 실제 사회과학 문제를 AI 기반으로 풀어내는 연구와 논문을 집중적으로 지도할 예정이다.    또 빅데이터를 기반으로 학교 전체 교무 행정과 학사 행정 시스템을 구축해 AI를 통한 디지털 교육 행정 환경을 운영한다.    이를 위해 전체 교수 및 직원에게 AI 전문 교육을 하고 재학생 및 졸업 동문을 위한 aSSIST 온라인 AI 학회를 진행한다.    정기 지식 교류 세미나인 온라인 학회에서는 AI 분야 산업 전문가, 투자자, 정부 관계자들의 특강을 실시할 계획이다.    김문수 부총장은 "경영학이 기술혁명의 뒤에서 사례를 발굴하는 후행적 교육에 머물러서는 안 되며 기술 혁명과 산업 전략을 이끄는 선행적 교육이 돼야 한다"며 "수준 높은 교육을 추구하며 기술과학과 사회과학을 융합해 종합 전략을 제시하는 모범 교육 사례를 실천하겠다"고 말했다. (연합뉴스)▶코로나19 속보는 네이버 연합뉴스[구독 클릭]▶[팩트체크]차별금지법안, 성 소수자 어떤 내용?▶제보하기</t>
+  </si>
+  <si>
+    <t>[디지털데일리 최민지기자] KT는 정부가 추진하는 한국판 뉴딜 사업에 적극 대응하기 위해 태스크포스(TF)를 신설하고, 기업부문 박윤영 사장이 프로젝트를 직접 진두지휘한다. 입찰 담합에 따른 KT 공공입찰참가 제한이 이달 말 해제되는 만큼, 국가 및 공공사업에 본격 뛰어들겠다는 의지로 해석된다.   KT(대표 구현모)는 ’한국판 뉴딜 협력 TF’ 조직을 신설하고, 정보통신기술(ICT) 핵심역량을 동원해 사업 협력방안을 마련한다고 6일 밝혔다. KT 기업부문 박윤영 사장이 TF장을 맡고 ▲기업(B2B) ▲인공지능(AI) ▲5G ▲클라우드 ▲네트워크 ▲신사업 ▲연구개발 등 각 분야에서 200여명 이상 임직원이 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대될 예정이다.   정부는 코로나19발 경기침체로 인한 위기 기업과 노동자 지원이라는 취지에 맞춰 추경안 통과 후 3개월 내 뉴딜 사업을 추진한다고 밝힌 바 있다. 이에 TF는 5G‧기가인터넷 등 네트워크 인프라, AI‧빅데이터 기술, KT 중소협력사 얼라이언스 등의 역량을 기반으로 한국판 뉴딜 사업에 참여해 빠른 실행을 지원할 계획이다.   한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고, 산업의 디지털화를 가속해 새로운 일자리를 창출하기 위한 국가 프로젝트다. ‘디지털 뉴딜’과 ‘그린 뉴딜’ 2대 축으로 구성되며, 디지털 뉴딜은 ▲디지털 인프라 구축 ▲비대면 산업 육성 ▲사회간접자본 디지털화를 중심으로 추진된다.   디지털 인프라 구축을 통한 경제활성화 측면에서 KT는 5G 전국 커버리지 확보, 5G 단독모드(SA)와 28Ghz 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 지난해 5G 인프라 투자를 늘려 전년 대비 약 두 배인 2조1000억원을 가입자망에 투입한 바 있다. 올해에도 시장활성화를 위해 통신인프라에 전년 수준 투자를 유지할 계획이다.   비대면 산업 육성 측면에서 KT는 언택트(비대면) 기술 적용을 위해 다양한 기업 및 기관들과 협업하고 있다. 서울아산병원과는 비대면 영상솔루션과 언택트 진료환경을 마련하고, 현대중공업그룹과는 현대로보틱스에 500억 지분투자를 통한 지능형 서비스로봇 개발에 나서기로 했다.   공동구와 재난대응 관련 시설에 디지털 안전관리 체계를 구축하는 SOC 디지털화에 협력하기 위해 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 혁신 기술을 개발했다.   KT가 현재 운용·관리하고 있는 전국의 외부 통신시설은 통신구 230개(286km), 통신주 469만개, 맨홀 79만개인데 기지국‧서버 등 통신장비 안정적 운영을 위해 디지털 기술 기반 재난대응은 필수적이다. KT는 5G·AI 기반의 화재감지, 침수감지 등 차세대 OSP 관리시스템을 통해 통신 인프라 설계, 운용, 관제, 장애복구 영역의 효율성 및 안정성을 동시에 확보했다.  TF는 사업 추진 준비 외에도 ▲스마트화를 통한 협력사‧소상공인 상생방안 도출 ▲4차산업혁명 시대 미래 인재와 시니어 정보통신기술(ICT) 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 ▲세계 최고 수준 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 방침이다  KT 기업부문 박윤영 사장은 “코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다”며 “KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다”고 말했다.   &lt;최민지 기자&gt;cmj@ddaily.co.kr▶ 네이버에서 디지털데일리 채널 구독하기▶ IT정보의 즐거운 업그레이드 [딜라이트닷넷]&lt;저작권자 © 디지털데일리 무단전재-재배포금지&gt;</t>
+  </si>
+  <si>
+    <t>AI, 5G 등 각 분야 200여명 임직원 참여"기술과 네트워크, 인적역량으로 코로나 극복"KT는 '한국판 뉴딜 협력 태스크포스(TF)' 조직을 신설해 정부가 추진하는 '디지털 뉴딜'의 빠른 실행을 지원하겠다고 6일 밝혔다.  이번 TF는 박윤영 KT 기업부문 사장이 TF장을 맡는다. B2B, 인공지능(AI), 5세대(5G), 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 사진=KT제공KT는 정부가 추진하는 '한국판 뉴딜' 사업의 빠른 실행을 지원하기 위해 '한국판 뉴딜 협력 태스크포스(TF)' 조직을 신설한다고 6일 밝혔다.박윤영 KT 기업부문 사장이 TF장을 맡아 프로젝트를 직접 지휘하고, B2B(기업간 거래), AI(인공지능), 5G(5세대 통신), 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대할 계획이다. 한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고, 산업의 디지털화를 가속해 새로운 일자리를 창출하기 위해 정부가 추진하는 프로젝트다. '디지털 뉴딜'과 '그린 뉴딜' 2대 축으로 구성되며, 디지털 뉴딜은 디지털 인프라 구축, 비대면 산업 육성, 사회간접자본 디지털화를 중심으로 추진된다.앞서 정부는 '코로나19발 경기침체로 인한 위기의 기업과 노동자 지원'이라는 취지에 맞춰 추경안 통과 후 3개월 안에 빠르게 뉴딜 사업을 추진한다고 밝힌 바 있다. KT TF는 5G 및 GiGA(기가)인터넷 등 네트워크 인프라, AI와 빅데이터 기술, KT 중소협력사 얼라이언스 등의 역량을 기반으로 한국판 뉴딜 사업에 참여해 빠른 실행을 지원할 예정이다.디지털 인프라 구축을 통한 경제활성화 측면에서 KT는 5G 전국 커버리지 확보, 5G SA와 28Ghz(기가헤르츠) 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 지난해 세계 최초로 5G를 상용화 하기 위해 인프라 투자를 늘려 2018년 대비 약 두 배인 2조1000억원을 투자한 바 있다.비대면 산업 육성 측면에서 KT는 언택트(비대면) 기술 적용을 위해 다양한 기업, 기관들과 협업하고 있다. 서울아산병원과는 비대면 영상솔루션과 사물인터넷 기기, 로봇 등을 활용한 언택트 진료환경 개발을 진행하기로 했다.또 현대로보틱스에 500억원 지분투자를 해 지능형 서비스로봇 개발에도 나선다. 이밖에 화상 솔루션을 활용한 비대면 결혼식과 대학 응원전, VR(가상현실) 교육 등 다양한 비대면 사업 경험과 역량을 축적 중이다. 사회간접자본 디지털화에도 나선다. KT는 5G·AI 기반의 화재감지, 침수감지 등 차세대 OSP(외부통신시설) 관리시스템도 구축했다.TF는 사업 추진 준비 외에도 ▲스마트화를 통한 협력사·소상공인 상생방안 도출 ▲4차산업혁명 시대 미래 인재와 시니어 ICT(정보통신기술) 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 ▲K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다.박윤영 기업부문 사장은 "코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다"라며 "KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 다른 산업의 혁신을 이끌 수 있도록 하겠다"고 말했다.조아라 한경닷컴 기자 rrang123@hankyung.com▶ 네이버에서 한국경제 뉴스를 받아보세요▶ 한경닷컴 바로가기  ▶ 모바일한경 구독신청 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>동의과학대학교[부산=뉴시스] 하경민 기자 = 동의과학대학교가 부산시의 '2020년 대학 학과별 맞춤형 취업지원' 사업에 선정됐다. 대학이 채용을 전제로 기업이 요구하는 맞춤형 교육을 해 청년 취업난 해소와 일자리 매칭을 지원하는 사업이다. 동의과학대는 전자과, 피부미용전공 등 2개 학과가 선정돼 시비 7700여만원을 지원받아 사업을 수행하게 된다. 전자과는 'AI기반 IoT융합 제품제작 실무과정'을 개설한다. 이를 통해 드론, 아두이노 제어 등의 IoT분야와 시제품 제작 및 부품가공의 3D프린터 융합 기술을 아우르는 직무능력 향상을 교육한다.전자과는 하반기부터 졸업(예정)자 20명을 선발할 예정이며, 인공지능 교육을 강화하기 위해 내년부터 학과 명칭을 'AI전자과'로 변경할 계획이다. 또 미용계열 피부미용전공은 20명 규모의 '뷰티헬스 코디네이터 전문인력 양성과정'을 운영한다. 뷰티헬스코디네이터는 항노화 및 의료관광산업에서 전문적인 피부미용 관련 서비스를 제공하는 새로운 직업군으로, 250시간에 이르는 교육과정을 통해 미용사(피부) 국가자격, 병원코디네이터, 아로마테라피스트 등 관련분야 자격증을 취득할 수 있다.고석조 동의과학대 산학협력단장은 "최근 코로나19 장기화로 국내외를 막론하고 민간기업의 일자리가 축소되고 있는 실정이지만, 이번 사업을 통해 학생들의 취업역량을 강화하고 좋은 일자리를 발굴해 직접 연결하는 등 체계적인 취업지원에 대학이 앞장 서겠다"고 밝혔다.한편 동의과학대는 지난달 '전문대학 혁신지원사업 1차년도 연차평가'에서 우수등급에 해당하는 'A'를 획득해 지난해 보다 20억원이 증액된 54억원 상당의 사업운영비를 확보하게 됐다.☞공감언론 뉴시스 yulnetphoto@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>6일 한컴그룹은 계열사인 한컴위드가 ‘한컴 말랑말랑 행복케어’를 출시하고 노인돌봄 서비스에 진출한다고 밝혔다. /사진=한컴위드한글과컴퓨터가 노인돌봄 서비스에 진출한다.6일 한컴그룹은 계열사인 한컴위드가 ‘한컴 말랑말랑 행복케어’를 출시하고 노인돌봄 서비스에 진출한다고 밝혔다.이 서비스는 디지털 소외계층인 노년층을 대상으로 치매예방 인지훈련 가상현실(VR) 서비스와 상호 교감이 가능한 인공지능(AI) 로봇 활용 프로그램을 제공하고 노인들의 활력징후를 24시간 측정·추적하는 헬스케어 서비스를 제공한다. 교육을 받은 요양사가 노인들의 상태를 체크하며 식자재도 엄선해 공급한다.한컴위드는 다음달 17일 서울 도봉구, 수원 팔달구, 경기 용인시, 부산 해운대구, 제주 서귀포시 등에 매장을 운영하고 2023년까지 전국에 3000개의 데이케어센터를 확보한다는 계획이다.데이케어센터는 만 65세 이상 노인장기요양 3~5등급 인지지원 등급에 해당하는 시니어를 위한 시설이다. 정부가 이용금액의 85%를 지원하고 간호사와 요양보호사가 노인들의 신체, 인지, 정서 기능 향상을 위한 기능을 제공한다. 한컴 측은 2020년 기준 데이케어센터의 관리를 받을 수 있는 이용자는 65만명에 달하지만 시설은 턱없이 부족해 보급률 20% 수준에 그친다고 설명했다.김현수 한컴위드 대표는 “베이비부머 세대의 은퇴가 본격화되기 시작한 만큼 시니어 산업의 성장성에 주목하고 있다”며 “국내 데이케어센터의 서비스 수준을 한 차원 높임과 동시에 인프라 확충에도 기여할 것으로 기대하며 장기적으로 빅데이터 분석을 통해 다양한 시니어케어 서비스 개발에 나설 계획”이라고 말했다.박흥순 기자 soonn@mt.co.kr▶ 고수들의 재테크 비법 영상▶거품 뺀 솔직 시승기 ▶ 코로나19 속보 &lt;저작권자 ⓒ '성공을 꿈꾸는 사람들의 경제 뉴스' 머니S, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>하동군, 100억 들여 내년 말 완공"세계적 인문학 테마 랜드마크로"6일 하동공원에서 열린 '하동상상도서관' 기공식에서 윤상기 하동군수가 인사말을 하고 있다. 하동군 제공 경남 하동군은 섬진강이 한 눈에 들어오는 하동공원에 세계적인 인문학 테마 랜드마크 '상상도서관'을 건립키로 하고 6일 기공식을 했다고 밝혔다.상상도서관은 문화 플랫폼 구축을 통해 '문학수도 하동' 선점과 문화교육 도시로 도약하기 위해 윤상기 군수의 민선 7기 공약사업으로 추진된다.내년 말 완공 목표로 국비ㆍ군비ㆍ민간자본 등 100억원을 들여 하동읍 광평리 하동공원 1만799㎡ 터에 지상 4층 연면적 2,735㎡ 규모로 건립된다.도서관 1층은 로비 홀과 북카페, 열람실 등이 들어서고, 2~3층은 열람실, 4층은 관장실 및 사무실 등이 배치된다.특히 도서관 옥상은 기존의 일반적인 건물형태에서 벗어나 경사진 계단 형태의 정원과 전망대로 조성돼 도서관을 찾는 사람이면 누구나 섬진강 등을 조망할 수 있다.군은 상상도서관이 종합정보센터로서 군민의 정보 접근권을 확대하고, 고령화 시대 어르신은 물론 아동ㆍ청소년, 귀농ㆍ귀촌인, 결혼이민자 등 군민 구성원 모두를 위한 전통과 정보기술(IT)이 결합한 신개념 도서관 역할을 할 것으로 하동군은 기대한다.윤상기 하동군수는 "상상도서관은 인공지능을 통한 다양한 정보 서비스가 제공되고 누구나 쉽게 접근할 수 있는 공간을 조성해 문화도시로서의 기반을 마련해 세계적인 인문학 테마 랜드마크가 될 것"이라고 말했다.이동렬 기자 dylee@hankookilbo.com▶ 네이버 채널에서 한국일보를 구독하세요!▶ [정치채널X] [뉴스보야쥬] [밀크] 영상보기▶ 한국일보닷컴 바로가기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [파이낸셜뉴스] 서울과학종합대학원(aSSIST) 경영대학원이 경영학 석박사 전체 교육 과정과 연구시스템에 인공지능(AI) 과목을 강화하며 AI 대학원으로 탈바꿈에 나선다.   aSSIST 경영대학원은 6일 석박사 모든 과정에 머신러닝, 딥러닝 등 AI 전문 교육을 대폭 강화한다고 밝혔다. 앞으로 재학생들은 AI 필수 교육을 이수해야 졸업이 가능하며 이수 학생들에게는 블록체인에 기록되는 AI 교육 이수증이 발급된다.   CNN, RNN, GAN 등 AI의 핵심 알고리즘의 기술적 원리뿐만 아니라 AI를 실제 비즈니스에 도입하기 위한 전략과 최신 응용 사례도 집중적으로 교육한다.   석사과정 MBA의 개별 교육 과정 명칭도 변경된다. 빅데이터 MBA는 AI·빅데이터로 개편되고 크립토 MBA는 AI·크립토MBA로 개편한다.   경영학 박사 과정은 AI 기반 연구방법론을 전면 도입하고 고급 통계 분석, 데이터 마이닝, 머신러닝, 딥러닝 등 최신 데이터 과학을 심도 있게 다룬다. 더불어 코로나19 등 실제 사회과학 문제를 AI 기반으로 풀어내는 연구와 논문을 집중적으로 육성한다.   또 학교 전체의 교무 행정과 학사 행정 시스템을 빅데이터 기반으로 구축해 교육 행정 전체를 디지털로 전환, AI 기반으로 운영한다. 이를 위해 전체 교수 및 직원에게 AI 전문 교육을 아낌없이 투자할 계획이다.   aSSIST 경영대학원 김문수 부총장은 “경영학은 더는 기술혁명의 뒤에서 사례나 발굴하는 후행적 교육에 머물러서는 안 되고 기술 혁명과 산업 전략을 앞에서 이끄는 선행적 교육이 돼야 한다”며 “aSSIST 경영대학원은 단순한 AI 교육을 넘어서 전 세계 AI 연구자들에게 이바지할 수 있는 수준의 눈높이를 추구하며 기술과학과 사회과학을 융합한 종합 전략을 제시하는 교육의 모범 사례를 실천하겠다”고 말했다.    hoya0222@fnnews.com 김동호 기자   ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>(주)코맥스벤처러스(변우석 대표)는 정보통신기술(ICT) 분야 스타트업의 해외 진출과 투자를 지원하는 프로그램인 'K-글로벌 액셀러레이터 육성사업'(프로그램명: 벤처러스 클래스 2020)의 참가팀 모집과 선정을 완료하고 프로그램을 본격적으로 시작한다고 밝혔다. '벤처러스 클래스 2020'의 최종 참가팀은 창업 3년 이하의 스타트업 6개사와 예비창업 2팀이 선정되었다.  지난 3일 오후 서울 강남에 위치한 코맥스벤처러스 팁스타운센터 1층 행사장에서 열린 '벤처러스 클래스 2020' 킥오프 행사에는 네이처모빌리티, 누비랩, 블랙와이더, 올보이스, 인사이저, 메디인테크, 에이슬립, 워프 임원을 비롯하여 유관기관 담당자들이 참석하여 프로그램 소개와 담당자 인사 등을 진행했다.   11월 30일까지 진행되는 '벤처러스 클래스 2020'는 약 5개월간 기업별 진단 멘토링, 맞춤형 스케일업 멘토링/교육, 투자유치 역량 강화 코칭/세미나를 비롯하여 해외 프로그램 및 IR/데모데이 등을 참가 스타트업들에게 제공한다. 김경숙 코맥스벤처러스 수석심사역은 "프로그램에 참여한 스타트업에게는 해외 시장 진출 기회 제공과 투자유치 지원이라는 실질적인 도움을 받게될 것"이라며 "코맥스벤처러스는 유럽 시장 진출과 투자 유치에 특화된 액셀러레이터사"라고 소개했다. 또"신종코로나바이러스감염증(코로나19) 사태로 인해 해외 프로그램 진행이 불가할 경우 등을 충분히 고려하여 대안 프로그램 마련에도 최선을 다하고 있다"고 덧붙였다.  'K-글로벌 액셀러레이터 육성사업'은 과학기술정보통신부가 매년 민간 액셀러레이터를 선정하여 초기 창업자 발굴과 성장 지원을 위탁하는 사업으로 올해 인공지능(AI)·5세대(5G) 이동통신·블록체인 등 4차 산업혁명 대응에 특화된 액셀러레이터를 모집하여 코맥스벤처러스를 포함하여 6곳을 선발했다.한편, 이번 행사는 참석자의 체온 측정과 손 소독 등 코로나19 생활방역 지침을 준수해 진행됐다. (여동은 기자 deyuh@mydaily.co.kr)- ⓒ마이데일리(www.mydaily.co.kr). 무단전재&amp;재배포 금지 -</t>
+  </si>
+  <si>
+    <t>100억 들여 내년 말 완공…옥상에 계단 형태 정원·전망대 조성하동 상상도서관 조감도[하동군 제공. 재판매 및 DB 금지](하동=연합뉴스) 지성호 기자 = 경남 하동군은 6일 하동공원에서 상상도서관 기공식을 했다.    상상도서관은 문화 플랫폼 구축을 통해 문학수도 하동 선점과 문화교육 도시로 도약하고자 민선 7기 군수 공약사업으로 추진된다.    상상도서관은 내년 말 완공 목표로 하동읍 광평리 하동공원 1만799㎡ 터에 지상 4층 연면적 2천735㎡ 규모로 건립된다.    국비·군비·민간자본 등 100억원이 들어간다.     1층에는 로비 홀과 북카페, 열람실 등이 들어서고, 2층과 3층은 열람실, 4층은 관장실 및 사무실 등이 배치된다.    특히 도서관 옥상은 경사진 계단 형태의 정원과 전망대로 조성돼 도서관을 찾는 사람이면 누구나 섬진강 등을 조망할 수 있다.    상상도서관이 종합정보센터로서 군민의 정보 접근권을 확대하고, 고령화 시대 어르신은 물론 아동·청소년, 귀농·귀촌인, 결혼이민자 등 군민 구성원 모두를 위한 전통과 정보기술(IT)이 결합한 신개념 도서관 역할을 할 것으로 하동군은 기대한다.    윤상기 하동군수는 "상상도서관은 인공지능을 통한 다양한 정보 서비스가 제공되고 누구나 쉽게 접근할 수 있는 공간을 조성해 문화도시로서의 기반을 마련할 것"이라고 말했다.    shchi@yna.co.kr▶코로나19 속보는 네이버 연합뉴스[구독 클릭]▶[팩트체크]차별금지법안, 성 소수자 어떤 내용?▶제보하기</t>
+  </si>
+  <si>
+    <t>“지난 2년간 있었던 공공부문 혁신보다 최근 2∼3개월 동안 이뤄진 혁신이 더 많다. 의료, 교육 등 다양한 공공 분야에서 클라우드 기반으로 민첩하게 시스템을 구현하고 대국민 서비스를 선보였다.”피터 무어 아마존웹서비스(AWS) 아태지역 공공부문 총괄은 코로나19 이후 글로벌 공공부문 클라우드 도입 가속화 분위기를 이 같이 강조했다.무어 총괄은 “최근 몇 달간 공공부문 클라우드 기반 디지털 전환과 혁신 속도는 전례 없던 것이었다”면서 “코로나19가 장기화하면서 주요 시스템을 클라우드 기반에서 안정적 지원하는 데 주력한다”고 말했다.코로나19 이후 주요국은 공공 서비스 개발과 배포에 클라우드를 활용했다.인도는 코로나19로 봉쇄령을 내린 후 핵심 서비스를 제공하는 근로자 대상 통행증을 발급했다. 디지털 통행증 관리 시스템을 AWS 클라우드에서 72시간 내 구축했다. 시스템을 선보인 후 5만개 기업과 기관에서 60만장가량 하루 통행증을 발급했다. 클라우드 덕분에 단기간에 안정적 시스템 구현이 가능했다.미국은 코로나19 이후 경제 침체로 갑자기 수백만명이 실업 보험에 가입하게 됐다. 미국 로드아일랜드 노동부는 노후된 레거시 시스템을 열흘 만에 AWS 클라우드로 옮겼다. 기존 시스템에서 처리 가능한 콜센터 통화량을 74통에서 1000통 이상으로 늘렸다. 실업 보험 수요에 빠르게 대응해 주목받았다.우리나라도 공공 관련 클라우드 도입이 늘었다.윤정원 AWS코리아 공공부문 대표는 “의료 스타트업 메디칼아이피가 세계 코로나 감염 환자 2만명 CT 이미지를 인공지능(AI) 기반으로 분석한다”면서 “AWS 고성능컴퓨팅(HPC) 도입 후 기존 한 달 걸리던 분석 시간을 일주일로 단축하는 등 클라우드 관련 서비스가 코로나19 상황에 신속 대응 가능한 환경을 제공한다”고 말했다.AWS는 포스트 코로나 시대에 공공 클라우드 도입이 더 탄력 받을 것으로 내다봤다.무어 총괄은 “코로나19에 대응하기 위한 솔루션 개발, 사회적 거리두기(비대면)를 위한 신기술 도입·활용, 레거시 환경에서 불가능한 것을 해결하기 위한 솔루션 등으로 클라우드가 주목받을 것”이라면서 “코로나 대응 시 클라우드로 대국민 서비스를 민첩하게 개발한 경험이 공공분야 시스템을 클라우드 기반으로 바꾸는 데 촉매제 역할을 할 것”이라고 기대했다.김지선기자 river@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>얼마 전 한 선배가 푸념을 늘어놓았다. 손녀가 올해 초등학교에 입학했는데 코로나19로 몇 달을 학교에 가지 못해 새로 산 가방과 실내화를 쓰지도 못하여 속상해했다고 한다. 이제는 그나마 일주일에 한 번 학교에 가지만 사회적 거리두기로 인해 친구들과 학교에서 제대로 놀지도 못하고 돌아와 또 속상해하는 걸 보니 본인이 더 속상하더라는 얘기였다. 일각에서는 이 세대를 바이러스로 인해 이전 세대와는 다른 삶의 행태를 보일 것이라고 해 ‘V세대’라고 칭하기도 한다는 얘기를 들었다.인류는 현재 역사상 가장 기묘한 시기를 살아가고 있다. 어쩌면 지구가 하나의 거대한 실험실이 됐다고 해도 이상하지 않을 만큼 전례 없는 경험을 하고 있다. 관중 없이 경기하는 스포츠, 몇 달째 이어지는 재택근무, 학교는 가보지도 못한 채 진행되는 화상수업, 테이블은 치우고 포장만 가능한 식당, 온라인 종교활동 등 가장 상상력이 뛰어난 작가도 상상 못 했을 법한 상황이 이제는 일상이 되고 있다.개인의 삶뿐 아니라 전 사회의 모든 영역에서 엄청난 영향을 미치고 있는 이 위기 상황은 쉽게 끝날 것 같지 않다. 상황이 지속될수록 사회의 약한 고리부터 끊게 됨으로써 지금까지 인류를 지탱한 유대감이 상실될 수 있기에 더욱 우려스럽다. 이미 수면 위로 올라온 인종, 세대, 계층을 망라한 갈등이 터짐에 따라 상황이 종료된 이후에도 심리적인 트라우마는 남아 있을 것 같다. 유사한 상황이 반복될 수 있다는 경고도 계속 제기되고 있다.이 상황은 한 개인이나 기업, 국가가 해결할 수 있는 수준을 넘어선 지 오래다. 자칫 방치돼 아무도 해결하려는 노력을 하지 않을 수도 있다. 결국 기업과 정부, 지역사회, 산업계가 모인 광범위한 ‘초협력’이 절실히 필요하다. 이 초협력은 단지 코로나19 사태 해결만이 아니라 현재 전 세계가 맞닥뜨리고 있는 난제인 기후 변화, 디지털 격차 해소, 난치병 극복 등을 위해서도 필요하다.일례로 내가 몸담고 있는 인텔에서는 최근 ‘팬데믹 대응 기술 이니셔티브’라는 이름의 코로나19에 대한 대응책을 발표하며 자사뿐 아니라 파트너들의 참여를 독려했다. 인텔이 보유한 전문성과 자원, 기술을 외부와 공유해 보다 빠르게 바이러스를 진단 및 치료하고 백신을 개발할 수 있도록 지원하는 것이 골자다.여기에서 한발 더 나아가 업계 연합체를 구성해 현재와 미래에 발생 가능한 전염병에 대비할 수 있는 역량을 갖출 수 있도록 지원하고 있다. 교육계 비영리 단체와 비즈니스 파트너를 지원해 기술 접근성이 떨어지는 학생들이 사용할 수 있는 기기를 제공하는 것은 물론, 가정 내 학습이 가능하도록 돕는 다양한 자원을 제공하고 있다.또한 국내 의료 인공지능 전문기업인 제이엘케이를 지원해 현장에서 감염병 검사를 할 수 있고 데이터를 엣지와 클라우드에서 수집 분석할 수 있는 기술을 고도화하고 있는 사례도 있다.초협력은 기업이 시민사회의 구성원으로서 당연히 가져야 하는 사회적 책임이라는 차원에서만이 아니라, 이제는 경영의 관점에서 바라봐야 할 때가 된 것 같다.단지 ‘좋은 일’을 하는 것이 아니라 지구상의 난제들을 어떻게 해결할 수 있을 것이며, 거기에 기업이 가진 전문성과 기술을 어떻게 기여할 수 있을 것인가에 대한 고민과 실천이 수반돼야 할 시점이 바로 지금이다.권명숙 인텔 코리아 사장▶코리아헤럴드 플립화상영어 무료체험▶헤럴드경제 네이버 채널 구독 ▶농수축산물 소비캠페인 - Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>반환점 돈 민선7기…이석문 제주도교육감IB도입에 집중했던 지난 2년…고교체제개편과 지역균형발전 IB성공의 핵심은 교사역량, 이제껏 경험해보지 못한 교육과정지역에 IB초중고 교육과정 연결…중장기적으로 KB까지 가야제주외고 일반고 전환, 일몰제로 인한 현실적인 문제과대, 과밀학급 문제…코로나19가 소규모 학교에 대한 수요 많아져‘학교 밖 청소년’ 책임의 주체는 제주도와 협의할 것[제주CBS 류도성 아나운서]제주특별자치도교육청 이석문 교육감■ 방송 : CBS 라디오 &lt;시사매거진 제주&gt; FM 제주시 93.3MHz, 서귀포 90.9MHz (17:05∼18:00)■ 방송일시 : 2020년 7월 2일(목) 오후 5시 5분■ 진행자 : 류도성 아나운서■ 대담자 : 제주특별자치도교육청 이석문 교육감민선7기의 임기가 이제 반환점을 돌았습니다. 오늘은 취임 2주년을 맞는 도내 단체장 가운데 제주교육의 수장을 만나보겠습니다. 2년 전, ‘아이 한 명, 한 명이 존중받는 제주교육’을 실현하겠다고 출범한 이석문 교육감 체제의 2년 돌아보구요. 남은 2년의 계획도 점검해보겠습니다. 자리에 직접 나오셨는데요. 교육감님 안녕하세요?◇ 류도성&gt; 반갑습니다. 시간이 참 빠르죠? 벌써 2년 지났는데 소회가 어떠세요?◆ 이석문&gt; 어떻든 지난 2년 동안의 생각보다는 올 1월부터 시작된 코로나19가 온통 전 세계적으로 그리고 지금 제주도도 같이 블랙홀처럼 빨려 들어가고 있고, 코로나19로 드디어 대한민국뿐 아니라 인류사가 진정한 21세기로 들어서지 않았는가 이런 생각이 들면서 근본적으로 다시 한 번 교육철학, 가치, 시스템들을 점검해야하는, 그리고 그 점검의 결과로 나타난 격차들을 어떻게 해결하면서 미래에 대응할 것인가란 근본적 고민들을 많이 하게 됩니다.◇ 류도성&gt; 코로나 이야기는 나중에 자세히 해보고요. 취임하시면서 세운 계획들이 많이 있으셨잖습니까? 잘 진행되고 있습니까?◆ 이석문&gt; 현재 공약실천위원회에서 자체적으로 점검한 결과 큰 무리 없이 진행되고 있다. 특히 가장 우려됐던 서부중학교 같은 경우도 토지매입과 관련해서 잘 진전되고 있어서 예정보다는 조금 늦어질 순 있지만 정상적인 절차들을 밟아 나갈 수 있게 됐다는 게 큰 의미입니다.◇ 류도성&gt; 아무래도 주안점을 가장 많이 둔 부분이 IB도입일 텐데요. 순조롭게 잘 되고 있나요?◆ 이석문&gt; IB도입배경 속에는 크게 두 가지가 있는데요. 제주도 차원에서 보면 지역균형발전을 어떻게 할 거냐, 고교체제개편을 통해서 지역균형발전을 이뤄야한다. 즉 산남과 산북 간의, 동지역과 읍면지역간의 그런 과정에서 고교체제개편의 성과로 올해 같은 경우 진학이든 지역적인 성장들이 두드러지게 나타난 한 해였고요. 그런 가운데 대한민국 교육의 근본적인 문제인 시대적 과제 즉, 평가의 혁신, 현재 수능과 같이 정답 하나만 있는 문제를 가져서는, 지금은 정답을 인공지능이 다 알 수 있는데 그렇다면 미래를 살아갈 아이들에게 스스로 과제를 선정하고 정답을 스스로 만들어가는 이러한 교육의 흐름이 필요하다. 즉 한 개의 질문에 수백 개의 아이들의 생각 촛불들이 켜지는 교육의 흐름으로써 IB를 도입하게 되는데 중장기적으로 간다면 KB까지 가는 이러한 경로들이 있을 겁니다.◇ 류도성&gt; 그래서 지금 표선고등학교가 IBDP후보학교 승인을 받았습니다. 이건 어떤 의미가 있을까요?◆ 이석문&gt; 이제 후보학교로 인정을 받았기 때문에 다음에는 IB한국어 DP과정을 진행할 수 있는 인증절차를 본격적으로 거쳐가는 겁니다. 그래서 IB하고 계속적으로 논의를 하면서 요구한 것들, 준비해야할 것들을 서로가 공유하면서 차근차근 준비된다면 예정대로 진행될 겁니다.◇ 류도성&gt; 인증학교가 되기 위해서는 어떤 부분에서 준비가 더 되어야 합니까?◆ 이석문&gt; 가장 중요한 거는 교사의 연수입니다. 현재 우리가 출제경향에 맞춰서 수업했던 그리고 교육과정을 넘어서 출제경향에 맞춰서 진행됐던 것을 실질적으로 전면적으로 바꿔야하니까 이것은 우리 선생님들이 교원양성과정에서도 겪어보지 않았고, 교사가 돼서도 경험해보지 않은 새로운 일들을 하기 때문에 상당히 힘들죠. 이런 것들을 IBO에서 연수를 시켜주고 교사연수, 관리자연수 이런 부분을 진행한다면 큰 무리 없이 진행되고 있고, 현재 교사연수들도 잘 진행되고 있습니다.(사진=자료사진)◇ 류도성&gt; 이렇게 표선고등학교의 과정을 지켜보면서 교육청이 가장 중요하게 보는 부분이 어떤 부분인지 궁금해요. 앞에서 KB도 말씀하셨는데 그 부분일까요?◆ 이석문&gt; 현재 대한민국 입시, 현실적 문제를 기반으로 한다면 3개 영역이 있습니다. 정시, 수능만으로 뽑는 경우가 있구요. 수시, 최저학력기준이 있는 수능을 봐야하는 경우, 그리고 수능을 아예 안보는 학생부종합전형이 있죠. 그러면 제주도에 정시만을 준비하는 제주시 동지역과 최저학력기준을 맞춰서 서귀포 동지역이나 읍면지역에 가 있는데 수능을 아예 준비하지 않는 학교가 하나 필요하다. 그렇다면 표선고등학교는 그러한 모형으로써 현실적 진학과 맞물려서 되는데, 이러한 내용들을 어떻게 구체적으로 채울 것이냐 했을 때 현재 IB모형이 가장 바람직하다고 보고 있구요. 미래와도 만나 있고 국제적으로도  만나는 그런 부분이기 때문에 도민들이나 학생들이 자기가 공부하고 싶은 방향성에 선택을 해서 가서 충분히 자기성장을 할 수 있는 기회가 주어졌다고 봅니다.◇ 류도성&gt; 그럼 앞으로 초등학교나 중학교, 고등학교 교육과정 연계까지도 고민해야하지 않을까 싶은데 어떻게 생각하세요?◆ 이석문&gt; 지금 표선지역에 아마 IB초중고가 연결이 될 텐데요. 그렇게 된다면 예를 든다면 영어 같은 경우 지금은 좀 수동적이고 수능이 읽기와 듣기 중심으로 됐다면 IBDP를 준비하기 위해서는 말하기와 쓰기, 에세이를 써야하니까요. 소논문을 쓰려면 이 교육과정이 초등부터 고등까지 어떻게 연결되어야할 건가 1차적으로 초등학교부터 중학교, 고등학교까지 영어교육과정을 새로 짜고 있고 1차적인 안이 나왔습니다. 또 이제까지 국어 같은 경우도 수능을 중심으로 했다면 이제는 IBDP를 하려면 에세이를 써야 되니까요. 소논문을 써야하는데 이렇게 아웃풋이 되기 위해서 초중고가 어떻게 연결돼야할까? 기존의 교육과정들을 중심으로 해서 미래목표에 맞게 교육과정들을 새로 짜고 있습니다.◇ 류도성&gt; 제주교육의 현안 가운데 하나가 제주외고의 일반고 전환입니다. 상당히 말들이 많은데요. 과연 제주외고가 다른 지역사례처럼 제주사회의 학교 간 서열화를 만들고 있느냐 또는 사교육을 조장하고 있느냐라는 반론이 있거든요? 어떻게 생각하세요?◆ 이석문&gt; 우선 그런 반론을 떠나서 현실적인 문제죠. 아까 IBDP같은 경우도 현실 문제에서부터 출발해야하는 것이고요. 지금도 외고가 법률적으로 일몰제가 들어가 있지 않습니까? 그렇다면 교육감으로서는 현재 읍면지역에 두고서 일반계 고등학교로 갈 것이냐 아니면 이 기회에 동지역으로 이전해서 평준화에 포함해 갈 것이냐 이 부분을 결정해야죠. 외고유지와는 다른 문제죠. 법적으로 안 되는 걸 유지하겠다고 될 문제도 아니고요. 또 하나는 고교학점제가 진행되기 위해서 국가단위에서 진행하는 건데 특수목적고는 그 특수목적에 맞는 교육과정이 있는데 예를 든다면 영어 같은 경우 ABC로 나눠서 A가 높은 거라면 이 A라는 과목을 고교학점제 학교에서 설강을 해서 그걸 받게 되면 그 과정을 거칠 수 있습니다. 그러니까 외고라는 틀에 갇혀 있는 게 아니라 모든 학교에 개방되어 있다. 그러니 외고가 더 필요하진 않다. 그렇기 때문에 이런 거에 근거해서 일몰제로 이뤄지고 있고 진행이 되고 있는데요. 지금 공론화로 가는 배경은 외고를 유지하느냐 이것은 법적으로 불가능하기 때문에 현실적으로 그대로 유지할거냐 그래서 일반고로 갈 거냐 아니면 동지역으로 해서 외고의 전통과 흐름을 가지면서 갈 거냐는 그런 방향의 결정이기 때문에 지금 공론화 논란이 있다는 배경 속에는 법률을 근본적으로 부정하는 부분하고는 좀 다른 논의가 필요하죠.◇ 류도성&gt; 근데 학부모님들은 이런 말씀들을 하시거든요. 제주특별법이 있는데 이 특별법을 활용해서 제주외고만의 교육과정을 운영할 수 없냐고 주장하시는데 어떻게 생각하세요?◆ 이석문&gt; 일단은 외고란 명칭자체를 사용하지 못하는데요. 그리고 그 이야기는 현재처럼 일반고로 현재 위치에서 있겠다는 거라면 공론화결과에 따라서 결정을 할 순 있겠죠. 그러나 외고라는 명칭을 법에서 못하게 되는 것을 할 수는 없습니다.◇ 류도성&gt; 근데 공론화 의제까지 가는 것 자체도 잘못됐다고 학부모들이 주장을 하고 있고, 신제주권 이전을 위한 작업 아니냐는 주장이 있는데 이 부분은 어떤가요?◆ 이석문&gt; 어쨌든 여러 가지 의혹을 가질 순 있는데 현실적으로 들여다보면 이러한 결정들을 적어도 3-4년 전에 해야 일반고로 진행이 될 때 진행을 할 수 있습니다. 그 이후에 한다는 이야기는 지금 상태로 그대로 가서 법에 따라서 할 수 밖에 없는, 우리 선택의 여지가 없는 거죠. 그렇다면 예측가능한 일을 그 예측에 따라서 시기적으로 제 절차를 밟는 게 바람직하죠. 만약에 그런 것이 필요 없다면 지금 현재대로 해서 일반고로 전환하면 됩니다.◇ 류도성&gt; 앞서서 IB이야기가 나왔는데, 외고 학부모님들은 IB까지도 염두에 두고 있었다는 말씀도 하시더라구요. 그런 고민 안 해보셨어요?◆ 이석문&gt; 가능하면 제주시 근교에 있는 애월고와 함덕고를 1기 때는 예술학교로 바꿨죠. 음악미술로 성공을 했고요. 가능하면 지역균형이라는 이야기를 했습니다. 그렇다면 제주시 동지역에서 가장 먼 학교를 잘 세워서 선택하는 학교를 만드는 게 더 중요하다. 제주도 전체적으로 봐서 그래서 우선적으로 표선고가 되는 거고요. 외고를 그런 생각까지는 하고 있지 않습니다.◇ 류도성&gt; 그리고 교육감님이 기자회견에서 과대, 과밀학급을 언급하셨는데요. 코로나하고도 연관이 되고요. 어떤 복안이 있습니까?◆ 이석문&gt; 과대 학교 같은 경우는 한라초등학교를 분할하기 위해서 주변에 학교용지가 있어야하는데 용지확보가 사실은 불가능에 가깝습니다. 그러나 학급당 인원수를 줄이는 것, 이건 조금 공간이 있습니다. 현재 국가단위에서 전국적으로 보면 25명에서 30명이 분포되어 있는데 국가단위에서 20명에서 25명으로 내리려는 노력이 1차적으로 필요할 것 같고요. 제주도에서는 30명 넘은 경우들을 25명에서 30명사이로 줄이는 이런 노력들은 해야 한다고 봅니다. 이게 1차적인 거구요. 지역에서 할 수 있는 거고요. 왜냐하면 교사는 국가직 공무원이기 때문에 이런 한계가 있지만 그래도 그 노력은 해야 합니다. 그러한 가운데 제주외고 같은 경우가 있다면 그런 일정부분 도움이 되긴 할 겁니다. 서부중학교가 개교가 된다면 제주시 동지역의 과밀학급 해소 부분에선 상당히 긍정적인 영향을 끼칠 거라고 봅니다. 이런 과정에서 제주시 과대, 거대한 한라초등학교나 아라초등학교 같은 경우는 어려운 점이 많습니다. ◇ 류도성&gt; 그런 어려운 부분, 주거지역에 몰려있는 그 학교들은 어떻게 방법이 없을까요?◆ 이석문&gt; 일단 아라초등학교 같은 경우는 주변학교 환경을 개선하면서 주변학교로 이동하기를 바라면서 영평 같은 경우 수영장이 있는 체육관을 건립하려고 하고 있고요. 이런 지원들을 원도심 쪽에 다혼디배움학교를 지정해서 교육과정으로부터 더 나은 선택을 할 수 있도록 이러한 흐름을 만들고 있는데요. 오히려 이번 코로나19 사태로 인해서 큰 학교보다는 작은 학교가 오히려 앞으로 더 모든 환경조건이나 아이들의 건강, 학습 환경이 더 낫지 않는가라는 인식의 변화가 있지 않겠는가. 지금은 학군을 넘어서 큰 학교로만 가려고 했던 학부모 인식들이 일정부분 있습니다. 이런 부분들이 해소된다면 그 또한 과밀과대를 해소하는데 큰 부분을 기여할 것이라고 봅니다.◇ 류도성&gt; 지금이야 과대과밀이지만 학령기 인구가 줄어들고 있는데 이 부분을 고민하면은 고민이 더 필요하겠습니다.◆ 이석문&gt; 예. 지금 5세까지는 큰 문제가 없을 것 같은데 만 2세로 내려가면 조금씩은 학생 수가 급격히 줄어드는 이런 현상을 빚어서, 좀 더 고민하고 제주교육이 좋다고 전국적으로 인식이 돼서 교육을 위해서 들어올 수 있는 이런 흐름을 만들어 내는 것이 과제이기도 합니다.◇ 류도성&gt; 코로나 이야기가 나왔으니까요. 지금 가장 변화가 많은 곳이 학교현장이지 아닐까 싶은데 어떠세요?◆ 이석문&gt; 일단 선생님들의 노동조건이 바뀌지 않았습니까? 이전까지는 일상적으로 생활했던 게 마스크를 끼고 수업을 계속 해야 한다는 게 사실은 대단히 무리한 요구이기도 합니다. 하루 이틀도 아니고 일상을 그렇게 한다는 것은 선생님들에게도 무리한 요구고 학생들에게도 무리한 요구인데 이러한 무리한 요구를 언제까지 강요할 수 있을까 라는 게 상당히 걱정스럽고 우려스럽습니다. 날씨가 더 더워지는데 에어컨을 충분히 틀라고 하고 자율성을 주면서 해도 참 어렵습니다. 그래서 선생님들만 생각하면 참 미안하고 고맙고 그러는데 이 사이에서도 선생님들이 스스로를 돌볼 수 있어야 되겠고요. 그에 따른 매뉴얼도 보급을 했고요. 또 아이들도 같이 영향을 받습니다. 아이들도 충분히 자기들을 잘 지킬 수 있도록 지침들을 잘 내려 보냈습니다.◇ 류도성&gt; 그런데 이번에 재난교육희망지원금 지급을 두고서 ‘학교 밖 청소년’들에 대한 문제가 불거졌습니다. 결국에는 제주도가 지원하기로 했지만, ‘학교 밖 청소년’들이 상처를 받았거든요? 조례를 개정하거나 노력이 있어야 하지 않을까요?◆ 이석문&gt; 학생들이 학교를 계속 다녔으면 교육청에서 주는 걸 받고 싶다는 건 충분히 이해가 되고요. 그런 가운데 제가 선출직으로서 학교 밖 청소년에 대한 모든 법률이 여성가족부 소관이어서 교육청 소관이 아닌 이런 문제가 있습니다. 이러한 법적 문제를 해결해야만 제가 할 수 있는 여지들이 열리는데 그런 제한적인 부분이 있어서 제주도와 협의하면서 이런 부분들은 그러한 소외감들 이런 부분들이 덜 할 수 있는 방법들을 찾아나가겠습니다.◇ 류도성&gt; 조례가 두 개가 있더라고요. 교육청소관 조례가 있고 제주도소관 조례가 있는데 재난교육희망지원금 지급을 두고 이 목적이 교육으로 본다면 교육청소관 아니냐는 주장도 있거든요.◆ 이석문&gt; 일단은 교육청 소속으로 학교 밖 아이들을 봤을 때 의무교육기간인 중학교까지는 교육청소관으로 법리적 검토결과 결론이 이르렀는데, 의무교육이 아닌 경우를 교육청소관으로 볼 것이냐 이것은 다른 문제이고, 이러한 다른 대상에게 금전적 지원을 하는 게 문제가 없느냐 했을 때 문제가 있을 수 있다는 게 자체 법률적 판단이었습니다. 그래서 이러한 부분들은 이 대상의 관리는 제주도는 종합행정이니까 여성가족부 관할이기도 하고 예산의 문제가 아니라 대상의 문제이기 때문에 이 부분에 대한 서로 협력이 필요합니다.제주특별자치도교육청 이석문 교육감◇ 류도성&gt; 그래요. 정책협의하시면서 아이들이 상처 받지 않게 해주시구요. 또 하나 보면 최근에 학교급식현장에서 사고가 발생하고 있습니다. 교육감님이 공식사과를 하셨습니다만 노동자들이 불안할 수밖에 없는데요. 물론 산업안전보건위원회가 구성되긴 했습니다만 어떤 대책들이 필요할까요?◆ 이석문&gt; 저도 같은 기계에서 반복적인 사고가 나고 있다면 1차적으로는 노동자의 부주의로 가는 것은 바람직하지 않다고 보고요. 이러한 기계 설비가 어떻게 인증 받아서 현장에 배치가 되었는지 그리고 이 기계 설비 문제는 없는지, 그리고 이것을 바꾸기 위해서 무엇을 해야 될 것인지 이런 영역으로 들어가면 사실은 교육청으로서는 권한이 제한적일 수밖에 없습니다. 그래서 이러한 부분들은 노동계와 함께 안전기준을 설비기준과 관련해서 바꾸는 노력들을 함께 되어야하는 것 같고요. 그런 가운데 노동자들도 함께 노동조건을 개선하면서 이런 일이 재발되지 않는 이런 것들은 함께 노력해 나가겠습니다.◇ 류도성&gt; 시간이 이제 다 됐습니다. 교육감님 남은 임기 2년 동안 이 부분에 중점적으로 교육행정을 펼쳐나가겠다. 교육가족들에게도 좋고, 도민들에게도 좋고 한 말씀 하시면 어떻습니까?◆ 이석문&gt; 도민여러분 지난 2년 성원에 감사드립니다. 그리고 앞으로 남아 있는 2년 동안에는 코로나19를 거치면서 나타나는 다양한 교육격차들을 해소하기 위한 노력을 하겠습니다. 그리고 미래를 대비하는 과정으로 생태환경과 그리고 AI를 중심으로 한 4차 산업혁명과 관련된 교육들을 내년부터는 좀 더 진전을 시킬 예정입니다. 그러한 가운데 우리 아이들이 한 개의 질문에 백 개의 생각을 할 수 있는 평가의 근본적 변화가 현 시대의 대한민국 교육과제로 보고 있기 때문에 이러한 평가의 혁신과 더불어서 이 평가 혁신을 뒷받침하는 리더십의 혁신 그리고 교육행정지원의 혁신을 함께 이루면서 교육의 질을 더 높고 더 깊게 가는 과정 과정에 배려하고 협력하면서 모든 구성원들이 행복할 수 있도록 노력하겠습니다.◇ 류도성&gt; 오늘은 제주특별자치도교육청 이석문 교육감과 이야기 나눠봤는데요. 오늘 말씀 감사합니다.▶ 확 달라진 노컷뉴스▶ 클릭 한 번이면 노컷뉴스 구독!▶ 보다 나은 세상, 노컷브이와 함께ryuds@cbs.co.kr저작권자 © CBS 노컷뉴스 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>7월 13일까지 신청…7월 21일부터 10월 23일까지 교육 진행© 뉴스1(서울=뉴스1) 김수정 기자 = 서울시 동부여성발전센터(센터장 최선희)에서 AI 전문인력인 ‘AI 디지털 PM’ 양성 교육을 진행한다.  AI 관련 전문인력 기근에 시달리고 있는 우리나라는 AI 소프트웨어, 로봇 개발뿐 아니라 기획, 마케팅, 분석, 교육 등 전 산업 분야에 걸쳐 AI 관련 노하우를 보유한 전문 직무 종사자 계층이 형성되지 못한 상태다. 빅데이터, 클라우드, AI 등 디지털 혁신을 비즈니스 현장에 도입하려는 기업들이 폭발적으로 늘고 있어 정부와 기업이 예산 확대, AI 상용화 시도 등 노력을 기울이고 있지만 상황이 나아지지 않고 있다. 이에 동부여성발전센터는 ‘한국판 디지털 뉴딜’ 사업을 담당할 전문인력, 즉 ‘AI/데이터 전문 프로젝트 매니저’를 양성하기 위한 ‘AI 디지털 PM’ 과정을 마련했다. ‘AI 디지털 PM’이란 AI/데이터 전문 프로젝트 매니저 교육 과정을 의미한다. 이번 과정 수료 후, AI 국가 전략을 위한 정부 사업을 바탕으로 하여 전문적인 프로젝트 수행 전문가로 자리매김하는데 목적을 두고 있다.  이번 교육은 오는 7월 21일부터 10월 23일까지 진행된다. 프로젝트 제안 및 관리 분야에 역점을 둔 본 과정은, ‘인공지능데이터/블록체인 기술교육’을 필두로 하여 ‘세일즈스킬 및 프로젝트 제안’ 및 ‘현업IT PM의 프로젝트 관리 노하우와 PM 성장경로’를 포함하여 팀워크에 필수적인 ‘커뮤니케이션 및 스피치 코칭’ 등을 내용으로 하여 전문적인 PM 스킬에 교육내용의 핵심을 두고 있다. 주요 강사진은 ‘인공지능데이터 및 블록체인 기술 교육’에는 2HCUBE 하석재 대표이사, ‘프로젝트 제안 및 관리’에 안랩 중국법인 대표 출신의 맘이랜서 김현숙 대표, ‘커뮤니케이션 및 스피치 코칭’ 분야에 헬싱키경제경영대 MBA 출신의 모모인 박재희 대표, ‘협업 IT PM의 프로젝트 관리 노하우 및 PM 성장경로’ 관련한 분야에는 Adobe 본사 기술제휴 및 사업개발 담당 한동환 상무로 구성되어 있다. 위 과정은 서울시 거주 미취업 여성이고, AI 관련 산업으로 취업을 원한다면 누구나 지원할 수 있다. 지원자 우대 사항으로는 IT 관련 전공자 혹은 인접 분야 직무 경력 보유자이거나, 프로젝트 기획 관리와 커뮤니케이션, 제안서 및 비즈니스 문서 작성이 가능해야 한다. 교육 신청은 7월 13일까지 서울시 동부여성발전센터 홈페이지에서 가능하다.  교육 수료자들은 AI 디지털 PM 교육을 통해 인턴 체험 프로그램을 비롯하여 정부 지원 SOC 사업 등 제안서 실무경험을 얻을 수 있으며, 전문 취업상담사의 1:1 맞춤형 취업연계 및 진로 컨설팅 또한 받을 수 있다.  동부여성발전센터 최선희 센터장은 "AI 디지털 PM 관련 교육을 시행하여 AI 분야 전문 PM을 양성하고 여성 취업 및 경력개발에 도움이 되고자 한다"라며 "위 교육은 민관 거버넌스 기반 직업·직무훈련, 현업에서의 구인난을 없애기 위해 전문 영역의 일자리 매칭 성과 창출을 최우선 과제로 두고 있다"고 전했다.nohsm@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1 바로가기 ▶  코로나19 뉴스 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>AI 디지털 PM 양성 ‘뉴노멀 이노베이션 취업아카데미’   서울시 동부여성발전센터(센터장 최선희)에서 디지털뉴딜 전문가 양성을 위한 ‘AI 디지털 PM’ 과정 참가자를 모집한다고 밝혔다.   현재 우리나라는 AI 소프트웨어와 로봇 개발자는 물론 기획, 마케팅, 분석, 교육 등 전 산업 분야에 걸쳐 AI 개념과 활용 노하우를 보유한 전문 직무종사자 계층이 형성되지 못한 상태다. 이를 위해 정부는 관련 예산을 확대하고 기업은 AI 상용화 노력을 이어가고 있지만 이를 담당할 전문인력이 부족한 상황이다.   이에 동부여성발전센터는 AI 디지털 PM을 양성하는 교육 과정을 운영하여, AI 국가 전략을 뒷받침하는 정부부처 사업을 활성화하는 데 공헌한다는 계획이다. AI 디지털 PM은 AI/데이터 전문 프로젝트매니저 교육과정으로, ‘한국판 디지털 뉴딜’ 사업을 전담할 ‘AI/데이터 전문 프로젝트 매니저’를 양성하는 과정을 뜻한다.   7월 21일부터 10월 23일까지 진행되는 해당 과정은 관련 분야로 취업을 희망하는 서울시 거주 미취업여성이라면 누구나 지원 가능하다. ICT 관련 전공자 혹은 인접분야 직무 경력 보유자, 프로젝트 기획 관리와 커뮤니케이션 가능자, 제안서 및 비즈니스문서 작성 가능자라면 우대된다.   동부여성발전센터 최선희 센터장은 “4차 산업 부상에 따라 AI와 데이터사이언스 활용 분야의 전문인력에 대한 기업 수요가 증가하고 있다. 이에 AI 디지털 PM 양성 교육을 실시하여 AI분야 전문 PM을 양성하고 여성의 취업과 경력개발을 지원하고자 한다”고 전했다.   이어 “이번 교육은 민관 거버넌스 기반 직업·직무훈련과 현업에서의 구인난 해소를 위해 전문영역의 일자리 매칭 성과를 만들어내는 것을 최우선 과제로 두고있다”고 덧붙였다.  AI 디지털 PM 교육을 수료하면 인턴 체험 프로그램과 정부 지원 SOC 사업 등 제안서 실무경험을 제공한다. 또한 전문 취업상담사의 1:1 맞춤형 취업연계 및 진로 컨설팅이 지원될 예정이다. 교육 신청은 7월 13일까지 동부여성발전센터 홈페이지에서 가능하다.   한편 주요 강사진은 ‘인공지능데이터 및 블록체인 기술 교육’에는 2HCUBE 하석재 대표이사, ‘프로젝트 제안 및 관리’에 안랩 중국법인 대표 출신의 맘이랜서 김현숙 대표, ‘커뮤니케이션 및 스피치 코칭’ 분야에 헬싱키경제경영대 MBA 출신의 모모인 박재희 대표, ‘협업 IT PM의 프로젝트 관리 노하우 및 PM 성장경로’ 관련한 분야에는 Adobe 본사 기술제휴 및 사업개발 담당 한동환 상무로 구성되어 있다.   김정환 기자 hwani89@segye.comⓒ 세상을 보는 눈, 세계일보</t>
+  </si>
+  <si>
+    <t>100억원 투입 4층 연면적 2735㎡ 규모 기공식∼내년 말 완공[김동수 기자(=하동)                                                                                                                                                                                             (kdsu21@naver.com)]섬진강이 한 눈에 들어오는 하동공원에 건물 형태만으로도 상상을 초월하는 세계적인 인문학 테마 랜드마크 상상도서관이 들어선다. 경남 하동군은 6일 하동공원 도서관 건립공사 현장에서 100년 미래를 내다보는 상상도서관 기공식을 가졌다고 밝혔다. 이 행사에는 윤상기 군수를 비롯해 행정자치부장관을 지낸 김기재 (사)하동상상도서관건립회 이사장, 박성곤 군의회 의장, 이정훈 도의원, 쌍계사 영담 주지스님, 칠불사 도응 주지스님, 관내 기관·단체장, 도내 도서관장, 군민 등 200여명이 참석했다. ▲상상도서관 조감도.ⓒ하동군 기공식은 하동홍보대사 소유담의 사회로 개식, 국민의례, 내빈소개, 한국남부발전㈜ 하동발전본부의 농어촌상생협력기금 기탁, 상상도서관 건립 취지 설명 및 경과보고, 기념사, 축사, 안전기원제, 시삽식 순으로 진행됐다. 상상도서관은 인문도시 하동에 걸맞은 세계적인 문화플랫폼 구축과 문학수도 하동 선점, 문화교육도시 도약을 위한 민선7기 군수공약사업으로 추진된다. 상상도서관은 국비·군비·민자 등 100억 원의 사업비를 들여 내년 말 완공 목표로 하동읍 광평리 하동공원 1만 799제곱미터의 부지에 지상 4층 연면적 2735제곱미터 규모로 건립된다. 도서관 1층은 로비홀과 북카페, 열람실 등이 들어서고 2층과 3층은 열람실, 4층은 관장실 및 사무실 등이 배치된다. 특히 도서관 옥상은 기존의 일반적인 건물형태에서 벗어나 경사진 계단 형태의 정원 및 전망대로 건립돼 도서관을 찾는 사람이면 누구나 섬진강 등을 조망할 수 있도록 한다. 군은 상상도서관이 종합정보센터로서의 군민의 정보 접근권을 확대하고 문화교육도시로 도약하는 계기가 될 것으로 기대하고 있다. 또한 새로운 문화공간 조성을 통해 군민의 삶의 질을 향상시키고 하동을 찾는 관광객에게 상상·체험형 프로그램을 제공함으로써 지역경제 활성화에도 기여할 것으로 보고 있다. 뿐만 아니라 고령화 시대 어르신은 물론 아동·청소년, 귀농·귀촌인, 결혼이민자 등 군민 구성원 모두를 위한 전통과 IT기술이 결합된 신개념 도서관의 역할도 기대된다. 윤상기 군수는 “상상도서관은 인공지능을 통한 다양한 정보 서비스가 제공되고 누구나 쉽게 접근할 수 있는 공간을 조성해 문화도시로서의 기반 마련과 세계적인 인문학 테마 랜드마크가 될 것”이라고 말했다.[김동수 기자(=하동)                                                                                                                                                                                             (kdsu21@naver.com)]▶프레시안 CMS 정기후원▶네이버 프레시안 채널 구독 ▶프레시안 기사제보Copyrightsⓒ PRESSian.com 무단전재 및 재배포금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		오전 11시 01분 현재 코스닥 시장에서 주가 상승률이 높은 종목은 알에프세미(096610), 우정바이오(215380), 코메론(049430), 엠게임(058630), GH신소재(130500)등이다.순위종목명등락률연관 섹터1알에프세미(096610)+24.76%[가정용 로봇과 인공지능(AI)]2우정바이오(215380)+20.34%생명과학 도구 및 서비스3코메론(049430)+16.21%기계4엠게임(058630)+15.46%[디지털자산·블록체인]5GH신소재(130500)+14.20%자동차부품6디지틀조선(033130)+13.38%출판7시그네틱스(033170)+13.25%[시스템 반도체(비메모리 반도체)]8액토즈소프트(052790)+10.61%[모바일게임]9엔브이에이치코리아(067570)+10.29%자동차부품10세종텔레콤(036630)+9.71%다각화된 통신서비스11엑셈(205100)+9.59%[IT보안(정보)]12엔시트론(101400)+11.83%*관리종목13세중(039310)+9.11%[여행·레저]14YTN(040300)+9.01%방송과엔터테인먼트15에스티팜(237690)+8.85%[CMO·원료의약품]16아미코젠(092040)+8.36%생물공학17뉴파워프라즈마(144960)+8.45%[반도체 - 전공정 장비]18디에이피(066900)+7.86%[스마트폰 - 메인보드(FPCB)]19영화테크(265560)+7.66%[수소연료전지차]20청담러닝(096240)+7.62%[교육]21컴투스(078340)+7.69%[모바일게임]22초록뱀(047820)+7.85%[미디어 -드라마·영화 제작]23에코프로비엠+7.05%[2차전지 - 소재·부품]24경창산업(024910)+7.20%자동차부품25나스미디어(089600)+6.80%[광고]26KNN(058400)+6.55%방송과엔터테인먼트27제이엔케이히터(126880)+7.41%[수소연료전지차]28대신정보통신(020180)+6.64%IT서비스29구영테크(053270)+6.60%자동차부품30코맥스(036690)+6.55%[ CCTV]31엘비세미콘(061970)+7.00%[시스템 반도체(비메모리 반도체)]32골드퍼시픽(038530)+6.48%섬유, 의류, 신발, 호화품33누리텔레콤(040160)+6.43%[스마트그리드]34SBI인베스트먼트(019550)+6.37%[벤처캐피탈]35미스터블루(207760)+6.11%출판36실리콘웍스(108320)+5.81%[OLED - 소재·부품]37앤씨앤(092600)+5.76%[ CCTV]38파나진(046210)+5.88%*관리종목39동국제약(086450)+5.70%제약40효성오앤비(097870)+5.64%[농업 - 종자·비료]41아이엠(101390)+5.56%전자장비와 기기42새로닉스(042600)+5.55%[2차전지 - 소재·부품]43동화기업(025900)+5.50%[건자재 - 바닥재·합판·창호]44코콤(015710)+5.43%[ CCTV]45아이엘사이언스+5.35%디스플레이장비 및 부품46아프리카TV(067160)+5.31%양방향미디어와서비스47이지케어텍+5.31%[원격의료]48원익홀딩스(030530)+5.17%[반도체 - 전공정 소재]49아바코(083930)+5.27%[OLED - 장비]50드래곤플라이(030350)+5.27%[모바일게임]※ 주가 등락률: 오전 11시 01분 기준 등락률[이 기사는 증권플러스(두나무)가 자체 개발한 로봇 기자인 'C-Biz봇'이 실시간으로 작성했습니다.][C-Biz봇]	[네이버 메인에서 조선비즈 받아보기]	[조선비즈 바로가기]  chosunbiz.com</t>
+  </si>
+  <si>
+    <t>[김종철 선생을 기리며] "우리는 결국 모두 형제들이다"[박승옥 햇빛학교 이사장]김종철 선생은, 김수영 시인의 말을 빌리면 '제 정신을 갖고 산 사람'이었다. 제 정신으로 살기 위해 분투한 사람이었다. 제 정신으로 살기 위해 분투하던 그에게는 근대 산업사회의 앞날이 명확하게 보였다. 2002년에 쓴 '땅의 옹호'라는 글에서 그는 이렇게 말했다. "산업주의 문화는 이러한 겸손의 자세를 조롱하고 비웃으면서 성장해왔지만, 그렇게 함으로써 ‘산업인간’은 도덕적, 정신적으로 극히 왜소한 미숙아가 되어버렸다. 산업의 세계에서 만물의 척도는 인간의 한계를 모르는 자기 확대의 욕망이다. 그리하여, 자본과 기술의 힘으로 얼마든지 자연의 제약을 뛰어넘을 수 있다는 교만심이 분별없이 확대되어 왔고, 그 결과로 지금 우리는 스스로의 생존의 발판을 제거하는 데 열중하고 있는, 인류 역사상 가장 난폭하고 어리석은 시대에 살게 된 것이다." 코로나19라는 현재의 전 세계적 위기는 근대 자본주의 문명의 본질에 대한 그의 통찰이 전적으로 옳았음을 웅변한다. 즉 "자본과 기술의 힘으로 얼마든지 자연의 제약을 뛰어넘을 수 있다는 교만심이" "스스로의 생존의 발판을 제거"해 왔음을 극명하게 보여주고 있는 것이다. 그가 지향했던 것은 공생공락(共生共樂)의 삶이었다. 자연과 인간이 조화를 이루고, 인간과 인간이 우애롭게 지내며, 각 개인이 내면의 평화를 누리는 그런 삶이었다. 그는 공생공락을 위한 이상적인 사회로 농(農)의 세계와 촌락 자치를 주장했지만 이는 결코 복고 취미가 아니었다. 공생공락을 위한 세계 각지의 여러 움직임들을 끊임없이 탐색하고 연구하면서 이끌어낸 통찰이었다. 신문‧잡지의 칼럼을 모아 2016년 발간한 &lt;발언 1,2&gt;의 머리말에서 그는 "칼럼을 쓰는 동안 매일매일 발간되는 국내외 신문, 뉴스 매체들을 훑어보는 일이 어느덧 내 생활의 가장 중요한 부분이 되었다. 왜냐하면 '발언'을 위해서는 우선 세상 돌아가는 형편에 주목('경청')하는 게 전제돼야 하기 때문"이라고 말했다. "세상사에 대해서 끊임없이 귀를 열어 경청한다는 것은 '발언'이 갖추어야 할 기본적 윤리"이며 "농민, 노동자, 생활인들의 '현장'이 논밭과 공장 혹은 시장인 것처럼, 지식인에게 가장 중요한 '현장'은 뉴스매체일 수밖에 없"기 때문이라는 것이다. "그래서 나는 끼니를 거르는 일은 있어도, 신문이나 뉴스매체를 거르고 지나가는 날은 있어서는 안 된다는 생각으로 하루하루를 보내왔다. 그리하여 일정하게 구독하는 몇몇 국내 신문들을 열심히 들여다보고, 인터넷을 통해서 외국 언론매체들의 주요 기사, 논평들을 읽는 데 골몰하다 보면 오전 몇 시간이 순식간에 지나가고 만다." 실제로 그는 하루 4시간 이상 인터넷을 들여다보고, 자신이 한국에서 최초 또는 유일한 정기구독자인 외국 간행물이 여럿 된다고 자랑(?) 삼아 얘기한 적이 있는데, 이는 그가 탁월한 생태사상가인 동시에 뛰어난 저널리스트였다는 점을 말해준다. 이처럼 폭넓은 탐색과 치열한 고민 끝에 지역화폐, 기본소득, 시민의회에 이르기까지 에콜로지와 민주주의에 관한 현실적 대안들을 제시했다. 나아가 2011년 후쿠시마 원전 사고 이후 한국 최초의 녹색당 창립에 참여하는 등 그는 근래 보기 드문 전 방위적 지식인이자 실천적 사상가였다. 사실 김종철 선생이 걸은 길은 외로운 길이었다. 하지만 뜻을 같이하는 벗들이 있었다. 1999년 펴낸 &lt;간디의 물레&gt; 머리말에서 그는 다음과 같이 말했다. "지난 8년간 &lt;녹색평론&gt;을 엮어내는 일은 무엇보다 내게는 개인적인 구원이었다. 아마 그 일을 하지 않았다면 나는 미치거나 깊이 병들었을지 모른다. 다행스럽게도, 나는 &lt;녹색평론&gt;의 편집에 열중하는 과정에서 나와 비슷한 당혹감을 느끼고 있는 사람들이 나라 안팎에 걸쳐 의의로 많다는 사실을 발견하였고, 그러한 사람들과 깊은 유대 또는 우정을 느끼게 되었다. 그리고 궁극적으로 이러한 유대감이나 우정을 통한 새로운 정치적 공동체의 형성에 새로운 삶의 희망이 달려있다는 것을 발견하였다." 또한 2008년 펴낸 &lt;땅의 옹호&gt;에서는 2004년 대학 교수직을 떠난 이후 4년간 계속된 '이반 일리치 읽기모임'을 통해 "대학생활에서는 한 번도 경험하지 못한 진정한 '우정'의 의미를 음미할 수 있게 되었다"면서 "'우정'이야말로 지금 세계를 황폐화하는 자본과 국가의 논리에 맞설 수 있는 가장 강력한 힘인지도 모른다"고 토로했다. "아무리 암울한 시대일지라도 사람이 사람답게 사는 데 필수적인 '희망'을 제공하는 원천이 바로 '우정'"이라는 것이다. 코로나19로 자본주의 문명이 막바지에 이른 지금, 그 어느 때보다 김종철의 사상과 통찰이 절실한 이때, 그는 돌연 세상을 떠났다. 이제 살아남은 자의 몫은 그가 말한 우정의 의미를 되새기며 사람이 사람답게 살 수 있게 하는 새로운 사회, 새로운 삶의 원리는 무엇이며 어떻게 이를 실천할 것인가를 고민하는 일일 것이다. 김종철 선생의 저서 &lt;간디의 물레-에콜로지와 문화에 관한 에세이&gt; &lt;땅의 옹호-共生共樂의 삶의 위하여&gt; &lt;발언 1,2&gt; &lt;근대문명에서 생태문명으로-에콜로지와 민주주의에 관한 에세이&gt; 중에서 9편의 글을 추려 소개한다. 편집자 연재 순서 1. '시대를 바꾸고자 한 예언자이자 실천적 사상가, 김종철' (박승옥 글)2. 왜 녹색평론을 시작하였는가(1995년, &lt;간디의 물레-에콜로지와 문화에 관한 에세이&gt;)3. 거짓언어와 '성장'논리 속에서-나의 한국 현대사(2012년, &lt;발언 1&gt;)4. 땅의 옹호(2002년, &lt;땅의 옹호-共生共樂의 삶의 위하여&gt;)5. 필요한 것은 '진보'가 아니라 開眼이다(2006년, &lt;땅의 옹호&gt;)6. 지역통화-삶과 공동체를 살리는 기술(1998년, &lt;간디의 물레&gt;)7. 근대문명에서 생태문명으로 책머리에(2019년)8. 협동적 자치의 공동체를 향하여(2008년, &lt;근대문명에서 생태문명으로&gt;)9. 촛불시위와 시민권력(2017년, &lt;근대문명에서 생태문명으로&gt;)10. 태어남과 삶과 죽음의 순환(1998년, &lt;간디의 물레&gt;) 말과 글과 행동으로 시대를 바꾸고자 한 사상가 모든 역사는 오늘 지금 여기의 역사로 늘 재편성된다, 지금 여기 오늘을 사는 사람들의 살아 있는 삶과 세상을 바라보는 시각으로 역사는 늘 다시 재조명되고 다시 쓰여 질 수밖에 없다. 그래서 모든 역사는 편집과 편찬의 역사다. 그런 의미에서 모든 역사는 현재의 역사다. 모든 시대의 시공간은 오늘 지금 여기의 시대와 시공간으로 늘 다시 호출된다. 그래서 개인이든 공동체든 국가든 지나간 시공간은 현재의 시공간으로 불려 나와 지금의 시공간과 병존하게 된다. 우리의 삶과 세상은 지금 여기의 삶이자 과거와 함께 사는 병존과 공존의 삶이고 세상이다. 김종철. 많은 사람들이 대놓고 까칠한 사람이라고 말하지만 사실은 누구보다도 따뜻하고 다정했던 사람. 더불어 사는 공생공락의 삶을 추구했던 사람. 모든 가치가 돈으로 환원되는 이 부박한 세상을 끔찍이도 싫어했던 사람. 대쪽 같은 원칙주의자이면서도 누구보다도 염치를 중시한 현실주의자였던 사람. 그는 20세기와 21세기라고 이름 붙은 시대에 한반도라는 시공간을 산 수많은 사람 가운데 한 사람이었다. 그러나 그는 다른 사람들처럼 단순히 시대에 적응하거나 순응하면서 일생을 살지 않은 특출한 사람이었다. 홀로 그리고 스스로 전혀 낯선 새로운 삶과 세상의 길을 개척하고 그 길을 여럿이 함께 걸어가고자 했던 선각자였다. 그는 그야말로 피를 토하듯 시대의 종말을 소리 높여 외친 예언자였다. 예언에 그치는 것이 아니라 혼신의 힘을 다해 시대를 뒤바꾸고자 노력한 실천가였다. 기후위기가 이미 임계점을 지나 여섯 번째 멸종 사태가 급속도로 가속화되고 있는 오늘날, 파국의 징후가 거세질수록 생태주의자 김종철은 앞으로 수없이 다시 살아 있는 우리 앞에 호명되고 수없이 다시 지금 여기 현재의 역사로 재구성될 것이다. ▲ 김종철 &lt;녹색평론&gt; 편집인 겸 발행인. ⓒ프레시안 &lt;녹색평론&gt;, 전 세계에서 유일하게 독자모임이 있는 생태주의 잡지 1991년 11월 25일, 김종철은 44세의 나이에 격월간 잡지 &lt;녹색평론&gt;을 창간했다. 이후 지금까지 30여 년 동안 그는 일관되게 &lt;녹색평론&gt;을 근거지로 시대를 바꾸고자 하는, 무모하면서도 거대한 도전을 이어왔다. 착취와 피착취, 억압과 피억압의 인간관계를 우애와 환대의 인간관계로 바꾸고자 한, 어쩌면 유격전의 해방구 투쟁이라고 이름 지을 수도 있는 대장정의 시작이었다. 당시는 동구 사회주의의 몰락과 구소련의 해체가 진행되고 있던 시점이었다. 1989년 프랜시스 후쿠야마가 ‘역사의 종말’이란 논문을 발표해 사이비 체제종말론이 막 유행을 타고 있던 때였다. 1987년 6월 항쟁과 노동자 대투쟁의 성과로 한반도 역사상 최고조에 달한 서구 산업화의 풍요와 고도 경제성장의 떡고물이 노동자들에게도 떨어지고 있었다. 대기업 노동자들 중심으로 자가용 보급이 급속도로 확산되고 있었다. 거리거리에 의식주 상품이 넘치고 넘쳐 흘렀다. 그런 시대 상황 속에서 김종철은 벌건 대낮에 등불을 들고 자본주의 산업화도 곧 망할 것이라고 외쳤던 것이다. 경제성장과 개발은 범죄라고 목소리를 높였던 것이다. 정면으로 시대를 부정하고 시대를 향해 돌진해 들어가는 도전장이나 다름없었다. 150여 쪽의 얇은 소책자에 불과한 &lt;녹색평론&gt; 창간호의 글들을 관통하는 문제의식은 거의 혁명에 가까운 도전과 외침으로 일관하고 있다. 김종철의 창간사는 지금 읽어도 생생하게 각인되는 서구 산업화의 종말, 경제성장과 개발의 중단 선언문이었다. 사회와 국가를 생태사회와 국가로 바꾸자고 제안하고 실천을 촉구하는 성명서였다. 김종철은 마르크스주의와 자본주의를 똑같은 서구 근대 산업화의 자연 파괴 이데올로기로 비판하고 세상의 파국을 피하려면 농업 중심의 소농사회를 복원해야 한다고 단언했다. "우리와 우리의 자식들이 살아남고, 살아남을 뿐 아니라 진실로 사람다운 삶을 누릴 수 있기 위해서 우리가 할 수 있는 것은 협동적인 공동체를 만들고, 상부상조의 사회관계를 회복하고, 하늘과 땅의 이치에 따르는 농업중심의 경제생활을 창조적으로 복구하는 것과 같은 생태학적으로 건강한 생활을 조직하는 일밖에 다른 선택이 없다." (바로가기 ☞ : &lt;녹색평론&gt; 창간사 「생명의 문화를 위하여」, 1991. 11. 25.) &lt;녹색평론&gt;은 이후 한 호도 거르지 않고 29년 동안 173번이나 세상을 바꾸는 사자후의 목소리를 내놓았다. 많은 정기구독자들이 &lt;녹색평론&gt;을 통해 세상을 다시 보고 &lt;녹색평론&gt;을 삶의 등대로 삼았다. 이들 열혈 정기구독자들이 만든 전국 각지의 &lt;녹색평론&gt; 독자모임은 특이하고도 전 세계에서 유일한, 잡지를 매개로 한 결사체이다. 173호에 실려 있는 독자모임 광고만 헤아려 보더라도, 강원 홍천, 충남 청양, 충남 홍성, 북대전, 충남 서산 태안, 세종, 충북 북부, 경기 부천, 경기 군포, 경기 성남, 경기 화성 동탄, 서울 강서, 서울 강남 서초, 서울 중랑, 대구, 대구경북 가톨릭, 경남 창원, 김해 장유, 경남 진주, 전북 군산, 전북 전주, 제주 서부, 제주 풀무질 등 23개에 이른다. 이외에도 천안 아산, 대전 가톨릭 등 독자모임을 준비 중이거나 잠시 휴지기를 가지고 있는 지역까지 합하면 30여 곳을 훌쩍 넘는다. 1980년대 학생운동과 노동-농민운동에 몸담았던 사람들에게는 기관지 ‘이스크라’의 배포망을 지하당 조직의 뿌리로 삼았던 러시아 사민당을 떠올리게 만들 것이다. 실제로 한국의 녹색당 창당에는 이들 ‘녹평 독자모임’ 회원들이 대거 참여해 산파 역할을 해내기도 했다. 김종철은 손사래를 치며 싫어하겠지만, 케이팝, 케이방역에 앞서 케이 독자모임이 있었다고도 말할 수 있다. 사대주의 앵무새에서 벗어난 조선의 생태주의자, 김종철 김종철을 어떤 사상가이자 실천가로 자리매김할지 그 논의는 이제 시작일지 모른다. 그런 자리매김의 시론으로 주제넘고 두서없지만 김종철의 사상과 실천을 몇 개의 주요한 측면으로 간략하게 서술해 볼 수 있을 것이다. 무엇보다도 우선 김종철은 사대주의의 열등의식을 완전히 극복하고 새로운 생태주의 사상의 지평을 연 조선의 생태주의자였다. 오리엔탈리즘과 그 대항으로서의 옥시덴탈리즘을 뛰어넘어 그런 차원과는 전혀 다른 사람과 세상의 밑바탕으로부터의 생태 전환 사상이라고 말할 수 있다. 고조선의 건국 이래 한반도 주민들은 이른바 중화주의 사상과의 오래고 질긴 긴장과 갈등, 투쟁의 역사를 계속해 왔다. 고려, 조선이라는 나라 이름 자체가 사대주의와의 대립과 자립 의지를 반영한 것이라는 사실은 이를 잘 보여준다. 한글의 창제와 조선 중기 이후의 실학과 동도서기론 등의 대두는 중국 모방과 앵무새 따라 하기를 거부하는 현실주의의 실천이었다. 19세기 말 서구의 침략과 함께 조선의 식민지로의 전락은 한국 인민들에게는 천지개벽 같은 사건이었다. 이후 1세기 이상을 한반도 인민들은 오직 서구 근대화, 산업화를 신앙처럼 숭배하며 부국강병의 경제성장과 개발을 향해 좌고우면 없이 돌진해 왔다. 당연히 사상과 학문의 서구 추종과 따라 하기, 앵무새 같은 식민지성은 거의 유전자처럼 한국 인민들의 내면에 깊숙이 각인되어 버렸다. 이광수의 민족개조론에서 유추할 수 있듯이 가능하다면 황인종 피부까지도 하얗게 바꾸고자 한 '누런 피부 흰 가면'의 교수와 학자들이 지금까지도 온 사회를 점령하고 있는 중이다. 미국과 유럽 유학파들이 장악한 대학은 이같은 식민지 학문과 사상의 온상이었다. 김종철은 이같은 앵무새 따라 하기를 철저하게 거부하고 우리의 문화와 토양에 맞는 생태주의 사상을 꽃피웠다는 점에서 단연 두드러진다. 그가 최해월의 동학과, 동학을 이어받아 한살림운동을 시작한 무위당 장일순을 높이 평가하고 따르고자 했던 것도 이 때문이었다고 생각한다. 줄기차게 소농사회의 복원을 주창한 것도 기본소득을 강조한 것도 한국 인민의 몸과 마음에 걸맞은 한국의 옷을 만들고자 한 그의 지론에서 우러나온 것이었다. 백석의 시 낭송 듣기를 즐겨 하고, 해월의 동학사상과 소태산 박중빈의 원불교를 자주 언급했던 것 또한 같은 맥락이라고 볼 수 있다. 배우고 가르치는 사람, 김종철 김종철은 배움을 멈추지 않고 가르침을 멈추지 않은 사람이었다. 그는 &lt;녹색평론&gt;을 발간하면서 거의 하루 25시간을 매달려 실사구시의 철저한 검색과 조사연구를 바탕으로 글을 청탁하고 번역했다. 그는 애매하거나 정확한 조사연구가 덜 된 주제에 대해서는 결코 언급하지 않았다. 이같은 엄격한 태도는 가식과 몰염치가 판치는 이른바 교수들과 학자들의 학문세계와는 판이하게 다른 것이었다. 김종철은 누구보다도 염치를 중시하고 염치를 아는 독서인이었다. 그는 겉으로는 자전거를 타고 다니면서 생태주의 삶을 실천하는 듯이 화장을 하면서도 실제로는 가족의 자가용을 타고 다니는 사람들에 대해서는 아예 상종을 피했다. 그가 존경하는 이반 일리치를 굳이 '이반 일리히'라고 부르는 일종의 허세와 고집에 대해서도 지독스러울만큼 싫어했다. 그가 거액을 주는 강연 요청을 거절할 때는 그 강연을 요청한 사람이나 단체가 염치를 모르는 허세와 가식으로 치장하고 있을 때였다. 그는 아무리 적은 소수의 사람이 모여 있어도 녹색 사상을 넓고 깊게 할 수 있고 &lt;녹색평론&gt;의 정기구독자를 늘릴 수 있는 강연 요청이라면 마다하지 않는 사람이었다. 2004년 영남대 총장의 뒤통수를 후려쳐 가발을 벗겨내고 남들이 부러워하는 정규직의 대학교수 직을 미련없이 때려친 것은 이 시대의 대학교육은 이제 더 이상 배움과 가르침의 현장이 아니라는 선언과도 같았다. 예수의 성전 파괴와 같은 행동이었다. 그 뒤통수 후려치기는 근대 대학교육 자체에 대한 후려치기였고, 대학교육 자체에 대한 사망선고와 다름없었다. 이후 근 10여년 동안 김종철은 매주 토요일 ‘일리치 읽기모임’이라는 배움과 가르침의 독특한 공동체를 지속시켜 왔다. 젊은 청년 몇몇과도 ‘김밥 모임’(김종철과 밥 먹는 모임)을 오랫동안 이어 왔다. 공생공락의 삶을 강조하고 실천한 김종철의 다정다감한 인간관계를 보여주는 모임들이라고 하지 않을 수 없다. 김종철의 평소 일관된 소신에 따라 그의 장례식은 일체의 행사나 의례 없이 조촐하게 가족장으로 치러졌지만, 아쉬움에 장례식장에서 조용히 추모 모임을 가졌던 것도 이들 ‘일리치’ 식구들과 ‘김밥’ 식구들이었다. (바로가기 ☞ : "이 세계가 망해 가는 대로 내버려 두기엔 너무 아깝습니다") 근본주의자이자 현실주의자, 행동하는 사람 김종철 2011년 후쿠시마 핵발전소가 폭파한 뒤 김종철은 녹색당 창당에 나섰다. 녹색당 창당은 김종철이 근본주의자이자 동시에 몽상가가 아닌 현실주의자임을 극명하게 보여준다. 영어 래디칼(radical)은 뿌리라는 뜻의 영어 root에서 파생한 단어라고 한다. 김종철은 그 어원에 딱 들어맞는 래디칼리스트, 근본주의자였다. 김종철의 글에서 가장 많이 발견하는 단어 또한 근원적, 근본적, 본질적 등등일 것이다. 진보와 개발에 대한 인민의 맹신을 뿌리부터 뒤엎지 않으면 문명과 세상의 종말은 물론 생명체 자체의 멸종 또한 피할 수 없다는 김종철의 절박한 문제의식을 그대로 보여준다. 그러나 김종철은 누구보다도 실현 가능한 생태 전환 사회와 국가를 추구한 현실주의자이기도 했다. 녹색당 창당은 한 사례에 지나지 않는다. 녹색평론 초대 편집장이었던 장길섶이 홍성에서 2년제의 풀무농업고등기술학교 전공과정을 개설할 때 이를 누구보다도 앞장서 격려하고 적극 후원한 사람은 김종철이었다. 그가 줄기차게 주장하던 소농사회의 복원을 따르고자 하는 젊은이들이 있으면 누구든 김종철은 격려하고 후원했다. 국가에 대한 생각의 변화 역시 김종철의 현실주의자 면모를 여실히 입증한다. 김종철은 2016년 2월 1일 딴지일보의 초청으로 벙커1 특강 &lt;국가 같은 소리 하네&gt; 강연을 한 적이 있었다. 여기서 그는 자신이 왜 아나키즘의 국가부정론에 공명하다가 국가를 활용해야 한다는 생각으로 방향을 틀었는지 자세하게 설명하고 있다. 후쿠시마 이후 녹색당 창당에 발벗고 나선 현실주의자 김종철을 잘 드러내 보여주는 강연이었다. 밑바닥 인생 편에 선 사람, 김종철 마지막으로 김종철은 자비와 연민을 중요시한 사상가였다. 그는 개발과 성장을 멈추어야 한다는 주장을 넘어 탐욕을 멈추어야 한다고 재삼재사 강조했다. 탐욕을 멈출 때 사람은 비로소 내면에서부터 자비와 연민의 고유한 감정과 생각을 키울 수 있다. 억압받고 착취당하는 사람이면 그가 누구든 김종철은 자비와 연민의 감정을 그대로 드러내곤 했다. 자비와 연민이란 돈으로 환산된 동정이나 자선과는 뿌리부터 다른, 공생공락과 우애, 환대의 인간관계에서 유래되는 인간의 ‘근원적’ 감정과 태도라고 말할 수 있다. 제자이기도 했던 윤중호 시인을 아꼈던 것도 우리 사회의 맨 밑바닥에서 살아가고 있는 노동자들, 청소부와 일용직 노동자들과 스스럼없이 어울리고 그들에 대한 자비와 연민의 시를 썼기 때문이었을 것이다. 그는 이른바 명문고 명문대를 나와 대학교수를 역임한 우리 사회의 상층 기득권에 속했지만, 그런 기득권을 거부한 사람답게 육체노동을 하는 우리 사회의 하층 계급에 대해 늘 일종의 부채의식을 가지고 있었다. 김종철은 그것을 숨기지 않았다. 김종철이 필자와 인연을 맺은 계기도 필자가 노동운동의 생태적 전환을 주장한 2004년 &lt;당대비평&gt; 가을호의 글이었다. 당시 그 글 전문이 ‘왕자병 걸린 노동운동, 이대로 가면 죽는다’는 제목으로 &lt;프레시안&gt;에 실리고 논쟁으로 전개된 적이 있었다. 김종철은 그 글과 논쟁을 지켜보고 한참 뒤 지인을 통해 연락을 해 왔던 것이다. 김종철은 늘 노동운동이나 농민운동의 생태적 방향 전환이 어떻게 실현 가능한지 촉각을 곤두세우고 있었다. 성장과 개발의 최일선 담당자들인 ‘산업화의 역군’ 노동자와 농민 자신이 성장과 개발을 거부하고 생태적 전환의 회심을 하지 않는 한 체제 전환은 불가능하다는 사실을 누구보다도 잘 알고 있었기 때문이었다. 이 글을 쓰기 위해 녹색평론 창간호를 꺼내 다시 읽었다. 그리고 김종철이 그렇게 두려움까지 느끼고 연구 금지 모라토리움이라도 해야 한다는 인공지능의 구글 유튜브 검색도 해보았다. 벙커1 특강 &lt;국가 같은 소리 하네&gt;도 인공지능이 알려 준 것이다. 30여년 전 &lt;녹색평론&gt; 창간호의 시애틀 추장 연설을 읽고 충격을 받았던 기억이 선명하게 다시 떠올랐다. 170여년 전 아메리카의 대자연 속에서 생태순환의 삶을 살고 있던 인디언들이 개발과 성장의 백인 침략자들에게 유린당하면서 절규하던 말은 지금 여기 한반도에 살고 있는 우리 모두에게도 생생한 녹색 저항의 언어다. "우리는 결국 모두 형제들이다."[박승옥 햇빛학교 이사장]▶프레시안 CMS 정기후원▶네이버 프레시안 채널 구독 ▶프레시안 기사제보Copyrightsⓒ PRESSian.com 무단전재 및 재배포금지</t>
+  </si>
+  <si>
+    <t>- SKT 삼성전자·카카오와 손 잡고 스피커·무선 이어폰 등 개발 - KT 대학교·LG전자 등과 ‘원팀’ 서비스·솔루션 경쟁력 강화 - 네이버 글로벌 AI 연구벨트에 주력 R&amp;D 바탕으로 기술력 확장4차 산업혁명의 핵심 동력인 인공지능(AI) 분야를 선점하기 위한 국내 업체 간 ‘합종연횡’ 움직임이 빨라지고 있다. 이동통신사와 포털, 전자업체 등 국내 주요 기업들이 업종을 뛰어넘어 광범위한 연합 전선을 구축하며 AI 패권 경쟁을 본격화하고 있는 것이다. 대진표가 속속 윤곽을 드러내면서 어느 쪽이 먼저 글로벌 수준의 경쟁력을 확보할 수 있을지 관심이 집중된다. 6일 관련 업계에 따르면 최근 국내 AI 동맹군 결성은 이동통신사들이 주도하고 있다. 그중 가장 먼저 불을 댕긴 것은 SK텔레콤이다. 박정호 SK텔레콤 사장은 올해 1월 세계 최대 전자 전시회인 ‘소비자가전쇼(CES) 2020’에서 “SK텔레콤과 삼성전자가 ‘초협력’을 하지 않으면 두 회사 모두 플레이어가 아닌 사용자로 전락할 수밖에 없다”며 “기술적인 부문에서 글로벌 스탠더드를 맞추기 위해 협력할 수 있는 방향을 고민하고자 한다”고 말했다. 공개 석상에서 처음으로 AI 동맹 구축을 공식화한 것이다. SK텔레콤은 앞서 지난해에는 카카오와 지분 교환을 통해 AI 분야 전반에서 협력하기로 합의한 바 있다. SK텔레콤을 중심으로 삼성전자와 카카오가 힘을 합치는 AI 삼각 동맹군이 결성된 것이다.3사는 현재 AI 공동 스피커 개발을 비롯해 삼성전자의 무선이어폰인 ‘갤럭시버즈’에 들어가는 AI도 함께 연구 중인 것으로 전해졌다. 또 사회안전망에 AI 기술을 활용하는 방안과 의료 데이터의 AI 관리 및 연구·개발(R&amp;D) 등도 공동으로 추진 중인 것으로 알려졌다. SK텔레콤을 주축으로 한 삼각 동맹에 맞서 KT도 다양한 기업과 잇달아 손을 잡으며 세 확장을 본격화하고 있다. KT는 올해 2월 현대중공업그룹과 카이스트, 한양대, 한국전자통신연구원(ETRI) 등과 대한민국 AI 1등 국가를 위한 공동 양해각서를 체결하고 ‘AI 원팀(AI One Team)’을 결성했다. 또 지난달에는 LG전자와 LG유플러스, 한국투자증권까지 AI 원팀에 합류하면서 공동 연구가 더욱 속도를 내는 양상이다.AI 원팀은 상호 협력을 통해 제품·서비스·솔루션 분야 경쟁력을 한층 강화한다는 방침이다. 특히 가전 분야에서 시너지가 커질 것으로 예상되는 만큼 KT는 자사의 AI 플랫폼인 ‘기가지니’와 LG전자의 AI 플랫폼인 ‘LG 씽큐’를 상호 연동해 시너지를 높일 방침이다. 또 KT와 LG유플러스의 가정용 사물인터넷(IoT) 서비스와 LG전자 가전을 연동해 스마트홈을 한 단계 더 진화시킨다는 구상이다. 인재 양성에도 힘을 합치기로 했다. 이들은 AI 원팀에 참여한 업체별 특성에 맞는 ‘산업 실무형 AI 교육’ 및 ‘AI 전문인력 육성’에 함께 참여하기로 했다. 반면 국내 최대 인터넷 플랫폼 사업자인 네이버는 독자적인 AI 영역 구축에 좀 더 무게를 두는 모습이다. 다른 기업들이 적극적인 합종연횡을 통해 AI 기술력을 끌어올리고 있는 것과 달리 상황에 따라 다른 기업들과 협업하며 인재 양성 및 자체 기술 개발에 몰두하고 있다. 네이버는 대신 R&amp;D 강화를 토대로 ‘글로벌 AI 연구 벨트’ 구축에 주력하고 있다. 네이버는 지난해 10월 미국의 구글·아마존·페이스북·애플과 중국의 바이두·알리바바·텐센트·화웨이에 맞설 수 있도록 유럽과 아시아를 잇는 AI 연구 벨트 구축을 선언한 바 있다. 네이버는 지난 3월에는 일본 자회사 라인이 보유한 100명 수준의 AI R&amp;D 인력을 내년까지 200명으로 늘리기로 결정했다. 네이버 관계자는 “특정 기업과 파트너십을 맺은 것은 아니지만 다양한 업체와 상황에 따라 협업하면서 기술 개발에 주력하고 있다”고 말했다.  장병철 기자 jjangbeng@munhwa.com[ 문화닷컴 바로가기 | 문화일보가 직접 편집한 뉴스 채널 | 모바일 웹 ][Copyrightⓒmunhwa.com '대한민국 오후를 여는 유일석간 문화일보' 무단 전재 및 재배포 금지(구독신청:02)3701-5555)]</t>
+  </si>
+  <si>
+    <t>2021년 완공...세계적 인문학 테마 랜드마크 기대하동군이 2021년 말 준공을 목표로 인문학 테마 랜드마크 상상도서관 건립을 추진한다. 사진은 상상도서관 조감도. © 뉴스1(경남=뉴스1) 한송학 기자 = 경남 하동군은 세계적인 인문학 테마 랜드마크 상상도서관이 6일 오전 기공식을 갖고 2021년 말 완공으로 추진된다고 밝혔다.상상도서관은 세계적인 문화플랫폼 구축을 통해 문학수도 하동 선점과 문화교육도시로 도약하기 위한 윤상기 군수 공약사업이다.도서관은 국비·군비·민자 등 100억원의 사업비로 2021년 말 완공 목표로 하동읍 광평리 하동공원 1만 799㎡의 부지에 지상 4층 연면적 2735㎡ 규모로 건립된다.1층은 로비홀과 북카페, 열람실 등이 들어서고, 2층과 3층은 열람실, 4층은 관장실 및 사무실 등이 배치된다. 옥상은 경사진 계단 형태의 정원 및 전망대로 건립돼 섬진강 등을 조망할 수 있도록 한다.상상도서관은 종합정보센터로서의 군민의 정보 접근권을 확대하고 문화교육도시로 도약하는 계기가 될 것으로 기대하고 있다. 또 새로운 문화공간 조성을 통해 군민의 삶의 질을 향상시키고 하동을 찾는 관광객에게 상상·체험형 프로그램을 제공함으로써 지역경제 활성화에도 기여할 것으로 보고 있다. 전통과 IT기술이 결합된 신개념 도서관의 역할도 기대된다.윤상기 군수는 "상상도서관은 인공지능을 통한 다양한 정보 서비스가 제공되고 누구나 쉽게 접근할 수 있는 공간을 조성해 문화도시로서의 기반 마련과 세계적인 인문학 테마 랜드마크가 될 것"이라고 밝혔다.han@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1 바로가기 ▶  코로나19 뉴스 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[서울Biz]정용균 지음, 율곡출판사 펴냄책은 인공지능이 불과 60여 년 만에 여러 차례 혁신을 통해 발전한 결과 이제는 인간의 정신노동까지도 대체하고 있어 인간의 직업이 크게 위협받는 상황임을 지적하고 있다. 이에 따라 인간은 과거 러다이트 운동처럼 인공지능을 타도할 것이냐 아니면 인공지능과 협업을 해야 하느냐 기로에 놓여 있다면서 인공지능을 타도할 것이 아니라 협업을 해야 한다는 견해를 밝히고 있다.책은 크게 세 장으로 나뉘어 있다. 제1장은 인간이 문명의 여명기부터 다른 존재와 협업을 해 온 점을 상기시키고 있다. 인간은 농업혁명기에 가축과 협업을 해 생산성을 올렸으며 산업혁명기에는 기계와 협업을 했다. 정보혁명기에는 컴퓨터와 협업을 했고 이제는 인공지능과 협업을 하는 단계에 진입했다고 진단한다. 즉 인공지능과의 협업이 새로운 현상은 아니라고 말한다.제2장은 인공지능과 인간이 실제 얼마나 협업하고 있는지 살펴본다. 조사 결과 인공지능과의 협업은 국지적인 현상이 아니라 광범위한 현상임을 알려준다. 즉 서비스업, 제조업, 교육산업뿐만 아니라 농업과 문화산업에 이르기까지 이미 광범위하게 인공지능과 협업을 하고 있음을 밝힌다.제3장에서는 이런 패러다임 전환 상황 과도기에 놓인 인류의 행동전략 생존전략을 제시한다. 이를 위해 첫째 현대가 포스트 휴먼시대임을 자각해야 한다고 주장한다. 즉 인간과 인공물이 공존하고 있다는 것. 둘째 직업전환시대여서 직업의 외관은 그대로지만 내용은 바뀌고 있음을 지적한다. 따라서 직업을 재해석할 필요가 있음을 말하고 있다. 셋째 기술의 급격한 발전으로 인한 불확실성의 시대인 현대에서 살아남기 위해서는 자신을 재교육해야 한다고 제안한다. 넷째 인공지능과 협업하기 위해서는 멀티 스페셜리스트가 될 것을 주장한다. 다섯째 인생 120세 초장수 시대가 다가오고 있는 만큼 60세 이후 20년을 준비할 것을 제안한다. 여섯째 인터넷으로 연결된 현대의 초 연결시대에서는 친구와 가족을 소중히 여기라고 조언한다. 일곱째 물극필반 영성의 시대가 도래하는 만큼 사유하고 명상하라고 말한다.저자 정용균 교수는 한국외국어대학교 영어과를 졸업하고 서강대학교에서 경제학 석사학위를 받았으며 미국 오리건주립대학교에서 경제학 박사학위를 취득했다. 강원대학교에 부임한 이후 국제e-비즈니스학회 부회장과 인터넷전자상거래학회 이사직을 역임했다. 최근 인공지능에 관한 인간의 인식, 보험 및 교육에서의 인공지능의 역할에 관한 논문을 발표했다.출판사 관계자는 “책은 인공지능시대에 직업의 상실을 두려워하고 있는 직장인들에게 직업의 미래에 대해 스스로 숙고하는 기회를 제공한다는 점에서 유익하다”고 말했다.김병철 기자 kbchul@seoul.co.kr▶ [서울Biz 바로가기] ▶ [밀리터리 인사이드] ▶ 네이버에서 서울신문 구독하기 클릭! ⓒ 서울신문(www.seoul.co.kr), 무단전재 및 재배포금지</t>
+  </si>
+  <si>
+    <t>5G망 투자 확대, 언택트 산업 협업 등 추진KT 직원들이 5G 네트워크 기술을 테스트하고 있다. KT 제공KT가 정부가 추진하는 한국판 뉴딜 사업에 동참하기 위해 사내에 200명 규모의 '한국판 뉴딜 협력 테스크포스(TF)' 조직을 신설했다고 6일 밝혔다.박윤영 기업부문 사장이 TF장을 맡아 프로젝트를 직접 지휘하고, 인공지능(AI), 5G, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다.정부는 신종 코로나바이러스 감염증(코로나19)로 인한 경기침체로 위기를 맞고 있는 기업과 노동자를 지원하기 위해 추경안 통과 후 3개월 안에 빠르게 뉴딜 사업을 추진한다고 밝힌 바 있다. 한국판 뉴딜은 '디지털 뉴딜'과 '그린 뉴딜' 2대 축으로 구성되며, 디지털 뉴딜은 △디지털 인프라 구축 △비대면 산업 육성 △사회간접자본 디지털화를 중심으로 추진된다.디지털 인프라 구축을 통한 경제활성화 측면에서 KT는 5G 전국 커버리지 확보, 5G 단독 규격(SA) 상용화 추진 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 올해 통신 인프라에 전년 수준(2조1,000억원)의 투자를 유지할 계획이다.비대면 산업 육성 측면에서 KT는 언택트 기술 적용을 위해 다양한 기업 및 기관들과 협업하고 있다. 서울아산병원과는 비대면 영상솔루션과 사물인터넷 기기, 로봇 등을 활용한 진료환경 개발을 진행하기로 했으며, 현대중공업그룹과는 현대로보틱스에 500억 지분투자를 통한 지능형 서비스로봇 개발에 나서기로 했다. 사회간접자본 디지털화에 협력하기 위해 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 혁신 기술을 개발했다. KT는 5GㆍAI 기반의 화재감지, 침수감지 등 차세대 관리시스템을 통해 통신 인프라 설계, 운용, 관제, 장애복구 영역의 효율성 및 안정성을 동시에 확보했다.TF는 사업 추진 준비 외에도 스마트화를 통한 협력사 및 소상공인 상생방안 도출, 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련, K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다박윤영 사장은 "코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다"며 "KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다"고 말했다.안하늘 기자 ahn708@hankookilbo.com▶ 네이버 채널에서 한국일보를 구독하세요!▶ [정치채널X] [뉴스보야쥬] [밀크] 영상보기▶ 한국일보닷컴 바로가기</t>
+  </si>
+  <si>
+    <t>한컴 말랑말랑 행복케어 용인점에서 한 노인이 인지훈련 치매예방 가상현실(VR)을 이용하고 있다.  제공 | 한컴그룹[스포츠서울 김민규기자]한글과컴퓨터그룹(이하 한컴그룹) 계열사인 한컴위드가 포스트 코로나시대에 대응한 ‘시니어 케어’ 서비스 사업에 본격 출사표를 던졌다. 한컴위드는 정보통신기술(ICT)과 체계적 운영프로세스를 적용한 데이케어센터 브랜드 ‘한컴 말랑말랑 행복케어’를 6일 공개했다. ‘한컴 말랑말랑 행복케어’는 오는 8월 17일부터 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점 등 5개 센터 운영을 시작으로 오는 2023년까지 3000개로 확대할 계획이다.‘한컴 말랑말랑 행복케어’는 디지털 소외계층인 시니어를 대상으로 전문의들과 함께 개발한 인지훈련 치매예방 가상현실(VR)과 상호교감이 가능한 인공지능(AI) 로봇 활용 프로그램을 제공, 24시간 실시간 노인들의 바이탈 체크 및 위치 확인이 가능한 웨어러블 기반의 보호자 안심 서비스 제공 등 첨단 ICT를 활용한 스마트 헬스케어 서비스를 제공한다. 운영관리에 있어서도 별도의 요양사 교육과 엄선된 식자재 공급, 픽업서비스 등 전문적인 시스템을 의무화하는 한편 금융기관과 협력하여 데이케어센터 사업자들의 창업비용 금융지원도 추진한다는 계획이다.데이케어센터는 만 65세 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 시니어를 위한 시설이다. 간호사와 요양보호사가 노인들의 신체·인지·정서 기능 향상을 위한 프로그램을 제공하고 있다. 국내 데이케어센터는 정부가 이용금액의 85%를 지원하고 있어 비용부담이 적어 대상 고령자들의 이용 니즈는 매우 높지만 시설은 턱없이 부족한 실정이다. 실제로 노인장기요양보험에 따르면 2020년 기준 데이케어센터를 이용가능 등급자는 65만명에 육박하지만 정원이 평균 30명 내외인 데이케어센터의 수는 4300개에 불과해 보급률은 20% 수준에 그치고 있다. 이에 한컴위드는 말랑말랑 행복케어 센터를 통해 국내 데이케어센터의 인프락 확충은 물론, 장기적으로 빅데이터를 통한 다양한 시니어 케어 서비스 개발에 나설 방침이다. 김현수 한컴위드 대표는 “베이비부머 세대의 은퇴가 본격화되기 시작한 만큼 시니어 산업의 성장성에 주목하고 있다”며 “한컴그룹의 브랜드와 첨단 기술력을 집약한 ‘한컴 말랑말랑 행복케어’를 통해서 국내 데이케어센터의 서비스 수준을 한 차원 높임과 동시에 인프라 확충 기여 및 빅데이터 분석을 통한 다양한 시니어 케어 서비스 개발에도 나설 것”이라고 말했다.kmg@sportsseoul.com[기사제보 news@sportsseoul.com]  Copyright ⓒ 스포츠서울&amp;sportsseoul.com</t>
+  </si>
+  <si>
+    <t>한컴위드, ‘한컴 말랑말랑 행복케어’ 공개치매예방 VR, 웨어러블 기반 24시간 보호한글과컴퓨터그룹 계열사 한컴위드는 ICT기술과 체계적 운영프로세스를 적용한 데이케어센터 ‘한컴 말랑말랑 행복케어’를 7일 공개했다. [한글과컴퓨터그룹 제공][헤럴드경제=유동현 기자] 한글과컴퓨터그룹이 노인 돌봄 사업(시니어 케어) 시장에 본격 뛰어든다.한글과컴퓨터그룹 계열사 한컴위드는 ICT기술과 운영프로세스를 적용한 데이케어센터 ‘한컴 말랑말랑 행복케어’를 6일 공개했다. 데이케어센터는 만 65세 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 시니어를 위한 시설이다.행복케어 센터는 인지훈련 치매예방 가상현실(VR)과 상호교감이 가능한 인공지능 로봇 활용 프로그램을 운영한다. 24시간 노인들의 바이탈 체크 및 위치 확인이 가능한 웨어러블 기반의 보호자 안심 서비스도 제공한다. 나아가 첨단 ICT기술을 활용한 스마트 헬스케어도 서비스 된다.향후 별도 요양사 교육과 엄선된 식자재 공급, 픽업서비스 등 전문적 시스템을 도입할 예정이다. 금융기관과 협력해 데이케어센터 사업자들의 창업비용 금융지원도 추진된다.다음달 17일부터 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점 운영을 시작, 2023년까지 3000개의 데이케어센터를 확보할 예정이다.김현수 한컴위드 대표는 “국내 데이케어센터의 서비스 수준을 한 차원 높임과 동시에 인프라 확충에도 기여할 것으로 기대하며, 장기적으로는 관련 빅데이터 분석을 통해 다양한 시니어케어 서비스 개발에 나설 계획”이라고 말했다.한컴 위드는 2018년부터 서울대, 가천대, 연세대 등 주요 대학의료기관 전문의와 협력해 인지훈련 및 치매예방을 위한 ‘한컴 말랑말랑 VR’을 개발해 왔다. dingdong@heraldcorp.com▶코리아헤럴드 플립화상영어 무료체험▶헤럴드경제 네이버 채널 구독 ▶농수축산물 소비캠페인 - Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>배재대 AI·SW중심대학사업단 비전공학과 교수 SW 교육[대전=뉴시스] 유순상 기자 = 배재대 AI·SW중심대학사업단이 비전공학과 교수를 대상으로 'SW(소트프웨어)교육 프로그램'을 운영하고 있다.6일 대학에 따르면  SW 비전공학과의 융합 교육 필요성 증대와 향후 AI(인공지능)·SW중심대학이 운영할 다양한 프로그램의 지역사회 가치 확산을 위해 마련됐다.이 프로그램은 '앱인버터를 이용한 인공지능 앱 만들기'로 교육을 시작했다. 간단한 어플리케이션을 만들거나 인공지능을 활용한 이미지, 사운드 사용방법 익히기 등 비전공자도 배울 수 있는 교육방법을 택해 참여자들의 호응을 이끌어냈다.교육 참가 교수들은 이미지나 음성을 인식하는 인공지능 어플리케이션 제작에 빠졌다. 사업단은 앞으로 SW전공·비전공 교수들의 협력체계를 구축, 창의적 아이디어 도출과 SW기술이 융합하는 유망 분야 발굴을 추진할 계획이다. 정회경 사업단장은 "비전공 교수님들이 배움의 열기가 대단하다"며 "전공과 융합된 창의적 아이디어가 학생과 지역사회에 퍼져 4차 산업혁명을 선도하는 대학의 명성을 이어갈 것으로 기대한다"고 말했다.☞공감언론 뉴시스 ssyoo@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>'한컴 말랑말랑 행복케어', 내달 서울, 용인 등 5개 센터 오픈[아이뉴스24 최은정 기자] 한컴위드는 정보통신기술(ICT)과 체계적 운영 프로세스를 적용한 데이케어 센터 브랜드 '한컴 말랑말랑 행복케어'를 6일 공개했다.데이케어 센터는 만 65세 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 시니어를 위한 시설로, 간호사와 요양보호사가 노인들의 신체·인지·정서 기능 향상을 위한 프로그램을 제공하고 있다. 정부가 이용금액의 85%를 지원하기 때문에 비용부담이 적어 대상 고령자들의 이용 니즈는 매우 높다.하지만 센터 시설은 턱없이 부족한 실정이다. 노인장기요양보험에 따르면 올해 기준 데이케어 센터를 이용 가능한 등급자는 65만 명에 육박하지만, 정원이 평균 30명 내외인 데이케어 센터의 수는 4천300개에 불과해 보급률은 20%에 그치고 있다는 게 회사 측 설명이다.한컴 말랑말랑 행복케어 용인점에서 VR 체험 중인 시니어의 모습. [사진=한컴그룹]이에 한컴그룹은 내달 17일부터 한컴 말랑말랑 행복케어 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점 운영을 시작으로 2023년까지 3천개의 데이케어 센터를 확보할 계획이다.한컴 말랑말랑 행복케어는 시니어를 대상으로 전문의들과 함께 개발한 인지훈련 치매예방 가상현실(VR)과 상호 교감이 가능한 인공지능(AI) 로봇 활용 프로그램을 제공한다. 또한 웨어러블 기기를 통해 24시간 실시간으로 노인들의 바이탈과 위치를 확인하는 등 보호자 안심 서비스도 지원한다.한컴그룹은 앞으로 운영 관리 측면에서 별도 요양사 교육과 엄선된 식자재 공급, 픽업 서비스 등 전문적인 시스템을 의무화하는 한편 금융기관과 협력해 데이케어 센터 사업자들의 창업비용 금융지원도 추진한다는 계획이다.김현수 한컴위드 대표는 "한컴그룹의 브랜드와 첨단 기술력을 집약한 한컴 말랑말랑 행복케어를 통해 국내 데이케어 센터의 서비스 수준을 한 차원 높임과 동시에 인프라 확충에도 기여할 것"이라며 "장기적으로는 관련 빅데이터 분석을 통해 다양한 시니어 케어 서비스 개발에 나설 계획"이라고 말했다.한편, 한컴위드는 지난 2018년부터 서울대, 가천대, 연세대, 건국대 등 주요 대학의료기관 전문의들과 협력해 인지훈련·치매예방을 위한 '한컴 말랑말랑 VR'을 개발, 전국 치매안심 센터와 노인복지기관, 재활 기관 등에 공급해왔다.최은정기자 ejc@inews24.com▶네이버 채널에서 '아이뉴스24'를 구독해주세요.▶재밌는 아이뉴스TV 영상보기  ▶아이뉴스24 바로가기[ⓒ 아이뉴스24 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>내달 17일부터 센터 5곳 운영한컴그룹이 로봇, 가상현실 등 최신 기술을 적용한 스마트 시니어케어 서비스 사업을 시작한다. 사진은 경기 용인 데이케어센터에서 가상현실 체험을 하는 모습.      한컴 제공 한글과컴퓨터그룹 계열사인 한컴위드(대표 김현수, 홍승필)가 로봇·VR(가상현실) 등 최신 ICT 기술을 적용한 시니어케어 서비스 사업에 진출한다. 한컴위드는 '한컴 말랑말랑 행복케어'라는 브랜드를 내놓고, 8월 17일부터 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점 등 5개 센터를 운영한다고 밝혔다. 이어 2023년까지 3000개 센터로 확대한다는 계획이다. 전문의들과 함께 개발한 인지훈련 치매예방 VR과 인공지능 로봇을 적용하고, 24시간 실시간으로 노인들의 건강정보 체크와 위치 확인이 가능한 웨어러블 기기를 도입하는 등 스마트 헬스케어 서비스를 제공한다. 체계적인 요양사 교육과 엄격한 식자재 공급, 픽업서비스 등 전문 시스템을 갖추고, 금융기관과 협력해 데이케어센터 사업자들의 창업비용 금융지원도 추진한다.데이케어센터는 만 65세 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 시니어를 위한 시설이다. 간호사와 요양보호사가 노인들의 신체, 인지, 정서 기능 향상을 위한 프로그램을 제공한다. 정부가 이용금액의 85%를 지원하기 때문에 비용부담도 적어 대상 고령자들의 이용 수요가 많지만 시설이 크게 부족한 실정이다. 노인장기요양보험에 따르면 2020년 기준 데이케어센터 이용가능 등급자는 65만 명에 육박하지만, 정원이 평균 30명 내외인 데이케어센터의 수는 4300개에 불과해 보급률은 20%에 그치고 있다.한컴위드는 2018년부터 서울대, 가천대, 연세대, 건국대 등 주요 대학의료기관 전문의들과 협력해 인지훈련 및 치매예방을 위한 가상현실 솔루션을 개발, 전국 치매안심센터와 노인복지기관, 재활기관 등에 공급해 왔다.김현수 한컴위드 대표는 "베이비부머 세대의 은퇴가 본격화되기 시작한 만큼 시니어 산업의 성장성에 주목하고 있다"며 "한컴그룹의 브랜드와 첨단 기술력을 집약해 국내 데이케어센터의 서비스 수준을 한 차원 높임과 동시에 인프라 확충에도 기여하겠다"고 말했다. 이어 "장기적으로 관련 빅데이터 분석을 통해 다양한 시니어케어 서비스 개발에 나설 계획"이라고 밝혔다.  안경애기자 naturean@dt.co.kr 디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t>데이케어센터 브랜드 '한컴 말랑말랑 행복케어' 공개8월 서울, 용인, 수원, 부산, 제주 등 5개 센터 오픈2023년까지 3000개 센터 확보[서울=뉴시스] 오동현 기자 = 한글과컴퓨터그룹 계열사인 한컴위드가 시니어케어 서비스 사업에 출사표를 던졌다.한컴위드는 6일 ICT기술과 체계적 운영프로세스를 적용한 데이케어센터 브랜드 ‘한컴 말랑말랑 행복케어’를 공개했다.오는 8월 17일부터 ‘한컴 말랑말랑 행복케어’ 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점 운영을 시작으로 2023년까지 3000개의 데이케어센터를 확보할 계획이다.‘한컴 말랑말랑 행복케어’는 디지털 소외계층인 시니어를 대상으로 전문의들과 함께 개발한 인지훈련 치매예방 가상현실(VR)과 상호교감이 가능한 인공지능 로봇 활용 프로그램을 제공하고, 24시간 실시간으로 노인들의 바이탈 체크 및 위치 확인이 가능한 웨어러블 기반의 보호자 안심 서비스 제공 등 첨단 ICT기술을 활용한 스마트 헬스케어 서비스를 제공한다. 운영관리에 있어서도 별도의 요양사 교육과 엄선된 식자재 공급, 픽업서비스 등 전문적인 시스템을 의무화하는 한편 금융기관과 협력하여 데이케어센터 사업자들의 창업비용 금융지원도 추진한다는 계획이다.데이케어센터는 만 65세 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 시니어를 위한 시설로, 간호사와 요양보호사가 노인들의 신체, 인지, 정서 기능 향상을 위한 프로그램을 제공하고 있다. 정부가 이용금액의 85%를 지원하기 때문에 비용부담도 적어 대상 고령자들의 이용 니즈는 매우 높은 반면에 시설은 턱없이 부족한 실정이다. 노인장기요양보험에 따르면 2020년 기준 데이케어센터를 이용가능 등급자는 65만 명에 육박하지만, 정원이 평균 30명 내외인 데이케어센터의 수는 4300개에 불과해 보급률은 20%에 그치고 있다.한컴위드는 지난 2018년부터 서울대, 가천대, 연세대, 건국대 등 주요 대학의료기관 전문의들과 협력해 인지훈련 및 치매예방을 위한 ‘한컴 말랑말랑 VR’을 개발, 전국 치매안심센터와 노인복지기관, 재활 기관 등에 공급해 왔다.한컴위드 김현수 대표는 “베이비부머 세대의 은퇴가 본격화되기 시작한 만큼 시니어 산업의 성장성에 주목하고 있다”며 “한컴그룹의 브랜드와 첨단 기술력을 집약한 ‘한컴 말랑말랑 행복케어’를 통해서 국내 데이케어센터의 서비스 수준을 한 차원 높임과 동시에 인프라 확충에도 기여할 것으로 기대하며, 장기적으로는 관련 빅데이터 분석을 통해 다양한 시니어케어 서비스 개발에 나설 계획”이라고 강조했다.☞공감언론 뉴시스 odong85@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>한컴 말랑말랑 행복케어 용인점 로봇. 한컴위드 제공[파이낸셜뉴스] 한컴위드는 ICT기술과 체계적 운영프로세스를 적용한 데이케어센터 브랜드 ‘한컴 말랑말랑 행복케어’를 공개하고 내달 17일부터 ‘한컴 말랑말랑 행복케어’ 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점 운영을 시작으로 2023년까지 3000개의 데이케어센터를 확보할 계획이라고 6일 밝혔다.   ‘한컴 말랑말랑 행복케어’는 디지털 소외계층인 시니어를 대상으로 전문의들과 함께 개발한 인지훈련 치매예방 가상현실(VR)과 상호교감이 가능한 인공지능 로봇 활용 프로그램을 제공하고, 24시간 실시간으로 노인들의 바이탈 체크 및 위치 확인이 가능한 웨어러블 기반의 보호자 안심 서비스 제공 등 첨단 ICT기술을 활용한 스마트 헬스케어 서비스를 제공한다. 운영관리에 있어서도 별도의 요양사 교육과 엄선된 식자재 공급, 픽업서비스 등 전문적인 시스템을 의무화하는 한편 금융기관과 협력하여 데이케어센터 사업자들의 창업비용 금융지원도 추진한다는 계획이다.   데이케어센터는 만 65세 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 시니어를 위한 시설로 간호사와 요양보호사가 노인들의 신체, 인지, 정서 기능 향상을 위한 프로그램을 제공하고 있다. 정부가 이용금액의 85%를 지원하기때문에 비용부담도 적어 대상 고령자들의 이용 니즈는 매우 높은 반면에 시설은 턱없이 부족한 실정이다. 노인장기요양보험에 따르면 2020년 기준 데이케어센터를 이용가능 등급자는 65만 명에 육박하지만, 정원이 평균 30명 내외인 데이케어센터의 수는 4300개에 불과해 보급률은 20%에 그치고 있다.   한컴위드는 지난 2018년부터 서울대, 가천대, 연세대, 건국대 등 주요 대학의료기관 전문의들과 협력해 인지훈련 및 치매예방을 위한 ‘한컴 말랑말랑 VR’을 개발, 전국 치매안심센터와 노인복지기관, 재활 기관 등에 공급해 왔다.    true@fnnews.com 김아름 기자   ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>‘한컴 말랑말랑 행복케어’ 브랜드 8월 17일 전국에 5개 가맹점 오픈 가맹점 계약 방식으로 확장 예정 “2023년까지 전국에 3천개 목표”  한글과컴퓨터(한컴)가 낮 시간 어르신 케어(이하 데이케어) 서비스 시장에 진출한다. 고령화·외로움 시대 가속화로 수익률에서 ‘치킨집보다 낫다’고 평가되며 전국적으로 우후죽순처럼 생겨나는 데이케어센터들을 한컴의 디지털 기술로 고도화하면서 브랜드로 묶어내겠다는 것이다. 한컴 계열사 한컴위드는 ‘한컴 말랑말랑 행복케어’ 브랜드로 어르신 데이케어 서비스 시장에 진출한다고 6일 밝혔다. 이 업체는 “오는 8월 17일 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점을 여는 것을 시작으로 2023년까지 전국적으로 3천개의 데이케어센터를 확보할 계획”이라고 설명했다. 한컴위드는 전국의 데이케어센터와 한컴 말랑말랑 행복케어 브랜드를 사용하고 디지털 콘텐츠를 받는 내용의 가맹점 계약을 맺는 방식으로 데이케어센터 사업을 확장할 예정이다. 이 업체는 “디지털 콘텐츠로는 전문의들과 함께 개발한 인지훈련 치매 예방 가상현실(VR), 상호교감이 가능한 인공지능 로봇 활용 프로그램 등과 함께 24시간 실시간으로 노인들의 바이탈 체크 및 위치 확인이 가능한 웨어러블 기반의 보호자 안심 서비스 등을 제공하고, 운영관리도 별도의 요양사 교육과 엄선된 식자재 공급, 픽업 서비스 등 전문적인 시스템을 의무화할 계획”이라고 밝혔다. 데이케어센터는 65살 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 어르신을 위한 시설이다. 간호사와 요양보호사가 어르신들의 신체·인지·정서 기능 향상을 위한 프로그램을 제공한다. 정부가 이용료의 85%를 지원해 비용부담이 적어 수요는 많은 반면 수용 능력은 턱없이 부족한 상황이다. 노인장기요양보험에 따르면, 2020년 기준 데이케어센터 이용 가능 등급자는 65만명에 육박하지만, 정원이 평균 30명 내외인 데이케어센터의 수는 4300개로 보급률이 20%에 그치고 있다. 앞서 한컴위드는 2018년부터 서울대·가천대·연세대·건국대 등의 전문의들과 인지훈련 및 치매 예방을 위한 ‘한컴 말랑말랑 브이아르(VR)’를 개발해 전국 치매안심센터·노인복지기관·재활기관 등에 공급해 왔다. 김현수 한컴위드 대표는 “베이비부머 세대의 은퇴가 본격화되기 시작한 만큼 시니어 산업의 성장성에 주목하고 있다. 한컴그룹의 브랜드와 첨단 기술력을 집약한 한컴 말랑말랑 행복케어를 통해서 국내 데이케어센터 서비스 수준을 한 차원 높임과 동시에 인프라 확충에도 기여할 것으로 기대한다”고 말했다.김재섭 선임기자 jskim@hani.co.kr▶더불어 행복한 세상을 만드는 언론, 한겨레 구독하세요!▶네이버 뉴스판 한겨레21 구독▶2005년 이전 &lt;한겨레&gt; 기사 보기[ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		  [파이낸셜뉴스] KT는 정부가 추진하는 한국판 뉴딜 사업의 빠른 실행을 지원하기 위해 한국판 뉴딜 협력 TF 조직을 신설하고 정보통신기술(ICT) 핵심역량을 동원해 사업 협력방안을 마련한다고 6일 밝혔다.    KT 직원들이 5G 인빌딩 기술을 테스트하고 있다. KT 제공 박윤영 KT 기업부문 사장이 TF장을 맡아 프로젝트를 직접 지휘하고 B2B, 인공지능(AI), 5세대(5G) 통신, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대될 예정이다.   정부는 코로나19발 경기침체로 인한 위기의 기업과 노동자 지원이라는 취지에 맞춰 추경안 통과 후 3개월 안에 빠르게 뉴딜 사업을 추진한다고 밝힌 바 있다. 이에 TF는 5G, 기가인터넷 등 네트워크 인프라, AI와 빅데이터 기술, KT 중소협력사 얼라이언스 등의 역량을 기반으로 한국판 뉴딜 사업에 참여해 빠른 실행을 지원할 계획이다.   한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고 산업의 디지털화를 가속해 새로운 일자리를 창출하기 위한 국가 프로젝트다. 디지털 뉴딜과 그린 뉴딜 2대 축으로 구성되며 디지털 뉴딜은 △디지털 인프라 구축 △비대면 산업 육성 △사회간접자본 디지털화를 중심으로 추진된다.   디지털 인프라 구축을 통한 경제활성화 측면에서 KT는 5G 전국 커버리지 확보, 5G SA와 28Ghz 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 올해 코로나19로 인한 경기 위축에도 시장활성화를 위해 5G와 기가인터넷 등 통신인프라에 전년 수준의 투자를 유지할 계획이다.   비대면 산업 육성 측면에서 KT는 언택트 기술 적용을 위해 다양한 기업, 기관들과 협업하고 있다. 서울아산병원과는 비대면 영상솔루션과 사물인터넷 기기, 로봇 등을 활용한 언택트 진료환경 개발을 진행하기로 했으며 현대중공업그룹과는 현대로보틱스에 500억원 지분투자를 통한 지능형 서비스로봇 개발에 나서기로 했다.   공동구와 재난대응 관련 시설에 디지털 안전관리 체계를 구축하는 SOC 디지털화에 협력하기 위해 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 혁신 기술을 개발했다. KT가 현재 운용, 관리하고 있는 전국의 외부 통신시설은 통신구 230개, 통신주 469만개, 맨홀 79만개인데 기지국, 서버 등 통신장비의 안정적인 운영을 위해 디지털 기술 기반의 재난대응은 필수적이다. 따라서 KT는 5G, AI 기반의 화재감지, 침수감지 등 차세대 OSP 관리시스템을 통해 통신 인프라 설계, 운용, 관제, 장애복구 영역의 효율성 및 안정성을 동시에 확보했다.   특히 TF는 사업 추진 준비 외에도 △스마트화를 통한 협력사 소상공인 상생방안 도출 △4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 △세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다  박 사장은 "코로나19로 인해 우리 모두가 어려움을 겪고 있지만 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다"며 "KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다"고 말했다.    syj@fnnews.com 서영준 기자   ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>한컴 말랑말랑 행복케어 브랜드 출시(지디넷코리아=김민선  기자)한글과컴퓨터그룹 계열사인 한컴위드가 노년층을 대상으로 한 스마트 헬스케어 사업을 시작한다.한컴위드는 6일 ICT 기술을 접목한 데이케어센터 브랜드 '한컴 말랑말랑 행복케어'를 출시한다고 밝혔다.다음달 17일부터 한컴 말랑말랑 행복케어 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점 운영을 시작한다. 2023년까지 3천개 데이케어센터를 확보할 계획이다.한컴 말랑말랑 행복케어 용인점 VR 체험.데이케어센터는 만 65세 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 시니어를 위한 시설로, 간호사와 요양보호사가 노인들의 신체, 인지, 정서 기능 향상을 위한 프로그램을 제공하고 있다. 정부가 이용금액의 85%를 지원하기 때문에 비용부담도 적어 대상 고령자들의 이용 선호도는 매우 높은 반면에 시설은 턱없이 부족한 실정이다. 노인장기요양보험에 따르면 2020년 기준 데이케어센터를 이용가능 등급자는 65만명에 육박하지만, 정원이 평균 30명 내외인 데이케어센터의 수는 4천300개에 불과해 보급률은 20%에 그친다.한컴 말랑말랑 행복케어는 디지털 소외계층인 시니어를 대상으로 전문의들과 함께 개발한 인지훈련 치매예방 가상현실(VR)과 상호교감이 가능한 인공지능 로봇 활용 프로그램을 제공하고, 24시간 실시간으로 노인들의 바이탈 체크 및 위치 확인이 가능한 웨어러블 기반의 보호자 안심 서비스 제공 등 첨단 ICT기술을 활용한 스마트 헬스케어 서비스를 제공한다.또한 운영관리에 있어서도 별도의 요양사 교육과 엄선된 식자재 공급, 픽업서비스 등 전문적인 시스템을 의무화하는 한편 금융기관과 협력하여 데이케어센터 사업자들의 창업비용 금융지원도 추진한다는 계획이다.한컴위드는 지난 2018년부터 서울대, 가천대, 연세대, 건국대 등 주요 대학의료기관 전문의들과 협력해 인지훈련 및 치매예방을 위한 ‘한컴 말랑말랑 VR’을 개발, 전국 치매안심센터와 노인복지기관, 재활 기관 등에 공급해왔다.김현수 한컴위드 대표는 “베이비부머 세대의 은퇴가 본격화되기 시작한 만큼 시니어 산업의 성장성에 주목하고 있다”며 “한컴그룹의 브랜드와 첨단 기술력을 집약한 한컴 말랑말랑 행복케어를 통해서 국내 데이케어센터의 서비스 수준을 한 차원 높임과 동시에 인프라 확충에도 기여할 것으로 기대하며, 장기적으로는 관련 빅데이터 분석을 통해 다양한 시니어케어 서비스 개발에 나설 계획”이라고 강조했다.김민선 기자(yoyoma@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기[Copyrightⓒ메가뉴스 &amp; ZDNet &amp; CNET. 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>KT는 '한국판 뉴딜 협력 태스크포스(TF)' 조직을 신설해 정부가 추진하는 '디지털 뉴딜'의 빠른 실행을 지원하겠다고 6일 밝혔다.(KT 제공) © 뉴스1(서울=뉴스1) 김정현 기자 = KT는 '한국판 뉴딜 협력 태스크포스(TF)' 조직을 신설해 정부가 추진하는 '디지털 뉴딜'의 빠른 실행을 지원하겠다고 6일 밝혔다. TF는 구현모 KT 대표이사와 함께 KT내 유일한 '사장' 직함을 갖고 있는 박윤영 기업부문장이 이끈다. 앞서 정부는 신종 코로나 바이러스 감염증(코로나19) 발 경기침체로 인한 위기의 기업과 노동자 지원을 위해 추경안 통과 후 3개월 안에 빠르게 한국판 뉴딜 사업을 추진한다고 밝힌 바 있다. 한국판 뉴딜은 '디지털 뉴딜'과 '그린 뉴딜' 2대 축으로 구성됐다.특히 KT는 디지털 뉴딜의 '디지털 인프라 구축을 통한 경제활성화'를 위해 Δ5G 전국 커버리지 확보 Δ5G 단독모드(SA)와 Δ28기가헤르츠(㎓) 망 상용화 추진 Δ인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. 올해도 KT는 코로나19로 인한 경기 위축에도 시장활성화를 위해 5G와 기가인터넷 등 통신인프라에 전년 수준인 2조1000억원의 투자를 유지할 계획이다.`이외에도 KT는 '비대면 산업 육성'과 '사회간접자본(SOC) 디지털화' 부분에서도 KT의 ICT 핵심역량을 동원할 계획이다.이번 TF는 박윤영 KT 기업부문 사장이 수장을 맡는다. ΔB2B Δ인공지능(AI) Δ5세대(5G) Δ클라우드 Δ네트워크 Δ신사업 Δ연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대될 예정이다.TF는 사업 추진 준비 외에도 Δ스마트화를 통한 협력사·소상공인 상생방안 도출 Δ4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 Δ세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다박 사장은 "코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다"며 "KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다"고 말했다.Kris@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1 바로가기 ▶  코로나19 뉴스 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>5대 은행장 인터뷰 - 권광석 우리은행장※ 대형 은행들이 올해 신종 코로나바이러스 감염증(코로나19) 사태로 난처해하고 있다. 기준금리 인하로 수익성이 줄어드는 와중에 코로나19로 어려워진 가계와 기업에 금융지원을 늘리라는 정부 정책에 따라야 하기 때문이다. 한국경제신문은 코로나19 위기에 처해있는 신한 국민 하나 우리 농협은행장에게 서면으로 하반기 경영계획을 물었다.권광석 우리은행장(사진)은 "코로나19 대출은 우량 차주를 대상으로 해 아직 건전성을 우려할만한 수준은 아니다"면서도 "실적 저하의 영향을 최소화하려면 자산관리 분야를 고도화하고, 비대면 경쟁에서 이기는 게 관건"이라고 말했다. 다음은 권 행장의 답변.▷하반기 경영 계획을 간단히 설명해주신다면."코로나19 여파로 저성장, 저금리 국면이 고착화하고 있습니다. 은행업 대내외 환경도 호전되기 힘들 것으로 봅니다. 기준금리 인하로 영업이익이 줄 것이고, 코로나19 여신지원에 대한 충당금 증가도 변수가 될 것입니다.우리은행은 하반기에 연초 계획한 경영 목표를 그대로 두되, 영업 동력을 살리고 경기 변동에 대한 영향도를 줄이기 위한 노력을 해나갈 것입니다. 자본관리를 위해 적정 규모로 자산을 늘리는 동시에 수익성을 높여 손실흡수능력을 확보할 계획입니다."▷코로나19 소상공인 대출로 여신이 크게 늘었습니다. 리스크 관리 대책은 어떻게 준비 중입니까."코로나19로 경영에 어려움을 겪는 소상공인을 위해 두 차례에 걸쳐 약 5000억원을 지원했습니다. 소상공인 대출은 정부 지침에 따라 1차 지원은 신용등급 3등급 이상 우량 차주, 2차는 신용보증서 담보대출로 집행해 건전성에 미치는 영향이 크지 않을 것으로 여겨집니다. 우리은행 개인사업자 대출은 개인 신용등급이 5등급을 넘지않는 우량차주 비중이 50%를 넘습니다. 건전성에 큰 영향이 없을 것으로 판단합니다. 그러나 코로나19 장기화는 변수입니다. 실물경제에 미칠 영향이 커질 것에 대비해 대출 연체율과 차주 신용등급을 지속적으로 모니터링하고 있습니다. 잠재적 연체가 예상되는 소상공인 대출은 고객별로 특성에 맞는 채무재조정 프로그램인 '개인사업자 119'를 적극 활용해 부실을 최소화할 예정입니다."▷코로나 사태 이후 비대면 금융이 더욱 가속화하고 있습니다. 관련 상품과 서비스 개발은 어떻게 진행하고 있습니까."우리은행은 지난해 8월 비대면 앱 우리원뱅킹을 출시했습니다. 특화상품을 내놓고, 직장인 비대면 통합 신용대출도 선보였습니다. 올해 4월부터는 시중은행 중 처음으로 인터넷뱅킹을 활용한 실시간 무역금융 서비스를 시작했습니다. 소상공인 2차 코로나19 대출도 영업점 방문이 필요없는 모바일뱅킹 시스템으로 집행 중입니다."▷순이자마진(NIM)의 하락으로 은행업의 본질이 바뀌어한다는 지적이 많습니다. 한국의 은행업은 미래는 어떠해야한다고 보십니까. "코로나19로 국내 경제는 기술적 침체 국면에 진입할 것으로 보입니다. 역대 최저 수준인 기준금리 때문에 은행의 수익창출능력도 줄어들 것으로 보입니다. 이런 상황을 극복하려면 은행업의 근본적인 체질을 바꿔야합니다. 우리은행은 금융 소비자와의 접점을 늘리고, 디지털 플랫폼 경쟁력을 높이기 위해 노력하고 있습니다. 초개인화 마케팅을 도입하고, 인공지능(AI)를 통한 대출심사 시스템을 만드는 등 디지털전환(DT)를 강도 높게 추진 중입니다. 자산관리 영업체계를 재구축해 포스트 코로나19 시대의 비대면 금융에 대비하고자 합니다. 이종 산업과의 제휴를 확대하고, 기업투자금융(CIB) 및 자산관리와 기업금융을 결합한 PIB(PB+IB) 사업 강화, 글로벌 진출 다양화 등도 과제입니다." ▷본격적인 '제로금리' 시대가 눈앞에 온 가운데, 은행에 고객을 끌어들이기 위한 방안은 무엇입니까."코로나19가 확산하고, 한국 기준금리가 0.5% 수준으로 하락했습니다. 금융산업의 진입 장벽이 낮아지면서 역대 최저금리 상황에 직면했습니다. 금융산업의 진입장벽이 낮아지면서 핀테크(금융기술) 회사가 시장에 진입, 개인고객 유치경쟁도 심화했습니다. 우리은행은 개인 금융소비자를 확보하기 위해 여·수신 상품뿐 아니라 업무 프로세스의 디지털화를 추진 중입니다. 금융소비자에게 새로운 경험과 편의성을 제공하자는 취지입니다. 대면채널도 업그레이드 필요합니다. 전문적 상담 및 자산관리 서비스 역량을 높일 예정입니다. 세대별로 트렌드를 이끄는 플랫폼사와 제휴도 활성화할 생각입니다. 우리은행은 지난 4월 현대카드와 제휴해 우리매직적금을 출시해 인기를 끌었습니다. 과감한 제휴를 통해 '금융거래의 베이스캠프'가 되도록 노력할 예정입니다. ▷라임사태 이후 사모펀드 및 은행의 자산관리(WM)에 대한 신뢰도가 떨어졌습니다. 향후 WM시장 전망과 전략은 어떻게 세우고 있습니까."하반기 자산관리 시장도 코로나19 팬데믹으로 안전자산을 선호하고 유동성이 넘쳐나는 상황이 지속될 것으로 여겨집니다. 우리은행은 하반기 자산관리 분야에서 소비자 중심의 핵심성과지표(KPI)를 운영하고, 투자상품 관리를 강화하며 완전판매 문화를 정착시키는 노력을 기울일 예정입니다.자산관리 업무의 영업문화를 혁신해 고객 신뢰를 회복하는 데 최선을 다하겠습니다. △소비자 이익의 상품 출시 △전담 채널 인력 강화 △비대면 자산관리 지원 등을 중점적으로 추진할 계획입니다. 상품 판매단계부터 사후관리까지 전 과정의 내부통제 절차를 개선하는 노력도 진행 중입니다. 금융소비자가 개별상품이 아닌 포트폴리오 관점에서 종합적 자산관리를 할 수 있도록 프라이빗뱅킹(PB) 역량을 강화하는 교육 프로그램도 진행하겠습니다."▷네이버(파이낸셜)과 카카오(페이) 등 빅테크 기업의 금융업 진출이 점차 속도를 내고 있습니다. 빅테크 기업과의 경쟁은 어떤 양상으로 펼쳐질 것으로 보십니까."하반기에는 오픈뱅킹 활성화, 데이터 3법 및 전자금융법 개정 등 정부의 금융혁신 정책이 속속 가시화할 것입니다. 핀테크 및 빅테크 기업들의 혁신 서비스 출시로 기존 금융사와의 경쟁도 치열해질 것입니다. 우리은행은 이러한 시대에 맞는 새로운 비즈니스 모델을 준비하고 있습니다. 비대면 상품 경쟁력을 강화하고, 금융 전 영역에서 디지털화 확산을 목표로 하고 있습니다. 핀테크사들이 쉽게 모방하기 어려운 기업금융과 자산관리 등 금융사 고유영역을 디지털화하는 게 목표입니다."▷마이데이터 사업(본인신용정보관리업)에 대한 준비는 어떻게 진행 중입니까."우리은행은 마이데이터 라이선스를 준비하기 위한 태스크포스(TF)를 지난 5월 출범했습니다. 초개인화한 자산관리 서비스를 만들고 고객 관점으로 신용평가와 대출심사를 하는 게 목표입니다. 현재 마이데이터 사업 준비를 위한 외부 컨설팅도 받고 있습니다."김대훈/정소람 기자 daepun@hankyung.com▶ 네이버에서 한국경제 뉴스를 받아보세요▶ 한경닷컴 바로가기  ▶ 모바일한경 구독신청 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>[한국경제TV 신동호 기자]한글과컴퓨터그룹 계열사인 한컴위드(대표 김현수, 홍승필)가 시니어케어 서비스 사업에 진출한다.한컴위드는 ICT기술과 체계적 운영프로세스를 적용한 데이케어센터 브랜드 ‘한컴 말랑말랑 행복케어’를 공개하고 오는 2023년까지 3천개의 데이케어센터를 확보할 계획이라고 6일 밝혔다.오는 8월 17일부터 ‘한컴 말랑말랑 행복케어’ 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점 운영을 시작으로 한다. ‘한컴 말랑말랑 행복케어’는 디지털 소외계층인 시니어를 대상으로 전문의들과 함께 개발한 인지훈련 치매예방 가상현실(VR)과 상호교감이 가능한 인공지능 로봇 활용 프로그램을 제공한다.24시간 실시간으로 노인들의 바이탈 체크 및 위치 확인이 가능한 웨어러블 기반의 보호자 안심 서비스 제공 등 첨단 ICT기술을 활용한 스마트 헬스케어 서비스를 제공한다.운영관리에 있어서도 별도의 요양사 교육과 엄선된 식자재 공급, 픽업서비스 등 전문적인 시스템을 의무화하는 한편 금융기관과 협력하여 데이케어센터 사업자들의 창업비용 금융지원도 추진한다는 계획이다.데이케어센터는 만 65세 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 시니어를 위한 시설로, 간호사와 요양보호사가 노인들의 신체, 인지, 정서 기능 향상을 위한 프로그램을 제공하고 있다.정부가 이용금액의 85%를 지원하기때문에 비용부담도 적어 대상 고령자들의 이용 니즈는 매우 높은 반면에 시설은 턱없이 부족한 실정이다.노인장기요양보험에 따르면 2020년 기준 데이케어센터를 이용가능 등급자는 65만 명에 육박하지만, 정원이 평균 30명 내외인 데이케어센터의 수는 4,300개에 불과해 보급률은 20%에 그치고 있다.한컴위드는 지난 2018년부터 서울대, 가천대, 연세대, 건국대 등 주요 대학의료기관 전문의들과 협력하여 인지훈련 및 치매예방을 위한 ‘한컴 말랑말랑 VR’을 개발, 전국 치매안심센터와 노인복지기관, 재활 기관 등에 공급해 왔다.김현수 한컴위드 대표는 “베이비부머 세대의 은퇴가 본격화되기 시작한 만큼 시니어 산업의 성장성에 주목하고 있다”며, “한컴그룹의 브랜드와 첨단 기술력을 집약한 ‘한컴 말랑말랑 행복케어’를 통해서 국내 데이케어센터의 서비스 수준을 한 차원 높임과 동시에 인프라 확충에도 기여할 것으로 기대하며, 장기적으로는 관련 빅데이터 분석을 통해 다양한 시니어케어 서비스 개발에 나설 계획”이라고 말했다.신동호기자 dhshin@wowtv.co.kr▶ 네이버 홈에서 [한국경제TV] 채널 구독하기 [생방송보기]▶ 대한민국 재테크 총집결! - [증권 / 주식상담 / 부동산]ⓒ 한국경제TV, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 조성훈 기자] 한글과컴퓨터그룹 계열사인 한컴위드는 시니어케어 서비스 사업에 나선다고 6일 밝혔다.한컴위드는 ICT기술과 체계적 운영프로세스를 적용한 데이케어센터 브랜드 ‘한컴 말랑말랑 행복케어’를 공개하고, 오는 8월 17일부터 ‘한컴 말랑말랑 행복케어’ 서울 도봉구점, 수원 팔달구점, 경기 용인점, 부산 해운대점, 제주 서귀포점 운영을 시작으로 2023년까지 3000개의 데이케어센터를 확보할 계획이라고 밝혔다.‘한컴 말랑말랑 행복케어’는 디지털 소외계층인 시니어를 대상으로 전문의들과 함께 개발한 인지훈련 치매예방 가상현실(VR)과 상호교감이 가능한 인공지능 로봇 활용 프로그램을 제공한다. 또 24시간 실시간으로 노인들의 바이탈 체크 및 위치 확인이 가능한 웨어러블 기반의 보호자 안심 서비스 제공 등 첨단 ICT기술을 활용한 스마트 헬스케어 서비스를 제공한다. 운영관리에 있어서도 별도의 요양사 교육과 엄선된 식자재 공급, 픽업서비스 등 전문적인 시스템을 의무화하는 한편 금융기관과 협력하여 데이케어센터 사업자들의 창업비용 금융지원도 추진한다는 계획이다.데이케어센터는 만 65세 이상 노인장기요양 3~5등급 또는 인지지원 등급에 해당하는 시니어를 위한 시설로, 간호사와 요양보호사가 노인들의 신체, 인지, 정서 기능 향상을 위한 프로그램을 제공한다. 정부가 이용금액의 85%를 지원하기때문에 비용부담도 적어 대상 고령자들의 이용 수요는 매우 높은 반면에 시설은 턱없이 부족한 실정이다. 노인장기요양보험에 따르면 2020년 기준 데이케어센터 이용가능 등급자는 65만 명에 육박하지만, 정원이 평균 30명 내외인 데이케어센터의 수는 4300개에 불과해 보급률은 20%에 그치고 있다.한컴위드는 2018년부터 서울대, 가천대, 연세대, 건국대 등 주요 대학의료기관 전문의들과 협력해 인지훈련 및 치매예방을 위한 ‘한컴 말랑말랑 VR’을 개발, 전국 치매안심센터와 노인복지기관, 재활 기관 등에 공급해 왔다.한컴위드 김현수 대표는 “베이비부머 세대의 은퇴가 본격화되기 시작한 만큼 시니어 산업의 성장성에 주목하고 있다”며, “한컴그룹의 브랜드와 첨단 기술력을 집약한 ‘한컴 말랑말랑 행복케어’를 통해서 국내 데이케어센터의 서비스 수준을 한 차원 높임과 동시에 인프라 확충에도 기여할 것으로 기대한다"고 밝혔다. 조성훈 기자 search@▶줄리아 투자노트▶조 변호사의 가정상담소 ▶머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>오는 29일 담합 혐의에 따른 입찰제한 풀려[아이뉴스24 김문기 기자] 이달 공공입찰 제한이 풀리는 KT가 한국판 뉴딜을 통해 쏟아지는 한국판 뉴딜 정부 사업 수주에 총력을 다한다. 이를 위해 '한국판 뉴딜협력 TF' 조직을 신설하는 한편 박윤영 KT 사장이 이를 직접 지휘한다.KT(사장 구현모)는 정부가 추진하는 한국판 뉴딜 사업의 빠른 실행을 지원하기 위해 '한국판 뉴딜 협력 TF' 조직을 신설하고, ICT 핵심역량을 동원해 사업 협력방안을 마련한다고 6일 발표했다.KT 직원들이 5G 기반 비대면 화상통화 앱을 시연하고 있다 [사진=KT]KT 기업부문 박윤영 사장이 TF장을 맡아 프로젝트를 직접 지휘하고, 기업간거래(B2B), 인공지능(AI), 5G, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대될 예정이다.정부는 '코로나19 경기침체로 인한 위기의 기업과 노동자 지원' 취지에 맞춰 추경안 통과 후 3개월 안에 빠르게 뉴딜 사업을 추진할 것이라 밝혔다.한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고, 산업의 디지털화를 가속해 새로운 일자리를 창출하기 위한 국가 프로젝트다. '디지털 뉴딜'과 '그린 뉴딜' 2대 축으로 구성되며, 디지털 뉴딜은 ▲디지털 인프라 구축 ▲비대면 산업 육성 ▲사회간접자본 디지털화를 중심으로 추진된다.정부는 대부분의 한국판뉴딜 정책을 공모를 통해 진행한다. 이에 따라 각 관련 사업자들의 치열한 경쟁이 예고되고 있다.KT는 네트워크 인프라 강점을 내세워 사업 공모에 적극 나설 것으로 예상된다.우선 비대면 산업 육성 측면에서 KT는 언택트 기술 적용을 위해 다양한 기업 및 기관들과 협업하고 있다고 자신했다. 서울아산병원과는 비대면 영상솔루션과 사물인터넷 기기, 그리고 로봇 등을 활용한 언택트 진료환경 개발을 진행하기로 했으며, 현대중공업그룹과는 현대로보틱스에 500억 지분투자를 통한 지능형 서비스로봇 개발에 나서기로 했다.공동구와 재난대응 관련 시설에 디지털 안전관리 체계를 구축하는 SOC 디지털화에 협력하기 위해서도 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 혁신 기술을 개발했다고 설명했다.KT가 현재 운용·관리하고 있는 전국의 외부 통신시설은 통신구 230개 286km, 통신주 469만개, 맨홀 79만개인데, 기지국, 서버 등 통신장비의 안정적인 운영을 위해 디지털 기술 기반의 재난대응은 필수적이다.TF는 사업 추진 준비 외에도 ▲스마트화를 통한 협력사/소상공인 상생방안 도출 ▲4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 ▲세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다.박윤영 KT 기업부문 사장은 "코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다"며, "KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다"고 말했다. +한편, KT는 지난해 4월 공정거래위원회로부터 '공공분야 전용회선 사업' 입찰 담합 협의로 검찰에 고발당한 바 있다. 이후 서울행정법원은 KT에 공공입찰 참가 자격 제한처분 6개월을 내렸다. 이달 29일까지 나라장터 국가, 지방자치단체, 공공기관이 발주하는 사업 입찰에는 참여할 수 없다.김문기기자 moon@inews24.com▶네이버 채널에서 '아이뉴스24'를 구독해주세요.▶재밌는 아이뉴스TV 영상보기  ▶아이뉴스24 바로가기[ⓒ 아이뉴스24 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>-박윤영 사장 TF장으로…연인원 200여명 이상 참여-인프라 투자·협력사 상생·고용 안정 등 협력방안 도출KT 직원들이 5세대(5G) 인빌딩 기술을 테스트하고 있다. [KT 제공][헤럴드경제=박세정 기자] KT는 정부가 추진하는 한국판 뉴딜 사업의 빠른 실행을 지원하기 위해 ‘한국판 뉴딜 협력 태스크포스(TF)’ 조직을 신설한다고 6일 밝혔다.KT 기업부문 박윤영 사장이 TF장을 맡아 프로젝트를 직접 지휘한다. 기업고객(B2B), 인공지능(AI), 5세대(5G)통신, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다.한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고, 산업의 디지털화를 가속해 새로운 일자리를 창출하기 위한 국가 프로젝트다. ‘디지털 뉴딜’과 ‘그린 뉴딜’ 2대 축으로 구성된다. 디지털 뉴딜은 ▷디지털 인프라 구축 ▷비대면 산업 육성 ▷사회간접자본(SOC) 디지털화를 중심으로 추진된다.KT는 우선 디지털 인프라 구축을 위해 5G 전국 커버리지 확보와 5G 전용망(SA), 28㎓ 상용화 추진 등 망 투자를 확대해 정부 정책에 동참한다. KT는 지난해 2조1000억원을 가입자망에 투자한 바 있다. 올해에도 통신인프라에 전년 수준의 투자를 유지할 계획이다.비대면 산업 육성 측면에서 KT는 언택트 기술을 적용하기 위해 다양한 기업 및 기관들과 협업을 확대한다. 대표적으로 KT는 서울아산병원, 현대중공업그룹 등과 비대면 기술 협력을 추진 중이다.SOC 디지털화에 협력하기 위해 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 기술을 개발했다. KT가 현재 운용·관리하고 있는 전국의 외부 통신시설은 통신구 230개(286㎞), 통신주 469만개, 맨홀 79만개다. KT는 5G·AI 기반의 화재 감지 기술 등을 통해 재난 대응에도 힘을 싣고 있다.KT 직원이 비대면으로 연구개발(R&amp;D) 기술을 소개하고 있다. [KT 제공]KT는 TF는 사업 추진 준비 외에도 ▷스마트화를 통한 협력사·소상공인 상생방안 도출 ▷미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 ▷K방역 모델 개발 및 글로벌 확장 등의 프로젝트도 추진할 계획이다.박윤영 KT 기업부문 사장은 “코로나19로 인해 우리 모두가 어려움을 겪고 있지만 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다”며 “KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 것”이라고 말했다.sjpark@heraldcorp.com▶코리아헤럴드 플립화상영어 무료체험▶헤럴드경제 네이버 채널 구독 ▶농수축산물 소비캠페인 - Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>박윤영 기업부문 사장 프로젝트 직접 지휘5G 커버리지 확보 및 SA·28㎓ 상용화 나서고용창출 기여할 수 있는 프로젝트 지속 추진KT 모델이 화상회의 앱을 소개하고 있다.ⓒKTKT가 정부의 ‘디지털 뉴딜’에 발맞춰 정보통신기술(ICT) 역량 집중에 나선다.KT는 6일 한국판 뉴딜 협력 TF조직을 신설하고 KT의 기술과 네트워크, 인적 등 ICT 핵심역량을 동원해 사업 협력방안을 마련한다고 밝혔다. 박윤영 기업부문 사장이 TF장을 맡아 프로젝트를 직접 지휘한다.박윤영 KT 기업부문 사장은 “코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다”며 “KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다”고 말했다.기업간 거래(B2B), 인공지능(AI), 5세대 이동통신(5G), 클라우드, 네트워크, 신사업, 연구개발(R&amp;D) 등 각 분야에서 200여명 이상의 임직원이 참여해 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대될 예정이다.이번 TF조직 신설은 정부의 ‘코로나19발 경기침체로 인한 위기의 기업과 노동자 지원’ 취지의 뉴딜 사업 추진의 빠른 실행을 지원하기 위해서다. 한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고, 산업의 디지털화를 가속해 새로운 일자리를 창출하기 위한 국가 프로젝트다.‘디지털 뉴딜’과 ‘그린 뉴딜’ 2대 축으로 구성되며 디지털 뉴딜은 ▲디지털 인프라 구축 ▲비대면 산업 육성 ▲사회간접자본 디지털화를 중심으로 추진된다. 정부는 추경안 통과 후 3개월 안에 뉴딜 사업을 시행할 방침이다.KT는 TF조직을 통해 한국판 뉴딜 사업에 참여 및 빠른 실행을 지원한다. 5G 전국 커버리지 확보와 5G SA와 28㎓ 상용화 추진, 인빌딩 중계기 구축 등으로 디지털 인프라를 구축한다는 계획이다. 언택트 기술 적용을 위한 다양한 기업 및 기관과의 협업으로 비대면 산업을 육성할 것으로 예상된다.특히 TF는 사업 추진 준비 외에도 ▲스마트화를 통한 협력사·소상공인 상생방안 도출 ▲4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 ▲세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다.데일리안 이건엄 기자 (lku@dailian.co.kr)ⓒ (주)데일리안 - 무단전재, 변형, 무단배포 금지</t>
+  </si>
+  <si>
+    <t>박윤영 TF장, 프로젝트 지휘각분야 임직원 200여명 참여협업 통해 언택트기술 적용도박윤영 KT 사장.    KT 제공KT가 정부가 추진하는 '한국판 뉴딜' 사업의 빠른 실행을 지원하기 위해 '한국판 뉴딜 협력 TF' 조직을 신설하고, ICT 핵심역량을 동원해 사업 협력방안을 마련한다. 박윤영(사진) KT 기업부문 사장이 TF장을 맡아 프로젝트를 직접 지휘하고, B2B, AI(인공지능), 5G, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 참여인원은 사업진행에 따라 점차 확대될 예정이다.정부는 '코로나19발 경기침체로 인한 위기의 기업과 노동자 지원'이라는 취지에 맞춰 추경안 통과 후 3개월 안에 빠르게 뉴딜 사업을 추진한다고 밝힌 바 있다. 이에 따라, TF는 5G·기가인터넷 등 네트워크 인프라, AI·빅데이터 기술, KT 중소협력사 얼라이언스 등의 역량을 기반으로 한국판 뉴딜 사업에 적극적으로 참여할 계획이다.한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고, 산업의 디지털화를 가속화 해 새로운 일자리를 창출하기 위한 국가 프로젝트다. '디지털 뉴딜'과 '그린 뉴딜' 2대 축으로 구성되며, 디지털 뉴딜은 △디지털 인프라 구축 △비대면 산업 육성 △사회간접자본 디지털화를 중심으로 추진된다.디지털 인프라 구축을 통한 경제활성화 측면에서 KT는 5G 전국 커버리지 확보, 5G SA와 28Ghz 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 2019년 세계 최초로 5G를 상용화 하기 위해 5G 인프라 투자를 늘려 2018년 대비 약 두 배인 2조1000억원을 가입자망에 투자한 바 있다. 올해에도 KT는 코로나19로 인한 경기 위축에도 시장활성화를 위해 5G와 기가인터넷 등 통신인프라 구축을 위해  전년 수준의 투자를 진행할 방침이다.또한 KT는 언택트 기술적용을 위해 다양한 기업 및 기관들과 협업을 진행한다. 이미 서울아산병원과는 비대면 영상솔루션과 사물인터넷 기기, 그리고 로봇 등을 활용한 언택트 진료환경 개발을 진행하기로 했으며, 현대중공업그룹과는 현대로보틱스에 500억 지분투자를 통한 지능형 서비스로봇 개발에 나서기로 했다. 또한 화상 솔루션을 활용한 비대면 결혼식과 대학 응원전, VR 교육 등 포스트 코로나 시대에 대비한 다양한 비대면 사업 경험과 역량을 축적하고 있다.또한 공동구와 재난대응 관련 시설에 디지털 안전관리 체계를 구축하는 SOC(사회간접자본) 디지털화에 협력하기 위해 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 혁신 기술을 개발했다. KT가 현재 운용·관리하고 있는 전국의 외부 통신시설(Out Side Plant)은 통신구 230개(286km), 통신주 469만개, 맨홀 79만개인데, 기지국, 서버 등 통신장비의 안정적인 운영을 위해 디지털 기술 기반의 재난대응은 필수적이다. 이에 KT는 5G·AI 기반의 화재감지, 침수감지 등 차세대 OSP 관리시스템을 통해 통신 인프라 설계, 운용, 관제, 장애복구 영역의 효율성 및 안정성을 동시에 확보했다.특히, TF는 사업 추진 준비 외에도 △스마트화를 통한 협력사와 소상공인 상생방안 도출 △4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 △세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다TF장인 박윤영 KT 기업부문 사장은 "코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다"며 "KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다"고 말했다.김은지기자 kej@dt.co.kr 디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		티맥스A&amp;C의 쿠버네티스 기반 오픈 클라우드 플랫폼 ‘하이퍼클라우드’가 쿠버네티스 적합성 인증을 받으며 기술력을 입증했다.인공지능(AI) 및 클라우드 플랫폼∙서비스 전문기업 티맥스A&amp;C는 최근 클라우드 네이티브 컴퓨팅 파운데이션(CNCF) 재단의 쿠버네티스 적합성 인증 프로그램에서 쿠버네티스 기반 오픈 클라우드 플랫폼 ‘하퍼클라우드’가 클라우드 환경의 사실상 표준인 쿠버네티스 적합성(CK, Certified Kubernetes) 인증을 획득했다고 6일 밝혔다.티맥스의 하이퍼클라우드는 쉽고 빠르게 클라우드 환경을 구현할 수 있는 쿠버네티스 기반의 오픈 클라우드 플랫폼으로써 지난 3월 출시됐다. 티맥스의 주요 시스템 SW 제품뿐 아니라 이미 시장에서 검증된 다양한 오픈소스를 포괄해 고객이 특정 클라우드에 종속되지 않고 자신에게 가장 적합한 클라우드를 주도적으로 구성할 수 있다.또한 하이퍼클라우드는 클라우드 환경에서 운영체제(OS) 역할까지 하여 클라우드 인프라 영역도 통합해 활용할 수 있도록 지원한다. 다양한 고객 개발, 검증, 운영 환경을 손쉽게 도와준다. 클라우드 서비스 관리를 위한 ‘셀프 서비스 포탈’을 제공해 전문가의 도움 없이도 기존에 사용하던 애플리케이션을 클라우드로 쉽게 전환할 수 있도록 돕는다.티맥스A&amp;C의 오픈 클라우드 플랫폼 ‘하이퍼클라우드’가 쿠버네티스 적합성 인증을 받았다.CNCF는 리눅스 재단에 소속돼 전 세계 500개 이상의 회원사들이 참여하고 있는 비영리단체다. 쿠버네티스 적합성 인증 프로그램을 통해 쿠버네티스 인증 제품을 보유한 업체도 전 세계적으로 100개 이상이다. 이 인증을 받은 국내 기업으로는 티맥스A&amp;C를 포함해 단 세 곳뿐이다.하이퍼클라우드의 CK 인증은 티맥스A&amp;C가 CNCF 재단에서 정한 표준에 맞춰서 전 세계에 공통으로 적용되는 클라우드 기술을 제공해 사업을 확대해 나가겠다는 의미이다. 티맥스는 이번 CK 인증을 시작으로 올해 하반기 클라우드 플랫폼 사업을 확대하고, 오픈소스 생태계 활성화에도 기여할 계획이다.현재 국내 굴지의 금융 기관과 교육 기관, 통신 네트워크 대기업, 식자재 유통 기업 등을 비롯해 다양한 산업 분야 기업과 공공기관 등에서 티맥스의 하이퍼클라우드 사업을 진행 중에 있다고 회사측은 설명했다.티맥스A&amp;C 한상욱 대표는 “티맥스A&amp;C가 CNCF 재단의 CK 인증을 통해 전 세계적인 표준 클라우드 기술을 제공할 수 있게 되었다”라며, “’하이퍼클라우드’라는 완성된 클라우드 플랫폼과 서비스를 기반으로 올 하반기에 더 큰 사업 기회를 발굴해 클라우드로 시대를 주도해 나갈 것이다”라고 말했다.김효정 기자(hjkim@bloter.net)[블로터 바로가기]▶ 네이버 메인에서 블로터 뉴스 구독하기▶ 블로터 아카데미에서 마케팅 역량을 키우세요▶ 확장 가능 애자일 조직, 디지털 성장의 핵심동력저작권자 ⓒ(주)블로터앤미디어, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>- 연인원 200여명 이상 참여, 기업부문 박윤영 사장이 TF장- 인프라 투자, 협력사 상생, 고용 안정, 소비 진작, K방역 등 협력방안 도출- 박윤영 사장 ”KT의 기술과 네트워크, 인적 역량으로 코로나 극복에 기여할 것”[이데일리 김현아 기자]KT 직원들이 5G 인빌딩 기술을 테스트하고 있다.KT 직원들이 5G 기반 재난대응 인프라 기술을 시연하고 있다KT가 자사의 국내 최대 네트워크 인프라, 5G와 인공지능(AI) 및 빅데이터 기술을 활용해 정부의 디지털 뉴딜을 지원하기 위해 나섰다.KT(대표이사 구현모)는 정부가 추진하는 한국판 뉴딜 사업의 빠른 실행을 지원하기 위해 ‘한국판 뉴딜 협력 TF’ 조직을 신설하고, ICT 핵심역량을 동원해 사업 협력방안을 마련했다.KT 기업부문 박윤영 사장이 TF장을 맡아 프로젝트를 직접 지휘하고, B2B, AI, 5G, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대된다.산업의 디지털화를 통해 새로운 일자리 도울 것정부는 ‘코로나19발 경기침체로 인한 위기의 기업과 노동자 지원’이라는 취지에 맞춰 추경안 통과 후 3개월 안에 빠르게 뉴딜 사업을 추진한다고 밝힌 바 있다. 이에 TF는 5G/GiGA인터넷 등 네트워크 인프라, AI/빅데이터 기술, KT 중소협력사 얼라이언스 등의 역량을 기반으로 한국판 뉴딜 사업에 참여해 빠른 실행을 지원할 계획이다.한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고, 산업의 디지털화를 가속해 새로운 일자리를 창출하기 위한 국가 프로젝트다. ‘디지털 뉴딜’과 ‘그린 뉴딜’ 2대 축으로 구성되며, 디지털 뉴딜은 ▲디지털 인프라 구축 ▲비대면 산업 육성 ▲사회간접자본 디지털화를 중심으로 추진된다.TF는 사업 추진 준비 외에도 ▲스마트화를 통한 협력사/소상공인 상생방안 도출 ▲4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 ▲세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다.TF장인 KT 기업부문 박윤영 사장은 “코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다”며 “KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다”고 말했다.KT 직원들이 5G 기반 재난대응 인프라 기술을 시연하고 있다.디지털 인프라 구축에 동참..전년 수준 투자 유지디지털 인프라 구축을 통한 경제활성화 측면에서 KT는 5G 전국 커버리지 확보, 5G SA와 28Ghz 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 2019년 세계 최초로 5G를 상용화 하기 위해 5G 인프라 투자를 늘려 ‘18년 대비 약 두 배인 2조 1천억원을 가입자망에 투자한 바 있다. 올해에도 KT는 코로나19로 인한 경기 위축에도 시장활성화를 위해 5G와 기가인터넷 등 통신인프라에 전년 수준의 투자를 유지할 계획이다. 비대면 산업 육성..로봇 활용비대면 산업 육성 측면에서 KT는 언택트 기술 적용을 위해 다양한 기업 및 기관들과 협업하고 있다. 서울아산병원과는 비대면 영상솔루션과 사물인터넷 기기, 그리고 로봇 등을 활용한 언택트 진료환경 개발을 진행하기로 했다.현대중공업그룹과는 현대로보틱스에 500억 지분투자를 통한 지능형 서비스로봇 개발에 나서기로 했다. 또한 화상 솔루션을 활용한 비대면 결혼식과 대학 응원전, VR 교육 등 포스트 코로나 시대를 대비한 다양한 비대면 사업 경험과 역량을 축적 중이다.KT 직원들이 5G 기반 비대면 화상통화 App을 시연하고 있다.디지털 안전관리 체계 구축공동구와 재난대응 관련 시설에 디지털 안전관리 체계를 구축하는 SOC 디지털화에 협력하기 위해 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 혁신 기술을 개발했다. KT가 현재 운용·관리하고 있는 전국의 외부 통신시설(Out Side Plant)은 통신구 230개(286km), 통신주 469만개, 맨홀 79만개인데, 기지국, 서버 등 통신장비의 안정적인 운영을 위해 디지털 기술 기반의 재난대응은 필수적이다. 이에 KT는 5G·AI 기반의 화재감지, 침수감지 등 차세대 OSP 관리시스템을 통해 통신 인프라 설계, 운용, 관제, 장애복구 영역의 효율성 및 안정성을 동시에 확보했다.한편 KT는 ▲5G/기가인터넷 네트워크 구축 및 온라인 개학 지원을 위한 초중고 통신장비 지원 ▲AI One-Team과 4차산업혁명 아카데미 교육 프로그램으로 AI와 빅데이터 미래인재 육성 ▲시니어 컨설턴트 제도를 통한 퇴직예정자 재고용 ▲유통 대리점주 임대료 지원과 K쇼핑 수수료 인하, 우리가게 TV 무상 제공 등 경제활성화를 위해 투자, 고용, 상생의 노력을 해왔다. KT는 감염자 이동경로 실시간 분석, 안심밴드 기반 자가격리대상자 모니터링, 재난문자 긴급 송출, 게이츠재단 GEPP 공동 연구 등 K-방역 성공과 글로벌 진출에도 함께하고 있다.김현아 (chaos@edaily.co.kr)네이버에서 ‘이데일리’ 구독하기▶청춘뉘우스~ 스냅타임▶＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t>[아시아경제 구채은 기자]  KT가 박윤영 기업부문 KT 사장이 주축이 돼 '한국판 뉴딜 협력 TF'를 신설, 정부 프로젝트인 '한국판 뉴딜' 정책을 적극 동참키로 했다. 이 TF에는 기업거래(B2B), 인공지능(AI), 5G, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대된다.6일 KT는 이같은 내용의 TF 신설안을 발표했다. TF는 5G/GiGA인터넷 등 네트워크 인프라, AI/빅데이터 기술, KT 중소협력사 얼라이언스 등의 역량을 기반으로 한국판 뉴딜 사업에 참여해 빠른 실행을 지원할 계획이다. KT는 우선 5G 전국 커버리지 확보, 5G SA와 28Ghz 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 2019년 세계 최초로 5G를 상용화 하기 위해 5G 인프라 투자를 늘려 ‘18년 대비 약 두 배인 2조 1000억원을 가입자망에 투자한 바 있다. 올해에도 KT는 코로나19로 인한 경기 위축에도 시장활성화를 위해 5G와 기가인터넷 등 통신인프라에 전년 수준의 투자를 유지할 계획이다.비대면 산업 육성 측면에서 KT는 언택트 기술 적용을 위해 다양한 기업과 기관들과 협업하고 있다. 서울아산병원과는 비대면 영상솔루션과 사물인터넷 기기, 그리고 로봇 등을 활용한 언택트 진료환경 개발을 진행하기로 했다. 현대중공업그룹과는 현대로보틱스에 500억 지분투자를 통한 지능형 서비스로봇 개발에 나서기로 했다. 또한 화상 솔루션을 활용한 비대면 결혼식과 대학 응원전, VR 교육 등 포스트 코로나 시대를 대비한 다양한 비대면 사업 경험과 역량을 축적 중이다.공동구와 재난대응 관련 시설에 디지털 안전관리 체계를 구축하기 위해 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 혁신 기술을 개발했다. KT가 현재 운용·관리하고 있는 전국의 외부 통신시설은 통신구 230개(286km), 통신주 469만개, 맨홀 79만개인데, 기지국, 서버 등 통신장비의 안정적인 운영을 위해 디지털 기술 기반의 재난대응은 필수적이다. 이에 KT는 5G·AI 기반의 화재감지, 침수감지 등 차세대 OSP 관리시스템을 통해 통신 인프라 설계, 운용, 관제, 장애복구 영역의 효율성 및 안정성을 동시에 확보했다.특히 TF는 사업 추진 준비 외에도 ▲스마트화를 통한 협력사/소상공인 상생방안 도출 ▲4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 ▲세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다. 박윤영 KT 기업부문 사장은 “신종 코로나바이러스감염증(코로나19)으로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다”며, “KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다”고 말했다.구채은 기자 faktum@asiae.co.kr▶ 2020년 하반기, 재물운·연애운·건강운 체크!▶ 네이버에서 아시아경제 뉴스를 받아보세요 ▶ 놀 준비 되었다면 드루와!  드링킷!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[아이뉴스24 김세희 기자] 온라인영어독서 전문 플랫폼, '참빛북클럽'이 이번 7월 초 자사 홈페이지를 통해 초등학생을 대상으로 무료체험을 실시한다고 밝혔다.(주)참빛교육(대표 김병화)이 운영하는 참빛북클럽은 해외 유명 출판사의 영어원서를 전자책으로 제작, 학원 등 영어교육기관을 통해 초등학생을 대상으로 하는 수준별 온라인 영어독서 서비스를 제공한다. 현재 전국 3천여 개의 교육기관을 통해 누적회원 15만 명에게 서비스를 공급하고 있다최근 코로나 바이러스의 확산으로 많은 학생들이 학교와 학원 등원을 하지 못하자, 3월부터 가정에서 사용할 수 있는 서비스를 오픈하였다. 특히 참빛교육은 코로나가 장기화 국면에 접어들자, 포스트 코로나 시대를 대비해 7월 공식적인 유료 서비스를 시작하게 됐다.이번 참빛북클럽의 개인용 서비스는 2주 동안 무료체험이 가능하다. 서비스는 간단한 영어레벨테스트와 코칭상담 등을 통해 영어 레벨을 파악할 수 있다. 이후 자신의 수준에 맞는 영어원서 전자책을 맞춤 도서리스트로 받아볼 수 있다. 맞춤 도서를 전자책으로 읽고 온라인 퀴즈를 통해 실력을 점검할 수 있다.또한 이번에는 특별한 전담관리 서비스가 추가됐다. 온라인 학습 후에도 다양한 독후 활동을 할 수 있는 월 교재가 포함되고 전담 독서 코치가 진도와 학습을 도와준다. 덕분에 부모가 직접 아이들의 학습을 확인하지 않아도 자녀 스스로 꾸준한 학습을 할 수 있다.아울러 형제자매가 있는 가정도 부모 계정 하나라도 2명 모두 프로필을 개설하여 사용할 수 있다. 형제가 각자의 레벨과 진도로 프로그램을 이용할 수 있어 편의를 더한다.한편 참빛교육은 올해 초, 과학기술정보통신부와 정보통신산업진흥원이 주관하는 '2020~2021년 지역 SW 서비스사업'에 선정되어 국비지원을 받고 인공지능(AI) 영어독서 큐레이션 서비스를 개발하게 된다. 올해 하반기에는 참빛북클럽을 통해 인공지능 독서 영어레벨테스트를 선보인다.무료체험 서비스에 대한 더 자세한 정보는 참빛북클럽 공식 홈페이지 등에서 확인하면 된다.김세희기자 ksh1004@inews24.com▶네이버 채널에서 '아이뉴스24'를 구독해주세요.▶재밌는 아이뉴스TV 영상보기  ▶아이뉴스24 바로가기[ⓒ 아이뉴스24 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>박윤영 사장 중심으로 200여명 이상 투입5G, AI, B2B서비스, 클라우드 사업 등 추진KT직원들이 5G 인빌딩장비 등을 점검하고 있다. /사진제공=KT[서울경제] KT가 디지털혁신으로 경제성장동력을 살리려는 정부의 한국판 뉴딜정책을 지원하기 위해 전담조직을 신설하고 대규모 인력을 투입한다. KT는 ‘한국판 뉴딜 협력 테스크포스(TF)’를 조직하고 박윤영 기업부문 사장에게 TF장으로서의 역할을 맡겼다고 6일 밝혔다. 또한 200여명 이상의 임직원들에게 관련 사업을 준비시키겠다고 설명했다. 해당 임직원들은 기업간거래(B2B), 인공지능(AI), 5세대 이동통신서비스(5G), 클라우드, 네트워크, 신사업, 연구개발 등 여러 분야에서 차출된다.  TF는 특히 KT의 중소협력사 얼라이언스(제휴)와 5G 중심의 네트워크 인프라, 빅데이터, AI 분야에서의 역량 등을 바탕으로 관련 한국판 뉴딜에 적극 참여할 계획이다. 이에 따라 5G의 전국적 커버리지를 확충하고, 5G 전용 통신장비 및 기술을 바탕으로 하는 5G 스탠드얼론(SA) 서비스를 상용화하고 28GHz 주파수대역에서의 통신서비스 상용화에 나설 예정이다. 아울러 건물 내에서의 통신품질도 높이기 위해 인빌딩 중계기 구축에 나선다. 비대면(언택트) 산업분야 육성 분야에도 관련 기업 및 기관들과 손잡고 적극 참여한다. KT는 의료분야 언텍트 진료서비스 개발을 위해 서울아산병원과 협업해 비대면 영상솔루션, 로봇, 사물인터넷(IoT) 등을 적용하는 사업을 진행하고 있다. 또한 현대로보틱스에 500억원의 지분을 투자해 지능형 서비스 로봇개발에도 나서는 중이다. 이밖에도 가상현실(VR)기반의 교육서비스 등 화상솔루션 기반의 기술적용을 추진 중이다. 박 사장은  “KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다”고 말했다./민병권기자 newsroom@sedaily.com[서울경제 바로가기]▶ 네이버 채널에서 '서울경제' 구독해주세요!▶ [집슐랭] 미슐랭 가이드처럼 알찬 부동산뉴스저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>연인원 200여명 이상 참여, 기업부문 박윤영 사장이 TF장인프라 투자, 협력사 상생, 고용 안정, 소비 진작, K방역 영역 협력KT(030200)는 정부가 추진하는 한국판 뉴딜 사업의 빠른 실행을 지원하기 위해 ‘한국판 뉴딜 협력 TF’ 조직을 신설하고, ICT 핵심역량을 동원해 사업 협력방안을 마련한다고 6일 밝혔다.박윤영 KT 기업부문 사장이 TF장을 맡아 프로젝트를 직접 지휘하고 B2B(기업간거래), AI(인공지능), 5G(5세대) 이동통신, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대될 예정이다.앞서 정부는 ‘신종 코로나바이러스 감염증(코로나)19발 경기침체로 인한 위기의 기업과 노동자 지원’이라는 취지에 맞춰 추경안 통과 후 3개월 안에 빠르게 뉴딜 사업을 추진한다고 밝힌 바 있다. 이에 TF는 5G·GiGA인터넷 등 네트워크 인프라, AI·빅데이터 기술, KT 중소협력사 얼라이언스 등의 역량을 기반으로 한국판 뉴딜 사업에 참여해 빠른 실행을 지원할 계획이다.KT 직원들이 5G 기반 비대면 화상통화 앱을 시연하고 있다. /KT 제공한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고, 산업의 디지털화를 가속해 새로운 일자리를 창출하기 위한 국가 프로젝트다. ‘디지털 뉴딜’과 ‘그린 뉴딜’ 2대 축으로 구성되며, 디지털 뉴딜은 △디지털 인프라 구축 △비대면 산업 육성 △사회간접자본 디지털화를 중심으로 추진된다.디지털 인프라 구축을 통한 경제활성화 측면에서 KT는 5G 전국 커버리지 확보, 5G SA(단독모드)와 28Ghz(기가헤르츠) 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다. KT는 2019년 세계 최초로 5G를 상용화 하기 위해 5G 인프라 투자를 늘려 2018년 대비 약 두 배인 2조1000억원을 가입자망에 투자한 바 있다. 올해에도 KT는 코로나19로 인한 경기 위축에도 시장활성화를 위해 5G와 기가인터넷 등 통신인프라에 전년 수준의 투자를 유지할 계획이다.비대면 산업 육성 측면에서 KT는 언택트 기술 적용을 위해 다양한 기업 및 기관들과 협업하고 있다. 서울아산병원과는 비대면 영상솔루션과 사물인터넷 기기, 로봇 등을 활용한 언택트 진료환경 개발을 진행하기로 했다. 현대중공업그룹과는 현대로보틱스에 500억 지분투자를 통한 지능형 서비스로봇 개발에 나서기로 했다. 또한 화상 솔루션을 활용한 비대면 결혼식과 대학 응원전, VR(가상현실) 교육 등 포스트 코로나 시대를 대비한 다양한 비대면 사업 경험과 역량을 축적 중이다.공동구와 재난대응 관련 시설에 디지털 안전관리 체계를 구축하는 SOC 디지털화에 협력하기 위해 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 혁신 기술을 개발했다. KT가 현재 운용·관리하고 있는 전국의 외부 통신시설(Out Side Plant)은 통신구 230개(286km), 통신주 469만개, 맨홀 79만개다. 기지국, 서버 등 통신장비의 안정적인 운영을 위해 디지털 기술 기반의 재난대응은 필수적이다. 이에 KT는 5G·AI 기반의 화재감지, 침수감지 등 차세대 OSP(외부 통신시설) 관리시스템을 통해 통신 인프라 설계, 운용, 관제, 장애복구 영역의 효율성 및 안정성을 동시에 확보했다.특히 TF는 사업 추진 준비 외에도 △스마트화를 통한 협력사·소상공인 상생방안 도출 △4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 △세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다박윤영 사장은 "코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다"며 "KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다"고 말했다.[이경탁 기자 kt87@chosunbiz.com]	[네이버 메인에서 조선비즈 받아보기]	[조선비즈 바로가기]  chosunbiz.com</t>
+  </si>
+  <si>
+    <t>KT가 한국판 뉴딜 사업의 빠른 실행을 지원하기 위해 ‘한국판 뉴딜 협력 TF’ 조직을 신설하고, ICT 핵심역량을 동원해 사업 협력방안을 마련한다고 6일 밝혔다.KT 기업부문 박윤영 사장이 TF장을 맡아 프로젝트를 직접 지휘하고, B2B(기업비즈니스), AI(인공지능), 5G, 클라우드, 네트워크, 신사업, 연구개발 등 각 분야에서 200여명 이상의 임직원이 사업을 준비한다. 참여인원은 사업 진행에 따라 점차 확대될 예정이다.정부는 ‘코로나19발 경기침체로 인한 위기의 기업과 노동자 지원’이라는 취지에 맞춰 추경안 통과 후 3개월 안에 빠르게 뉴딜 사업을 추진한다고 밝힌 바 있다. 이에 TF는 5G/GiGA인터넷 등 네트워크 인프라, AI/빅데이터 기술, KT 중소협력사 얼라이언스 등의 역량을 기반으로 한국판 뉴딜 사업에 참여해 빠른 실행을 지원할 계획이다.한국판 뉴딜은 코로나19 사태로 인한 경기침체를 극복하고, 산업의 디지털화를 가속해 새로운 일자리를 창출하기 위한 국가 프로젝트다. ‘디지털 뉴딜’과 ‘그린 뉴딜’ 2대 축으로 구성되며, 디지털 뉴딜은 ▲디지털 인프라 구축 ▲비대면 산업 육성 ▲사회간접자본 디지털화를 중심으로 추진된다.KT 직원이 비대면으로 R&amp;D 기술을 소개하고 있다.디지털 인프라 구축 · 비대면 산업 육성에 초점디지털 인프라 구축을 통한 경제활성화 측면에서 KT는 5G 전국 커버리지 확보, 5G SA와 28Ghz 상용화 추진, 인빌딩 중계기 구축 등으로 망 투자를 확대해 정부 정책에 동참한다.KT는 2019년 세계 최초로 5G를 상용화 하기 위해 5G 인프라 투자를 늘려 ‘18년 대비 약 두 배인 2조 1천억원을 가입자망에 투자한 바 있다. 올해에도 KT는 코로나19로 인한 경기 위축에도 시장활성화를 위해 5G와 기가인터넷 등 통신인프라에 전년 수준의 투자를 유지할 계획이다.비대면 산업 육성 측면에서 KT는 언택트 기술 적용을 위해 다양한 기업 및 기관들과 협업하고 있다. 서울아산병원과는 비대면 영상솔루션과 사물인터넷 기기, 그리고 로봇 등을 활용한 언택트 진료환경 개발을 진행하기로 했으며, 현대중공업그룹과는 현대로보틱스에 500억 지분투자를 통한 지능형 서비스로봇 개발에 나서기로 했다. 화상 솔루션을 활용한 비대면 결혼식과 대학 응원전, VR 교육 등 포스트 코로나 시대를 대비한 다양한 비대면 사업 경험과 역량을 축적 중이다.또한, 공동구와 재난대응 관련 시설에 디지털 안전관리 체계를 구축하는 SOC 디지털화에 협력하기 위해 KT는 AI와 빅데이터 기술을 기반으로 인프라 관리 혁신 기술을 개발했다. KT가 현재 운용·관리하고 있는 전국의 외부 통신시설(Out Side Plant)은 통신구 230개(286km), 통신주 469만개, 맨홀 79만개인데, 기지국, 서버 등 통신장비의 안정적인 운영을 위해 디지털 기술 기반의 재난대응은 필수적이다.이에 KT는 5G·AI 기반의 화재감지, 침수감지 등 차세대 OSP 관리시스템을 통해 통신 인프라 설계, 운용, 관제, 장애복구 영역의 효율성 및 안정성을 동시에 확보했다.KT와 현대로보틱스가 개발한 인공지능 호텔 로봇산업 활성화와 고용창출 기여 프로젝트 추진특히, TF는 사업 추진 준비 외에도 ▲스마트화를 통한 협력사/소상공인 상생방안 도출 ▲4차산업혁명 시대 미래 인재와 시니어 ICT 전문가 육성 교육 프로그램을 통한 고용안정 지원방안 마련 ▲세계 최고 수준의 K방역 모델 개발 및 글로벌 확장 등 산업 활성화와 고용창출에 기여할 수 있는 프로젝트를 지속 추진할 계획이다TF장인 KT 기업부문 박윤영 사장은 “코로나19로 인해 우리 모두가 어려움을 겪고 있지만, 한국판 뉴딜이 위기를 기회로 삼는 계기가 될 것이라고 믿는다”며, “KT가 보유하고 있는 5G와 AI 기반의 융합 ICT 역량을 최대로 활용해 한국판 뉴딜의 성공은 물론 타 산업의 혁신을 이끌 수 있도록 하겠다”고 말했다.김효정 기자(hjkim@bloter.net)[블로터 바로가기]▶ 네이버 메인에서 블로터 뉴스 구독하기▶ 블로터 아카데미에서 마케팅 역량을 키우세요▶ 확장 가능 애자일 조직, 디지털 성장의 핵심동력저작권자 ⓒ(주)블로터앤미디어, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>100억원 투입 4층 연면적 2735㎡ 규모 기공식∼내년 말 완공경남 하동군 하동읍 하동공원에 건립될 상상도서관 조감도.[하동=뉴시스] 김윤관 기자 = 섬진강이 한 눈에 들어오는 경남 하동군 하동공원에 건물 형태만으로도 상상을 초월하는 규모의 인문학 테마 랜드마크 상상도서관이 들어선다. 인공지능(AI)을 통한 다양한 정보 서비스가 제공되고 누구나 쉽게 접근할 수 있는  인문학 테마 랜드마크 공간이다.  하동군은 6일 하동공원 도서관 건립공사 현장에서 100년 미래를 내다보는 상상도서관 기공식을 가졌다고 밝혔다.이날 행사에는 윤상기 군수를 비롯해 행정자치부장관을 지낸 김기재 (사)하동상상도서관건립회 이사장, 박성곤 군의회 의장, 이정훈 도의원, 쌍계사 영담 주지스님, 칠불사 도응 주지스님, 관내 기관·단체장, 도내 도서관장, 군민 등 200여명이 참석했다.기공식은 하동홍보대사 소유담의 사회로 개식, 국민의례, 내빈소개, 한국남부발전(주) 하동발전본부의 농어촌상생협력기금 기탁, 상상도서관 건립 취지 설명 및 경과보고, 기념사, 축사, 안전기원제, 시삽식 순으로 진행됐다.상상도서관은 인문도시 하동에 걸맞은 세계적인 문화플랫폼 구축을 통해 문학수도 하동 선점과 문화교육도시로 도약하고자 민선7기 군수공약사업으로 추진된다.상상도서관은 국비·군비·민자 등 100억원의 사업비를 들여 내년 말 완공 목표로 하동읍 광평리 하동공원 1만 799㎡의 부지에 지상 4층 연면적 2735㎡ 규모로 건립된다.도서관 1층은 로비홀과 북카페, 열람실 등이 들어서고, 2층과 3층은 열람실, 4층은 관장실 및 사무실 등이 배치된다.특히 도서관 옥상은 기존의 일반적인 건물형태에서 벗어나 경사진 계단 형태의 정원 및 전망대로 건립돼 도서관을 찾는 사람이면 누구나 섬진강 등을 조망할 수 있도록 한다.군은 상상도서관이 종합정보센터로서의 군민의 정보 접근권을 확대하고 문화교육도시로 도약하는 계기가 될 것으로 기대하고 있다.또한 새로운 문화공간 조성을 통해 군민의 삶의 질을 향상시키고 하도을 찾는 관광객에게 상상·체험형 프로그램을 제공함으로써 지역경제 활성화에도 기여할 것으로 보고 있다.뿐만 아니라 고령화 시대 어르신은 물론 아동·청소년, 귀농·귀촌인, 결혼이민자 등 군민 구성원 모두를 위한 전통과 IT기술이 결합된 신개념 도서관의 역할도 기대된다.윤상기 군수는 “상상도서관은 인공지능을 통한 다양한 정보 서비스가 제공되고 누구나 쉽게 접근할 수 있는 공간을 조성해 문화도시로서의 기반 마련과 세계적인 인문학 테마 랜드마크가 될 것”이라고 말했다.☞공감언론 뉴시스 kyk@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>[사진]고려대학교 AI연구소에서 (주)와이즈넛 성장기술연구소 장정훈 소장(우)과 고려대학교 AI연구센터 임희석 센터장(좌)가 협약식을 진행하고 있다인공지능 챗봇 및 검색SW 대표 기업 (주)와이즈넛(대표 강용성)이 고려대학교 Human-inspired AI 연구센터(센터장 임희석)와 인공지능(AI) 분야 기술 교류 및 협력을 위한 협약 을 체결했다고 밝혔다.이번 협약은 인공지능 챗봇 분야 선도 기업인 와이즈넛과 금년도 신규 설립된 고려대학교 AI연구 센터가 인공지능 원천기술 개발과 중요성에 대해 뜻을 함께하며 진행된 것으로, 양측은 향후 단 순 협약을 넘어 지속적인 기술교류를 통한 핵심 원천 기술 확보할 수 있을 것으로 기대하고 있다.와이즈넛은 금번 고려대학교의 협약 외에도 지난 20년 동안 인공지능 및 빅데이터 원천기술 확보 를 위한 자체 개발에 적극적으로 투자해왔을 뿐만 아니라, 각 분야의 전문 기관들과 긴밀한 협력 관계를 통해 우수 기술을 지속적으로 이전 받아왔다.대표적 사례로는 ▲인공지능(AI) 자동화 플랫폼 및 보안관제 전용 AI 모델 생성 노하우(KISTI, 2019) ▲생산적 적대 신경망(GAN) 기반 기계학습 데이터 생성(건국대학교, 2018) ▲딥러닝 기법을 이용한 한국어 개체명 인식 기술(고려대학교, 2017) 등이 있다.또한, 초대 센터장으로 임명된 고려대학교 임희석 교수는 현재 와이즈넛이 함께 참가하고 있는 ‘뉴럴 심볼릭 모델의 지식 학습 및 추론 기술 개발’ 연구과제(과학기술정보통신부)의 연구 책임자 로서, 미래 챗봇의 핵심 기술로 쓰일 수 있는 지식 그래프의 네트워크를 반영한 딥러닝 기술을 연구하는 사업으로서 업계의 주목받고 있다.와이즈넛 강용성 대표는 “SW를 넘어 IT 산업에서 가장 중요한 것은 전문분야에 대한 원천기술 확보라고 할 수 있다”라며 “와이즈넛은 인공지능 관련 연구 및 교육에 적극적으로 앞장서고 있는 고려대학교와의 협력을 통해 인공지능 생태계에서 경쟁력을 강화하고 선순환을 일으킬 수 있는 데에 일조할 수 있도록 노력해나갈 것”이라고 말했다.한편, 와이즈넛은 전자정부지원사업(주관 : 한국정보화진흥원) 중 최초의 인공지능 사업으로 평가 되는 병무청 ‘아라’을 포함하여 한국남부발전 ‘MY KODI’, 서울시 ‘서울톡’, 인천공항공사 ‘에어봇’, 신한은행 ‘오로라’, 중앙대학교 등 국내 최다 인공지능 챗봇 상용화 사례를 보유하고 있으며 지난 20여년 동안 인공지능 챗봇 및 검색 1위 기업으로서 시장을 선도하고 있는 기업이다.한경닷컴 뉴스룸 open@hankyung.com▶ 네이버에서 한국경제 뉴스를 받아보세요▶ 한경닷컴 바로가기  ▶ 모바일한경 구독신청 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [파이낸셜뉴스] CJ올리브네트웍스가 아마존웹서비스(AWS)와 손잡고 사내 클라우드 전문가를 양성한다고 6일 밝혔다.   CJ올리브네트웍스는 정보기술(IT) 인프라 구축에 클라우드 기술을 활용해 안정성을 높이고, 빅데이터와 인공지능(AI) 등 신기술과 접목해 IT운영을 효율화하는 등 클라우드 인프라를 선제적으로 활용하고 있다.   CJ올리브네트웍스는 AWS의 어드밴스드 컨설팅 파트너로서, 국내 최초로 AWS의파트너 학습 니즈 분석(PLNA)을 도입해 임직원 800여명에게 교육을 진행하기로 했다. PLNA 프로그램은 30가지 기술 영역으로 구성된 설문조사로 구성원 역량과 니즈를 측정한 후 맞춤화된 교육을 제공하는 것이 특징이다.   조사 결과 CJ올리브네트웍스 임직원들이 가장 필요로 하는 과정은 AWS 기술전문인증과 시스템 운영, 아키텍쳐 등으로 집계됐다. 이에 따라 CJ올리브네트웍스는 대상 조직별 우선 순위에 따라 교육 대상자를 선별 후 임직원의 역량 수준에 맞춰 기초부터 중급, 전문가 과정, 실습 등 세분화된 개별 강좌를 제공할 예정이다.   임직원들은 지난달에 AWS의 공인 교육 시리즈를 수강했으며, 이달부터는 AWS의 권장 러닝 패스에 따라 학습과정을 설계받을 수 있다. 교육은 올해 연말까지 홈 러닝 방식으로 진행된다.   CJ올리브네트웍스 DT아카데미팀 제윤선 과장은 “일하는 방식이 클라우드 환경으로 빠르게 변함에 따라 클라우드 플랫폼 환경의 구현부터 데이터 수집, 보안 등 다양한 커리큘럼을 운영하기로 했다”며 “임직원들이 끊임없는 자기개발을 통해 업무 스킬을 향상시킬 수 있도록 자기주도학습 분위기를 조성할 계획”이라고 말했다.    ksh@fnnews.com 김성환 기자   ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		스위스 기반 글로벌 제약사 노바티스(Novartis)에는 흥미로운 과정이 하나 있다. ULE(Unbossed Leadership Experience)라고 불리는 장기행동변화 프로그램이다. 영어 단어 그대로 ‘보스(상사)’의 지위를 완전히 내려놓는 리더십 교육이다. 2019년 권위를 토대로 지시를 내려왔던 리더를 구성원들에게 영감과 동기를 주는 리더로 바꾸기 위해 만들어졌다. 제약·바이오 업계에서는 폭넓고 다양한 기술과 전문지식, 연구개발·상용화 프로세스에서 외부 기관과의 협력이 중요해졌다. 또한 효율적 신약 파이프라인 관리, 인공지능·플랫폼 등 새로운 디지털 역량 강화가 성공 요인으로 꼽힌다. 노바티스는 새로운 인재를 적극 영입하고, 조직 민첩성을 높이기 위해 조직 단계를 단순화하는 등 변화를 줬다. 하지만 전략과 조직구조를 바꿔도 구성원 개개인이 변화하지 않으면 소용없다. 이를 간파한 바스 나라시만(Vas Narasimhan) 노바티스 CEO는 사내 핵심 리더 50명을 선정해 새로운 변화를 모색했다. 지속적으로 새로운 것을 배우는 ‘말하기보다 듣기 잘하는 리더’, 내부 구성원 역량과 외부 파트너와의 협력을 극대화하는 ‘직접 하기보다 권한을 위임하고 동기 부여 잘하는 리더’로 거듭날 것을 주문했다. 이는 업계의 리더십 변화와도 관련 깊다. 플랫폼 기술을 통해 보다 다양한 신약 후보물질을 발굴해 신약 파이프라인을 풍부하게 만들고, 인공지능을 통해 후보물질을 더 빠르게 발견하고 임상 속도를 개선하려면 과거의 리더십으로는 불가능했기 때문이다. 프로그램 첫 진행 과정에서 노바티스가 얻은 교훈 하나는 목적의식이 분명하고(purposeful), 자기인식 능력이 뛰어난(self-awareness) 리더일수록 구성원에게 영감을 준다는 것이다. 이런 리더는 구성원에게 동기를 확실하게 부여하고 변화를 이끈다. 이를 통해 조직, 리더, 구성원 개개인 모두 성장하는 토대를 만든다.  구체적으로 목적의식이 분명한 리더는 비전을 공유해 구성원의 지속적인 혁신과 성장 욕구를 높이는 데 탁월했다. 자기인식 능력이 뛰어난 리더는 자신의 강·약점과 알고 모르는 것에 대한 인식이 명확해 새로운 것을 접목시키는 능력이 뛰어났다. 이런 교훈을 토대로 노바티스는 바이오 산업과 다른 산업을 융합시키는 훈련, 구성원에게 권한을 위임하고 조직을 원활하게 돌아가도록 촉진하는 훈련 등으로 총 1만명에 가까운 리더를 양성했다. 이뿐 아니다. ULE는 디지털 이해도를 높이기 위한 ‘리더를 위한 디지털 몰입’, 권한 위임으로 팀 역량을 키우는 ‘팀부스터(Team Booster)’, 리더가 역으로 젊은 팀원들에게 새로운 기술·트렌드를 배우는 ‘역멘토링(Reverse Mentoring)’ 프로그램을 포함한다. 과거의 보스를 내려놓고 새로운 보스로 변화하기 위한 과정인 셈이다. 기업의 지속 가능한 성장을 이끌 리더를 양성하고 싶다면 참고할 만한 프로그램이다.  [박형철 머서코리아 사장] [본 기사는 매경이코노미 제2066호 (2020.07.08~07.14일자) 기사입니다] ▶네이버 메인에서 '매일경제'를 받아보세요▶'매일경제' 바로가기 ▶뉴스레터 '매콤달콤' 구독[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		후기인상주의 화가 폴 고갱(Paul Gauguin)의 작품 중 "Where do we come from? Who are we? Where are we going?"은 인간 존재의 근원에 대한 철학적 제목을 가진 작품으로 그의 가장 힘든 시기에 그려진 대작입니다. 스스로를 이성적 사고로 현명한 판단을 한다는 뜻에서 '호모 사피엔스'라 칭한 우리 인간은 어떤 과정을 거쳐 현재의 모습이 되었으며, 미래에는 어떻게 될까요? 코로나19의 팬데믹(전염병의 세계적 대유행)으로 힘든 상황에서 만물의 영장이라고 자부하던 인간에 대해 깊은 의문을 던져봅니다.◆ 우리는 어디에서 왔으며, 누구이고, 어디로 가고 있나?유발 하라리의 '사피엔스' 표지이스라엘의 젊은 역사학자 유발 하라리(Yuval Noah Harari)는 빅히스토리의 관점에서 인간에 대한 신선한 상상과 통찰을 보여줍니다. 그는 '사피엔스'를 펴내며 세계적 학자로 급부상합니다. '사피엔스'는 변방의 유인원이었던 호모 사피엔스가 어떻게 세상의 지배자가 되었으며, 수렵·채집을 하던 우리 조상들은 어떻게 한곳에 모여 도시와 왕국을 건설하고, 가장 치명적인 동물이 되었는지에 대한 물음에 답하고 있습니다. 그는 인간이 세 차례의 혁명을 통해, 또 '상상의 공동체'라는 허구의 공유를 통해 지금껏 진화해왔고 앞으로도 그럴 것이라고 주장합니다.먼저 인지혁명의 시대를 거치며 호모 사피엔스는 정교한 언어능력을 갖게 됨으로써 소통을 통한 수렵·채집 생활을 하게 됩니다. 또한, 신화, 전설, 종교 등의 '가공된 스토리'를 통해 공동체 의식을 가지며 구성원들끼리 일체감과 협동심으로 다른 동물들을 지배할 수 있게 됩니다.농업혁명 시기에 인류는 안정된 정착생활을 통해 규모가 기하급수적으로 커집니다. 하지만 많아진 노동량, 잉여생산물의 축적과 불균형한 재분배로 계급이 공고화되고 위계질서가 격화됩니다. 따라서 삶의 질적 하락을 가져온 농업혁명은 인류 진화역사상 '희대의 사기극'이라고 그는 주장합니다.마지막 과학혁명의 시대에는 근대과학의 발달로 산업혁명이 촉발되고 제국주의, 자본주의의 이념이 등장합니다. 이때부터 근대화된 서구 문명은 그렇지 못한 지역들을 약탈하고 지배합니다.오늘날 인류는 과학기술이 인류의 자원문제, 환경문제를 해결해 줄 것이라는 강한 믿음의 '상상공동체'를 공유합니다, 이를 바탕으로 과학혁명의 연장선으로서 생명공학, 인공지능이라는 새로운 '상상의 공동체'를 가공하며 스스로의 한계를 초월하려는 시도를 하고 있다고 주장합니다.◆ 이기적인 인간은 살아남을 수 있을까?최재천의 '호모 심비우스' 표지평생 자연을 관찰해온 최재천 교수는 생태학자이자 동물행동학자입니다. 호모 심비우스는 공생을 뜻하는 'symbiosis'에서 착안하여 만든 새로운 호칭 및 개념입니다. 저자는 다윈의 '진화론'을 재해석하고, 다양한 생물들의 생태를 경쟁, 포식, 기생, 공생으로 구분하며 많은 예를 들어 설명합니다.경쟁은 생물들의 숙명이며 상대가 비슷할수록 경쟁은 더 치열합니다. 모든 생물은 자원을 필요로 하는데, 자원의 공급이 한정되어 있으니 생명체들은 자원을 놓고 경쟁할 수밖에 없습니다. 인간은 자연의 지배자가 된 이후 오래전 인간을 잡아먹던 포식자를 생태계의 무익한 존재로 여기며 대대적인 학살을 자행합니다. 그로 인해 포식자는 멸종에 가깝게 몰아 세워지고, 초식동물은 기하급적으로 증가하며 생태계 먹이사슬의 불균형이 초래됩니다.현존 생물 중 절반 이상이 모두 '기생' 생활을 하며 생명의 진화를 주도하고 있다는 사실과 심지어 기생자와 숙주가 함께 진화(공진화)하고 있다는, 흥미로운 관찰은 많은 시사점을 우리에게 줍니다.특히 인간과 개미를 비교하며 인간이 다른 종에 비해 공생능력이 현저히 뒤떨어진다는 사실을 지적합니다. 지구의 생물들은 오랜 진화의 역사를 통해 서로 간의 유사성을 줄여 공존할 수 있도록 변화해 왔으며, 그것이 이 엄청난 '생물다양성'이라고 저자는 주장합니다.현명한 인류 '호모 사피엔스'는 두뇌 회전이 빠른, 매우 똑똑한 동물이지만 오늘날 코로나19를 비롯한 전염병의 창궐 및 생태환경 파괴 모습들을 보면 과연 현명하다고 할 수 있을지 의문이 생깁니다. 현명한 사람은 자신의 집을 불태우지 않기 때문입니다.지구 역사상 한 번이라도 존재했다가 사라진 생물이 전체의 90~99%에 달한다고 고생물학자들은 말합니다. 우리 인간도 언젠가는 멸종할 것입니다. 스스로 데우스(신)가 되려는 맹목적 진화 욕구로 멸종의 시기를 당길지, 다른 생명들과 함께 살아갈 공생인(共生人)이 될 지 선택은 우리의 몫입니다.대구시교육청 학부모독서문화지원교사모임채정민 기자 cwolf@imaeil.com▶ 네이버에서 매일신문 구독하기▶ 매일신문 네이버TV 바로가기ⓒ매일신문 - www.imaeil.com</t>
+  </si>
+  <si>
+    <t>MS, 연말까지 2500만명 디지털 기술 교육 콘텐츠 무료 접속 허용페이스북, 아프리카 여성 기업가 대상 디지털 교육 실시오라클, 케냐서 데이터 관리·앱 개발 등 3년 교육 과정 시작마이크로소프트(MS)는 올 연말까지 전 세계 2500만명을 대상으로 디지털 기술(skill) 교육을 제공한다고 지난달 말 밝혔다. 링크드인 러닝(Learning), 마이크로소프트 런(Learn), 깃허브 러닝 랩(Learning Lab)의 교육용 콘텐츠를 무료로 접속할 수 있게 한다는 방침이다.브래드 스미스 MS 사장은 "지난 6개월간 전 세계가 글로벌 경제 위기를 초래한 팬데믹(감염병 대유행)을 포함해 다양한 도전을 견뎌왔다"면서 "안전하고 성공적인 경제 회복을 촉진하는데 필요한 중요 단계 중 하나는 새로운 일자리에 필요한 디지털 기술에 대한 접근성을 확대하는 것"이라고 말했다.에릭슨은 자사가 구축한 웹 포털에서 학생들이 무료로 교육용 콘텐츠에 접속할 수 있도록 하고 있다./에릭슨 홈페이지MS, 페이스북, 오라클, IBM 등 글로벌 IT 기업들이 코로나19 위기 극복을 위해 디지털 기술 전도사 역할을 하고 있다. 디지털 기술로 무장한 인재들을 양성해 산업계에 공급하고 소외계층에 교육 혜택을 제공하겠다는 것이다.◇ 페이스북, 아프리카에 디지털 뿌리 내릴 인재 양성페이스북은 지난달 아프리카의 여성 기업가들을 위한 프로그램을 제공할 것이라고 밝혔다. 2018년부터 여성 지원 플랫폼 ‘쉬 리드 아프리카(She Leads Africa)’와 나이지리아에서 7000명 이상의 여성 기업가를 대상으로 디지털 기술 교육을 실시했다. 올해는 교육 프로그램을 확대해 시행한다는 방침이다.페이스북은 지난해 남아프리카공화국에서도 4000명의 여성 기업인을 대상으로 교육을 시작했다. 지난달에는 세네갈에서도 교육 프로그램을 착수했다. 페이스북은 아프리카 전역에 디지털 산업이 뿌리를 내릴 수 있도록 숙련된 디지털 인재를 양성하는데 기여하고 있다.오라클은 지난달 케냐 에퀴티 그룹 재단과 IT 기술이 필요한 케냐 학생을 교육하기 위해 3년 과정을 시작했다. 오라클과 에퀴티 리더스 프로그램의 전문가들이 최신 기술을 교육한다. 프로그램에는 컴퓨팅, 스토리지, 데이터베이스 개발, 데이터 관리, 앱 개발, 보안 등이 포함됐다.데이비드 부네이 오라클 케냐 매니징 디렉터는 "케냐에서 숙련된 디지털 인력을 양성하는 것은 국가의 잠재력을 높이는데 필수적"이라며 "오라클은 과거 30년 이상 아프리카에서 기술 격차를 해소하기 위한 교육을 진행해왔다"고 말했다.◇ 에릭슨 디지털 기술 포털서 5G·IoT·AI 지식 배워에릭슨은 올 5월 유네스코가 이끄는 글로벌 교육연합에 합류했다. 에릭슨이 만든 웹 포털을 통해 무료로 교육용 콘텐츠에 접속할 수 있다. 에릭슨이 개발한 디지털 기술 포털에서는 5G(5세대) 네트워크, IoT(사물인터넷), 데이터 과학, 자동화, 인공지능(AI), 머신러닝을 다룬다. 커리큘럼은 통신·정보통신기술(ICT) 분야에서 일할 수 있는 직무 역량을 강화하는 것이 목적이다.IBM 인도법인은 지난해 11월 인도 정부와 파트너십을 맺고 인도 학생들이 이용할 수 있는 온라인 교육 플랫폼을 구축했다. 현재 1만4135명이 4만개 이상의 과정을 이수하고 7만7000시간의 교육을 받았다. 과정에는 디지털 전략, 재무 관리 등이 포함됐다.샌딥 파텔 IBM 인도·남아시아 총괄은 "산업 요구와 기술 전환에 맞는 인력이 중요하다"면서 "(IBM이 제공하는) 플랫폼은 구직자들이 디지털 기술로 무장해 인력 시장에 진입하는 것을 돕는다"고 말했다.[설성인 기자 seol@chosunbiz.com]	[네이버 메인에서 조선비즈 받아보기]	[조선비즈 바로가기]  chosunbiz.com</t>
+  </si>
+  <si>
+    <t>©게티이미지뱅크인터넷만 연결되면 언제 어디서든 원하는 정보와 지식을 실시간으로 검색할 수 있는 세상이다. 전 세계 인터넷 검색엔진의 92%를 독차지하고 있는 구글의 이름을 딴 ‘구글링(Googling)’이라는 말은 ‘인터넷으로 검색하다’는 뜻의 신조어로 자리잡았다. 최근에는 단순히 검색한다는 행위에서 더 나아가 ‘검색을 통해 필요한 정보를 빠르고 정확하게 찾아내는 기술과 능력’을 뜻하는 ‘구글푸(Google-fu)’라는 말이 IT업계를 중심으로 널리 퍼지고 있다. 마치 중국 권법인 쿵푸(Kungfu)에 대한 실력과 조예가 제각각이듯, 규모조차 가늠하기 힘든 방대한 인터넷에서 원하는 것을 찾아내고 활용하는 속도와 역량도 개인마다 천차만별이기 때문이다.  특히 개발자나 엔지니어, 데이터분석가 등 IT업계 종사자들에게 있어 구글푸는 업무 역량과 직결된다. 컴퓨터 프로그래밍 언어들은 여러가지를 혼합하여 작업해야 하는 경우가 많고 또 각각의 언어들이 수시로 업데이트되기 때문에, 필요한 모든 코드를 머릿속에 암기한다는 것이 현실적으로 불가능하다. 그렇기 때문에 프로그래밍 언어를 공부할 때 가장 중요한 것은 ‘배우는 법(Learning to learn)’을 익히고 연마하여 구글푸의 고수가 되는 것이라 할 수 있다.  실제로 인기 프로그래밍 언어인 파이선, 자바스크립트, 자바, C# 등은 모두 구글 검색만으로도 코딩 문제를 금방 해결할 수 있다는 공통점이 있다. 또한 스택오버플로(Stackoverflow)와 같은 개발자 전용 질의응답 사이트나 개발자 커뮤니티 등을 활용해 원하는 정보를 검색하거나 다른 사람들과 의견을 주고받을 수도 있다. 좋은 답변과 질문을 많이 올려 명성이 높아지면 필요할 때 빠른 도움을 받을 수 있을 뿐 아니라, 소통에 능한 경쟁력 있는 사람이라는 증거가 되기도 한다. 이렇듯 구글푸의 고수가 된다는 것은 빠르고 정확한 검색 능력뿐 아니라 검색 결과를 분석하고 비판하는 능력, 그리고 이를 문제 해결에 적용하는 응용력과 함께 협업 및 소통 능력까지도 갖춘 미래 인재가 된다는 것을 뜻한다. 앞으로는 매뉴얼을 외우거나 몸에 익히는 방식으로 수행되던 반복적이고 일상적인 업무들은 업종을 막론하고 인공지능과 로봇, 그리고 자동화로 대체될 가능성이 매우 높다. 그렇기 때문에, 암기보다는 검색하고 활용하는 역량들을 개발하고 향상시키는 것이 중요하다. 이러한 추세를 반영하듯 미국, 핀란드, 호주, 캐나다 등 교육 선진국에서는 기존의 획일적 암기형 교육제도를 학생 중심의 능동적 혁신 교육으로 변모시키기 위한 다양한 시도를 하고 있다. 우리나라도 ‘포스트코로나 시대 미래 교육’으로의 대전환을 외치며 논의를 계속하고는 있지만, 아직까지 이렇다할 묘안을 내놓지 못한 채 온라인에서조차 기존의 수업 방식을 답습하고 있다.  문제는 학교 교육과 미래 일자리 역량의 괴리로 인한 이중고와 스트레스를 우리 학생들이 고스란히 떠안아야 한다는 것이다. 국제학업성취도평가(PISA) 시험에서 최상위권을 기록하는 한국 학생들의 삶의 만족도는 최하위권이며, 세계경제포럼이 발표한 비판적 사고력 교육에서도 전 세계 82위라는 부끄러운 결과를 받았다. 또한 IT강국이라는 타이틀이 무색하게 학교 내 디지털 기기 활용도는 OECD 평균에도 못 미치는 하위원을 맴돌고 있다. 이뿐이 아니다. 대학진학률 70%로 세계 1위를 기록하는 한국 대졸자의 절반 이상은 전공과 무관한 직업을 택하고 있으며, 미래 업무 역량은 전 세계 59위 수준에 불과하다. 지난 150년 간 지속된 주입식 교육과 암기식 평가의 시대가 끝나고 있음은 자명한 현실이다. 로봇과 인공지능이 대체할 수 있는 수동적 암기왕을 키우는 것이 아닌, 고도의 문제 해결 능력과 능동적 학습 능력을 갖춘 구글푸 고수를 길러낼 수 있도록 교육의 방향을 바꾸는 것이 시급하다. 전승화   데이터분석가 · 작가 ▶ 네이버 채널에서 한국일보를 구독하세요!▶ [정치채널X] [뉴스보야쥬] [밀크] 영상보기▶ 한국일보닷컴 바로가기</t>
+  </si>
+  <si>
+    <t>‘집합 교육’에서 ‘개별 교육’으로‘디지털역량센터’ 1천곳 9월 열어강사·서포터즈 2명씩 상시 배치디지털 소외계층 불편·차별 해소장애인 등에겐 방문 디지털 교육도2022년까지 주민센터·마을회관 등4만1천여곳에 공공 와이파이 추가비용 부담 없는 인터넷 시대 구현한국정보화진흥원이 6월19일 부산디자인진흥원에서 어르신들을 대상으로 한 디지털 종합 역량 교육을 시범 운영하고 있다. 수강생들이 마스크와 보호장구를 쓴 채 교육을 받고 있다. 한국정보화진흥원 제공지난 3일 오후 서울역 매표소 앞. 20여명이 표를 사기 위해 줄을 서 있는데, 대부분 중·장년이다. 50대 중반쯤 돼 보이는 손님이 창구 앞에 서더니 경주 가는 표를 달라고 한다. 매표소 직원이 “케이티엑스(KTX)로 가실 거죠? 그 시간대는 표가 매진됐는데요. 다음부터는 코레일톡 앱으로 예매하세요”라고 한다. “그거 할 줄 모르는데….” “자녀분들한테 해달라고 하세요.”이런 장면은 기차역 매표소뿐만 아니라 서울고속버스터미널 등의 매표창구 앞에서도 흔히 볼 수 있다. 디지털 기기와 서비스를 활용할 줄 모르는 ‘디지털 소외계층’이 어떤 불편과 피해를 보며 살고 있는지 단적으로 보여준다. 디지털 소외계층의 불편과 차별은 4차 산업혁명과 코로나19 대유행에 따른 비대면 문화 확산으로 더욱 가속화할 전망이다. 디지털화에 따라 사회가 개인에게 요구하는 디지털 기술 활용 능력 수준이 고도화하고 있는 점을 들어 “디지털 소외가 사회·경제적 소외로 이어져 생존을 어렵게 만들 수 있다”는 지적도 나온다.급기야 정부가 나섰다. ‘한국형 뉴딜’의 한 축인 ‘디지털 뉴딜’ 정책을 ‘디지털 포용’에 무게를 두고 추진하기로 했다. 정부는 6월22일 정세균 국무총리 주재로 정보통신전략위원회 회의를 열어 ‘디지털 포용 추진계획’을 의결했다. “디지털 흐름에서 소외돼 불편과 차별을 당하는 사람들이 없게 하겠다”고 선언했다.디지털화 혜택을 찾아서 누리고, 이를 통해 디지털 사회에 참여할 동기를 갖게 하는 게 목표다. 과학기술정보통신부 박윤규 정보통신정책관은 “그동안의 정부 정책이 취약계층의 정보에 대한 접근성을 높이는 데 초점을 맞췄던 것에 견줘, 디지털 포용은 취약계층을 포함한 모든 국민의 디지털 활용 역량을 강화해 ‘다 함께 누리는 디지털 세상’을 구현하는 것에 목표를 두고 있다”고 설명했다.한국정보화진흥원 주관으로 열린 어르신 대상 디지털 종합역량 교육에 참가한 수강생들이 무인정보단말기에서 식사를 주문하는 방법을 배우고 있다. 한국정보화진흥원 제공우선 누구나 찾아가거나 주문해서 디지털 기기·서비스 활용법을 배울 수 있게 한다. 주민센터·도서관·과학관·복지관 등을 ‘디지털역량센터’로 지정해, 주민들이 일상 속에서 쉽게 디지털 기기·서비스 활용법을 배우거나 도움을 요청할 수 있게 한다. 디지털역량센터는 ‘집합 교육’ 방식이 아닌 언제나 찾아와 묻고 배울 수 있게 하는 방식으로 운영된다. 누구나 가까운 디지털역량센터를 찾아가 모바일 기기로 기차·버스표를 예매하고, 온라인쇼핑·모바일뱅킹·공용자전거 등을 이용하는 방법을 알려달라고 할 수 있다. 직접 찍은 사진·동영상을 편집해 사회관계망서비스를 통해 공유하고, 블로그를 운영하는 경험도 해볼 수 있다. 디지털역량센터는 오는 9월부터 전국에 1천여곳이 운영될 예정이다. 각 센터에는 디지털 강사 2명과 서포터즈 2명이 상시 배치된다. 정부는 기존 정보화 강사와 함께, 정보통신기술(ICT) 쪽 근무 경험을 가진 경력단절 인력과 정보통신기술 경진대회 수상자 등을 강사로 양성해 배치할 계획이다. 서포터즈는 기존 봉사단에 더불어, 정보통신기술분야 퇴직자와 대학생 등을 활용하기로 했다. 대학 소프트웨어 학과 학생 등에게 단기(아르바이트) 일자리를 제공하고, 대학생들의 ‘디활’(디지털 봉사활동)을 활성화하며, 정보통신기술 기업 임직원들이 봉사활동을 할 수 있게 하는 방안도 추진된다. 거동이 불편한 어르신과 중증 장애인에게는 ‘찾아가는 일대일 방문 디지털 역량 교육’ 서비스가 제공된다.디지털역량센터 운용을 주관할 한국정보화진흥원의 문용식 원장은 “온라인뱅킹 서비스를 이용할 줄 모르면 예·적금 금리에서 차별을 당하고, 온라인쇼핑을 할 줄 모르면 쿠폰과 가격할인 등에서 손해를 본다. 디지털 흐름을 따라가지 못하면 취업 기회도 적어진다. 사실상 앞으로는 디지털 소외계층은 생존이 어려워지게 된다는 얘기”라며 “디지털 포용으로 이에 전략적으로 대응하지 못하면 디지털화가 사회적 불평등과 갈등을 키우는 요인이 될 수도 있다”고 지적했다.언제 어디서나 인터넷을 비용 부담 없이 이용할 수 있게 하는 방안도 추진된다. 올해부터 2022년 사이에 주민센터와 마을회관 같은 공공장소 4만1천 곳에 공공 와이파이(무선랜)가 추가로 설치된다. 또한 섬과 오지 등 그동안 인터넷 이용이 어려웠던 농어촌 마을 1300여개 지역에 초고속인터넷 서비스가 보급될 수 있도록 통신망을 구축한다.누구나 쉽게 활용할 수 있도록 디지털 기기·서비스 이용법 개선도 추진된다. 무인정보단말기(키오스크)는 공공성과 사업자 규모 등을 살펴 어르신·장애인의 접근성을 보장하도록 의무화한다. 과기정통부 신대식 디지털포용팀장은 “63만 유튜버 박막례도 키오스크 앞에서 쩔쩔매고, 편리한 키오스크가 장애인들에게는 무용지물이라는 기사가 날 정도로 어르신·장애인들의 무인단말기 활용 문턱이 높은 게 사실”이라고 배경을 설명했다.“그동안은 디지털 기술을 활용할 줄 알면 조금 더 편했다. 이제는 디지털 기기나 서비스를 활용할 줄 모르면 사회·경제적으로 완전히 소외된다. 차별을 받고, 금전적으로 손해를 받으며, 취업기회도 줄어든다. 생존이 어려워질 수 있다는 얘기다.”정부는 ‘한국형 뉴딜’의 한 축으로 ‘디지털 뉴딜’을 추진하면서 이례적으로 ‘디지털 포용’을 앞세웠다. 과학기술정보통신부가 3차 추가경정예산안을 짜면서 ‘디지털 포용 및 안전망 구축’에 배정한 예산만도 1407억원에 이른다. 최기영 과기정통부 장관은 6월16일 대전시 유성구에 있는 시각장애인 보조 정보기기 전문업체 셀바스헬스케어에서 열린 정보통신 보조기기 개발·제조업체 대표 간담회에 참석한 뒤 ‘한겨레’와 만나 “디지털 포용이 전제되지 않으면, 4차 산업혁명과 ‘인공지능 강국’ 전략 등으로 추구하는 디지털 사회에서 사람들이 행복해질 수 없다”고 배경을 설명했다. 최 장관은 요즘 디지털 포용 추진계획을 주관할 한국정보화진흥원의 문용식 원장 등과 함께 디지털 포용 정책을 뒷받침할 기기와 서비스를 개발·보급하는 기업 대표들과 현장간담회를 잇따라 갖고 있다.최 장관은 어르신들이 모바일 앱으로 기차표나 버스표를 예매하는 방법을 몰라 기차역이나 버스터미널에 일찍 나가 표를 구하는 불편을 겪고 있는 것을 예로 들며 “승객들이 몰리는 시간대 표는 온라인예매로 이미 다 나가 구하기 어려울 수도 있다. 디지털을 활용할 줄 아는 사람과 모르는 사람 사이에는 기회 차별까지 발생하는 꼴”이라고 짚었다. 실제로 요즘은 디지털 기기·서비스 활용이 서툴면 일상생활 자체가 어렵다. 영화관과 패스트푸드 식당은 무인정보단말기(키오스크)로 티켓을 사게 하거나 주문을 받는데, 어르신들에겐 문턱이 높다. 금융회사들은 온라인으로 예·적금을 들면 금리를 더 주는데, 디지털 소외계층에겐 금리 차별로 이어진다. 온라인쇼핑을 할 줄 몰라 불편한 다리로 마트를 찾는 어르신들도 많다.최 장관은 “누구나 디지털을 활용해 경제활동 범위를 넓히며 삶의 질을 높일 수 있게 하는 정책이 절실하다고 본다. 디지털 소외가 사회·경제적 소외로 이어지며 사회적 갈등을 부르는 상황을 예방하기 위해서도, 디지털 포용 정책은 일회성이 아니라 꾸준히 추진될 필요가 있다”고 말했다.김재섭 선임기자 겸 사람과디지털연구소장 jskim@hani.co.kr▶더불어 행복한 세상을 만드는 언론, 한겨레 구독하세요!▶네이버 뉴스판 한겨레21 구독▶2005년 이전 &lt;한겨레&gt; 기사 보기[ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>서정연 SW중심대학협의회장				"소프트웨어(SW)중심대학은 여전히 배고픕니다. 아직 할 일이 많기 때문이죠."지난 2015년부터 올해까지 SW중심대학으로 선정된 40개 대학을 대표하는 서정연(64) SW중심대학협의회장(서강대 컴퓨터공학과 교수)은 지난달 26일 이같이 밝혔다. 과학기술정보통신부가 주관하는 SW중심대학 사업 첫해에 선정된 서강대·세종대 등 7개 대학은 올해를 기점으로 사업을 종료한다. 그러나 SW교육의 중요성이 더욱 커지고 있는 만큼 정부의 지원이 후속사업으로 이어져야 한다는 주장이다.지난 2015년부터 과학기술정보통신부가 주관하고 있는 SW중심대학 사업은 전공자뿐만 아니라 비전공자를 대상으로 SW역량을 강화하는 등 눈부신 성과를 거두고 있다. 서정연 SW중심대학협의회장은 “앞으로 정부의 후속사업을 통해 대학의 SW교육을 확대하고 미래사회에 필수적인 SW역량의 중요성을 학생과 학부모에게 각인시켜야 한다”고 강조했다. /한준호 기자 ◇비전공자도 SW역량 중요성 커져… 성과로 증명SW중심대학 사업은 대학교육을 SW 중심으로 개편하고, 전문인력을 양성하는 취지에서 마련됐다. 전공자 위주로 SW개발 전문가만 키워내기보단, 인문·사회·예체능 분야의 비전공자들도 SW역량을 기를 수 있도록 하는 데 주안점을 두고 있다.40개의 SW중심대학은 사업에 참여하며 눈에 띄는 변화를 경험하고 있다. 서 회장은 특히 비전공자가 연계전공·복수전공 등으로 SW역량을 쌓고 있는 학생 숫자가 늘어나고 있다는 점에 주목했다. 이들 대학이 배출한 SW융합전공 인력은 2015년 51명에서 2019년 4314명으로 폭증했다. 서강대의 경우, 올해에만 500명가량의 비전공자가 SW 관련 전공을 복수전공으로 신청했다.서 회장은 "그동안 모든 학문의 기본은 국어·수학·영어였지만, 여기에 더해 컴퓨터 프로그래밍이 필수적인 소통 도구로 자리 잡았다"며 "누구나 다 아는 구구단처럼 어떤 분야에서든 디지털 데이터를 처리할 수 있는 SW역량을 갖춰야만 일할 수 있는 시대가 올 것"이라고 밝혔다. 이어 "SW역량을 갖춘 인재는 각자의 분야에서 '자신만의 알파고'를 활용해 새로운 아이디어를 설계해나갈 수 있는 힘을 갖고 있다"고 강조했다.SW실무경험을 쌓을 수 있는 산업계 인턴십과 프로젝트 등 산학협력도 크게 확대됐다. SW기업 인턴십에 참여한 학생 수는 2015년 368명에서 2019년 3474명으로 증가했다. 산학 프로젝트 참여 학생 수 역시 같은 기간 644명에서 9413명으로 늘었다.이렇다 보니 SW중심대학의 전공 졸업생에 대한 산업계 만족도도 꾸준히 높아지고 있다. SW전공 졸업생에 대한 산업체 만족도는 2015년 75.3%에서 2019년 86.8%로 증가했다. 교육 프로그램에 대한 학생 만족도도 같은 기간 73.2%에서 88.8%로 지속적으로 높아지고 있다.뛰어난 SW교육환경을 갖춘 SW중심대학은 SW가치 확산에도 앞장서고 있다. SW중심대학이 소재한 지역 내 초중고교생들에게 컴퓨터 프로그래밍을 가르치고, 중고교생을 대상으로 프로그래밍 경진대회를 여는 식이다. 이를 통해 SW분야에 대한 초중고교생들의 관심을 유도하고 잠재력을 갖춘 신입생을 확보하는 데 주력한다.AI 시대 대비한 SW중심대학 후속사업 마련해야이처럼 SW중심대학이 지난 6년간 꾸준한 성과를 낼 수 있었던 배경에는 정부의 지원사업이 있다. 현재 전국에 퍼져 있는 SW중심대학 40곳은 각 대학의 특성에 맞춰 다양한 방식으로 SW교육을 확대해나가고 있다. 서 회장은 SW중심대학 사업이 4차 산업혁명이나 인공지능(AI)이 주목받기 이전부터 정부가 산업계의 수요를 파악해 선제적으로 대처한 사례라고 평가했다.더욱이 올해부터 사업을 종료하는 대학이 나오는 만큼 후속사업 추진이 중요한 과제로 떠올랐다. AI 융합인재 양성을 위한 SW교육의 중요성이 더욱 커지고 있어서다.서 회장은 "이제 모든 전공에서 AI 융합인재를 양성해야 한다"며 "AI의 기초 역량인 SW교육 확대 추세를 이어나가려면 대학의 적극적인 투자가 필요한 상황이지만, 10여 년간의 등록금 동결로 인해 현재 대학 재정만으로는 한계가 명확하다"고 우려했다."우리나라 대학의 SW교육은 아직 걸음마 단계에도 미치지 못합니다. 그래서 정부의 후속사업이 굉장히 중요합니다. 정부의 지원 방향과 대학이 나아가고자 하는 방향이 일치할 때 큰 시너지 효과를 내기 때문이죠. SW교육 관련 후속사업을 만들어 달라고 정부에 지속적으로 건의하고 있는 이유입니다."최근 정부는 초중고교에서 SW교육을 의무화하는 등 SW교육 관련 정책을 연달아 내놓고 있다. 서 회장은 "정부가 SW교육을 끊임없이 강조하고 있지만, 아직 초중고교에서 SW교육의 비중이 크지 않은 탓에 일부 학생과 학부모는 '나와 관계없는 일'이라고 생각하는 경향이 있다"며 "SW교육에 대한 학생과 학부모들의 실질적인 관심을 얻으려면 대학의 SW 가치 확산을 통해 자극을 줄 필요가 있다"고 강조했다."SW교육의 중요성을 학생과 학부모가 체감할 수 있도록 하는 것도 정부의 역할입니다. 이를 위해선 SW중심대학과 같은 정부 지원사업을 통해 대학에 에너지를 전달해야 합니다. SW 중심으로 대학의 변화를 지속적으로 유도한다면 학생과 학부모에게도 변화의 물결이 일 겁니다."[오푸름 조선에듀 기자] 		▶ 유용원 군사전문기자의 밀리터리시크릿 '밀톡' 		▶ 과학이 이렇게 재밌을수가~ '사이언스카페' 		▶ 조선일보 뉴스를 네이버에서 확인하세요	- Copyrights ⓒ 조선일보 &amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>한양대학교이재진 입학처장				한양대학교(총장 김우승)는 고교교육 기여사업이 시작된 이래 11년 동안 사업에 선정된 대학이다. 특히 2020년 사업에서 유례를 찾아보기 어려운 큰 폭의 사업비 증가 및 에리카 캠퍼스 사업 선정을 통해 사업 진행의 우수성과 탁월성을 다시 한 번 입증한 바 있다. 한양대는 기존의 수능 최저학력기준 미반영, 자소서·추천서·면접이 없는 3無 전형 등 수요자·현장·역량 중심의 '착한 입시'에서 더 나아가 최근 대입에서 가장 중요시되는 공정성과 투명성, 그리고 대입 수요자들과의 스마트한 커뮤니케이션을 더해 'The 착한 입시'로 나아가고 있다. 이를 위해 외부 공공사정관 도입, 블라인드 강화와 평가 시스템 개선, 온라인 전형계획 설명회 개최 및 위키 기반 요강 도입, 등록자 고교 유형별 내역을 포함한 입시 결과 세부내역 공개 및 정보 소외지역 설명회 등을 진행하고 있다.외부 평가에서도 좋은 성적을 연이어 내고 있다. 특히 전 세계 대학들을 대상으로 진행하는 QS 세계대학 평가에서 전년도보다 4계단 상승해 146위에 올랐다. 이는 2010년부터 10년 연속 순위가 상승한 것으로, 기존에 좋은 평가를 받았던 학생 성과와 더불어 올해 평가에서는 평판도와 연구실적에 대한 좋은 평가가 순위 상승을 이끌었다는 면에서 의미가 크다. 한양대만의 독특한 레퍼런스 심사제도 도입과 교수 선발과정 및 연구비 수주 방식의 개선 등 다양한 제도 개선을 통한 공정성 및 효율성 확보가 인정을 받은 결과라고 할 수 있다.이재진 한양대 입학처장은 "한양대는 학업인성잠재력 면에서 우수한 학생들을 선발해 학교에 맞춰진 특정한 인재상이 아니라 학업 역량, 자기주도와 창의, 소통 등의 다양한 역량을 가진 학생들이 교내에서 상호작용하길 기대한다"며 "특히 코로나 사태로 인해 정보 불균형 해소와 투명성을 강화하기 위해 온라인 전형 안내를 강화하며, 공정한 평가를 위해 공공사정관을 도입하고 평가 시스템을 개선하는 등 최선을 다하고 있다"고 말했다.해외 30여 개 '글로벌 창업 협력 네트워크' 구축한양대는 기술과 현실적인 것을 중시하는 실용학풍을 가지고 있다. 이는 취업과 창업분야에서 한양대가 두각을 나타내는 원동력이다. 매년 공시되는 취업률에서(교육부 대학정보 공시 알리미) 주요 대학 중 1, 2위를 놓치지 않고 있으며 특히 학생 창업 분야에서는 3년 연속 학생창업자 배출 1위를 기록할 만큼 독보적인 위치를 차지하고 있다. 단순히 창업자의 수만 많은 것이 아니다. 최근 실시된 각 대학 출신 CEO 기업 조사에서 한양대 출신 CEO 기업이 1만 213개에 이르고, 연매출도 573조원에 달해 우리나라 GDP(국내총생산)의 33%에 달하는 것으로 조사되는 등(2018년 12월 기준, 한국기업데이터) 뛰어난 선배들의 강력한 동문 네트워크를 통해 실질적인 창업지원을 하고 있다. 실제로 청년들을 위한 창업기숙사 '247 스타트업 돔', 창업자를 위한 코워킹 스페이스 '코맥스 스타트업타운' 등 학생창업자들을 위한 인프라 구축에 힘쓰고, 전액 무료로 지원되는 기숙 공간과 전담 교수와의 정기 멘토링, 특별 교육 등을 통해 최고의 창업 성과를 이끌어낼 수 있도록 집중 육성되고 있다.또한 한양대는 지난 2015년 미국 실리콘밸리, 뉴욕, 중국 상하이 등에 글로벌 창업지원센터를 구축하고, 이후 국내 대학 최초로 CES(국제전자제품박람회)에 대학 스타트업관 운영, 미국, 유럽, 동남아 등에 30여 개의 글로벌 협력 네트워크를 구축하는 등 글로벌 스타트업 육성을 위한 발판 마련에 힘써오고 있다. 특히 지난해에는 유망 스타트업을 선발해 진출을 희망하는 현지 액셀러레이터와 연계, 멘토링·사업성 분석 등을 지원하는 글로벌 액셀러레이팅 프로그램을 개최하고 많은 투자를 받는 등 성과를 내고 있다./한양대 제공 ◇전원 전액 지급 '다이아몬드7 장학금' 지속한양대는 차세대 대한민국을 이끌어갈 다이아몬드와 같은 1% 인재 양성을 목표로 2010년부터 다이아몬드7 학과를 선정해 지속적으로 육성하고 있다. 자연계열의 융합전자공학부, 에너지공학과, 미래자동차공학과, 컴퓨터소프트웨어학부 등 4개 학과(부)와 인문·상경계열의 정책학과, 행정학과, 파이낸스경영학과의 3개 학과로 구성된 다이아몬드7 학과는 수·정시 합격자 모두에게 전액 장학금을 지급하고 각종 고시반 및 해외 교환학생 선발 시 우선권을 주는 등 다양한 특전을 제공하고 있다.이와 더불어 한양대는 미래 산업을 주도할 '인텔리전스컴퓨팅학부'를 개설했다. '인텔리전스컴퓨팅학부'는'데이터사이언스학과'(2020년 신설)와 '심리뇌과학과'(2021년 신설)로 구성된다. 해당 학과에 입학한 학생들은 4차 산업혁명 시대를 대비해 빅데이터와 인공지능 및 인지과학 등에 대한 실제 문제들을 주제로 교수들과 함께 연구하고 해결하는 '문제 해결'형 수업을 수강하며, 인공지능을 인간의 사고능력 이상으로 만드는 법 등을 배우게 된다.◇2021 수시 지난해와 비슷, 신규 모집단위 도입에 따른 인원 변화 점검해야2021학년도 한양대 수시전형은 전형에 대한 안정성과 입시 수요자들의 혼란을 최소화하기 위해 전년도에 비해 크게 바뀌지 않았다. 다만 신규 모집단위의 도입 등과 같이 변동 사항에 따른 인원 변화 등 변경 사항이 있다. 수시 주요 변경 사항은 크게 여섯 가지로 요약된다.첫째, 인텔리전스컴퓨팅학부 심리뇌과학과가 신설돼 학생부교과전형으로 4명을, 학생부종합전형(일반)으로 28명을 선발한다. 둘째, 인텔리전스컴퓨팅학부 데이터사이언스학과에서 학생부교과전형으로 4명을 신규 모집하며, 학생부종합전형(일반)으로도 28명을 선발한다. 셋째, 글로벌인재전형 (어학특기자전형)에서의 영어교육과 선발이 폐지됐다. 넷째, 논술전형에서 정책과학대학 정책학과, 행정학과 모집단위가 추가돼 상경계열 논술고사로 각각 6명, 5명을 선발한다. 다섯째, 자연계열 논술 출제범위에서 기하와 벡터가 제외됐다. 여섯째, 융합전자공학부 및 컴퓨터소프트웨어학부 정원 내 모집인원이 조정됐는데, 작년 대비 융합전자공학부는 총 14명을, 컴퓨터소프트웨어학부는 9명을 증원한다.[방종임 조선에듀 기자] 		▶ 유용원 군사전문기자의 밀리터리시크릿 '밀톡' 		▶ 과학이 이렇게 재밌을수가~ '사이언스카페' 		▶ 조선일보 뉴스를 네이버에서 확인하세요	- Copyrights ⓒ 조선일보 &amp; chosun.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>[사진=연합뉴스]정부가 '한국판 뉴딜'에 앞으로 5년간 100조원 이상을 쏟는다. 당초 계획한 투자 규모보다 24조원 이상 증액해 데이터 산업과 비대면 의료를 확대하는데 집중 투자할 계획이다.5일 기획재정부에 따르면 정부는 76조원 규모로 제시됐던 한국판 뉴딜을 100조원 이상으로 늘리고 세부 내용을 확정해 '한국판 뉴딜 종합계획'을 이번 달 중순께 발표한다.코로나19로 이 전 세계적으로 큰 여파를 남긴 만큼 포스트 코로나 시대를 대비해 성장동력을 발굴하고 기후변화에 대응하기 위해서다.한국판 뉴딜은 데이터·인공지능(AI) 생태계를 키우고 비대면 의료·교육을 육성하는 디지털 뉴딜과 공공시설을 친환경적으로 바꾸는 그린뉴딜로 나뉘어 있다.정부는 디지털 뉴딜 분야에서는 데이터 산업을 육성하는 데 방점을 찍을 계획이다.앞서 문재인 대통령은 지난달 18일 강원도 춘천의 데이터 및 AI 기업을 찾아 미국 뉴딜의 상징인 후버댐에 견줄 만한 요소로 '데이터댐'을 제시하고 디지털 뉴딜을 활성화하겠다고 했다. 발전, 산업용, 식수 등으로 쓰이는 후버댐의 물처럼 데이터를 다목적으로 활용하겠다는 것이다.정부는 데이터를 기업들이 여러 용도로 활용할 수 있게끔 15개 분야에서 빅데이터 플랫폼을 만들고 14만개의 공공데이터를 순차적으로 개방한다.전국 모든 초등학교·중학교·고등학교 교실에 와이파이를 구축해 디지털 기반 교육 인프라를 보완한다. AI 핵심 인재도 양성한다.정부는 또 환자가 의사를 직접 만나지 않고도 처방을 받을 수 있는 비대면 의료를 확대할 계획이다.정부는 감염병 확산을 막기 위해 2월 말부터 한시적으로 전화상담·처방이 가능하도록 했는데, 코로나19를 거치며 효과가 나타난 만큼 이를 키우겠다는 것이다. 화상 진료 인프라를 깔아 의사가 영상을 보며 처방할 수 있게 하는 원격진료 방안이 거론되고 있다.지난 2일 국무총리 주재로 열린 국정현안점검조정회의에서도 비대면 의료 서비스 확대를 검토한다는 내용이 나왔다.다만 상급병원에 환자가 쏠릴 수 있다는 지적과 의료 영리화 논란이 있는 만큼 정부는 각계 의견을 듣고 사회적 합의를 거치는 등 중장기적인 과제로 추진한다는 입장이다.사회간접자본 관리 체계를 선진화하기 위해서는 재정을 투자해 교통과 수자원 분야 디지털 관리 시스템을 구축한다. 도시와 산업단지에 스마트 물류 체계도 만든다.기후변화에 대비하기 위한 그린뉴딜 대책도 나온다.정부는 에너지를 많이 쓰는 노후 어린이집, 보건소, 의료기관, 공공 임대주택을 에너지 효율이 높게 리모델링할 계획이다.친환경 기술을 보유한 기업 100곳을 선정해 2022년까지 연구개발부터 사업화 작업까지 지원하는 방안도 포함된다. 태양광·풍력·수소 등 3대 신재생에너지 기반을 만들기 위해 정부는 융자를 제공하고 건물, 주택, 농촌에 태양광 발전 시설도 설치한다.그린뉴딜에는 급격한 기후변화를 막자는 목표만이 아니라 산업을 친환경적으로 바꾸지 않으면 먼 미래에는 제조업 수출이 어려워질 수 있다는 인식이 깔려있다.구글, 페이스북, BMW 등 글로벌 기업들이 2050년까지 사용하는 전력의 100%를 재생에너지로 대체하자는 'RE100'에 동참하고 있는 만큼 국내 기업도 재생에너지를 사용하지 않으면 앞으로 수출에 제한이 발생할 수 있다는 지적이 나온다.정부는 또 디지털·그린 뉴딜 사업 외에 특수형태근로종사자나 프리랜서들이 고용보험 가입에 가입할 수 있게 하는 내용의 고용 안전망 강화 대책도 함께 발표할 계획이다.대리운전 기사, 보험설계사, 방문판매원 등이 고용보험의 사각지대에서 벗어날 수 있도록 올해 안에 법 개정을 추진할 방침이다.유재희기자 ryuj@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>35조 원이 넘는 3차 추가경정예산이 6일부터 본격 집행된다. 정부는 앞으로 3개월 안에 4분의 3을 집행할 계획이다.5일 기획재정부에 따르면 4일 열린 임시국회에서 추경예산 공고안과 배정계획이 통과함에 따라 각 부처는 6일부터 집행에 들어갈 예정이다. 1차 추경이 90% 이상, 2차 추경이 100% 가까이 집행된 상황에서 3차 추경 역시 긴급한 수요를 고려해 빠르게 투입해야 할 것으로 정부는 보고 있다.긴급 수요 고려 조기 투입 추진‘한국판 뉴딜’에 4조 8000억 원대학 등록금 반환은 간접 지원3차 추경은 본래 정부안이 35조 3000억 원이었으나 국회에서 증액·감액을 거치며 2000억 원가량 줄었다.주요 내용을 살펴보면 소상공인 2단계 프로그램, 중소·중견기업 대출·보증 등 총 40조 원의 자금 공급을 위해 정부가 산업은행 등에 1조 9000억원을 출연한다. 주력산업을 돕기 위한 출연금액도 3조 1000억 원에 달한다. 또 고용유지지원금(87만 명), 긴급고용안정지원금(114만 명), 직접 일자리(55만개+α) 등과 소액금융 추가공급 등 고용·일자리 안정분야에는 10조 원이 투입된다.이와 함께 8대 할인소비쿠폰 제공, 온누리상품권 1조 원 추가발행, 지역사랑상품권 3조 원 확대, 고효율가전할인 확대 등 소비와 수출을 활성하는 분야에도 3조 2000억 원이 투입되며 K방역 고도화와 재난 시스템 강화 등에 2조 4000억 원이 쓰인다. 한국판 뉴딜에는 4조 8000억 원이 잡혔다. 이 사업은 데이터·네트워크·인공지능 분야 플랫폼을 만들고 인재양성을 하며 초·중·고 원격교육인프라 등 비대면 산업 등을 육성하는 것을 말한다.국회에서 추경안을 심사하면서 유급휴업·휴직수당을 90%까지 지원하는 기간을 6개월→9개월까지 연장하기로 했으며 인플루엔자 무상접종 대상에 만 62~64세를 포함시키고 마스크 공적비축물량 확대 등을 담아 모두 1조 3000억 원이 증액됐다. 그러나 온누리상품권 발행이 2조 원에서 1조 원으로 감소하고 고효율가전할인에 드는 금액도 줄이는 등 감액도 1조 5000억 원이 됐다.이번에 대학등록금 반환을 위한 직접적인 금액은 포함되지 않았으나 등록금 반환이나 장학금을 지원한 대학에 비대면 교육, 교육환경 개선에 1000억 원을 지원키로 했다. 간접지원하는 셈이다.이번 추경은 금융위기 당시인 2009년 추경(28조 4000억 원)을 넘는 역대 최대 규모다. 국회는 지난 3일 밤 본회의를 열어 재석 187명 중 찬성 180명, 반대 1명, 기권 6명으로 가결했다.김덕준 기자 casiopea@▶ 네이버에서 부산일보 구독하기 클릭!▶ '터치 부산' 앱 출시, 부산일보 지면을 내 손 안에!▶ 부산일보 홈 바로가기</t>
+  </si>
+  <si>
+    <t>데이터 산업·비대면 의료 집중3차 추경예산은 오늘부터 집행정부가 한국판 뉴딜에 애초 계획보다 24조원 늘린 100조원 이상을 투입한다. 데이터 산업과 비대면 의료를 확대하는 등에 집중 투자한다는 방침이다.정부는 또 6일부터 코로나19 사태와 이후를 대비하기 위한 역대 최대 규모의 3차 추가경정예산을 푼다. '골든타임'을 놓치지 않기 위해 앞으로 3개월 안에 추경 예산의 4분의 3을 집행할 계획이다.5일 기획재정부에 따르면 정부는 76조원 규모로 제시됐던 한국판 뉴딜을 100조원 이상으로 늘리고 세부 내용을 확정해 '한국판 뉴딜 종합계획'을 이번 달 중순께 발표한다. 한국판 뉴딜은 데이터·인공지능(AI) 생태계를 키우고 비대면 의료·교육을 육성하는 디지털 뉴딜과 공공시설을 친환경적으로 바꾸는 그린뉴딜로 나뉜다. 정부는 디지털 뉴딜 분야에서는 데이터 산업을 육성하는 데 방점을 찍을 계획이다. 정부는 데이터를 기업들이 여러 용도로 활용할 수 있도록 15개 분야에서 빅데이터 플랫폼을 만들고 14만개의 공공데이터를 순차적으로 개방한다. 또 환자가 의사를 직접 만나지 않고도 처방을 받을 수 있는 비대면 의료를 확대할 계획이다. 화상 진료 인프라를 깔아 의사가 영상을 보며 처방할 수 있게 하는 원격진료 방안이 거론되고 있다. 지난 2일 국무총리 주재로 열린 국정현안점검조정회의에서도 비대면 의료 서비스 확대를 검토한다는 내용이 나왔다. 다만 의료 영리화 논란이 있는 만큼 정부는 최대한 각계 의견을 취합한다는 방침이다.그린뉴딜 대책도 나온다. 정부는 에너지를 많이 쓰는 노후 어린이집, 보건소, 의료기관, 공공 임대주택을 에너지 효율이 높게 리모델링할 계획이다. 친환경 기술을 보유한 기업 100곳을 선정해 2022년까지 연구개발부터 사업화 작업까지 지원하는 방안도 포함된다.한편 정부는 추경예산 공고안과 배정계획이 4일 임시국무회의를 통과함에 따라 각 부처는 월요일인 6일부터 예산 집행에 돌입키로 했다. 이번 추경은 세계 금융위기 당시인 2009년 추경(28조4000억원)을 넘는 35조1000억원 규모다. 정부는 코로나19에 따른 경기 영향을 최소화하기 위해 이번 추경으로 고용 유지 사업, 단기 일자리 사업 등을 집중 지원한다.김양혁기자 mj@dt.co.kr 디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t>서울대, 학과 신설안 통과"달라진 의료 패러다임에 대응"헬스케어융합·의료기기 학과대학원 신입생 내년부터 모집간호대학에는 임상간호학과 "환자 개개인 유전이나 환경, 생활 패턴 등을 고려해서 질병을 예방하고 치료하는 '정밀의학'을 위해선 의료 패러다임 변화가 필요하다. 인공지능(AI), 빅데이터, 바이오, 정보통신기술(ICT) 등을 융합해 헬스케어산업 분야를 개척하기 위해 새 학과를 만들게 됐다."예성준 서울대 융합과학기술대학원장이 지난 3일 매일경제와 인터뷰하면서 융합과학기술대학원 내에 '헬스케어융합학과'를 신설하게 된 배경을 이렇게 설명했다.서울대가 'K-헬스케어' 육성을 위한 본격적인 시동을 걸었다. 그동안 의술 중심으로 환자 치료와 진료에 매달려왔던 서울대 의과 계열에서 4차 산업혁명에 발맞춰 의료IT산업에도 관심을 쏟기 시작했고, 해당 분야 전문 지식을 갖춘 인재를 양성하기 위한 학과를 새롭게 만드는 등 체제를 정비한 것이다.5일 서울대에 따르면 최근 열린 평의원회 제8차 본회의에서는 서울대에 의료기기산업학과와 헬스케어융합학과 그리고 임상간호학과 신설안에 대한 심의가 이뤄졌고, 모두 원안대로 심의를 통과했다. 이에 따라 3개 학과는 2021학년도 1학기부터 신입생을 모집하면서 운영에 들어가게 됐다.먼저 의료기기산업학과는 의과대학 대학원에 신설된다. 석사 과정과 석·박사 통합 과정을 모집하게 되며 정원은 석사 과정 5명과 석·박사 통합 과정 7명 등 총 12명이다. 서울대 관계자는 "의과대학 안에 임상 쪽을 담당하는 의학과와 기초의학을 다루는 의과학과가 있는데, 의학과에서 요즘 의료기기산업이 강조되기 때문에 해당 산업과 관련한 인재 양성 필요성을 느껴 학과를 설립하게 된 것"이라고 설명했다.서울대는 채용을 보장하는 계약학과를 만들어 교육과 실제 산업 현장을 연결하려는 시도에도 나섰다. 특히 융합과학기술대학원에 설립되는 헬스케어융합학과를 졸업한 학생들을 분당서울대병원이 2년간 선임연구원으로 채용한다. 해당 학과는 박사 과정생을 10명 모집한다. 예 원장은 해당 학과가 서울대에서 처음으로 시작한 '채용보장형 계약학과'라고 설명했다. 기존에 있던 계약학과는 협약을 맺은 기관 등에서 일하고 있는 이들을 재교육하기 위한 목적이었다면, 이번에는 새롭게 채용까지 연결해주는 학과라는 것이다.헬스케어융합학과 신설 논의가 시작된 것은 지금으로부터 2년 전이다. 예 원장은 채용보장형 계약학과를 만들기 위해 서울대 학칙을 바꿔야 했고 이에 시간이 많이 걸렸다고 전했다.헬스케어융합학과는 서울대 융합과학기술대학원과 헬스케어 분야에 지대한 관심을 가지고 있는 분당서울대병원에서 시너지를 내기 위한 장소로 기능할 예정이다. 분당서울대병원은 헬스케어혁신파크(HIP)를 만들어 의료진과 연구진 간 협업과 융·복합을 꾀하고 있다. 이에 분당서울대병원은 의료계와 바이오벤처 업계에선 한국 의료산업화 미래를 보여주는 실험장으로 꼽히고 있다. 분당서울대병원 관계자는 "헬스케어와 관련한 인프라가 구축돼 다른 병원보다 훨씬 더 유리한 조건에서 연구 등이 가능해 좋은 협업 효과가 기대된다"고 전했다.예 원장은 앞으로 인공지능 데이터를 활용한 분야와 바이오 헬스 분야 등 차세대 먹거리 산업 육성에 도움이 되기 위해 향후 10년 동안 대학원이 집중적으로 교육하고 연구하겠다는 포부를 밝혔다. 그는 "헬스케어 의료시장이라는 새로운 의료계 패러다임에 맞추기 위해 학과 신설을 준비해왔는데 마침 학사위원회와 평의원회에서 통과돼 기쁘다"면서 "앞으로 과정을 잘 운영해서 이 분야를 통해 신산업을 창출할 수 있도록 많은 노력을 할 것이고 기대를 해주셨으면 한다"고 말했다.서울대는 간호대학 대학원 내에 임상간호학과도 신설해 의료의 질 향상에도 신경 쓰기로 했다. 석사 과정을 모집하며 15명 규모다. 분당서울대병원과 서울대병원에서 근무하는 간호사들을 대상으로 상급 실무 재교육을 위한 목적이다.  [박윤균 기자]▶네이버 메인에서 '매일경제'를 받아보세요▶'매일경제' 바로가기 ▶뉴스레터 '매콤달콤' 구독[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>지역 뉴딜사업 10개 제안◆ '포스트코로나' 광주 전환포럼 ◆ 김인수 GIST 연구부총장 정부가 코로나19 대책으로 2025년까지 76조원을 쏟아부을 '디지털+그린 뉴딜사업'에서 광주는 인공지능, 전남은 신재생에너지에 집중해야 한다는 주장이 나왔다.'포스트 코로나 시대 전환포럼 2020' 이틀째인 3일 김인수 광주과학기술원 연구부총장은 '디지털뉴딜 정책의 지역전환 방향'이란 주제발표에서 '광주전남 뉴딜사업 10개'를 발표했다. 김 연구부총장은 "지역이 가진 강점과 미래 지속성장 가능성을 검토해 결정했다"면서 "디지털과 그린을 묶어야 통합 효과가 클 것"이라고 강조했다.그가 밝힌 뉴딜사업은 광주의 경우 첨단·하남·빛그린 산단 스마트팩토리 단지 구축, 비대면 원격의료 및 인공지능 의료시스템, 가상현실 문화 콘텐츠 개발, 수소차·충전소 보급 및 수소생산기지 건설, 전기차·충전기 보급 및 자율주행, 물·에너지 통합관리시스템 등이다. 전남은 여수산단 등 산단 대개조, 비대면 교육 활성화, 수소 전용 항만 구축, 대규모 해상풍력·태양광 발전단지 건설 등이다. 그는 먼저 4000억원이 투입돼 '인공지능 기반 산업융합 집적단지'가 들어서는 광주는 비대면 원격의료 기술(진단과 처방) 및 인공지능 기반 의료시스템이 구축되면 신산업을 선도할 수 있을 것으로 봤다.또 비대면이 일상화될 경우에 대비해 가상현실(VR)을 통한 문화 콘텐츠를 집중 개발할 것을 제안했다. 구체적으로 광주 기아 챔피언스 필드를 스마트 경기장으로 조성하고, 5·18 민주화운동 전국화·세계화를 위해서도 필요하다고 봤다. 이와 함께 광주 평동산단에 2022년 완공될 거점형 수소생산기지에 빅데이터와 인공지능을 활용한 운영시스템을 만들고 수소차 활성화를 위해 충전소 보급에도 힘써야 한다고 했다.전남에 대해서는 국내 최대 석유화학단지인 여수국가산단, 광양국가산단, 율촌 1산단, 여수·광양 항만을 대상으로 한 대개조 사업을 들었다. 이는 산업집적지 경쟁력 강화를 위한 것이다.구체적으로 석유화학산단 통합 안전체계, 산재 예방시설, 에너지 통합 운영시스템, 스마트공장 및 제조데이터 기반 생태계 플랫폼 구축, 이 같은 시스템을 활용할 수 있는 인력 양성 등이다. 농축산 발전을 위해 작물 생육 모니터링·제어가 가능한 클라우드형 스마트팜과 무인이동체 기반 동물방역 시스템 구축도 전남도에 꼭 필요한 부분으로 꼽았다.[특별취재팀 = 박진주 기자 / 지홍구 기자 / 이상헌 기자]▶네이버 메인에서 '매일경제'를 받아보세요▶'매일경제' 바로가기 ▶뉴스레터 '매콤달콤' 구독[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>광주·전남 대학총장에 묻다윤의준 설립추진위원장"세계 신기술 에너지 분야 선도"정병석 전남대 총장"정부 출연硏 옮겨오면 시너지"민영돈 조선대 총장"대학간 협력으로 위기 넘어야"◆ '포스트코로나' 광주 전환포럼 ◆  3일 전남대 컨벤션홀에서 열린 포럼에 참석한 광주·전남 지역 주요 대학 총장들이 코로나19 위기 극복과 지역 발전 방안 등에 대해 토론하고 있다. 왼쪽부터 김준하 광주과학기술원(GIST) 교수, 정병석 전남대 총장, 최도성 광주교대 총장, 김기선 GIST 총장, 민영돈 조선대 총장, 윤의준 한전공대 설립추진위원장, 윤원태 국제기후환경센터 대표. [이충우 기자] 광주·전남 지역 주요 대학 총수들이 코로나19 사태 이후 처음으로 한자리에 모였다. '공유와 연대'의 중요성을 강조하며 지역사회와 더 나은 교육 발전을 위해 힘을 모으기로 했다. 정병석 전남대 총장, 최도성 광주교대 총장, 김기선 광주과학기술원(GIST) 총장, 민영돈 조선대 총장, 윤의준 한전공대 설립추진위원장(초대 총장 최종 후보자)은 3일 전남대 컨벤션홀에서 열린 '포스트 코로나 시대 전환포럼 2020' 특별세션 '포스트 코로나 시대 총장에게 묻다'에서 만났다.김준하 GIST 교수 사회로 진행된 이날 세션에서 대학 총장들은 코로나19 이후 대학이 가야 할 방향이 무엇이고, 지역 가치를 어떻게 높여야 하는지, 우여곡절 끝에 설립 허가를 받은 한전공대가 지역과 산업에 어떤 역할을 해야 하는지 등의 주제를 놓고 열띤 토론을 펼쳤다. 우선 대학을 강타한 코로나19 사태를 두고 엇갈린 진단이 나오기도 했다. 정  총장은 "코로나19로 언택트(비대면)·단절의 시대가 왔지만 수도권과 지방 간 격차를 줄이고, 지역이 곧 세계로 연결되는 기회가 될 수 있다"는 새로운 진단을 내놨다. 반면 민 총장은 "코로나19로 '대학 조기 붕괴론'까지 나온다"며 위기론을 거론했다. 민 총장은 "대학이 지식 전달 장소가 아닌 인성을 갖춘 인재, 우리 사회에 필요한 인재, 조직적 사고가 가능한 인재, 토론 능력이 탁월한 인재를 양성하는 쪽으로 교육 방향을 바꿔야 붕괴론을 극복할 수 있다"고 말했다.김 총장은 "더 나은 교육을 위해 과거의 대학 행적을 분석하는 것이 매우 중요하다"고 강조했다. 그는 "우리 대학은 지난 10년간 노력을 종단적으로 분석하고 있다"면서 "콘텐츠 제작 방법, 콘텐츠가 교육자에게서 피교육자로 어떤 과정을 통해 전달되는지 등을 면밀히 살펴 개선 방안을 만들면 이에 필요한 도구도 많이 가져올 수 있을 것으로 생각한다"고 말했다. 광주·전남 지역 대학 간 연대와 협력이 대학에 불어닥친 위기를 극복하는 방안이 될 수 있다는 점도 강조됐다.정 총장은 "기초학문 교양교육은 지역 거점대학이, 세부 내용은 각 대학이 맡아 지역 색채를 띠는 콘텐츠를 개발하면 세계적 경쟁력을 갖출 수 있을 것"이라면서 "온라인과 오프라인 교육을 혼합한 블렌디드 러닝, 사전에 제공한 자료를 학습한 뒤 강의실에서는 토론, 과제 풀이 등을 하는 플립트 러닝 등을 친숙화해 실제 강의에 활용해야 한다"고 말했다. 김 총장은 "인공지능(AI)은 단순히 사람을 돕는 로봇 기능이 아니라 사람을 이해하고, 사람의 지능을 확장하는 데 도움을 준다"면서 "광주 AI 클러스터 사업에 여러 일이 있는데 공연예술 등 소외 분야와 연대해 지원할 수 있는 길을 찾아보겠다"고 전했다.호남 최대 관심사인 한전공대의 윤 위원장이 참석했기 때문인지 각종 기대와 협력 아이디어가 쏟아졌다. 한전공대는 2022년 3월 학부생 400명, 대학원생 600명, 정원 외 외국인 학생 300명 규모로 개교할 예정이다. 에너지 분야 특화대학으로 에너지 신소재, 에너지 AI, 차세대 전력 그리드, 수소에너지, 에너지 기후·환경을 5대 핵심 연구 분야로 정했다.정 총장은 대전에 몰려 있는 정부출연연구기관의 분산을 제안했다. 그는 "전기연구원, 화학연구원이 우리 지역으로 이전하면 한전공대, 전남대 등 지역 대학과 시너지 효과가 가능하다"고 말했다. 윤 위원장은 "한전에서 필요로 하는 '기술 연구개발→사업화(기업)→한전 구매'로 이어지는 선순환 구조가 만들어지면 호남 지역에는 에너지 관련 하이테크 기업이 많이 만들어져 세계적 신기술 에너지 분야를 선도하는 지역이 될 수 있다"고 밝혔다.[특별취재팀 = 박진주 기자 / 지홍구 기자 / 이상헌 기자]▶네이버 메인에서 '매일경제'를 받아보세요▶'매일경제' 바로가기 ▶뉴스레터 '매콤달콤' 구독[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>기존 재원에서 24조 대폭 늘려데이터·친환경산업 집중 투자디지털 SOC·데이터댐 등 구축비대면 의료도 중장기적 확대新에너지기업 100곳 지원도사회안전망 확충 `휴먼뉴딜` 정부가 '한국판 뉴딜' 사업을 대폭 확대해 총 100조원 이상을 쏟을 전망이다. 당초 계획한 투자 규모보다 24조원 이상 늘어나는 셈이다. 이렇게 확충된 투자금으로 5년간 데이터 산업과 비대면 의료를 확대하고 공공시설을 환경 친화적으로 바꾸는 데 집중 투자할 계획이다.5일 정부 관계자에 따르면 76조원 규모로 제시한 한국판 뉴딜을 100조원 이상으로 늘리고 세부 내용을 확정한 '한국판 뉴딜 종합계획'을 이달 중순께 발표한다. 기획재정부 고위 관계자는 투자 확대 이유에 대해 "기존에 발표된 한국판 뉴딜사업에 세부 내용을 추가하고 보완하는 차원"이라고 말했다.한국판 뉴딜은 크게 데이터·인공지능(AI) 생태계를 키우고 비대면 의료·교육을 육성하는 디지털 뉴딜과 공공시설을 친환경적으로 바꾸는 그린뉴딜, 사회 안전망을 보강하는 휴먼뉴딜로 나뉘어 있다.정부는 데이터를 기업이 여러 용도로 활용할 수 있게끔 15개 분야에서 빅데이터 플랫폼을 만들고 공공데이터 14만개를 순차적으로 개방한다. 민간 데이터거래소 KDX한국데이터거래소 등을 기반으로 다양한 데이터 비즈니스가 생성될 것으로 전망된다. 문재인 대통령은 "발전·식수·산업용 등 용도가 다양한 댐처럼 데이터 댐을 만들어 다목적으로 활용하겠다"고 청사진을 밝혔다.또 전국 모든 초등학교·중학교·고등학교 교실에 와이파이를 구축해 디지털 기반 교육 인프라스트럭처를 보완한다. AI 핵심 인재도 양성한다. 정부는 또 환자가 의사를 직접 만나지 않고 처방을 받을 수 있는 비대면 의료를 확대할 방침이다. 영상 진료 인프라를 마련해 의사가 영상을 보며 처방할 수 있게 하는 원격진료 방안이 거론되고 있다. 다만 상급병원에 환자가 쏠릴 수 있다는 지적과 의료 영리화 논란이 있는 만큼 정부는 각계 의견을 듣고 사회적 합의 등을 거쳐 중장기적인 과제로 추진한다는 입장이다.디지털 사회간접자본(SOC) 구축을 위해 재정을 투자하고 교통과 수자원 분야 디지털 관리 시스템도 구축한다. 이와 연계해 도시·산업단지에 스마트 물류체계를 만든다.이번 한국판 뉴딜에서 디지털과 더불어 중요한 한 축은 '친환경'이다. 그린뉴딜은 글로벌 환경규제 강화 추세 속에서 우리도 산업과 국가 인프라를 전환하지 않으면 경쟁력을 잃을 수 있다는 위기에서 출발한다. 구글 페이스북 BMW 등 글로벌 기업이 2050년까지 사용하는 전력의 100%를 재생에너지로 대체하자는 'RE100' 프로젝트를 실시하고 있다.이를 위해 정부는 친환경 기술을 보유한 기업 100곳을 선정해 2022년까지 연구개발부터 사업화 작업까지 지원하는 방안을 이번 뉴딜에 포함한다. 또 태양광·풍력·수소 등 3대 신재생에너지 기반을 만들기 위해 정부는 융자를 제공하고 건물·주택·농촌에 태양광발전 시설을 설치한다.정부는 또 디지털·그린뉴딜 사업 외에 휴먼뉴딜이라는 이름으로 사회안전망을 확충한다. 특수형태 근로종사자나 프리랜서들이 고용보험에 가입할 수 있게 하는 내용의 고용안전망 강화 대책 역시 함께 발표할 예정이다.이처럼 거액의 예산 투입이 예고되자 몇몇 부처가 사업 주도권을 쥐기 위해 공격적으로 나서면서 부처 간 '쟁탈전' 분위기까지 연출되고 있다. 사업 초기 대규모 사업의 주도권을 쥐게 되면 향후 부처 예산 확보에도 유리하기 때문이다.환경부는 지난달 초 실장급(1급)을 단장으로 하는 그린뉴딜 추진단을 구성했다. 국토교통부도 김현미 장관 지시로 최근 전담 태스크포스(TF)를 꾸렸다. 과학기술정보통신부는 최근 비대면산업육성TF를 발족시켜 산업통상자원부와 주도권 경쟁을 벌이고 있다.[오찬종 기자]▶네이버 메인에서 '매일경제'를 받아보세요▶'매일경제' 바로가기 ▶뉴스레터 '매콤달콤' 구독[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>김일재  개인정보보호위원장 직무대행에게 듣는다분산된 개인정보보호 기능 통합데이터 3법 가이드라인 작업중명확한 해석으로 혼란 최소화국가지정 기관만 데이터 결합데이터 오·남용 가능성 예방법령위반 사업자는 엄정 대응 김일재 개인정보보호위원장 직무대행이 지난 1일 정부서울청사 집무실에서 파이낸셜 뉴스와 인터뷰를 진행하고 있다. 김 대행은 "뉴스에서 매일 어디선가 개인정보가 유출됐다는 내용들이 나온다"며 "각 분야에서 자율적인 보호활동이 활발하게 이뤄져 국민들의 소중한 개인정보가 유출되거나 남용돼 피해 사례가 나오지 않도록 적극 노력하겠다"고 강조했다. 사진=김범석 기자 'D-35' 지난 7월1일 오후 방문한 정부서울청사 4층에 있는 김일재 개인정보보호위원회 위원장 직무대행의 집무실 반대편 벽면에 는 디-데이(D-day) 기능이 탑재된 디지털벽시계가 눈길을 끈다. 빨간 빛의 D-35라는 문자가 깜박였다. 35일째인 8월 5일은 개인정보보위원회(개보위)가 중앙행정기관으로 다시 출범하는 날이다. 출범일까지 긴장의 끈을 놓지 않겠다는 의지가 강했던 걸까. 김 대행은 피로가 누적됐는지 입술 한쪽이 부르텄다. 그는 본인보다 배석한 부하직원을 더 걱정했다. 김 대행은 "개보위 기획총괄과장이 언론대응, 국회대응, 조직인사 등 통상 과장급 4명이 할일을 혼자 하고 있더라"면서 "소수정예로 중앙행정기관 출범 준비에 박차를 가하고 있다"고 설명했다. 지금까지 개보위는 법령을 해석하고 개인정보 침해요인을 심사하는 작은 기구에 불과했다. 그러나 데이터3법으로 불리는 개인정보보호법 개정안 통과로 개인정보보호 콘트롤타워로 재탄생한다. 방송통신위원회, 금융위원회 등과 같은 정식 정부부처로 거듭나는 것이다. 그는 "조직, 인사, 후속 법령과 가이드라인 정리 등 모든 업무가 동시다발적으로 진행되고 있다"며 "시간이 어떻게 지나가고 있는지 모를 정도로 바쁜 나날을 보내고 있다"고 말했다. 오는 8월 출범할 개보위 조직의 밑그림은 '1처 4국'으로 그려졌다. 여타 장관급 기구보다 작은 규모다. 그는 "슬림하게 출발하려고 한다"며 "조직의 확대는 시대 수요에 맞게 추후에 검토될 문제"라고 답했다. 그가 효율적인 조직운영을 고민하는 배경에는 행정안전부 정부혁신조직실장 이력이 영향을 미쳤다. 전 정부 조직의 규모와 정원 관리를 총괄하는 자리다. 인사기획관 자리도 거쳤다. 전라북도 행정부시자로 광역행정도 두루 경험했다. 그가 새로운 정부부처 출범의 키를 쥔 배경이기도 하다. 이날 오후 정부서울청사 집무실에서 개보위의 중앙행정기관 출범의 산파 역할을 맡고 있는 김일재 대행을 만나 중앙부처 승격의 준비 과정과 의미, 향후 과제에 대해 들어봤다.   대담 = 김태경 정책사회부장   ─중앙행정기관이 되면 가장 큰 변화가 무엇인가.   ▲분산된 개인정보보호 기능의 통합이 가장 큰 변화다. 현재 개보위는 법령을 해석하고 개인정보 침해요인을 평가하는 업무가 거의 전부다. 실제 개인정보보호 업무는 부처 3곳에 분산돼있다. 행정안전부, 방송통신위원회, 금융위원회다. 여러 부처에서 중복 규제를 하다보니 산업계 불편이 컸다. 2중·3중 규제 문제가 심각했다. 규제 기준이 제각각이면 그만큼 구멍도 크다는 뜻이다. 국민들 개인정보의 보호 수준도 열악하다. 분산된 기능이 한곳으로 통합돼 개인정보보호 콘트롤타워가 생기면 이런 부분들이 해소될 것이다.   ─중앙부처로 출범할 개보위 규모는 어떤가.   ▲현재 2국 체제인데, 1처 4국 규모로 출범할 것으로 예상된다. 다른 장관급 기구보다 작다. 전체 인력은 아직 확정되지 않았다. 행안부에서 마지막 검토 중이다. 타 부처 기능이 합쳐지는 것이기 때문에 일부 인력이 이동한다. 충원 문제가 고민이다. 타 부처에서 개보위로 오고 싶다고 해도 그 쪽 대체인력 충원이 선행돼야 한다. 미리 충원을 해야 제 때 개보위에 보내줄 수 있다. 전에 인사업무를 해봐서인지 협조가 잘되는 편이다.   ─데이터 3법 후속조치는 어디까지 진행됐나.   ▲국회에서 통과된 데이터 3법 개정 취지가 후속규정에도 잘 반영될 수 있도록 관계부처와 함께 노력하고 있다. 시행령, 고시, 지침, 가이드라인 등이다. 각 기관의 지침과 가이드라인이 모두 달라 방대한 양의 작업을 진행하고 있다. 해설서도 만들고 있다. 법의 해석 문제도 중요하기 때문이다. 개보위 결정문과 판례 등을 추가한다. 신설 규정에 대해서는 혼란 최소화를 위해 해석을 명확히 할 방침이다. 시민사회, 산업계 등 다양한 이해관계자와 지속 협의해 현장 목소리를 충분히 담겠다.   ─유럽연합 GDPR 적정성 결정을 추진 중이다.   ▲GDPR은 유럽연합(EU)의 개인정보보호법이다. EU 시민의 개인정보가 EU 밖으로 이전되는 것을 원칙적으로 금지하면서도 적정성 결정을 받은 국가에 대해서는 역외이전을 허용하고 있다. 이번 개보법 개정으로 가장 큰 걸림돌이었던 개보위 독립성 문제가 해결돼 협상이 원활하게 추진될 것으로 본다. 특히 최근 한국-EU 정상회담 발표문에 '양 정상은 적정성 결정과 관련해 중대한 진전이 있었음을 확인했다'는 내용이 포함됐다. 그간 유럽진출 기업들은 개인정보보호와 관련해서 스스로 대응해야했다. 전문 국제변호사를 고용하는 등 큰 비용이 들었다. 협상이 타결되면 정부가 포괄적 승인을 받는다. 기업 비용이 크게 줄어 양 지역 간에 협상, 교역이 더 촉진될 것이다.   ─'보호'와 '진흥' 업무가 상충된다는 의견도 있다.   ▲데이터 활용을 위해선 안전한 보호가 전제돼야한다. 두 개 가치 중 결코 한쪽을 포기할 수 없다. 4차산업혁명 시대의 데이터 활용은 대다수 국가가 중점적으로 추진하는 분야다. 개인정보가 유출된다면 개인의 피해뿐만 아니라 산업계에도 큰 타격을 준다. 솔로몬의 지혜를 발휘해야 한다. 특히 가명정보 활용 시 기록의무화, 개보위가 관리하는 통합된 데이터 결합 시스템 구축 등 데이터 활용 전반에서 안전성·투명성을 확보하겠다. 엄격한 보안시설을 갖춘 국가지정 전문기관에서만 데이터 결합을 허용 하는 등 데이터 오·남용 가능성도 사전 예방할 계획이다. 개인정보를 침해하는 법령위반 사업자는 관련 법령에 따라 엄정하게 대응하게 된다.   ─시민단체 반대가 여전하다.   ▲시민단체 의견도 굉장히 소중하게 생각하고 있다. 많은 소통을 하려고 하고 있다. 의견을 들어보면 국민들을 위한 서비스 향상이나 복지 향상을 위해 공익적인 차원에서의 데이터 활용까지 반대하시는 건 아니다. 다만 국민들의 소중한 개인정보에 대해 보호가 제대로 안되면 초래할 피해를 정부가 막아야하지 않으냐는 의견으로 이해된다. 안전한 보호장치가 되도록 더욱더 신경을 써달라는 거다. 정부가 마땅히 해야 할 책임과 역할이라고 본다.   ─보호분야 기술발전도 중요하다.   ▲데이터 활용분야 기술은 나날이 발전하고 있다. 반면 보호분야는 아직 미흡하다. 암호화 등 보안 기술이 뒷받침돼야 안전한 활용도 가능하다. 개보위 역점 사업 중 하나다. 개보위가 일종의 콘트롤타워가 된다. 인력양성은 교육부의 특성화 대학 지원사업, 기술개발 R&amp;D는 과학기술정보통신부와 협력해야한다.   ─정보주체의 자기결정권이 여전히 부족하다는 지적이 많다.   ▲국회에서도 지적이 나왔다. 유럽 GDPR에 비해 정보주체의 자기결정권이 부족하다. 개인정보 이동권이나 프로파일링 대응권 등이다. 개인정보를 광범위하게 모아서 마케팅하는 프로파일링에 대한 개인의 대응권이 주어져야한다. 이동권도 있다. 예컨대 A기업이 보유한 개인정보를 정보주체가 B기업에 이동시켜달라고 요청할 수 있는 권리다. 삭제, 열람 요구 등도 포함된다. 유럽 GDPR에는 명시돼있지만 우리 개인정보보호법에는 없다. 다만, 법령 개정 사항이면서도 다양한 찬반의견이 있을 수 있어 개보위 출범 이후에 2차 법제 정비에 대해선 충분한 공론화 과정을 거쳐 추진해야할 과제다.   ─신산업 발전에 따라 개인정보 보호 제도도 따라가야한다.   ▲개인정보보호 이슈는 현재이자 미래형 과제다. 세계 각 국이 디지털뉴딜, 4차산업 등 새로운 영역을 선점하기 위해 경쟁하고 있다. 인공지능, 블록체인, 클라우드, 빅데이터, 자율주행 등 신기술들이 쓰이는데, 모두 개인정보 이슈가 연계돼있다. 세상은 매우 빠르게 발전하고 있다. 그만큼 시대적 요구가 크다. 타 부처들과 함께 진흥과 안전이 조화를 이루면서 뒤쳐지지 않게 세심하게 제도를 정비하겠다.   ─개보위 혼자만 잘해선 안되겠다.   ▲개인정보보호 정책의 부처 간 일관성, 연계성 확보를 위해 중앙부처 간 실·국장급 정책협의회를 구성, 운영할 계획이다. 조사 기능도 강화한다. 대규모 침해사고에 신속하게 대응하고 공동조사하는 '범정부 합동조사 협의체'도 운영한다. 지역사회의 개인정보 보호 강화를 위해 시·도별 '개인정보 보호 관계기관 협의회' 근거도 마련한다. 민간기관 역량도 끌어올려야 한다. 기업 등이 업종별 여건과 특성에 따라 자율적·적극적으로 보호활동을 수행할 수 있도록 자율보호 추진체계도 정비한다.   ─국민들은 개인정보 유출이 만연하다고 여긴다.   ▲동의한다. 많은 국민들이 걱정하고 계신다. 뉴스에서 매일 어디선가 개인정보가 유출됐다는 내용들이 나온다. 일상화된 것이고 매우 우려된다. 이젠 달라져야한다. 다행히 법률 개정으로 콘트롤타워가 만들어졌으니 저를 비롯해 개보위 전직원들이 책임과 소명을 갖고 적극적으로 준비하고 있다. 국민들께서도 따뜻한 관심과 애정을 보내주시길 소망한다. 사회 각 분야에서 공공 뿐 아니라 민간부분이 같이 해야할 중요한 과제다. 각 분야에서 자율적인 보호활동이 활발하게 이뤄져 국민들의 소중한 개인정보가 유출되거나 남용돼 피해 사례가 나오지 않도록 적극 노력하겠다.   ■ 김일재 약력  △1960년 전북 순창 △숭실고 △서울대 정치학과 △미국 인디애나대 행정환경대학원 석사 △가천대 행정학 박사 △제31회 행정고시 △대통령 사회정책수석실 행정관 △행정안전부 행정선진화기획관 △행정안전부 정책기획관 △안전행정부 인사기획관 △전라북도 행정부지사 △행정안전부 정부혁신조직실장  eco@fnnews.com 안태호 기자 ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>LG헬로, 신제품에 최신 구글OS4K 화질로 넷플릭스 시청 가능KT '무선 연결' 초소형 셋톱SKB, 스마트 스피커로도 활용LGU+, IPTV로 게임 서비스TV 셋톱박스가 진화하고 있다. 과거 까맣고 투박한 디자인에서 세련된 외관으로 탈바꿈한 것은 물론 인공지능(AI) 기반 콘텐츠 추천, 교육, 쇼핑 등 서비스 범위를 확대하는 모습이다.5일 유료방송업계에 따르면 LG헬로비전은 다음달 새로운 프리미엄 셋톱박스를 내놓을 예정이다. 국내 출시되는 셋톱박스 최초로 구글 운영체제(OS) ‘안드로이드 10’을 적용했다. 이를 통해 구글 플레이스토어에서 제공하는 5000여 개의 전용 앱을 내려받아 이용할 수 있다. 크기를 기존 제품인 ‘헬로tv UHD 레드’ 셋톱박스 대비 절반 수준으로 줄이고 새로운 사용자환경(UI)도 도입한다. LG헬로비전 관계자는 “중앙처리장치(CPU)와 메모리 성능을 기존 대비 1.5배 이상 향상시켰다”며 “넷플릭스, 유튜브 등 동영상 서비스를 4K 화질로 볼 수 있다”고 설명했다.LG헬로비전은 작년 12월 LG유플러스에 인수된 이후 LG유플러스의 어린이 특화 콘텐츠 ‘아이들나라’를 자사 케이블TV 서비스 헬로tv에서 방송하는 등 시너지 전략을 추진 중이다. 하반기 신규 셋톱박스를 통해 프리미엄 케이블TV 전략을 펼친다는 목표다.KT는 작년 11월 초소형 무선 셋톱박스 ‘올레tv UHD4’를 내놨다. 손바닥보다 작은 크기에 무게는 65g으로, 기존 UHD 셋톱박스 대비 5분의 1 수준으로 소형화했다. 대기전력도 다른 셋톱박스와 비교해 절반 이하란 설명이다. 유선랜을 설치할 필요 없이 와이파이만 있으면 집 안 어디든 원하는 곳에 설치할 수 있다. KT 관계자는 “TV 뒷면에 부착해 외관을 깔끔하게 정리할 수 있어 호응도가 높다”며 “거실에서 다 같이 즐기던 인터넷TV(IPTV)를 개개인이 원하는 실내 곳곳에서 즐길 수 있다”고 말했다.SK브로드밴드는 SK텔레콤의 음성 AI 서비스 ‘누구’와 IPTV B tv의 셋톱박스를 하나로 합친 ‘AI2 셋톱박스’를 선보였다. 리모컨 없이 음성만으로 Btv 서비스를 제어할 수 있고 스마트 스피커로도 활용 가능하다. TV를 끈 상태에서 음원 스트리밍 서비스를 이용하거나 에어컨, 공기청정기 등 스마트홈 기기를 구동하는 등 다양한 용도로 쓸 수 있다. 지난 4월 세계 3대 디자인 어워드 ‘레드닷 디자인 어워드 2020’ 제품 디자인 부문 본상을 받을 정도로 디자인에도 신경 썼다.LG유플러스는 지난해 공개한 U+tv UHD3 셋톱박스를 통해 이동통신 고객에게 제공하던 클라우드 게임 스트리밍 서비스 ‘지포스 나우’와 프로야구, 골프, 아이돌라이브 등을 IPTV에서도 똑같이 선보이고 있다.IPTV와 케이블TV 등 유료방송을 이용하는 방법이 단순 시청에서 교육, 게임, 쇼핑 등 양방향으로 확대되면서 셋톱박스 성능도 꾸준히 향상될 전망이다. 스마트폰과 달리 셋톱박스는 그동안 한 번 서비스에 가입하면 몇 년씩 쓰는 게 일반적이다. 기업으로선 다양한 서비스를 제공해 고객을 고가 상품으로 유인할 필요가 있는 것이다. 한 유료방송업계 관계자는 “가입자 수와 가입자당 평균매출(ARPU)을 늘리기 위해선 프리미엄 상품이 중요하다”며 “셋톱박스는 이 같은 서비스를 제공할 수 있는 발판이기 때문에 업체들이 셋톱박스 차별화에 나서는 것”이라고 설명했다.이승우 기자 leeswoo@hankyung.com▶ 네이버에서 한국경제 뉴스를 받아보세요▶ 한경닷컴 바로가기  ▶ 모바일한경 구독신청 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>데이터 산업·비대면 의료 확대 등 디지털뉴딜2050년 탄소제로, 그린리모델링 등 그린뉴딜제도개혁 없고, 미래동력 확보 사업 부재 지적도홍남기 부총리 겸 기획재정부 장관이 2일 오전 정부서울청사에서 열린 제9차 비상경제 중앙대책본부 회의를 주재하며 발언하고 있다. /연합뉴스[서울경제] 문재인 대통령이 역점을 두고 추진하는 ‘한국판 뉴딜’에 오는 2025년까지 ‘100조원+α’의 재정이 투입된다. 다만 정부가 제도개혁 없이 대통령의 핵심사업에 막대한 예산을 쏟아붓는 방향으로 정책을 추진한다는 지적이 나온다.5일 기획재정부와 청와대에 따르면 정부는 13일 문 대통령이 주재하는 회의에서 이 같은 내용의 ‘한국판 뉴딜 종합계획’을 발표할 예정이다. 이 자리에는 수소차와 그린에너지 등 신산업 관련 기업들도 참석할 것으로 전해졌다. 정부는 지난달 디지털뉴딜과 그린뉴딜을 양대 축으로 한 한국판 뉴딜 기본방향에 2022년까지 31조원, 2023년부터 2025년까지 45조원 등 총 76조원을 투자한다고 밝혔다. 여기에 관련 사업을 추가 발굴하면서 30% 가까이 증액한 것이다.홍남기 부총리 겸 기획재정부 장관은 1930년대 미국 대공황 극복을 위해 추진된 뉴딜사업 중 하나인 ‘후버댐’이 수력전력을 생산하고 일자리를 창출했던 것처럼 디지털뉴딜은 ‘데이터 댐’, 그린뉴딜은 ‘그린에너지 댐’을 기본축으로 한다는 구상을 가지고 있다. 한국판뉴딜추진기획단(가칭)도 구성된다.디지털뉴딜의 경우 데이터·인공지능(AI) 생태계를 키우고 비대면 의료·교육을 육성하는 방안이 추진된다. 기업들이 데이터를 여러 곳에 활용할 수 있도록 15개 분야에서 빅데이터 플랫폼을 만들고 14만개의 공공데이터를 순차 개방한다. 또 전국 모든 초중고교 교실에 와이파이를 구축해 디지털 기반의 교육 인프라를 보완한다. 정부 관계자는 “디지털뉴딜의 일자리 효과가 월등히 높아 데이터 산업을 육성하는 데 초점을 맞출 것”이라고 말했다. 아울러 환자가 의사를 직접 만나지 않고도 처방을 받을 수 있는 비대면 의료를 확대할 계획이다. 신종 코로나바이러스 감염증(코로나19) 확산을 막기 위해 현재 한시적으로 전화상담·처방이 가능하도록 한 데서 거동이 불편한 국민이 신속하게 약을 처방받거나 화상으로 간단히 진료받을 수 있을 정도로 원격진료를 확대하는 방안이 거론된다. 이에 대해 의료계를 중심으로 의료영리화 논란과 함께 상급병원에 환자가 쏠릴 수 있다는 문제를 제기하며 반발하는 점은 변수다.그린뉴딜은 에너지 효율을 높이는 친환경 경제ㆍ산업구조 전환, ‘2050년 탄소제로’ 등 기후변화 대응, 공공시설을 환경친화적으로 바꾸는 그린리모델링 등이 핵심이다. 태양광·풍력·수소 등 신재생에너지 확산 기반을 구축하는 동시에 친환경 차량·선박 확대 등 온실가스를 줄이는 사업들이 담긴다. 더불어 어린이집·보건소·공공임대주택 등 공공건축물을 친환경적으로 리모델링하고 체육센터 등 생활 사회간접자본(SOC) 시설을 고효율에너지 시설로 전환한다. 다만 기후변화 대응에서 기업들에 대한 환경규제가 가중될 수 있다는 우려도 확대되고 있다.특히 지금까지 역대 모든 정부에서 내걸었던 수년간의 그랜드플랜이 다음 정권으로 이어진 전례가 없어 정권이 바뀌는 2022년 이후에도 한국판 뉴딜사업이 연속성을 가질 수 있을지에 대한 불안감이 있다. 미국 뉴딜개혁에 담겼던 제도정비가 빠져 있을 뿐 아니라 사업효과가 불확실해 미래 성장동력을 확보할 수 있느냐는 우려도 나온다. 국회는 지난 3일 3차 추가경정예산안에 4조8,000억원 규모의 한국판 뉴딜 예산을 포함해 통과시켰다. 이에 대해 국회예산정책처는 “새롭고 혁신적인 정책이라는 의미인 뉴딜사업의 취지를 충분히 살리기 어려운 사업들이 상당수 편성돼 있다”며 “계획이 부실하거나 효과가 불확실하다”고 지적했다./세종=황정원기자 garden@sedaily.com[서울경제 바로가기]▶ 네이버 채널에서 '서울경제' 구독해주세요!▶ [집슐랭] 미슐랭 가이드처럼 알찬 부동산뉴스저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>[세계 첫 AI 적용 포스코 '포항2고로' 가보니]원료 품질검사·쇳물 온도측정 등고숙련 작업 AI로 대체해 품질개선생산량 연간 199만톤으로 확대3년간 2,520억 원가절감 효과도인공지능(AI)이 적용된 포항제철소 2고로가 연기를 뿜으며 쇳물을 만들어내고 있다. /사진제공=포스코[서울경제] 지난 1일 기자가 방문한 경북 포항의 포스코 2고로. 작은 철문을 열어 들여다본 출선구(出銑口)에서는 오렌지색 섬광이 힘차게 뿜어져 나왔다. 맑은 아침 찰나의 태양이 내는 빛깔, 쇳물이다. 한국의 조선·자동차·건설·기계업이 융성한 배경에는 양질의 ‘산업의 쌀’ 철을 만드는 고로가 있어 가능했다. 그러나 최근 철강산업은 한계에 봉착했다. 전 세계적으로 철강 수요가 정체된 가운데 중국이 급부상하면서 경쟁이 치열해졌고 고객의 눈높이도 높아졌다. 혹독한 원가절감과 품질개선 없이는 생존 자체가 어려워진 것이다. 일부 ‘베테랑’ 현장 근로자들의 감과 경험에 의존하는 현실에서는 달성하기 어려운 목표였다. 포스코는 이 같은 난제에 대한 답으로 ‘인공지능(AI)’을 택했다. 베테랑들의 경험과 지식에 AI를 입혀 스스로 학습해 판단하고 개선할 수 있는 시스템 도입에 투자했다. 세계 최초로 AI를 적용한 고로인 포항 2고로가 바로 그것이다. 원료 품질검사부터 쇳물 온도측정까지 과거 직원들이 직접 작업했던 위험한 일들을 모두 센서와 AI가 도맡아 하고 있다.2고로에서 뜨거운 쇳물 앞에서 구슬땀을 흘리는 직원들의 모습을 볼 수 없는 이유이기도 하다. 과거에는 직접 직원이 바람구멍을 통해 1,200도의 고로에서 쇳물을 만드는 과정을 눈으로 확인해야 했다. 하지만 AI를 도입한 후에는 상황실에서 컴퓨터가 추가 연료를 투입하거나 투입량을 줄여가며 고로 온도를 일정하게 유지한다. 쇳물의 원료인 철광석의 수분 비율을 확인하는 작업도 직원들이 하루 3회 삽으로 떠서 수동으로 했던 것을 센서가 사진을 찍어 분석한다. 결과는 대성공. 고로에서 생산하는 쇳물의 품질을 크게 높였고 쇳물 생산량도 연간 190만5,000톤에서 199만톤으로 늘었다. 이는 승용차 8만5,000대를 추가로 만들 수 있는 수준이다. 이두흔 생산기술전략실 리더(팀장)는 “조업자들의 경험과 숙련도에 따라 품질이 달라졌던 이전과 달리 AI 도입 이후에는 균일하게 좋은 품질의 쇳물을 생산할 수 있게 됐다”고 말했다. 포스코는 지난해 7월 세계경제포럼(WEF)이 선정하는 ‘등대공장(Lighthouse Factory·제조업의 미래를 이끌 공장)’에 뽑혀 성과를 인정받기도 했다. 포스코의 ‘스마트 체제전환’의 중심에는 포스코 고유의 철강 스마트팩토리 플랫폼인 ‘포스프레임’이 있다. 포스프레임은 세계 최초의 연속 제조 공정용 스마트팩토리 플랫폼이다. 포스코는 포스프레임을 이용해 연속되는 전 공장의 철강 공정 데이터를 수집하고 정형화한다. 이후 포스프레임이 사물인터넷(IoT), 빅데이터, AI 등 신기술을 이용, 데이터를 스스로 학습해 최적의 공정 조건을 내놓고 공장을 제어한다.포항제철소 스마트데이터센터 전경. /사진제공=포스코포스프레임은 제철소의 생산계획을 수립하는 단계인 수주 공정부터 제선·제강·연주·압연·도금에 이르는 전 공정에 광범위하게 적용된다. 스마트팩토리 도입 결과 모든 공정에서 괄목할 만한 성과를 거뒀다. 제강 공정에서는 전로 최종 온도 적중률을 기존 80%에서 90%로 높였고 열 제어에 사용되는 원료 사용량을 60% 줄였다. 도금 공정에서는 제품의 강종, 두께, 폭, 조업 조건과 목표 도금량을 스스로 학습해 정확히 제어할 수 있도록 해 도금량 제어 적중률을 89%에서 99%까지 높였다. 회사의 한 관계자는 “포스코에서 나오는 제품의 품질을 균일하게 맞추는 ‘원 포스코 원 퀄리티’를 실현했다”며 “제철소 현장의 특정 문자, 형상, 움직임 등을 자동으로 감지하고 수집한 정보에서 이상이 인지되면 관리자에게 알려주는 지능형 폐쇄회로(CC)TV를 활용, 작업 대기시간을 줄이고 열화상 등 다중 영상장치로 화재 위험을 사전에 감지해 예방하고 있다”고 말했다. 실제 포스코는 2016년부터 2019년까지 스마트팩토리 과제 321건을 수행해 총 2,520억원의 원가절감 효과를 거뒀다.포스코의 스마트팩토리 사업 핵심 컨트롤타워는 바로 2018년 출범한 ‘스마트데이터센터’다. 이곳에서는 스마트 기술을 더욱 정교하게 가다듬는 작업을 하고 있다. 스마트데이터센터는 포항제철소 내 공장에 설치된 IoT 센서를 통해 얻은 빅데이터를 실시간으로 수집·저장하는 곳이다. 이곳으로 모인 공장의 각종 정보들은 포스프레임에 축적되고, 데이터를 분석해 예측한 정보를 바탕으로 최적의 생산환경을 구축하는 시스템이다. 뜨거운 열과 시뻘건 쇳물이 흐르는 제철소가 아닌 여러 개의 모니터를 통해 다양한 센서 정보를 분석하는 스마트데이터센터가 제철소를 움직이는 ‘현장’인 것이다. 지난 1일 포항제철소 스마트데이터센터 종합상황실 직원들이 여러 개의 모니터와 컴퓨터를 통해 제철 현장의 데이터를 모니터링하고 있다. /사진제공=포스코포스코는 이처럼 진화하고 있는 스마트 인프라를 운영하기 위해 임직원들의 역량 강화에도 힘을 쏟고 있다. 실제 최정우 포스코 회장은 최근 “포항과 광양 양 제철소의 AI 인력을 2배로 늘리라”고 주문하기도 했다. 포스코는 다른 기업들처럼 IT 전공자가 아닌 철강업에 대한 지식을 갖춘 직원들을 교육해 AI 인력으로 육성하는 ‘발상의 전환’을 시도하고 있다. 한 사람당 약 6,000만원을 들여 매년 20~25명에게 AI 교육 프로그램을 제공하고 있다. 이 리더는 “데이터를 축적하고 분류하는 것은 프로그램으로 해결할 수 있지만 철강업에 대한 지식과 오랜 경험은 대체 불가능한 자산”이라며 “이같이 ‘도메인’ 지식을 갖춘 직원들이 AI라는 도구로 철강업의 문제를 해결할 수 있다고 판단했다”고 말했다. 포스코의 스마트화는 현재진행형이다. 포스코는 최근 약 3년에 걸쳐 진행했던 딥러닝(심화학습) 활용 고로 부위별 자동 제어 시스템 개발을 마쳤으며 현재는 이를 한 단계 업그레이드한 통합 시스템을 개발하고 있다. 포스코는 앞으로 2고로보다 규모가 더 큰 3·4고로에 이 시스템을 적용할 계획이다. AI를 도구로 장착한 ‘진화한 철강인’들이 앞으로 제철 현장에 어떤 변화를 가져올지 기대되는 대목이다. /포항=한동희기자 dwise@sedaily.com[서울경제 바로가기]▶ 네이버 채널에서 '서울경제' 구독해주세요!▶ [집슐랭] 미슐랭 가이드처럼 알찬 부동산뉴스저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[디지털타임스 김양혁 기자] 정부가 한국판 뉴딜에 애초 계획보다 24조원 늘린 100조원 이상을 투입한다. 데이터 산업과 비대면 의료를 확대하는 등에 집중 투자한다는 방침이다.5일 기획재정부에 따르면 정부는 76조원 규모로 제시됐던 한국판 뉴딜을 100조원 이상으로 늘리고 세부 내용을 확정해 '한국판 뉴딜 종합계획'을 이번 달 중순께 발표한다. 한국판 뉴딜은 데이터·인공지능(AI) 생태계를 키우고 비대면 의료·교육을 육성하는 디지털 뉴딜과 공공시설을 친환경적으로 바꾸는 그린뉴딜로 나뉜다.정부는 디지털 뉴딜 분야에서는 데이터 산업을 육성하는 데 방점을 찍을 계획이다. 앞서 문재인 대통령은 지난달 18일 강원도 춘천의 데이터 및 AI(인공지능) 기업을 찾아 미국 뉴딜의 상징인 후버댐에 견줄 만한 요소로 '데이터댐'을 제시하고 디지털 뉴딜을 활성화하겠다고 했다. 발전, 산업용, 식수 등으로 쓰이는 후버댐의 물처럼 데이터를 다목적으로 활용하겠다는 것이다.정부는 데이터를 기업들이 여러 용도로 활용할 수 있게끔 15개 분야에서 빅데이터 플랫폼을 만들고 14만개의 공공데이터를 순차적으로 개방한다. 전국 모든 초등학교·중학교·고등학교 교실에 와이파이를 구축해 디지털 기반 교육 인프라를 보완한다. AI 핵심 인재도 양성한다.또 환자가 의사를 직접 만나지 않고도 처방을 받을 수 있는 비대면 의료를 확대할 계획이다. 정부는 감염병 확산을 막기 위해 2월 말부터 한시적으로 전화상담·처방이 가능하도록 했는데, 코로나19를 거치며 효과가 나타난 만큼 이를 키우겠다는 것이다. 화상 진료 인프라를 깔아 의사가 영상을 보며 처방할 수 있게 하는 원격진료 방안이 거론되고 있다. 지난 2일 국무총리 주재로 열린 국정현안점검조정회의에서도 비대면 의료 서비스 확대를 검토한다는 내용이 나왔다. 다만 상급병원에 환자가 쏠릴 수 있다는 지적과 의료 영리화 논란이 있는 만큼 정부는 각계 의견을 듣고 사회적 합의를 거치는 등 중장기적인 과제로 추진한다는 입장이다.그린뉴딜 대책도 나온다. 정부는 에너지를 많이 쓰는 노후 어린이집, 보건소, 의료기관, 공공 임대주택을 에너지 효율이 높게 리모델링할 계획이다. 친환경 기술을 보유한 기업 100곳을 선정해 2022년까지 연구개발부터 사업화 작업까지 지원하는 방안도 포함된다. 태양광·풍력·수소 등 3대 신재생에너지 기반을 만들기 위해 정부는 융자를 제공하고 건물, 주택, 농촌에 태양광 발전 시설도 설치한다. 그린뉴딜에는 급격한 기후변화를 막자는 목표만이 아니라 산업을 친환경적으로 바꾸지 않으면 먼 미래에는 제조업 수출이 어려워질 수 있다는 인식이 깔려있다. 구글, 페이스북, BMW 등 글로벌 기업들이 2050년까지 사용하는 전력의 100%를 재생에너지로 대체하자는 'RE100'에 동참하는 만큼 국내 기업도 재생에너지를 사용하지 않으면 앞으로 수출에 제한이 발생할 수 있다는 지적이 나온다.김양혁기자 mj@dt.co.kr 디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t>헬스케어융합·의료기기산업 대학원 신설내년 1학기부터 신입생 모집 나서기로예성준 융대원장 "의료계 패러다임 바뀌어…신산업 육성 기대""환자 개개인의 유전이나 환경, 생활패턴 등을 고려해서 질병을 예방하고 치료하는 '정밀의학'을 위해선 의료 패러다임의 변화가 필요하다. 인공지능(AI), 빅데이터, 바이오, 정보통신기술(ICT) 등을 융합해 헬스케어산업 분야를 개척하기 위해 새 학과를 만들게 됐다."예성준 서울대 융합과학기술대학원장이 3일 매일경제와의 인터뷰에서 밝힌 융합과학기술대학원 내 '헬스케어융합학과' 신설 배경이다.서울대학교가 'K-헬스케어' 육성을 위한 본격적인 시동을 걸었다. 그동안 의술 중심으로 환자의 치료와 진료에 매달려왔던 서울대 의과계열에서 4차산업혁명에 발맞춰 의료IT산업에도 관심을 쏟기 시작했고, 해당 분야의 전문 지식을 갖춘 인재를 양성하기 위한 학과를 새롭게 만드는 등 체제를 정비한 것이다.5일 서울대에 따르면 최근 열린 평의원회 제8차 본회의에서는 서울대에 의료기기산업학과와 헬스케어융합학과 그리고 임상간호학과의 신설안에 대한 심의가 이뤄졌고, 모두 원안대로 심의를 통과했다. 이에 따라 3개 학과는 2021학년도 1학기부터 신입생을 모집하면서 운영에 들어가게 됐다.먼저 의료기기산업학과는 의과대학 대학원에 생기게 된다. 석사과정과 석·박사통합과정을 모집하게 되며 정원은 석사과정 5명과 석·박통합과정 7명 등 총 12명이다. 서울대 관계자는 "의과대학 안에 임상쪽을 담당하는 의학과와 기초의학을 다루는 의과학과가 있는데, 의학과에서 의료기기산업이 요즘 강조가 되기 때문에 해당 산업과 관련한 인재 양성의 필요성을 느껴 학과를 설립한 것"이라고 설명했다.서울대는 채용을 보장하는 계약학과를 만들어 교육과 실제 산업현장을 연결하려는 시도에도 나섰다. 특히 융합과학기술대학원에 설립되는 헬스케어융합학과를 졸업한 학생들은 분당서울대학교병원에서 2년간 선임연구원으로의 채용이 확정된다. 해당 학과는 박사과정생을 10명 모집한다. 예 원장은 해당 학과가 서울대에서 처음으로 시작한 '채용보장형 계약학과'라고 설명했다. 기존에 있던 계약학과는 협약을 맺은 기관 등에서 일하고 있는 이들을 재교육하기 위한 목적이었다면, 이번에는 새롭게 채용까지 연결시켜주는 학과란 것이다. 헬스케어융합학과 신설 논의가 시작된 것은 지금으로부터 2년 전이다. 예 원장은 채용보장형 계약학과를 만들기 위해 서울대 내 학칙을 바꿔야 했고 이에 시간이 많이 걸렸다고 전했다.헬스케어융합학과는 서울대 융합과학기술대학원과 헬스케어 분야에 지대한 관심을 가지고 있는 분당서울대병원의 시너지를 내기 위한 장소로 기능할 예정이다. 분당서울대병원은 헬스케어혁신파크(HIP)를 만들어 의료진과 연구진 사이의 협업과 융복합을 꾀하고 있다. 이에 분당서울대병원은 의료계와 바이오벤처 업계에선 한국 의료산업화의 미래를 보여주는 실험장으로 꼽히고 있다. 분당서울대병원 관계자는 "헬스케어와 관련한 인프라가 구축돼 다른 병원보다 훨씬 더 유리한 조건에서의 연구 등이 가능해 좋은 협업 효과가 기대된다"고 전했다.예 원장은 앞으로 인공지능 데이터를 활용한 분야와 바이오 헬스 분야 등 차세대 먹거리 산업 육성에 도움이 되기 위해 향후 10년동안 대학원이 집중적으로 교육하고 연구하겠단 포부를 밝혔다. 그는 "헬스케어 의료시장이라는 새로운 의료계 패러다임에 맞추기 위해 학과 신설을 준비해왔는데, 마침 학사위원회와 평의원회에서 통과가 돼서 기쁘다"면서 "앞으로 과정을 잘 운영해서 이 분야를 통해 신산업을 창출할 수 있도록 많은 노력을 할 것이고 기대를 해주셨으면 한다"고 말했다.서울대는 간호대학의 대학원 내에 임상간호학과도 신설해 의료의 질에도 신경쓰기로 했다. 석사과정을 모집하며 15명 규모다. 분당서울대병원과 서울대병원에서 근무하는 간호사들의 상급실무 재교육을 위한 목적이다. [박윤균 기자]▶네이버 메인에서 '매일경제'를 받아보세요▶'매일경제' 바로가기 ▶뉴스레터 '매콤달콤' 구독[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>[디지털데일리 이종현기자] 마이크로소프트(MS)가 5일 구직에 필요한 디지털 기술에 대한 접근성을 높이는 ‘글로벌 스킬 이니셔티브’를 발표했다.    ‘누구나 평생교육을 받을 수 있도록 연결된 학습 시스템 구축’이라는 비전으로 시행되는 이번 글로벌 스킬 이니셔티브는 인공지능(AI)을 포함해 데이터 및 디지털 기술을 바탕으로 새로운 직무수행에 필요한 기술을 지원한다.    MS는 링크드인, 깃허브 등 자사가 보유한 역량을 바탕으로 ▲수요가 많은 직종과 해당 직종을 잘 이해하기 위한 데이터 및 분석 ▲해당 직책이 요구하는 스킬을 배양할 수 있도록 교육 과정 및 콘텐츠 접근권 무료 제공 ▲스킬을 익히고 새로운 일자리를 찾는 이들을 지원하기 위한 저비용 인증제도 및 무료 구직 툴 제공 등 3개 영역을 기초해 구직자의 정보기술(IT) 역량 강화를 지원한다.   또 구직자 취업 준비를 위해 링크드인 상에서 구직자가 지원하고자 하는 기업에 자신이 희망하는 직무를 수행할 수 있는 ‘오픈투워크(OpenToWork)’ 등의 기능도 추가됐다.   MS 최고법률책임자(CLO) 브래드 스미스 사장은 “MS는 현재 우리가 직면하고 있는 일자리 문제에 대해 포괄적으로 접근하고자 한다”며 “어떤 기업도 독자적으로 할 수 없는 일이기에 지속적인 발전을 위한 공공, 민간, 비영리 조직 이해 관계자 간의 새로운 파트너십이 필요하다”고 피력했다.   &lt;이종현 기자&gt;bell@ddaily.co.kr▶ 네이버에서 디지털데일리 채널 구독하기▶ IT정보의 즐거운 업그레이드 [딜라이트닷넷]&lt;저작권자 © 디지털데일리 무단전재-재배포금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		교육부는 감염병이 유행한 국가에서 입국한 학생은 의사 진단 없이도 등교를 중지시킬 수 있도록 학교보건법 개정을 추진한다고 5일 발표했다. 교육부는 ‘2020 교육부 적극 행정 실행계획’을 수립하고 이같은 계획을 밝혔다. 교육부의 학교보건법 개정안에 따르면 감염병이 발생한 국가에서 입국하는 등 역학적 연관성이 크다고 인정될 경우 학교장이 해당 학생이나 교직원의 등교를 중지시킬 수 있다. 현행법은 감염병과 관련해 등교를 중단시키려면 의사 진단이 필요하다. 코로나19의 재유행을 대비해 관련법을 미리 손질하겠다는 취지다.  교육부는 교사들이 학교 방역·학생 지도에 전념할 수 있도록 불요불급한 학교 사업이나 범교과 수업은 축소·조정하고 방역·학습활동을 위해 지원 인력 4만명을 투입하기로 했다.  이외에도 교육부는 직업계고 학생의 취업을 지원하기 위해 기능사 자격시험 2회 추가 시행·공공부문 고졸 일자리 확대를 추진한다. 학생·교사의 의견을 반영한 미래형 학교 공간 조성, 인공지능(AI) 교육 종합방안 마련도 적극 행정 중점과제로 선정했다.배태웅 기자 btu104@hankyung.com▶ 네이버에서 한국경제 뉴스를 받아보세요▶ 한경닷컴 바로가기  ▶ 모바일한경 구독신청 ⓒ 한국경제 &amp; hankyung.com, 무단전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>교보생명 '2020년 하반기 출발 전략회의'신창재 교보생명 회장이 지난 3일 서울 광화문 교보생명 본사에서 비대면 화상회의 방식으로 '2020년 하반기 출발 전략회의'를 진행하고 있다.(교보생명 제공) © 뉴스1(서울=뉴스1) 김도엽 기자 = 신창재 교보생명 회장은 "우리는 이제 신종 코로나바이러스 감염증(코로나19) 이전의 세상으로 돌아갈 수 없다. 디지털 트랜스포메이션(Digital Transformation)을 가속화해야 한다"고 직원들에게 당부했다.신 회장은 지난 3일 서울 광화문 교보생명 본사에서 비대면화상회의로 열린 '2020년 하반기 출발 전략회의'에서 "조직, 커뮤니케이션 방식, 업무 프로세스, 비즈니스 모델을 디지털 기반으로 변화시키는 것 즉 기업문화 전체를 근본적으로 바꾸는 것이 디지털 트랜스포메이션"이라고 말했다.신 회장은 디지털로 대변되는 새로운 세상을 준비하기 위해선 디지털을 활용한 Δ비대면 영업활동 강화 Δ업무 프로세스 효율화 Δ플랫폼 등 새로운 비즈니스 모델 발굴 Δ온라인 교육·회의 활성화 등을 디지털 혁신의 핵심 추진과제로 꼽았다.교보생명은 디지털 기반 고객 서비스 강화를 위해 노력 중이다. 인공지능(AI) 언더라이팅 시스템 '바로(BARO)', 대용진단 자동화 서비스, 초간편보장분석시스템, 고객 상담 AI 챗봇 개발 등을 통해 언택트 서비스를 활성화했으며, 오픈이노베이션을 통해 스타트업과 협업 후 신규 비즈니스 모델을 발굴하기도 했다. 신 회장은 "조직장부터 디지털의 기본개념을 잘 이해하고 디지털 신기술이 보험업을 어떻게 바꿀지 고민해야 한다"며 "디지털 시대에 경쟁력을 갖출 수 있도록 모든 임직원과 컨설턴트의 디지털 업무역량을 강화해야 한다"고 했다.이어 "현장은 고객의 요구와 아이디어를 본사에 적극적으로 전달하고, 본사는 고객 중심의 마케팅 정책을 수립하되 현장의 실행을 충실히 지원해야 한다"며 본사와 영업현장의 협업을 주문했다.윤열현 교보생명 대표이사 사장도 "코로나19가 바꿔놓은 넥스트노멀(Next Normal)에 대비해 신인 컨설턴트 정착과 비대면 영업활동 지원 등 다양한 지원책을 마련하겠다"고 했다.dyeop@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1 바로가기 ▶  코로나19 뉴스 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>데이터 및 디지털 기술 기반 포괄적인 글로벌 스킬 이니셔티브 론칭업무 이해 위한 데이터 분석에서 무료 교육 콘텐츠, 구직 툴까지한국서도  ‘소프트웨어 중심사회' 사이트’에서 7월 말 제공[이데일리 김현아 기자]마이크로소프트 글로벌 스킬 이니셔티브MS의 IT 스킬이 제공되는 과기정통부와 과학창의재단의 ‘소프트웨어 중심사회’ 사이트마이크로소프트가 현재의 경제 위기를 함께 극복하고, 구직에 필요한 디지털 기술에 대한 접근성을 높이기 위한 ‘글로벌 스킬 이니셔티브(Global Skills Initiative)’를 발표했다.‘누구나 평생교육을 받을 수 있도록 연결된 학습 시스템 구축(System of learning)’이라는 비전을 기반으로 올해까지 전 세계 2천 5백만 명이 AI(인공지능)을 포함해 데이터 및 디지털 기술을 바탕으로 새로운 직무 수행에 필요한 기술을 지원하는데 집중한다. 링크드인(LinkedIn), 깃허브(GitHub)를 등 마이크로소프트가 보유하고 있는 다양한 자원과 새로운 자원을 결합하여 총 3가지 영역에 기초해 진행될 예정이다.구체적으로는 ▲수요가 많은 직종과 해당 직종을 잘 이해하기 위한 데이터 및 분석(Data and analytics to better understand in-demand skills and jobs)▲해당 직책이 요구하는 스킬을 배양할 수 있도록 교육 과정 및 콘텐츠 접근권 무료 제공(Free access to learning paths and comprehensive resources to help people develop the skills needed for in-demand jobs)▲스킬을 익히고 새로운 일자리를 찾는 이들을 지원하기 위한 저비용 인증제도 및 무료 구직 툴 제공(Connecting skills to opportunities through industry recognized certifications and powerful job seeker tools)등이다.예를 들어 2021년 3월 말까지 직무에 맞는 링크드인 러닝(LinkedIn Learning) 과정을 무료로 지원한다. 마이크로소프트 런(Microsoft Learn)에서는 직무 역할 수행을 지원하는 심층적인 기술 학습 콘텐츠도 제공한다. 또, 구직자들을 위해 마이크로소프트 공인 인증서 시험료에 대한 할인도 제공한다. 이를 통해 마이크로소프트 클라우드 플랫폼인 애저(Azure), 마이크로소프트365(Microsoft365) 등을 포함한 5대 기본 인증(fundamentals certifications) 및 8대 롤 베이스 인증을 위한 시험을 할인된 가격으로 치를 수 있게 된다. 시험은 한국어(일부 시험), 중국어, 영어를 포함 총 7개의 언어로 제공된다. 해당 인증을 획득한 후에는 링크드인 프로필에 해당 인증 획득 사실을 명시해 기업에 자신이 가진 직무능력을 보여줄 수 있도록 했다.  한국서도 제공..소프트웨어 중심사회 웹사이트특히 한국마이크로소프트는 글로벌 비영리 청소년 교육기관인 JA코리아와 협력해 마이크로소프트 런 디지털 학습 콘텐츠를 활용한 커리어로드맵을 개발하고. 디지털 기술 기반의 미래 유망직종에 필요한 핵심 기술 역량을 기르기 위한 온라인 교육 콘텐츠를 ‘소프트웨어 중심사회’ 웹사이트에서 7월말부터 제공할 예정이다. 이 사이트는 과학기술정보통신부와 과학창의재단이 운영한다.마이크로소프트 최고법률책임자(CLO) 브래드 스미스(Brad Smith) 사장은 “이번 발표는 마이크로소프트 사상 전례 없는 수준으로 현재 우리가 직면하고 있는 일자리 문제에 대해 포괄적으로 접근하기 위한 것” 이라며 “어떤 기업도 독자적으로 할 수 없는 일이기에 지속적인 발전을 위한 공공, 민간, 비영리 조직의 이해 관계자 간에 새로운 파트너십이 필요하다”고 전했다.김현아 (chaos@edaily.co.kr)네이버에서 ‘이데일리’ 구독하기▶청춘뉘우스~ 스냅타임▶＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t>인공지능(AI), 빅데이터 등 신기술이 산업구조와 노동환경, 개인 삶 방식까지 많은 부분을 변화시킵니다. AI, 빅데이터 같은 신기술 도입으로 사회는 점차 발전하지만 새로운 기술과 서비스 등장으로 예상하지 못한 부작용 우려도 있습니다. 과학기술정보통신부와 한국정보화진흥원(NIA)은 신기술이 확산한 지능정보사회에서 주체별 권리와 책임 등을 어떻게 정할지 윤리 가이드라인을 마련했습니다. 지능정보기술과 서비스가 일반화하면서 사회적 저항과 혼란을 최소하기 위해서입니다. 과기정통부와 NIA는 지능정보사회 행위 주체에 따른 세부 규범 내용을 포함한 종합적 윤리 가이드라인을 마련, 향후 지능정보사회 부작용을 최소화하는데 집중했습니다.Q:윤리 가이드라인 목적과 기본방향은 무엇인가요?A:윤리 가이드라인은 인간 중심 지능정보사회를 구현하기 위해 지능정보기술과 서비스 개발자, 공급자 책임윤리 강화와 오남용 방지를 위한 지침입니다. 인간중심 지능정보사회 구현을 위해 지능정보기술 잠재적 위험으로부터 사회시스템을 보호하는 사전 예방원칙에 입각했습니다. 인간 복지, 권한, 자유 확대 측면에서 지능정보기술로 인한 위험요소와 부작용을 경감하는 윤리규범을 제시합니다. 윤리적 규율이 필요한 분야에 대해 구체적 행위지침을 제시, 관련 분야 자율규제 환경을 조성합니다. 관련 연구개발과 산업 성장을 저해하지 않으려 노력하고, 개발자와 공급자에게 부당한 부담을 지우지 않는 기준을 제시합니다. 또 시민이나 이용자 참여와 권한 강화에 기여해 이용자 역량 강화에 도움이 되도록 개발했습니다. 지능정보기술이 인간 도덕적 가치와 윤리원칙 관점에서 인간과 조화를 이뤄야하고, 궁극적으로 인간에게 도움이 되는 원칙을 구현했습니다.Q:윤리 가이드라인 공통 원칙은 무엇인가요?A:윤리 가이드라인에는 함께하는 약속 네 가지를 기본 제시합니다. 우선 공공성은 지능정보기술이 가능한 많은 사람에게 도움을 줘야한다는 개념입니다. 지능정보기술에 의해 창출된 경제 번영은 모든 인류 혜택을 위해 광범위하게 공유돼야합니다. 두 번째 책무성은 지능정보기술과 서비스에 의한 사고 등 책임 분배를 명확히 해야 한다는 부분입니다. 안전과 관련한 정보 공유, 이용자 권익보호 등 사회적 의무를 충실히 수행해야한다는 점입니다.세 번째 통제성은 지능정보기술과 서비스에 대한 인간 제어 가능성과 오작동 대비책을 미리 마련하고 이용자의 이용선택권을 최대한 보장해야한다는 부분입니다. 마지막으로 투명성은 기술개발, 서비스설계, 제품기획 등 의사결정 과정에서 이용자·소비자·시민 등 의견을 반영하도록 노력해야한다는 점입니다. 이용 단계에서 예상되는 위험과 관련 정보를 공개·공유하고 개인정보 처리 전 과정이 적절하게 이뤄져야한다는 점입니다.게티이미지뱅크 제공Q:공공성 확보를 위해 주체별로 어떤 노력을 해야 하나요?A:개발자, 공급자, 이용자별 맡은바 책무를 다해야합니다. 우선 개발자는 기술 개발 시 사회적 차별 요소를 배제해야합니다. 지능정보기술과 서비스 개발 전 과정에서 성, 인종, 종교, 지역, 민족 등 차이로 인한 근원적 차별을 배제해야합니다. 인류 보편적 복지에 기여할 기술개발을 우선해야합니다. 사회적 약자 보호를 위한 접근성, 지능정보사회에서 소외되거나 배제되기 쉬운 사회적 약자와 취약계층을 위한 접근성을 보장해야합니다.아울러 지능정보기술이 사회문제해결에 이용될 수 있는 공공적 성격 기술을 개발하도록 노력해야합니다. 공급자는 공공 이익에 부합하는 제품을 공급해야합니다. 제품 기획, 보급, 이용결과 등은 공공 차원에서 긍정적 효과로 연결돼야합니다. 선한 의도를 가진 발주를 진행해야합니다. 지능정보기술과 서비스 개발은 선한 의도를 갖고 개발자에게 발주하고 기술 활용을 통한 사회문제 해결에 지속 관심을 가져야합니다. 지능정보기술과 서비스 사회적 파급효과를 고려해 상업적(사적)이익과 공공 기여 사이에 조화와 균형을 기업 운영원칙으로 삼도록 노력해야합니다. 마지막으로 이용자는 악의적 이용을 금지해야합니다. 자신 제품이용이 타인의 자유로운 이용을 침해하지 않도록 조치해야합니다. 지능정보기술이나 제품(서비스) 구입·이용과 관련해 약관이나 사용설명서 등이 있는지 확인하는 소비자 행동원칙을 일상화해야합니다.Q:주체별로 어떤 책임감을 가져야하나요?A:개발자는 최초 제품 개발부터 이용에 이르기까지 전 과정과 결과에 대해 책임을 공유해야합니다. 지능정보기술과 서비스 개발 시 발주자 요구를 기반으로 충실하고 공정하게 개발하고 개발자 간 정보 교류와 기술 갱신에 지속 참여해야합니다. 공급자는 책임 공유와 책임·보상 원칙을 마련해야합니다. 지능정보기술 관련 제품(서비스) 보급과 확산, 이용 결과 발생하는 사회적 폐해 책임을 공유해야합니다. 오작동과 사고 발생에 대비해 공정하고 합리적인 책임·보상 원칙을 마련해야합니다. 이용자 권리를 인지하고 이를 만족하도록 최선을 다해야하며, 이용자 정확한 이용을 위한 정보화 필요한 교육을 제공해야합니다.이용자는 자신 제품(서비스) 이용 결과가 타인 권리침해나 안전에 미칠 수 있는 영향과 책임을 인지해야합니다. 지능정보기술·서비스 작동 방식과 영향에 대해 지속 관심을 기울이고 이용자 권익 침해와 안전사고 관련 개발자, 공급자를 대상으로 책임을 제기할 수 있어야합니다. 본인 이용 행태가 사회적 관행과 문화에 미치는 영향에 대해 인지하고, 안전 관련 정보 공유와 제도화를 요구할 수 있습니다. 이용하던 제품(서비스) 교체, 갱신, 폐기 작업을 진행할 때 이미 안내된 지침을 준수하고 부작용이 생기지 않도록 주의해야합니다.주최:전자신문 후원:교육부·한국교육학술정보원[관련도서]◇'생활을 변화시키는 인공지능' 다쿠치 카즈히로, 모리시마 료코 지음. 영진닷컴 펴냄4차 산업혁명을 이끌어가는 인공지능(AI)의 역사부터 기초 지식, 활용 사례까지 다양한 기업 사례를 통해 쉽게 설명한다. AI가 가져올 사회 문제, 싱귤래리티 등 AI를 둘러싼 전체 모습과 기초 지식을 소개한다. 생활 속에 침투한 일상 AI 모습과 기업의 AI 활용 사례 등을 알려준다. AI를 지원하는 기술과 구조로 딥러닝, 기계 학습 등 AI 세부 기술도 배울 수 있다.◇'인공지능과 윤리' 김효은 지음, 커뮤니케이션북스 펴냄인공지능(AI)에는 정보 보안을 넘어 윤리적 문제가 있다. AI와 뇌 연결 기술 등은 파급력이 크고 즉각 효용을 제공하기 때문에 충분한 윤리적 숙고 과정 없이 수용되는 경향이 있다. AI로 인해 발생 가능한 윤리적 문제는 어떤 것이 있는지 살펴보고 책임과 책무성 등을 자세히 전한다. 알고리즘 편향과 디지털 공평성 등 최근 제시되는 다양한 AI 윤리 문제 자세한 설명을 담았다.김지선기자 river@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		수원공업고등학교(교장 이기홍)는 중소벤처기업부에서 공모한 스마트공장 거점학교에 선정, 미래 융합형 인재를 양성하는 곳이다. 스마트공장 거점학교는 중소벤처기업부 특성화고 인력양성사업의 일환으로 정보통신기술(ICT)설비와 자동화 솔루션을 운영할 수 있는 국가 차원 미래형 인재를 확보하기 위해 추진하는 사업이다.수원공업고등학교 전경.세계는 제조혁신을 통한 제조업 주도권 경쟁에 돌입해 치열한 생존경쟁을 하고 있다. 세계 각국은 ICT와 인공지능(AI), 빅데이터 등 신기술을 융합하는 제조업 혁신을 경쟁적으로 추진하고 있으며, 제조 경쟁력 고도화에 집중해 제조 우위를 선점하려 하고 있다. 급격한 기술 변화와 발전은 지속적으로 빠르게 변화하고 있다.산업 환경의 급속한 변화는 이를 대응할 수 있는 중장기 인력 수요에 큰 영향을 미친다. 특히 지능정보기술 확산으로 많은 일자리가 자동화 설비로 대체되는 상황이고, 이러한 자동화 설비를 기반으로 ICT융합 기술을 활용한 스마트공장이 하나 둘 들어서고 있다. 스마트공장은 데이터에 기반해 제품의 생산과정을 컨트롤하고 개선해 나가는 지능형공장으로서 최소 비용과 시간으로 최적의 제품을 생산한다. 그만큼 기존 단순 작업 인력은 줄어들지만, 스마트 설비를 운영하는 인력 수요는 점점 커진다.수원공업고등학교는 스마트공장 시스템 기술 습득을 위한 체계적인 교육과정과 현장실무 중심형 프로젝트를 보유했다. 다양한 비교과 활동 등을 통해 스마트공장 전문 기능인력을 양성하기 위한 노력을 하고 있다. 한국형 스마트제조 혁신 성장을 주도하는 융합형 인재를 양성하는데 그 목표를 두고 있다.산업수요와 연계한 중소벤처기업부 특성화고 인력양성사업의 취업맞춤반 사업에서도 우수한 성과를 보이고 있다. 2006년을 시작으로 2007년도에는 10개 기업을 대상으로 25명의 학생을 연결해주기도 했다. 이후 매년 협약 기업 수와 학생 수는 꾸준히 늘고 있다. 2013년부터 2019년 까지 전국 최다 훈련생을 배출하고 있다. 특히, 2016년도는 69개 기업체와 학생 144명의 취업을 연계해 우수학교로 선정, 국무총리 학교표창을 수상하기도 했다. 올해 현재 47개 기업과 학생 83명 채용이 협약이 완료된 상태다.수원공업고등학교 학생들이 지능형 로봇을 제작하고 있다.2012년부터 2016년까지 5회 연속 교육부에서 시행하는 특성화고 육성사업 취업우수학교로 선정됐다. 여기에 2012년부터 2019년까지 166명의 공무원을 배출하여 명실상부한 공무원 사관학교로도 불리고 있다. 이 밖에도 다수의 공기업, 대기업 등 다양한 분야에 취업을 하고 있으며 건축설계, CAD, 게임개발, 판금철골구조물과 신산업 분야인 지능형 로봇, 3D프린팅, 드론 등의 분야에서 기능영재반을 운영해 기능경진대회에서 우수한 성적을 거둬 학생의 다양한 재능을 개발하고 있다.중기부 특성화고 인력양성사업 이외에도 정보통신 분야 군특성화 사업, 산학일체형 도제학교, 경기도형 도제학교, 취업 아카데미 등을 통해 건설, 기계, 전기전자 분야에서 우수한 취업실적을 내고 있다. 많은 학생들이 정부·기관, 공기업으로 진출하고 있다.또한 고교학점제 선도학교로서 고교학점제 전면 도입을 착실히 준비하고 있으며, 이에 따른 교육과정 운영 변화를 꾀하여 학생 자신이 선택한 진로 목표를 달성하도록 하는 학생선택중심 교육을 구현하기 위해 노력하고 있다.최근에는 스마트공장 거점학교로 선정됨에 따라 스마트공장 전문인력을 양성을 위한 빅데이터 전문가, CPS 전문가, 생산 제조라인 제어 및 자동화 분야 전문가 양성을 목표로 내부 검토를 거쳐 2019년, 2020년에 학과를 개편했다. 나아가 2021년, 2022년 공업 분야 우수 신입생을 모집을 위한 교육기반 구축에 총력을 기울이고 있다.조정형기자 jenie@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>데이터 및 디지털 기술 기반 ‘포괄적인 글로벌 스킬 이니셔티브’ 발표업무이해 위한 데이터 분석부터 무료 교육 콘텐츠, 구직 툴까지 제공한국MS, JA코리아와 손잡고 기술역량 교육 콘텐츠 이달말 제공 예정마이크로소프트가 구직에 필요한 디지털 기술에 대한 접근성을 높이기 위한 '글로벌 스킬 이니셔티브(Global Skills Initiative)'를 발표했다.마이크로소프트는 '누구나 평생교육을 받을 수 있도록 연결된 학습 시스템 구축(System of learning)'이라는 비전 하에 올해까지 전 세계 2500만명이 AI(인공지능)를 포함한 디지털 기술을 바탕으로 새로운 직무 수행에 필요한 기술을 지원하는 데 집중한다. 링크드인(LinkedIn), 깃허브(GitHub) 등 마이크로소프트가 보유하고 있는 자원과 새로운 자원을 결합할 예정이다.이를 통해 △수요가 많은 직종과 해당 직종을 잘 이해하기 위한 데이터 및 분석 △스킬 배양을 위한 교육과정 및 콘텐츠 접근권 무료 제공 △교육 및 구직을 돕는 저비용 인증제도 및 무료 구직 툴 제공에 집중한다.우선 링크드인 이코노믹 그래프에서 산출된 직업과 스킬에 관한 데이터를 활용해 직업에 필요한 스킬, 구직자가 보유한 기술 등을 개인과 기업에 제공한다. 이를 통해 수요가 많은 스킬, 새롭게 떠오르는 직종, 글로벌 채용률 등을 파악할 수 있다. 데이터를 통해 얻은 이해를 바탕으로 링크드인 사용자가 더 좋은 기회를 얻을 수 있도록 지원하고 있다. 마이크로소프트는 이를 통해 취업자가 많고 지난 4년간 꾸준한 성장세를 보이며, 온라인에서 관련 기술 습득이 가능한 소프트웨어 개발자, 프로젝트 관리자, 디지털 마케팅 전문가 등 성장가능성 있는 10개의 직업을 파악했다.이와 함께 구직자를 돕기 위한 프로그램으로 2021년 3월 말까지 직무에 맞는 링크드인 러닝 과정을 무료로 지원한다. 기초적인 디지털 활용 능력부터 기술 직무에 필요한 제품 기반의 고급 스킬 과정까지 광범위하게 제공된다. 마이크로소프트 런에서는 직무 역할 수행을 지원하는 심층적인 기술 학습 콘텐츠도 제공한다. 또 개발자를 희망하는 구직자들은 깃허브 러닝 랩을 통해 개인 깃허브 저장소에서 현실적인 프로젝트를 완료함으로써 새롭게 배운 스킬을 연습해 볼 수 있다.코로나19로 인해 경제적 부담이 있는 구직자들을 위해 마이크로소프트 공인 인증서 시험료에 대한 할인도 제공한다. 이를 통해 마이크로소프트 클라우드 플랫폼인 애저(Azure), 마이크로소프트365(Microsoft365) 등을 포함한 5대 기본 인증 및 8대 롤 베이스 인증을 위한 시험을 할인된 가격으로 치를 수 있게 된다. 시험은 한국어(일부 시험), 중국어, 영어를 포함 총 7개의 언어로 제공된다. 해당 인증을 획득한 후에는 링크드인 프로필에 해당 인증 획득 사실을 명시해 기업에 자신이 가진 직무능력을 보여줄 수 있도록 했다.  마이크로소프트 런    구직자의 취업 준비를 지원하는 마이크로소프트 AI 기반 도구에 새로운 기능도 추가됐다. '#OpenToWork'는 링크드인 상에서 구직자가 지원하고자 하는 기업에 자신이 희망하는 직무를 어필할 수 있는 기능이다. 이 기능을 통해 구직 기회를 적극 모색 가능하고 관심 직종, 구직에 필요한 지원 등을 표시할 수 있음은 물론 링크드인 사용자의 도움을 받아 새로운 구직 기회를 탐색할 수 있다.마이크로소프트는 기업이 직원의 스킬 함양을 돕도록 팀즈 신규 교육 애플리케이션도 개발 중이다. 해당 앱을 통해 직원이 직접 링크드인 러닝 교육과정, 마이크로소프트 런 교육과정, 고객이 직접 고른 교육과정, 기타 교육과정 등 교수자 주도 교육부터 단기 미시 교육 과정까지 세계 최고수준의 교육 콘텐츠를 한 곳에서 모아볼 수 있다. 또한 앱을 통해 전체 업무 흐름에 교육을 녹여 끊김 없이 지속적인 교육을 받을 수 있는 환경을 제공할 계획이다.한국마이크로소프트는 글로벌 비영리 청소년 교육기관인 JA코리아와 협력해 마이크로소프트 런 디지털 학습 콘텐츠를 활용한 커리어 로드맵을 개발한다. 디지털 기술 기반의 미래 유망직종에 필요한 핵심 기술 역량을 기르기 위한 온라인 교육 콘텐츠를 소프트웨어 중심사회 웹사이트에서 이달말부터 제공할 예정이다.마이크로소프트 최고법률책임자(CLO)인 브래드 스미스 사장은 "이번 발표는 마이크로소프트 사상 전례 없는 수준으로 현재 우리가 직면하고 있는 일자리 문제에 대해 포괄적으로 접근하기 위한 것"이라며 "어떤 기업도 독자적으로 할 수 없는 일이기에 지속적인 발전을 위한 공공, 민간, 비영리 조직의 이해 관계자 간에 새로운 파트너십이 필요하다"고 전했다. 안경애기자 naturean@dt.co.kr 디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 신희은 기자] 전국 고3 학생들의 등교 개학을 이틀 앞둔 11일 서울 강북구 삼각산고등학교에서 방역 관계자들이 방역을 하고 있다. / 사진=이기범 기자 leekb@교육부는 코로나19 등 감염병 발생 국가에서 입국한 학생에 대해 별도 진단 없이 등교를 중지할 수 있는 법적 근거를 마련하는 등 올해 적극 행정 중점과제 6건을 선정해 연말까지 추진한다고 5일 밝혔다.우선 학교보건법을 개정해 코로나19 감염 우려가 있는 학생 관리를 강화한다. 학생이나 교직원이 감염병 발생 국가에서 입국할 경우 의사 진단 없이도 학교장이 선제적 조치 차원에서 등교 중지를 시킬 수 있도록 하는 것이다.현재도 코로나19 의심증상이 있는 학교 구성원은 등교를 하지 않도록 안내하고 있지만 이는 비상상황에 따른 조치로 법률적 근거는 없다는 설명이다. 교육부는 향후 감염병 유행에 대비해 이 같은 제도를 정비할 필요가 있다고 보고 있다.교육부는 또 학교 맞춤형 감염예방관리 지침을 수시로 정비하고 전국 시도교육청에 방역체계 구축을 위한 전문가 인력풀을 제공할 방침이다.교사가 학교 방역과 학생 지도에 전념할 수 있도록 교원 업무 부담을 줄여주는 방안도 추진된다. 급하지 않은 사업은 줄이고 방역과 학습활동을 위한 지원 인력 4만명을 추가 투입한다. 코로나19 여파로 좁아진 고졸 채용 기회를 늘리기 위해 기능사 자격시험을 연 2회 추가 시행하고 공공부문 고졸 일자리도 확대할 방침이다. 이밖에 원격교육 발전 기반 마련, 미래형 학교 공간 조성, 인공지능 교육 종합방안 마련 등도 적극 추진할 계획이다.교육부는 적극 행정 우수 공무원 20명을 선발하고 특별승진·승급, 성과급 등 인센티브를 제공할 방침이다. 소극 행정 공무원으로 꼽히면 징계 등 엄정 조처할 계획이다.신희은 기자 gorgon@mt.co.kr▶줄리아 투자노트▶조 변호사의 가정상담소 ▶머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>신창재 교보생명 회장이 3일 서울 광화문 교보생명 본사에서 비대면 화상회의 방식으로 2020년 하반기 출발 전략회의를 진행했다.신창재 교보생명 회장이 포스트 코로나 시대를 대비해 직원들에 전사적인 디지털 혁신을 주문했다.교보생명은 지난 3일 서울 광화문 교보생명 본사에서 열린 '2020년 하반기 출발 전략회의'를 개최했다고 5일 밝혔다.이날 행사는 신창재 교보생명 대표(회장)가 전국 영업현장 리더들 앞에서 마이크를 잡는 대신 비대면 방식의 원격 화상회의를 진행됐다. 신창재 회장은 화상회의 시스템이 마련된 회의실에서 다중분할 화면을 통해 각 채널 본부장, 지원단장 등 영업현장 관리자 100여명과 지난 상반기 경영성과를 짚어보고 하반기 경영전략을 공유했다.이 자리에서 신 회장은 디지털 체질개선의 필요성을 역설했다.신 회장은 “우리는 이제 코로나 이전의 세상으로 돌아갈 수 없다. 세계 역사는 코로나 이전과 이후로 나뉠 것”이라면서 “코로나19 사태를 계기로 디지털 트랜스포메이션을 가속화해야 한다”고 당부했다. 이어 “조직, 커뮤니케이션 방식, 업무 프로세스, 비즈니스 모델을 디지털 기반으로 변화시키는 것, 즉 기업문화 전체를 근본적으로 바꾸는 게 디지털 트랜스포메이션”이라고 부연했다.디지털 혁신의 핵심 추진과제로 △디지털을 활용한 비대면 영업활동 강화 △업무 프로세스 효율화 △플랫폼 등 새로운 비즈니스 모델 발굴 △온라인 교육·회의 활성화 등을 선정했다.교보생명은 디지털 기반 고객 서비스를 강화하고 있다. 인공지능(AI) 언더라이팅 시스템 '바로(BARO)', 대용진단 자동화 서비스, 초간편보장분석시스템, 고객 상담 AI 챗봇 개발 등을 통해 언택트 서비스를 활성화하고 있다. 오픈이노베이션을 통해 스타트업과 협업, 신규 비즈니스 모델 발굴도 진행 중이다.신 회장은 전사적인 디지털 혁신을 위해 모든 조직의 디지털 역량을 더욱 강화할 것을 강조했다. 신 회장은 “조직장부터 디지털 기본개념을 잘 이해하고 디지털 신기술이 보험업을 어떻게 바꿀지 고민해야 한다”면서 “디지털 시대에 경쟁력을 갖출 수 있도록 모든 임직원과 컨설턴트의 디지털 업무역량을 강화해야 한다”고 강조했다.또 “현장은 고객 니즈와 아이디어를 본사에 적극적으로 전달하고, 본사는 고객 중심 마케팅 정책을 수립하되 현장 실행을 충실히 지원해야 한다”며 본사와 영업현장의 협업을 주문했다.마지막으로 코로나19에 대한 경각심을 늦춰서는 안된다면서, 코로나19 확산 방지와 예방에 힘써줄 것도 당부했다.그는 “포스트 코로나 시대는 코로나가 종식된 시대가 아니라 코로나와 같이 살아가는 시대”라면서 “조직장들은 모든 조직원과 컨설턴트들이 기본적인 방역수칙을 잘 지킬 수 있도록 방역관리자로서의 역할을 성실히 수행해야 한다”고 말했다.윤열현 교보생명 대표(사장)도 영업현장에 격려 메시지를 전했다.윤 사장은 “코로나19 확산 등 상반기 어려운 환경에서도 모든 영업채널이 각자의 역할을 충실히 수행해 사업계획을 달성하는 좋은 성과를 거뒀다”면서 “코로나19가 바꿔놓은 넥스트노멀에 대비해 신인 컨설턴트 정착과 비대면 영업활동 지원 등 다양한 지원책을 마련하겠다”고 전했다.박윤호기자 yuno@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>“수출규제 1년, 실제 타격은 일본이 더 받고 있다는 것이 곳곳에서 증명되고 있다는 점에서 긍정적입니다. 다만 여전히 플루오린 플루오미드, 극자외선포토레지스트 등의 의존도는 높고 다른 영역의 규제 시그널이 계속되고 있어 안심할 상황은 아닙니다. '소재·부품·장비(소부장) 경쟁력 강화 2기'를 시작해 수세 입장에서 공세로 위치를 전환할 시점입니다.”일본 수출규제 1년, 양향자 더불어민주당 의원은 그동안 우리 산업계 대처에 긍정적인 평가를 내렸다. 나아가 앞으로 다가올 새로운 위협에 충분히 대비하는 유비무환의 자세가 필요하다고 주문했다.양 의원은 삼선전자 반도체사업부 임원 출신으로 민주당 코로나19극복위원회 비상경제대책본부 기업태스크포스(TF)에서 활동했다.양향자 더불어민주당 의원.양 의원은 우리 기업이 일본의 주요 수출 제재 품목에 대한 국산화에서 괄목한 성과를 이뤘지만 아직 남은 숙제도 많다고 보고 있다. 그 중에서도 향후 위협이 될 수 있는 분야로 특허를 지목했다.그는 “소부장 자립화 과정은 우리가 후발 주자라는 의미로, 기술개발 과정에서 일본의 원천 특허와 분쟁 소지가 많아질 것”이라며 “기술을 개발해 놓고도 분쟁으로 제대로 사용하지 못할 수 있는 상황이 올 수 있는 만큼 이에 대한 예산과 정책적 대비가 시급하다”고 조언했다.후발주자 지적재산권 분쟁은 패스트팔로어 전략의 가장 큰 맹점. 결국 퍼스트 무버가 돼 원천 기술을 지식재산화해야 한다는 것이다.이미 전쟁은 시작됐다. 일본 JOLED는 우리 OLED 원천기술(OLED 패널의 회로구조 및 구동기술)에 대한 무더기 특허침해 소송을 제기했다. 일본뿐만 아니라 중국과 미국 내에서 우리 기업에 대한 특허 분쟁도 해마다 크게 늘고 있지만 전략이나 대비는 부족한 상황이다. 그나마 대기업은 자금력으로 버틸 수 있지만 스타트업이나 중소기업은 특허권 하나 얻는 비용도 부담으로 지식재산권 관리에 소홀한 것이 현실이다.양 의원은 공격특허와 수비특허 등 전반적인 특허 연구 선행의 필요성을 강조했다. 그래야 기존 소부장 산업을 보호하고, 새로 만든 기술로 미래 시장을 선점할 수 있다는 분석이다. 특히, 소부장 전쟁에서는 원천기술 특허권이 큰 축이 될 것이라고 전망했다.포스트 코로나 시대 준비의 성공 여부도 결국 지식재산권 즉, 원천기술을 어떻게 보호하느냐에 따라 결정될 것으로 내다봤다. 양 의원은 “인공지능(AI)을 통한 사회적 돌봄 시스템, 비대면으로 전환되는 교육 체계 등 코로나19로 커지는 복지 분야 요구도 과학기술이 해법”이라고 말했다. 과학기술로 복지 수준을 높이는 '과학기술복지국가'로 나아가야 한다는 설명이다.과학기술부총리의 필요성도 언급했다. 과학기술 생태계 자체를 바꾸고 깊은 전문성과 높은 책임감에 바탕을 둔 정책을 위해선 포스트코로나 시대에 맞는 3부총리 체제가 필요하다는 주장이다. 3부총리 체제는 노무현 정부에서 이미 전례가 있었다.양 의원은 “철기시대 농업혁명, 증기기관의 등장과 산업혁명 등 기술 없이는 살아남을 수 없다는 게 인류 역사의 교훈이었다”며 “디지털 혁명시대엔 반도체 기술 패권을 쥔 나라가 포스트 코로나 시대를 선도할 것”이라고 강조했다.○양향자 의원은…삼성그룹 역사상 첫 여자상업고등학교 출신 임원으로 잘 알려진 인물이다. 삼성전자에 평사원으로 입사해서 반도체 메모리사업부 플래시개발실 상무이사라는 임원직에까지 올랐다. 21대 국회 산업경제계 출신 대표 의원으로 코로나19국난극복위원회 비상경제대책본부 기업TF 활동을 하는 등 산업 현장 밀착형 행보에 나서고 있다.조정형기자 jenie@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		정부가 '한국판 뉴딜'에 당초 계획보다 24조 원 이상 늘린 100조 원 이상을 투자해 데이터 산업과 비대면 의료를 확대하고 공공시설을 환경친화적으로 바꾸는 데 집중할 예정입니다.기획재정부에 따르면 정부는 76조 원 규모로 제시했던 한국판 뉴딜을 100조 원 이상으로 늘리고 세부 내용을 확정해 이번 달 중순 '한국판 뉴딜 종합계획'을 발표할 예정입니다.기재부 고위 관계자는 한국판 뉴딜을 100조 원이 넘는 규모로 확대해 추진할 것이라면서 기존에 발표한 한국판 뉴딜 사업을 추가하고 보완하는 차원이라고 말했습니다.한국판 뉴딜은 데이터·인공지능 생태계를 키우고 비대면 의료·교육을 육성하는 '디지털 뉴딜'과 공공시설을 친환경적으로 바꾸는 '그린 뉴딜'로 나뉘어 있습니다.정부는 디지털 뉴딜 분야에서는 데이터 산업을 육성하는 데 방점을 찍을 계획입니다.앞서 문재인 대통령은 지난달 18일 강원도 춘천의 데이터·인공지능 기업을 찾아 미국 뉴딜의 상징인 후버댐에 견줄 만한 요소로 '데이터댐'을 제시하고 디지털 뉴딜을 활성화하겠다고 했습니다.이광엽 [kyuplee@ytn.co.kr][저작권자(c) YTN &amp; YTN PLUS 무단전재 및 재배포 금지] ▶ 이 시각 코로나19 확진자 현황을 확인하세요.  ▶ 대한민국 대표 뉴스 채널 YTN 생방송보기  ▶ 네이버에서 YTN 뉴스 채널 구독하기</t>
+  </si>
+  <si>
+    <t>[이미지출처=연합뉴스][아시아경제 장세희 기자]정부가 한국판 뉴딜에 앞으로 5년 간 100조원 이상을 투입할 예정이다. 데이터 산업과 비대면 의료를 확대할 것으로 보인다.5일 기획재정부에 따르면 정부는 76조원 규모로 제시됐던 한국판 뉴딜을 100조원 이상으로 늘리고 세부 내용을 이번 달 중순께 발표한다. 한국판 뉴딜은 데이터·인공지능(AI) 생태계를 키우고 비대면 의료·교육을 육성하는 디지털 뉴딜과 공공시설을 친환경적으로 바꾸는 그린뉴딜로 나뉘어 있다.정부는 디지털 뉴딜 분야에서는 데이터 산업을 육성하는 데 방점을 찍을 계획이다.정부는 데이터를 기업들이 여러 용도로 활용할 수 있게끔 15개 분야에서 빅데이터 플랫폼을 만들고 14만개의 공공데이터를 순차적으로 개방한다. 전국 모든 초등학교·중학교·고등학교 교실에 와이파이를 구축해 디지털 기반 교육 인프라를 보완한다. AI 핵심 인재도 양성한다.정부는 또 환자가 의사를 직접 만나지 않고도 처방을 받을 수 있는 비대면 의료를 확대할 계획이다.정부는 감염병 확산을 막기 위해 2월 말부터 한시적으로 전화상담·처방이 가능하도록 했는데, 신종 코로나바이러스감염증(코로나 19)를 거치며 효과가 나타난 만큼 이를 키우겠다는 것이다. 화상 진료 인프라를 깔아 의사가 영상을 보며 처방할 수 있게 하는 원격진료 방안이 거론되고 있다.다만 상급병원에 환자가 쏠릴 수 있다는 지적과 의료 영리화 논란이 있는 만큼 정부는 각계 의견을 듣고 사회적 합의를 거치는 등 중장기적인 과제로 추진한다는 입장이다.사회간접자본 관리 체계를 선진화하기 위해서는 재정을 투자해 교통과 수자원 분야 디지털 관리 시스템을 구축한다. 도시와 산업단지에 스마트 물류 체계도 만든다.기후변화에 대비하기 위한 그린뉴딜 대책도 나온다.정부는 에너지를 많이 쓰는 노후 어린이집, 보건소, 의료기관, 공공 임대주택을 에너지 효율이 높게 리모델링할 계획이다. 친환경 기술을 보유한 기업 100곳을 선정해 2022년까지 연구개발부터 사업화 작업까지 지원하는 방안도 포함된다. 태양광·풍력·수소 등 3대 신재생에너지 기반을 만들기 위해 정부는 융자를 제공하고 건물, 주택, 농촌에 태양광 발전 시설도 설치한다.그린뉴딜에는 급격한 기후변화를 막자는 목표만이 아니라 산업을 친환경적으로 바꾸지 않으면 먼 미래에는 제조업 수출이 어려워질 수 있다는 인식이 깔려있다.한편 정부는 또 디지털·그린 뉴딜 사업 외에 특수형태근로종사자나 프리랜서들이 고용보험 가입에 가입할 수 있게 하는 내용의 고용 안전망 강화 대책도 함께 발표할 계획이다. 대리운전 기사, 보험설계사, 방문판매원 등이 고용보험의 사각지대에서 벗어날 수 있도록 올해 안에 법 개정을 추진할 방침이다.장세희 기자 jangsay@asiae.co.kr▶ 2020년 하반기, 재물운·연애운·건강운 체크!▶ 네이버에서 아시아경제 뉴스를 받아보세요 ▶ 놀 준비 되었다면 드루와!  드링킷!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t>이우일 한국과학기술단체총연합회 회장·서울대 명예교수출산율 급락에 대학신입생 급감노년층 증가로 생산인력 부족도규제 철폐·보상시스템 개선으로지속가능한 혁신생태계 이뤄야이우일 과총 회장[서울경제] 세계를 휩쓸고 있는 신종 코로나바이러스 감염증(코로나19) 때문에 잠시 잊었지만 우리는 심각한 위기를 맞고 있다. 바로 인구 때문이다. 유엔인구기금의 ‘2020 세계 인구현황 보고서’에 따르면 우리나라 여성 1명이 평생 낳을 것으로 예상되는 평균 출생아 수인 합계출산율은 1.1명으로 세계 최하위인 198위이다. 출산율의 급격한 하락은 인구구조도 변화시킨다. 인구규모와 구조는 우리가 아무리 노력해도 당장 바뀌지 않는다. 이미 태어난 사람들의 숫자는 정해져 있기 때문이다. 우리나라의 고교 졸업 인구는 지난 2012년 70만명에서 오는 2021년에는 50만명, 2023년에는 46만명으로 감소할 것으로 보인다. 매해 20만명 이상의 젊은이들이 사라지는 것과 같다. 급격한 인구감소는 여러 면에서 심각한 문제를 야기한다. 예컨대 대학 입학정원은 약 50만명으로 지금의 대학 진학률을 기준으로 하면 곧 적어도 수만 명 이상이 모자라진다. 우리는 18년 전 신생아 통계로부터 지금의 대학입학 가능 인원을 추산할 수 있다. 이 숫자는 움직일 수 없는 미래의 현실이었다. 1996년 정부는 ‘대학설립 준칙주의’를 도입하면서 최소 설립 요건만 갖추면 대학 설립을 인가해줬다. 이 제도는 대학 입학정원의 폭증을 불렀고 그 결과가 세계 1위의 대학 진학률과 청년실업이다. 세계 어느 나라도 인구의 70~80%가 대학 졸업자인 곳은 없다. 대학 졸업자 모두에게 학벌에 걸맞은 직장을 제공할 수도 없다. 미리 대처할 수 있었음에도 내 임기 중에만 문제가 없으면 상관없다는 식의 얄팍한 정치 계산이 지금 큰 혼란을 빚고 있는 것이다. 그렇지만 대학 정원 문제는 좀 혼란이 따라도 결국 시장 논리에 따라 정리될 것이다.경제를 지탱할 생산 인력 문제는 저절로 정리될 수 없는 전혀 다른 문제이다. 게다가 우리는 100세 시대를 말한다. 날로 길어지는 평균 수명과 급격한 출산율 감소는 노년층이 생산 가능 인구보다 많아지는 기형적 인구구조를 만들어가고 있다. 예컨대 베트남의 평균 연령이 31세인 데 비해 우리나라의 평균 연령은 43세에 달하며 2035년에는 50세가 넘을 것으로 전망된다. 전대미문의 급격한 인구감소와 인구구조 변화에 따른 여러 문제는 걱정만 한다고 저절로 해결되지 않는다. 정부의 대책도 대부분 근시안적이고 효과가 거의 없다. 지금과 같은 산업구조가 계속 유지된다면 필연적으로 생산 인력이 부족해질 텐데 우리가 가진 선택지는 두 가지뿐이다. 이민을 대규모로 받아들이거나 아니면 산업구조를 미래의 인구구조에 적합하게 대대적으로 개편하는 것이다. 그런데 우리는 필요한 준비를 하고 있는가.그나마 4차 산업혁명으로 산업구조가 세계적으로 바뀌고 있는 것은 우리에게 주어진 기회이다. 인공지능(AI)과 자동화로 일자리 수가 급격히 줄어들 것으로 전망되는데 우리는 인구가 감소해 실업에서 비교적 자유로울 수 있기 때문이다. 그렇지만 이 기회를 제대로 살리려면 각고의 노력이 있어야 한다. 지속 가능한 혁신생태계 조성이 그중 하나이다. 혁신을 발목 잡는 각종 규제를 철폐, 완화하고 혁신 주체들에 주는 적절한 보상시스템을 마련해 민간 주도의 지속적 혁신이 가능하도록 해야 한다. 더불어 4차 산업혁명을 주도할 인력을 길러내는 새로운 시스템이 필요하다. 지금처럼 일렬로 줄 세우는 것이 아니라 개인의 장점을 극대화하는 방향으로 교육과 평가 시스템을 개혁해야 한다. 4차 산업혁명이 불러올 급격한 직업의 변화 때문에 일생 동안 2~3번은 직업을 바꿔야 할 것이다. 평생교육을 일반화시키고 교육제도가 이를 뒷받침할 수 있도록 만들어야 한다.지금의 변화는 그냥 시늉만 내서 적응할 수 있는 수준이 아니다. 명확한 비전을 갖고 계획을 세워 정치적 이해에 휘둘리지 않으며 꾸준하고 강력하게 추진해 헤쳐나갈 길이다. 그 시작은 아무리 빨라도 지나치지 않다. 이미 시간이 별로 없기 때문이다.[서울경제 바로가기]▶ 네이버 채널에서 '서울경제' 구독해주세요!▶ [집슐랭] 미슐랭 가이드처럼 알찬 부동산뉴스저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>‘2020 하반기 출발 전략회의’ 통해 디지터 혁신 주문[이데일리 전선형 기자] 신창재 교보생명 대표이사 회장이 임직원들에게 전사적인 디지털 혁신을 주문했다. 신창재 교보생명 대표이사 회장.(사진=교보생명 제공)교보생명은 지난 3일 광화문 교보생명 본사에서 ‘2020년 하반기 출발 전략회의’를 진행했다고 5일 밝혔다.이번 전략회의는 코로나19를 염두해 비대면 방식의 원격 화상회의로 진행됐으며, 신창재 회장이 화상회의 시스템이 마련된 회의실에서 다중분할 화면을 통해 각 채널 본부장, 지원단장 등 영업현장 관리자 100여명과 지난 상반기 경영성과를 짚어보고 하반기 경영전략을 공유하는 형식으로 진행됐다 이 자리에서 신 회장은 ‘포스트 코로나 시대’를 대비한 한 차원 높은 디지털 혁신을 주문했다. 신 회장은 “우리는 이제 코로나 이전의 세상으로 돌아갈 수 없으며 세계 역사는 코로나 이전과 이후로 나뉠 것”이라며 “코로나19 사태를 계기로 디지털 트랜스포메이션(디지털 전환)을 가속화해야 한다”고 말했다.이어 “조직, 커뮤니케이션 방식, 업무 프로세스, 비즈니스 모델을 디지털 기반으로 변화시켜야 한다”며 “기업문화 전체를 근본적으로 바꾸는 게 디지털 트랜스포메이션”이라고 전했다. 특히 신 회장은 디지털로 대변되는 새로운 세상을 빨리 준비하기 위해 디지털을 활용한 비대면 영업활동 강화와 업무 프로세스 효율화, 플랫폼 등 새로운 비즈니스 모델 발굴, 온라인 교육·회의 활성화 등을 디지털 혁신의 핵심 추진과제로 꼽았다.현재 교보생명은 디지털 기반 고객 서비스를 강화하고 있다. 인공지능(AI) 보험인수(언더라이팅) 시스템 ‘바로(BARO)’, 대용진단 자동화 서비스, 초간편보장분석시스템, 고객 상담 AI 챗봇 개발 등을 통해 비대면(언택트) 서비스를 활성화했으며, 개방형혁신(오픈이노베이션)을 통해 스타트업과 협업해 신규 비즈니스 모델을 발굴하기도 했다. 또한 신 회장은 전사적인 디지털 혁신을 위해 모든 조직의 디지털 역량을 더욱 강화할 것을 강조했다. 그는 “조직장부터 디지털의 기본개념을 잘 이해하고 디지털 신기술이 보험업을 어떻게 바꿀지 고민해야 한다”며 “디지털 시대에 경쟁력을 갖출 수 있도록 모든 임직원과 컨설턴트(설계사)의 디지털 업무역량을 강화해야 한다”고 강조했다. 아울러 신 회장은 임직원들에게 코로나19 확산 방지와 예방에 힘써줄 것을 당부했다.그는 “포스트 코로나 시대는 코로나가 종식된 시대가 아니라 코로나와 같이 살아가는 시대”라며 “조직장들은 모든 조직원과 컨설턴트들이 기본적인 방역수칙을 잘 지킬 수 있도록 방역관리자로서의 역할을 성실히 수행해야 한다”며 덧붙였다.한편 윤열현 교보생명 대표이사 사장도 영업현장에 격려의 메시지를 전했다. 윤 사장은 “코로나19 확산 등 상반기 어려운 환경에서도 모든 영업채널이 각자의 역할을 충실히 수행해 사업계획을 달성하는 좋은 성과를 거뒀다”며 “코로나19가 바꿔놓은 넥스트노멀(Next Normal)에 대비해 신인 컨설턴트 정착과 비대면 영업활동 지원 등 다양한 지원책을 마련하겠다”고 말했다.전선형 (sunnyjun@edaily.co.kr)네이버에서 ‘이데일리’ 구독하기▶청춘뉘우스~ 스냅타임▶＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 의사 진단이 없어도 감염병이 발생한 나라에서 입국한 학생은 등교를 중지시킬 수 있도록 법안 개정이 추진됩니다. 교육부는 국민이 체감할 수 있는 변화를 위해 이런 내용을 중점과제 6건을 선정해 연말까지 추진한다고 오늘(5일) 밝혔습니다. 중점과제 중 첫번째는 '학교 감염병 방역체계 강화'로, 코로나19 감염 우려가 있는 학생에 대한 관리 강화를 위해 '학교보건법'을 개정할 방침이라고 교육부는 설명했습니다. 교육부 관계자는 "지금은 학교보건법상 의사의 진단을 받은 학생이나 교직원만 등교 중지할 수 있지만, 앞으로는 감염병 발생 국가에서 입국하는 등 역학적 연관성이 있는 경우에 등교 중지할 수 있도록 법안 개정을 추진할 계획"이라고 말했습니다. 또 방역과 학습활동 지원인력에 4만 명을 투입해 교원들이 수업이나 학생 생활지도에 집중할 수 있도록 할 방침이며, 급하지 않은 학교사업도 대폭 줄일 예정입니다. 이외에도 직업계고 지원과 취업활성화·원격교육 발전기반 마련·미래형 학교공간 조성·인공지능(AI)교육 종합방안 마련이 연말까지 추진할 중점과제라고 교육부는 밝혔습니다.[사진 출처 : 연합뉴스]▶ ‘ 코로나19 현황과 대응’ 최신 기사 보기http://news.kbs.co.kr/news/list.do?icd=19588김용준 기자 (okok@kbs.co.kr)▶ ‘코로나19 팩트체크’ 제대로 알아야 이긴다▶ 우리 동네 무슨 일이? KBS지역뉴스▶ 더 빠르고 정확한 소식을 원하시면 KBS뉴스 구독!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[헤럴드경제=김태열 기자] 정부가 신종 감염병 사태에 대비해 감염병이 유행한 국가에서 입국한 학생은 의사 진단 없이도 등교를 중지시킬 수 있도록 근거를 마련한다. 교육부는 '2020 교육부 적극 행정 실행계획'을 수립하고 올해 중점과제 6건을 선정해 연말까지 적극적으로 추진할 방침이라고 5일 밝혔다. 적극 행정 실행계획은 신종 코로나바이러스 감염증(코로나19) 사태로 위기에 처한 학생들의 건강과 학습권을 보호하는 데 초점이 맞춰졌다.교육부는 우선 코로나19 감염 우려가 있는 학생에 대한 관리를 강화하기 위해 학교보건법을 개정하기로 했다. 개정안에 따르면 감염병이 발생한 국가에서 입국하는 등 역학적 연관성이 크다고 인정될 경우 학교장이 해당 학생이나 교직원의 등교를 중지할 수 있다. 현행법에서는 감염병과 관련해 의사 진단을 받은 학생과 교직원에 대해서만 등교를 중지할 수 있게 돼 있다.신종 코로나바이러스 감염증(코로나19) 확진자가 나온 것으로 알려진 대구 달서구 대구예담학교 운동장에 3일 선별진료소가 차려져 학생들이 코로나19 검사를 받고 있다. 연합뉴스최근 등교 전 자가진단에서 코로나19 의심 증상이 나올 경우 등교를 중지할 수 있지만, 엄밀히 따지면 법적 근거가 없다. 교육부는 2학기 코로나19 대유행에 대비해 제도를 정비할 필요성이 있다고 설명했다. 교육부는 교원 업무 부담 경감도 주요 추진 과제로 꼽았다. 교사들이 학교 방역·학생 지도에 전념할 수 있도록 불요불급한 학교 사업이나 범교과 수업은 축소·조정하고 방역·학습활동을 위해 지원 인력 4만명을 투입한다는 계획이다. 이외에도 교육부는 코로나19로 좁아진 고졸 채용 문을 넓히기 위해 기능사 자격시험 2회 추가 시행·공공부문 고졸 일자리 확대를 추진한다.원격교육 공공 플랫폼 고도화를 통한 원격교육 발전기반 마련, 학생·교사의 의견을 반영한 미래형 학교 공간 조성, 인공지능(AI) 교육 종합방안 마련도 적극 행정 중점과제로 선정했다. 교육부는 적극 행정을 독려하기 위해 올해 우수 공무원 20여명을 선발하고 그중 10여명에게 특별 승진, 특별 승급, 성과급 최고 등급 등의 인센티브를 부여한다는 방침이다. 반면 소극행정 공무원으로 꼽히면 징계나 주의, 경고 등 엄정 조처할 계획이다. 유은혜 부총리 겸 교육부 장관은 "적극 행정을 바탕으로 학생들의 건강과 안전, 학습권을 보호하기 위해 노력할 것"이라며 "포스트 코로나(코로나19 사태 이후) 시대 미래 교육도 차질 없이 준비하겠다"고 밝혔다./kyt@heraldcorp.com▶코리아헤럴드 플립화상영어 무료체험▶헤럴드경제 네이버 채널 구독 ▶농수축산물 소비캠페인 - Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>신창재 교보생명 회장이 3일 서울 광화문 본사에서 비대면 화상회의 방식으로 2020년 하반기 출발 전략회의를 진행하고 있다.ⓒ교보생명교보생명은 신창재 교보생명 회장이 지난 3일 서울 광화문 본사에서 비대면 방식의 원격 화상회의 방식으로 2020년 하반기 출발 전략회의를 진행했다고 5일 밝혔다. 신 회장은 화상회의 시스템이 마련된 회의실에서 다중분할 화면을 통해 각 채널 본부장, 지원단장 등 영업현장 관리자 100여명과 지난 상반기 경영성과를 짚어보고 하반기 경영전략을 공유하는 시간을 가졌다.신 회장은 이 자리에서 포스트 신종 코로나바이러스(이하 코로나19) 시대를 대비해 한 차원 높은 디지털 혁신을 주문했다. 신 회장은 "우리는 이제 코로나 이전의 세상으로 돌아갈 수 없다. 세계 역사는 코로나 이전과 이후로 나뉠 것"이라며 "코로나19 사태를 계기로 디지털 트랜스포메이션을 가속화해야 한다"고 당부했다.이어 "조직, 커뮤니케이션 방식, 업무 프로세스, 비즈니스 모델을 디지털 기반으로 변화시키는 것, 즉 기업문화 전체를 근본적으로 바꾸는 게 디지털 트랜스포메이션"이라고 강조했다.신 회장은 디지털로 대변되는 새로운 세상을 빨리 준비하기 위해선 디지털을 활용한 비대면 영업활동 강화와 업무 프로세스 효율화, 플랫폼 등 새로운 비즈니스 모델 발굴, 온라인 교육·회의 활성화 등을 디지털 혁신의 핵심 추진과제로 꼽았다.실제로 교보생명은 디지털 기반 고객 서비스 강화를 위해 꾸준히 노력해왔다. 인공지능(AI) 언더라이팅 시스템인 바로와 대용진단 자동화 서비스, 초간편보장분석시스템, 고객 상담 AI 챗봇 개발 등을 통해 언택트 서비스를 활성화했으며, 오픈이노베이션을 통해 스타트업과 협업해 신규 비즈니스 모델을 발굴하기도 했다.신 회장은 전사적인 디지털 혁신을 위해 모든 조직의 디지털 역량을 더욱 강화할 것을 강조했다. 그는 "조직장부터 디지털의 기본개념을 잘 이해하고 디지털 신기술이 보험업을 어떻게 바꿀지 고민해야 한다"며 "디지털 시대에 경쟁력을 갖출 수 있도록 모든 임직원과 컨설턴트의 디지털 업무역량을 강화해야 한다"고 언급했다.또 "현장은 고객의 요구와 아이디어를 본사에 적극적으로 전달하고, 본사는 고객 중심의 마케팅 정책을 수립하되 현장의 실행을 충실히 지원해야 한다"며 본사와 영업현장의 협업을 주문했다.끝으로 신 회장은 코로나19에 대한 경각심을 늦춰서는 안된다며, 코로나19 확산 방지와 예방에 힘써줄 것을 당부했다. 그는 "포스트 코로나19 시대는 코로나19가 종식된 시대가 아니라 코로나19와 같이 살아가는 시대"라며, "조직장들은 모든 조직원과 컨설턴트들이 기본적인 방역수칙을 잘 지킬 수 있도록 방역관리자로서의 역할을 성실히 수행해야 한다"며 마무리했다.한편, 윤열현 교보생명 사장도 영업현장에 격려의 메시지를 전했다. 윤 사장은 "코로나19 확산 등 상반기 어려운 환경에서도 모든 영업채널이 각자의 역할을 충실히 수행해 사업계획을 달성하는 좋은 성과를 거뒀다"며 "코로나19가 바꿔놓은 넥스트노멀에 대비해 신인 컨설턴트 정착과 비대면 영업활동 지원 등 다양한 지원책을 마련하겠다"고 말했다.데일리안 부광우 기자 (boo0731@dailian.co.kr)ⓒ (주)데일리안 - 무단전재, 변형, 무단배포 금지</t>
+  </si>
+  <si>
+    <t>교육부 하반기 적극 행정 과제 6건 선정우수공무원에 승진 등 인센티브지난 3일 오전 광주 북구 한 초등학교에서 운암1동 행정복지센터 관계자들이 오는 6일부터 재개되는 학생 등교 수업에 대비해 소독하고 있다. /광주=연합뉴스[서울경제] 정부가 신종 코로나바이러스 감염증(코로나19) 사태를 계기로 감염병이 유행한 국가에서 입국한 학생은 의사 진단 없이도 등교를 중지시킬 수 있도록 근거를 마련한다.교육부는 ‘2020 교육부 적극 행정 실행계획’을 수립하고 올해 중점과제 6건을 선정해 연말까지 적극적으로 추진할 방침이라고 5일 밝혔다. 적극 행정 실행계획은 학생들의 건강과 학습권을 보호하는 데 초점이 맞춰졌다.교육부는 코로나19 감염 우려가 있는 학생에 대한 관리를 강화하기 위해 학교보건법을 개정하기로 했다. 개정안에 따르면 감염병이 발생한 국가에서 입국하는 등 역학적 연관성이 크다고 인정될 경우 학교장이 해당 학생이나 교직원의 등교를 중지할 수 있다.현행법에 따르면 의사 진단을 받은 학생과 교직원에 대해서만 등교를 중지할 수 있다.최근 등교 전 자가진단에서 코로나19 의심 증상이 나올 경우 등교를 중지할 수 있지만 엄밀히 따지면 법적 근거가 없다. 교육부는 2학기 코로나19 대유행에 대비해 제도를 정비할 필요성이 있다고 설명했다.교육부는 교사들이 학교 방역·학생 지도에 전념할 수 있도록 불요불급한 학교 사업이나 범교과 수업은 축소·조정하고 방역·학습활동을 위해 지원 인력 4만명을 투입한다는 계획이다.교육부는 코로나19로 좁아진 고졸 채용 문을 넓히기 위해 기능사 자격시험 2회 추가 시행·공공부문 고졸 일자리 확대를 추진한다.원격교육 공공 플랫폼 고도화를 통한 원격교육 발전기반 마련, 학생·교사의 의견을 반영한 미래형 학교 공간 조성, 인공지능(AI) 교육 종합방안 마련도 적극 행정 중점과제로 선정했다.교육부는 적극 행정을 독려하기 위해 올해 우수 공무원 20여명을 선발하고 그중 10여명에게 특별 승진, 특별 승급, 성과급 최고 등급 등의 인센티브를 부여한다는 방침이다. 반면 소극행정 공무원으로 꼽히면 징계나 주의, 경고 등 엄정 조처할 계획이다.유은혜 부총리 겸 교육부 장관은 “적극 행정을 바탕으로 학생들의 건강과 안전, 학습권을 보호하기 위해 노력할 것”이라며 “포스트 코로나(코로나19 사태 이후) 시대 미래 교육도 차질 없이 준비하겠다”고 설명했다./김창영기자 kcy@sedaily.com[서울경제 바로가기]▶ 네이버 채널에서 '서울경제' 구독해주세요!▶ [집슐랭] 미슐랭 가이드처럼 알찬 부동산뉴스저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>교육부가 직업계고 취업활성화와 미래형 학교 공간조성 등 6건을 올해 적극행정 과제로 우선 추진한다.교육부는 '2020 교육부 적극행정 실행계획'을 수립했다고 5일 밝혔다.적극행정은 공공 이익을 위해 불합리한 규제를 개선하거나 제도를 마련하는 등 적극적으로 업무를 처리하는 것을 말한다. 교육부는 국민, 적극행정모니터링단 등을 대상으로 의견을 수렴해 적극행정을 우선해야 할 과제를 선정했다.△학교 감염병 방역체계 강화 △교원 업무부담 경감 추진 △직업계고 지원 및 취업활성화 △원격교육 발전기반 마련 △미래형 학교공간 조성 △인공지능(AI)교육 종합방안 마련 등이 6대 중점 과제다.학교 방역체계 강화를 위해 학교보건법 개정을 추진해 학교여건에 맞게 대응하도록 법적근거를 마련할 계획이다. 코로나19 대응을 위해 교원업무부담 경감도 추진한다. 불요불급한 학교사업 및 범교과 수업은 축소·조정하고, 방역·학습활동 등 지원인력 4만명을 지원해 등교수업 전념 여건을 조성할 예정이다.직업계고 취업활성화를 위해 기능사자격 시험을 2회 추가 시행하고 취업처 발굴에도 적극 나선다.원격교육 공공 플랫폼을 고도화하고 교원 원격교육 역량도 강화한다. 미래교육 혁신에 활용하기 위한 원격교육 중장기 발전 기반을 마련할 계획이다.학교를 전면 개선하는 학교단위 사업 65개교, 교실·유휴 공간 등 학교 일부를 개선하는 영역단위 사업 600개교 추진 과정에서 학교 구성원 의견을 반영해 다양한 학습공간을 구축한다. AI 시대를 맞아 미래 교육으로의 패러다임 전환을 위한 교육정책도 선제적으로 수립할 방침이다.교육부는 이외에도 적극행정 우수사례를 발굴하고 해당 공무원에게는 파격적인 인센티브를 부여한다. 적극행정 경진대회를 분기별로 개최해 우수 사례와 우수 공무원을 선발한다.올해는 적극행정 우수공무원 20여 명을 선발하고, 이 중 10여 명 이상에게는 특별승진, 특별승급, 성과급 최고등급 등의 파격적인 인센티브를 부여할 계획이다.반면 소극행정 공무원에 대해서는 현장점검 및 신고센터를 운영하는 등 엄정 조치한다.적극행정 활성화를 위해 적극행정지원위원회를 15명에서 45명으로 늘리고 개최 회수도 늘린다.유은혜 부총리 겸 교육부 장관은 “적극행정을 바탕으로 학생 건강과 안전, 학습권을 보호하기 위해 노력할 것”이라면서 “포스트 코로나 시대 미래교육 대비 계획도 차질 없이 준비하겠다”고 말했다.문보경기자 okmun@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>© News1 김일환 디자이너(서울=뉴스1) 이재진 대학미래연구소장 = 2019년 11월, 교육부는 미래 유망분야를 선도할 고급 인재 양성을 위해 인공지능(AI) 대학원과 소프트웨어 중심대학을 확대·운영한다고 발표했다. 2021학년도 대학입시부터 대학 첨단학과 학생 정원을 45개 대학 4761명으로 확정했다. 자연계열 학과로 진학을 희망하는 고등학생들에게는 좋은 소식이기는 하나 최근 4개년 지표를 보면 고교 학생들의 자연계 기피 현상이 심화되는 현상이 보인다. 최근 4개년 수시모집 자연계열 학과 지원자 수를 보면 2018학년도에 50.6%로 정점을 찍은 이후 하락해 2020학년도에는 48.5%로, 2017학년도보다 낮아졌다. 인문·예체능 학과 지원자는 각각 38.9%, 12.6%로 대체로 증가추세다. © News1 김일환 디자이너최근 4개년 대학수학능력시험(수능) 과목별 접수현황을 살펴봐도 과학탐구 접수자가 2018학년도를 정점으로 2020학년도에는 44.1%로 감소했다. 사회탐구 접수자는 54.7%로 증가했다. 대입 수시모집 계열별 지원자수·비율과 수능 접수 현황이 차이가 나는 이유는 첫번째, 예체능계열 지원을 희망하는 학생들이 상대적으로 학습하기 편한 사회탐구를 접수해 나타나는 현상이다. 인문계열과 예체능계열 지원자를 합친 비율은 매년 약 50% 내외다. 두번째는, 수능 사회탐구를 접수한 지원자가 자연계열 학과로 교차지원하는 현상이다. 해마다 사회탐구 접수인원의 약 5%가 자연계열 학과로 지원한다. 4년제 대학 정원 내 31만3233명 중 15만2994명(48.8%)인 자연계열, 12만3079명(39.3%)인 인문계열, 3만7160명(11.9%)인 예체능계열 등 계열별 모집인원과 비율, 논란이 있었지만 2016년 인문·예체능계 정원을 줄이고 이공계 정원 확대와 학내 구조조정을 지원한 사업인 '산업연계 교육활성화 선도대학'(PRIME) 사업, 최근 교육부의 첨단 분야 인재 10년간 8만명 양성 등을 고려하면 대학입시에서 자연계 학과들의 선호도가 높아져야 하는 것이 정상인데 오히려 선호도가 낮아지고 자연계열 선택자가 감소하고 있다. 수능에서 과학탐구 접수자 수, 수시모집 자연계열 지원자 감소에 대한 원인을 하나로 단언할 수는 없다. 단, 수시모집에서 학교생활기록부(학생부) 중심 전형 선발인원 비율이 높고, 증가하는 추세에 따라 내신의 중요성이 늘어난 최근 입시 트렌드와 밀접한 관계가 있을 것으로 보인다. © News1 김일환 디자이너2020학년도 대입의 경우 수시모집 비율이 77.3%이고 수시모집 중 학생부 중심 전형 비율이 88.1%다. 전체 선발인원 중에서도 학생부 중심 전형은 66.9%를 차지한다. 대학입시를 위해 내신성적에 최선을 다할 수밖에 없는 입시구조다. 현 고교 내신은 9등급 상대평가 체제이기 때문에 학생수가 많으면 좋은 등급을 따기 쉽고 적으면 어렵다. 예를 들어 2019년 관악구 M고 고3의 경우 인문계열은 128명, 자연계열은 57명이다. 좋은 내신을 얻을 확률은 인문계열이 높다. 대학입시를 준비하는 학생들은 학생부 중심 전형 비율이 약 67%를 차지하는 대학입시에서 국가가 제공하는 표준화된 시험인 수능보다는 각 개별 고교의 특성에 맞는 내신에 집중할 수밖에 없고, 선택자가 많은 인문계열 집중이 일어날 수밖에 없다. 이런 문제점에 대해 내신 절대평가를 도입하자는 의견도 있다. 그러나 과목별 성취도가 등수가 아닌 시험 점수에 따라 결정되는 방식은, 시험 문제를 쉽게 출제해 다수의 학생이 높은 성적을 받을 수 있는 '성적 부풀리기'가 일어날 가능성이 크다. 실제로 2000년대 초반에 잠시 도입됐던 내신절대평가는 이러한 이유 때문에 선발을 해야하는 대학 입장에서 학생부에 대한 신뢰도가 낮아 대학별고사와 수능 위주 전형을 늘릴 수밖에 없었고, 2005학년도부터 다시 내신 상대평가가 도입됐다. 대입 수시모집 입시전략 설명회에 참석한 학부모와 학생이 강연을 듣는 모습. (뉴스1DB) © News1 오대일 기자고교교육을 담당하는 일선 선생님들은 이전에 비해 학생들이 고교교육에 집중하는 분위기가 바람직하다 평가할 수 있으나 대학입시의 관점을 학생으로 바꿔 생각해 보자. 2010년 통계청이 발표한 '사회조사 등을 통해 바라본 우리나라 고3의 특징'에 따르면 고3 학생이 기대하는 교육수준은 4년제 이상 대학이 64.9%, 대학교육의 목적은 학년에 관계없이 '좋은 직업을 갖기 위해서'가 52.6%가를 넘었다. 10년 전 자료이기 때문에 최근 불경기를 감안하면 '좋은 직업을 갖기 위해서'의 기대수준이 이전보다 높아졌을 것이다. 현 대학입시에서 불경기에 좋은 대학에 진학해 좋은 일자리를 얻기 원하는 학생들은 내신에 집중할 수밖에 없고, 높은 내신을 얻기 위해서는 선택자 수가 많은 인문계열을 선택할 수밖에 없다. 대부분 고교에서 자연계열은 상대적으로 선택자가 인문계열보다 적기 때문에 좋은 등급을 받을 확률이 낮다. 학생부 중심 전형이 대세인 현재 대학입시에서는 원하는 결과를 얻기 어려울 가능성이 크다. 지금의 입시는 학생부 중심 전형 선발인원 비율이 커서 학생들은 학생부 외에 선택지가 거의 없는 상황이라 내신에 대한 피로도가 높다. 이 때문에 학생·학부모를 중심으로 내신에서 한번의 실패는 곧 대학입시에서 실패로 이어진다는 인식이 강해지고 있다. 대학입시에서 학생들을 위한, 우리나라 미래 먹거리를 위한 옳은 선택지는 무엇일까. 고교교육 중심의 학생부 중심 전형, 질풍노도의 시기에 학교생활에 집중하지 못했던 학생들을 위한 수능 위주 전형, 두 전형의 점이지대에 놓인 학생들을 위한 대학별고사 전형 등 적당한 황금비율로 대학에 입학할 수 있는 기회를 주는 것이 어떨까. 참고로 2018년 계열별 고등교육기관 취업률은 공학계열 71.7%, 자연계열 64.2%, 사회계열 64.2%, 인문계열 57.1%이다.강연하는 이재진 대학미래연구소장 © 뉴스1jinny@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1 바로가기 ▶  코로나19 뉴스 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>교육부 하반기 적극 행정 과제 6건 선정…우수공무원에 승진 등 인센티브다시 멈춰선 등교학교에 마련된 임시 선별진료소에서 신종 코로나 바이러스 감염증(코로나19) 검사를 받기 위해 차례를 기다리는 학생들 [연합뉴스 자료사진](세종=연합뉴스) 김수현 기자 = 정부가 신종 감염병 사태에 대비해 감염병이 유행한 국가에서 입국한 학생은 의사 진단 없이도 등교를 중지시킬 수 있도록 근거를 마련한다.    교육부는 '2020 교육부 적극 행정 실행계획'을 수립하고 올해 중점과제 6건을 선정해 연말까지 적극적으로 추진할 방침이라고 5일 밝혔다.    적극 행정 실행계획은 신종 코로나바이러스 감염증(코로나19) 사태로 위기에 처한 학생들의 건강과 학습권을 보호하는 데 초점이 맞춰졌다.    교육부는 우선 코로나19 감염 우려가 있는 학생에 대한 관리를 강화하기 위해 학교보건법을 개정하기로 했다.    개정안에 따르면 감염병이 발생한 국가에서 입국하는 등 역학적 연관성이 크다고 인정될 경우 학교장이 해당 학생이나 교직원의 등교를 중지할 수 있다.    현행법에서는 감염병과 관련해 의사 진단을 받은 학생과 교직원에 대해서만 등교를 중지할 수 있게 돼 있다.    최근 등교 전 자가진단에서 코로나19 의심 증상이 나올 경우 등교를 중지할 수 있지만, 엄밀히 따지면 법적 근거가 없다. 교육부는 2학기 코로나19 대유행에 대비해 제도를 정비할 필요성이 있다고 설명했다.    교육부는 교원 업무 부담 경감도 주요 추진 과제로 꼽았다.    교사들이 학교 방역·학생 지도에 전념할 수 있도록 불요불급한 학교 사업이나 범교과 수업은 축소·조정하고 방역·학습활동을 위해 지원 인력 4만명을 투입한다는 계획이다.    이외에도 교육부는 코로나19로 좁아진 고졸 채용 문을 넓히기 위해 기능사 자격시험 2회 추가 시행·공공부문 고졸 일자리 확대를 추진한다.    원격교육 공공 플랫폼 고도화를 통한 원격교육 발전기반 마련, 학생·교사의 의견을 반영한 미래형 학교 공간 조성, 인공지능(AI) 교육 종합방안 마련도 적극 행정 중점과제로 선정했다.    교육부는 적극 행정을 독려하기 위해 올해 우수 공무원 20여명을 선발하고 그중 10여명에게 특별 승진, 특별 승급, 성과급 최고 등급 등의 인센티브를 부여한다는 방침이다.    반면 소극행정 공무원으로 꼽히면 징계나 주의, 경고 등 엄정 조처할 계획이다.    유은혜 부총리 겸 교육부 장관은 "적극 행정을 바탕으로 학생들의 건강과 안전, 학습권을 보호하기 위해 노력할 것"이라며 "포스트 코로나(코로나19 사태 이후) 시대 미래 교육도 차질 없이 준비하겠다"고 밝혔다. porque@yna.co.kr▶코로나19 속보는 네이버 연합뉴스[구독 클릭]▶[팩트체크]차별금지법안, 성 소수자 어떤 내용?▶제보하기</t>
+  </si>
+  <si>
+    <t>학생 건강·안전·학습권 보장 위한 적극행정유은혜 사회부총리 겸 교육부 장관이 5월 11일 서울 종로구 정부서울청사에서 열린 사회관계장관회의에서 발언하고 있다. /문호남 기자 munonam@[아시아경제 이현주 기자] 의사의 진단을 받은 학생·교직원만 등교가 중지되던 것에서 감염병 발생 국가에서 입국하는 등 역학적 연관성이 있는 경우에도 등교 중지가 가능하도록 학교보건법이 개정된다.교육부는 이 같은 내용을 담은 적극행정 중점과제 계획을 수립해 주요 사항을 5일 발표했다. 적극행정은 공무원이 불합리한 규제의 개선 등 공공의 이익을 위해 창의성과 전문성을 바탕으로 적극적으로 업무를 처리하는 행위다. 올해 중점과제 6건은 ▲학교 감염병 방역체계 강화 ▲교원 업무부담 경감 추진 ▲직업계고 지원 및 취업활성화 ▲원격교육 발전기반 마련 ▲미래형 학교공간 조성 ▲인공지능(AI)교육 종합방안 마련이다. 이를 체감할 수 있도록 하기 위한 중점 과제를 선정해 연말까지 추진한다.구체적으로는 인력 4만명을 지원해 교원들이 수업 및 학생 생활지도에 집중할 수 있도록 등교수업 여건을 조성하거나 기능사자격 시험을 2회 추가 시행해 자격 취득 기회를 확대하는 방안이 담겼다. 원격교육 공공 플랫폼을 고도화 하고 역량 강화를 통해 미래 교육에 활용한다. 또 획일화 된 기족 학교 공간을 탈피하고 학교 단위 사업 65개교 등을 개선하고 다양하고 유연한 학습 공간을 구축한다. 또 AI(인공지능) 교육 확대 등 미래교육 패러다임 전환을 위한 선제적 교육 정책 수립을 통해 이에 필요한 인재 양성을 지원한다.이외에도 적극행정을 공직문화로 정착시키기 위해 우수사례를 발굴하고, 적극적인 업무추진으로 성과를 창출한 우수공무원에게는 인센티브를 부여한다. 유은혜 부총리 겸 교육부 장관은 "포스트코로나 시대의 미래교육에 대비한 계획도 차질 없이 준비하는 등 국민이 체감하는 성과를 거둘 수 있도록 노력하겠다"고 말했다.이현주 기자 ecolhj@asiae.co.kr▶ 2020년 하반기, 재물운·연애운·건강운 체크!▶ 네이버에서 아시아경제 뉴스를 받아보세요 ▶ 놀 준비 되었다면 드루와!  드링킷!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t>소극행정 공무원은 징계 조치…6개월 더 승진 제한올해 6대 중점과제 선정…감염병 방역체계 강화 등[세종=뉴시스]세종시 어진동 정부세종청사 교육부. (사진=뉴시스 DB). photo@newsis.com[세종=뉴시스] 이연희 기자 = 교육부가 적극행정에 나선 공무원 10여명을 뽑아 승진이나 성과급 등의 인센티브를 부여하기로 했다. 올해 연말까지 학교 감염병 방역체계를 강화하고 원격교육 중장기 발전방안을 수립하는 등 중점과제를 해결하기 위해서다. 교육부는 이 같은 내용의 '2020 교육부 적극행정 실행계획'을 수립하고 중점과제 6건을 선정했다고 5일 밝혔다. 적극행정이란 공공의 이익을 위해 불합리한 규제를 개선하는 등의 행정을 말한다. 교육부는 적극행정 모니터링단과 일반 국민, 교육부 직원들의 의견을 수렴해 올해 중점과제로 ▲학교 감염병 방역체계 강화 ▲교원 업무부담 경감 추진 ▲직업계고 지원과 취업 활성화 ▲원격교육 발전기반 마련 ▲미래형 학교공간 조성 ▲인공지능(AI)교육 종합방안 마련 등 6가지를 정했다. 학교 감염병 방역체계 강화 과제는 학교 여건에 따라 감염병 우려가 있는 학생 관리를 강화할 수 있도록 학교보건법 개정이 추진된다. 기존에는 의사 진단을 받은 학생·교직원만 등교를 중지했다면 감염병 발생 국가에서 입국하는 등 역학적으로 우려가 있을 때 등교를 중지할 수 있게 권한을 주는 방식이다. 또 등교수업이 안정적으로 운영될 수 있도록 지원이 강화된다. 교육부는 8월까지 한국형 원격교육 중장기 발전방안(가칭)을 수립하고 12월에는 원격수업을 정규수업으로 인정하는 근거를 교육과정 총론에 고시할 예정이다. 일반대학의 원격수업 교과목 개설 상한 20%를 해제하는 내용 등이 담긴 '일반대학의 원격수업 운영기준'은 이달 중 개정한다. 12월에는 원격수업을 위한 공공플랫폼을 개선한다.교육부는 신종 코로나바이러스 감염증(코로나19) 이후를 대비해 10월 중 AI(인공지능) 교육 종합방안 등 선제적인 교육정책을 발표할 계획이다. 또 올해 안에 관련 기준안을 마련하고 법령 제·개정, 관계부처 협의체 구성 등을 모두 추진한다.교육부는 코로나19 유행 속 자격증 취득 기회가 줄어들지 않도록 기능사 자격시험을 2회 추가 시행하고 현장실습 기간을 4주에서 1~2주로 단축하거나 공공부문 고졸일자리를 확대하는 등 직업계고를 지원하기 위한 정책도 유도한다.미래형 학교 공간으로 기존의 학교공간을 일부 또는 전면 개선하는 과제도 추진된다. 일부를 개선하는 영역단위는 600개교, 학교 전체를 리모델링하는 학교단위는 65개교가 올해 목표다. 코로나19 상황에서 불요불급한 학교사업과 범교과 수업을 축소하거나 조정하는 등의 교원 업무 부담을 경감하는 것도 중점과제에 포함됐다.교육부는 1년에 4번 분기별로 적극행정 경진대회를 열고 우수사례와 우수공무원을 선발할 예정이다. 올해는 적극행정 우수공무원 20여명을 선발하고 10여명 이상에게 특별승진·승급, 성과급 최고등급 등의 인센티브를 부여할 계획이다. 반대로 현장점검 또는 신고로 소극행정으로 지탄 받는 공무원이 나올 경우 주의·경고 조치는 물론 징계조치까지 실시한다. 징계가 확정되면 승진제한기간을 6개월 가산한다.교육부는 적극행정지원위원회를 활성화하기 위해 기존 15명에서 45명으로 3배 확대·개편한다. 또 격월로 정기 개최하거나 전문소위원회를 꾸려 운영할 계획이다.☞공감언론 뉴시스 dyhlee@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>이달 중순께 종합계획 발표[헤럴드경제=배문숙 시가] 정부는 ‘코로나19’가 전 세계적으로 큰 여파를 남긴 만큼, 포스트 코로나 시대를 대비해 향후 5년간 '한국판 뉴딜'에 100조원 이상을 투입한다. 당초 계획한 투자 규모보다 24조원 이상 증액한 것으로 데이터 산업과 비대면 의료를 확대하고 공공시설을 환경친화적으로 바꾸는 데 집중적으로 투자할 계획이다.5일 기획재정부에 따르면 정부는 76조원 규모로 제시됐던 한국판 뉴딜을 100조원 이상으로 늘리고 세부 내용을 확정, '한국판 뉴딜 종합계획'을 이 달 중순께 발표한다.한국판 뉴딜은 데이터·인공지능(AI) 생태계를 키우고 비대면 의료·교육을 육성하는 디지털 뉴딜과 공공시설을 친환경적으로 바꾸는 그린뉴딜로 나뉘어 있다. 정부는 디지털 뉴딜 분야에서는 데이터 산업을 육성하는 데 방점을 찍을 계획이다.앞서 문재인 대통령은 지난달 18일 강원도 춘천의 데이터 및 AI 기업을 찾아 미국 뉴딜의 상징인 후버댐에 견줄 만한 요소로 '데이터댐'을 제시하고 디지털 뉴딜을 활성화하겠다고 했다. 발전, 산업용, 식수 등으로 쓰이는 후버댐의 물처럼 데이터를 다목적으로 활용하겠다는 것이다.정부는 데이터를 기업들이 여러 용도로 활용할 수 있게끔 15개 분야에서 빅데이터 플랫폼을 만들고 14만개의 공공데이터를 순차적으로 개방한다. 전국 모든 초등학교·중학교·고등학교 교실에 와이파이를 구축해 디지털 기반 교육 인프라를 보완한다. AI 핵심 인재도 양성한다.정부는 또 환자가 의사를 직접 만나지 않고도 처방을 받을 수 있는 비대면 의료를 확대할 계획이다.정부는 감염병 확산을 막기 위해 2월 말부터 한시적으로 전화상담·처방이 가능하도록 했는데, 코로나19를 거치며 효과가 나타난 만큼 이를 키우겠다는 것이다. 화상 진료 인프라를 깔아 의사가 영상을 보며 처방할 수 있게 하는 원격진료 방안이 거론되고 있다.지난 2일 국무총리 주재로 열린 국정현안점검조정회의에서도 비대면 의료 서비스 확대를 검토한다는 내용이 나왔다. 다만 상급병원에 환자가 쏠릴 수 있다는 지적과 의료 영리화 논란이 있는 만큼 정부는 각계 의견을 듣고 사회적 합의를 거치는 등 중장기적인 과제로 추진한다는 입장이다.사회간접자본 관리 체계를 선진화하기 위해서는 재정을 투자해 교통과 수자원 분야 디지털 관리 시스템을 구축한다. 도시와 산업단지에 스마트 물류 체계도 만든다.기후변화에 대비하기 위한 그린뉴딜 대책도 나온다. 정부는 에너지를 많이 쓰는 노후 어린이집, 보건소, 의료기관, 공공 임대주택을 에너지 효율이 높게 리모델링할 계획이다.친환경 기술을 보유한 기업 100곳을 선정해 2022년까지 연구개발부터 사업화 작업까지 지원하는 방안도 포함된다. 태양광·풍력·수소 등 3대 신재생에너지 기반을 만들기 위해 정부는 융자를 제공하고 건물, 주택, 농촌에 태양광 발전 시설도 설치한다.그린뉴딜에는 급격한 기후변화를 막자는 목표만이 아니라 산업을 친환경적으로 바꾸지 않으면 먼 미래에는 제조업 수출이 어려워질 수 있다는 인식이 깔려있다.구글, 페이스북, BMW 등 글로벌 기업들이 2050년까지 사용하는 전력의 100%를 재생에너지로 대체하자는 'RE100'에 동참하고 있는 만큼 국내 기업도 재생에너지를 사용하지 않으면 앞으로 수출에 제한이 발생할 수 있다는 지적이 나온다.정부는 또 디지털·그린 뉴딜 사업 외에 특수형태근로종사자나 프리랜서들이 고용보험 가입에 가입할 수 있게 하는 내용의 고용 안전망 강화 대책도 함께 발표할 계획이다. 대리운전 기사, 보험설계사, 방문판매원 등이 고용보험의 사각지대에서 벗어날 수 있도록 올해 안에 법 개정을 추진할 방침이다.oskymoon@heraldcorp.com▶코리아헤럴드 플립화상영어 무료체험▶헤럴드경제 네이버 채널 구독 ▶농수축산물 소비캠페인 - Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>친환경기술 보유 기업 선정해 지원…노후 공공시설 에너지효율 높인다한국판 뉴딜 (PG)[김민아 제작] 사진합성·일러스트    (세종=연합뉴스) 김연정 차지연 정수연 기자 = 정부가 '한국판 뉴딜'에 앞으로 5년간 100조원 이상을 쏟는다. 당초 계획한 투자 규모보다 24조원 이상 증액한 것으로 데이터 산업과 비대면 의료를 확대하고 공공시설을 환경친화적으로 바꾸는 데 집중적으로 투자할 계획이다.    5일 기획재정부에 따르면 정부는 76조원 규모로 제시됐던 한국판 뉴딜을 100조원 이상으로 늘리고 세부 내용을 확정, '한국판 뉴딜 종합계획'을 이번 달 중순께 발표한다.     신종 코로나바이러스 감염증(코로나19)이 전 세계적으로 큰 여파를 남긴 만큼 포스트 코로나 시대를 대비해 성장동력을 발굴하고 기후변화에 대응하기 위해서다.    기재부 고위 관계자는 "한국판 뉴딜을 100조원이 넘는 규모로 확대해 추진할 것"이라며 "기존에 발표된 한국판 뉴딜 사업을 추가하고 보완하는 차원"이라고 말했다.    한국판 뉴딜은 데이터·인공지능(AI) 생태계를 키우고 비대면 의료·교육을 육성하는 디지털 뉴딜과 공공시설을 친환경적으로 바꾸는 그린뉴딜로 나뉘어 있다.    정부는 디지털 뉴딜 분야에서는 데이터 산업을 육성하는 데 방점을 찍을 계획이다.    앞서 문재인 대통령은 지난달 18일 강원도 춘천의 데이터 및 AI 기업을 찾아 미국 뉴딜의 상징인 후버댐에 견줄 만한 요소로 '데이터댐'을 제시하고 디지털 뉴딜을 활성화하겠다고 했다. 발전, 산업용, 식수 등으로 쓰이는 후버댐의 물처럼 데이터를 다목적으로 활용하겠다는 것이다.    정부는 데이터를 기업들이 여러 용도로 활용할 수 있게끔 15개 분야에서 빅데이터 플랫폼을 만들고 14만개의 공공데이터를 순차적으로 개방한다.    전국 모든 초등학교·중학교·고등학교 교실에 와이파이를 구축해 디지털 기반 교육 인프라를 보완한다. AI 핵심 인재도 양성한다.    정부는 또 환자가 의사를 직접 만나지 않고도 처방을 받을 수 있는 비대면 의료를 확대할 계획이다.     정부는 감염병 확산을 막기 위해 2월 말부터 한시적으로 전화상담·처방이 가능하도록 했는데, 코로나19를 거치며 효과가 나타난 만큼 이를 키우겠다는 것이다. 화상 진료 인프라를 깔아 의사가 영상을 보며 처방할 수 있게 하는 원격진료 방안이 거론되고 있다.    지난 2일 국무총리 주재로 열린 국정현안점검조정회의에서도 비대면 의료 서비스 확대를 검토한다는 내용이 나왔다.    다만 상급병원에 환자가 쏠릴 수 있다는 지적과 의료 영리화 논란이 있는 만큼 정부는 각계 의견을 듣고 사회적 합의를 거치는 등 중장기적인 과제로 추진한다는 입장이다.원격의료 (PG)[김민아 제작] 사진합성·일러스트    사회간접자본 관리 체계를 선진화하기 위해서는 재정을 투자해 교통과 수자원 분야 디지털 관리 시스템을 구축한다. 도시와 산업단지에 스마트 물류 체계도 만든다.    기후변화에 대비하기 위한 그린뉴딜 대책도 나온다.    정부는 에너지를 많이 쓰는 노후 어린이집, 보건소, 의료기관, 공공 임대주택을 에너지 효율이 높게 리모델링할 계획이다.    친환경 기술을 보유한 기업 100곳을 선정해 2022년까지 연구개발부터 사업화 작업까지 지원하는 방안도 포함된다. 태양광·풍력·수소 등 3대 신재생에너지 기반을 만들기 위해 정부는 융자를 제공하고 건물, 주택, 농촌에 태양광 발전 시설도 설치한다.    그린뉴딜에는 급격한 기후변화를 막자는 목표만이 아니라 산업을 친환경적으로 바꾸지 않으면 먼 미래에는 제조업 수출이 어려워질 수 있다는 인식이 깔려있다.     구글, 페이스북, BMW 등 글로벌 기업들이 2050년까지 사용하는 전력의 100%를 재생에너지로 대체하자는 'RE100'에 동참하고 있는 만큼 국내 기업도 재생에너지를 사용하지 않으면 앞으로 수출에 제한이 발생할 수 있다는 지적이 나온다.    정부는 또 디지털·그린 뉴딜 사업 외에 특수형태근로종사자나 프리랜서들이 고용보험 가입에 가입할 수 있게 하는 내용의 고용 안전망 강화 대책도 함께 발표할 계획이다.     대리운전 기사, 보험설계사, 방문판매원 등이 고용보험의 사각지대에서 벗어날 수 있도록 올해 안에 법 개정을 추진할 방침이다.  jsy@yna.co.kr▶코로나19 속보는 네이버 연합뉴스[구독 클릭]▶[팩트체크]차별금지법안, 성 소수자 어떤 내용?▶제보하기</t>
+  </si>
+  <si>
+    <t>디에스티인터내셔날-오픈텍스트, 솔루션 공급 업무협약(MOU) 체결중소·중견기업 고객층 확대, 공공·금융 사업 모델 발굴 협력김형태 디에스티인터내셔날 대표(왼쪽)가 김동환 오픈텍스트코리아 사장과 업무협력 양해각서(MOU)를 교환했다.디에스티인터내셔날이 세계 1위 오픈텍스트 비정형데이터관리 솔루션을 앞세워 제조·금융·공공 등 국내 산업 전반에 걸쳐 디지털 전환을 가속화한다.디에스티인터내셔날(대표 김형태)은 비정형데이터관리 솔루션 세계 1위 오픈텍스트코리아(지사장 김동환)와 '한국시장 솔루션 공급 파트너 협약식'을 체결했다고 5일 밝혔다.디에스티인터내셔날의 중소기업·공공·금융 분야 네트워크와 오픈텍스트코리아의 대기업·제조분야 역량으로 상호 시너지가 기대된다. 양사는 △비즈니스 모델 발굴·공급 △공동 마케팅·영업 추구 △솔루션 구축·운영 역량 강화 △상호 고객 확대 지원 등에 협력하기로 했다.2000년 8월 설립한 디에스티인터내셔날은 정보시스템 컨설팅, 시스템통합(SI), 시스템관리, 정보보호 등 IT토털 솔루션을 제공한다. 임직원 110여명 중 엔지니어가 70여명이며 지난해 매출은 300억원을 넘었다. 회사는 올해는 코로나19 여파에도 불구하고 무전기 제조, 솔루션 공급 등 신규 사업 실적을 앞세워 연매출 350억원을 달성할 것으로 기대된다.김형태 대표는 “지난 20년간 국내에서 공공·교육·금융·의료 등 300여개 고객사를 상대로 서비스 경쟁력을 쌓아왔다”면서 “비정형데이터관리 등 다양한 세계 1위 솔루션을 보유한 오픈텍스트와 손잡고 대기업부터 중소기업·스타트업까지 제조·공공·금융·교육 등 산업 전반에 걸쳐 디지털 전환을 가속화하겠다”고 말했다.세계 문서중앙화 솔루션 시장을 개척한 오픈텍스트는 기업정보관리(EIM), 디지털마케팅, 디지털포렌식 등 세계 1위 비정형데이터관리 솔루션을 다수 보유하고 있다. 각 분야에 특화한 EIM 기업을 잇따라 인수합병(M&amp;A)하며 토털 EIM 솔루션 기업으로 도약했다. 금융·보험, 제조, 유통, 생명과학, 에너지, 통신, 물류, 미디어부터 공공부문에 이르기까지 고객관리, 공급관리, 인사관리, 제품생산, 자산관리, 재무관리, 법무관리 등 다양한 EIM 솔루션을 공급한다.한국 시장에는 2016년 한국법인이 설립돼 매년 15% 이상 성장을 지속하고 있다. 오픈텍스트코리아는 차세대 문서중앙화, 디지털마케팅, 디지털포렌식 솔루션부터 인공지능(AI)·빅데이터, 엔즈포인트 위협탐지대응(EDR) 분야로 공급 솔루션을 다각화하고 있다.김동환 오픈텍스트코리아 사장은 “SAP, 세일즈포스, 오라클, 마이크로소프트(MS) 등 주요 시스템과 연계성이 뛰어난 솔루션을 제공한다”면서 “최근 SAP와 공동 개발한 차세대 기업콘텐츠관리(ECM) 기반 문서중앙화 솔루션을 임베디드 방식으로 공급해 국내 주요 대기업을 중심으로 호평과 함께 도입 문의가 급증했다”고 전했다.그는 또 “오픈텍스트는 복잡한 업무별 프로세스를 쉽게 자동화할 수 있는 플랫폼을 제공하고 업무담당자에게 편리한 사용환경을 제공한다”면서 “전국 각지에 뛰어난 네트워킹을 구축한 디에스티인터내셔날과 협력해 대기업을 넘어 중소·중견기업의 생산성과 거버넌스를 향상시킬 수 있도록 최선을 다하겠다”고 덧붙였다.이준희기자 jhlee@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>“AI 원천기술 확보로 기술 경쟁력 높일 것”임희석 고려대 HI AI연구센터장(왼쪽)과 와이즈넛 관계자가 협약을 맺은 후 사진을 찍고 있다. 와이즈넛 제공    AI(인공지능) 챗봇 및 검색SW 기업 와이즈넛(대표 강용성)은 고려대학교 HI(Human-inspired) AI연구센터(센터장 임희석)와 AI 관련 기술교류 협약을 맺었다고 밝혔다. 와이즈넛은 이번 협약을 통해 지속적인 기술교류를 통해 AI 원천기술을 확보한다는 계획이다. 와이즈넛은 대학, 공공연구기관 등과 협력관계를 맺고 신기술을 이전받아 왔다. △AI 자동화 플랫폼 및 보안관제 전용 AI모델 생성 노하우(한국과학기술정보연구원, 2019) △생산적 적대 신경망(GAN) 기반 기계학습 데이터 생성(건국대학교, 2018) △딥러닝 기법을 이용한 한국어 개체명 인식 기술(고려대학교, 2017) 등이다.임희석 고려대 HI AI연구센터장은 과학기술정보통신부가 지원하는 '뉴럴 심볼릭 모델의 지식학습 및 추론기술 개발' 연구과제의 연구 책임자로, 미래 챗봇에 적용될 수 있는 지식 그래프 네트워크를 적영한 딥러닝 기술을 연구한다. 와이즈넛도 이 연구에 참여하고 있다. 강용성 와이즈넛 대표는 "AI 연구와 교육에 적극적인 고려대와의 협력을 통해 AI 기술 경쟁력을 강화하고 선순환 생태계 조성에 일조할 것"이라고 말했다.한편, 와이즈넛은 전자정부지원사업 중 최초의 AI 사업으로 평가되는 병무청 '아라'을 포함, 한국남부발전 '마이 KODI', 서울시 '서울톡', 인천공항공사 '에어봇', 신한은행 '오로라', 중앙대학교 등 국내 최다 AI 챗봇 상용화 사례를 보유하고 있다. 안경애기자 naturean@dt.co.kr 디지털타임스 채널 구독 / 뉴스스탠드 구독디지털타임스 홈페이지 바로가기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 최민경 기자] (서울=뉴스1) 이동해 기자 = 정몽준 아산재단 이사장이 4일 오후 서울 종로구 포시즌스 호텔에서 열린 정기선 현대중공업 부사장의 결혼식에 참석하고 있다. 정 부사장은 정몽준 아산재단 이사장의 장남이자 현대가(家) 3세로 이날 서울 명문 사립대를 갓 졸업한, 교육자 집안 출신 재원과 백년가약을 맺었다. 2020.7.4/뉴스1정기선 현대중공업 부사장의 결혼식에 범(凡)현대가와 정 부사장과 친분이 있는 재계 3세 등이 대거 참석했다.정 부사장은 4일 오후 6시 서울 종로구 포시즌스호텔 3층 그랜드볼룸에서 결혼식을 올렸다. 정 부사장의 결혼 상대는 서울 명문 사립대를 졸업한 교육자 집안 출신 재원인 것으로 알려졌다. 정 부사장은 오후 3시30분 쯤 신부와 함께 지하주차장을 통해 도착했다. 이어 부친인 정몽준 아산재단 이사장과 동생 정남이 아산나눔재단 상임이사, 정선이씨 등이 차례로 도착해 하객을 맞았다. 정 이사장은 오후 4시쯤 차에서 내려 호텔 정문에 있던 취재진에게 "이렇게 와주셔서 감사하다"고 짧게 말했다. 신부와 관련해선 "한국의 건강한 여성"이라고 말했다. 정일선 현대비앤지스틸 사장, 정지선 현대백화점 회장, 정몽일 현대엠파트너스 회장, 정대선 현대비에쓰앤씨 사장과 부인 노현정 전 아나운서 등 범현대가 식구들도 하객대열에 합류했다. 모친 김영명 예올 이사장의 언니인 김영숙씨의 사위 홍정욱 올가니카 회장(전 헤럴드미디어 회장)도 참석했다. 정치인 중에선 이홍구 전 국무총리가 식장을 방문했다. (서울=뉴스1) 이동해 기자 = 장세주 동국제강 회장 장남인 장선익 경영전략팀장 이사가 4일 오후 서울 종로구 포시즌스 호텔에서 열린 정기선 현대중공업 부사장의 결혼식에 참석하고 있다. 정 부사장은 정몽준 아산재단 이사장의 장남이자 현대가(家) 3세로 이날 서울 명문 사립대를 갓 졸업한, 교육자 집안 출신 재원과 백년가약을 맺었다. 2020.7.4/뉴스1재계에선 평소 정 부사장과 친분이 있던 재계 3세들이 참석해 눈길을 끌었다. 장세주 동국제강 회장 장남인 장선익 동국제강 이사가 식이 열리기 1시간 전부터 참석해 친분을 과시했다. 김동관 한화솔루션 부사장도 예식에 참석했다. 장선익 동국제강 이사는 정 부사장과 동갑내기 친구다. 청운중학교, 연세대학교를 같이 나왔으며 보스턴컨설팅그룹에서 한솥밥을 먹었다. 정 부사장은 김동관 부사장의 조모상도 챙겼을 만큼 막역한 사이인 것으로 전해졌다. 당시 정 부사장은 평소 "동관이와 친구 사이"라고 언론매체와 인터뷰하기도 했다. (서울=뉴스1) 이동해 기자 = 김동관 한화솔루션 부사장이 4일 오후 서울 종로구 포시즌스 호텔에서 열린 정기선 현대중공업 부사장의 결혼식에 참석하고 있다. 정 부사장은 정몽준 아산재단 이사장의 장남이자 현대가(家) 3세로 이날 서울 명문 사립대를 갓 졸업한, 교육자 집안 출신 재원과 백년가약을 맺었다. 2020.7.4/뉴스1이날 코로나19(COVID-19) 영향으로 식장을 찾은 하객은 많지 않았다. 가족과 아주 친한 지인들만 불렀다는 후문이다. 이날 초대된 하객은 총 100명 내외인 것으로 알려졌다. 동생 정남이씨 결혼식엔 나경원 전 의원, 김무성 전 의원 등 정치인들도 많이 방문했지만 정 부사장의 결혼식엔 현직 국회의원은 거의 보이지 않았다. 한편 정 부사장은 1982년생으로 대일외고, 연세대 경제학과를 졸업했다. 2007년 동아일보 기자로 사회생활을 시작해 2008년 현대중공업 재무팀 대리, 2011년~2013년 보스턴컨설팅그룹 컨설턴트를 거쳐 2013년 현대중공업그룹 기획실 기획팀 담당(수석부장)이 됐다.2018년부턴 현대글로벌서비스 대표이사 부사장, 현대중공업지주 경영지원실장(부사장), 현대중공업 선박해양 영업사업대표를 겸임하고 있다. 최근 현대중공업그룹이 인공지능(AI)과 디지털, 로봇사업 등으로 사업 영역을 확대했을 때도 정 부사장이 핵심 역할을 했다.최민경 기자 eyes00@mt.co.kr▶줄리아 투자노트▶조 변호사의 가정상담소 ▶머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>총 35조 1000억 원 규모 3차 추경 어디에 쓰이나그린뉴딜, 고용안전망 강화 등 ‘한국판 뉴딜’에 연내 총 4.8 조 원 투입3일 국회를 통과한 35조 1000억 원 규모의 3차 추가경정예산(추경)에는 코로나19 사태로 위축된 내수·수출·지역경제를 활성화하기 위한 다양한 재원이 포함됐다.포스트 코로나 시대의 경제 도약을 위한 '한국판 뉴딜' 사업의 추진 재원은 정부안보다 3000억 원 삭감된 4조 8000억 원으로 편성됐다.■ 8대 할인소비쿠폰 제공·온누리상품권 1조 추가 발행4일 기획재정부, 농식품부, 산업부 등 관련부처에 따르면 정부는 3차 추경을 통해 확보한 5000억 원으로 8대 할인소비쿠폰을 제공해 코로나19 충격에 따른 경기 침체 완화를 위한 소비 진작에 나선다.우선 농수산물, 관광, 숙박, 영화, 공연, 전시, 외식, 체육 등 8대 소비쿠폰 제공을 위해 1684억 원을 쓴다.소비쿠폰은 온·오프라인 상품·서비스 구매자에게 선착순으로 지급한다. 전 국민의 31%인 약 1618만 명이 혜택을 본다.정부는 온누리상품권 발행 규모를 기존 3조 원에서 1조 원 더 확대한다.지역사랑상품권은 6조 원에서 9조 원으로 3조 원 더 늘린다.가전제품 소비 확대를 위해서는 구매액의 10%를 30만원 한도에서 환급해주는 '고효율 가전 환급' 대상 품목에 의류건조기를 추가하고, 관련 예산을 1500억 원 늘린다.■인플루엔자 무상접종 456만 명 확대중·고교생과 60대 초반 연령대의 국민 총 456만 명이 인플루엔자 무상접종을 받게 된다. 이를 위해 예산 489억 원을 3차 추경에 포함했다.당초 정부는 만 14~18세 중·고교생 235만 명에게 265억 원을 들여 무상접종을 하려 했으나, 국회 심사를 거치며 만 62∼64세가 추가돼 대상 인원이 확대됐다.보호구 772만개 등 방역 물품을 비축하기 위한 예산도 3차 추경에 반영됐다. 국회 심의 과정에서 마스크 5000만 장 추가 비축을 위해 350억 원의 예산을 추가로 늘렸다. 음압병상은 120병상을 더 늘린다.정부는 재난대응 역량 강화를 위해 목적예비비를 1조 1600원 확충했다.■유턴기업 전용 보조금 신설…수출 회복 위해 무역금융 확충정부는 투자를 살리기 위해 200억 원을 투입해 유턴기업 전용 보조금을 신설해 첨단산업이나 R＆D(연구·개발) 센터를 수도권에 두는 기업에 지원한다.코로나19로 휘청이는 수출의 회복을 위해 '36조 원+α(알파)' 규모의 무역금융도 확충한다.긴급한 안전 보강이 필요한 노후 터널, 철도, 건널목, 하천 등 SOC(사회간접자본) 투자에도 재정을 투입한다.지방교부세 감액 정산으로 어려워진 지방재정의 여력을 확보하기 위해서는 1조 1000억 원으로 지방채 인수를 지원한다.코로나19로 폐업 위기에 처한 소상공인의 재기를 위해 점포철거비, 창업 교육 등을 추가로 지원하고, 자금 확보에 어려움을 겪는 소상공인·기술우수중소기업에 대한 보증을 강화하기 위한 예산도 3차 추경에 반영됐다.■고용유지지원금 '90% 지급' 기간 4~9월로 석달 연장정부는 고용 유지, 생활 안정, 직접 일자리 공급, 실직자 지원 등 고용안정 특별대책 이행 지원을 위한 9조 1000억 원의 예산을 3차 추경에 포함했다. 총 321만 명이 수혜를 볼 것으로 예상했다.우선 경영난에 빠진 기업이 감원 대신 휴업·휴직으로 고용을 유지할 때 지급하는 고용유지지원금을 87만 명에게 지급하고, 특수고용직 종사자, 프리랜서, 영세 자영업자, 무급휴직자에게 1인당 150만 원을 주는 긴급고용안정지원금을 114만 명에게 지급한다.특히 코로나19 사태로 유급휴업·휴직에 들어간 기업에 대해 휴업·휴직수당의 90%까지 고용유지지원금으로 지급하는 특례 기간이 국회 심의 과정에서 정부안(4~6월)보다 석 달 늘어난 4~9월로 확정됐다. 이를 위해 5000억 원을 추가 배정했다.구직급여 지급 대상은 49만 명 더 확대됐다.청년·신혼부부를 대상으로 한 매입·전세임대주택은 당초 정부안보다 1500호 늘린 2800호를 공급하고, 만 34세 이하·연소득 3500만 원 이하 취업준비생이나 중소기업 1년 이하 재직자가 쓸 수 있는 햇살론유스(youth)를 기존 1000억 원에서 2000억 원으로 늘린다.코로나19 사태로 인한 등록금 반환·감면 대학에 대해서는 실질적 자구노력을 통해 등록금 반환, 장학금 등을 지원한 대학에 한해 비대면 교육, 교육환경 개선 목적의 예산을 총 1000억 원 한도에서 지원하기로 했다.■‘한국판 뉴딜' 4.8조 투입 첫발…전국 초중고에 와이파이3차 추경에는 디지털 뉴딜, 그린뉴딜, 고용안전망 강화에 연내 총 4조 8000억 원을 투입하는 내용도 담겼다.정부는 빅데이터 플랫폼을 15개로 늘리고 14만 개의 공공데이터를 순차적으로 개방해 민간 기업의 연구·개발을 돕는다. 또 5G 국가망을 시범 실시하고 인공지능 분야 인재를 양성한다.농어촌 1300곳에 초고속 인터넷망을 깔고 공공장소 와이파이(WiFi) 1만 개를 설치한다.정부는 또 7500억원을 투입해 포스트 코로나 시대를 대비해 전국 초·중·고교에 원격교육 인프라를 확충하고 중소기업의 원격근무 시스템을 만들기로 했다.도시와 산업단지를 디지털화하는 예산은 4500억 원이 담겼다. 주요 간선도로와 철도에 디지털 안전관리체계를 만들고 재난 대응 시스템을 구축할 계획이다.노후 공공건축물 1만 1000호를 리모델링하고 생활형 SOC의 에너지 효율을 높이는 사업에는 4000억 원이 투입된다.녹색 기업 육성을 위한 정부 융자 지원 등에 3500억 원을 쓴다.정부는 또 기후변화에 대비해 저탄소·분산형 에너지 확산 분야에는 4700억 원을 투입한다. 스마트미터기 40만호를 교체하고 태양광·풍력·LNG발전소 등 지능형 통합운영 플랫폼을 만들 계획이다.이밖에 2022년까지 경유 화물차와 어린이 통학차량 총 15만 대를 친환경차로 바꾸고 5만 5000대 규모의 전기 이륜차 구매를 보조한다. 노후 관공선도 조기 교체한다.고용안전망 확충에는 1조 원을 투입한다. 긴급 고용안정지원금을 지급하고, 청년 인턴지원과 청·장년층 신산업 분야 취업을 돕는다.송현수 기자 songh@busan.com▶ 네이버에서 부산일보 구독하기 클릭!▶ '터치 부산' 앱 출시, 부산일보 지면을 내 손 안에!▶ 부산일보 홈 바로가기</t>
+  </si>
+  <si>
+    <t>2차 진흥계획 마련…2025년까지 매출액 20조원으로 2배↑원격교육·원격근무 등 보안내재화 시범사업으로 시장 확산 유도보안인증 체계도 정비…“클라우드 보안 인증제도 마련 시급”[이데일리 이후섭 기자] 과학기술정보통신부가 향후 5년간 정보보호산업 발전을 이끌 청사진을 마련했다. 디지털 전환에 따른 신시장을 창출하고, 투자 확대 등을 통해 2025년까지 정보보호산업 매출을 20조원으로 2배가량 끌어올리겠다는 목표다. 이를 위해 원격교육·원격근무 등에 보안내재화 시범사업을 도입하고 5세대(5G) 이동통신 정부망 구축, 양자암호통신에 대한 투자 등을 추진할 계획이다. ◇2차 진흥계획 마련…2025년까지 매출액 20조원으로 2배↑과기정통부는 지난 1월부터 민·관 실무협의체 운영을 통해 2021년부터 2025년까지 추진될 `제2차 정보보호산업 진흥계획`을 수립하고, 지난 2일 이번 진흥계획을 업계와 학계 전문가들에게 설명하고 의견수렴을 위한 간담회를 개최했다. 제1차 정보보호산업 진흥계획은 지난 2016년부터 올해까지 이어지고 있다. 이를 통해 지난 2016년 9조원 규모였던 국내 정보보호시장은 지난해말 기준 10조5000억원으로 16% 증가했고, 같은 기간 정보보호기업도 864개에서 1094개로 230개(26.6%) 늘었다.2차 진흥계획에서는 △디지털 전환에 따른 정보보호 신시장 창출 △민간의 사이버 복원력 확보를 위한 정보보호 투자 확대 △지속 성장 가능한 정보보호 생태계 조성 등의 중점 추진과제를 설정했다. 이를 통해 2025년까지 정보보호산업 매출액 20조원 달성, 300억 이상 기업 100개 및 정보보호 전문인력 3만명을 양성해 신규 일자리로 연결하는 것을 목표로 하고 있다.◇원격교육·원격근무 등 보안내재화 시범사업으로 시장 확산 유도우선 비대면 서비스 관련 보안시장을 활성화하기 위해 클라우드·블록체인·생체인식 등의 신기술을 적용하고, 원격교육·원격근무(클라우드보안)·온라인상거래(생체인식+결제+출동보안) 등에 보안내재화 시범사업을 도입해 시장 확산을 유도하기로 했다. 또 산·학·연의 인공지능(AI) 기반 정보보호기술 및 제품·서비스 개발을 지원하기 위해 한국인터넷진흥원(KISA)이 보유하고 있는 정보보호 데이터 6억9000만개를 개방한다. 스마트공장(안산), 자율주행차(군산), 스마트시티(부산), 디지털헬스케어(원주), 실감콘텐츠(판교) 등 분야별 ICT 융합보안 기술도 현장에 적용키로 했다.공공분야 정보보호 투자 확대를 위해 내년부터 5G 정부망 구축, 양자암호통신에 대한 재정투자 및 보안규제 개선을 추진할 방침이다. 민간 부문에서는 지역정보보호지원센터를 현재 10개에서 17개로 확대해 중소기업 취약점 점검 및 투자르 이끌어낼 계획이다. 또 송파 클러스터케 보안기업 성장을 위한 지원시설 및 사업을 모으고, 정보보호클러스터(판교, 스타트업 등)와 연계하는 성장기반을 조성한다. 2025년까지 정보보호 전문 엑셀러레이터 25개, AI 전문 보안기업 20개 육성을 추진하며 보안기업 협력을 위해 `Secu-Tech 얼라이언스`도 구성할 예정이다.◇보안인증 체계도 정비…“클라우드 보안 인증제도 마련 시급”지속성장 가능한 정보보호 생태계 조성을 위해 정보보호산업 규제 및 법·제도 개선 계획도 마련됐다. ISMS, CC인증 등 여러 보안인증의 세부평가항목 상호인정 등을 통해 중복요구를 최소화하는 등 기업들의 부담을 줄이는 방향으로 보안인증 체계를 정비할 방침이다. 특히 간담회에서는 정부가 클라우드 활성화를 추진하고 있지만, 정작 클라우드 보안서비스에 대한 인증제도가 없어 개선이 시급하다는 의견이 제기됐다는 전언이다. 3차 추가경정예산안이 국회에서 처리되면서 과기정통부는 343억원을 들여 범부처 협업을 통한 클라우드 혁신 사례 창출에 나선다. 간담회에 참석했던 한 관계자는 “클라우드 보안에 대한 인증제도가 제대로 마련되지 않아 공공부문에도 도입이 제대로 이뤄지지 않고 있다”며 “이번 간담회에서 인증제도를 구체화해야 된다는 공감대를 형성했다”고 말했다.이후섭 (dlgntjq@edaily.co.kr)네이버에서 ‘이데일리’ 구독하기▶청춘뉘우스~ 스냅타임▶＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t>박현출 전 서울시농수산식품공사 사장(전 농촌진흥청장)이 출간한 ‘농업의 힘’에서 해방 당시 우리보다 훨씬 잘 살았던 필리핀 농지개혁 못한 반면 우리나라는 농지개혁 통해 많은 농민들 땅 소유 길 트이면서 자기 땅에서 농사 지워 자식들 공부시켜 근대화 필요한 인재 만들어 결국 한강의 기적 이룬 것이라고 주장[아시아경제 박종일 기자] “한국인이 높은 수준의 교육을 받을 수 있었던 것이 가장 결정적인 동력이었고, 그 교육이 가능했던 것은 농지개혁 덕분이었다. 교육을 통해 산업 사회에 적응할 우량 인재가 대거 배출됐고 그 인재들이 밤잠을 잊으며 노력한 결과가 지금 우리 나라 모습이다”박현출 전 서울시농수산식품공사 사장(전 농촌진흥청장)이 최근 펴낸 ‘농업의 힘’에서 한 주장이다.1945년 해방을 맞을 대한민국은 세계에서 가장 못사는, 그야말로 가난의 대명사라 할 만한 나라였다. 나라가 남북으로 쪼개졌고 백성들 대부분은 영세 소작농업인으로 하루하루 연명하는 것이 쉽지 않은 상황이었다.이런 상황에서 우리가 오늘날 세계인들이 놀랄 만큼 빠른 속도로 세계 상위권 경제 대국으로 성장할 수 있었던 배경은 바로 농지개혁때문이라고 본 것이다.해방 당시 우리 국민의 약 80%가 농업인과 그 가족 구성원들이었고, 또 농업 경영주의 86% 정도가 소작인이었던 상황을 감안한면 농지 개혁이 없었을 경우 농업인 자식들을 과연 학교에 보낼 수 있었을지 의문이 든다고 적었다.박 전 사장은 행정고시 25회 합격, 농수산식품부에서 농업정책국장·식품산업정책실장·기획조정실장 등 주요 보직을  지내고 차관급인 농촌진흥청장을 역임했다.또 서울시 농수산식품공사 사장을 역임, 가락동 시장 현대화 사업 발판을 마련했다.그는 “아무리 교육열이 높은 한국인이라 하더라도 만약 농지 개혁 과정을 통해 농업인에게 분배되지 않았다면 그들이 자식을 학교에 보낼 엄두조차 내지 못했을 것”이라고 주장했다.당시 우리나라보다 훨씬 잘 살았던 필리핀이 농지 개혁을 하지 못해 성장 동력을 살려내지 못했던 경험과 비교해 본다면 농지 개혁은 대한민국 역사상 실로 엄청난 변화를 가져온 핵심 동력이었다는 것이다.농지 개혁을 통해 농지를 분할 받은 농가 입장에서 보면 비록 충분하지는 않지만 이제 ‘내 땅’을 가졌다는 자부심과 안도감에서 정말 ‘죽을 줄 모르고’ 열심히 일하는 계기가 됐다고 설명했다.박 전 청장은 “한강의 기적은 실로 ‘우수한 한국의 인재’가 만들어낸 결과물이고 그 우수한 인재는 농지 개혁 덕분에 양성될 수 있었다”고 주장했다.이처럼 땅은 인간에게 먹을 것을 내주고 보금자리를 제공하는 생존의 필수 요건임에 틀림 없다. 농사를 짓는 것 이외 특별한 직업을 가질 수 없었던 우리 선조들에게 농지는 생명 그 자체나 다름 없었다.박 전 청장은 “풍성한 식탁은 언제까지 계속될 것인가?”란 테마를 잡고 인간이 정말 오랫동안 배고픔을 숙명처럼 생각하며 살아왔지만 풍요로운 식탁을 당연한 것으로 생각하며 우리 조상들도 우리처럼 풍족하게 살았지 않았느냐고 생각하는 사람들이 꽤 있지 않을까 싶다“며 우리 인류가 식량난에서 벗어난 것은 역사적으로 얼마 되지 않았다는 사실도 설명하고 있다.중국 고사에서 말하는 것처럼 ‘식위천’(食爲天 ), 즉 '백성은 먹을 것을 하늘로 여긴다'는 말이 틀린 말이 아니듯 인간에게 식량은 생존의 필수 조건임을 책을 통해 설명하고 있다.박 전 청장은 ▲농업, 문명의 출발점 ▲농지소유 집중과 권력의 탄생 ▲약사를 바꾼 농수산물 ▲19~20세기 폭발적 식량 증산 ▲2050년 식량 수급 전망 ▲오래된 미래-농업농촌의 부활 등 주요 주제를 중심으로 인간과 농업과 관계를 사례를 들어 쉽게 풀어썼다.특히 식량 위기 또 올 것인가?, 한국 농업 부활의 길, 인공지능 시대 놀업 농천 활용법 등 우리 대한민국 농업이 직면한 과제에 대해서도 대안을 제시해 눈길을 모은다.박 전 청장은 “특히 우리가 먹을 식량의 75%를 해외에서 사와야 하는 현실은 정말 위태로운 상황이라 하지 않을 수 없다. 국가 미래를 생각한다면 현재 상황을 더 이상 방치해서는 안된다. 이제 우리도 농업과 식량 문제에 대해 좀더 현실성 있는 토론을 해야 한다”고 강조했다.박종일 기자 dream@asiae.co.kr▶ 2020년 하반기, 재물운·연애운·건강운 체크!▶ 네이버에서 아시아경제 뉴스를 받아보세요 ▶ 놀 준비 되었다면 드루와!  드링킷!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t>하정우 네이버 클로바 AI리더가 심포지엄에서 발언하고 있다. 대한민국과학기술연차대회 유튜브 캡처    국내 인공지능(AI) 전문 인력을 양성하는 AI대학원이 8개째 설립된 가운데 대학원들이 어떤 교육을 이어갈지에 관심이 쏠리고 있다. 전문인력을 활용해야 할 업계에서는 AI를 서비스에 적용할 인력이 부족하다며 이를 양성해야 한다고 입을 모으고 있다.   하정우 네이버 클로바 AI리더는 이달 3일 서울 강남구 코엑스에서 열린 대한민국과학기술연차대회 ‘AI와 인재양성’ 심포지엄에서 “기업입장에선 데이터를 어떻게 잘 서비스화할까가 고민이겠지만 사실 가장 큰 고민은 인재”라며 “핵심기술을 개발하는 인력도 중요하지만 서비스로 만들 전문 인력이 필요하다”고 말했다.   기업은 AI 중심 기술을 개발하는 것보다도 이를 서비스화할 주변기술 전문가를 원한다는 것이다. 하 리더는 “AI 핵심기술은 중심 조그만 부분에 불과하고 이를 원활하게 돌아가게 하는 다른 기술들이 차지하는 게 크다”며 “이는 핵심기술을 서비스 수준까지 끌어올릴 연구 엔지니어와 데이터 엔지니어가 필요하단 반증이기도 하다”고 말했다.   연구를 잘 하는 연구자들보다도 연구결과를 서비스로 바꾸는 AI 인재가 필요하다는 설명이다. 하 리더는 “응용기술 연구자가 더 많은 인력구조를 만들어야 기업 입장에선 많은 가치를 만들 것으로 본다”며 “AI 대학원에서는 지식 자체보다 얼마나 잘 배울 수 있는 ‘기본기’를 갖춘 인력을 키우느냐를 기대한다”고 말했다.  하 리더가 제시한 AI연구인력 구조도다. AI 연구자가 중심에 적은 수가 있다면 이를 지원할 응용기술 엔지니어와 도메인 잔문가가 더욱 많이 필요하다는 지적이다. 유튜브 캡처    네이버 AI 번역서비스 ‘파파고’를 만든 후 지난해 현대차로 이직한 김준석 현대차 AIRS랩 실장도 기본기를 갖추면서도 응용에 강점을 보이는 인재가 필요하다고 말했다. 김 실장은 “저희가 채용 때 고려하는 AI 개발자의 핵심역량은 실제 문제가 주어졌을 때 AI 기술과 연결하는 능력”이라며 “데이터를 서비스 형태로 잘 녹이는 능력이 필요하다”고 말했다.  AI대학원 입장에서도 기업과 대학이 추구하는 바가 다른 점은 고민이다. 이성환 고려대 AI대학원 주임교수는 “기업은 단기 성과를 요구한다는 점에서 원천연구를 필요로 하는 대학과 아직은 엇갈리고 있다”고 말했다. 정 송 KAIST AI대학원장은 “대학으로썬 하나는 완전히 원천연구에 초점을 맞출 수 있고 또는 원천기술 주변부의 지식을 다루는 것도 필요하다”고 말했다.   업계는 AI대학원에서 AI에 관한 지식뿐 아니라 오픈소스를 활용하는 능력과 커뮤니케이션 능력 등도 갖추도록 해줬으면 좋겠다는 기대를 걸었다. 하 리더는 “오픈소스를 활용해 공동으로 개발하는 환경에 얼마나 잘 적응하는지도 중요하다”며 “AI대학원에서 개발 윤리에도 친숙해졋으면 좋겠다”고 말했다. 김 실장은 “AI는 발전속도가 빨라 오픈마인드도 중요하다”며 “또 자신이 만든 기술을 설명하고 설득하는 커뮤니케이션도 덕목이다”고 말했다.   하 리더는 “AI대학원에 기대하는 것 중 다른 것은 판을 바꿀 연구를 수행하는 것”이라며 “이를 산업계에 잘 녹도록 저희가 협력하는 것도 중요하다”고 말했다.[조승한 기자 shinjsh@donga.com]▶ 동아사이언스 비디오 구독하기▶ 네이버에서 동아사이언스 구독하기▶ 동아사이언스에 가서 뉴스 더보기ⓒ 동아사이언스 콘텐츠 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[이데일리 김소연 기자] 다음은 다음주(7월6~10일) 고용노동부의 주요일정 및 보도계획이다.지난 25일 이재갑 고용노동부 장관은 서울 명동 로얄호텔에서 올해 처음 시작하는 ‘일터혁신 CEO클럽’ 참여 기업 대표들과 함께 일터혁신 CEO클럽 발대식을 가졌다. 고용부 제공.◇주간일정△6일(월)10:00 고용노동 위기 대응 TF 대책회의(장·차관, 정부세종청사)15:00 산재예방 유공자 정부포상 전수 및 간담회(장관, 프레스센터)△7일(화)8:30 고용위기 대응반 회의(장관, 경사노위 대회의실)10:00 국무회의(장관, 청와대)14:00 혁신훈련기관 현장 방문(장관, 서울)19:00 OECD 고용노동장관 화상회의(장관, 서울지방고용노동청)△8일(수)10:30 사회적기업 현장방문(장관, 서울)△9일(목)8:00 경제중대본 회의 (장관, 정부서울청사)9:00 고용노동 위기 대응 TF 점검회의(차관, 서울지방고용노동청)10:30 차관회의(차관, 정부서울청사)14:00 대산산업단지 CEO 간담회(장관, 서울지방고용노동청)◇보도계획△5일(일)12:00 워라밸일자리 장려금 인상 지원수준 연장 및 요건완화12:00 2020년 2학기 ‘푸른등대 건설근로자공제회 기부장학금’ 신청하세요!△6(월)15:00 2020년 산재예방유공자 간담회 개최12:00 코로나19 이후 수도권 순유입 인구 2배 이상 증가14:00 한국장애인고용공단, 세종특별자치시교육청과 업무협약 체결12:00 제1회 대한민국 신직업·미래직업 아이디어 공모전 개최△7일(화)10:00 ILO 핵심협약 비준동의안, 국무회의 상정10:00 근로자직업능력 개발법 시행령 일부개정령안, 국무회의 상정10:00 가사근로자의 고용개선 등에 관한 법률 정부안 국무회의 상정12:00 특고 고용보험 적용 관련 ‘고용보험법·보험료징수법’ 입법예고14:00 이재갑 고용노동부 장관, 혁신교육기관·기업과 신기술 분야 실무인력 양성모델 모색15:00 국가자격정보, 카카오에서 확인 쉬워진다19:00 OECD 고용노동장관 화상회의 참석△8일(수)10:30 포용적 고용실천 사회적기업 현장방문11:00 한국산업인력공단, 기술혁신중소기업 일자리 창출에 힘쓴다12:00 사내 하청업체 다수사용 공공기관 및 민간 대형사업장 일제점검 결과 발표12:00 2020년도 노사문화 우수기업 선정 결과 발표15:00 한국장애인고용공단, 서울특별시교육청과 업무협약 체결△9일(목)9:00 워크넷, 직무역량 중심의 인공지능 일자리매칭서비스 오픈12:00 4차 산업혁명 시대 슬기로운 신중년 경력생활 플랫폼을 노려라14:00 대산산단 주요기업 최고경영자 간담회 개최15:00 노사발전재단·창업진흥원, 지역경제 활성화와 사회적 가치 실현의 이음을 향한 업무협약 체결△10일(금)13:00 성공적 경력개발과 경력전환을 위한 진로교육 전략김소연 (sykim@edaily.co.kr)네이버에서 ‘이데일리’ 구독하기▶청춘뉘우스~ 스냅타임▶＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t>총 456만명, 인플루엔자 무상접종…마스크 5000만장 추가 비축[헤럴드경제=배문숙 기자]3일 국회를 통과한 3차 추가경정예산에는 ‘코로나19’로 위축된 내수·수출·지역경제를 활성화하기 위해 농수산물 등 8대 소비쿠폰 제공등 다양한 재원이 포함됐다.포스트 코로나 시대의 경제 도약을 위한 '한국판 뉴딜' 사업의 추진 재원도 4조8000억원이 편성됐다. 4일 기획재정부에 따르면 정부는 3차 추경을 통해 확보한 5000억원으로 8대 할인소비쿠폰을 제공해 코로나19 충격에 따른 경기 침체 완화를 위한 소비 진작에 나선다.우선 농수산물, 관광, 숙박, 영화, 공연, 전시, 외식, 체육 등 8대 소비쿠폰 제공을 위해 1684억원을 쓴다. 소비쿠폰은 온·오프라인 상품·서비스 구매자에게 선착순으로 지급한다. 전 국민의 31%인 약 1618만명이 혜택을 본다.정부는 온누리상품권 발행 규모를 기존 3조원에서 1조원 더 확대한다. 지역사랑상품권은 6조원에서 9조원으로 3조원 더 늘린다.가전제품 소비 확대를 위해서는 구매액의 10%를 30만원 한도에서 환급해주는 '고효율 가전 환급' 대상 품목에 의류건조기를 추가하고, 관련 예산을 1500억원 늘린다.중·고교생과 60대 초반 연령대의 국민 총 456만명이 인플루엔자 무상접종을 받게 된다. 이를 위해 예산 489억원을 3차 추경에 포함했다. 당초 정부는 만 14~18세 중·고교생 235만명에게 265억원을 들여 무상접종을 하려 했으나, 국회 심사를 거치며 만 62∼64세가 추가돼 대상 인원이 확대됐다.보호구 772만개 등 방역 물품을 비축하기 위한 예산도 3차 추경에 반영됐다. 국회 심의 과정에서 마스크 5000만장 추가 비축을 위해 350억원의 예산을 추가로 늘렸다. 음압병상은 120병상을 더 늘린다.정부는 투자를 살리기 위해 200억원을 투입해 유턴기업 전용 보조금을 신설해 첨단산업이나 R&amp;D(연구·개발) 센터를 수도권에 두는 기업에 지원한다. 코로나19로 휘청이는 수출의 회복을 위해 '36조원+α(알파)' 규모의 무역금융도 확충한다.긴급한 안전 보강이 필요한 노후 터널, 철도, 건널목, 하천 등 SOC(사회간접자본) 투자에도 재정을 투입한다. 지방교부세 감액 정산으로 어려워진 지방재정의 여력을 확보하기 위해서는 1조1000억원으로 지방채 인수를 지원한다.코로나19로 폐업 위기에 처한 소상공인의 재기를 위해 점포철거비, 창업 교육 등을 추가로 지원하고, 자금 확보에 어려움을 겪는 소상공인·기술우수중소기업에 대한 보증을 강화하기 위한 예산도 3차 추경에 반영됐다.정부는 고용 유지, 생활 안정, 직접 일자리 공급, 실직자 지원 등 고용안정 특별대책 이행 지원을 위한 9조1000억원의 예산을 3차 추경에 포함했다. 총 321만명이 수혜를 볼 것으로 예상했다.우선 경영난에 빠진 기업이 감원 대신 휴업·휴직으로 고용을 유지할 때 지급하는 고용유지지원금을 87만명에게 지급하고, 특수고용직 종사자, 프리랜서, 영세 자영업자, 무급휴직자에게 1인당 150만원을 주는 긴급고용안정지원금을 114만명에게 지급한다.특히 코로나19 사태로 유급휴업·휴직에 들어간 기업에 대해 휴업·휴직수당의 90%까지 고용유지지원금으로 지급하는 특례 기간이 국회 심의 과정에서 정부안(4~6월)보다 석 달 늘어난 4~9월로 확정됐다. 이를 위해 5000억원을 추가 배정했다.청년·신혼부부를 대상으로 한 매입·전세임대주택은 당초 정부안보다 1500호 늘린 2800호를 공급하고, 만 34세 이하·연소득 3500만원 이하 취업준비생이나 중소기업 1년 이하 재직자가 쓸 수 있는 햇살론유스(youth)를 기존 1000억원에서 2000억원으로 늘린다.3차 추경에는 디지털 뉴딜, 그린뉴딜, 고용안전망 강화에 연내 총 4조8000억원을 투입하는 내용도 담겼다. 정부는 빅데이터 플랫폼을 15개로 늘리고 14만개의 공공데이터를 순차적으로 개방해 민간 기업의 연구·개발을 돕는다. 또 5G 국가망을 시범 실시하고 인공지능 분야 인재를 양성한다. 농어촌 1300곳에 초고속 인터넷망을 깔고 공공장소 WiFi 1만개를 설치한다.도시와 산업단지를 디지털화하는 예산은 4500억원이 담겼다. 주요 간선도로와 철도에 디지털 안전관리체계를 만들고 재난 대응 시스템을 구축할 계획이다. 노후 공공건축물 1만1000호를 리모델링하고 생활형 SOC의 에너지 효율을 높이는 사업에는 4000억원이 투입된다.녹색 기업 육성을 위한 정부 융자 지원 등에 3500억원을 쓴다. 정부는 또 기후변화에 대비해 저탄소·분산형 에너지 확산 분야에는 4700억원을 투입한다. 스마트미터기 40만호를 교체하고 태양광·풍력·LNG발전소 등 지능형 통합운영 플랫폼을 만들 계획이다.oskymoon@heraldcorp.com▶코리아헤럴드 플립화상영어 무료체험▶헤럴드경제 네이버 채널 구독 ▶농수축산물 소비캠페인 - Copyrights ⓒ 헤럴드경제 &amp; heraldbiz.com, 무단 전재 및 재배포 금지 -</t>
+  </si>
+  <si>
+    <t>[토요판] 장강명의 책 한번 써봅시다 18. 에세이 쓰기 (5) 삶을 사랑하는 태도와 나만의 철학좋은 에세이스트의 자질, 사랑뭐라도 애정하면 할 말 많아져통찰은 꾸준한 헤아림의 결과서론-본론-결론, 찬성·반대에초점 맞춰진 글 ‘잘 쓰기’ 교육넓고 새로운 생각의 길 내려면검색 대신 나만의 명언 써보고막연한 기분에 정확한 호명을일러스트레이션 이내에세이를 잘 쓰기 위해 가장 중요한 자질이 뭘까. 나는 ‘삶을 사랑하는 태도’라고 생각한다. 무언가를 사랑하면 그 대상을 유심히 헤아리게 된다. 그에 대해 할 말이 많아진다. 좋은 에세이에는 그렇게 삶에 대한 남다른 관찰과 애정이 담긴다.내게 있어서는 그것이 에세이를 읽는 이유이고, 좋은 에세이를 읽고 나면 저자에게 호감을 품게 되는 이유이기도 하다. 그런 점에서 소설과 다르다. 틀림없이 좋은 소설인데 읽고 나서 저자에 대해 무섭다거나 불쾌하다고 느끼는 경우도 있으니까. 훌륭하지만 섬뜩한 소설도 많다. 하지만 그런 에세이는 읽은 기억이 없다._________삶의 풍미는 자세히, 오래 볼수록그렇다고 글을 쓰기 위해 마음 수양을 하거나 도를 닦으라는 얘기는 아니다. 삶이라는 추상명사는 어디에나 존재하고 어디에도 존재하지 않는다. 세상의 모든 것이 삶의 부분 집합이다. 내가 무언가를 사랑한다면 곧 나는 삶을 사랑하는 것이다. ‘자세히 보아야 예쁘다, 오래 보아야 사랑스럽다’는 나태주 시인의 시처럼 그 대상을 자세히, 오래 보고 생각하는 시간을 갖기를 권한다. 그 대상은 현실에 존재하지 않는 것일 수도 있고, 과거에 있었다가 사라진 것일 수도 있다. 찾아보자.어떤 면에서는 에세이를 쓰는 것 자체가 그 훈련이다. 삶을 사랑하는 태도를 지녀야 좋은 에세이를 쓸 수 있지만, 동시에 에세이를 쓸수록 삶을 사랑하는 자세를 몸에 익히게 된다. 그래서 나는 모든 사람들이 에세이를 쓰는 사회를 꿈꾼다. 그게 내가 사랑하는 대상이다. 현실에 존재하지는 않지만.에세이에 꼭 사색과 철학을 더해야 할 필요는 없다고 생각한다. 주변 사물을 다정하게 관찰하고 희로애락을 진솔하게 드러내는 문장들만으로도 빼어난 산문이 된다. 신변잡기 유의 글도 좋다. 하지만 거기에 글쓴이가 오랫동안 고민해서 발전시킨 독창적인 사유가 몇 숟갈 들어간다면 금상첨화이지 않을까. 나는 당신의 에세이에서 삶을 향한 애정뿐 아니라 삶에 대한 남다른 통찰도 읽고 싶다.아쉽게도 우리의 글쓰기 교육이 그런 능력을 키워주는 것 같지는 않다. 논리력, 사고력을 키워준다는 논술 교육 대부분은 복잡하지 않은 주장을 한 시간 안에 서론-본론-결론의 꼴을 갖춰 써내는 데 초점을 맞춘다. 대학 입시부터 입사 시험까지 논술 평가의 틀이 거의 다 그러하기 때문이다. 독창적이고 참신하기보다는 무난하게 쓰는 전략이 효과적이다.신문사에 다닐 때에는 언론사 시험에 붙는 법에 대해 기자 지망생들의 질문을 자주 받았다. 답부터 말하자면 양비론을 피하고 문제를 받자마자 결론을 정한 뒤 한 방향으로 빨리 쓰는 게 좋다. 몇몇 수험생들의 오해와 달리 사상 검증과는 관련이 없다. 시험 단계로 따지자면 초기 관문이며, 회사의 중역들이 채점하지도 않는다. 이후에 면접에 들어가면 원점 기반에서 평가한다. 잘 쓴 글을 골라내는 게 아니라 못 쓴 글을 걸러내는 용도란 얘기다.이런 글을 ‘잘’ 쓰기 위해 기자 지망생들은 논술 스터디를 만들어 대비한다. 논술 학원에서 글을 가르치는 방식도 비슷하다. 스톱워치로 시간을 재면서 갑자기 맞닥뜨린 주제로 깔끔하게 시험지를 채우기 위해 애쓴다. 서론을 지나 본론으로, 1번 주장을 펼치고 1번 근거를 쓰고, 2번 주장 다음 2번 근거, 3번 주장이 있으면 그것도 근거와 함께 쓰고 그 뒤에 마무리 짓는 결론…. 그 짧은 시간에 복잡한 사유를 펼치려다가는 시간을 못 맞춘다. 물론 세상에는 그런 글도 필요하다. 하지만 에세이는 그런 식으로 배울 수 없다.에세이에 철학을 담는 법 얘기인데, 우리의 철학 교육은 어떨까. 간혹 십대를 위한 철학 입문서들을 훑다 보면 철학 책이 아니라 철학사 책이 아닌가 싶을 때가 많다. 소크라테스가 뭐라고 말했는데 플라톤은 뭐라고 했고 데카르트는 어땠고 칸트는 어쨌고…. 대철학자들의 사상이 하도 어마어마한지라 그 앞에서 내 생각을 쉽게 펼치기는 어렵다. 심지어 그들의 주장에 대한 비판과 반박까지 정리되어 있다.시사 이슈를 놓고 벌이는 토론 교육도 그렇다. 대개의 이슈는 찬성과 반대 두 가지로 편리하게 분해되며, 각 진영의 의견은 검색으로 금방 알 수 있다. 청소년들이 그렇게 사회 현안에 문제의식을 갖는 게 나쁜 일은 아니겠으되, 어째 그 틀이 음식점에서 세트 메뉴를 고르는 것과 비슷해 뵌다. 특히 학생들이 세상 모든 일이 찬반 두 가지 옵션으로 나눠지고 이후에 정반합이라든가 다수결이라든가 심사위원단 판정으로 해법이 나온다고 여기게 된다면 그것은 위험하다. 늘 새롭고 엉뚱한 길이 있다. 때로는 해법을 내지 않는 게 해법인 경우도 있다._________부디 ‘행복했다’에서 그치지 않기를에세이를 쓰다 보면 논설문을 쓰거나 토론을 할 때와는 다른 방식으로 사색가, 철학자가 될 기회가 생긴다. 사랑하는 대상의 여러 면을 오래 유심히 살피다 보면 자연스럽게 형이상학적인 유추를 하게 되기 때문이다. 인간은 늘 구체적인 현실에서 추상적인 사고로 도약할 수 있는 존재다. 정규 교육을 하루도 받지 못한 사람이라 해도 자기가 보고 듣고 겪는 일에 대해 속담을 적절히 인용할 수 있지 않은가. 어떤 인공지능도 아직 그런 일은 못 한다.속담을 인용하는 걸 넘어서, 나만의 격언, 금언을 만들면 어떨까. 거창한 작업이 결코 아니다. 인터넷에 돌아다니는 누구누구 어록이 다 현대판 속담들이고 미래의 격언이다. 어떤 상황에서 인간 본성이나 세상이 돌아가는 방식에 대한 깨달음이 있다면 남이 한 멋있는 말을 검색하기에 앞서 내가 짧고 굵게 표현해 보자. 애써 멋을 부릴 필요는 없다. ‘무언가를 사랑하면 그 대상을 유심히 헤아리게 된다’ 같은 단순한 문장이라도 좋다. 그런 일반화, 범주화 과정에서 저자의 사색과 철학이 담기게 된다.요즘은 일반화와 범주화를 폭력적인 기법으로 여기는 분위기가 있는 듯하다. 일반화 과정에서 개인, 그리고 개별적 상황의 특수함을 놓치게 된다는 지적은 옳다. 그러나 그것은 사고의 본질이기도 하다. 우리는 일반화, 범주화 없이 무언가에 대해 생각할 수 없다. ‘버스’라는 범주화된 개념이 없다면 낯선 사람이 운전하는 커다란 차를 어떻게 믿고 탈 수 있을까? 애초에 ‘일반화가 개별성을 희생시킨다’는 서술조차 일반화다.속담 다음은 사전을 만드는 단계다. 여러 추상명사들을 나만의 방식으로 정의해 보자. ‘맛있게 먹었다’에서 멈추지 말고 미식의 요건은 무엇인지에 대해 쓰고, ‘행복했다’에서 그치지 말고 행복이란 무엇인지에 대해 써보자. 그러려면 인생의 풍미와 즐거움의 의미에 대해 잠시 고민해야 할 것이다. 국어사전의 정의에 얽매이지 말자. 어차피 사전의 설명은 편의적이고 임시적이다. 단어의 뜻은 계속 변한다.나는 아내와 함께 했던 보라카이 여행기 &lt;5년 만에 신혼여행&gt;에서 ‘결혼의 핵심은 지키기 어려운 약속을 지키겠다는 선언에 있다’고 호기롭게 쓴 바 있다. 그 약속을 하는 연인의 성별이 같건 다르건 그런 건 문제되지 않는다고 생각했다. 하지만 서로 사랑한다는 커플이 같은 집에서 몇 년째 함께 사는 사이라고 해도 ‘우리 영원히 함께 하겠다’는 선언을 하지 않는다면 그것은 동거이지 결혼은 아니라고 생각했다. 결혼식을 얼마나 성대하게 치르느냐, 아예 예식을 올리느냐 마느냐 하고도 관련이 없다고 믿는다. 표준국어대사전에 나오는 ‘남녀가 정식으로 부부 관계를 맺음’이라는 설명과 다른, 나의 철학이다.구체적인 단상이 추상적인 사고로 발전하려는 간질간질한 순간을 느끼고 생각을 발전시키는 방법은 그 외에도 많을 것 같다. 어느 순간 찾아오는 막연한 기분에 정확한 이름을 붙이기, 책이나 영화에 대해 오독을 겁내지 않고 자유롭게 해석하기, 마음에 들지 않는 대상에게 가상의 변호사를 붙여주기, 내 안의 야당과 대화하기 등등. 중요한 것은 그 서사에서 주인공 자리에 내가 들어서야 한다는 것이다. 어느 철학자의 이론이라든가 한민족의 미래 같은 것이 아니라.나는 뇌에도 일종의 근육이 있지 않나 상상한다. 그리고 이 경우에도 역시 에세이를 쓰는 것 자체가 그 근육을 키우는 훈련이라고 믿는다. 사색을 자주 할수록 사색하는 힘이 커지고, 에세이를 쓸수록 나만의 철학이 딴딴하게 영근다.▶ 책 한권은커녕 다소 긴 탐사보도 기사조차 읽기 버거워하는 시대, 카드뉴스를 넘어 50초짜리 동영상이 글자를 대체하는 시대에 책이란 어떤 의미일까? 장강명 작가가 상상하는 ‘책 중심 사회’는 많은 이가 ‘지금, 여기’의 문제에 대해 책을 쓰고, 책을 통해 의견을 나누는 사회다. 책 쓰기가 우리 사회에 왜 이로운지를 함께 모색해보기 위해 장강명 작가가 ‘책 쓰는 법’을 격주로 연재한다.▶더불어 행복한 세상을 만드는 언론, 한겨레 구독하세요!▶네이버 뉴스판 한겨레21 구독▶2005년 이전 &lt;한겨레&gt; 기사 보기[ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 류준영 기자]  과학기술정보통신부과학기술정보통신부(이하 과기정통부)는 정부 3차 추가경정예산안이 국회 본회의를 통과함에 따라 디지털뉴딜(8139억원)·K-방역(397억원)·민간R&amp;D(연구·개발)지원(204억원) 등 총 8740억원의 소관 예산이 확정됐다고 밝혔다.특히 디지털 뉴딜 추경을 통해 데이터(Data)·네트워크(Network)·인공지능(AI)로 대변되는 지능화 DNA 생태계 강화, 디지털 포용 및 안전망 구축, 비대면 산업 육성, SOC(사회간접자본) 디지털화를 추진한다. 주요 투자내용으로는 DNA 생태계 강화는 국민생활과 밀접한 분야의 데이터 구축·개방(3819억원), 과학기술 데이터 수집·활용(704억원), 5G 기반 정부 업무망 고도화 및 클라우드 전환(443억원), 전 산업 5G·AI 융합 확산(1371억원), AI·SW 핵심인재 양성(246억원), 농어촌 초고속 인터넷망 구축 및 전국민 디지털역량 강화(1052억원), K-사이버 방역체계 구축(258억원), 비대면 비즈니스 디지털 혁신 기술개발(175억원), 사물인터넷(IoT)·AI 기반 ‘데이터 댐’ 구축(71억원) 등이다. K-방역 추경으로 신종 코로나바이러스 감염증(코로나19) 검진 시스템 개선과 치료제·백신 개발 등도 확대한다. 관련하여 코로나19 치료제·백신 개발, 한국형 방역 패키지 마련에 각각 175억원, 222억원을 투입한다. 민간R&amp;D지원으로는 고용위기를 맞은 기업 부설연구소에 R&amp;D 전문인력을 채용·활용할 수 있도록 204억원을 배정한다. 과기정통부는 추경사업이 조기 성과를 거둘 수 있도록 사업별로 절차를 간소화할 계획이라고 밝혔다. 코로나19 백신·치료제 개발 등 R&amp;D 사업은 수행기관 지정 또는 공모기간 단축을 통해 연구 착수까지 소요되는 기간을 최소화하고전 국민 디지털 역량 강화 교육 등 비R&amp;D사업은 조달청과 협의를 통해 사업자 선정 시기를 앞당길 방침이다. 과기정통부 측은 “사회 전반의 비대면화와 디지털 전환이 가속화 되고 있다”며 “이번 추경을 통해 온라인 플랫폼 기반 교육, 원격근무 등 비대면서비스 등 중장기 추진과제도 조기 시행할 계획”이라고 말했다. 류준영 기자 joon@▶줄리아 투자노트▶조 변호사의 가정상담소 ▶머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>하나금투, 연내 AI 자산관리 플랫폼 구축신한금투, 그룹사들과 데이터 신사업 전략 컨설팅[이데일리 유현욱 기자] 오는 8월 5일 본격 시작하는 마이데이터 사업을 두 달여 앞둔 지난달 26일 서울 은행회관에서 마이데이터 포럼이 열렸다. 이날 손병두 금융위원회 위원장은 “금융회사, 정보통신기술(ICT) 기업, 핀테크(금융+기술) 기업 모두 소비자의 편익을 극대화하기 위해 보유하고 있는 소비자 정보를 최대한 개방해야 한다”면서 “정부도 규제차익 없이 공정하게 경쟁할 수 있는 환경을 조성하는 데 관심을 가지겠다”고 말했다.그동안 핀테크에 의한 금융서비스 혁신 속도가 뒤처진다는 평가를 받아온 금융투자업계. 새 먹을거리인 마이데이터 사업에서는 다를 것이라면서 벌써 진검 승부를 예고하고 있다. 주요 증권사들의 준비상황을 정리했다.하나금융투자는 지난 4월 개인 맞춤형 종목추천 서비스 ‘빅데이터픽’을 출시한 데 이어 지난 5월 마이데이터 사업 진출에 도전장을 내밀고 AI 기반의 개인화된 금융서비스 제공을 위해 연내 인공지능(AI) 플랫폼을 구축할 계획이다. 이를 위해 데이터 표준 API 워킹그룹으로 참여하고 있었던 하나금융투자는 금융위원회가 지난 5월 실시한 금융분야 마이데이터 허가 수요조사에 금융투자 부문으로 수요조사서를 제출했다. 데이터 표준 API 워킹그룹은 금융당국이 전통 금융회사, 핀테크회사 등 관계자들과 마이데이터 산업 안착을 위해 개인신용정보 제공범위, API 과금체계 및 규격 등을 논의하기 위해 지난해 4월에 만든 회의체다.하나금융투자는 디지털 경쟁력 강화를 위해 하나금융그룹 내 하나은행, 하나카드와 함께 데이터 전략부서를 신설했다. 연내 방대한 양의 데이터를 처리할 수 있고 머신러닝과 딥러닝 기술 도입이 가능한 AI데이터 분석 플랫폼을 구축한다는 계획이다.최일용 하나금융투자 디지털본부장은 “손님은 자신의 데이터에 대한 주권을 되찾고 기업은 손님의 관심사와 투자 성향에 맞는 개인화된 자산관리 서비스를 제공할 수 있다”며 “올해 하반기 내에 AI플랫폼이 구축되면 그동안 일부 VIP 손님에게만 제공되던 자산관리정보를 디지털로 전환하여 손님 모두에게 제공할 수 있을 것”이라고 말했다.신한금융투자는 신한금융그룹 계열사인 신한생명, 오렌지라이프 등과 함께 데이터 신사업 전략에 대한 외부 업체의 컨설팅을 받기로 했다. 신한금융투자가 마이데이터 사업 전략과 관련해 컨설팅을 받기로 결정한 것은 기존 금융사를 비롯해 핀테크 업체, 비금융사 등이 마이데이터 사업에 관심을 보이고 있는 와중에 보다 차별화한 전략으로 마이데이터 시장을 선점하기 위한 것으로 보인다. 앞서 신한금융투자는 올해 초 디지털 경쟁력 강화를 위해 전 직원 코딩 교육을 실시하고 디지털 담당부서의 승격과 플랫폼 및 ICT 관련 부서 신설 등 내용을 포함하는 조직개편을 단행하기도 했다.한화투자증권은 지난 2018년 7월 100억원의 자금을 출자해 빅데이터 분석 전문 자회사 ‘데이터애널리스틱랩’을 출범한 바 있다. 데이터애널리스틱랩은 현재 다양한 연구와 사업을 진행해 한화투자증권을 비롯한 여러 금융사를 지원하고 있다. 주요 연구분야는 빅데이터 분석 컨설팅, 빅데이터 분석/활용을 통한 비대면 채널 고도화, 차별화된 개인화 콘텐츠와 투자정보 제공 등이다. 또한, 뉴스나 소셜네트워크서비스(SNS) 등에서 수집한 트렌드 정보와 소비자의 카드/통신 이용 명세 등 다양한 정보를 수집, 분석해 고객사에 제공하고 있다.NH투자증권은 마이데이터 산업 활성화 일환으로 지난해 말 증권업계 최초로 핀테크업체 레이니스트와 제휴를 통해 발행어음 특판상품을 판매했다.△마이데이터란개인이 자신의 정보를 적극적으로 관리·통제하는 것은 물론 이러한 정보를 신용이나 자산관리 등에 능동적으로 활용하는 일련의 과정을 말한다. 마이데이터를 이용하면 각종 기관과 기업 등에 분산돼 있는 자신의 정보를 한꺼번에 확인할 수 있으며, 업체에 자신의 정보를 제공해 맞춤 상품이나 서비스를 추천받을 수 있다. 각 개인은 마이데이터를 통해 각종 기업이나 기관 등에 흩어져 있는 자신의 정보를 한꺼번에 확인할 수 있고, 자발적으로 개인정보를 제공하면 이를 활용해 맞춤 상품이나 서비스를 추천받을 수 있다.유현욱 (fourleaf@edaily.co.kr)네이버에서 ‘이데일리’ 구독하기▶청춘뉘우스~ 스냅타임▶＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 김고금평 기자] [[따끈따끈 새책] ‘코로나 시대, 부의 흥망성쇠’…변화하는 산업구조, 살아남을 방법은 무엇일까]코로나19 시대엔 어떤 산업이 부상할까. 코로나 시대 떠오르는 산업과 쇠퇴해가는 산업을 제대로 아는 것은 개인의 흥망성쇠와도 바로 연결이 된다는 점에서 눈여겨볼 필요가 있다.이번 위기로 새롭게 조명받는 분야는 홈코노미다. 그간 말만 무성하고 현실적 제약이 강했던 원격 의료나 원격 근로, 나아가 기타 다양한 ‘언택트’ 경제 등이 전방위적으로 확산하고 있다.양적 성장이 불가능해지면 새로운 성장 방법을 모색해야 한다. 대폭적인 기업체 인센티브 제공으로 투자를 유도하거나 외국인 이민을 받아들여서 노동 투입을 유지하는 것도 하나의 방법.또 정책의 우선순위를 성장에서 분배로 전환해 성장의 품질을 높이는 방법도 생각해볼 수 있다. 다만 한국경제는 아직 이에 대한 사회적 합의에 도달하지 못한 상황이다.코로나19 확산에 따른 주요국 공장의 연쇄적 셧다운으로 적시공급(just-in-time) 시스템의 취약점이 부각됐다. 이에 따라 기업은 재고 확대 및 소재·부품의 공급선 다변화로 위험을 분산할 유인이 확대됐고 이는 글로벌 밸류체인 약화를 가져올 수 있다. 글로벌 경기침체는 보호무역주의의 강화를 이끌 가능성도 높다.코로나19로 매력도가 높아진 시장은 에듀테크 분야다. 중장기적으로도 안정 성장을 지속할 전망이다. AI(인공지능), AR(증강현실), VR(가상현실), IoT(사물인터넷) 기술과 융합한 에듀테크는 교육산업의 신성장 동력으로 평가된다.스마트폰과 태블릿 PC 등 모바일 기기에 친숙한 디지털 원주민이 주요 학력층으로 등장하면서 에듀테크 시장의 성장을 지지하는 가운데, 블렌디드 러닝(오프라인 수업 시 온라인 학습을 병행)이나 플립 러닝(온라인 선행학습 이후 오프라인에서 토론) 등의 온오프라인 혼합 교육 방식이 적극 활용될 것이다.전문가들은 창의적인 인재 양성이라는 목표하에 1인당 교육비 상승 및 평생교육 니즈 확대로 ICT 기반의 에듀테크가 교육산업의 성장을 주도할 것이라고 기대하고 있다.ESG(환경·사회·지배구조) 투자는 이미 전 세계에서 활발히 진행 중이다. 글로벌지속가능투자연합(GSIA)에 따르면 2018년 전 세계 ESG 투자 규모는 약 30.7조 달러로 2016년 22.8조 달러 대비 약 34% 증가했다. ESG 투자 자산 중 가장 높은 비중을 차지하는 자산은 주식으로, 전체 ESG 투자 자산 중 절반가량을 차지했다.코로나 시대엔 지난 2013년부터 실시했지만 이렇다 할 성과를 보이지 못한 ‘유턴기업 지원제도’를 이용하려는 국내 기업도 늘어날 것으로 전망된다. 장기적으로 글로벌 공급망 리스크를 줄이기 위해서다.     ◇코로나 시대, 부의 흥망성쇠=장보형, 김영준 등 지음. 시목 펴냄. 300쪽/1만6800원.김고금평 기자 danny@mt.co.kr▶줄리아 투자노트▶조 변호사의 가정상담소 ▶머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>정부안에서 185억원 줄어..3개월 내 75% 이상 집행데이터, 클라우드와 5G, AI 등 디지털 뉴딜에 8139억원K-방역에 397억원..민간 R&amp;D 지원에 204억원[이데일리 김현아 기자]▲미래통합당 이종배 정책위의장이 3일 서울 여의도 국회에서 열린 본회의에서 의사진행 발언을 마치고 밖으로 나서고 있다.(사진=연합뉴스)국회가 어제(3일) 본회의를 열고 사상 최대인 35.1조원 규모의 3차 추가경정예산안(추경안)을 처리했다. 이번 추경은 글로벌 금융위기 당시인 2009년 추경(28조4000억원)을 넘는 역대 최대 규모인데다 한해에 3차례 추경을 편성하는 것은 1972년 이후 48년 만이다. 정부안에서 2000억원 삭감됐지만, 미래통합당의 전원 불참 속에 더줄어민주당 단독으로 처리됐다. 정의당은 추경 심사가 졸속으로 진행됐다며 기권표를 던졌다. 한국판 뉴딜 4.8조 중 과기정통부 예산 8740억원한국판 뉴딜을 위한 예산으로 4조8000억원이 정해했고, 이 중 신기술 개발과 비대면 시대 신기술 적용을 앞당기는 과학기술정보통신부 예산은 8740억원이다. 정부안에서 8925억에서 185억원이 줄었다.정부는 3개월 내 주요 사업의 75% 이상을 집행한다는 계획이어서, 과기정통부도 예산 사업에 대한 공고가 이달 중 여럿 나올 전망이다.▲과기정통부 로고디지털 뉴딜에 8139억원 과기정통부 3차 추경 중 디지털 뉴딜 분야가 가장 크다.[데이터]디지털 뉴딜의 원료인 데이터 예산이 가장 많다.구체적으로는 ▲인공지능 학습용 데이터 구축 (2925억원)을 통해 코로나19 이후 경기침체를 극복하기 위해 일자리 창출 효과가 크고 AI모델 개발에 필수적인 AI 학습용 데이터를 확대 구축·개방한다. AI 학습용 데이터 150종이다.▲빅데이터 플랫폼·센터 구축 (405억원)을 통해 각종 데이터를 수집·분석·유통하는 5개 분야별 빅데이터 플랫폼과 이와 연계된 센터를 추가 50개 구축(100→150개)한다. 기존에 금융, 환경, 문화, 교통, 헬스케어, 유통, 지역경제 등 10개 센터가 있었다.▲AI 데이터 가공 바우처 (489억원)를 공급해 중소기업 등 비즈니스 경쟁력을 높이고 ▲과학기술 데이터 수집·활용을 위해 바이오 데이터 인프라 구축 및 데이터 엔지니어 양성(264억원)에도 나선다.▲소재연구데이터 플랫폼 구축 및 전문인력양성 (80억원)▲연구실 취급 물질 정보 DB 구축 및 연구실 안전시스템 고도화 (64억원)▲과학기술 기계학습 데이터 구축 (296억원) 예산도 정해졌다.[5G와 클라우드]디지털 뉴딜의 백본 역할을 하는 ▲5G 기반 공공분야 업무환경 실증 및 선도적용 (100억원)과 ▲범부처 협업을 통한 클라우드 혁신 사례 창출 (343억원)에 나선다. 제조, 유통/물류 등 산업·공공분야에 필요한 핵심 클라우드서비스를 개발·보급(5개 분야·250억원)하고, 중소기업들이 활용할 수 있도록 클라우드 도입 컨설팅과 바우처(400개 기업) 지원한다.[AI] ▲AI 바우처 (560억원)을 통해 AI 솔루션 구매·적용 등을 지원하는 바우처 사업을 통해 기존 산업과 AI 융합을 통한 신시장 가치 창출(200개 기업 추가지원)에 나서고, 새로운 수요 창출형 AI융합 프로젝트(AI+X) (211억원)에도 나선다.부처 간 협업으로 경제적 파급효과와 국민 체감도가 높은 전략분야의 대규모 데이터를 기반으로 AI를 활용하여 新수요를 만든다. 의료영상 진료ㆍ판독 시스템, 해안경비 및 지뢰탐지시스템, 신규 감염병 대응시스템 등 7개 과제다.[5G 융합서비스와 핵심인재 양성]▲5G 융합서비스 발굴 및 공공선도 (400억원), VR·AR 콘텐츠 제작지원 (200억원)에 나선다. 또, ▲ ICT 이노베이션스퀘어 조성 (200억원)에 나서 신기술교육, SW개발 및 창업지원 등을 통해 지역산업 고도화 및 지역 AI·SW인력부족 해소 추진(3,600명 → 6,600명)한다.산업전문인력 AI 역량 강화 (36억원)와 자기주도 학습 기반의 혁신적인 SW 인재 양성 (10억원)에도 나선다.[디지털 포용 및 안전망 구축]▲지역 통신망 고도화(농어촌 통신망 고도화)(31억원)를 통해 인터넷이 미설치된 도서 벽지 등 농어촌 마을(650개)에 초고속인터넷망을 구축한다. ▲공공와이파이 품질 고도화 및 확대 구축 (518억원)에 나서며 ▲전 국민 디지털 역량강화 교육 (503억원)에도 나선다. 기차표 예매, 모바일금융 등 디지털 활용교육, 디지털 윤리, 데이터 리터러시 등 일상생활에서 필요한 디지털 종합역량 교육을 하는 것이다.K-사이버 방역의 고도화를 위해 ▲원격 보안점검 체계 구축 (33억원)에 나서 초·중·고 학생, 재택근무자 등 사이버 공격 우려가 큰 사용자 PC를 대상으로 원격에서 보안 점검·조치 체계를 만든다.이용자 신청(☏118)시 원격으로 점검(백신설치, 보안설정, 보안 업데이트 여부 등)하고 조치사항을 안내하여 안전한 인터넷 이용 환경을 조성한다.▲비대면 서비스 보안강화 지원( 45억원)에 나서 보안에 취약한 중소기업 정보보호 시스템 고도화 지원(500개 기업)에 나서며▲디지털인프라(SW)의 안전 실태 점검 및 개선(30억원)▲공공·민간 통신망에 대한 양자암호통신망 시범 적용 (150억원)에도 나선다.[비대면 비즈니스 핵심기술 개발]▲비대면 비즈니스 구현을 위한 ICT 핵심 기술개발 (175억원)에 나서 특화 모델을 발굴하고 이를 위해 필요한 현재기술의 한계(Gap) 극복 기술 및 서비스 연계와 응용 기술 개발에 나선다. u-work(비즈니스), u-education(교육), u-medical(의료), u-commerce(소비)등이다.바우처를 통해 기존 비대면 비즈니스 기술을 보유한 기업 중 현장수요를 기반으로 단기 사업화 및 고도화가 필요한 기업을 선정하여 특화 지원한다.K-방역에 397억원▲IoT와AI기반 新 데이터댐 구축 (71억원)과 ▲코로나19 치료제·백신 개발 지원 (175억원)에 나선다. 국내 기업, 출연연 등이 보유하고 있는 코로나19에 효능이 있는 치료제·백신 후보물질이 신속하게 임상으로 연계될 수 있도록 지원한다. 치료제·백신 개발(50억원), 모델동물실험(85억원), 독성평가(40억원)가 이뤄진다.▲한국형 방역 패키지 개발 (222억원)에도 나서는데, KAIST 플랫폼을 활용해 학계·연구계·산업계에 흩어져 있는 기술역량을 결집, 감염병 대응 솔루션을 기업과 함께 개발하고 글로벌 산업을 추진한다. 해당 사업은 KT와 빌게이츠 재단의 감염병 관리 솔루션과 연결될 전망이다. 민간 R&amp;D 지원에 204억원▲우수 중소기업 부설연구소 대상 기본연구과제를 지원한다(204억원). 코로나19로 어려움을 겪고 있는 기업연구소(400개)의 R&amp;D활동 유지 및 핵심연구인력 고용 유지를 위해 기본연구과제를 지원한다.조기 집행 위해 절차 간소화 과기정통부는 국회 통과 후에 추경사업이 신속하게 집행되어 조기 성과를 거둘 수 있도록 사업별로 절차를 간소화할 계획이다.코로나19 백신·치료제 개발 등 R&amp;D 사업은 수행기관 지정 또는 공모기간 단축을 통해 연구 착수까지 소요되는 기간을 최소화한다.전 국민 디지털 역량 강화 교육 등 비 R&amp;D 사업은 조달청과 협의를 통해 사업자 선정 시기를 앞당길 예정이다.김현아 (chaos@edaily.co.kr)네이버에서 ‘이데일리’ 구독하기▶청춘뉘우스~ 스냅타임▶＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">										●18세기의 방(정병설·이주은·신희륜 외 지음)=조선시대 상층 여성의 거주 공간, 영국 침실로 들어온 인도 면직물 등 한국 18세기학회에서 활동하는 인문학자 스물일곱 명이 ‘방’을 키워드로 18세기 동서양의 주택구조, 인테리어 변화 등을 추적한다. 문학동네, 2만5000원.●무서운 의학사(이재담 지음)=이재담 서울 아산병원 교수의 '에피소드 의학사' 3부작 중 첫 권. 20년간 각종 매체에 연재했던 글을 '무서운'이라는 키워드로 집대성했다. 사이언스북스, 2만2000원.●페르메이르(전원경 지음)='진주 귀고리 소녀'를 그린 네덜란드 화가 페르메이르의 작품을 톺아보며 델프트와 암스테르담, 헤이그에서 빈과 런던까지 그의 흔적을 따라나선다. 아르테, 1만8800원.●사일런트 브레스(미나미 교코 소설)=종합병원서 일하다 좌천에 가까운 전근 명령을 받고 도쿄 변두리에 있는 조그마한 방문 클리닉으로 출근해 죽음을 앞둔 환자들의 진료를 담당하게 된 내과 의사 미토 린코, '한 명이라도 더 환자를 구하는 것이 의사의 사명'이라 믿었던 그간의 신념을 조금씩 수정하게 되는데…. 북스피어, 1만4800원.●아이의 뇌는 스스로 배운다(셀린 알바레즈 지음)=폭넓은 자율 속에서 성장한 아이와 엄격한 규율로 가르친 아이 중 누가 더 잘 자랄까? 뇌과학을 기초로 프랑스 빈민지대의 한 공립 유치원서 시행한 '자율 교육' 실험을 소개하며 아이들의 '배움 본능'과 '선한 본성'에 맞춤한 교육을 시행하라고 주장한다. 열린책들, 1만8000원.●기억하는 몸(이토 아사 지음)=시각 장애, 팔다리 절단, 말더듬, 치매 등 의학적·사회적 장애가 있는 열두 명을 심층 인터뷰해 기억과 몸, 정체성의 관계를 밝혔다. 현암사, 1만6000원.●연금밖에 없다던 김부장은 어떻게 노후걱정이 없어졌을까(김웅철 지음)=초고령 사회 일본의 은퇴 선배들의 가슴 절절한 후회담, 통념을 깨뜨린 대처법 등을 꼼꼼히 분석해 은퇴 후 미래를 바꾸는 42가지 법칙으로 정리했다. 부키, 1만4800원.●인공지능을 이기는 영어(박시수 지음)=영자 신문 기자인 저자가 해외에서 영어 관련 정규교육을 받은 경험 없이 오직 ‘노력’으로 토익 점수 300점대 실력에서 영어로 취재하고 기사를 쓰게 된 비법을 공개한다. 유아이북스, 1만3800원 		▶ 네이버에서 조선일보 받아보기		▶ 조선일보 로그인하고 영화 공짜로 보자! 		▶ ‘메가 온라인 콘퍼런스, ALC’ 지금 등록하세요</t>
+  </si>
+  <si>
+    <t>코로나19 이후는 ‘딥택트’가 지배온-오프 연결하는 산업 최적점이 경쟁력동물원의 폐쇄적 규율 같은 정부 규제자생적 진화하는 미래산업 뿌리 뽑아서야김경준 딜로이트 컨설팅 부회장“2년 걸릴 디지털 변혁이 최근 2개월 만에 일어나는 것을 목격했다.” 마이크로소프트 최고경영자(CEO)인 사티아 나델라가 5월 개발자 회의에서 토로했듯이 신종 코로나바이러스 감염증(코로나19)의 충격은 변화를 가속화시키고 있다. 전염을 방지하기 위해 시행된 공공장소 폐쇄, 자가 격리, 사회적 거리 두기 등의 영향으로 비대면, 언택트(Untact)가 급부상했다. 소매점의 키오스크, 챗봇 등을 활용한 서비스 제공에서 출발한 비대면 방식은 교육, 의료, 근무 형태 등 사회 경제 전반으로 확산되고 있다. 호모 사피엔스는 접촉(tact)과 협력이 특징이다. 자연 상태의 의사소통은 직접 대면하는 콘택트(Contact) 방식이었다. 이후 기술과 문명의 발전은 콘택트의 한계를 언택트로 넘어서는 방향이었다. 우리가 과거의 현인들과 소통할 수 있는 것도 비대면 도구인 문자 덕택이다. 다만 디지털 시대의 언택트는 플랫폼, 빅데이터, 인공지능(AI)과 결합되어 글로벌 실시간 융복합 형태로 증폭되는 측면에서 구별된다. 최근 코로나19로 직접 콘택트 교류가 차단되면서 간접 언택트가 강요된 상황은 소비자 경험과 공급자 경쟁 구도에서 새로운 지평을 열었다. 예상외로 높은 수준의 만족도와 효율성이 검증되었기 때문이다. 그러나 호모 사피엔스에게 직접적이고 강력한 콘택트의 장점은 여전히 존재한다. 이런 배경에서 언택트와 콘택트가 상호보완적으로 결합되는 딥택트(Deeptact) 방식이 포스트 코로나 시대의 뉴노멀이 될 것이다. 향후 인간 생활과 사업 모델은 아날로그적 콘택트와 디지털적 언택트의 최적 조합인 딥택트를 추구하는 방향으로 진행되리라 예상한다. 업종과 영역을 불문하고 콘택트와 언택트, 온라인과 오프라인을 결합하는 딥택트의 최적점 설정은 당면한 중요 과제다.  불가피한 상황에서 실행되었던 재택근무가 전형적 사례다. 실제 경험을 통해 재택근무와 회사 근무는 양자택일, 상충적이 아니라 상호보완적으로 결합될 잠재력을 확인하였다. 앞으로 각종 조직에서 인력 운영의 중요한 과제는 내부 기능별로 업무 효율성, 비용 적합성, 직원 만족도 등을 감안하여 양자를 결합시키는 최적점의 설정과 실행이다. 원격교육이 실시되었던 교육 분야도 마찬가지이다. 오프라인과 온라인이 보완적으로 결합하여 학습효과를 극대화시키면서 비용 효율성도 확보할 가능성을 보여주었다. 온라인 경쟁자들의 거센 도전에 직면한 오프라인 사업자들의 경우 미국의 대형할인점 월마트 사례가 좋은 본보기이다. 온라인 유통사업자의 급성장으로 오프라인 영역의 JC페니 시어스 카슨스가 파산하는 가운데 월마트의 매출과 이익은 증가하고 있다. 급기야 5월에 이베이를 제치고 아마존에 이어 미국 온라인 유통기업 2위로 올라선 비결은 오프라인 매장과 온라인 서비스의 결합이었다. 온라인 주문 후 매장 수령, 생필품 2시간 배달, 전 직원 퇴근 배송제 등 아마존에는 없고 월마트에는 있는 매장의 콘택트 장점을 디지털 기술로 극대화시키는 옴니채널 딥택트 전략이 주효했다. 디지털 시대의 특징은 경계의 종말이다. 앞으로 전개될 딥택트의 흐름에서는 온라인과 오프라인의 구분도 무의미해질 것으로 전망된다. 아날로그 산업들이 동물원의 울타리 안에서 구획되었다면 디지털 시대는 대평원에서 경쟁하고 교류하며 협력하는 생태계에 비유된다. 기업 경영은 물론이고 정부 규제의 기본 관점도 동물원의 폐쇄적 규율에서 대평원의 개방적 원칙으로 패러다임 전환이 필요하다. 그러나 정책당국은 디지털 생태계를 아날로그 동물원으로 회귀시키는 퇴행적 관점에 매몰되어 있다. 최근 발표된 플랫폼 사업자 규제 방안이 대표적이다. 아날로그 시대의 갑과 을, 강자와 약자라는 단순 도식으로 디지털 생태계를 재단하여 좁은 틀에 가두려 한다. 공정을 명분으로 기존 사업자의 스타트업 인수합병(M&amp;A)을 제한하는 방안도 창업자 자금 회수의 걸림돌이 되어 당초 의도와 달리 젊은 세대의 창업 의욕을 저하시킬 위험성이 높다. 모두 실패한 부동산 정책의 변주곡을 보는 느낌이다. 시장의 역동적인 질서를 부인하고, 자발적 거래 당사자를 선악의 잣대로 구분하여 좁은 규제의 울타리에 가두어서 통제한다는 발상은 혼란만 가중시키고 있다. 언택트, 딥택트가 상징하는 오늘날의 격변기에 기업 경영은 물론이고 정부의 규제도 패러다임 전환이 필요하다. 아날로그 동물원의 사고방식으로 디지털 생태계를 규율하려는 접근으로 그나마 자생적으로 진화하는 미래산업의 뿌리를 뽑지나 않을지 우려된다. 　김경준 딜로이트 컨설팅 부회장▶ 네이버에서 [동아일보] 채널 구독하기▶ 집 볼 때 쓰는 메모장 '집보장'ⓒ 동아일보 &amp; donga.com, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		(세종=연합뉴스) 김연정 정수연 기자 = 3일 국회를 통과한 35조1천억원 규모의 3차 추가경정예산(추경)에는 신종 코로나바이러스 감염증(코로나19)으로 위축된 내수·수출·지역경제를 활성화하기 위한 다양한 재원이 포함됐다.    포스트 코로나 시대의 경제 도약을 위한 '한국판 뉴딜' 사업의 추진 재원은 정부안보다 3천억원 삭감된 4조8천억원으로 편성됐다. 8대 할인소비쿠폰 제공·온누리상품권 1조 추가 발행    정부는 3차 추경을 통해 확보한 5천억원으로 8대 할인소비쿠폰을 제공하고 온누리상품권을 추가 발행하며 고효율 가전할인을 확대하는 등 코로나19 충격에 따른 경기 침체 완화를 위한 소비 진작에 나선다.    우선 농수산물, 관광, 숙박, 영화, 공연, 전시, 외식, 체육 등 8대 소비쿠폰 제공을 위해 1천684억원을 쓴다.    소비쿠폰은 온·오프라인 상품·서비스 구매자에게 선착순으로 지급한다. 전 국민의 31%인 약 1천618만명이 혜택을 본다.         정부는 온누리상품권 발행 규모를 기존 3조원에서 1조원 더 확대한다.    지역사랑상품권은 6조원에서 9조원으로 3조원 더 늘린다.    가전제품 소비 확대를 위해서는 구매액의 10%를 30만원 한도에서 환급해주는 '고효율 가전 환급' 대상 품목에 의류건조기를 추가하고, 관련 예산을 1천500억원 늘린다. 소비쿠폰 풀고 카드공제 늘리고…내수 회복 총력전 (CG)[연합뉴스TV 제공] 인플루엔자 무상접종 456만명 확대    중·고교생과 60대 초반 연령대의 국민 총 456만명이 인플루엔자 무상접종을 받게 된다. 이를 위해 예산 489억원을 3차 추경에 포함했다.     당초 정부는 만 14~18세 중·고교생 235만명에게 265억원을 들여 무상접종을 하려 했으나, 국회 심사를 거치며 만 62∼64세가 추가돼 대상 인원이 확대됐다.    보호구 772만개 등 방역 물품을 비축하기 위한 예산도 3차 추경에 반영됐다. 국회 심의 과정에서 마스크 5천만장 추가 비축을 위해 350억원의 예산을 추가로 늘렸다. 음압병상은 120병상을 더 늘린다.     정부는 재난대응 역량 강화를 위해 목적예비비를 1조1천600원 확충했다. 유턴기업 전용 보조금 신설…수출 회복 위해 무역금융 확충      정부는 투자를 살리기 위해 200억원을 투입해 유턴기업 전용 보조금을 신설해 첨단산업이나 R&amp;D(연구·개발) 센터를 수도권에 두는 기업에 지원한다.    코로나19로 휘청이는 수출의 회복을 위해 '36조원+α(알파)' 규모의 무역금융도 확충한다.      긴급한 안전 보강이 필요한 노후 터널, 철도, 건널목, 하천 등 SOC(사회간접자본) 투자에도 재정을 투입한다.    지방교부세 감액 정산으로 어려워진 지방재정의 여력을 확보하기 위해서는 1조1천억원으로 지방채 인수를 지원한다.     코로나19로 폐업 위기에 처한 소상공인의 재기를 위해 점포철거비, 창업 교육 등을 추가로 지원하고, 자금 확보에 어려움을 겪는 소상공인·기술우수중소기업에 대한 보증을 강화하기 위한 예산도 3차 추경에 반영됐다.내일부터 무급휴직 긴급지원…최대 150만원 지급 (CG)[연합뉴스TV 제공] 고용유지지원금 '90% 지급' 기간 4~9월로 석달 늘려       정부는 고용 유지, 생활 안정, 직접 일자리 공급, 실직자 지원 등 고용안정 특별대책 이행 지원을 위한 9조1천억원의 예산을 3차 추경에 포함했다. 총 321만명이 수혜를 볼 것으로 예상했다.    우선 경영난에 빠진 기업이 감원 대신 휴업·휴직으로 고용을 유지할 때 지급하는 고용유지지원금을 87만명에게 지급하고, 특수고용직 종사자, 프리랜서, 영세 자영업자, 무급휴직자에게 1인당 150만원을 주는 긴급고용안정지원금을 114만명에게 지급한다.     특히 코로나19 사태로 유급휴업·휴직에 들어간 기업에 대해 휴업·휴직수당의 90%까지 고용유지지원금으로 지급하는 특례 기간이 국회 심의 과정에서 정부안(4~6월)보다 석 달 늘어난 4~9월로 확정됐다. 이를 위해 5천억원을 추가 배정했다.    구직급여 지급 대상은 49만명 더 확대됐다.     청년·신혼부부를 대상으로 한 매입·전세임대주택은 당초 정부안보다 1천500호 늘린 2천800호를 공급하고, 만 34세 이하·연소득 3천500만원 이하 취업준비생이나 중소기업 1년 이하 재직자가 쓸 수 있는 햇살론유스(youth)를 기존 1천억원에서 2천억원으로 늘린다.    코로나19 사태로 인한 등록금 반환·감면 대학에 대해서는 실질적 자구노력을 통해 등록금 반환, 장학금 등을 지원한 대학에 한해 비대면 교육, 교육환경 개선 목적의 예산을 총 1천억원 한도에서 지원하기로 했다. 한국판 뉴딜 (PG)[장현경 제작] 일러스트 '한국판 뉴딜' 4.8조 투입 첫발…전국 초중고에 와이파이     3차 추경에는 디지털 뉴딜, 그린뉴딜, 고용안전망 강화에 연내 총 4조8천억원을 투입하는 내용도 담겼다.    정부는 빅데이터 플랫폼을 15개로 늘리고 14만개의 공공데이터를 순차적으로 개방해 민간 기업의 연구·개발을 돕는다. 또 5G 국가망을 시범 실시하고 인공지능 분야 인재를 양성한다.     농어촌 1천300곳에 초고속 인터넷망을 깔고 공공장소 WiFi 1만개를 설치한다.     정부는 또 7천500억원을 투입해 포스트 코로나 시대를 대비해 전국 초·중·고교에 원격교육 인프라를 확충하고 중소기업의 원격근무 시스템을 만들기로 했다.    도시와 산업단지를 디지털화하는 예산은 4천500억원이 담겼다. 주요 간선도로와 철도에 디지털 안전관리체계를 만들고 재난 대응 시스템을 구축할 계획이다.    노후 공공건축물 1만1천호를 리모델링하고 생활형 SOC의 에너지 효율을 높이는 사업에는 4천억원이 투입된다.     녹색 기업 육성을 위한 정부 융자 지원 등에 3천500억원을 쓴다.     정부는 또 기후변화에 대비해 저탄소·분산형 에너지 확산 분야에는 4천700억원을 투입한다. 스마트미터기 40만호를 교체하고 태양광·풍력·LNG발전소 등 지능형 통합운영 플랫폼을 만들 계획이다.     이밖에 2022년까지 경유 화물차와 어린이 통학차량 총 15만대를 친환경차로 바꾸고 5만5천대 규모의 전기 이륜차 구매를 보조한다. 노후 관공선도 조기 교체한다.      고용안전망 확충에는 1조원을 투입한다. 긴급 고용안정지원금을 지급하고, 청년 인턴지원과 청·장년층 신산업 분야 취업을 돕는다.     yjkim84@yna.co.kr▶코로나19 속보는 네이버 연합뉴스[구독 클릭]▶[팩트체크]차별금지법안, 성 소수자 어떤 내용?▶제보하기</t>
+  </si>
+  <si>
+    <t>‘근대 지리학의 아버지’ 훔볼트인문·사회·자연 꿰찬 융합 원조코로나 극복? 의학만으론 안 돼경제·정치·지리학 두루 알아야열대는 ‘슬픈 열대’ 이미지 아닌마음씨 착하고 춤추는 열대… ━   [책과 사람] 이종찬 아주대 의대 교수 『훔볼트 세계사: 자연사 혁명』      이종찬 아주대 의대 교수는 충격적 내용으로 우리의 상상력을 자극한다. 그는 '서구의 정체성 상당 부분은 열대와 접촉하는 가운데 나왔다' '아이티 노예 혁명이 프랑스 혁명을 자극했다'고 주장한다. 사진은 홈볼트 초상화와 이종찬 교수를 이중 촬영했다. 박종근 기자           “아주 먼 훗날 어디선가 난 한숨지으며 이렇게 이야기할 겁니다. 두 갈래로 숲속 길이 나뉘었다고, 나는 인적이 드문 길로 갔다고, 그래서 모든 것이 달라졌다고.”(로버트 프로스트의 『가지 않은 길』)      이종찬 아주대 의대 의학과 교수는 남들이 ‘가지 않은 길’을 간다. ‘열대’라는 길을 가고 있다. 서울대(치의학 학사, 보건학 석사)와 존스홉킨스대(공공 보건학 박사)에서 공부한 그는 2009년 아주대학교에 열대학연구소(Institute for Tropical Studies)를 설립했다. 그는 최근 『훔볼트 세계사: 자연사 혁명』(사진)을 냈다. 공부가 깊은 독자라면 책 제목만 보고도 책의 전모를 파악할 수 있다. 평범한 독서 무공으로는 『훔볼트 세계사: 자연사 혁명』의 의미를 꿰뚫기 힘들다. 이종찬 교수는 스스로 ‘융합 열대학자’를 표방한다. 세계 최초로 열대학을 정립한 그는, “열대가 서양의 정체성을 만들었다”고 세계 최초로 주장했다. 이 교수는 훔볼트라는 세계사적 인물을 10여 년간 연구했다. 그 결과물인 『훔볼트 세계사: 자연사 혁명』은 ‘근대 지리학의 아버지’라 불리는 훔볼트(1769~1859)를 우리의 머릿속으로 다시 끄집어낸다.    아이티 노예혁명, 프랑스 혁명에 영향 줘     당대 유럽에서 나폴레옹 다음으로 유명했다는 알렉산더 폰 훔볼트. 괴테나 니체보다 더 유명했다. 우리나라뿐만 아니라 서양에서도 그는 잊힌 영웅이다. 21세기 대한민국은 왜 훔볼트를 담론의 주인공으로 삼아야 할까. 궁금해서 이종찬 교수를 인터뷰했다.    Q : 이종찬 교수는 열대학자·문화디자이너로 알려졌다. 지금의 자기 정의(self-definition)는? A : “사람의 정체성은 시간에 따라 변화한다. 지금은 제가 ‘융합 열대학자’라고 생각한다.”  Q : 책 내용 중 가장 흥미로운 부분은 아이티 노예혁명이 프랑스 혁명에 영향을 줬다는 주장이다. 세계 최초로 주장한 것인가? A : “그렇다. 프랑스 혁명은 1789년, 아이티 혁명은 1791년 일어났다. 우리는 연대기적으로 생각하는 버릇이 있다. 그러나 아이티에서 혁명적 상황은 1750년대부터 시작됐다. 노예들의 항쟁 소식이 마르세유·리옹으로 전해졌다. 프랑스 작가들이 아이티 소식을 글로 적어 파리로 전했다. ‘아이티의 노예들도 저렇게 항쟁하는데 우리는 뭔가’라며 혁명의 꿈을 품게 됐다.”    훔볼트 세계사    Q : 훔볼트와 융합(consilience)은 어떤 관계인가. A : “우리나라에 융합이라는 단어·개념이 미국을 통해 들어왔다. 하지만 훔볼트가 원조다. 훔볼트가 최초로 자연과학과 인문학과 예술을 융합했다. 훔볼트로 말미암아 융합이라는 단어를 유럽 사람들이 사용하게 됐다.”  Q : ‘근대 지리학의 아버지’라 불리는 훔볼트는 인문·사회·자연에 걸친 업적으로 유명하다. 21세기는 훔볼트 같은 인물이 절실하다. A : “그렇다. 같은 의과대학 교수라도 내과와 외과 교수가 서로 무엇을 연구하는지 모르는 세상에 우리가 살고 있다. 수학과 교수들이 하는 말을 화학과 교수들이 모른다. 그러나 포스트코로나 시대에는 훔볼트 같은 융합적인 인물이 더욱 절박하다. 의학만 가지고 해결이 안 된다. 경제학·정치학을 알아야 하고 지리학도 알아야 한다.”  Q : 이종찬 교수는 세계 최초로 ‘열대학’이라는 학문 분과를 만들었다. A : “그렇다. 열대의학(tropical medi-cine)을 넘어 인문학·사회과학과 융합했다.”  Q : 왜 열대인가? 우리는 온대도 잘 모른다. A : “그렇다. 우리는 하루하루 24시간 삶이 너무나 힘들기 때문에 우리가 온대에 살고 있는지 열대에 살고 있는지 느껴지지 않는다. 우리는 겨울에 태국·베트남·싱가포르 등 동남아 관광지로 갔을 때 비로소 열대를 느낀다. 서구가 선진국이 된 결정적인 운동력은 아프리카·라틴아메리카·동남아시아·남태평양 등 열대를 지배하면서 나왔다. 그러한 사실을 우리가 알게 된다면, 열대를 알아야 할 필요성이 너무나도 중요한 과제가 된다.”  Q : ‘열대’ 하면 떠오르는 것은, 클로드 레비스트로스의 『슬픈 열대(Tristes Tropiques)』(1955)이다. ‘슬픈’을 대신할 더 좋은 형용사가 있는가. 예컨대 검은 열대, 즐거운 열대, 미래의 열대? A : “저는 ‘마음씨 착하고 춤추는 열대’라고 하겠다. 왜 그러냐? 열대 원주민들과 조금만 쉽게 친해지면 그들은 우리를 춤추는 공간으로 안내한다. 그들에게 춤은 우리 옛날 우리 조상들이 생각했던 춤과 마찬가지로 삶의 가장 본질적인 부분이다. 니체는 ‘인생을 춤추듯이 살아라’라며 핵심을 찔렀다. 열대 원주민들에게 춤은 문화예술이기도 하지만, 인생의 본질이다.”  Q : 레비스트로스는 문명-야만 구분을 격렬히 비판했다. 그런데 온대-열대, 북반구-남반구와 같은 이분법이 불가피한 것은 아닌가. 대안적 이분법은 없는가. A : “제게 열대에 대립적인 개념은 온대가 아니라 ‘음침한 기후’다. 한국인은 사실 지구 전체로 보면 햇빛이 부족한 지역에 살고 있다. 서유럽은 우리보다 그래도 낫다. 네덜란드·영국·프랑스·스페인도 우리보다 햇빛이 많다. 그런데도 늦가을부터 시작해 초봄까지 음침하다. 정신적으로 상당히 위축된다. 17세기가 문제인데··· 가난하고 먹을 것이 없으니··· 굶고 죽느니 뛰쳐나온 나라가 네덜란드다. 설탕·차·커피를 가지고 싶은 욕망이 생긴 것이다.”  Q : 열대와 서구, 열대와 일본의 만남은 제국주의로 귀결됐다. 한국과 열대의 만남 또한 제국주의와 닮은꼴이 될 가능성이 있지 않은가. A : “당연히 그렇게 되면 안 된다. 우리 한국은 같은 열대 대부분의 나라가 겪었던 식민지 경험을 공유하고 있다. 제국주의적인 욕망을 버리고 열대와 우리가 같이 상생하는 국제협력, 무역, 발전으로 나아가야 한다.”  Q : 책에 보면, “(1) 콩고 노예의 노동력, (2) 유럽의 해양무역 시장, (3) 카리브해의 플랜테이션··· 청년 훔볼트는 세상이 이 세 가지 힘의 결합으로 돌아간다는 사실을 깨달았다”고 나온다. 오늘의 세계를 움직이는 힘은 무엇인가. A : “저는 여전히 전 세계 열대 시장의 노동력이 3대 요소 중 하나라고 생각한다. 그다음은 유럽·미국·중국이 장악한 지구적인 시장··· 그 당시에는 플랜테이션··· 지금은 인공지능(AI)·빅데이터 등의 자본력이 3대 요소라고 생각한다.”  역사 교육은 한국사보다 세계사 중심으로   Q : 21세기 한국은 이 세 가지 힘에 다 잘 적응할 수 있을 것 같다. 다 만만치 않은 것 같기도 하다. A : “우리가 역사를 배우는 중요한 이유는, 특히 세계사를 배우는 중요한 이유는, 지금 우리가 처한 상황이 훔볼트와 살았던 시대, 영·정조 시대의 상황과 지금과 별로 다르지 않기 때문이다. 역사는 한국사 중심 아니라 세계사 중심으로 어릴 때부터 가르쳐야 한다.”  Q : 21세기 교육환경에서 훔볼트가 나오기 힘들다. 그런데도 대한민국 훔볼트를 양성하려면? A : “저는 우리 교육이 자연스럽게 그런 방향으로 가고 있다고 본다. 그런데 한 대학에서만 4년간 배우게 하는 시스템은 바뀌어야 한다고 생각한다. 훔볼트는 무려 4개 대학을 다녔다. 우리도 입학하는 대학과 졸업하는 대학이 똑같아야 할 이유가 없다. 융합형 교육의 첫 번째 출발점은 문호를 활짝 열어서 4년간 자기가 공부하고 싶은 대학에서 자유롭게 다니는 것이다. 부산에서 해양의학을 공부했다가 서울에 와서 지리학을 공부할 수도 있다. 열어줘야 한다고 생각한다.”  Q : 독일같이 모든 대학 수준이 비슷하면 가능하다. 한국 대학은 서열화돼 있다. 아무래도 ‘기득권’을 무시하기는 힘들다. A : “몇몇 교수들이 이미 제안을 했다. 이미 상당히 많은 종합적인 연구를 해 놓으신 것으로 알고 있다. 최소한 국립거점대학만이라도 먼저 서로 문을 열어야 한다. 우리도 예를 들면 경북·부산·전남·충남의 국립거점대학은 상호 순환적으로 수업을 들을 수 있게 해야 한다.”  Q : 마지막으로 중앙SUNDAY 독자 여러분께 강조하실 말씀은? A : “21세기 포스트코로나 시대에 세상이 어느 방향으로 나아갈지 미래를 누구도 진단할 수 없다. 21세기 전문화·분화된 세상에서는 전 분야를 조금씩 아는 제널럴리스트(generalist)의 교양과 이를 기반으로 한 깊은 공부가 필요하다.”    김환영 대기자 / 중앙콘텐트랩 whanyung@joongang.co.kr ▶ 중앙SUNDAY [홈페이지]▶ [네이버포스트] [PDF열람]ⓒ중앙SUNDAY(https://news.joins.com/sunday) and 중앙일보(https://joongang.co.kr) 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>총 8139억원 반영…비대면화·디지털 전환 등 주력(지디넷코리아=박수형  기자)과학기술정보통신부는 3일 국회 본회의에서 3차 추가경정예산안이 통과한 가운데 8천139억원 규모의 디지털 뉴딜 예산을 초함해 총 8천740억원의 소관 예산이 확정됐다고 밝혔다.예산 2천61억원, 기금 6천679억원 규모다. 당초 정부가 편성했던 3차 추경안에서 과기정통부 소관은 185억원이 감액됐다.이같은 디지털 뉴딜과 K-방역 등의 예산을 통해 사회 전반의 비대면화와 디지털 전환, 코로나19 검진 시스템 개선과 치료제, 백신 개발에 집중한다는 방침이다.과기정통부는 “온라인 플랫폼 기반 교육, 원격근무 등 비대면서비스 적용 범위가 확산되면서 중장기 추진과제를 조기 시행할 필요가 있다”며 “디지털 전환 과정은 필연적으로 AI 기술과의 융합으로 이어지고 있기 때문에 데이터 관련 일자리가 새롭게 출현할 가능성이 커지고 있다”고 설명했다.이어, “K-방역을 개선해 코로나19의 장기화와 재유행에 대비하고 치료제 및 백신 연구개발 등 근본적인 해결 노력이 필요하다”고 덧붙였다.추경 예산 중 과기정통부 소관의 대부분을 차지하는 디지털 뉴딜 분야는 ▲데이터 네트워크 인공지능(D.N.A) 생태계 강화 ▲디지털 포용과 안전망 구축 ▲비대면 서비스와 산업 육성 ▲사회간접자본 디지털화 등으로 분류된다.우선 D.N.A 생태계 강화는 데이터 구축과 활용, 5G 정부망 고도화, AI 인재 양성 등으로 총 6천583억원의 예산이 배정됐다.농어촌 초고속 인터넷망 구축과 K-사이버 방역체계 구축 등 디지털 포용 관련 예산은 1천310억원의 예산이 마련됐다.또한 비대면 서비스 산업 육성에 175억원, SOC 디지털화에 71억원의 예산이 투입될 예정이다.디지털 뉴딜 사업 외에 코로나19 치료제와 백신 개발 지원 등에는 397억원, 민간 R&amp;D 지원에 204억원의 추경안이 확정됐다.박수형 기자(psooh@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기[Copyrightⓒ메가뉴스 &amp; ZDNet &amp; CNET. 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>정부가 재계 4대 그룹에 취업준비생을 대상으로 한 ‘취업 준비 프로그램’을 만들어 달라고 요구한 것으로 3일 확인됐다. 신종 코로나바이러스 감염증(코로나19) 사태로 기업 경영 상황이 악화돼 당장 채용규모를 늘릴 수 없으니 차선책으로나마 취업준비생들을 위한 교육프로그램을 만들어달라는 것이다.   3일 재계에 따르면 김용기 대통령직속 일자리위원회 부위원장은 6월 초부터 삼성, SK, LG 등 기업을 개별적으로 접촉해 이 같은 요구를 한 것으로 확인됐다. 김 부위원장은 이들 기업에게 삼성전자의 삼성 청년 소프트웨어 아카데미(SSAFY)를 사례로 들며 “취업준비생을 대상으로 한 교육프로그램을 마련해달라”고 요청했다.  4대 그룹 한 고위 재계 관계자는 “‘청년 취업 문제 공감 및 해결을 위한 대화’라는 주제로 김 부위원장과 4대 그룹이 개별적으로 만난 것이 사실”이라며 “각 기업의 사내 교육프로그램 및 사내 교육시설을 활용해 취업준비생들이 인공지능(AI), 소프트웨어 등 미래 성장 사업 관련 역량을 기를 수 있도록 교육 프로그램을 마련해달라는 요구가 있었다”고 말했다.   삼성 측은 SSAFY 대상자를 확대하는 방향을 논의 중인 것으로 알려졌다. 이 프로그램은 전국 29세 이하 4년제 대학 졸업자 및 졸업예정자에게 최장 1년간 무료로 소프트웨어 교육을 시켜주고 매달 100만 원씩 교육비를 지원해주는 삼성전자의 대표적인 청년 인재 지원 사업이다.   김 부위원장과 6월 말 만난 SK그룹은 지난해 새로 출범한 신규 사내 연구·교육 플랫폼 마이서니의 일부 교육 과정을 외부에 공개하는 방안을 논의 중이다. 마이서니는 SK경제경영연구소, SK아카데미 등 사내 연구·교육 기능을 통합한 교육프로그램이다. 인공지능(AI) 기술의 기반이 되는 코딩(컴퓨터 프로그래밍)부터 빅데이터 가공·분석, 사회적 가치 확산 사업까지 오프라인 강의 및 온라인 강좌가 운영되고 있다.   6월 중순경 김 부위원장과 만난 LG그룹 역시 지주사 ㈜LG를 중심으로 사내 교육시설인 LG인화원을 활용한 교육프로그램 방안 마련을 찾고 있다. 현대차그룹도 비슷한 교육 프로그램 마련을 고민 중인 것으로 알려졌다.  코로나19 확산으로 청년 취업문은 어느 때보다 좁아진 상황이다. 고용노동부 취업포털 ‘워크넷’에 등록된 기업의 신규 구인 인원은 5월 14만4000명으로 지난해 5월(18만6000명)보다 22.6% 급감했다. 20대 청년의 구직급여 신청자는 가파르게 늘고 있다. 29세 이하 구직급여 신청자는 5월 2만500명으로 지난해 5월(1만4900명)보다 37.6% 증가했다. 모든 연령대 가운데 증가폭이 가장 컸다. 또 국내 10대 그룹 중 4곳이 상반기 공채를 취소하거나 미뤘다.서동일기자 dong@donga.com▶ 네이버에서 [동아일보] 채널 구독하기▶ 집 볼 때 쓰는 메모장 '집보장'ⓒ 동아일보 &amp; donga.com, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>[디지털데일리 이종현기자] 와이즈넛이 고려대학교 휴먼 인스파이어드(Human-inspired) 인공지능(AI) 연구센터와 AI 분야 기술 교류 및 협력을 위한 협약을 체결했다고 3일 밝혔다.   와이즈넛과 고려대학교 AI 연구센터는 단순 이번 협약을 계기로 지속적인 기술 교류를 통해 핵심 원천 기술을 확보하겠다는 방침이다.   고려대학교 AI 연구센터의 초대 센터장인 임희석 고려대학교 교수는 현재 와이즈넛이 참가하고 있는 ‘뉴럴 심볼릭 모델의 지식 학습 및 추론 기술 개발’ 연구과재의 연구 책임자다. 미래 챗봇의 핵심 기술로 쓰일 수 있는 지식 그래프의 네트워크를 반영한 딥러닝 기술을 연구하는 사업이라는 것이 와이즈넛의 설명이다.   강용성 와이즈넛 대표는 “정보기술(IT) 산업에서 가장 중요한 것은 전문분야에 대한 원천기술”이라며 “와이즈넛은 AI 관련 연구 및 교육에 적극적으로 앞장서고 있는 고려대학교와의 협력을 통해 AI 생태계에서 경쟁력을 강화하고 선순환을 만드는 데 일조할 것”이라고 피력했다.   &lt;이종현 기자&gt;bell@ddaily.co.kr▶ 네이버에서 디지털데일리 채널 구독하기▶ IT정보의 즐거운 업그레이드 [딜라이트닷넷]&lt;저작권자 © 디지털데일리 무단전재-재배포금지&gt;</t>
+  </si>
+  <si>
+    <t>사진=네이버 커넥트재단 SEF2020 페이지 갈무리  [디지털데일리 김소영기자] “소프트웨어와 인공지능, 클라우드 기반으로 세상의 모든 것들이 재편되고 있습니다. 그 위에서 윤리, 소양, 공감, 배려, 소통 같은 것들이 바뀌게 되는 것이고, 그 위에서 사회, 산업, 경제, 고용, 정치도 바뀌게 됩니다.”    김현철 고려대학교 컴퓨터학과 교수는 3일 네이버 커넥트재단이 주최한 SEF2020(Software Edu Fest2020)에서 초·중등학교의 인공지능(AI) 교육에 대한 의견을 내놨다. 이날 김 교수는 AI가 새로운 세상의 인프라이며, 피할 수 없이 반드시 가야할 영역이라고 설명했다.    ◆ “한명도 빠트리지 않고, 모든 아이들에게 가르쳐야한다”   그는 “새로운 인프라와 세상에서 살아가야 할 아이들은 기본적인 소양과 역량을 가지고 있어야한다”며 “그래서 학교에서 한명도 빠트리지 않고 모든 아이들한테 가르쳐야한다”고 부연했다. 이어 소프트웨어와 AI가 미래의 새로운 세상을 이해하는데 핵심적인 소양이 돼야 한다고 주장했다.    김 교수는 “우리만 이런 얘기를 하고 있는 것이 아니다”라며 미국의 예를 들었다. 미국에서 ▲정부는 예산과 제도를 지원하고 ▲학계에선 연구를 진행하고 결과를 확산시키며 ▲IBM, 마이크로소포트, 구글, 페이스북과 같은 기업들은 아이들이 쉽게 교육 받을 수 있는 여러 도구, 플랫폼들을 제공한다는 내용이다.    그는 “우리나라에서도 현재 초중고등학교에서 인공지능교육을 개발하고 있고, 인공지능 교육을 할 수 있는 플랫폼을 개발하고 있고, 시범학교는 이미 운영이 되는 걸로 알고 있다”고 전했다. 아울러 과학창의재단, EBS, 네이버 커넥트 재단과 같은 국내 기업체에서도 해당 교육 분야에 관심을 갖고 발빠르게 움직이고 있다고 알렸다.    ◆ 인공지능, 학교에서 어디까지 배워야할까?    이날 김 교수는 AI에 대해 ‘인간의 지능적인 행위 의사결정, 판단, 추론, 예측과 같은 지능적인 행위를 흉내내는 컴퓨터 시스템, 소프트웨어’라고 개략적인 정의를 내렸다. 그는 실제로 인공지능에서 배우게 되는 내용 역시 문제해결, 추론, 학습, 인식으로 나뉘어져 있다고 했다.    김 교수는 “이런 것을 초중고에서 어느 부분을, 어떻게, 어떤 비중으로 가르쳐야할 것인지 굉장히 많은 이야기들을 나누고 있다”며 “초,중,고등학교에서는 실제로 인공지능적인 모듈들이 만들어놓은 도구들이 있으니 이런 도구들을 사용을 해서 어떤 프로젝트를 만들어보는 것까지 할 수 있을 것”이라고 내다봤다.    아울러 김 교수는 “마지막으로 다뤄야할 것 중 하나는 윤리적인 것”이라고 말했다. 그는 인간과 기계의 협업에 대해 “대결할 것이 아니고, 기계를 활용해서 내가 더 효율적으로, 더 창의적으로 다른 일을 할 수 있도록 하는 그런 협업 체계에 대해 교육을 해야한다”고 부연했다.    데이터 편향성에 대한 당부도 잊지 않았다. 김 교수는 “데이터가 인종이나 어떤 성별에 대해서 편향성을 가지고 되면 모델 자체도 그렇게 된다”며 “모델 자체를 실제로 어떤 경제적, 사회적인 이익이 걸린 문제에서 사용되기 시작하면 굉장한 문제를 일으킬 수 있다”고 덧붙였다.    김 교수는 강의 끝에 “인공지능교육을 지식 교육의 차원으로 접근하면 안된다”며 “훌륭한 교사와 훌륭한 프로젝트 실습환경이 필수적”이라고 진단했다. 그는 “AI 교육을 하는 이유를 먼저 생각해야한다”며 “창의적인 문제발견과 문제해결 역량을 키울 수 있는 방향으로 교육해야한다”고 덧붙였다.    &lt;김소영 기자&gt;sorun@ddaily.co.kr▶ 네이버에서 디지털데일리 채널 구독하기▶ IT정보의 즐거운 업그레이드 [딜라이트닷넷]&lt;저작권자 © 디지털데일리 무단전재-재배포금지&gt;</t>
+  </si>
+  <si>
+    <t>[창원=뉴시스] 경상남도청 본관 전경.(사진=뉴시스 자료사진)[창원=뉴시스] 홍정명 기자 = 경남도는 지난달 26일 실국장 및 부단체장, 4급 과장급 인사에 이어 3일 5급 이하 공무원 679명 대상으로 정기인사를 단행했다.이는 하반기 조직개편, 공로연수, 명예퇴직, 전출입 등에 따른 후속 인사로 승진 208명, 전보 296명, 신규·전입 53명, 파견·휴직 등 122명이다.경남도는 이번 인사와 관련, 민선7기 후반기 도정 핵심 추진 방향인 경남형 3대 뉴딜(스마트·그린·사회적 뉴딜), 3대 핵심정책(청년특별도·교육인재특별도·동남권 메가시티 구축)을 속도감 있게 추진하기 위한 적소적재 인사 배치에 주력했다고 설명했다.코로나19의 충격 완화, 지역경제 활성화, 일자리 창출, 산업혁신을 지속적으로 추진하기 위해 일자리경제국장과 산업혁신국장은 유임했다.특히, 관광 활성화를 위해 김경수 도정 비서관을 맡으며 도정 방향을 잘 이해하고 있는 이재철 사무관을 관광진흥과장으로 승진 임명했고, 경남관광재단에도 김맹숙 감사담당 사무관을 승진시켜 파견했다.경남형 뉴딜 정책의 원만한 추진을 위해 환경정책과장에는 환경 분야에서 잔뼈가 굵은 김태수 기후대기과장을 전보하고, 후임에는 환경직렬인 정병희 사무관을 승진 발령했다.개방형 직위로 신설한 정보빅데이터담당관은 공모절차를 진행해 이달 중에 빅데이터, 인공지능 등에 능력을 갖춘 인재를 선발한다는 계획이다. 코로나19 대응과 도민 안전을 위해 사회재난 컨트롤타워인 사회재난과와 생활방역추진단, 보건환경연구원 감염병연구부를 신설하고, 김명욱 과장, 노혜영 단장, 하강자 부장을 각각 임명했다. 책임행정과 경쟁을 통한 유능한 인재 선발을 위해 4급 직위에 4·5급을 대상으로 하는 파격적인 직위공모도 이뤄졌다.대외협력담당관에 오종수 담당관, 신산업연구과장에 구병열 과장, 도시계획과장에 이기훈 과장을 승진 및 전보 배치했다. 도청 주요 보직인 인사담당 사무관에는 도정 사상 최초로 여성인 강말림 공무원권익담당 사무관을 배치해 눈길을 끈다.경남도 인사과 관계자는 "직원들이 의욕적으로 일을 할 수 있도록 직원과 부서의 희망을 반영하고, 경력과 실적, 전문성을 고려한 분야별 균형 있는 인사에 초점을 맞추었다"면서 "앞으로도 직원들이 능동적으로 일할 수 있는 인사를 할 계획"이라고 밝혔다.☞공감언론 뉴시스 hjm@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 중기협력팀 박새롬 기자] PSI컨설팅(대표 정채창)이 오는 7일부터 8월25일까지 유튜브 라이브 방송으로 '2020 HRD(인적자원개발)를 말하다 #5'를 개최한다고 3일 밝혔다.'HRD를 말하다'는 2018년부터 인사 및 교육 전문성을 확보하고자 진행해 온 행사다. '2020 HRD를 말하다 #5'에서는 포스트 코로나 시대를 맞아 조직의 성공적인 디지털 트랜스포메이션 전략과 디지털 인재 육성에 관해 다룰 예정이다.이번 웨비나(웹과 세미나의 합성어)에서는 AI(인공지능)·IoT(사물인터넷) 전문가인 매직에코의 최재규 대표, 블록체인 기술 전문기업 코인플러그의 허양일 이사, 텐센트의 김진수 UI(사용자인터페이스)·UX(사용자경험) 분야 고문이 참여한다. 이들은 데이터와 디지털 기술로 조직의 프로세스와 조직 문화를 변화시키는 디지털 트랜스포메이션 전략에 대해 논의한다. 비즈니스 전략에 따른 HRD의 역할과 과제를 고민하는 시간을 가질 예정이다.도상오 PSI컨설팅 Win&amp;Grow 컨설팅 본부 본부장은 "코로나19로 비대면 업무와 디지털경제 가속화가 일상화됐다"면서 "디지털 트랜스포메이션를 이해하는 건 필수"라고 했다. 이어 "이번 세미나가 디지털인재 육성을 고민하는 인사 및 교육담당자에게 도움이 될 것"이라고 덧붙였다.한편 이번 행사는 7월7일부터 8월25일까지 매주 화요일 저녁 7시에 무료로 만나볼 수 있다. 중기협력팀 박새롬 기자 tofha0814@mt.co.kr▶줄리아 투자노트▶조 변호사의 가정상담소 ▶머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>사이먼 스미스 주한 영국 대사 글로벌 경각심·연대 강조기후대응·성장 두 토끼 가능英 내연차 판매 중단 시기2040년보다 앞당겨질 것韓 수소에너지 등 경쟁력그린뉴딜로 고용·혁신 기회사이먼 스미스 주한 영국대사가 서울 정동 대사관저에서 세계지식포럼 캐릭터 `지붕이`를 껴안으며 반갑게 인사하고 있다. [한주형 기자] "코로나19보다 기후변화로 인한 사망자가 더 많을 수 있다."사이먼 스미스 주한 영국대사는 최근 매일경제와 인터뷰하면서 이같이 밝혔다. 코로나19 사망자가 전 세계 50만명을 돌파하는 등 피해가 갈수록 확산되지만 기후변화 역시 전 세계가 적극 대응하지 않으면 더 큰 재앙이 될 수 있다는 것이다. 영국은 올해 기후변화를 국가적 의제로 삼고, 내년 11월 제26차 유엔기후변화협약 당사국총회(COP26)를 글래스고에서 개최할 예정이다.사이먼 대사는 우선 기후변화 대응 정책이 자칫 경제 성장을 저해할 수 있다는 일반적인 우려에 대해 기우에 불과하다고 강조했다. 그는 "기후변화 대응과 경제 성장은 양립 가능하다"며 "영국이 바로 살아 있는 증거"라고 말했다. 그는 "영국은 1990년부터 지난해까지 약 30년간 이산화탄소 배출량을 43% 줄였는데, 같은 기간 경제는 66% 성장했다"고 설명했다. 그는 이어서 영국은 이 같은 실증적 경험을 바탕으로 최근 2050년까지 탄소 순배출량을 '제로'로 만드는 '2050 탄소 배출 제로' 목표를 세웠다고 말했다. 또한 영국은 내연기관 자동차 판매를 당초 2040년부터 중단하기로 했으나 이를 더 앞당길 계획이라고 사이먼 대사는 덧붙였다. 사이먼 대사는 한국 정부가 추진하는 '그린 뉴딜'은 한국이 탄소배출 부문에서 아시아 리더가 될 기회라고 전망했다. 이를 위해 그는 한국도 영국처럼 법을 제정해 탄소 순배출량 제로가 되는 시점을 지정할 것을 제안했다. 또한 석탄에너지 대폭 감축을 추천했다. 그는 "영국 에너지 생산에서 석탄이 차지하는 비중은 2012년 40%였으나 8년이 지난 올해는 2% 미만에 불과하다"고 전했다.사이먼 대사는 한국의 미래 성장 원동력으로 '친환경 기술'을 꼽았다. 그는 "새로운 기술이 일자리를 창출한다"면서 "한국은 세계적인 기업과 연구개발(R&amp;D) 및 혁신 기술을 보유하고 있기 때문에 아시아에서 저탄소 시대를 열 수 있을 것"이라고 강조했다. 예컨대 인공지능(AI), 5G, 수소에너지 등 4차 산업혁명에서 한국이 지닌 잠재력이 무한하다는 설명이다. 한편 사이먼 대사는 영국이 유럽연합(EU)을 탈퇴한 뒤 아시아와 파트너십을 강화할 계획이라고 밝혔다. 그는 "코로나19로 인해 우리는 그 어느 때보다 국가 간 대화와 파트너십을 통해 글로벌 난제를 해결해야 함을 깨닫게 됐다"며 "EU를 떠난 영국은 앞으로 아시아와 더 많은 일을 같이하고 싶다"고 말했다. 그는 "영국이 아시아와 파트너십을 통해 코로나19 대응, 국제범죄, 해양안보, 경제개혁, 무역, 투자, 교육 등 여러 영역에서 호혜적인 성과를 낼 수 있을 것"이라고 덧붙였다. 또한 영국은 아시아와 통상 관계를 강화하기 위해 환태평양경제동반자협정(CPTPP) 가입을 추진하고 있다고 사이먼 대사는 밝혔다. 그는 특히 한국과의 파트너십 강화에 대한 기대감을 내비쳤다. 한국은 브렉시트에 대응하기 위해 지난해 8월 양국 간 새로운 자유무역협정(FTA)에 서명하는 등 발 빠르게 공조하고 있다고 전했다. [윤원섭 기자]▶네이버 메인에서 '매일경제'를 받아보세요▶'매일경제' 바로가기 ▶뉴스레터 '매콤달콤' 구독[ⓒ 매일경제 &amp; mk.co.kr, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>[서울=뉴시스] SEF2020에서 네이버 커넥트재단 조규찬 이사장이 온라인 축사와 함께 재단의 교육 방향성에 대해 설명하고 있다. (사진=네이버 제공) 2020.07.03 [서울=뉴시스] 이진영 기자 = 네이버 커넥트재단은 3일까지 이틀간 '소프트웨어 에듀 페스트 2020'(SEF 2020: Software Edu Fest 2020)를 개최한다고 밝혔다. 네이버 커넥트재단이 매년 개최하고 있는 SEF는 소프트웨어(SW) 전문가들과 교육자, 학습자가 함께 모여 SW 교육의 경험과 노하우를 공유하고, 방향성에 대해 자유롭게 논의하는 국내 최대 규모 소프트웨어 교육 컨퍼런스다. 올해는 온라인으로 진행한 결과 사전 참여 등록자수가 1만여명을 기록했다. 조규찬 네이버 커넥트재단 이사장은 "교육을 필요로 하는 어린이부터 성인까지 누구나 디지털 소외 없이 SW와 인공지능(AI) 관련 역량을 함양할 수 있는 교육사업을 진행하겠다"라고 밝혔다. 이를 위해 네이버 커넥트재단은 네이버와 긴밀하게 협력하며 네이버의 기술과 경험을 더한 다양한 교육을 진행할 예정이다. 초·중학생 대상의 SW 교육 프로그램 ‘소프트웨어야 놀자’가 대표적인 예다. 재단과 네이버가 2013년부터 진행해오고 있는 ‘소프트웨어야 놀자’는 다양한 지역의 학생들을 대상으로, 컴퓨터를 활용한 문제해결 능력과 논리적 사고능력을 키울 수 있도록 설계된 교육 프로그램이다. 블록을 쌓듯이 프로그래밍 명령어를 조합해 창작물을 만들어 낼 수 있는 ‘엔트리’ 플랫폼을 활용해, 학생뿐만 아니라 교사들이 유용하게 활용할 수 있는 다양한 시청각 교육 자료를 제공한다.특히 7월부터는 라는 주제 하에 많은 학생들이 인공지능 기술과 데이터 활용 교육을 접할 수 있도록, 한층 새로워진 ‘소프트웨어야 놀자’ 사이트를 공개하고 캠페인을 본격적으로 시작했다. 따라서 SW뿐만 아니라 AI에 대한 심리적 장벽을 낮추고 문·이과 구분 없이 높은 디지털 이해도를 갖춘 ‘융합형 인재’를 육성하겠다는 계획이다.☞공감언론 뉴시스 mint@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>7~8월 체험 이벤트 진행스마트구몬 안심체험 이벤트. (사진=교원)[이데일리 김호준 기자] 교원구몬의 인공지능(AI) 학습지 ‘스마트구몬’이 7월부터 8월까지 두 달 동안 안심 체험 이벤트를 진행한다고 3일 밝혔다. 이번 이벤트는 아이들의 학습 공백을 우려하는 학부모들에게 스마트구몬을 무료로 체험해볼 수 있는 기회를 제공하고자 마련했다. 스마트구몬은 답뿐만 아니라 풀이과정까지 학습 전 과정을 분석해 최적의 맞춤학습을 제공하는 AI 기반 학습지다. 스마트구몬의 1:1 화상관리 서비스인 ‘스마트클래스’는 집에서 안전하게 화상으로 수업하고 수준별 맞춤학습이 가능하다.스마트클래스는 아이가 문제를 풀이하는 과정을 태블릿PC를 통해 확인하고 채점 후 오답 관리도 진행한다. 또한 아이가 학습 도중 질문이 생겼을 경우 ‘질문 요청’ 버튼을 통해 구몬선생님과 서로 소통할 수도 있어 학부모들의 만족도가 높다. 이번 이벤트는 구몬교사의 1:1 방문 관리뿐 아니라 스마트클래스, 자동채점, 오답 정정 학습시스템, 디지털 콘텐츠 프리패스 등 정회원의 교육 서비스를 그대로 체험할 수 있다.또한 이벤트 기간 내에 스마트구몬 무료체험을 신청하거나, 가입한 회원을 대상으로 추첨을 통해 신세계 상품권 30만원, 구몬도서 52권 등 다양한 경품을 제공한다.김호준 (kazzyy@edaily.co.kr)네이버에서 ‘이데일리’ 구독하기▶청춘뉘우스~ 스냅타임▶＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t>AI 데이터셋 구축, 전문 스타트업 발굴[아이뉴스24 김국배 기자] 한국마이크로소프트(MS)와 한국정보화진흥원(NIA)은 사회적 가치 실현을 위해 인공지능(AI) 분야에서 협력하기로 했다고 3일 발표했다.이번 협력은 AI 생태계 활성화를 위한 AI 데이터셋을 구축하고, AI 경진대회를 개최해 사회적 가치 실현을 전문으로 하는 스타트업을 발굴하는 것이 골자다.또한 AI 콘퍼런스를 통해 AI 관련 전략·정책, 사례 등을 공유하며 AI 교육 프로그램을 개발해 사회적 격차를 해소한다.이지은 한국MS 대표(왼쪽)와 문용식 NIA 원장 [사진=한국MS]이를 위해 양사는 실무협의회를 구성하고 이달부터 오는 12월까지 단계적으로 관련 계획을 추진해 나갈 계획이다.문용식 NIA 원장은 "코로나19로 초래된 국가적 위기를 극복하기 위해 모두가 힘을 합쳐야 할 시기에 글로벌 선도 기업과 협업해 AI에 관한 새로운 방향성을 모색하고 사회적 가치를 창출하는 모습이 좋은 선례가 될 것"이라고 말했다.이지은 한국MS 대표는 "MS의 글로벌 경험과 AI 기술력을 바탕으로 NIA와 함께 사회적 가치를 창출할 것"이라며 "이를 통해 다양한 사회 계층이 AI의 혜택을 누릴 수 있도록 협력해 나가겠다"고 말했다.김국배기자 vermeer@inews24.com▶네이버 채널에서 '아이뉴스24'를 구독해주세요.▶재밌는 아이뉴스TV 영상보기  ▶아이뉴스24 바로가기[ⓒ 아이뉴스24 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>스마트팩토리 솔루션 ‘그랜드뷰’ 내놓아…100곳에 6개월 무료 이벤트[서울=뉴시스]SK텔레콤은 3일 경기도 안산시 '스마트제조혁신센터'에서 5G 스마트팩토리 얼라이언스(5G-SFA) 주관 ‘아레나 라이브' 행사를 개최했다. SK텔레콤 최낙훈 인더스트리얼데이터사업 유닛장이 클라우드 기반 월 구독형 스마트팩토리 솔루션 ‘메타트론 그랜드뷰’ 출시를 밝히고 있는 모습. (사진=SK텔레콤 제공) 2020.07.03 [서울=뉴시스] 이진영 기자 = SK텔레콤이 제조기업 맞춤형 빅데이터 분석 솔루션 ‘메타트론 그랜드뷰’를 월 구독 형태의 서비스로 내놓는다. SK텔레콤은 3일 경기도 안산시 '스마트제조혁신센터'에서 5G 스마트팩토리 얼라이언스(5G-SFA) 주관 ‘아레나 라이브' 행사를 개최해 이같이 발표했다.SK텔레콤은 코로나19로 인해 국내 제조 기업의 공장 자동화 및 운영 효율화가 시급해진 상황에서 대한민국 중소 제조기업의 빠르고 저렴한 스마트팩토리 솔루션 적용을 돕기 위해 출시했다고 설명했다.SK텔레콤이 개발한 메타트론 그랜드뷰는 공장 내 주요 설비에 부착된 센서를 통해 회전수, 진동 및 전류 등 다양한 데이터를 수집·분석해 설비의 현 상태와 유지보수가 필요한 시점을 실시간으로 예측, 효율적 설비 운용을 돕는다.SK텔레콤에 따르면 메타트론 그랜드뷰 도입 시, 설비 유지보수 최적화를 통해 제조 생산성이 향상돼 평균 15%의 비용 절감 효과를 거둘 수 있으며, 인공지능(AI) 기반 예지 보전을 통해 주요 설비 및 부품의 수명도 20% 이상 증가한다.또 클라우드를 기반으로 구축돼 기존 서비스 대비 빠르게 현장에 적용할 수 있다. 이와 함께 월 단위 과금을 적용해 중소기업들의 초기 비용 부담을 줄였다.[서울=뉴시스]SK텔레콤은 3일 경기도 안산시 '스마트제조혁신센터'에서 5G 스마트팩토리 얼라이언스(5G-SFA) 주관 ‘아레나 라이브' 행사를 개최했다.  SK텔레콤 최낙훈 인더스트리얼데이터사업 유닛장과 SFA 관계자들이 스마트팩토리 확산 및 정착 비전에 대해 토론하고 있는 모습. (사진=SK텔레콤 제공) 2020.07.03SK텔레콤은 이번 서비스 출시를 기념해 중소 제조기업 100곳에 메타트론 그랜드뷰 서비스를 6개월간 무료로 제공하기로 했다. 동시에 스마트팩토리 솔루션 운용 교육과 IoT 단말 설치, ADT캡스의 출동형 보안 상품까지 지원할 예정이다.SK텔레콤 최낙훈 인더스트리얼데이터사업 유닛장은 "대한민국 국내총생산(GDP)의 29.3%는 제조업에서 나오며, 중소·중견 기업은 그 중 상당수를 차지한다"며 "중소·중견 제조업에 실질적으로 도움이 되는 스마트팩토리 서비스를 제공하기 위해 앞으로도 제조업 전문가와 자사의 AI·빅데이터 역량을 융합하는 등 다양한 노력을 지속할 것"이라고 말했다.한편 이날 행사에는 SK텔레콤을 비롯 삼성전자, 산업은행 등 참여 기업과 함께 기가코리아사업단장 이성춘, 전자부품연구원 본부장 이형수 등 주요 관계자가 온오프라인을 통해 참석했으며 5G 스마트팩토리 확산을 위한 전략과 비전도 함께 공유했다.☞공감언론 뉴시스 mint@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t>SK텔레콤, 5G 클라우드 기반 빅데이터 분석 ‘메타트론 그랜드뷰’ 설비에 센서 부착해 회전수, 진동, 전류 등 감지해 ‘스마트공장’ 구축거액의 설비투자 비용이 필요해 중소기업은 엄두를 내기 어려웠던 ‘스마트공장’ 구축의 문턱이 낮아졌다. 이동통신사가 스마트공장 구축을 위한 기기를 제공하고, 기업은 월 이용료만 내면 되는 상품을 출시했다.  에스케이텔레콤(SKT)은 3일 안산시 스마트제조혁신센터에서 열린 5G 스마트팩토리얼라인언스(SFA Arena Live) 행사에서 중소기업용 빅데이터 분석솔루션을 월 구독 형태의 서비스로 출시한다고 밝혔다.  에스케이텔레콤은 이 출시한 ‘메타트론 그랜드뷰’를 5G와 클라우드 기반 빅데이터 분석 솔루션으로, 공장의 주요 설비에 부착한 센서를 통해 회전수, 진동 및 전류 등 다양한 데이터를 수집·분석해 설비의 상태와 유지·보수가 필요한 시점을 실시간으로 예측, 효율적 설비 운용을 돕는 서비스다. 에스케이텔레콤은 “코로나19로 제조 기업의 공장 자동화 및 운영 효율화가 시급해진 상황에서 중소제조기업의 빠르고 저렴한 스마트팩토리 솔루션 적용을 돕기 위해 이번 서비스를 출시했다”고 밝혔다. 이 회사는 스마트팩토리 솔류션에 필요한 설비비와 구축비 없이 월 구독료만으로 서비스를 제공한다고 밝혔다. 에스케이텔레콤에 따르면 그동안 중소제조기업들은 평균 10개 안팎의 IoT 단말기를 설치하며 평균 설비비 300만~400만원, 구축비 200만원 등 총 500만~600만원의 비용을 투자해왔다.  ‘메타트론 그랜드뷰’는 설비당 서비스 요금이 월 2만원이다. 이 회사에 따르면, ‘메타트론 그랜드뷰’ 도입시, 설비 유지·보수 최적화를 통해 제조 생산성이 향상돼 평균 15%의 비용 절감 효과를 거둘 수 있으며, 인공지능을 활용한 관리로 주요 설비 부품의 수명도 20% 이상 늘어난다. 에스케이텔레콤은 서비스 출시를 맞아 100개 중소 제조기업에 ‘메타트론 그랜드뷰’ 서비스를 6개월간 무료로 제공한하고, 스마트팩토리 솔루션 운용 교육과 사물인터넷 단말 설치, ADT캡스의 출동형 보안 상품까지 지원한다. 자세한 내용은 홈페이지(www.tbizpoint.co.kr)에 안내돼 있다. 구본권 선임기자 starry9@hani.co.kr▶더불어 행복한 세상을 만드는 언론, 한겨레 구독하세요!▶네이버 뉴스판 한겨레21 구독▶2005년 이전 &lt;한겨레&gt; 기사 보기[ⓒ한겨레신문 : 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>7월 2~3일 ‘SEF2020’서 교육 방향성 공개 / 조규찬 이사장 “디지털 소외 없는 SW와 AI교육 앞장서겠다”    네이버 커넥트재단 조규찬 이사장.     ‘SEF2020(Software Edu Fest2020)’가 네이버 커넥트재단 주최로 지난 2일 개막했다.   네이버 커넥트재단이 매년 개최하고 있는 SEF는 소프트웨어(SW) 전문들과 교육자, 학습자가 함께 모여 SW교육의 경험과 노하우를 공유하고, 그 방향성에 대해 자유롭게 논의하는 국내 최대 규모 소프트웨어 교육 컨퍼런스다.   코로나19 확산 사태 여파로 온라인으로 진행된 올해 SEF2020의 첫날에는 정부 관계자와 IT전문가 등 연사들이 참여해 ‘4차산업혁명’ 속 소프트웨어(SW), 인공지능(AI)의 중요성을 강조하고 교육방향성에 대해 제언했다.  SEF2020은 2일부터 3일까지 양일간 진행되며 첫날 행사는 장석영 과학기술정보통신부 제2차관의 온라인 축사와 함께 시작됐다.   장 차관은 “비대면 서비스가 활성화되면서 디지털 전환의 속도가 더욱 더 빨라지고, 다양한 분야에서 AI기술을 효과적으로 활용해 문제를 창의적으로 해결하는 역량을 기르는 SW·AI 교육이 무엇보다 중요해지고 있다”라며 소프트웨어 교육의 시의적 중요성을 강조했다.   이어 “정부도 디지털 대전환의 동반자가 되겠다”며 미래인재 육성에 대한 다짐과 민관이 함께 협력해 나갈 것을 당부했다.   네이버 커넥트재단의 조규찬 이사장은 “수학이나 물리처럼 소프트웨어가 모든 분야의 기본 역량이 되어 감에 따라, 모두가 프로그래머가 될 필요는 없지만 SW역량을 갖춘다면 할 수 있는 일은 많아질 것”이라며 “네이버 커넥트재단은 교육을 필요로 하는 어린이부터 성인까지 누구나 디지털 소외 없이, 소프트웨어와 인공지능 관련 역량을 함양할 수 있는 교육사업을 진행하겠다”는 비영리 교육기관으로서 재단이 나아갈 방향성을 공개했다.   네이버 커넥트재단은 네이버와 긴밀하게 협력하며 네이버의 기술과 경험을 더한 다양한 교육을 진행할 예정이다.    초·중학생 대상의 SW교육 프로그램 ‘소프트웨어야 놀자’가 대표적인 예다. 재단과 네이버가 2013년부터 진행해오고 있는 이 프로그램은 다양한 지역의 학생들을 대상으로, 컴퓨터를 활용한 문제해결 능력과 논리적 사고능력을 키울 수 있도록 설계된 교육 프로그램이다.   마치 블록을 쌓듯이 프로그래밍 명령어를 조합해 창작물을 만들어 낼 수 있는 ‘엔트리’ 플랫폼을 활용, 학생뿐만 아니라 선생님들이 유용하게 활용할 수 있는 다양한 시청각 교육 자료를 제공한다.   이달인 7월부터는 ‘플레이 위드 AI, 플레이 위드 DATA’라는 주제 하에 많은 학생들이 인공지능 기술과 데이터 활용 교육을 접할 수 있도록, 한층 새로워진 ‘소프트웨어야 놀자’ 사이트를 공개하고 캠페인을 본격적으로 시작했다.   따라서 SW뿐만 아니라 AI에 대한 심리적 장벽을 낮추고 문과·이과 구분 없이, 높은 디지털 이해도를 갖춘 ‘융합형 인재’를 육성하겠다는 계획이다.   네이버는 이 과정에서 활용 가능한 데이터와 기술적 도구를 제공해 학습 현장에서 풍부한 실습이 이뤄지도록 지원한다. 예를 들어, 네이버가 자체 개발해 갖추고 있는 ‘얼굴인식 기술’이나 ‘음성인식 기술’ 등을 제공해, 학생들이 프로젝트를 진행하는 과정에 이를 편하게 활용하고 기술적 제약 없이 상상력을 펼칠 수 있도록 돕는다.   네이버 커넥트재단 김지현 사무국장은 “SEF를 통해 전문가들의 풍부한 경험과 노하우들이 공유되어 실질적인 배움으로 연결되는 장이 되길 바란다”라며 “네이버 커넥트재단은 앞으로도 초등학생부터 성인에 이르기까지, 모두를 위한 AI와 SW교육 활성화에 앞장설 것”이라고 밝혔다.   아울러 “이를 위해 재단과 네이버의 협력을 통해 제공되는 다양한 인프라를 활용하며 누구나 소프트웨어적 상상력을 실현할 수 있는 교육 환경을 만들어 갈 것”이라고 덧붙였다.   온라인으로 진행된 SEF2020는 사전 신청자 수 1만명을 기록하며 국내 최대 규모의 소프트웨어 교육 컨퍼런스의 인기를 실감케 했다.   현화영 기자 hhy@segye.com 사진=네이버 커넥트재단ⓒ 세상을 보는 눈, 세계일보</t>
+  </si>
+  <si>
+    <t>초기비용 부담 크게 줄어…평균 15% 절감 효과설비에 부착된 센서 통해 다양한 데이터 수집·분석SK텔레콤 로고.ⓒSK텔레콤SK텔레콤이 월 구독형 스마트팩토리 상품을 출시했다. 초기부담 비용으로 스마트팩토리 도입을 고민하고 있는 중소기업들 입장에선 희소식이 될 것으로 전망된다.SK텔레콤은 3일 경기도 안산시 ‘스마트제조혁신센터’에서 열린 ‘5G SFA Arena Live’ 행사에서 제조 기업 맞춤형 빅데이터 분석 솔루션 ‘메타트론 그랜드뷰’를 클라우드 기반 월 구독 형태의 서비스로 출시한다고 밝혔다.SK텔레콤의 메타트론 그랜드뷰는 공장 내 주요 설비에 부착된 센서를 통해 회전수, 진동 및 전류 등 다양한 데이터를 수집·분석해 설비의 현 상태와 유지보수가 필요한 시점을 실시간으로 예측, 효율적 설비 운용을 돕는다.도입 시 설비 유지보수 최적화를 통해 제조 생산성을 향상시키고 평균 15%의 비용 절감 효과를 거두는 것으로 추산된다.SK텔레콤은 이번 월 구독 형태의 서비스 출시를 맞아 100개 중소제조기업에게 ‘메타트론 그랜드뷰’ 서비스를 6개월간 무료로 제공한다. 이와 함께 스마트팩토리 솔루션 운용 교육과 사물인터넷(IoT) 단말 설치, ADT캡스의 출동형 보안 상품까지 지원한다.최낙훈 SK텔레콤 인더스트리얼 데이터 사업 유닛장은 “대한민국 GDP의 29.3%는 제조업에서 나오며 중소·중견 기업은 그 중 상당수를 차지한다”며 “SK텔레콤은 중소·중견 제조업에 실질적으로 도움이 되는 스마트팩토리 서비스를 제공하기 위해 앞으로도 제조업 전문가와 당사의 인공지능(AI)·빅데이터 역량을 융합하는 등 다양한 노력을 지속할 것”이라고 밝혔다.이날 SK텔레콤은 보쉬렉스로스코리아, 한국오므론제어기기, 엔텔스 등과의 스마트팩토리 협력 성과도 공유했다.SK텔레콤은 보쉬렉스로스코리아와 함께 사람이 직접 작업하기 어려운 수문개폐를 위한 스마트팩토리 솔루션을 개발해 활용 중이다.한국오므론제어기기와는 체온 검사, UV램프를 이용한 방역 등 기존에 사람이 하던 업무를 로봇이 대신함으로써 보다 체계적이고 효율적인 코로나19 대응에 기여하기 위해 코로나19방역로봇을 개발한 바 있다.한편 행사 주관사인 5G-SFA는 5G 스마트팩토리 규격 표준화 주도 및 확산을 위한 단체로 총 34개 기업과 정부, 기관 관계자가 참여 중이다. SK텔레콤은 5G-SFA 내 유일한 통신사로 회장사를 역임하고 있다.데일리안 이건엄 기자 (lku@dailian.co.kr)ⓒ (주)데일리안 - 무단전재, 변형, 무단배포 금지</t>
+  </si>
+  <si>
+    <t>스마트 도심 항공 교통(UAM)과 디지털 트윈의 결합. 건국대학교 제공  [파이낸셜뉴스] 건국대학교는 교육부와 한국연구재단에서 주관하는 이공계분야 대학중점연구소 지원사업에 ‘항공우주 설계∙인증 연구소’가 최종 선정됐다고 3일 밝혔다.   이공분야 대학중점연구소지원 사업을 통해 항공우주 설계∙인증 연구소는 2020년부터 2029년까지 총 3단계 9년 동안 연간 7억 7천만 원의 예산을 지원받게 된다. 이를 통해 대학의 연구거점을 구축하고 대학연구소의 특성화와 전문화를 유도하며 우수 신진 연구 인력을 육성할 수 있도록 지원하는 것이 사업의 목적이다.   이번 대학중점연구소 과제에는 이재우 연구소장, 김창주 교수(항공우주시스템공학과), 김상호 교수(스마트운행체공학과), 민덕기 교수(컴퓨터공학과) 등 4명과 박사급 전임연구 교수 및 연구원 8명, 연구원 20명이 참여해 ‘스마트 도심 항공 교통(이하 UAM)을 위한 인공지능 디지털 트윈 기술 연구‘를 수행하게 된다  건국대 항공우주 설계∙인증 연구소는 2013년에 설립된 이래 설계·인증 통합 연구 거점으로서 본 연구소의 특성화된 연구 인프라와 산학연 네트워크를 활용해 항공우주 설계·인증 전문연구인력을 육성하고 항공우주 산업 혁신에 기여해왔다.   항공우주 설계∙인증 연구소는 항공우주설계 및 해석 기술과 인공지능 및 디지털 트윈 시뮬레이션 기술, 클라우드 기술 병렬 처리 기술 등의 원천기술을 보유하고 있으며 이를 기반으로 스마트 UAM을 가상의 세계에 구현하는 스마트 UAM 특화 디지털 트윈 기술 개발에 중점을 두고 있다.   이재우 연구소장은 “항공우주 분야에서 상대적으로 뒤처진 4차 산업 분야에서 해외 최고수준의 연구소들과 어깨를 나란히 하며, 스마트 UAM 산업의 새로운 지평을 열 수 있도록 핵심기술 개발과 인력양성을 통해 세계적인 연구소로 발돋움할 것”이라고 말했다.    hoya0222@fnnews.com 김동호 기자   ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>6개월간 무료 제공최낙훈 SK텔레콤 인더스트리얼 데이터 사업 유닛장과 SFA 관계자들이 스마트팩토리 확산 및 정착 비전에 대해 토론하고 있다./사진제공=SK텔레콤[서울경제] SK텔레콤(017670)이 월 구독형 스마트팩토리 솔루션이 출시한다. 3일 경기 안산 스마트제조혁신센터에서 5G 스마트팩토리 얼라이언스(5G-SFA) 주관으로 열린 ‘5G SFA 아레나 라이브’ 행사에서 제조기업 맞춤형 빅데이터 분석 솔루션 ‘메타트론 그랜드뷰(Metatron Grandview)’를 월 구독 서비스로 출시한다고 밝혔다. 5G-SFA는 5G 스마트공장 규격 표준화 주도 및 확산을 위해 SK텔레콤이 삼성전자, 지멘스 등과 함께 구성한 단체다. 현재 34개 기업과 정부, 기관 등이 참여하고 있다.SK텔레콤 로고./사진제공=SK텔레콤5G 클라우드를 기반으로 한 메타트론 그랜드뷰는 공장 설비에 부착된 센서로 다양한 데이터를 수집·분석해 설비 상태와 유지 보수 시점을 예측한다. 이를 통해 효율적 설비 운용을 돕는다. SK텔레콤 관계자는 “‘메타트론 그랜드뷰’를 도입하면 설비 유지보수 최적화를 통해 제조 생산성이 향상돼 평균 15%의 비용 절감 효과를 거둘 수 있다”며 “인공지능(AI) 기반 예지보전을 통해 주요 설비 및 부품의 수명도 20% 이상 늘어난다”고 설명했다. 이 솔루션은 클라우드 기반 서비스로서 현장 적용이 빠르고 월 단위로 과금해 초기 비용 부담도 줄인다. SK텔레콤은 출시를 맞아 100개 기업에 서비스를 6개월간 무료로 제공한다. 또한, 솔루션 운용 교육과 단말 설치, ADT캡스의 출동형 보안 상품도 지원된다.SK텔레콤 최낙훈 인더스트리얼 데이터(Industrial Data) 사업 유닛장은 “대한민국 GDP의 29.3%를 차지하는 제조업 중에서도 중소·중견기업의 비중은 상당히 크다”며 “이들 기업에 실질적으로 도움이 되는 스마트공장 서비스를 제공하기 위해 다양한 노력을 계속하겠다”고 말했다./이미지투데이5G SFA 아레나 라이브 행사에서 국내외 5G 스마트공장 사업 현황이 공유되고 관련 생태계 확산 방안 등도 논의됐다. SK텔레콤은 보쉬렉스로스코리아, 한국오므론제어기기, 엔텔스 등과의 스마트공장 협력 성과를 소개했다. SK텔레콤은 보쉬렉스로스코리아와 사람이 직접 작업하기 어려운 수문개폐를 위한 스마트팩토리 솔루션을 개발해 활용 중이다. 또한, SK텔레콤은 한국오므론제어기기와는 체온 검사, 자외선(UV)램프를 이용한 코로나19방역로봇을 개발한 바 있다./이미지투데이토론에 참여한 기업들은 5G 기술이 고용량 데이터를 빠르게 전송해 공장의 생산라인을 자동화하고 로봇의 자율이동을 돕는데 크게 기여할 것으로 기대했다. 또한 모든 제조 현장이 무선 기반으로 전환되고 있는 만큼 기기의 배터리 수명도 함께 늘려야 한다고 제언했다./김성태기자 kim@sedaily.com산업은행은 국내 중소 제조업체의 스마트팩토리 솔루션 도입을 위해 투자를 아끼지 않을 것이라 밝혔다. 또한 정부와 기관도 스마트팩토리의 확산과 정착을 위해 기반 제도와 표준화 정책, 그리고 관련 인력 양성 등 지속적인 협조를 약속했다./김성태기자 kim@sedaily.com[서울경제 바로가기]▶ 네이버 채널에서 '서울경제' 구독해주세요!▶ [집슐랭] 미슐랭 가이드처럼 알찬 부동산뉴스저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>국민대학교 전경. 뉴스1  [파이낸셜뉴스] 국민대학교·한국전자통신연구원 컨소시엄이 서울시와 AI 양재 허브 운영에 관한 수탁 협약을 체결했다고 3일 밝혔다. 총 사업기간은 2년 6개월이다.   AI 양재 허브는 서울시가 인공지능 중심의 창의인재와 우수기업이 함께 성장·교류하는 기회를 만들기 위해 조성한 AI 특화 개방형 혁신거점으로, 7개 건물 1만 8000㎡에 해당하는 시설로 구성됐다. 2020년 하반기 운영사업비는 약 29억 규모이다.   AI 양재 허브에서는 △AI 전문 인재양성 △AI 특화기업 성장지원 △AI 협업 연구 문화조성 △AI 소통 및 교류 활성화 프로그램을 운영하게 된다.   이번 협약을 통해 AI 양재 허브에서는 소프트웨어와 하드웨어를 아우르는 융합형 AI 전문인재 양성을 위한 교육 프로그램을 운영할 예정이다. 기업·혁신 교육 기관과의 프로젝트 기반 협력 교육과정을 개발해 프로젝트 참여를 통한 실무 전문가 양성을 적극 지원한다. 교육은 취업연계형, 직무전환형, 실전응용형, 논문발표형, 기업연계형 등 세분화 과정의 수요 맞춤형으로 제공할 계획이다.   나아가 글로벌 경쟁력을 갖춘 AI 특화 기업을 지원하고 육성한다. 인공지능 중심으로 4차 산업 관련 스타트업을 발굴해 양재 허브에 입주하는 보육 기업은 R&amp;D 및 경영 지원, AI 특화 펀드 및 자금 지원, 국내 판로개척은 물론 글로벌 시장 진출 및 홍보 지원뿐 아니라 특허, 세무회계, 인사, 노무, 산학협력 등에 대한 지원도 병행할 계획이다.   국민대 관계자는 "AI 전문인재, 스타업과 선도기업이 소통하고 상생하는 AI 산업 생태계를 구축하는 목표"라며 "국내·외 AI 전문가와 관련 기관과의 협업을 통해 글로벌 AI 컨퍼런스 개최, AI 전문가 초청강연, 인공지능 산업 정보 통합 플랫폼을 운영할 계획"이라고 밝혔다.  hoya0222@fnnews.com 김동호 기자   ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t>이준희 UNIST 교수팀, '사이언스'에 게재상용화되면 초집적·초절전 인공지능 반도체도 구현 가능[아시아경제 이기민 기자] 손톱만한 크기에 고화질(HD)급 영화 수만 편을 저장할 수 있는 고집적 반도체를 구현할 이론을 국내 연구진이 발견했다. 반도체 공정에 널리 쓰이는 소재를 활용해 산소 원자 4개에 1비트(bit)의 정보를 저장해 손톱 크기에 500Tb(테라비트, 약 62테라바이트ㆍTB)를 저장하는 이론상 한계치를 제시한 것이다. TB는 기억 용량을 나타내는 정보량의 단위로, 1TB는 1024GB(기가바이트)에 해당하며 대략 HD급 영화 250편을 저장할 수 있다. 이 연구 결과는 1비트를 원자 간 간격 정도인 0.5㎚(나노미트)에 저장, 반도체 집적도를 현재보다 1000배 높일 수 있음을 의미하는 것이다. 업계는 이번 연구 결과를 상용화한다면 반도체 산업의 패러다임이 바뀔 것으로 보고 있다.과학기술부와 삼성전자는 이준희 울산과학기술원(UNIST) 에너지 및 화학공학부 교수팀이 이 같은 내용이 담긴 논문을 국제학술지 '사이언스(Science)'에 게재했다고 3일 밝혔다. 순수 이론 논문이 사이언스에 게재되는 경우는 드물다. 국내 연구팀 단독 교신으로 진행한 이 연구가 이론적 엄밀성 및 독창성, 산업적 파급력을 인정받은 것이다.그간 반도체 업계는 소자의 성능을 향상시키려고 미세화를 통해 단위 면적당 집적도를 높여 왔다. 그러나 데이터 저장을 위해서는 탄성으로 연결된 수천 개의 원자집단인 '도메인'이 반드시 필요해 일정 수준 이하로 크기를 줄일 수 없었다. 반도체 소자가 한계 수준 이하로 작아지면 정보를 저장하는 능력이 사라지는 '스케일링(Scaling)' 현상이 발생하기 때문이다. 스케일링 현상이 발생하면 반도체의 기본 작동 원리인 0과 1을 제대로 구현할 수 없다.이 교수팀은 이번 연구에서 현재 반도체 트랜지스터의 게이트 전압 전극물질로 사용되는 산화하프늄(HfO2)에 전압을 걸면 원자 간 스프링처럼 연결된 탄성작용이 완전히 사라지는 새로운 물리현상을 발견했다. 이어 이를 메모리 반도체에 적용해 집적도를 1000배 향상할 수 있음을 입증했다. 원자 간 상호작용이 특정 조건에서 완전히 사라지는 것은 소위 '평평한 에너지띠(flat energy band)'라는 물리학 이론으로 예측되는 현상이다. 연구팀이 산화하프늄에 전압을 걸면 실제 이 현상이 일어난다는 것을 처음으로 발견한 것이다. 전압을 건 산화하프늄에는 탄성작용이 사라져 산소 원자 4개 한 묶음에 데이터(1비트)를 저장하거나 개별 제어할 수 있어 도메인이 필요없어지게 된다. 산소 원자 4개가 위쪽으로 움직이면 '0', 아래쪽으로 움직이면 '1'이 되는 방식이다. 이는 전기를 끊어도 그대로 유지돼 비휘발성 메모리로도 사용할 수 있다.후속연구에서 이 현상을 적용해 실증화ㆍ상용화를 이뤄낸다면 반도체 산업의 패러다임 자체가 바뀔 전망이다. 현재 10㎚ 수준에 멈춰 있는 반도체 공정을 0.5㎚까지 미세화 할 수 있게 될 것으로 전망된다. 따라서 원자에 직접 정보를 저장이 가능하고, 기존 메모리 소재로는 불가능하다고 여겼던 작은 반도체뿐 아니라 초집적ㆍ초절전 인공지능 반도체 구현도 가능할 것으로 학계와 반도체 업계는 예측하고 있다. 특히 산화하프늄은 기존 실리콘 반도체 공정에서 이미 흔하게 사용되는 물질이어서 상업화 적용 가능성이 높고 파급력도 클 것으로 기대된다. 연구팀은 이 연구 결과를 반도체에 적용하는 기술에 대한 특허를 출원하고 기업들과 후속 연구를 추진하고 있다.이 교수는 "이 연구는 향후 초집적 반도체 분야에 세계적 경쟁력을 확보하는데 중요한 기반이 될 수 있는 이론을 제시한 것"이라며 "개별 원자에 정보를 저장하는 기술은 원자를 쪼개지 않는 한 현 반도체 산업의 마지막 집적저장 기술이 될 확률이 높다"고 말했다.한편 이번 연구는 지난해 12월 삼성미래기술육성사업 과제로 선정돼 연구 지원을 받고 있으며 과학기술정보통신부 미래소재디스커버리 사업 지원도 받아 수행됐다. 삼성미래기술육성사업은 국가 미래 과학기술 연구 지원을 위해 2013년부터 10년간 1조5000억원을 지원할 예정이며, 지금까지 589개 과제에 연구비 7589억원을 집행했다. 삼성전자는 CSR 비전 '함께가요 미래로! Enabling People' 아래 삼성미래기술육성사업, 스마트공장, C랩 아웃사이드, 협력회사 상생펀드 등 상생 활동과 청소년 교육 사회공헌 활동을 펼치고 있다.이기민 기자 victor.lee@asiae.co.kr▶ 2020년 하반기, 재물운·연애운·건강운 체크!▶ 네이버에서 아시아경제 뉴스를 받아보세요 ▶ 놀 준비 되었다면 드루와!  드링킷!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[머니투데이 이민하 기자] 교원구몬은 다음 달까지 인공지능(AI) 학습지 '스마트구몬'의 안심 체험 이벤트를 진행한다고 3일 밝혔다. 스마트구몬은 답부터 문제풀이 과정까지 학습 전 과정을 분석해 최적의 맞춤학습을 제공하는 AI 학습지다. 1 대 1 화상관리 서비스인 '스마트클래스'를 통해 집에서 수준별 학습을 받을 수 있다. 이번 이벤트는 구몬교사의 1 대 1 방문 관리뿐 아니라 스마트클래스, 자동채점, 오답 정정 학습시스템, 디지털 콘텐츠 프리패스 등 정회원의 교육서비스를 그대로 체험할 수 있다.행사 기간 내 스마트구몬 무료체험을 신청하거나 신규 가입한 회원을 대상으로 백화점상품권, 구몬도서 52권 등 경품을 추첨 증정한다.이민하 기자 minhari@mt.co.kr▶줄리아 투자노트▶조 변호사의 가정상담소 ▶머니투데이 구독하기 &lt;저작권자 ⓒ '돈이 보이는 리얼타임 뉴스' 머니투데이, 무단전재 및 재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		  [파이낸셜뉴스] SK텔레콤은 경기도 안산시 스마트제조혁신센터에서 5G-SFA 주관 5G SFA 아레나 라이브 행사를 개최했다고 3일 밝혔다.   이날 행사에는 SK텔레콤을 비롯 삼성전자, 산업은행 등 참여 기업과 함께 기가코리아사업단장 이성춘, 전자부품연구원 본부장 이형수 등 주요 관계자가 온오프라인을 통해 참석했으며 5G 스마트팩토리 확산을 위한 전략과 비전도 함께 공유했다.   SK텔레콤은 이날 행사에서 제조 기업 맞춤형 빅데이터 분석 솔루션 메타트론 그랜드뷰를 클라우드 기반 월 구독 형태의 서비스로 출시한다고 밝혔다. SK텔레콤은 코로나19로 인해 국내 제조 기업의 공장 자동화와 운영 효율화가 시급해진 상황에서 대한민국 중소제조기업의 빠르고 저렴한 스마트팩토리 솔루션 적용을 돕기 위해 이번 서비스를 출시했다.   SK텔레콤이 개발한 5G 기반 빅데이터 분석 솔루션 메타트론 그랜드뷰는 공장 내 주요 설비에 부착된 센서를 통해 회전수, 진동 및 전류 등 다양한 데이터를 수집, 분석해 설비의 현 상태와 유지보수가 필요한 시점을 실시간으로 예측, 효율적 설비 운용을 돕는다.   실제로 메타트론 그랜드뷰 도입시 설비 유지보수 최적화를 통해 제조 생산성이 향상돼 평균 15%의 비용 절감 효과를 거둘 수 있으며 인공지능(AI) 기반 예지보전을 통해 주요 설비 및 부품의 수명도 20% 이상 늘어난다. 이번에 출시된 서비스는 클라우드를 기반으로 구축돼 기존 서비스 대비 빠르게 현장에 적용할 수 있다. 또한 월 단위 과금을 적용해 중소기업들의 초기 비용 부담을 줄였다.   SK텔레콤은 이번 서비스 출시를 맞아 100개 중소제조기업에게 메타트론 그랜드뷰 서비스를 6개월간 무료로 제공한다. 아울러 스마트팩토리 솔루션 운용 교육과 사물인터넷(IoT) 단말 설치, ADT캡스의 출동형 보안 상품까지 지원한다.   이날 SK텔레콤은 보쉬렉스로스코리아, 한국오므론제어기기, 엔텔스 등과의 스마트팩토리 협력 성과도 공유했다. SK텔레콤은 보쉬렉스로스코리아와 함께 사람이 직접 작업하기 어려운 수문개폐를 위한 스마트팩토리 솔루션을 개발해 활용 중이며 한국오므론제어기기와는 체온 검사, UV램프를 이용한 방역 등 기존에 사람이 하던 업무를 로봇이 대신함으로써 보다 체계적이고 효율적인 코로나19 대응에 기여하기 위해 코로나19방역로봇을 개발한 바 있다.   최낙훈 SK텔레콤 Industrial Data 사업 유닛장은 "대한민국 GDP의 29.3%는 제조업에서 나오며 중소 중견 기업은 그 중 상당수를 차지한다"며 "SK텔레콤은 중소 중견 제조업에 실질적으로 도움이 되는 스마트팩토리 서비스를 제공하기 위해 앞으로도 제조업 전문가와 당사의 AI 빅데이터 역량을 융합하는 등 다양한 노력을 지속할 것"이라고 말했다.    syj@fnnews.com 서영준 기자   ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ '아는 척'하고 싶은 당신을 위한 [두유노우]  ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		[아시아경제 조슬기나 기자] SK텔레콤이 자사의 제조 기업 맞춤형 빅데이터 분석 솔루션인 ‘메타트론 그랜드뷰(Metatron Grandview)’를 클라우드 기반 월 구독 형태의 서비스로 출시한다. 제조 생산성을 끌어올리는 것은 물론, 월 단위 과금으로 도입에 대한 초기 비용부담까지 줄임으로써 중소기업의 스마트팩토리 확산에 기여할 것으로 기대된다. SK텔레콤은 3일 경기도 안산시 ‘스마트제조혁신센터’에서 열린 ‘5G SFA Arena Live’ 행사를 통해 이 같이 밝혔다. 행사 주관사인 5G-SFA는 5G 스마트팩토리 규격 표준화 주도 및 확산을 위한 단체로 총 34개 기업과 정부, 기관 관계자가 참여 중이다. SK텔레콤은 5G-SFA 내 유일한 통신사로 회장사를 역임하고 있다.SK텔레콤의 메타트론 그랜드뷰는 공장 내 주요 설비에 부착된 센서를 통해 회전수, 진동 및 전류 등 다양한 데이터를 수집·분석해 설비의 현 상태와 유지보수가 필요한 시점을 실시간으로 예측, 효율적 설비 운용을 돕는다. 도입 시 설비 유지보수 최적화를 통해 제조 생산성을 향상시키고 평균 15%의 비용 절감 효과를 거두는 것으로 추산된다.SK텔레콤은 이번 월 구독 형태의 서비스 출시를 맞아 100개 중소제조기업에게 ‘메타트론 그랜드뷰’ 서비스를 6개월간 무료로 제공한다. 이와 함께 스마트팩토리 솔루션 운용 교육과 사물인터넷(IoT) 단말 설치를 지원한다. ADT캡스도 중소제조기업 대상 체험단 모집에 동참한다.이날 SK텔레콤은 보쉬렉스로스코리아, 한국오므론제어기기, 엔텔스 등과의 스마트팩토리 협력 성과도 공유했다.SK텔레콤은 보쉬렉스로스코리아와 함께 사람이 직접 작업하기 어려운 수문개폐를 위한 스마트팩토리 솔루션을 개발해 활용 중이며, 한국오므론제어기기와는 체온 검사, UV램프를 이용한 방역 등 기존에 사람이 하던 업무를 로봇이 대신함으로써 보다 체계적이고 효율적인 코로나19 대응에 기여하기 위해 코로나19방역로봇을 개발한 바 있다.최낙훈 SK텔레콤 Industrial Data 사업 유닛장은 “대한민국 GDP의 29.3%는 제조업에서 나오며, 중소·중견 기업은 그 중 상당수를 차지한다”며 “SK텔레콤은 중소·중견 제조업에 실질적으로 도움이 되는 스마트팩토리 서비스를 제공하기 위해 앞으로도 제조업 전문가와 당사의 인공지능(AI)·빅데이터 역량을 융합하는 등 다양한 노력을 지속할 것”이라고 밝혔다.이날 행사에서 SK텔레콤과 파트너사, 정부 및 기관 관계자는 ▲스마트팩토리 적용에 적합한 분야 ▲국내외 5G 스마트팩토리 사업 현황 ▲5G 스마트팩토리 생태계 확산 방안 등에 대해 활발히 논의하는 시간을 가졌다.SK텔레콤, 에릭슨LG 등 토론에 참여한 기업들은 5G 기술이 고용량 데이터를 빠르게 전송해 공장의 생산라인을 자동화하고 로봇의 자율이동을 돕는데 크게 기여할 것으로 기대했다. 또한 모든 제조 현장이 무선 기반으로 전환되고 있는 만큼 기기의 배터리 수명도 함께 늘려야 한다고 제언했다.산업은행 역시 국내 중소 제조업체의 스마트팩토리 솔루션 도입을 위해 투자를 아끼지 않을 것이라 밝혔다. 정부와 기관도 스마트팩토리의 확산과 정착을 위해 기반 제도와 표준화 정책, 그리고 관련 인력 양성 등 지속적인 협조를 약속했다.조슬기나 기자 seul@asiae.co.kr▶ 2020년 하반기, 재물운·연애운·건강운 체크!▶ 네이버에서 아시아경제 뉴스를 받아보세요 ▶ 놀 준비 되었다면 드루와!  드링킷!&lt;ⓒ경제를 보는 눈, 세계를 보는 창 아시아경제 무단전재 배포금지&gt;</t>
+  </si>
+  <si>
+    <t>스마트팩토리 솔루션 ‘그랜드뷰’ 내놓아…100곳에 6개월 무료 이벤트[서울=뉴시스] 이진영 기자 = SK텔레콤이 제조기업 맞춤형 빅데이터 분석 솔루션 ‘메타트론 그랜드뷰’를 월 구독 형태의 서비스로 내놓는다. SK텔레콤은 3일 경기도 안산시 '스마트제조혁신센터'에서  5G 스마트팩토리 얼라이언스(5G-SFA) 주관 ‘아레나 라이브' 행사를 개최해 이같이 발표했다. SK텔레콤은 코로나19로 인해 국내 제조 기업의 공장 자동화 및 운영 효율화가 시급해진 상황에서 대한민국 중소 제조기업의 빠르고 저렴한 스마트팩토리 솔루션 적용을 돕기 위해 출시했다고 설명했다. SK텔레콤이 개발한 메타트론 그랜드뷰는 공장 내 주요 설비에 부착된 센서를 통해 회전수, 진동 및 전류 등 다양한 데이터를 수집·분석해 설비의 현 상태와 유지보수가 필요한 시점을 실시간으로 예측, 효율적 설비 운용을 돕는다.SK텔레콤에 따르면 메타트론 그랜드뷰 도입 시, 설비 유지보수 최적화를 통해 제조 생산성이 향상돼 평균 15%의 비용 절감 효과를 거둘 수 있으며, 인공지능(AI) 기반 예지 보전을 통해 주요 설비 및 부품의 수명도 20% 이상 증가한다. 또 클라우드를 기반으로 구축돼 기존 서비스 대비 빠르게 현장에 적용할 수 있다. 이와 함께 월 단위 과금을 적용해 중소기업들의 초기 비용 부담을 줄였다.SK텔레콤은 이번 서비스 출시를 기념해 중소 제조기업 100곳에 메타트론 그랜드뷰 서비스를 6개월간 무료로 제공하기로 했다. 동시에 스마트팩토리 솔루션 운용 교육과 IoT 단말 설치, ADT캡스의 출동형 보안 상품까지 지원할 예정이다. SK텔레콤 최낙훈 인더스트리얼데이터사업 유닛장은 "대한민국 국내총생산(GDP)의 29.3%는 제조업에서 나오며, 중소·중견 기업은 그 중 상당수를 차지한다"며 "중소·중견 제조업에 실질적으로 도움이 되는 스마트팩토리 서비스를 제공하기 위해 앞으로도 제조업 전문가와 자사의 AI·빅데이터 역량을 융합하는 등 다양한 노력을 지속할 것"이라고 말했다.한편 이날 행사에는 SK텔레콤을 비롯 삼성전자, 산업은행 등 참여 기업과 함께 기가코리아사업단장 이성춘, 전자부품연구원 본부장 이형수 등 주요 관계자가 온오프라인을 통해 참석했으며 5G 스마트팩토리 확산을 위한 전략과 비전도 함께 공유했다.☞공감언론 뉴시스 mint@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		“산·학 협력의 중요성은 아무리 강조해도 지나치지 않습니다. 대학과 기업이 얼마나 협력하느냐에 따라 성과가 달라질 수 있기 때문입니다. 청년실업과 이공계 위기도 산·학 협력으로 해결할 수 있습니다.”양승학 호남대 전기공학과 교수는 철저하게 산·학 협력을 염두에 두고 교육과정을 운영하고 있다. 대학은 기업이 필요로 하는 인력과 기술을 제공하고 기업은 학생에게 현장실습 기회를 제공하는 등 동반자적 파트너십을 구축해야 한다는 확고한 신념을 갖고 있다.이러한 소신은 그의 이력에서 잘 드러난다. 지난 2009년부터 3년간 산학협력중심대학육성사업단장을 맡은 데 이어 지금까지 8년 넘게 산학협력선도대학(LINC)육성사업단을 이끌고 있다. 광주·전남에너지소프트웨어(SW)융합클러스터사업단 운영위원, 한국발명진흥회 광주지회 이사, 한국산학협동연구원 상임부원장, 사단법인 드론활성화포럼 대표, 광주전남에너지융복합단지조성사업 TFT위원장 등 10여개 넘는 기관 및 단체에서 왕성하게 활동 중이다.양승학 호남대 전기공학과 교수.양 교수는 “대학과 기업이 서로의 요구를 정확히 파악하고 충분한 정보를 공유해야만 진정한 협력이 이뤄지고 상호이익을 창출할 수 있다”면서 “다양한 기관 및 기업과 밀접하게 접촉해 대학과 기업현장 간의 괴리감을 줄이는 데 심혈을 기울이고 있다”고 말했다.그는 “산·학 협력을 성공적으로 이루기 위해서는 인력과 서비스 공급자인 대학이 먼저 변해야만 한다”면서 “대학이 기업의 수요에 맞추고 기업의 관심을 끌 수 있도록 교육 개선에도 적극 나서고 있다”고 말했다.양 교수는 이를 실천하기 위해 LINC+사업단을 통해 광주지역 3대 특화산업인 자동차, 에너지, 문화콘텐츠 분야와 정보통신기술(ICT) 융·복합으로 동반 성장을 꾀하고 있다. 기술과 교육, 정책 중심의 '산·학협력협의회'를 구성해 지역기업과 탄탄한 신뢰와 협력관계를 유지하고 있다. 현장실습학점제, 캡스톤디자인, 사례 연구, 특성화 스튜디오 등 다양한 학생지원 프로그램도 운영하고 있다.특히 그동안의 산·학협력 경험과 노하우를 인정받아 광주 광산구가 전국 기초자치단체 가운데 최초로 문을 연 기업주치의센터 운영기관으로 선정돼 경영·금융·기술·마케팅 등의 현장밀착형 서비스를 제공하고 있다.그는 4차 산업혁명 시대에 걸맞은 인재 양성을 위해 대학이 설치한 인공지능(AI) 교육센터 운영도 책임지고 있다. AI교육센터는 프로그래밍과 딥러닝 기본교육, 영상·음성·언어인지 기술을 구현하기 위한 실습을 실시한다. 학생뿐만 아니라 산업체 재직자 등 시민들의 AI교육장으로 활용한다. 모든 학문 분야에 AI융합교육을 접목하는 혁신교육의 핵심 역할을 수행할 예정이다.양 교수는 “명실상부한 국내 대학 유일의 AI특성화대 면모를 다져가고 있다”며 “'AI 중심도시 광주'에 발맞춰 호남대가 AI 인재 창출의 중심역할을 수행할 수 있도록 최선을 다하겠다”고 말했다.광주=김한식기자 hskim@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>핵심 원천 기술 개발 기대(지디넷코리아=김민선  기자)챗봇·검색 소프트웨어(SW) 기업 와이즈넛은 고려대학교 인공지능(AI) 연구센터와 AI 분야 기술 교류 및 협력을 위한 협약을 체결했다고 3일 밝혔다.고려대학교 휴먼인스파이어드(Human-inspired) AI 연구센터는 올해 설립됐다. 양측은 향후 지속적인 기술 교류를 통해 핵심 원천 기술을 개발해 낼 수 있을 것으로 기대했다.와이즈넛은 이번 고려대와의 협약 외에도 지난 20년 동안 각 분야의 전문 기관들과 협력해왔다.와이즈넛과 고려대 AI 연구센터가 AI 분야 교류 및 협력을 위한 협약을 맺었다대표적 사례로는 ▲인공지능(AI) 자동화 플랫폼 및 보안관제 전용 AI 모델 생성 노하우(KISTI, 2019) ▲생산적 적대 신경망(GAN) 기반 기계학습 데이터 생성(건국대학교, 2018) ▲딥러닝 기법을 이용한 한국어 개체명 인식 기술(고려대학교, 2017) 등이 있다.고려대 AI연구센터 초대 센터장으로 임명된 고려대 임희석 교수는 현재 와이즈넛이 함께 참가하고 있는 과학기술정보통신부의 ‘뉴럴 심볼릭 모델의 지식 학습 및 추론 기술 개발’ 연구과제의 연구 책임자다. 해당 사업은 미래 챗봇의 핵심 기술인 지식 그래프의 네트워크를 반영한 딥러닝 기술을 연구하는 사업으로서 업계 주목받고 있다.강용성 와이즈넛 대표는 “SW를 넘어 IT 산업에서 가장 중요한 것은 전문분야에 대한 원천기술 확보라고 할 수 있다”며 “와이즈넛은 인공지능 관련 연구 및 교육에 적극적으로 앞장서고 있는 고려대학교와의 협력을 통해 인공지능 생태계에서 경쟁력을 강화하고 선순환을 일으킬 수 있는 데에 일조할 수 있도록 노력해나갈 것”이라고 말했다.김민선 기자(yoyoma@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기[Copyrightⓒ메가뉴스 &amp; ZDNet &amp; CNET. 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		한국마이크로소프트와 한국정보화진흥원(NIA)이 사회적 가치 실현을 목표로 하는 AI(인공지능) 분야에 손을 잡았다. 양사는 2일 사회적 가치 실현을 위해 AI 분야 상호 협력 및 AI·데이터 경제 활성화를 위한 협약을 맺었다고 밝혔다.(왼쪽부터)한국마이크로소프트 장홍국 부문장, 김현정 부문장, 이지은 대표이사, 한국정보화진흥원 문용식 원장, 박정은 단장, 오현목 팀장양사 협력은 크게 5가지 내용을 골자로 한다. ▲사회공헌을 위한 AI 데이터 셋 발굴, 구축 및 개방을 통해 AI 생태계 활성화 ▲사회문제 해결을 위한 AI 경진대회 개최를 통해 사회적 가치실현 전문 스타트업을 발굴, 새로운 일자리 창출 도모 ▲사회현안 해결을 위한 AI 세미나 및 컨퍼런스 개최를 통해 AI 관련 전략, 정책, 사례, 경험 공유 ▲사회적 격차 해소를 위한 AI 교육 프로그램 개발 및 컨텐츠 공유 ▲기타 사회적 가치실현을 위한 AI 분야 협력 등이다.양사는 이를 위해 실무협의회를 구성하고 오는 7월부터 12월까지 단계적으로 계획을 추진해 나갈 예정이다.문용식 NIA 원장은 “코로나19로 인해 초래된 국가적 위기를 극복하기 위해 모두가 힘을 합쳐야 할 시기에 글로벌 선도기업이 협업하여 AI에 대한 새로운 방향성을 모색하고 사회적 가치를 창출하는 모습이 좋은 선례가 될 것”이라고 말했다.이지은 한국마이크로소프트 대표이사는 “마이크로소프트의 글로벌 경험과 AI 기술력을 바탕으로 한국정보화진흥원과 사회적 가치를 함께 창출하고, 이를 통해 사회 다양한 계층이 AI의 혜택을 누릴 수 있도록 협력해 나가겠다”라고 밝혔다.한편, 한국마이크로소프트는 기술로서의 AI 뿐만 아니라 정책, 사회, 문화 등 다양한 방면에서 AI 확산을 위한 ‘한국형 AI 활성화를 위한 포괄적 지원 플랜’을 지난해 발표한 바 있다. 이번 협약 또한 이러한 노력의 일환으로 정부기관, 사회 단체 등과 함께 전방위 협업을 통한 종합적 발전을 위한 토대를 마련하기 위해 지속적인 노력을 기울일 예정이다.이기범 기자(spirittiger@bloter.net)[블로터 바로가기]▶ 네이버 메인에서 블로터 뉴스 구독하기▶ 블로터 아카데미에서 마케팅 역량을 키우세요▶ 확장 가능 애자일 조직, 디지털 성장의 핵심동력저작권자 ⓒ(주)블로터앤미디어, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>[디지털데일리 김소영기자] 네이버 커넥트재단(이사장 조규찬)은 지난 2일 SEF2020(Software Edu Fest2020)를 개최했다고 3일 밝혔다. SEF는 소프트웨어(SW) 전문들과 교육자, 학습자가 모여 SW교육 경험과 노하우를 공유하고, 방향성을 논의하는 소프트웨어 교육 컨퍼런스다.  SEF2020는 2~3일 진행된다. 첫날 행사는 장석영 과학기술정보통신부 제2차관의 온라인 축사와 함께 시작됐다. 장 차관은 “비대면 서비스가 활성화되면서 디지털 전환의 속도가 더욱 더 빨라지고, 다양한 분야에서 인공지능(AI)기술을 효과적으로 활용해 문제를 창의적으로 해결하는 역량을 기르는 SW‧AI 교육이 무엇보다 중요해지고 있다”고 강조했다.     같은날 네이버 커넥트재단의 조규찬 이사장은 “네이버 커넥트재단은 교육을 필요로 하는 어린이부터 성인까지 누구나 디지털 소외 없이, 소프트웨어와 인공지능 관련 역량을 함양할 수 있는 교육사업을 진행하겠다”고 했다. 재단은 이를 위해 네이버와 긴밀하게 협력, 네이버의 기술과 경험을 더한 다양한 교육을 진행할 예정이라고 전했다.   특히 7월부터 ‘Play with AI, Play with DATA’라는 주제 하에 학생들이 인공지능 기술과 데이터 활용 교육을 접할 수 있도록 ‘소프트웨어야 놀자’ 사이트를 공개하고 캠페인을 본격적으로 시작했다고 부연했다. 재단은 SW뿐만 아니라 AI에 대한 심리적 장벽을 낮추고 문‧이과 구분 없이 높은 디지털 이해도를 갖춘 ‘융합형 인재’를 육성할 계획이다.    김지현 네이버 커넥트재단 사무국장은 “SEF를 통해 전문가들의 풍부한 경험과 노하우들이 공유되어 실질적인 배움으로 연결되는 장이 되길 바란다"며 “네이버 커넥트재단은 앞으로도 초등학생부터 성인에 이르기까지, 모두를 위한 AI와 SW교육 활성화에 앞장설 것”이라고 밝혔다.    &lt;김소영 기자&gt;sorun@ddaily.co.kr▶ 네이버에서 디지털데일리 채널 구독하기▶ IT정보의 즐거운 업그레이드 [딜라이트닷넷]&lt;저작권자 © 디지털데일리 무단전재-재배포금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		“교육을 필요로 하는 어린이부터 성인까지 누구나 디지털 소외 없이, 소프트웨어와 인공지능 관련 역량을 함양할 수 있는 교육사업을 진행하겠다.” 조규찬 네이버 커넥트재단 이사장은 2일 네이버 커넥트재단 주최로 열린 SEF2020(Software Edu Fest2020·소프트웨어 에듀 페스트2020) 온라인 연단에 올라 이같이 말했다.조 이사장은 “수학이나 물리처럼 소프트웨어가 모든 분야의 기본 역량이 되어 감에 따라, 모두가 프로그래머가 될 필요는 없지만 SW역량을 갖춘다면 할 수 있는 일은 많아질 것”이라며 비영리 교육기관으로서 재단이 나아갈 방향성을 공개했다.네이버 커넥트재단이 매년 개최하고 있는 SEF는 소프트웨어(SW) 전문들과 교육자, 학습자가 함께 모여 SW교육의 경험과 노하우를 공유하고, 그 방향성에 대해 자유롭게 논의하는 국내 최대 규모 소프트웨어 교육 컨퍼런스다. 코로나19 상황 속 안전한 컨퍼런스를 위해 온라인으로 진행된 SEF2020의 첫날에는 정부 관계자와 IT전문가 등 연사들이 참여해 소프트웨어(SW), 인공지능(AI)의 중요성을 강조하고 교육방향성에 대해 제언했다.｜네이버커넥트재단 조규찬 이사장이날 온라인 축사를 맡은 장석영 과학기술정보통신부 제 2차관은 “비대면 서비스가 활성화되면서 디지털 전환의 속도가 더욱 더 빨라지고, 다양한 분야에서 AI기술을 효과적으로 활용해 문제를 창의적으로 해결하는 역량을 기르는 SW‧AI 교육이 무엇보다 중요해지고 있다”고 소프트웨어 교육의 시의적 중요성을 강조하고 “정부도 디지털 대전환의 동반자가 되겠다”며 미래인재 육성에 대한 다짐과 민관이 함께 협력해 나갈 것을 당부했다.네이버 커넥트재단은 네이버와 긴밀하게 협력하며 네이버의 기술과 경험을 더한 다양한 교육을 진행할 예정이다. 초‧중학생 대상의SW교육 프로그램 ‘소프트웨어야 놀자’가 대표적인 예다. 재단과 네이버가 2013년부터 진행해오고 있는 ‘소프트웨어야 놀자’는 다양한 지역의 학생들을 대상으로, 컴퓨터를 활용한 문제해결 능력과 논리적 사고능력을 키울 수 있도록 설계된 교육 프로그램이다. 블록을 쌓듯이 프로그래밍 명령어를 조합해 창작물을 만들어 낼 수 있는 ‘엔트리’ 플랫폼을 활용해, 학생뿐만 아니라 선생님들이 유용하게 활용할 수 있는 다양한 시청각 교육 자료를 제공한다.7월부터는 'Play with AI, Play with DATA'를 주제로 많은 학생들이 인공지능 기술과 데이터 활용 교육을 접할 수 있도록 돕는 ‘소프트웨어야 놀자’ 사이트를 공개하고 캠페인을 본격적으로 시작했다. SW뿐만 아니라 AI에 대한 심리적 장벽을 낮추고 문‧이과 구분 없이, 높은 디지털 이해도를 갖춘 ‘융합형 인재’를 육성하겠다는 계획이다.네이버는 이 과정에서 활용 가능한 데이터와 기술적 도구를 제공해 학습 현장에서 풍부한 실습이 이뤄지도록 지원한다. 예를 들어, 네이버가 자체 개발해 갖추고 있는 ‘얼굴인식 기술’이나 ‘음성인식 기술’ 등을 제공해, 학생들이 프로젝트를 진행하는 과정에 이를 편하게 활용하고 기술적 제약 없이 상상력을 펼칠 수 있도록 돕는다.네이버 커넥트재단 김지현 사무국장은 “SEF를 통해 전문가들의 풍부한 경험과 노하우들이 공유되어 실질적인 배움으로 연결되는 장이 되길 바란다"며, “네이버 커넥트재단은 앞으로도 초등학생부터 성인에 이르기까지, 모두를 위한 AI와 SW교육 활성화에 앞장설 것”이라고 밝혔다. 아울러, “이를 위해 재단과 네이버의 협력을 통해 제공되는 다양한 인프라를 활용하며 누구나 소프트웨어적 상상력을 실현할 수 있는 교육 환경을 만들어 갈 것”이라고 덧붙였다.한편, 온라인으로 진행된 SEF2020는 사전 신청자 수 1만명을 기록했다. 김인경 기자(shippo@bloter.net)[블로터 바로가기]▶ 네이버 메인에서 블로터 뉴스 구독하기▶ 블로터 아카데미에서 마케팅 역량을 키우세요▶ 확장 가능 애자일 조직, 디지털 성장의 핵심동력저작권자 ⓒ(주)블로터앤미디어, 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>SEF2020에서 조규찬 네이버커넥트재단 이사장이 온라인 축사와 함께 재단의 교육 방향성에 대해 설명하고 있다. (네이버 제공) © 뉴스1(서울=뉴스1) 송화연 기자 = 네이버 공익교육 사업을 담당하는 비영리기관 네이버커넥트재단은 소프트웨어(SW) 교육 콘퍼런스 SEF2020(Software Edu Fest2020)을 개최하고 인공지능(AI)과 데이터 등 IT교육에 앞장서겠다고 3일 밝혔다.SEF2020은 소프트웨어 전문가들과 교육자, 학습자가 모여 개발 경험과 노하우를 공유하는 연례행사다. 올해 콘퍼런스는 신종 코로나바이러스 감염증(코로나19) 여파로 온라인으로 진행됐다.지난 2일부터 이날까지 양일간 진행된 콘퍼런스에는 정부 관계자와 IT전문가가 연사로 참여해 4차산업혁명 속 소프트웨어와 인공지능(AI)의 중요성을 강조하고 교육방향성을 제언했다.장석영 과학기술정보통신부 2차관은 온라인 축사를 통해 "비대면 서비스가 활성화되면서 디지털 전환의 속도가 더욱 더 빨라지고, 다양한 분야에서 AI 기술을 효과적으로 활용해 문제를 창의적으로 해결하는 역량을 기르는 소프트웨어‧AI 교육이 무엇보다 중요해지고 있다"며 "정부도 디지털 대전환의 동반자가 되겠다"고 말했다.조규찬 네이버커넥트재단 이사장은 "수학이나 물리처럼 소프트웨어가 모든 분야의 기본 역량이 되어 감에 따라, 모두가 프로그래머가 될 필요는 없지만 소프트웨어 역량을 갖춘다면 할 수 있는 일은 많아질 것"이라며 "재단은 교육을 필요로 하는 어린이부터 성인까지 누구나 디지털 소외 없이 소프트웨어와 AI 관련 역량을 함양할 수 있는 교육사업을 진행하겠다"고 밝혔다.네이버커넥트재단은 네이버와 긴밀하게 협력하며 네이버의 기술과 경험을 더한 다양한 교육을 진행한다는 계획이다. 현재 재단과 회사는 초등학생과 중학생을 대상으로 한 소프트웨어 교육 프로그램 '소프트웨어야 놀자'를 운영하고 있다.이 프로그램은 국내 여러 지역의 학생들을 대상으로, 컴퓨터를 활용한 문제해결 능력과 논리적 사고능력을 키울 수 있도록 설계된 교육 프로그램이다. 블록을 쌓듯이 프로그래밍 명령어를 조합해 창작물을 만들어 낼 수 있는 '엔트리' 플랫폼을 활용해 학생뿐만 아니라 교사에게도 다양한 시청각 교육자료를 제공하고 있다.재단은 이 교육프로그램을 이달부터 업그레이드했다. 참가 학생들은 '인공지능, 데이터와 놀자'(Play with AI, Play with DATA)라는 주제 아래 AI 기술과 데이터 활용 교육을 접하게 된다.일례로 네이버는 자체 개발한 얼굴인식 기술을 학생에게 제공해 상상력을 펼칠 수 있도록 돕는다. 재단과 회사는 이를 통해 문·이과 구분없이 높은 디지털 이해도를 갖춘 융합형인재를 육성하겠다는 계획이다.김지현 네이버 커넥트재단 사무국장은 "네이버 커넥트재단은 앞으로도 초등학생부터 성인에 이르기까지 모두를 위한 AI와 SW교육 활성화에 앞장설 것"이라며 "이를 위해 재단과 네이버의 협력을 통해 제공되는 다양한 인프라를 활용하며 누구나 소프트웨어적 상상력을 실현할 수 있는 교육 환경을 만들어 나가겠다"고 강조했다.hwayeon@news1.kr▶ 네이버 메인에서 [뉴스1] 구독하기!▶  뉴스1 바로가기 ▶  코로나19 뉴스 © 뉴스1코리아(news1.kr), 무단 전재 및 재배포 금지</t>
+  </si>
+  <si>
+    <t>이지은(왼쪽) 한국MS 대표와 문용식 NIA 원장이 사회적 가치 실현을 위한 AI 협력을 맺은 뒤 기념촬영했다. 한국MS 제공한국마이크로소프트(MS)와 한국정보화진흥원(NIA)이 사회적 가치 실현을 목표로 인공지능(AI) 분야에 협력한다.양측은 △AI 데이터셋 발굴·구축·개방을 통한 AI 생태계 활성화 △AI 대회를 통한 사회적 가치 실현 스타트업을 발굴과 일자리 창출 △AI 세미나·컨퍼런스를 통한 AI 전략, 정책, 경험 공유 △사회적 격차 해소를 위한 AI 교육 프로그램 개발과 콘텐츠 공유 △기타 사회적 가치 실현을 위한 AI 분야 협력을 추진한다.이를 위해 실무협의회를 구성하고 12월까지 계획을 단계적으로 실행한다.이지은 한국MS 대표는 “MS 글로벌 경험과 AI 기술력을 바탕으로 NIA와 함께 사회적 가치를 창출하고 다양한 사회 계층이 AI 혜택을 누릴 수 있도록 협력하겠다”고 말했다.오다인기자 ohdain@etnews.com▶ 차세대 인공지능(AI) 서비스의 디자인 방법론과 사례▶ 네이버 홈에서 [전자신문] 구독하기 [Copyright ⓒ 전자신문 &amp; 전자신문인터넷, 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>AI 전략부터 정책, 산업 분야까지 정보공유[서울=뉴시스] 이재은 기자 = 한국마이크로소프트와 한국정보화진흥원(NIA)이 사회적 가치 실현을 목표로 하는 AI(인공지능) 분야 협력에 손을 잡았다.양사는 2일 사회적 가치 실현을 위해 AI 분야의 상호 협력을 강화하고, AI·데이터 경제 활성화를 성공적으로 수행하기 위해 AI 전략에서부터 정책, 산업 분야까지 정보공유와 상호협력을 함께한다고 3일 밝혔다.협력내용은 ▲사회공헌을 위한 AI 데이터 셋 발굴, 구축 및 개방을 통해 AI 생태계 활성화 ▲사회문제 해결을 위한 AI 경진대회 개최를 통해 사회적 가치실현 전문 스타트업을 발굴, 새로운 일자리 창출 도모 ▲사회현안 해결을 위한 AI 세미나 및 컨퍼런스(AI for Society) 개최를 통해 AI 관련 전략, 정책, 사례, 경험 공유 ▲사회적 격차 해소를 위한 AI 교육 프로그램 개발 및 컨텐츠 공유 ▲기타 사회적 가치실현을 위한 AI 분야 협력 등 5가지 내용을 골자로 한다.양사는 이를 위해 실무협의회를 구성하고 오는 7월부터 12월까지 단계적으로 계획을 추진해 나갈 예정이다.한국정보화진흥원 문용식 원장은 “코로나19로 인해 초래된 국가적 위기를 극복하기 위해 모두가 힘을 합쳐야 할 시기에 글로벌 선도기업이 협업하여 AI에 대한 새로운 방향성을 모색하고 사회적 가치를 창출하는 모습이 좋은 선례가 될 것” 이라고 말했다.한국마이크로소프트 이지은 대표이사는 “마이크로소프트의 글로벌 경험과 AI 기술력을 바탕으로 한국정보화진흥원과 사회적 가치를 함께 창출하고, 이를 통해 사회 다양한 계층이 AI의 혜택을 누릴 수 있도록 협력해 나가겠다”고 말했다. 한편, 한국마이크로소프트는 ‘한국형 AI 활성화를 위한 포괄적 지원 플랜’을 통해 기술로서의 AI 뿐만 아니라 정책, 사회, 문화 등 다각도에서 모든 이가 AI의 혜택을 누릴 수 있도록 노력하고 있다. 이번 협약 또한 이러한 노력의 일환으로 정부기관, 사회 단체 등과 함께 전방위 협업을 통한 종합적 발전을 위한 토대를 마련하기 위해 지속적인 노력을 기울일 예정이다.☞공감언론 뉴시스 lje@newsis.com▶ 네이버에서 뉴시스 구독하기▶ K-Artprice, 유명 미술작품 가격 공개▶ 뉴시스 빅데이터 MSI 주가시세표 바로가기&lt;ⓒ 공감언론 뉴시스통신사. 무단전재-재배포 금지&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		(지디넷코리아=김우용  기자)한국마이크로소프트와 한국정보화진흥원(NIA)이 사회적 가치 실현을 목표로 하는 인공지능(AI) 분야 협력에 손을 잡았다.양사는 2일 사회적 가치 실현을 위해 AI 분야의 상호 협력을 강화하고, AI·데이터 경제 활성화를 성공적으로 수행하기 위해 AI 전략에서부터 정책, 산업 분야까지 정보공유와 상호협력을 함께한다고 밝혔다.한국마이크로소프트와 NIA는 사회적 가치 실현을 위한 AI 개발을 위해 협력하기로 했다. 한국마이크로소프트 이지은 대표이사(왼쪽)와 한국정보화진흥원 문용식 원장.협력내용은 크게 5가지 내용을 골자로 한다. 사회공헌을 위한 AI 데이터 셋 발굴, 구축 및 개방을 통해 AI 생태계 활성화, 사회문제 해결을 위한 AI 경진대회 개최를 통해 사회적 가치실현 전문 스타트업을 발굴, 새로운 일자리 창출 도모, 사회현안 해결을 위한 AI 세미나 및 컨퍼런스(AI for Society) 개최를 통해 AI 관련 전략, 정책, 사례, 경험 공유, 사회적 격차 해소를 위한 AI 교육 프로그램 개발 및 컨텐츠 공유, 기타 사회적 가치실현을 위한 AI 분야 협력 등이다.양사는 이를 위해 실무협의회를 구성하고 이달부터 오는 12월까지 단계적으로 계획을 추진해 나갈 예정이다.한국정보화진흥원 문용식 원장은 “코로나19로 인해 초래된 국가적 위기를 극복하기 위해 모두가 힘을 합쳐야 할 시기”라며 “글로벌 선도기업이 협업해 AI에 대한 새로운 방향성을 모색하고 사회적 가치를 창출하는 모습이 좋은 선례가 될 것”이라고 강조했다.한국마이크로소프트 이지은 대표이사는 “마이크로소프트의 글로벌 경험과 AI 기술력을 바탕으로 한국정보화진흥원과 사회적 가치를 함께 창출하고, 이를 통해 사회 다양한 계층이 AI의 혜택을 누릴 수 있도록 협력해 나가겠다”고 밝혔다 .한국마이크로소프트는 ‘한국형 AI 활성화를 위한 포괄적 지원 플랜’을 통해 기술로서 AI 뿐 아니라 정책, 사회, 문화 등 다각도에서 모든 이가 AI의 혜택을 누릴 수 있도록 노력하고 있다. 이번 협약 또한 이러한 노력의 일환으로 정부기관, 사회 단체 등과 함께 전방위 협업을 통한 종합적 발전을 위한 토대를 마련하기 위해 지속적인 노력을 기울일 예정이다.김우용 기자(yong2@zdnet.co.kr) ▶ 지디넷코리아 '홈페이지' ▶ 네이버 채널 구독하기[Copyrightⓒ메가뉴스 &amp; ZDNet &amp; CNET. 무단전재 및 재배포 금지]</t>
+  </si>
+  <si>
+    <t>SEF2020서 교육 방향성 공개온라인으로 진행된 SEF2020, 사전 참가 신청자 1만명국내 최대 소프트웨어교육 컨퍼런스의 인기 입증네이버가 갖춘 데이터와 인프라 활용해 기술적 제약 없는 학습 지원하겠다[이데일리 김현아 기자]네이버커넥트재단 조규찬 이사장네이버 커넥트재단(이사장 조규찬)이 주최하는 ‘SEF2020(Software Edu Fest2020)’가 2일 온라인으로 열렸다.이 행사는 네이버 커넥트재단이 매년 개최한다. 소프트웨어(SW) 전문들과 교육자, 학습자가 함께 모여 SW교육의 경험과 노하우를 공유하고, 방향성에 대해 자유롭게 논의하는 국내 최대 규모 소프트웨어 교육 컨퍼런스다.코로나19 상황 속 안전한 컨퍼런스를 위해 온라인으로 진행된 SEF2020의 첫날에는 정부 관계자와 IT전문가 등 연사들이 참여해 ‘4차산업혁명’ 속 소프트웨어(SW), 인공지능(AI)의 중요성을 강조하고 교육 방향성을 제언했다.SEF2020은 2일부터 3일까지 양일 간 진행되며, 첫날 행사는 장석영 과학기술정보통신부 제 2차관의 온라인 축사와 함께 시작됐다.장 차관은 “비대면 서비스가 활성화되면서 디지털 전환의 속도가 더욱 더 빨라지고, 다양한 분야에서 AI기술을 효과적으로 활용해 문제를 창의적으로 해결하는 역량을 기르는 SW·AI 교육이 무엇보다 중요해지고 있다”면서 소프트웨어 교육의 시의적 중요성을 강조했다.그는 “정부도 디지털 대전환의 동반자가 되겠다”며 미래인재 육성에 대한 다짐과 민관이 함께 협력해 나갈 것을 당부했다.이어 온라인 연단에 올라선 네이버 커넥트재단의 조규찬 이사장은 “수학이나 물리처럼 소프트웨어가 모든 분야의 기본 역량이 되어 감에 따라, 모두가 프로그래머가 될 필요는 없지만 SW 역량을 갖춘다면 할 수 있는 일은 많아질 것”이라며 “네이버 커넥트재단은 교육을 필요로 하는 어린이부터 성인까지 누구나 디지털 소외 없이, 소프트웨어와 인공지능 관련 역량을 함양할 수 있는 교육사업을 진행하겠다”는 비영리 교육기관으로서 재단이 나아갈 방향성을 공개했다.이를 위해, 네이버 커넥트재단은 네이버와 긴밀하게 협력하며 네이버의 기술과 경험을 더한 다양한 교육을 진행할 예정이다. 초·중학생 대상의 SW교육 프로그램 ‘소프트웨어야 놀자’가 대표적인 예다. 재단과 네이버가 2013년부터 진행해오고 있는 ‘소프트웨어야 놀자’는 다양한 지역의 학생들을 대상으로, 컴퓨터를 활용한 문제해결 능력과 논리적 사고능력을 키울 수 있도록 설계된 교육 프로그램이다. 블록을 쌓듯이 프로그래밍 명령어를 조합해 창작물을 만들어 낼 수 있는 ‘엔트리’ 플랫폼을 활용해, 학생뿐만 아니라 선생님들이 유용하게 활용할 수 있는 다양한 시청각 교육 자료를 제공한다.7월부터는 라는 주제하에 많은 학생들이 인공지능 기술과 데이터 활용 교육을 접할 수 있도록, 한층 새로워진 ‘소프트웨어야 놀자’ 사이트를 공개하고 캠페인을 본격적으로 시작했다. SW뿐만 아니라 AI에 대한 심리적 장벽을 낮추고 문·이과 구분 없이, 높은 디지털 이해도를 갖춘 ‘융합형 인재’를 육성하겠다는 계획이다.네이버는 이 과정에서 활용 가능한 데이터와 기술적 도구를 제공해 학습 현장에서 풍부한 실습이 이뤄지도록 지원한다. 예를 들어, 네이버가 자체 개발해 갖추고 있는 ‘얼굴인식 기술’이나 ‘음성인식 기술’ 등을 제공해, 학생들이 프로젝트를 진행하는 과정에 이를 편하게 활용하고 기술적 제약 없이 상상력을 펼칠 수 있도록 돕는다.네이버 커넥트재단 김지현 사무국장은 “SEF를 통해 전문가들의 풍부한 경험과 노하우들이 공유되어 실질적인 배움으로 연결되는 장이 되길 바란다“며 “네이버 커넥트재단은 앞으로도 초등학생부터 성인에 이르기까지, 모두를 위한 AI와 SW교육 활성화에 앞장설 것”이라고 밝혔다. 아울러 “이를 위해 재단과 네이버의 협력을 통해 제공되는 다양한 인프라를 활용하며 누구나 소프트웨어적 상상력을 실현할 수 있는 교육 환경을 만들어 갈 것”이라고 덧붙였다.온라인으로 진행된 SEF2020는 사전 신청자 수 1만 명을 기록하며 국내 최대 규모의 소프트웨어 교육 컨퍼런스의 인기를 실감케 했다. 오늘까지 이어지는 SEF2020행사는 SW·AI 교육에 대한 열기를 이어갈 예정이다.김현아 (chaos@edaily.co.kr)네이버에서 ‘이데일리’ 구독하기▶청춘뉘우스~ 스냅타임▶＜ⓒ종합 경제정보 미디어 이데일리 - 무단전재 &amp; 재배포 금지＞</t>
+  </si>
+  <si>
+    <t>AI 생태계 활성화 위한 스타트업 발굴·일자리 창출 등실무협의회 구성 후 연말까지 계획 추진[서울경제] 한국마이크로소프트가 한국정보화진흥원(NIA) 손을 잡고 국내 인공지능(AI) 정책 및 관련 산업 진흥을 돕기로 했다.한국MS는 NIA와 사회적 가치 실현을 목표로 한 AI 분야 상호 협력을 맺고, AI·데이터 경제 활성화를 성공적으로 수행하기 위해 AI 전략에서부터 정책, 산업 분야까지 정보를 공유하고 협력한다고 3일 밝혔다.협력 내용은 △사회 공헌을 위한 AI 생태계 활성화 △AI 경진대회 개최를 통한 사회적 가치 실현 전문 스타트업 발굴과 일자리 창출 도모 △세미나·콘퍼런스 개최를 통한 AI 전략·정책·경험 공유 △사회적 격차 해소를 위한 AI 교육 프로그램 개발 및 콘텐츠 공유 등이다.한국MS와 NIA는 실무협의회를 구성하고, 연말까지 단계적으로 계획을 추진할 예정이다.이지은(왼쪽) 한국마이크로소프트 대표이사와 문용식 한국정보화진흥원장이 사회적 가치 실현을 위해 AI 협력을 체결하고 기념촬영하고 있다./사진제공=한국마이크로소프트문용식 NIA 원장은 “코로나19로 인한 국가적 위기를 극복하기 위해 모두 힘을 합쳐야 할 시기에 글로벌 선도 기업이 협업해 AI에 대한 새로운 방향성을 모색하고 사회적 가치를 창출하는 좋은 선례가 될 것”이라고 말했다.이지은 한국MS 대표이사는 “MS의 글로벌 경험과 AI 기술력을 바탕으로 한국정보화진흥원과 사회적 가치를 함께 창출하고, 사회의 다양한 계층이 AI 혜택을 누릴 수 있도록 협력하겠다”고 전했다. /백주원기자 jwpaik@sedaily.com[서울경제 바로가기]▶ 네이버 채널에서 '서울경제' 구독해주세요!▶ [집슐랭] 미슐랭 가이드처럼 알찬 부동산뉴스저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2227,16 +2537,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
-        <v>458</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2247,16 +2557,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
+        <v>496</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2267,16 +2577,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="E4" t="s">
-        <v>422</v>
+        <v>497</v>
       </c>
       <c r="F4" t="s">
-        <v>460</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2287,16 +2597,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E5" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="F5" t="s">
-        <v>461</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2307,16 +2617,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="F6" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2327,16 +2637,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="F7" t="s">
-        <v>463</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2347,16 +2657,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="F8" t="s">
-        <v>464</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2367,16 +2677,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
       <c r="F9" t="s">
-        <v>465</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2387,16 +2697,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="E10" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="F10" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2407,16 +2717,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="E11" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="F11" t="s">
-        <v>467</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2427,16 +2737,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="E12" t="s">
-        <v>429</v>
+        <v>504</v>
       </c>
       <c r="F12" t="s">
-        <v>468</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2447,16 +2757,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="E13" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
       <c r="F13" t="s">
-        <v>469</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2467,16 +2777,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="F14" t="s">
-        <v>470</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2487,16 +2797,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="E15" t="s">
-        <v>426</v>
+        <v>507</v>
       </c>
       <c r="F15" t="s">
-        <v>471</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2507,16 +2817,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="E16" t="s">
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="F16" t="s">
-        <v>472</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2527,16 +2837,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="E17" t="s">
-        <v>433</v>
+        <v>509</v>
       </c>
       <c r="F17" t="s">
-        <v>473</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2547,16 +2857,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="E18" t="s">
-        <v>425</v>
+        <v>510</v>
       </c>
       <c r="F18" t="s">
-        <v>474</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2567,16 +2877,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="E19" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="F19" t="s">
-        <v>475</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2587,16 +2897,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="E20" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="F20" t="s">
-        <v>476</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2607,16 +2917,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="E21" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="F21" t="s">
-        <v>477</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2627,16 +2937,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="E22" t="s">
-        <v>433</v>
+        <v>510</v>
       </c>
       <c r="F22" t="s">
-        <v>478</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2647,16 +2957,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D23" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="E23" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="F23" t="s">
-        <v>479</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2667,16 +2977,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="D24" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="E24" t="s">
-        <v>420</v>
+        <v>510</v>
       </c>
       <c r="F24" t="s">
-        <v>480</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2687,16 +2997,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="E25" t="s">
-        <v>437</v>
+        <v>509</v>
       </c>
       <c r="F25" t="s">
-        <v>481</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2707,16 +3017,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D26" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="E26" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="F26" t="s">
-        <v>482</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2727,16 +3037,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="E27" t="s">
-        <v>428</v>
+        <v>506</v>
       </c>
       <c r="F27" t="s">
-        <v>483</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2747,16 +3057,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D28" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="E28" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="F28" t="s">
-        <v>484</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2767,16 +3077,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="E29" t="s">
-        <v>438</v>
+        <v>511</v>
       </c>
       <c r="F29" t="s">
-        <v>485</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2787,16 +3097,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="E30" t="s">
-        <v>420</v>
+        <v>512</v>
       </c>
       <c r="F30" t="s">
-        <v>486</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2807,16 +3117,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="D31" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="E31" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="F31" t="s">
-        <v>487</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2827,16 +3137,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D32" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="E32" t="s">
-        <v>439</v>
+        <v>497</v>
       </c>
       <c r="F32" t="s">
-        <v>488</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2847,16 +3157,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="E33" t="s">
-        <v>437</v>
+        <v>514</v>
       </c>
       <c r="F33" t="s">
-        <v>489</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2867,16 +3177,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="D34" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="E34" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="F34" t="s">
-        <v>490</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2887,16 +3197,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="E35" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="F35" t="s">
-        <v>491</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2907,16 +3217,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="E36" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="F36" t="s">
-        <v>492</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2927,16 +3237,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="E37" t="s">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="F37" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2947,16 +3257,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="E38" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="F38" t="s">
-        <v>494</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2967,16 +3277,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="D39" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="E39" t="s">
-        <v>440</v>
+        <v>517</v>
       </c>
       <c r="F39" t="s">
-        <v>495</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2987,16 +3297,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="D40" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="E40" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="F40" t="s">
-        <v>496</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3007,16 +3317,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="D41" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="E41" t="s">
-        <v>442</v>
+        <v>519</v>
       </c>
       <c r="F41" t="s">
-        <v>497</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3027,16 +3337,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="E42" t="s">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="F42" t="s">
-        <v>498</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3047,16 +3357,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="D43" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="E43" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
       <c r="F43" t="s">
-        <v>499</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3067,16 +3377,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="E44" t="s">
-        <v>432</v>
+        <v>516</v>
       </c>
       <c r="F44" t="s">
-        <v>500</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3087,16 +3397,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="D45" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="E45" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
       <c r="F45" t="s">
-        <v>501</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3107,16 +3417,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="E46" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="F46" t="s">
-        <v>502</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3127,16 +3437,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D47" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="E47" t="s">
-        <v>428</v>
+        <v>522</v>
       </c>
       <c r="F47" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3147,16 +3457,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="D48" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="E48" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="F48" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3167,16 +3477,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="D49" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="E49" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="F49" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3187,16 +3497,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="E50" t="s">
-        <v>426</v>
+        <v>523</v>
       </c>
       <c r="F50" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3207,16 +3517,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="D51" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="E51" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="F51" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3227,16 +3537,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D52" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="E52" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="F52" t="s">
-        <v>508</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3247,16 +3557,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="D53" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="E53" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
       <c r="F53" t="s">
-        <v>509</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3267,16 +3577,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="D54" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="E54" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="F54" t="s">
-        <v>510</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3287,16 +3597,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="D55" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="E55" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
       <c r="F55" t="s">
-        <v>511</v>
+        <v>591</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3307,16 +3617,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="E56" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
       <c r="F56" t="s">
-        <v>512</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3327,16 +3637,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="E57" t="s">
-        <v>421</v>
+        <v>516</v>
       </c>
       <c r="F57" t="s">
-        <v>513</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3347,16 +3657,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="E58" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
       <c r="F58" t="s">
-        <v>514</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3367,16 +3677,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="E59" t="s">
-        <v>437</v>
+        <v>526</v>
       </c>
       <c r="F59" t="s">
-        <v>515</v>
+        <v>595</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3387,16 +3697,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="E60" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="F60" t="s">
-        <v>516</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3407,16 +3717,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="E61" t="s">
-        <v>434</v>
+        <v>523</v>
       </c>
       <c r="F61" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3427,16 +3737,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="D62" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="E62" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="F62" t="s">
-        <v>518</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3447,16 +3757,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="D63" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="E63" t="s">
-        <v>429</v>
+        <v>527</v>
       </c>
       <c r="F63" t="s">
-        <v>519</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3467,16 +3777,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="E64" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="F64" t="s">
-        <v>520</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3487,16 +3797,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D65" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="E65" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="F65" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3507,16 +3817,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="E66" t="s">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="F66" t="s">
-        <v>522</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3527,16 +3837,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="E67" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="F67" t="s">
-        <v>523</v>
+        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3547,16 +3857,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="E68" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="F68" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3567,16 +3877,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="E69" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="F69" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3587,16 +3897,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="D70" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="E70" t="s">
-        <v>425</v>
+        <v>519</v>
       </c>
       <c r="F70" t="s">
-        <v>526</v>
+        <v>606</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3607,16 +3917,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="D71" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="E71" t="s">
-        <v>428</v>
+        <v>528</v>
       </c>
       <c r="F71" t="s">
-        <v>527</v>
+        <v>607</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3627,16 +3937,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="D72" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="E72" t="s">
-        <v>421</v>
+        <v>511</v>
       </c>
       <c r="F72" t="s">
-        <v>528</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3647,16 +3957,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D73" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="E73" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="F73" t="s">
-        <v>529</v>
+        <v>609</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3667,16 +3977,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="E74" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="F74" t="s">
-        <v>530</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3687,16 +3997,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="D75" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="E75" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="F75" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3707,16 +4017,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="D76" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="E76" t="s">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="F76" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3727,16 +4037,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="D77" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="E77" t="s">
-        <v>429</v>
+        <v>519</v>
       </c>
       <c r="F77" t="s">
-        <v>533</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3747,16 +4057,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="D78" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="E78" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="F78" t="s">
-        <v>534</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3767,16 +4077,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="E79" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
       <c r="F79" t="s">
-        <v>535</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3787,16 +4097,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="E80" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
       <c r="F80" t="s">
-        <v>536</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3807,16 +4117,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="E81" t="s">
-        <v>424</v>
+        <v>532</v>
       </c>
       <c r="F81" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3827,16 +4137,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D82" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="E82" t="s">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="F82" t="s">
-        <v>538</v>
+        <v>618</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3847,16 +4157,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="D83" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="E83" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="F83" t="s">
-        <v>539</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3867,16 +4177,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="E84" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="F84" t="s">
-        <v>540</v>
+        <v>620</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3887,16 +4197,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="D85" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="E85" t="s">
-        <v>453</v>
+        <v>533</v>
       </c>
       <c r="F85" t="s">
-        <v>541</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3907,16 +4217,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="D86" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="E86" t="s">
-        <v>428</v>
+        <v>533</v>
       </c>
       <c r="F86" t="s">
-        <v>542</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3927,16 +4237,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="D87" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="E87" t="s">
-        <v>452</v>
+        <v>533</v>
       </c>
       <c r="F87" t="s">
-        <v>543</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3947,16 +4257,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="D88" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="E88" t="s">
-        <v>433</v>
+        <v>533</v>
       </c>
       <c r="F88" t="s">
-        <v>544</v>
+        <v>624</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3967,16 +4277,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="D89" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="E89" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="F89" t="s">
-        <v>545</v>
+        <v>625</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3987,16 +4297,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="D90" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="E90" t="s">
-        <v>427</v>
+        <v>508</v>
       </c>
       <c r="F90" t="s">
-        <v>546</v>
+        <v>626</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4007,16 +4317,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="D91" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="E91" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="F91" t="s">
-        <v>547</v>
+        <v>627</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4027,16 +4337,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="D92" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="E92" t="s">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="F92" t="s">
-        <v>548</v>
+        <v>628</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4047,16 +4357,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="E93" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="F93" t="s">
-        <v>549</v>
+        <v>629</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4067,16 +4377,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="D94" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="E94" t="s">
-        <v>420</v>
+        <v>533</v>
       </c>
       <c r="F94" t="s">
-        <v>550</v>
+        <v>630</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4087,16 +4397,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="D95" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="E95" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="F95" t="s">
-        <v>551</v>
+        <v>631</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4107,16 +4417,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="D96" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="E96" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="F96" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4127,16 +4437,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="D97" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="E97" t="s">
-        <v>424</v>
+        <v>516</v>
       </c>
       <c r="F97" t="s">
-        <v>553</v>
+        <v>633</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4147,16 +4457,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="D98" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="E98" t="s">
-        <v>422</v>
+        <v>529</v>
       </c>
       <c r="F98" t="s">
-        <v>554</v>
+        <v>634</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4167,16 +4477,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="D99" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="E99" t="s">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="F99" t="s">
-        <v>555</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4184,19 +4494,19 @@
         <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D100" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="E100" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="F100" t="s">
-        <v>554</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4204,19 +4514,19 @@
         <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="D101" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="E101" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="F101" t="s">
-        <v>556</v>
+        <v>637</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4224,19 +4534,19 @@
         <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="D102" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="E102" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="F102" t="s">
-        <v>557</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4244,19 +4554,19 @@
         <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="D103" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="E103" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
       <c r="F103" t="s">
-        <v>558</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4264,19 +4574,19 @@
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="D104" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="E104" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="F104" t="s">
-        <v>559</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4284,19 +4594,19 @@
         <v>103</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="D105" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="E105" t="s">
-        <v>435</v>
+        <v>534</v>
       </c>
       <c r="F105" t="s">
-        <v>560</v>
+        <v>641</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4304,19 +4614,19 @@
         <v>104</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="D106" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="E106" t="s">
-        <v>426</v>
+        <v>510</v>
       </c>
       <c r="F106" t="s">
-        <v>561</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4324,19 +4634,19 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="D107" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="E107" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="F107" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4344,19 +4654,19 @@
         <v>106</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="D108" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="E108" t="s">
-        <v>434</v>
+        <v>529</v>
       </c>
       <c r="F108" t="s">
-        <v>558</v>
+        <v>644</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4364,19 +4674,19 @@
         <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="D109" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="E109" t="s">
-        <v>430</v>
+        <v>535</v>
       </c>
       <c r="F109" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4384,19 +4694,19 @@
         <v>108</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="D110" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="E110" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="F110" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4404,19 +4714,19 @@
         <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="D111" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
       <c r="E111" t="s">
-        <v>426</v>
+        <v>527</v>
       </c>
       <c r="F111" t="s">
-        <v>561</v>
+        <v>647</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4424,19 +4734,19 @@
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="D112" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="E112" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="F112" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4444,19 +4754,19 @@
         <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="D113" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="E113" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="F113" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4464,19 +4774,19 @@
         <v>112</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="D114" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="E114" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
       <c r="F114" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4484,19 +4794,19 @@
         <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="D115" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="E115" t="s">
-        <v>440</v>
+        <v>501</v>
       </c>
       <c r="F115" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4504,19 +4814,19 @@
         <v>114</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="D116" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="E116" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="F116" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4524,19 +4834,19 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="D117" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="E117" t="s">
-        <v>429</v>
+        <v>511</v>
       </c>
       <c r="F117" t="s">
-        <v>568</v>
+        <v>653</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4544,19 +4854,19 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="D118" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="E118" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="F118" t="s">
-        <v>569</v>
+        <v>654</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4564,19 +4874,19 @@
         <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D119" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="E119" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="F119" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4584,19 +4894,19 @@
         <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="D120" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="E120" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="F120" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4604,19 +4914,19 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="D121" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="E121" t="s">
-        <v>457</v>
+        <v>496</v>
       </c>
       <c r="F121" t="s">
-        <v>572</v>
+        <v>657</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4624,19 +4934,19 @@
         <v>120</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="D122" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="E122" t="s">
-        <v>457</v>
+        <v>503</v>
       </c>
       <c r="F122" t="s">
-        <v>573</v>
+        <v>658</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4644,19 +4954,19 @@
         <v>121</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="D123" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="E123" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="F123" t="s">
-        <v>574</v>
+        <v>659</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4664,19 +4974,19 @@
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="D124" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="E124" t="s">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="F124" t="s">
-        <v>575</v>
+        <v>660</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4684,19 +4994,19 @@
         <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="D125" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="E125" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="F125" t="s">
-        <v>576</v>
+        <v>661</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4704,19 +5014,19 @@
         <v>124</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="D126" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="E126" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="F126" t="s">
-        <v>577</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4724,19 +5034,19 @@
         <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="D127" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="E127" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
       <c r="F127" t="s">
-        <v>578</v>
+        <v>663</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4744,19 +5054,19 @@
         <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D128" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="E128" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="F128" t="s">
-        <v>579</v>
+        <v>664</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4764,19 +5074,19 @@
         <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="D129" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="E129" t="s">
-        <v>421</v>
+        <v>524</v>
       </c>
       <c r="F129" t="s">
-        <v>580</v>
+        <v>665</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4784,19 +5094,19 @@
         <v>128</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="D130" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="E130" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="F130" t="s">
-        <v>581</v>
+        <v>666</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4804,19 +5114,19 @@
         <v>129</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="D131" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="E131" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="F131" t="s">
-        <v>582</v>
+        <v>667</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4824,19 +5134,19 @@
         <v>130</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="D132" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="E132" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="F132" t="s">
-        <v>583</v>
+        <v>668</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4844,19 +5154,19 @@
         <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="D133" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="E133" t="s">
-        <v>444</v>
+        <v>529</v>
       </c>
       <c r="F133" t="s">
-        <v>584</v>
+        <v>669</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4864,19 +5174,19 @@
         <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="D134" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="E134" t="s">
-        <v>442</v>
+        <v>532</v>
       </c>
       <c r="F134" t="s">
-        <v>585</v>
+        <v>670</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4884,19 +5194,19 @@
         <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="D135" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="E135" t="s">
-        <v>437</v>
+        <v>536</v>
       </c>
       <c r="F135" t="s">
-        <v>586</v>
+        <v>671</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4904,19 +5214,19 @@
         <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="D136" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="E136" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="F136" t="s">
-        <v>587</v>
+        <v>672</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4924,19 +5234,19 @@
         <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="D137" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="E137" t="s">
-        <v>428</v>
+        <v>537</v>
       </c>
       <c r="F137" t="s">
-        <v>588</v>
+        <v>673</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4944,19 +5254,19 @@
         <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="D138" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="E138" t="s">
-        <v>426</v>
+        <v>525</v>
       </c>
       <c r="F138" t="s">
-        <v>589</v>
+        <v>674</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4964,19 +5274,19 @@
         <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="D139" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
       <c r="E139" t="s">
-        <v>425</v>
+        <v>536</v>
       </c>
       <c r="F139" t="s">
-        <v>590</v>
+        <v>675</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4984,19 +5294,19 @@
         <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="D140" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="E140" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
       <c r="F140" t="s">
-        <v>591</v>
+        <v>676</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5004,19 +5314,19 @@
         <v>139</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="D141" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="E141" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="F141" t="s">
-        <v>592</v>
+        <v>677</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5024,19 +5334,19 @@
         <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="D142" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="E142" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="F142" t="s">
-        <v>593</v>
+        <v>678</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5044,19 +5354,19 @@
         <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="D143" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="E143" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="F143" t="s">
-        <v>594</v>
+        <v>679</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5064,19 +5374,19 @@
         <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="D144" t="s">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="E144" t="s">
-        <v>422</v>
+        <v>533</v>
       </c>
       <c r="F144" t="s">
-        <v>595</v>
+        <v>680</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5084,19 +5394,19 @@
         <v>143</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="D145" t="s">
-        <v>412</v>
+        <v>472</v>
       </c>
       <c r="E145" t="s">
-        <v>422</v>
+        <v>511</v>
       </c>
       <c r="F145" t="s">
-        <v>596</v>
+        <v>681</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5104,19 +5414,19 @@
         <v>144</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="D146" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="E146" t="s">
-        <v>429</v>
+        <v>529</v>
       </c>
       <c r="F146" t="s">
-        <v>597</v>
+        <v>682</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5124,19 +5434,19 @@
         <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="D147" t="s">
-        <v>414</v>
+        <v>474</v>
       </c>
       <c r="E147" t="s">
-        <v>432</v>
+        <v>523</v>
       </c>
       <c r="F147" t="s">
-        <v>598</v>
+        <v>683</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5144,19 +5454,19 @@
         <v>146</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="D148" t="s">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="E148" t="s">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="F148" t="s">
-        <v>599</v>
+        <v>684</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5164,19 +5474,19 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="D149" t="s">
-        <v>416</v>
+        <v>476</v>
       </c>
       <c r="E149" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
       <c r="F149" t="s">
-        <v>600</v>
+        <v>685</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5184,19 +5494,19 @@
         <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="D150" t="s">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="E150" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="F150" t="s">
-        <v>601</v>
+        <v>686</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5204,19 +5514,19 @@
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="D151" t="s">
-        <v>418</v>
+        <v>478</v>
       </c>
       <c r="E151" t="s">
-        <v>428</v>
+        <v>527</v>
       </c>
       <c r="F151" t="s">
-        <v>602</v>
+        <v>687</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5224,19 +5534,379 @@
         <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="D152" t="s">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="E152" t="s">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="F152" t="s">
-        <v>603</v>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153" t="s">
+        <v>323</v>
+      </c>
+      <c r="D153" t="s">
+        <v>480</v>
+      </c>
+      <c r="E153" t="s">
+        <v>499</v>
+      </c>
+      <c r="F153" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" t="s">
+        <v>324</v>
+      </c>
+      <c r="D154" t="s">
+        <v>481</v>
+      </c>
+      <c r="E154" t="s">
+        <v>497</v>
+      </c>
+      <c r="F154" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155" t="s">
+        <v>325</v>
+      </c>
+      <c r="D155" t="s">
+        <v>482</v>
+      </c>
+      <c r="E155" t="s">
+        <v>510</v>
+      </c>
+      <c r="F155" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" t="s">
+        <v>326</v>
+      </c>
+      <c r="D156" t="s">
+        <v>483</v>
+      </c>
+      <c r="E156" t="s">
+        <v>503</v>
+      </c>
+      <c r="F156" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" t="s">
+        <v>327</v>
+      </c>
+      <c r="D157" t="s">
+        <v>484</v>
+      </c>
+      <c r="E157" t="s">
+        <v>497</v>
+      </c>
+      <c r="F157" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158" t="s">
+        <v>328</v>
+      </c>
+      <c r="D158" t="s">
+        <v>485</v>
+      </c>
+      <c r="E158" t="s">
+        <v>510</v>
+      </c>
+      <c r="F158" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159" t="s">
+        <v>329</v>
+      </c>
+      <c r="D159" t="s">
+        <v>485</v>
+      </c>
+      <c r="E159" t="s">
+        <v>511</v>
+      </c>
+      <c r="F159" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160" t="s">
+        <v>330</v>
+      </c>
+      <c r="D160" t="s">
+        <v>486</v>
+      </c>
+      <c r="E160" t="s">
+        <v>500</v>
+      </c>
+      <c r="F160" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161" t="s">
+        <v>331</v>
+      </c>
+      <c r="D161" t="s">
+        <v>487</v>
+      </c>
+      <c r="E161" t="s">
+        <v>525</v>
+      </c>
+      <c r="F161" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162" t="s">
+        <v>332</v>
+      </c>
+      <c r="D162" t="s">
+        <v>488</v>
+      </c>
+      <c r="E162" t="s">
+        <v>528</v>
+      </c>
+      <c r="F162" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163" t="s">
+        <v>333</v>
+      </c>
+      <c r="D163" t="s">
+        <v>489</v>
+      </c>
+      <c r="E163" t="s">
+        <v>506</v>
+      </c>
+      <c r="F163" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164" t="s">
+        <v>334</v>
+      </c>
+      <c r="D164" t="s">
+        <v>490</v>
+      </c>
+      <c r="E164" t="s">
+        <v>528</v>
+      </c>
+      <c r="F164" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" t="s">
+        <v>335</v>
+      </c>
+      <c r="D165" t="s">
+        <v>490</v>
+      </c>
+      <c r="E165" t="s">
+        <v>516</v>
+      </c>
+      <c r="F165" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166" t="s">
+        <v>336</v>
+      </c>
+      <c r="D166" t="s">
+        <v>491</v>
+      </c>
+      <c r="E166" t="s">
+        <v>500</v>
+      </c>
+      <c r="F166" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167" t="s">
+        <v>337</v>
+      </c>
+      <c r="D167" t="s">
+        <v>492</v>
+      </c>
+      <c r="E167" t="s">
+        <v>511</v>
+      </c>
+      <c r="F167" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C168" t="s">
+        <v>338</v>
+      </c>
+      <c r="D168" t="s">
+        <v>493</v>
+      </c>
+      <c r="E168" t="s">
+        <v>525</v>
+      </c>
+      <c r="F168" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169" t="s">
+        <v>339</v>
+      </c>
+      <c r="D169" t="s">
+        <v>494</v>
+      </c>
+      <c r="E169" t="s">
+        <v>529</v>
+      </c>
+      <c r="F169" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170" t="s">
+        <v>340</v>
+      </c>
+      <c r="D170" t="s">
+        <v>495</v>
+      </c>
+      <c r="E170" t="s">
+        <v>499</v>
+      </c>
+      <c r="F170" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -5392,6 +6062,24 @@
     <hyperlink ref="B150" r:id="rId149"/>
     <hyperlink ref="B151" r:id="rId150"/>
     <hyperlink ref="B152" r:id="rId151"/>
+    <hyperlink ref="B153" r:id="rId152"/>
+    <hyperlink ref="B154" r:id="rId153"/>
+    <hyperlink ref="B155" r:id="rId154"/>
+    <hyperlink ref="B156" r:id="rId155"/>
+    <hyperlink ref="B157" r:id="rId156"/>
+    <hyperlink ref="B158" r:id="rId157"/>
+    <hyperlink ref="B159" r:id="rId158"/>
+    <hyperlink ref="B160" r:id="rId159"/>
+    <hyperlink ref="B161" r:id="rId160"/>
+    <hyperlink ref="B162" r:id="rId161"/>
+    <hyperlink ref="B163" r:id="rId162"/>
+    <hyperlink ref="B164" r:id="rId163"/>
+    <hyperlink ref="B165" r:id="rId164"/>
+    <hyperlink ref="B166" r:id="rId165"/>
+    <hyperlink ref="B167" r:id="rId166"/>
+    <hyperlink ref="B168" r:id="rId167"/>
+    <hyperlink ref="B169" r:id="rId168"/>
+    <hyperlink ref="B170" r:id="rId169"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
